--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M20-winx64\webapps\h5game\h5文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M20-winx64\webapps\h5game\h5文档\理财\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4月份" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="费用开支" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="197">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1051,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每天收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1104,10 +1101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均每天万份收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>票票喵第12007期(新)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,19 +1133,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我家家用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我家话费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1192,20 +1173,154 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>京东金融000545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车油费</t>
+  </si>
+  <si>
+    <t>汽车年审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚊子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/11~2018/7/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱时代豪华版2(年)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财范(年)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票票喵第12007期(月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票票喵新手标第11415期(季)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱时代豪华版(周)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头金融理财(月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月20号，2018-7-2到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝(30000)(应急)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计年化收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计年化收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天万份收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.0000%"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="[Red]#,##0.0000;[Green]\-#,##0.0000"/>
     <numFmt numFmtId="179" formatCode="[Red]#,##0.0000%;[Green]\-#,##0.0000%"/>
     <numFmt numFmtId="180" formatCode="[Red]#,##0.00;[Green]\-#,##0.00"/>
     <numFmt numFmtId="181" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,8 +1571,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1530,8 +1703,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1714,13 +1899,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1988,199 +2255,436 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2503,7 +3007,7 @@
       <selection activeCell="L153" sqref="L153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2519,7 +3023,7 @@
     <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.5" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +3043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3">
         <v>42832</v>
       </c>
@@ -2556,12 +3060,12 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="143">
+      <c r="F2" s="179">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>42832</v>
       </c>
@@ -2578,17 +3082,17 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="144"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="180"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="144"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="180"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -2607,8 +3111,8 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" thickTop="1"/>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -2646,8 +3150,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="158" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2677,17 +3181,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="139">
+      <c r="K8" s="175">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="139">
+      <c r="L8" s="175">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="159"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2715,11 +3219,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="125"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="159"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2749,11 +3253,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="125"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.5">
+      <c r="A11" s="159"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -2781,11 +3285,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="125"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="159"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -2813,11 +3317,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="125"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.5">
+      <c r="A13" s="159"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -2847,11 +3351,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="125"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" s="159"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -2881,11 +3385,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="125"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="159"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -2913,11 +3417,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A16" s="160"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -2946,10 +3450,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-    </row>
-    <row r="17" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+    </row>
+    <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
         <v>39</v>
       </c>
@@ -2985,11 +3489,11 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15" thickTop="1">
       <c r="F18"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
@@ -3027,8 +3531,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="124" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="158" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -3060,17 +3564,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="174">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="138">
+      <c r="L20" s="174">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="125"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="159"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -3100,11 +3604,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-    </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+    </row>
+    <row r="22" spans="1:12" ht="28.5">
+      <c r="A22" s="159"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -3134,11 +3638,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="125"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="159"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -3168,11 +3672,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="125"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="159"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -3202,11 +3706,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-    </row>
-    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="125"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+    </row>
+    <row r="25" spans="1:12" ht="25.5">
+      <c r="A25" s="159"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3236,11 +3740,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="125"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
+      <c r="A26" s="159"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -3270,11 +3774,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="125"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="159"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -3304,11 +3808,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-    </row>
-    <row r="28" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+    </row>
+    <row r="28" spans="1:12" ht="26.25" thickBot="1">
+      <c r="A28" s="160"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -3338,10 +3842,10 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-    </row>
-    <row r="29" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
+    </row>
+    <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
         <v>40</v>
       </c>
@@ -3384,8 +3888,8 @@
         <v>443.90681002442477</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" thickTop="1"/>
+    <row r="31" spans="1:12" ht="16.5" thickBot="1">
       <c r="A31" s="10" t="s">
         <v>0</v>
       </c>
@@ -3423,8 +3927,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="124" t="s">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A32" s="158" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -3456,17 +3960,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="135">
+      <c r="K32" s="171">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="138">
+      <c r="L32" s="174">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="125"/>
+    <row r="33" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A33" s="159"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -3496,11 +4000,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-    </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="125"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+    </row>
+    <row r="34" spans="1:12" ht="28.5">
+      <c r="A34" s="159"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -3530,11 +4034,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-    </row>
-    <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="125"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="172"/>
+    </row>
+    <row r="35" spans="1:12" ht="25.5">
+      <c r="A35" s="159"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -3564,11 +4068,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="125"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="172"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A36" s="159"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -3598,12 +4102,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
-    </row>
-    <row r="37" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="125"/>
-      <c r="B37" s="130" t="s">
+      <c r="K36" s="172"/>
+      <c r="L36" s="172"/>
+    </row>
+    <row r="37" spans="1:12" ht="25.5">
+      <c r="A37" s="159"/>
+      <c r="B37" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -3632,12 +4136,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="125"/>
-      <c r="B38" s="131"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="172"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A38" s="159"/>
+      <c r="B38" s="165"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -3664,12 +4168,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="125"/>
-      <c r="B39" s="132"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="159"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -3696,12 +4200,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-    </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="133" t="s">
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+    </row>
+    <row r="40" spans="1:12" ht="28.5">
+      <c r="A40" s="159"/>
+      <c r="B40" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -3730,12 +4234,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-    </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="125"/>
-      <c r="B41" s="134"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="172"/>
+    </row>
+    <row r="41" spans="1:12" ht="28.5">
+      <c r="A41" s="159"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -3755,11 +4259,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-    </row>
-    <row r="42" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+    </row>
+    <row r="42" spans="1:12" ht="29.25" thickBot="1">
+      <c r="A42" s="160"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -3789,10 +4293,10 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
-    </row>
-    <row r="43" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+    </row>
+    <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
         <v>54</v>
       </c>
@@ -3835,8 +4339,8 @@
         <v>621.40664356974912</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15" thickTop="1"/>
+    <row r="45" spans="1:12" ht="16.5" thickBot="1">
       <c r="A45" s="10" t="s">
         <v>0</v>
       </c>
@@ -3874,8 +4378,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="124" t="s">
+    <row r="46" spans="1:12" ht="28.5">
+      <c r="A46" s="158" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -3907,17 +4411,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="135">
+      <c r="K46" s="171">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="138">
+      <c r="L46" s="174">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="125"/>
+    <row r="47" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A47" s="159"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -3947,11 +4451,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="136"/>
-      <c r="L47" s="136"/>
-    </row>
-    <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="125"/>
+      <c r="K47" s="172"/>
+      <c r="L47" s="172"/>
+    </row>
+    <row r="48" spans="1:12" ht="25.5">
+      <c r="A48" s="159"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -3981,11 +4485,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="125"/>
+      <c r="K48" s="172"/>
+      <c r="L48" s="172"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="159"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -4015,11 +4519,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-    </row>
-    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="125"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="172"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A50" s="159"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -4049,12 +4553,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-    </row>
-    <row r="51" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="125"/>
-      <c r="B51" s="130" t="s">
+      <c r="K50" s="172"/>
+      <c r="L50" s="172"/>
+    </row>
+    <row r="51" spans="1:13" ht="25.5">
+      <c r="A51" s="159"/>
+      <c r="B51" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -4083,12 +4587,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="125"/>
-      <c r="B52" s="131"/>
+      <c r="K51" s="172"/>
+      <c r="L51" s="172"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A52" s="159"/>
+      <c r="B52" s="165"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -4115,12 +4619,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="136"/>
-      <c r="L52" s="136"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="125"/>
-      <c r="B53" s="132"/>
+      <c r="K52" s="172"/>
+      <c r="L52" s="172"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A53" s="159"/>
+      <c r="B53" s="166"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -4147,12 +4651,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-    </row>
-    <row r="54" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="125"/>
-      <c r="B54" s="133" t="s">
+      <c r="K53" s="172"/>
+      <c r="L53" s="172"/>
+    </row>
+    <row r="54" spans="1:13" ht="28.5">
+      <c r="A54" s="159"/>
+      <c r="B54" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -4181,12 +4685,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-    </row>
-    <row r="55" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="125"/>
-      <c r="B55" s="134"/>
+      <c r="K54" s="172"/>
+      <c r="L54" s="172"/>
+    </row>
+    <row r="55" spans="1:13" ht="28.5">
+      <c r="A55" s="159"/>
+      <c r="B55" s="157"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -4213,11 +4717,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-    </row>
-    <row r="56" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="126"/>
+      <c r="K55" s="172"/>
+      <c r="L55" s="172"/>
+    </row>
+    <row r="56" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A56" s="160"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -4247,10 +4751,10 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="137"/>
-      <c r="L56" s="137"/>
-    </row>
-    <row r="57" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="173"/>
+      <c r="L56" s="173"/>
+    </row>
+    <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
         <v>72</v>
       </c>
@@ -4295,8 +4799,8 @@
         <v>1467.1507709708922</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15" thickTop="1"/>
+    <row r="59" spans="1:13" ht="16.5" thickBot="1">
       <c r="A59" s="10" t="s">
         <v>0</v>
       </c>
@@ -4337,8 +4841,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="124" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="158" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -4370,11 +4874,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="127">
+      <c r="K60" s="161">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="127">
+      <c r="L60" s="161">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -4382,8 +4886,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="125"/>
+    <row r="61" spans="1:13">
+      <c r="A61" s="159"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -4413,12 +4917,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="128"/>
-      <c r="L61" s="128"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="162"/>
       <c r="M61" s="84"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="125"/>
+    <row r="62" spans="1:13" ht="15.75">
+      <c r="A62" s="159"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -4448,14 +4952,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="128"/>
-      <c r="L62" s="128"/>
+      <c r="K62" s="162"/>
+      <c r="L62" s="162"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="125"/>
+    <row r="63" spans="1:13">
+      <c r="A63" s="159"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -4485,12 +4989,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="128"/>
-      <c r="L63" s="128"/>
+      <c r="K63" s="162"/>
+      <c r="L63" s="162"/>
       <c r="M63" s="84"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="125"/>
+    <row r="64" spans="1:13">
+      <c r="A64" s="159"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -4520,13 +5024,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="128"/>
-      <c r="L64" s="128"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="162"/>
       <c r="M64" s="84"/>
     </row>
-    <row r="65" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="125"/>
-      <c r="B65" s="130" t="s">
+    <row r="65" spans="1:13" ht="25.5">
+      <c r="A65" s="159"/>
+      <c r="B65" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -4555,13 +5059,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="128"/>
-      <c r="L65" s="128"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="162"/>
       <c r="M65" s="84"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="125"/>
-      <c r="B66" s="131"/>
+    <row r="66" spans="1:13">
+      <c r="A66" s="159"/>
+      <c r="B66" s="165"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -4588,15 +5092,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="128"/>
-      <c r="L66" s="128"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="162"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="125"/>
-      <c r="B67" s="132"/>
+    <row r="67" spans="1:13">
+      <c r="A67" s="159"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -4623,13 +5127,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="128"/>
-      <c r="L67" s="128"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="162"/>
       <c r="M67" s="84"/>
     </row>
-    <row r="68" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="125"/>
-      <c r="B68" s="133" t="s">
+    <row r="68" spans="1:13" ht="28.5">
+      <c r="A68" s="159"/>
+      <c r="B68" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -4658,15 +5162,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="128"/>
-      <c r="L68" s="128"/>
+      <c r="K68" s="162"/>
+      <c r="L68" s="162"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="125"/>
-      <c r="B69" s="134"/>
+    <row r="69" spans="1:13" ht="28.5">
+      <c r="A69" s="159"/>
+      <c r="B69" s="157"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -4693,14 +5197,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="128"/>
-      <c r="L69" s="128"/>
+      <c r="K69" s="162"/>
+      <c r="L69" s="162"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="126"/>
+    <row r="70" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A70" s="160"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -4730,11 +5234,11 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="129"/>
-      <c r="L70" s="129"/>
+      <c r="K70" s="163"/>
+      <c r="L70" s="163"/>
       <c r="M70" s="84"/>
     </row>
-    <row r="71" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="21" thickBot="1">
       <c r="A71" s="29" t="s">
         <v>79</v>
       </c>
@@ -4780,8 +5284,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15" thickTop="1"/>
+    <row r="73" spans="1:13" ht="16.5" thickBot="1">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
@@ -4822,8 +5326,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="124" t="s">
+    <row r="74" spans="1:13">
+      <c r="A74" s="158" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -4855,11 +5359,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="127">
+      <c r="K74" s="161">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="127">
+      <c r="L74" s="161">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -4867,8 +5371,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="125"/>
+    <row r="75" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A75" s="159"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -4898,12 +5402,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="128"/>
-      <c r="L75" s="128"/>
+      <c r="K75" s="162"/>
+      <c r="L75" s="162"/>
       <c r="M75" s="84"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="125"/>
+    <row r="76" spans="1:13" ht="15.75">
+      <c r="A76" s="159"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -4933,14 +5437,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="128"/>
-      <c r="L76" s="128"/>
+      <c r="K76" s="162"/>
+      <c r="L76" s="162"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="125"/>
+    <row r="77" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A77" s="159"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -4970,12 +5474,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="128"/>
-      <c r="L77" s="128"/>
+      <c r="K77" s="162"/>
+      <c r="L77" s="162"/>
       <c r="M77" s="84"/>
     </row>
-    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="125"/>
+    <row r="78" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A78" s="159"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -5005,13 +5509,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="128"/>
-      <c r="L78" s="128"/>
+      <c r="K78" s="162"/>
+      <c r="L78" s="162"/>
       <c r="M78" s="84"/>
     </row>
-    <row r="79" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="125"/>
-      <c r="B79" s="130" t="s">
+    <row r="79" spans="1:13" ht="25.5">
+      <c r="A79" s="159"/>
+      <c r="B79" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -5040,13 +5544,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="128"/>
-      <c r="L79" s="128"/>
+      <c r="K79" s="162"/>
+      <c r="L79" s="162"/>
       <c r="M79" s="84"/>
     </row>
-    <row r="80" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="125"/>
-      <c r="B80" s="131"/>
+    <row r="80" spans="1:13" ht="22.5">
+      <c r="A80" s="159"/>
+      <c r="B80" s="165"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -5072,15 +5576,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="128"/>
-      <c r="L80" s="128"/>
+      <c r="K80" s="162"/>
+      <c r="L80" s="162"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="125"/>
-      <c r="B81" s="131"/>
+    <row r="81" spans="1:13">
+      <c r="A81" s="159"/>
+      <c r="B81" s="165"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -5107,15 +5611,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="128"/>
-      <c r="L81" s="128"/>
+      <c r="K81" s="162"/>
+      <c r="L81" s="162"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="125"/>
-      <c r="B82" s="132"/>
+    <row r="82" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A82" s="159"/>
+      <c r="B82" s="166"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -5142,13 +5646,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="128"/>
-      <c r="L82" s="128"/>
+      <c r="K82" s="162"/>
+      <c r="L82" s="162"/>
       <c r="M82" s="84"/>
     </row>
-    <row r="83" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="125"/>
-      <c r="B83" s="133" t="s">
+    <row r="83" spans="1:13" ht="28.5">
+      <c r="A83" s="159"/>
+      <c r="B83" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -5177,15 +5681,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="128"/>
-      <c r="L83" s="128"/>
+      <c r="K83" s="162"/>
+      <c r="L83" s="162"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="125"/>
-      <c r="B84" s="134"/>
+    <row r="84" spans="1:13" ht="28.5">
+      <c r="A84" s="159"/>
+      <c r="B84" s="157"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -5212,14 +5716,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="128"/>
-      <c r="L84" s="128"/>
+      <c r="K84" s="162"/>
+      <c r="L84" s="162"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="126"/>
+    <row r="85" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A85" s="160"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -5249,11 +5753,11 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="129"/>
-      <c r="L85" s="129"/>
+      <c r="K85" s="163"/>
+      <c r="L85" s="163"/>
       <c r="M85" s="84"/>
     </row>
-    <row r="86" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="18.75" thickBot="1">
       <c r="A86" s="29" t="s">
         <v>81</v>
       </c>
@@ -5298,8 +5802,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15" thickTop="1"/>
+    <row r="88" spans="1:13" ht="16.5" thickBot="1">
       <c r="A88" s="10" t="s">
         <v>0</v>
       </c>
@@ -5340,8 +5844,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="124" t="s">
+    <row r="89" spans="1:13">
+      <c r="A89" s="158" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -5373,11 +5877,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="127">
+      <c r="K89" s="161">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="127">
+      <c r="L89" s="161">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -5385,8 +5889,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="125"/>
+    <row r="90" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A90" s="159"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -5416,12 +5920,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="128"/>
-      <c r="L90" s="128"/>
+      <c r="K90" s="162"/>
+      <c r="L90" s="162"/>
       <c r="M90" s="84"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="125"/>
+    <row r="91" spans="1:13" ht="15.75">
+      <c r="A91" s="159"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -5451,14 +5955,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="128"/>
-      <c r="L91" s="128"/>
+      <c r="K91" s="162"/>
+      <c r="L91" s="162"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="125"/>
+    <row r="92" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A92" s="159"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -5488,14 +5992,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="128"/>
-      <c r="L92" s="128"/>
+      <c r="K92" s="162"/>
+      <c r="L92" s="162"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="125"/>
+    <row r="93" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A93" s="159"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -5525,13 +6029,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="128"/>
-      <c r="L93" s="128"/>
+      <c r="K93" s="162"/>
+      <c r="L93" s="162"/>
       <c r="M93" s="84"/>
     </row>
-    <row r="94" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="125"/>
-      <c r="B94" s="130" t="s">
+    <row r="94" spans="1:13" ht="25.5">
+      <c r="A94" s="159"/>
+      <c r="B94" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -5560,15 +6064,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="128"/>
-      <c r="L94" s="128"/>
+      <c r="K94" s="162"/>
+      <c r="L94" s="162"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="125"/>
-      <c r="B95" s="131"/>
+    <row r="95" spans="1:13">
+      <c r="A95" s="159"/>
+      <c r="B95" s="165"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -5595,15 +6099,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="128"/>
-      <c r="L95" s="128"/>
+      <c r="K95" s="162"/>
+      <c r="L95" s="162"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="125"/>
-      <c r="B96" s="132"/>
+    <row r="96" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A96" s="159"/>
+      <c r="B96" s="166"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -5630,13 +6134,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="128"/>
-      <c r="L96" s="128"/>
+      <c r="K96" s="162"/>
+      <c r="L96" s="162"/>
       <c r="M96" s="84"/>
     </row>
-    <row r="97" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="125"/>
-      <c r="B97" s="133" t="s">
+    <row r="97" spans="1:13" ht="28.5">
+      <c r="A97" s="159"/>
+      <c r="B97" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -5665,15 +6169,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="128"/>
-      <c r="L97" s="128"/>
+      <c r="K97" s="162"/>
+      <c r="L97" s="162"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="125"/>
-      <c r="B98" s="134"/>
+    <row r="98" spans="1:13" ht="28.5">
+      <c r="A98" s="159"/>
+      <c r="B98" s="157"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -5700,14 +6204,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="128"/>
-      <c r="L98" s="128"/>
+      <c r="K98" s="162"/>
+      <c r="L98" s="162"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="126"/>
+    <row r="99" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A99" s="160"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -5737,13 +6241,13 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="129"/>
-      <c r="L99" s="129"/>
+      <c r="K99" s="163"/>
+      <c r="L99" s="163"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="18.75" thickBot="1">
       <c r="A100" s="29" t="s">
         <v>104</v>
       </c>
@@ -5788,8 +6292,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15" thickTop="1"/>
+    <row r="102" spans="1:13" ht="16.5" thickBot="1">
       <c r="A102" s="10" t="s">
         <v>0</v>
       </c>
@@ -5830,8 +6334,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="124" t="s">
+    <row r="103" spans="1:13">
+      <c r="A103" s="158" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -5863,11 +6367,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="127">
+      <c r="K103" s="161">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="127">
+      <c r="L103" s="161">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -5875,8 +6379,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="125"/>
+    <row r="104" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A104" s="159"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -5906,12 +6410,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="128"/>
-      <c r="L104" s="128"/>
+      <c r="K104" s="162"/>
+      <c r="L104" s="162"/>
       <c r="M104" s="84"/>
     </row>
-    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="125"/>
+    <row r="105" spans="1:13" ht="15.75">
+      <c r="A105" s="159"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -5941,14 +6445,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="128"/>
-      <c r="L105" s="128"/>
+      <c r="K105" s="162"/>
+      <c r="L105" s="162"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="125"/>
+    <row r="106" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A106" s="159"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -5977,14 +6481,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="128"/>
-      <c r="L106" s="128"/>
+      <c r="K106" s="162"/>
+      <c r="L106" s="162"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="125"/>
+    <row r="107" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A107" s="159"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -6014,13 +6518,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="128"/>
-      <c r="L107" s="128"/>
+      <c r="K107" s="162"/>
+      <c r="L107" s="162"/>
       <c r="M107" s="84"/>
     </row>
-    <row r="108" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="125"/>
-      <c r="B108" s="130" t="s">
+    <row r="108" spans="1:13" ht="25.5">
+      <c r="A108" s="159"/>
+      <c r="B108" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -6049,15 +6553,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="128"/>
-      <c r="L108" s="128"/>
+      <c r="K108" s="162"/>
+      <c r="L108" s="162"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="125"/>
-      <c r="B109" s="131"/>
+    <row r="109" spans="1:13">
+      <c r="A109" s="159"/>
+      <c r="B109" s="165"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -6084,15 +6588,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="128"/>
-      <c r="L109" s="128"/>
+      <c r="K109" s="162"/>
+      <c r="L109" s="162"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="125"/>
-      <c r="B110" s="132"/>
+    <row r="110" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A110" s="159"/>
+      <c r="B110" s="166"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -6119,13 +6623,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="128"/>
-      <c r="L110" s="128"/>
+      <c r="K110" s="162"/>
+      <c r="L110" s="162"/>
       <c r="M110" s="84"/>
     </row>
-    <row r="111" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="125"/>
-      <c r="B111" s="133" t="s">
+    <row r="111" spans="1:13" ht="28.5">
+      <c r="A111" s="159"/>
+      <c r="B111" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -6154,15 +6658,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="128"/>
-      <c r="L111" s="128"/>
+      <c r="K111" s="162"/>
+      <c r="L111" s="162"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="125"/>
-      <c r="B112" s="134"/>
+    <row r="112" spans="1:13" ht="28.5">
+      <c r="A112" s="159"/>
+      <c r="B112" s="157"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -6189,14 +6693,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="128"/>
-      <c r="L112" s="128"/>
+      <c r="K112" s="162"/>
+      <c r="L112" s="162"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="126"/>
+    <row r="113" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A113" s="160"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -6226,13 +6730,13 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="129"/>
-      <c r="L113" s="129"/>
+      <c r="K113" s="163"/>
+      <c r="L113" s="163"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="18.75" thickBot="1">
       <c r="A114" s="29" t="s">
         <v>114</v>
       </c>
@@ -6277,8 +6781,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15" thickTop="1"/>
+    <row r="116" spans="1:13" ht="16.5" thickBot="1">
       <c r="A116" s="10" t="s">
         <v>0</v>
       </c>
@@ -6319,8 +6823,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="124" t="s">
+    <row r="117" spans="1:13">
+      <c r="A117" s="158" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -6352,11 +6856,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="127">
+      <c r="K117" s="161">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="127">
+      <c r="L117" s="161">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -6364,8 +6868,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="125"/>
+    <row r="118" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A118" s="159"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -6395,12 +6899,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="128"/>
-      <c r="L118" s="128"/>
+      <c r="K118" s="162"/>
+      <c r="L118" s="162"/>
       <c r="M118" s="84"/>
     </row>
-    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="125"/>
+    <row r="119" spans="1:13" ht="15.75">
+      <c r="A119" s="159"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -6430,14 +6934,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="128"/>
-      <c r="L119" s="128"/>
+      <c r="K119" s="162"/>
+      <c r="L119" s="162"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="125"/>
+    <row r="120" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A120" s="159"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -6467,13 +6971,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="128"/>
-      <c r="L120" s="128"/>
+      <c r="K120" s="162"/>
+      <c r="L120" s="162"/>
       <c r="M120" s="84"/>
     </row>
-    <row r="121" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="125"/>
-      <c r="B121" s="130" t="s">
+    <row r="121" spans="1:13" ht="25.5">
+      <c r="A121" s="159"/>
+      <c r="B121" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -6502,15 +7006,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="128"/>
-      <c r="L121" s="128"/>
+      <c r="K121" s="162"/>
+      <c r="L121" s="162"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" s="125"/>
-      <c r="B122" s="131"/>
+    <row r="122" spans="1:13">
+      <c r="A122" s="159"/>
+      <c r="B122" s="165"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -6537,15 +7041,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="128"/>
-      <c r="L122" s="128"/>
+      <c r="K122" s="162"/>
+      <c r="L122" s="162"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="125"/>
-      <c r="B123" s="132"/>
+    <row r="123" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A123" s="159"/>
+      <c r="B123" s="166"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -6572,13 +7076,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="128"/>
-      <c r="L123" s="128"/>
+      <c r="K123" s="162"/>
+      <c r="L123" s="162"/>
       <c r="M123" s="84"/>
     </row>
-    <row r="124" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="125"/>
-      <c r="B124" s="133" t="s">
+    <row r="124" spans="1:13" ht="28.5">
+      <c r="A124" s="159"/>
+      <c r="B124" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -6607,15 +7111,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="128"/>
-      <c r="L124" s="128"/>
+      <c r="K124" s="162"/>
+      <c r="L124" s="162"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="125"/>
-      <c r="B125" s="134"/>
+    <row r="125" spans="1:13" ht="28.5">
+      <c r="A125" s="159"/>
+      <c r="B125" s="157"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -6642,14 +7146,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="128"/>
-      <c r="L125" s="128"/>
+      <c r="K125" s="162"/>
+      <c r="L125" s="162"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="126"/>
+    <row r="126" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A126" s="160"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -6679,13 +7183,13 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="129"/>
-      <c r="L126" s="129"/>
+      <c r="K126" s="163"/>
+      <c r="L126" s="163"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="18.75" thickBot="1">
       <c r="A127" s="29" t="s">
         <v>118</v>
       </c>
@@ -6730,8 +7234,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15" thickTop="1"/>
+    <row r="129" spans="1:13" ht="16.5" thickBot="1">
       <c r="A129" s="10" t="s">
         <v>0</v>
       </c>
@@ -6772,8 +7276,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="124" t="s">
+    <row r="130" spans="1:13">
+      <c r="A130" s="158" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -6805,11 +7309,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="127">
+      <c r="K130" s="161">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="127">
+      <c r="L130" s="161">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -6817,8 +7321,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="125"/>
+    <row r="131" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A131" s="159"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -6848,12 +7352,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="128"/>
-      <c r="L131" s="128"/>
+      <c r="K131" s="162"/>
+      <c r="L131" s="162"/>
       <c r="M131" s="84"/>
     </row>
-    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="125"/>
+    <row r="132" spans="1:13" ht="15.75">
+      <c r="A132" s="159"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -6883,14 +7387,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="128"/>
-      <c r="L132" s="128"/>
+      <c r="K132" s="162"/>
+      <c r="L132" s="162"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="125"/>
+    <row r="133" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A133" s="159"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -6920,13 +7424,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="128"/>
-      <c r="L133" s="128"/>
+      <c r="K133" s="162"/>
+      <c r="L133" s="162"/>
       <c r="M133" s="84"/>
     </row>
-    <row r="134" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="125"/>
-      <c r="B134" s="130" t="s">
+    <row r="134" spans="1:13" ht="25.5">
+      <c r="A134" s="159"/>
+      <c r="B134" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -6955,15 +7459,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="128"/>
-      <c r="L134" s="128"/>
+      <c r="K134" s="162"/>
+      <c r="L134" s="162"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="125"/>
-      <c r="B135" s="131"/>
+    <row r="135" spans="1:13">
+      <c r="A135" s="159"/>
+      <c r="B135" s="165"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -6990,15 +7494,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="128"/>
-      <c r="L135" s="128"/>
+      <c r="K135" s="162"/>
+      <c r="L135" s="162"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="125"/>
-      <c r="B136" s="132"/>
+    <row r="136" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A136" s="159"/>
+      <c r="B136" s="166"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -7025,13 +7529,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="128"/>
-      <c r="L136" s="128"/>
+      <c r="K136" s="162"/>
+      <c r="L136" s="162"/>
       <c r="M136" s="84"/>
     </row>
-    <row r="137" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="125"/>
-      <c r="B137" s="133" t="s">
+    <row r="137" spans="1:13" ht="28.5">
+      <c r="A137" s="159"/>
+      <c r="B137" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -7060,15 +7564,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="128"/>
-      <c r="L137" s="128"/>
+      <c r="K137" s="162"/>
+      <c r="L137" s="162"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="125"/>
-      <c r="B138" s="134"/>
+    <row r="138" spans="1:13" ht="28.5">
+      <c r="A138" s="159"/>
+      <c r="B138" s="157"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -7095,14 +7599,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="128"/>
-      <c r="L138" s="128"/>
+      <c r="K138" s="162"/>
+      <c r="L138" s="162"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="126"/>
+    <row r="139" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A139" s="160"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -7132,13 +7636,13 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="129"/>
-      <c r="L139" s="129"/>
+      <c r="K139" s="163"/>
+      <c r="L139" s="163"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="18.75" thickBot="1">
       <c r="A140" s="29" t="s">
         <v>120</v>
       </c>
@@ -7183,8 +7687,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="15" thickTop="1"/>
+    <row r="142" spans="1:13" ht="16.5" thickBot="1">
       <c r="A142" s="10" t="s">
         <v>0</v>
       </c>
@@ -7225,8 +7729,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="124" t="s">
+    <row r="143" spans="1:13">
+      <c r="A143" s="158" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -7258,11 +7762,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="127">
+      <c r="K143" s="161">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="127">
+      <c r="L143" s="161">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -7270,8 +7774,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="125"/>
+    <row r="144" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A144" s="159"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7301,12 +7805,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="128"/>
-      <c r="L144" s="128"/>
+      <c r="K144" s="162"/>
+      <c r="L144" s="162"/>
       <c r="M144" s="84"/>
     </row>
-    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="125"/>
+    <row r="145" spans="1:13" ht="15.75">
+      <c r="A145" s="159"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -7336,14 +7840,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="128"/>
-      <c r="L145" s="128"/>
+      <c r="K145" s="162"/>
+      <c r="L145" s="162"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="125"/>
+    <row r="146" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A146" s="159"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -7373,13 +7877,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="128"/>
-      <c r="L146" s="128"/>
+      <c r="K146" s="162"/>
+      <c r="L146" s="162"/>
       <c r="M146" s="84"/>
     </row>
-    <row r="147" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="125"/>
-      <c r="B147" s="130" t="s">
+    <row r="147" spans="1:13" ht="25.5">
+      <c r="A147" s="159"/>
+      <c r="B147" s="164" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -7408,15 +7912,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="128"/>
-      <c r="L147" s="128"/>
+      <c r="K147" s="162"/>
+      <c r="L147" s="162"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" s="125"/>
-      <c r="B148" s="131"/>
+    <row r="148" spans="1:13">
+      <c r="A148" s="159"/>
+      <c r="B148" s="165"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -7443,15 +7947,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="128"/>
-      <c r="L148" s="128"/>
+      <c r="K148" s="162"/>
+      <c r="L148" s="162"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="125"/>
-      <c r="B149" s="132"/>
+    <row r="149" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A149" s="159"/>
+      <c r="B149" s="166"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -7478,13 +7982,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="128"/>
-      <c r="L149" s="128"/>
+      <c r="K149" s="162"/>
+      <c r="L149" s="162"/>
       <c r="M149" s="84"/>
     </row>
-    <row r="150" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="125"/>
-      <c r="B150" s="133" t="s">
+    <row r="150" spans="1:13" ht="28.5">
+      <c r="A150" s="159"/>
+      <c r="B150" s="156" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -7513,15 +8017,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="128"/>
-      <c r="L150" s="128"/>
+      <c r="K150" s="162"/>
+      <c r="L150" s="162"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="125"/>
-      <c r="B151" s="134"/>
+    <row r="151" spans="1:13" ht="28.5">
+      <c r="A151" s="159"/>
+      <c r="B151" s="157"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -7548,14 +8052,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="128"/>
-      <c r="L151" s="128"/>
+      <c r="K151" s="162"/>
+      <c r="L151" s="162"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="126"/>
+    <row r="152" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A152" s="160"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -7585,13 +8089,13 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="129"/>
-      <c r="L152" s="129"/>
+      <c r="K152" s="163"/>
+      <c r="L152" s="163"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="18.75" thickBot="1">
       <c r="A153" s="29" t="s">
         <v>122</v>
       </c>
@@ -7636,8 +8140,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="15" thickTop="1"/>
+    <row r="155" spans="1:13" ht="16.5" thickBot="1">
       <c r="A155" s="25" t="s">
         <v>36</v>
       </c>
@@ -7659,10 +8163,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="145" t="s">
+      <c r="H155" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="146"/>
+      <c r="I155" s="168"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -7673,7 +8177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="18.75" thickBot="1">
       <c r="A156" s="27" t="s">
         <v>37</v>
       </c>
@@ -7699,11 +8203,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="147">
+      <c r="H156" s="169">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="148"/>
+      <c r="I156" s="170"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -7717,15 +8221,41 @@
         <v>1.2598352364497283</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -7742,38 +8272,12 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7783,288 +8287,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="191"/>
+      <c r="L1" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="191" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="96">
+      <c r="D2" s="94">
         <v>10000</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="94">
         <v>6.44</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="94">
         <f>D2+E2</f>
         <v>10006.44</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="97">
+      <c r="H2" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="197">
         <v>10000</v>
       </c>
       <c r="J2" s="62">
         <f t="shared" ref="J2:J3" si="0">E2/D2</f>
         <v>6.4400000000000004E-4</v>
       </c>
-      <c r="K2" s="128">
+      <c r="K2" s="186"/>
+      <c r="L2" s="187">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="L2" s="128">
-        <f>K2*365</f>
+      <c r="M2" s="187">
+        <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
-      <c r="M2" s="108">
+      <c r="N2" s="106">
         <v>42929</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="159"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="96">
         <v>10000</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="96">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F3" s="98">
+      <c r="F3" s="96">
         <f>D3+E3</f>
         <v>10004.44</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="100">
+      <c r="H3" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="197">
         <v>10000</v>
       </c>
       <c r="J3" s="62">
         <f t="shared" si="0"/>
         <v>4.4400000000000006E-4</v>
       </c>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="108">
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A4" s="159"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="99">
         <v>11041.86</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="99">
         <v>1.23</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="99">
         <f t="shared" ref="F4:F8" si="1">D4+E4</f>
         <v>11043.09</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="197">
         <v>11041.86</v>
       </c>
       <c r="J4" s="62">
         <f t="shared" ref="J4:J9" si="2">E4/D4</f>
         <v>1.1139427596437556E-4</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="84"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="125"/>
-      <c r="B5" s="130"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="84"/>
+    </row>
+    <row r="5" spans="1:14" ht="25.5">
+      <c r="A5" s="159"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="102">
         <v>7000</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="102">
         <v>1.33</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="102">
         <f t="shared" si="1"/>
         <v>7001.33</v>
       </c>
       <c r="G5" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="197">
         <v>7000</v>
       </c>
       <c r="J5" s="62">
         <f t="shared" si="2"/>
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="84" t="s">
+      <c r="K5" s="186"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="125"/>
-      <c r="B6" s="131"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="159"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="102">
         <v>1000</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="102">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="102">
         <f t="shared" si="1"/>
         <v>1000.3288</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="105">
+      <c r="H6" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="197">
         <v>1000</v>
       </c>
       <c r="J6" s="62">
         <f t="shared" si="2"/>
         <v>3.2879999999999997E-4</v>
       </c>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="84" t="s">
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="125"/>
-      <c r="B7" s="132"/>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A7" s="159"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="104">
         <v>1041.8161</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="104">
         <v>0.16669999999999999</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="104">
         <f t="shared" si="1"/>
         <v>1041.9828</v>
       </c>
       <c r="G7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="197">
         <v>1041.8161</v>
       </c>
       <c r="J7" s="62">
         <f t="shared" si="2"/>
         <v>1.6000904574233399E-4</v>
       </c>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="84"/>
-    </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="125"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="84"/>
+    </row>
+    <row r="8" spans="1:14" ht="28.5">
+      <c r="A8" s="159"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -8085,21 +8597,22 @@
       <c r="H8" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="197">
         <v>1100</v>
       </c>
       <c r="J8" s="62">
         <f t="shared" si="2"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="84" t="s">
+      <c r="K8" s="186"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
+    <row r="9" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A9" s="160"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -8120,20 +8633,21 @@
       <c r="H9" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="197">
         <v>10000</v>
       </c>
       <c r="J9" s="62">
         <f t="shared" si="2"/>
         <v>3.2900000000000003E-4</v>
       </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="84" t="s">
+      <c r="K9" s="186"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" thickBot="1">
       <c r="A10" s="29" t="s">
         <v>137</v>
       </c>
@@ -8157,325 +8671,334 @@
         <v>57</v>
       </c>
       <c r="H10" s="66">
-        <f>K2*10000</f>
+        <f>L2*10000</f>
         <v>3.4265221524407075</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="198">
         <f>SUM(I2:I9)</f>
         <v>51183.676099999997</v>
       </c>
       <c r="J10" s="68"/>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="68"/>
+      <c r="L10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="66">
-        <f>L2*10000</f>
+      <c r="M10" s="66">
+        <f>M2*10000</f>
         <v>1250.6805856408582</v>
       </c>
-      <c r="M10" s="87" t="s">
+      <c r="N10" s="87" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="109" t="s">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B11" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="108">
         <v>1500</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="109">
         <v>-120.83</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="109">
         <f>D11+E11</f>
         <v>1379.17</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="110">
         <v>42811</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="108">
         <f>F11</f>
         <v>1379.17</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="111">
         <v>1500</v>
       </c>
-      <c r="J11" s="114">
+      <c r="J11" s="112">
         <f>(H11-I11)/I11</f>
         <v>-8.0553333333333282E-2</v>
       </c>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="112"/>
+      <c r="L11" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="116">
+      <c r="M11" s="114">
         <v>0.33</v>
       </c>
-      <c r="M11" s="117"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="N11" s="115"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1"/>
+    <row r="13" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
+      <c r="A13" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="J13" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="191"/>
+      <c r="L13" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M13" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="N13" s="191" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="125" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="94" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="94">
         <v>10006.44</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="94">
         <v>6.44</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="94">
         <f>D14+E14</f>
         <v>10012.880000000001</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="97">
+      <c r="H14" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="197">
         <v>10000</v>
       </c>
       <c r="J14" s="62">
         <f t="shared" ref="J14:J21" si="3">E14/D14</f>
         <v>6.435855309180888E-4</v>
       </c>
-      <c r="K14" s="128">
+      <c r="K14" s="186"/>
+      <c r="L14" s="187">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="L14" s="128">
-        <f>K14*365</f>
+      <c r="M14" s="187">
+        <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
-      <c r="M14" s="108">
+      <c r="N14" s="106">
         <v>42929</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="125"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="92" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="159"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="96">
         <v>10004.44</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="96">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="96">
         <f>D15+E15</f>
         <v>10008.880000000001</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="100">
+      <c r="H15" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="197">
         <v>10000</v>
       </c>
       <c r="J15" s="62">
         <f t="shared" si="3"/>
         <v>4.4380295148953867E-4</v>
       </c>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="108">
+      <c r="K15" s="186"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="122"/>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A16" s="159"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="99">
         <v>11043.09</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="99">
         <v>1.23</v>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="99">
         <f t="shared" ref="F16:F20" si="4">D16+E16</f>
         <v>11044.32</v>
       </c>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="103">
+      <c r="H16" s="101">
         <f>F16</f>
         <v>11044.32</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="197">
         <v>11041.86</v>
       </c>
       <c r="J16" s="62">
         <f t="shared" si="3"/>
         <v>1.1138186866176043E-4</v>
       </c>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="84"/>
-    </row>
-    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="125"/>
-      <c r="B17" s="149"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="84"/>
+    </row>
+    <row r="17" spans="1:14" ht="25.5">
+      <c r="A17" s="159"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="102">
         <v>7001.33</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="102">
         <v>1.33</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="102">
         <f t="shared" si="4"/>
         <v>7002.66</v>
       </c>
       <c r="G17" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="105">
+      <c r="H17" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="197">
         <v>7000</v>
       </c>
       <c r="J17" s="62">
         <f t="shared" si="3"/>
         <v>1.8996390685769706E-4</v>
       </c>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="84" t="s">
+      <c r="K17" s="186"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="150"/>
+    <row r="18" spans="1:14">
+      <c r="A18" s="159"/>
+      <c r="B18" s="182"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="102">
         <v>1000.3288</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="102">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="102">
         <f t="shared" si="4"/>
         <v>1000.6576</v>
       </c>
       <c r="G18" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="105">
+      <c r="H18" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="197">
         <v>1000</v>
       </c>
       <c r="J18" s="62">
         <f t="shared" si="3"/>
         <v>3.2869192609470005E-4</v>
       </c>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="84" t="s">
+      <c r="K18" s="186"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="125"/>
-      <c r="B19" s="151"/>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A19" s="159"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="106">
+      <c r="D19" s="104">
         <v>1041.9828</v>
       </c>
-      <c r="E19" s="106">
+      <c r="E19" s="104">
         <v>0.16639999999999999</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="104">
         <f t="shared" si="4"/>
         <v>1042.1492000000001</v>
       </c>
       <c r="G19" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="107">
+      <c r="H19" s="105">
         <f>F19</f>
         <v>1042.1492000000001</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="197">
         <v>1041.8161</v>
       </c>
       <c r="J19" s="62">
         <f t="shared" si="3"/>
         <v>1.5969553432167976E-4</v>
       </c>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="84"/>
-    </row>
-    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="125"/>
-      <c r="B20" s="120"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="84"/>
+    </row>
+    <row r="20" spans="1:14" ht="28.5">
+      <c r="A20" s="159"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
       </c>
@@ -8495,22 +9018,23 @@
       <c r="H20" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="197">
         <v>1100</v>
       </c>
       <c r="J20" s="62">
         <f t="shared" si="3"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="84" t="s">
+      <c r="K20" s="186"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="121"/>
+    <row r="21" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A21" s="160"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
       </c>
@@ -8530,20 +9054,21 @@
       <c r="H21" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="197">
         <v>10000</v>
       </c>
       <c r="J21" s="62">
         <f t="shared" si="3"/>
         <v>3.2889179459957672E-4</v>
       </c>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="84" t="s">
+      <c r="K21" s="186"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="18.75" thickBot="1">
       <c r="A22" s="29" t="s">
         <v>39</v>
       </c>
@@ -8570,322 +9095,331 @@
         <v>57</v>
       </c>
       <c r="H22" s="66">
-        <f>K14*10000</f>
+        <f>L14*10000</f>
         <v>3.4252898568462267</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="198">
         <f>SUM(I14:I21)</f>
         <v>51183.676099999997</v>
       </c>
       <c r="J22" s="68"/>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="68"/>
+      <c r="L22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="66">
-        <f>L14*10000</f>
+      <c r="M22" s="66">
+        <f>M14*10000</f>
         <v>1250.2307977488726</v>
       </c>
-      <c r="M22" s="87"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="109" t="s">
+      <c r="N22" s="87"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B23" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="108">
         <v>1379.17</v>
       </c>
-      <c r="E23" s="111">
+      <c r="E23" s="109">
         <v>20.29</v>
       </c>
-      <c r="F23" s="111">
+      <c r="F23" s="109">
         <f>D23+E23</f>
         <v>1399.46</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="110">
         <v>42811</v>
       </c>
-      <c r="H23" s="110">
+      <c r="H23" s="108">
         <f>F23</f>
         <v>1399.46</v>
       </c>
-      <c r="I23" s="113">
+      <c r="I23" s="111">
         <v>1500</v>
       </c>
-      <c r="J23" s="114">
+      <c r="J23" s="112">
         <f>(H23-I23)/I23</f>
         <v>-6.7026666666666637E-2</v>
       </c>
-      <c r="K23" s="115" t="s">
+      <c r="K23" s="112"/>
+      <c r="L23" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="116">
+      <c r="M23" s="114">
         <v>0.33</v>
       </c>
-      <c r="M23" s="117"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="N23" s="115"/>
+    </row>
+    <row r="25" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
+      <c r="A25" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="J25" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="191"/>
+      <c r="L25" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="M25" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="N25" s="191" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="125" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="94" t="s">
+      <c r="B26" s="116"/>
+      <c r="C26" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="96">
+      <c r="D26" s="94">
         <v>10012.880000000001</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="94">
         <v>6.44</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="94">
         <f>D26+E26</f>
         <v>10019.320000000002</v>
       </c>
-      <c r="G26" s="95" t="s">
+      <c r="G26" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="97">
+      <c r="H26" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="197">
         <v>10000</v>
       </c>
       <c r="J26" s="62">
         <f t="shared" ref="J26:J33" si="5">E26/D26</f>
         <v>6.431715949856584E-4</v>
       </c>
-      <c r="K26" s="128">
+      <c r="K26" s="186"/>
+      <c r="L26" s="187">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="L26" s="128">
-        <f>K26*365</f>
+      <c r="M26" s="187">
+        <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
-      <c r="M26" s="108">
+      <c r="N26" s="106">
         <v>42929</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="125"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="92" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="159"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="98">
+      <c r="D27" s="96">
         <v>10008.880000000001</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="96">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="96">
         <f>D27+E27</f>
         <v>10013.320000000002</v>
       </c>
-      <c r="G27" s="99" t="s">
+      <c r="G27" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="H27" s="100">
+      <c r="H27" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="197">
         <v>10000</v>
       </c>
       <c r="J27" s="62">
         <f t="shared" si="5"/>
         <v>4.4360607780291101E-4</v>
       </c>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="108">
+      <c r="K27" s="186"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="125"/>
-      <c r="B28" s="122"/>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A28" s="159"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="99">
         <v>11044.32</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="99">
         <v>1.22</v>
       </c>
-      <c r="F28" s="101">
+      <c r="F28" s="99">
         <f t="shared" ref="F28:F32" si="6">D28+E28</f>
         <v>11045.539999999999</v>
       </c>
-      <c r="G28" s="102" t="s">
+      <c r="G28" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="103">
+      <c r="H28" s="101">
         <f>F28</f>
         <v>11045.539999999999</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="197">
         <v>11041.86</v>
       </c>
       <c r="J28" s="62">
         <f t="shared" si="5"/>
         <v>1.1046402132498878E-4</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="84"/>
-    </row>
-    <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="125"/>
-      <c r="B29" s="149"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="84"/>
+    </row>
+    <row r="29" spans="1:14" ht="25.5">
+      <c r="A29" s="159"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="102">
         <v>7002.66</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="102">
         <v>1.33</v>
       </c>
-      <c r="F29" s="104">
+      <c r="F29" s="102">
         <f t="shared" si="6"/>
         <v>7003.99</v>
       </c>
       <c r="G29" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="105">
+      <c r="H29" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="197">
         <v>7000</v>
       </c>
       <c r="J29" s="62">
         <f t="shared" si="5"/>
         <v>1.899278274255783E-4</v>
       </c>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="84" t="s">
+      <c r="K29" s="186"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="125"/>
-      <c r="B30" s="150"/>
+    <row r="30" spans="1:14">
+      <c r="A30" s="159"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="102">
         <v>1000.6576</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="102">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F30" s="104">
+      <c r="F30" s="102">
         <f t="shared" si="6"/>
         <v>1000.9864</v>
       </c>
       <c r="G30" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="105">
+      <c r="H30" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="197">
         <v>1000</v>
       </c>
       <c r="J30" s="62">
         <f t="shared" si="5"/>
         <v>3.2858392321209571E-4</v>
       </c>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="84" t="s">
+      <c r="K30" s="186"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="125"/>
-      <c r="B31" s="151"/>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A31" s="159"/>
+      <c r="B31" s="183"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="106">
+      <c r="D31" s="104">
         <v>1042.1492000000001</v>
       </c>
-      <c r="E31" s="106">
+      <c r="E31" s="104">
         <v>0.1656</v>
       </c>
-      <c r="F31" s="106">
+      <c r="F31" s="104">
         <f t="shared" si="6"/>
         <v>1042.3148000000001</v>
       </c>
       <c r="G31" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="107">
+      <c r="H31" s="105">
         <f>F31</f>
         <v>1042.3148000000001</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="197">
         <v>1041.8161</v>
       </c>
       <c r="J31" s="62">
         <f t="shared" si="5"/>
         <v>1.5890239132746058E-4</v>
       </c>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="84"/>
-    </row>
-    <row r="32" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="125"/>
-      <c r="B32" s="120"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="84"/>
+    </row>
+    <row r="32" spans="1:14" ht="28.5">
+      <c r="A32" s="159"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
       </c>
@@ -8905,22 +9439,23 @@
       <c r="H32" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="197">
         <v>1100</v>
       </c>
       <c r="J32" s="62">
         <f t="shared" si="5"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="84" t="s">
+      <c r="K32" s="186"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
-      <c r="B33" s="121"/>
+    <row r="33" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A33" s="160"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
       </c>
@@ -8940,20 +9475,21 @@
       <c r="H33" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="197">
         <v>10000</v>
       </c>
       <c r="J33" s="62">
         <f t="shared" si="5"/>
         <v>3.2878366035148869E-4</v>
       </c>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="84" t="s">
+      <c r="K33" s="186"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="18.75" thickBot="1">
       <c r="A34" s="29" t="s">
         <v>144</v>
       </c>
@@ -8980,322 +9516,331 @@
         <v>57</v>
       </c>
       <c r="H34" s="66">
-        <f>K26*10000</f>
+        <f>L26*10000</f>
         <v>3.4220083948081812</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="198">
         <f>SUM(I26:I33)</f>
         <v>51183.676099999997</v>
       </c>
       <c r="J34" s="68"/>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="68"/>
+      <c r="L34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="66">
-        <f>L26*10000</f>
+      <c r="M34" s="66">
+        <f>M26*10000</f>
         <v>1249.0330641049861</v>
       </c>
-      <c r="M34" s="87"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="109" t="s">
+      <c r="N34" s="87"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B35" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="110">
+      <c r="D35" s="108">
         <v>1399.46</v>
       </c>
-      <c r="E35" s="111">
+      <c r="E35" s="109">
         <v>0</v>
       </c>
-      <c r="F35" s="111">
+      <c r="F35" s="109">
         <f>D35+E35</f>
         <v>1399.46</v>
       </c>
-      <c r="G35" s="112">
+      <c r="G35" s="110">
         <v>42811</v>
       </c>
-      <c r="H35" s="110">
+      <c r="H35" s="108">
         <f>F35</f>
         <v>1399.46</v>
       </c>
-      <c r="I35" s="113">
+      <c r="I35" s="111">
         <v>1500</v>
       </c>
-      <c r="J35" s="114">
+      <c r="J35" s="112">
         <f>(H35-I35)/I35</f>
         <v>-6.7026666666666637E-2</v>
       </c>
-      <c r="K35" s="115" t="s">
+      <c r="K35" s="112"/>
+      <c r="L35" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="L35" s="116">
+      <c r="M35" s="114">
         <v>0.33</v>
       </c>
-      <c r="M35" s="117"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="N35" s="115"/>
+    </row>
+    <row r="37" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
+      <c r="A37" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="10" t="s">
+      <c r="J37" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K37" s="191"/>
+      <c r="L37" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="M37" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="N37" s="191" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="125" t="s">
+    <row r="38" spans="1:14">
+      <c r="A38" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="118"/>
-      <c r="C38" s="94" t="s">
+      <c r="B38" s="116"/>
+      <c r="C38" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="94">
         <v>10019.320000000002</v>
       </c>
-      <c r="E38" s="96">
+      <c r="E38" s="94">
         <v>6.44</v>
       </c>
-      <c r="F38" s="96">
+      <c r="F38" s="94">
         <f>D38+E38</f>
         <v>10025.760000000002</v>
       </c>
-      <c r="G38" s="95" t="s">
+      <c r="G38" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="97">
+      <c r="H38" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="197">
         <v>10000</v>
       </c>
       <c r="J38" s="62">
         <f t="shared" ref="J38:J45" si="7">E38/D38</f>
         <v>6.4275819117465055E-4</v>
       </c>
-      <c r="K38" s="128">
+      <c r="K38" s="186"/>
+      <c r="L38" s="187">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="L38" s="128">
-        <f>K38*365</f>
+      <c r="M38" s="187">
+        <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
-      <c r="M38" s="108">
+      <c r="N38" s="106">
         <v>42929</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="125"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="92" t="s">
+    <row r="39" spans="1:14">
+      <c r="A39" s="159"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="98">
+      <c r="D39" s="96">
         <v>10013.320000000002</v>
       </c>
-      <c r="E39" s="98">
+      <c r="E39" s="96">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F39" s="98">
+      <c r="F39" s="96">
         <f>D39+E39</f>
         <v>10017.760000000002</v>
       </c>
-      <c r="G39" s="99" t="s">
+      <c r="G39" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="H39" s="100">
+      <c r="H39" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="197">
         <v>10000</v>
       </c>
       <c r="J39" s="62">
         <f t="shared" si="7"/>
         <v>4.4340937870756148E-4</v>
       </c>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="108">
+      <c r="K39" s="186"/>
+      <c r="L39" s="187"/>
+      <c r="M39" s="187"/>
+      <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="122"/>
+    <row r="40" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A40" s="159"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="99">
         <v>11045.539999999999</v>
       </c>
-      <c r="E40" s="101">
+      <c r="E40" s="99">
         <v>1.22</v>
       </c>
-      <c r="F40" s="101">
+      <c r="F40" s="99">
         <f t="shared" ref="F40:F44" si="8">D40+E40</f>
         <v>11046.759999999998</v>
       </c>
-      <c r="G40" s="102" t="s">
+      <c r="G40" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="103">
+      <c r="H40" s="101">
         <f>F40</f>
         <v>11046.759999999998</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="197">
         <v>11041.86</v>
       </c>
       <c r="J40" s="62">
         <f t="shared" si="7"/>
         <v>1.1045182037274774E-4</v>
       </c>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="84"/>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="125"/>
-      <c r="B41" s="149"/>
+      <c r="K40" s="186"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
+      <c r="N40" s="84"/>
+    </row>
+    <row r="41" spans="1:14" ht="25.5">
+      <c r="A41" s="159"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="104">
+      <c r="D41" s="102">
         <v>7003.99</v>
       </c>
-      <c r="E41" s="104">
+      <c r="E41" s="102">
         <v>1.33</v>
       </c>
-      <c r="F41" s="104">
+      <c r="F41" s="102">
         <f t="shared" si="8"/>
         <v>7005.32</v>
       </c>
       <c r="G41" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="105">
+      <c r="H41" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="197">
         <v>7000</v>
       </c>
       <c r="J41" s="62">
         <f t="shared" si="7"/>
         <v>1.8989176169583339E-4</v>
       </c>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="84" t="s">
+      <c r="K41" s="186"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="187"/>
+      <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="125"/>
-      <c r="B42" s="150"/>
+    <row r="42" spans="1:14">
+      <c r="A42" s="159"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="102">
         <v>1000.9864</v>
       </c>
-      <c r="E42" s="104">
+      <c r="E42" s="102">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="102">
         <f t="shared" si="8"/>
         <v>1001.3152</v>
       </c>
       <c r="G42" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H42" s="105">
+      <c r="H42" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="197">
         <v>1000</v>
       </c>
       <c r="J42" s="62">
         <f t="shared" si="7"/>
         <v>3.2847599128219923E-4</v>
       </c>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="84" t="s">
+      <c r="K42" s="186"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="187"/>
+      <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="125"/>
-      <c r="B43" s="151"/>
+    <row r="43" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A43" s="159"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="106">
+      <c r="D43" s="104">
         <v>1042.3148000000001</v>
       </c>
-      <c r="E43" s="106">
+      <c r="E43" s="104">
         <v>0.1653</v>
       </c>
-      <c r="F43" s="106">
+      <c r="F43" s="104">
         <f t="shared" si="8"/>
         <v>1042.4801</v>
       </c>
       <c r="G43" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="107">
+      <c r="H43" s="105">
         <f>F43</f>
         <v>1042.4801</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="197">
         <v>1041.8161</v>
       </c>
       <c r="J43" s="62">
         <f t="shared" si="7"/>
         <v>1.5858932445361035E-4</v>
       </c>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="84"/>
-    </row>
-    <row r="44" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="125"/>
-      <c r="B44" s="120"/>
+      <c r="K43" s="186"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="187"/>
+      <c r="N43" s="84"/>
+    </row>
+    <row r="44" spans="1:14" ht="28.5">
+      <c r="A44" s="159"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
       </c>
@@ -9315,22 +9860,23 @@
       <c r="H44" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="197">
         <v>1100</v>
       </c>
       <c r="J44" s="62">
         <f t="shared" si="7"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="84" t="s">
+      <c r="K44" s="186"/>
+      <c r="L44" s="187"/>
+      <c r="M44" s="187"/>
+      <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="121"/>
+    <row r="45" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A45" s="160"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
       </c>
@@ -9350,22 +9896,23 @@
       <c r="H45" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="197">
         <v>10000</v>
       </c>
       <c r="J45" s="62">
         <f t="shared" si="7"/>
         <v>3.2867559718557774E-4</v>
       </c>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="84" t="s">
+      <c r="K45" s="186"/>
+      <c r="L45" s="188"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="18.75" thickBot="1">
       <c r="A46" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46" s="80">
         <f>SUM(B38:B45)</f>
@@ -9390,127 +9937,132 @@
         <v>57</v>
       </c>
       <c r="H46" s="66">
-        <f>K38*10000</f>
+        <f>L38*10000</f>
         <v>3.4207792289866763</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="199">
         <f>SUM(I38:I45)</f>
         <v>51183.676099999997</v>
       </c>
       <c r="J46" s="68"/>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="68"/>
+      <c r="L46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L46" s="66">
-        <f>L38*10000</f>
+      <c r="M46" s="66">
+        <f>M38*10000</f>
         <v>1248.5844185801368</v>
       </c>
-      <c r="M46" s="87"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="109" t="s">
+      <c r="N46" s="87"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B47" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="110" t="s">
+      <c r="C47" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="110">
+      <c r="D47" s="108">
         <v>1399.46</v>
       </c>
-      <c r="E47" s="111">
+      <c r="E47" s="109">
         <v>0</v>
       </c>
-      <c r="F47" s="111">
+      <c r="F47" s="109">
         <f>D47+E47</f>
         <v>1399.46</v>
       </c>
-      <c r="G47" s="112">
+      <c r="G47" s="110">
         <v>42811</v>
       </c>
-      <c r="H47" s="110">
+      <c r="H47" s="108">
         <f>F47</f>
         <v>1399.46</v>
       </c>
-      <c r="I47" s="113">
+      <c r="I47" s="111">
         <v>1500</v>
       </c>
-      <c r="J47" s="114">
+      <c r="J47" s="112">
         <f>(H47-I47)/I47</f>
         <v>-6.7026666666666637E-2</v>
       </c>
-      <c r="K47" s="115" t="s">
+      <c r="K47" s="112"/>
+      <c r="L47" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="L47" s="116">
+      <c r="M47" s="114">
         <v>0.33</v>
       </c>
-      <c r="M47" s="117"/>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="N47" s="115"/>
+    </row>
+    <row r="49" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
+      <c r="A49" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K49" s="10" t="s">
+      <c r="J49" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K49" s="191" t="s">
+        <v>184</v>
+      </c>
+      <c r="L49" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="L49" s="20" t="s">
+      <c r="M49" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="N49" s="191" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="118">
+    <row r="50" spans="1:14">
+      <c r="A50" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="116">
         <v>28</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="C50" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="96">
+      <c r="D50" s="94">
         <v>10037.950000000001</v>
       </c>
-      <c r="E50" s="96">
+      <c r="E50" s="94">
         <v>3.79</v>
       </c>
-      <c r="F50" s="96">
+      <c r="F50" s="94">
         <f>D50+E50</f>
         <v>10041.740000000002</v>
       </c>
-      <c r="G50" s="95" t="s">
+      <c r="G50" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H50" s="97">
+      <c r="H50" s="95">
         <v>10049.32</v>
       </c>
       <c r="I50" s="12">
@@ -9520,40 +10072,44 @@
         <f t="shared" ref="J50:J54" si="9">E50/D50</f>
         <v>3.7756713273128477E-4</v>
       </c>
-      <c r="K50" s="128">
+      <c r="K50" s="62">
+        <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
+        <v>0.84630981346313561</v>
+      </c>
+      <c r="L50" s="187">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="L50" s="128">
-        <f>K50*365</f>
+      <c r="M50" s="187">
+        <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
-      <c r="M50" s="108">
+      <c r="N50" s="106">
         <v>42929</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="125"/>
-      <c r="B51" s="119">
+    <row r="51" spans="1:14">
+      <c r="A51" s="159"/>
+      <c r="B51" s="117">
         <v>117.98</v>
       </c>
-      <c r="C51" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="98">
+      <c r="C51" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="96">
         <v>10000</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="96">
         <v>1.9179999999999999</v>
       </c>
-      <c r="F51" s="98">
+      <c r="F51" s="96">
         <f>D51+E51</f>
         <v>10001.918</v>
       </c>
-      <c r="G51" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="100">
+      <c r="G51" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="98">
         <v>10047.950000000001</v>
       </c>
       <c r="I51" s="12">
@@ -9563,34 +10119,38 @@
         <f t="shared" si="9"/>
         <v>1.918E-4</v>
       </c>
-      <c r="K51" s="128"/>
-      <c r="L51" s="128"/>
-      <c r="M51" s="108">
+      <c r="K51" s="62">
+        <f t="shared" si="10"/>
+        <v>3.999999999999241E-2</v>
+      </c>
+      <c r="L51" s="187"/>
+      <c r="M51" s="187"/>
+      <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="125"/>
-      <c r="B52" s="122">
+    <row r="52" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A52" s="159"/>
+      <c r="B52" s="120">
         <v>6.12</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="101">
+        <v>153</v>
+      </c>
+      <c r="D52" s="99">
         <v>9000</v>
       </c>
-      <c r="E52" s="101">
+      <c r="E52" s="99">
         <v>0</v>
       </c>
-      <c r="F52" s="101">
-        <f t="shared" ref="F52:F54" si="10">D52+E52</f>
+      <c r="F52" s="99">
+        <f t="shared" ref="F52:F54" si="11">D52+E52</f>
         <v>9000</v>
       </c>
-      <c r="G52" s="102" t="s">
+      <c r="G52" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="103">
+      <c r="H52" s="101">
         <f>F52</f>
         <v>9000</v>
       </c>
@@ -9601,32 +10161,36 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="84"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="125"/>
-      <c r="B53" s="149">
+      <c r="K52" s="62" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="187"/>
+      <c r="M52" s="187"/>
+      <c r="N52" s="84"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="159"/>
+      <c r="B53" s="181">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="104">
+        <v>152</v>
+      </c>
+      <c r="D53" s="102">
         <v>10000</v>
       </c>
-      <c r="E53" s="104">
+      <c r="E53" s="102">
         <v>2.1535000000000002</v>
       </c>
-      <c r="F53" s="104">
-        <f t="shared" si="10"/>
+      <c r="F53" s="102">
+        <f t="shared" si="11"/>
         <v>10002.1535</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="H53" s="105">
+        <v>150</v>
+      </c>
+      <c r="H53" s="103">
         <v>10079.68</v>
       </c>
       <c r="I53" s="12">
@@ -9636,32 +10200,36 @@
         <f t="shared" si="9"/>
         <v>2.1535000000000003E-4</v>
       </c>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="84" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="125"/>
-      <c r="B54" s="150"/>
+      <c r="K53" s="62">
+        <f t="shared" si="10"/>
+        <v>2.7026857429723161E-2</v>
+      </c>
+      <c r="L53" s="187"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="25.5">
+      <c r="A54" s="159"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="104">
+      <c r="D54" s="102">
         <v>1021.0432</v>
       </c>
-      <c r="E54" s="104">
+      <c r="E54" s="102">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F54" s="104">
-        <f t="shared" si="10"/>
+      <c r="F54" s="102">
+        <f t="shared" si="11"/>
         <v>1021.372</v>
       </c>
       <c r="G54" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H54" s="105">
+      <c r="H54" s="103">
         <v>1032.8800000000001</v>
       </c>
       <c r="I54" s="12">
@@ -9671,15 +10239,19 @@
         <f t="shared" si="9"/>
         <v>3.2202359312514888E-4</v>
       </c>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="84" t="s">
+      <c r="K54" s="62">
+        <f t="shared" si="10"/>
+        <v>0.64999999999999658</v>
+      </c>
+      <c r="L54" s="187"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
-      <c r="B55" s="121">
+    <row r="55" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A55" s="160"/>
+      <c r="B55" s="119">
         <v>29.59</v>
       </c>
       <c r="C55" s="56" t="s">
@@ -9708,13 +10280,17 @@
         <f>E55/D55</f>
         <v>3.270631321315172E-4</v>
       </c>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="84" t="s">
+      <c r="K55" s="62">
+        <f t="shared" si="10"/>
+        <v>5.2234004328461925E-2</v>
+      </c>
+      <c r="L55" s="188"/>
+      <c r="M55" s="188"/>
+      <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="18.75" thickBot="1">
       <c r="A56" s="29" t="s">
         <v>122</v>
       </c>
@@ -9737,530 +10313,642 @@
         <f>SUM(F50:F55)</f>
         <v>50129.693500000008</v>
       </c>
-      <c r="G56" s="123" t="s">
-        <v>157</v>
+      <c r="G56" s="121" t="s">
+        <v>155</v>
       </c>
       <c r="H56" s="66">
-        <f>K50*10000</f>
+        <f>L50*10000</f>
         <v>2.2906443121160591</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="196">
         <f>SUM(I50:I55)</f>
         <v>50000</v>
       </c>
       <c r="J56" s="68"/>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="68"/>
+      <c r="L56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L56" s="66">
-        <f>L50*10000</f>
+      <c r="M56" s="66">
+        <f>M50*10000</f>
         <v>836.08517392236172</v>
       </c>
-      <c r="M56" s="87"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="109" t="s">
+      <c r="N56" s="87"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B57" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="110" t="s">
+      <c r="C57" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="110">
+      <c r="D57" s="108">
         <v>1399.46</v>
       </c>
-      <c r="E57" s="111">
+      <c r="E57" s="109">
         <v>5.09</v>
       </c>
-      <c r="F57" s="111">
+      <c r="F57" s="109">
         <f>D57+E57</f>
         <v>1404.55</v>
       </c>
-      <c r="G57" s="112">
+      <c r="G57" s="110">
         <v>42811</v>
       </c>
-      <c r="H57" s="110">
+      <c r="H57" s="108">
         <f>F57</f>
         <v>1404.55</v>
       </c>
-      <c r="I57" s="113">
+      <c r="I57" s="111">
         <v>1500</v>
       </c>
-      <c r="J57" s="114">
+      <c r="J57" s="112">
         <f>(H57-I57)/I57</f>
         <v>-6.3633333333333361E-2</v>
       </c>
-      <c r="K57" s="115" t="s">
+      <c r="K57" s="112"/>
+      <c r="L57" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="L57" s="116">
+      <c r="M57" s="114">
         <v>0.33</v>
       </c>
-      <c r="M57" s="117"/>
-    </row>
-    <row r="59" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="N57" s="115"/>
+    </row>
+    <row r="59" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
+      <c r="A59" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="J59" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K59" s="10" t="s">
+      <c r="J59" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K59" s="191" t="s">
+        <v>185</v>
+      </c>
+      <c r="L59" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="20" t="s">
+      <c r="M59" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="M59" s="20" t="s">
+      <c r="N59" s="191" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="118">
+    <row r="60" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A60" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="184">
         <v>28</v>
       </c>
-      <c r="C60" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="96">
+      <c r="C60" s="138" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="139">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="139">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F60" s="139">
+        <f>D60+E60</f>
+        <v>8503.4652000000006</v>
+      </c>
+      <c r="G60" s="140" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="141">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I60" s="142">
+        <v>8500</v>
+      </c>
+      <c r="J60" s="143">
+        <f t="shared" ref="J60" si="12">E60/D60</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K60" s="62">
+        <f>(F60-I60)/(H60-I60)</f>
+        <v>2.8089687261884113E-3</v>
+      </c>
+      <c r="L60" s="189">
+        <f>E66/D66</f>
+        <v>3.0114028409222385E-4</v>
+      </c>
+      <c r="M60" s="189">
+        <f>L60*365</f>
+        <v>0.1099162036936617</v>
+      </c>
+      <c r="N60" s="144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A61" s="159"/>
+      <c r="B61" s="185"/>
+      <c r="C61" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="94">
         <v>10041.740000000002</v>
       </c>
-      <c r="E60" s="96">
+      <c r="E61" s="94">
         <v>3.79</v>
       </c>
-      <c r="F60" s="96">
-        <f>D60+E60</f>
+      <c r="F61" s="94">
+        <f>D61+E61</f>
         <v>10045.530000000002</v>
       </c>
-      <c r="G60" s="95" t="s">
+      <c r="G61" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H60" s="97">
+      <c r="H61" s="95">
         <v>10049.32</v>
-      </c>
-      <c r="I60" s="12">
-        <v>10000</v>
-      </c>
-      <c r="J60" s="62">
-        <f t="shared" ref="J60:J64" si="11">E60/D60</f>
-        <v>3.7742462959606594E-4</v>
-      </c>
-      <c r="K60" s="128">
-        <f>E66/D66</f>
-        <v>2.4219627853986746E-4</v>
-      </c>
-      <c r="L60" s="128">
-        <f>K60*365</f>
-        <v>8.8401641667051625E-2</v>
-      </c>
-      <c r="M60" s="108">
-        <v>42929</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="125"/>
-      <c r="B61" s="119">
-        <v>117.98</v>
-      </c>
-      <c r="C61" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="98">
-        <v>10001.918</v>
-      </c>
-      <c r="E61" s="98">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="F61" s="98">
-        <f>D61+E61</f>
-        <v>10003.835999999999</v>
-      </c>
-      <c r="G61" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="H61" s="100">
-        <v>10047.950000000001</v>
       </c>
       <c r="I61" s="12">
         <v>10000</v>
       </c>
       <c r="J61" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J61:J64" si="13">E61/D61</f>
+        <v>3.7742462959606594E-4</v>
+      </c>
+      <c r="K61" s="62">
+        <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
+        <v>0.92315490673160472</v>
+      </c>
+      <c r="L61" s="187"/>
+      <c r="M61" s="187"/>
+      <c r="N61" s="106">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A62" s="159"/>
+      <c r="B62" s="151">
+        <v>117.98</v>
+      </c>
+      <c r="C62" s="152" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="153">
+        <v>10001.918</v>
+      </c>
+      <c r="E62" s="153">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F62" s="153">
+        <f>D62+E62</f>
+        <v>10003.835999999999</v>
+      </c>
+      <c r="G62" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" s="155">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I62" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J62" s="62">
+        <f t="shared" si="13"/>
         <v>1.9176321981443959E-4</v>
       </c>
-      <c r="K61" s="128"/>
-      <c r="L61" s="128"/>
-      <c r="M61" s="108">
+      <c r="K62" s="62">
+        <f t="shared" si="14"/>
+        <v>7.9999999999984819E-2</v>
+      </c>
+      <c r="L62" s="187"/>
+      <c r="M62" s="187"/>
+      <c r="N62" s="106">
         <v>42951</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="125"/>
-      <c r="B62" s="122">
-        <v>6.12</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="101">
-        <v>10400</v>
-      </c>
-      <c r="E62" s="101">
-        <v>1</v>
-      </c>
-      <c r="F62" s="101">
-        <f t="shared" ref="F62:F64" si="12">D62+E62</f>
-        <v>10401</v>
-      </c>
-      <c r="G62" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="103">
-        <f>F62</f>
-        <v>10401</v>
-      </c>
-      <c r="I62" s="12">
-        <v>10400</v>
-      </c>
-      <c r="J62" s="62">
-        <f t="shared" si="11"/>
-        <v>9.6153846153846154E-5</v>
-      </c>
-      <c r="K62" s="128"/>
-      <c r="L62" s="128"/>
-      <c r="M62" s="84"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="125"/>
-      <c r="B63" s="149">
+    <row r="63" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A63" s="159"/>
+      <c r="B63" s="214">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="104">
+        <v>179</v>
+      </c>
+      <c r="D63" s="102">
         <v>10002.1535</v>
       </c>
-      <c r="E63" s="104">
+      <c r="E63" s="102">
         <v>2.1535000000000002</v>
       </c>
-      <c r="F63" s="104">
-        <f t="shared" si="12"/>
+      <c r="F63" s="102">
+        <f t="shared" ref="F63:F64" si="15">D63+E63</f>
         <v>10004.307000000001</v>
       </c>
       <c r="G63" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="105">
+        <v>150</v>
+      </c>
+      <c r="H63" s="103">
         <v>10079.68</v>
       </c>
       <c r="I63" s="12">
         <v>10000</v>
       </c>
       <c r="J63" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1530363436234008E-4</v>
       </c>
-      <c r="K63" s="128"/>
-      <c r="L63" s="128"/>
-      <c r="M63" s="84" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="125"/>
-      <c r="B64" s="150"/>
+      <c r="K63" s="62">
+        <f t="shared" si="14"/>
+        <v>5.4053714859446322E-2</v>
+      </c>
+      <c r="L63" s="187"/>
+      <c r="M63" s="187"/>
+      <c r="N63" s="84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="25.5">
+      <c r="A64" s="159"/>
+      <c r="B64" s="215"/>
       <c r="C64" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="104">
+        <v>180</v>
+      </c>
+      <c r="D64" s="102">
         <v>1021.372</v>
       </c>
-      <c r="E64" s="104">
+      <c r="E64" s="102">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F64" s="104">
-        <f t="shared" si="12"/>
+      <c r="F64" s="102">
+        <f t="shared" si="15"/>
         <v>1021.7008</v>
       </c>
       <c r="G64" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="105">
+      <c r="H64" s="103">
         <v>1032.8800000000001</v>
       </c>
       <c r="I64" s="12">
         <v>1000</v>
       </c>
       <c r="J64" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.2191992731345681E-4</v>
       </c>
-      <c r="K64" s="128"/>
-      <c r="L64" s="128"/>
-      <c r="M64" s="84" t="s">
+      <c r="K64" s="62">
+        <f t="shared" si="14"/>
+        <v>0.65999999999999659</v>
+      </c>
+      <c r="L64" s="187"/>
+      <c r="M64" s="187"/>
+      <c r="N64" s="84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="126"/>
-      <c r="B65" s="121">
+    <row r="65" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A65" s="160"/>
+      <c r="B65" s="216">
         <v>29.59</v>
       </c>
-      <c r="C65" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="57">
+      <c r="C65" s="213" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="145">
         <v>10062.51</v>
       </c>
-      <c r="E65" s="58">
+      <c r="E65" s="146">
         <v>3.29</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="146">
         <f>D65+E65</f>
         <v>10065.800000000001</v>
       </c>
-      <c r="G65" s="75" t="s">
+      <c r="G65" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="58">
+      <c r="H65" s="146">
         <v>11196.73</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="148">
         <v>10000</v>
       </c>
-      <c r="J65" s="62">
+      <c r="J65" s="149">
         <f>E65/D65</f>
         <v>3.2695619681371744E-4</v>
       </c>
-      <c r="K65" s="129"/>
-      <c r="L65" s="129"/>
-      <c r="M65" s="84" t="s">
+      <c r="K65" s="62">
+        <f t="shared" si="14"/>
+        <v>5.4983162451013277E-2</v>
+      </c>
+      <c r="L65" s="188"/>
+      <c r="M65" s="188"/>
+      <c r="N65" s="150" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="18.75" thickBot="1">
       <c r="A66" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="80">
-        <f>SUM(B60:B65)</f>
-        <v>300.62</v>
+      <c r="B66" s="217">
+        <f>SUM(B60:B65)+B69</f>
+        <v>301.62</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>75</v>
       </c>
       <c r="D66" s="11">
         <f>SUM(D60:D65)</f>
-        <v>51529.693500000008</v>
+        <v>49629.693500000008</v>
       </c>
       <c r="E66" s="61">
         <f>SUM(E60:E65)</f>
-        <v>12.4803</v>
+        <v>14.945499999999999</v>
       </c>
       <c r="F66" s="11">
         <f>SUM(F60:F65)</f>
-        <v>51542.173800000004</v>
-      </c>
-      <c r="G66" s="123" t="s">
-        <v>157</v>
+        <v>49644.639000000003</v>
+      </c>
+      <c r="G66" s="121" t="s">
+        <v>155</v>
       </c>
       <c r="H66" s="66">
-        <f>K60*10000</f>
-        <v>2.4219627853986747</v>
-      </c>
-      <c r="I66" s="13">
+        <f>L60*10000</f>
+        <v>3.0114028409222384</v>
+      </c>
+      <c r="I66" s="196">
         <f>SUM(I60:I65)</f>
-        <v>51400</v>
+        <v>49500</v>
       </c>
       <c r="J66" s="68"/>
-      <c r="K66" s="7" t="s">
+      <c r="K66" s="68"/>
+      <c r="L66" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L66" s="66">
-        <f>L60*10000</f>
-        <v>884.01641667051626</v>
-      </c>
-      <c r="M66" s="87"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="109" t="s">
+      <c r="M66" s="66">
+        <f>M60*10000</f>
+        <v>1099.1620369366169</v>
+      </c>
+      <c r="N66" s="87"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B67" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="110" t="s">
+      <c r="C67" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="110">
+      <c r="D67" s="123">
         <v>1404.55</v>
       </c>
-      <c r="E67" s="111">
+      <c r="E67" s="124">
         <v>0</v>
       </c>
-      <c r="F67" s="111">
+      <c r="F67" s="124">
         <f>D67+E67</f>
         <v>1404.55</v>
       </c>
-      <c r="G67" s="112">
+      <c r="G67" s="125">
         <v>42811</v>
       </c>
-      <c r="H67" s="110">
+      <c r="H67" s="123">
         <f>F67</f>
         <v>1404.55</v>
       </c>
-      <c r="I67" s="113">
+      <c r="I67" s="126">
         <v>1500</v>
       </c>
-      <c r="J67" s="114">
+      <c r="J67" s="127">
         <f>(H67-I67)/I67</f>
         <v>-6.3633333333333361E-2</v>
       </c>
-      <c r="K67" s="115" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="116">
-        <v>0.33</v>
-      </c>
-      <c r="M67" s="117"/>
-    </row>
-    <row r="73" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="K67" s="127"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="129"/>
+      <c r="N67" s="130"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="B68" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="132">
+        <v>1500</v>
+      </c>
+      <c r="E68" s="133">
+        <v>0</v>
+      </c>
+      <c r="F68" s="133">
+        <f>D68+E68</f>
+        <v>1500</v>
+      </c>
+      <c r="G68" s="134">
+        <v>42927</v>
+      </c>
+      <c r="H68" s="132">
+        <f>F68</f>
+        <v>1500</v>
+      </c>
+      <c r="I68" s="206">
+        <v>1500</v>
+      </c>
+      <c r="J68" s="207">
+        <f>(H68-I68)/I68</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="207"/>
+      <c r="L68" s="208"/>
+      <c r="M68" s="209"/>
+      <c r="N68" s="210"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="B69" s="201">
+        <v>7.12</v>
+      </c>
+      <c r="C69" s="223" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="203">
+        <v>450</v>
+      </c>
+      <c r="E69" s="202">
+        <v>0</v>
+      </c>
+      <c r="F69" s="202">
+        <f t="shared" ref="F69" si="16">D69+E69</f>
+        <v>450</v>
+      </c>
+      <c r="G69" s="204" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="205">
+        <f>F69</f>
+        <v>450</v>
+      </c>
+      <c r="I69" s="211">
+        <v>450</v>
+      </c>
+      <c r="J69" s="212">
+        <f t="shared" ref="J69" si="17">E69/D69</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="212"/>
+      <c r="L69" s="218"/>
+      <c r="M69" s="219"/>
+      <c r="N69" s="203"/>
+    </row>
+    <row r="73" spans="1:14" s="193" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A73" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H73" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="I73" s="146"/>
-      <c r="J73" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="K73" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="L73" s="146"/>
-      <c r="M73" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="224" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" s="224" t="s">
+        <v>195</v>
+      </c>
+      <c r="H73" s="224" t="s">
+        <v>193</v>
+      </c>
+      <c r="I73" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="J73" s="227" t="s">
+        <v>196</v>
+      </c>
+      <c r="K73" s="229" t="s">
+        <v>191</v>
+      </c>
+      <c r="L73" s="229" t="s">
+        <v>192</v>
+      </c>
+      <c r="M73" s="225" t="s">
+        <v>190</v>
+      </c>
+      <c r="N73" s="225" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="231" customFormat="1" ht="16.5" thickBot="1">
       <c r="A74" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="230" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="47">
+      <c r="C74" s="220">
         <f>F66+B66</f>
-        <v>51842.793800000007</v>
-      </c>
-      <c r="D74" s="47">
+        <v>49946.259000000005</v>
+      </c>
+      <c r="D74" s="220">
         <f>I66</f>
-        <v>51400</v>
-      </c>
-      <c r="E74" s="81">
+        <v>49500</v>
+      </c>
+      <c r="E74" s="221">
         <v>20</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="222">
         <f>C74-D74</f>
-        <v>442.79380000000674</v>
-      </c>
-      <c r="G74" s="82">
+        <v>446.25900000000547</v>
+      </c>
+      <c r="G74" s="200">
         <f>F74/D74</f>
-        <v>8.6146653696499362E-3</v>
-      </c>
-      <c r="H74" s="147">
+        <v>9.0153333333334446E-3</v>
+      </c>
+      <c r="H74" s="222">
+        <f>F74/E74</f>
+        <v>22.312950000000274</v>
+      </c>
+      <c r="I74" s="200">
         <f>G74/E74</f>
-        <v>4.307332684824968E-4</v>
-      </c>
-      <c r="I74" s="148"/>
-      <c r="J74" s="90">
+        <v>4.5076666666667224E-4</v>
+      </c>
+      <c r="J74" s="232">
+        <f>H74*10000/D74</f>
+        <v>4.5076666666667222</v>
+      </c>
+      <c r="K74" s="226">
+        <f>B66</f>
+        <v>301.62</v>
+      </c>
+      <c r="L74" s="226">
+        <f>F74-K74</f>
+        <v>144.63900000000547</v>
+      </c>
+      <c r="M74" s="200">
+        <f>I74*365</f>
+        <v>0.16452983333333537</v>
+      </c>
+      <c r="N74" s="222">
         <f>H74*365</f>
-        <v>0.15721764299611132</v>
-      </c>
-      <c r="K74" s="152">
-        <f>H74*10000</f>
-        <v>4.307332684824968</v>
-      </c>
-      <c r="L74" s="153"/>
-      <c r="M74" s="86">
-        <f>F74/E74</f>
-        <v>22.139690000000336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>8144.2267500000999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="25">
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="L38:L45"/>
+    <mergeCell ref="M38:M45"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="K2:K9"/>
     <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="H73:I73"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="K14:K21"/>
     <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A33"/>
-    <mergeCell ref="K26:K33"/>
     <mergeCell ref="L26:L33"/>
+    <mergeCell ref="M26:M33"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A50:A55"/>
-    <mergeCell ref="K50:K55"/>
     <mergeCell ref="L50:L55"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="K38:K45"/>
-    <mergeCell ref="L38:L45"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="K60:K65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="M50:M55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10270,76 +10958,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="137">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="20" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>164</v>
       </c>
       <c r="B3">
         <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9">
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
+      <c r="C12" s="137">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14">
+        <v>4000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="4月份" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="226">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1097,10 +1097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6~7月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>票票喵第12007期(新)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1304,12 +1300,182 @@
     <t>每天万份收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东金融中邮核心000545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前份额:1026.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入净值:1.4590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估净值:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计年化收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险投资目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资期限(天数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还剩收益/多出(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人(包含伙食)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收益/多出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="0.0000%"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="[Red]#,##0.0000;[Green]\-#,##0.0000"/>
@@ -1319,8 +1485,10 @@
     <numFmt numFmtId="182" formatCode="0_ "/>
     <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="184" formatCode="0.0000_ "/>
+    <numFmt numFmtId="185" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="186" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1629,6 +1797,80 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1716,7 +1958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1981,13 +2223,690 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2378,9 +3297,6 @@
     <xf numFmtId="179" fontId="28" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2420,9 +3336,6 @@
     <xf numFmtId="179" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="25" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2438,9 +3351,6 @@
     <xf numFmtId="179" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2456,6 +3366,285 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="37" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="37" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="36" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2531,6 +3720,45 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2540,152 +3768,62 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3060,7 +4198,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="179">
+      <c r="F2" s="269">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -3082,7 +4220,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="180"/>
+      <c r="F3" s="270"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -3090,7 +4228,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="180"/>
+      <c r="F4" s="270"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -3151,7 +4289,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="248" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3181,17 +4319,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="175">
+      <c r="K8" s="265">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="175">
+      <c r="L8" s="265">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="159"/>
+      <c r="A9" s="249"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -3219,11 +4357,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="159"/>
+      <c r="A10" s="249"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -3253,11 +4391,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="266"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="159"/>
+      <c r="A11" s="249"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -3285,11 +4423,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="159"/>
+      <c r="A12" s="249"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3317,11 +4455,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="266"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="159"/>
+      <c r="A13" s="249"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -3351,11 +4489,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="159"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -3385,11 +4523,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="266"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="159"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -3417,11 +4555,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="266"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="160"/>
+      <c r="A16" s="250"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -3450,8 +4588,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="267"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -3532,7 +4670,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="248" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -3564,17 +4702,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="174">
+      <c r="K20" s="264">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="174">
+      <c r="L20" s="264">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="159"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -3604,11 +4742,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="159"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -3638,11 +4776,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="262"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="159"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -3672,11 +4810,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
+      <c r="K23" s="262"/>
+      <c r="L23" s="262"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="159"/>
+      <c r="A24" s="249"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -3706,11 +4844,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
+      <c r="K24" s="262"/>
+      <c r="L24" s="262"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="159"/>
+      <c r="A25" s="249"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -3740,11 +4878,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="159"/>
+      <c r="A26" s="249"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -3774,11 +4912,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
+      <c r="K26" s="262"/>
+      <c r="L26" s="262"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="159"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -3808,11 +4946,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
+      <c r="K27" s="262"/>
+      <c r="L27" s="262"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="160"/>
+      <c r="A28" s="250"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -3842,8 +4980,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="178"/>
-      <c r="L28" s="178"/>
+      <c r="K28" s="268"/>
+      <c r="L28" s="268"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -3928,7 +5066,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="158" t="s">
+      <c r="A32" s="248" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -3960,17 +5098,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="171">
+      <c r="K32" s="261">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="174">
+      <c r="L32" s="264">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="159"/>
+      <c r="A33" s="249"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -4000,11 +5138,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
+      <c r="K33" s="262"/>
+      <c r="L33" s="262"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="159"/>
+      <c r="A34" s="249"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -4034,11 +5172,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="172"/>
-      <c r="L34" s="172"/>
+      <c r="K34" s="262"/>
+      <c r="L34" s="262"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="159"/>
+      <c r="A35" s="249"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -4068,11 +5206,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
+      <c r="K35" s="262"/>
+      <c r="L35" s="262"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="159"/>
+      <c r="A36" s="249"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -4102,12 +5240,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
+      <c r="K36" s="262"/>
+      <c r="L36" s="262"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="159"/>
-      <c r="B37" s="164" t="s">
+      <c r="A37" s="249"/>
+      <c r="B37" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -4136,12 +5274,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
+      <c r="K37" s="262"/>
+      <c r="L37" s="262"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="165"/>
+      <c r="A38" s="249"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -4168,12 +5306,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
+      <c r="K38" s="262"/>
+      <c r="L38" s="262"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="166"/>
+      <c r="A39" s="249"/>
+      <c r="B39" s="256"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -4200,12 +5338,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
+      <c r="K39" s="262"/>
+      <c r="L39" s="262"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="159"/>
-      <c r="B40" s="156" t="s">
+      <c r="A40" s="249"/>
+      <c r="B40" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -4234,12 +5372,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="172"/>
-      <c r="L40" s="172"/>
+      <c r="K40" s="262"/>
+      <c r="L40" s="262"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="159"/>
-      <c r="B41" s="157"/>
+      <c r="A41" s="249"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -4259,11 +5397,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
+      <c r="K41" s="262"/>
+      <c r="L41" s="262"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="160"/>
+      <c r="A42" s="250"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -4293,8 +5431,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="173"/>
-      <c r="L42" s="173"/>
+      <c r="K42" s="263"/>
+      <c r="L42" s="263"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -4379,7 +5517,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="158" t="s">
+      <c r="A46" s="248" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -4411,17 +5549,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="171">
+      <c r="K46" s="261">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="174">
+      <c r="L46" s="264">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="159"/>
+      <c r="A47" s="249"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -4451,11 +5589,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="172"/>
-      <c r="L47" s="172"/>
+      <c r="K47" s="262"/>
+      <c r="L47" s="262"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="159"/>
+      <c r="A48" s="249"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -4485,11 +5623,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="172"/>
-      <c r="L48" s="172"/>
+      <c r="K48" s="262"/>
+      <c r="L48" s="262"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="159"/>
+      <c r="A49" s="249"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -4519,11 +5657,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="172"/>
-      <c r="L49" s="172"/>
+      <c r="K49" s="262"/>
+      <c r="L49" s="262"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="159"/>
+      <c r="A50" s="249"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -4553,12 +5691,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="172"/>
-      <c r="L50" s="172"/>
+      <c r="K50" s="262"/>
+      <c r="L50" s="262"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="159"/>
-      <c r="B51" s="164" t="s">
+      <c r="A51" s="249"/>
+      <c r="B51" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -4587,12 +5725,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="172"/>
-      <c r="L51" s="172"/>
+      <c r="K51" s="262"/>
+      <c r="L51" s="262"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="159"/>
-      <c r="B52" s="165"/>
+      <c r="A52" s="249"/>
+      <c r="B52" s="255"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -4619,12 +5757,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="172"/>
-      <c r="L52" s="172"/>
+      <c r="K52" s="262"/>
+      <c r="L52" s="262"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="159"/>
-      <c r="B53" s="166"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="256"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -4651,12 +5789,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="172"/>
-      <c r="L53" s="172"/>
+      <c r="K53" s="262"/>
+      <c r="L53" s="262"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="159"/>
-      <c r="B54" s="156" t="s">
+      <c r="A54" s="249"/>
+      <c r="B54" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -4685,12 +5823,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="172"/>
-      <c r="L54" s="172"/>
+      <c r="K54" s="262"/>
+      <c r="L54" s="262"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="159"/>
-      <c r="B55" s="157"/>
+      <c r="A55" s="249"/>
+      <c r="B55" s="247"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -4717,11 +5855,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="172"/>
-      <c r="L55" s="172"/>
+      <c r="K55" s="262"/>
+      <c r="L55" s="262"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="160"/>
+      <c r="A56" s="250"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -4751,8 +5889,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="173"/>
-      <c r="L56" s="173"/>
+      <c r="K56" s="263"/>
+      <c r="L56" s="263"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -4842,7 +5980,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="158" t="s">
+      <c r="A60" s="248" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -4874,11 +6012,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="161">
+      <c r="K60" s="251">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="161">
+      <c r="L60" s="251">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -4887,7 +6025,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="159"/>
+      <c r="A61" s="249"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -4917,12 +6055,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="162"/>
-      <c r="L61" s="162"/>
+      <c r="K61" s="252"/>
+      <c r="L61" s="252"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="159"/>
+      <c r="A62" s="249"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -4952,14 +6090,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="162"/>
-      <c r="L62" s="162"/>
+      <c r="K62" s="252"/>
+      <c r="L62" s="252"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="159"/>
+      <c r="A63" s="249"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -4989,12 +6127,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="162"/>
-      <c r="L63" s="162"/>
+      <c r="K63" s="252"/>
+      <c r="L63" s="252"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="159"/>
+      <c r="A64" s="249"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -5024,13 +6162,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="162"/>
-      <c r="L64" s="162"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="252"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="159"/>
-      <c r="B65" s="164" t="s">
+      <c r="A65" s="249"/>
+      <c r="B65" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -5059,13 +6197,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="162"/>
-      <c r="L65" s="162"/>
+      <c r="K65" s="252"/>
+      <c r="L65" s="252"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="159"/>
-      <c r="B66" s="165"/>
+      <c r="A66" s="249"/>
+      <c r="B66" s="255"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -5092,15 +6230,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="162"/>
-      <c r="L66" s="162"/>
+      <c r="K66" s="252"/>
+      <c r="L66" s="252"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="159"/>
-      <c r="B67" s="166"/>
+      <c r="A67" s="249"/>
+      <c r="B67" s="256"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -5127,13 +6265,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="162"/>
-      <c r="L67" s="162"/>
+      <c r="K67" s="252"/>
+      <c r="L67" s="252"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="159"/>
-      <c r="B68" s="156" t="s">
+      <c r="A68" s="249"/>
+      <c r="B68" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -5162,15 +6300,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="162"/>
-      <c r="L68" s="162"/>
+      <c r="K68" s="252"/>
+      <c r="L68" s="252"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="159"/>
-      <c r="B69" s="157"/>
+      <c r="A69" s="249"/>
+      <c r="B69" s="247"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -5197,14 +6335,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="162"/>
-      <c r="L69" s="162"/>
+      <c r="K69" s="252"/>
+      <c r="L69" s="252"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="160"/>
+      <c r="A70" s="250"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -5234,8 +6372,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="163"/>
-      <c r="L70" s="163"/>
+      <c r="K70" s="253"/>
+      <c r="L70" s="253"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -5327,7 +6465,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="158" t="s">
+      <c r="A74" s="248" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -5359,11 +6497,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="161">
+      <c r="K74" s="251">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="161">
+      <c r="L74" s="251">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -5372,7 +6510,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="159"/>
+      <c r="A75" s="249"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -5402,12 +6540,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="162"/>
-      <c r="L75" s="162"/>
+      <c r="K75" s="252"/>
+      <c r="L75" s="252"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="159"/>
+      <c r="A76" s="249"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -5437,14 +6575,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="162"/>
-      <c r="L76" s="162"/>
+      <c r="K76" s="252"/>
+      <c r="L76" s="252"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="159"/>
+      <c r="A77" s="249"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -5474,12 +6612,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="162"/>
-      <c r="L77" s="162"/>
+      <c r="K77" s="252"/>
+      <c r="L77" s="252"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="159"/>
+      <c r="A78" s="249"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -5509,13 +6647,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="162"/>
-      <c r="L78" s="162"/>
+      <c r="K78" s="252"/>
+      <c r="L78" s="252"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="159"/>
-      <c r="B79" s="164" t="s">
+      <c r="A79" s="249"/>
+      <c r="B79" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -5544,13 +6682,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="162"/>
-      <c r="L79" s="162"/>
+      <c r="K79" s="252"/>
+      <c r="L79" s="252"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="159"/>
-      <c r="B80" s="165"/>
+      <c r="A80" s="249"/>
+      <c r="B80" s="255"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -5576,15 +6714,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="162"/>
-      <c r="L80" s="162"/>
+      <c r="K80" s="252"/>
+      <c r="L80" s="252"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="159"/>
-      <c r="B81" s="165"/>
+      <c r="A81" s="249"/>
+      <c r="B81" s="255"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -5611,15 +6749,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="162"/>
-      <c r="L81" s="162"/>
+      <c r="K81" s="252"/>
+      <c r="L81" s="252"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="159"/>
-      <c r="B82" s="166"/>
+      <c r="A82" s="249"/>
+      <c r="B82" s="256"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -5646,13 +6784,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="162"/>
-      <c r="L82" s="162"/>
+      <c r="K82" s="252"/>
+      <c r="L82" s="252"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="159"/>
-      <c r="B83" s="156" t="s">
+      <c r="A83" s="249"/>
+      <c r="B83" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -5681,15 +6819,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="162"/>
-      <c r="L83" s="162"/>
+      <c r="K83" s="252"/>
+      <c r="L83" s="252"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="159"/>
-      <c r="B84" s="157"/>
+      <c r="A84" s="249"/>
+      <c r="B84" s="247"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -5716,14 +6854,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="162"/>
-      <c r="L84" s="162"/>
+      <c r="K84" s="252"/>
+      <c r="L84" s="252"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="160"/>
+      <c r="A85" s="250"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -5753,8 +6891,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="163"/>
-      <c r="L85" s="163"/>
+      <c r="K85" s="253"/>
+      <c r="L85" s="253"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -5845,7 +6983,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="158" t="s">
+      <c r="A89" s="248" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -5877,11 +7015,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="161">
+      <c r="K89" s="251">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="161">
+      <c r="L89" s="251">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -5890,7 +7028,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="159"/>
+      <c r="A90" s="249"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -5920,12 +7058,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="162"/>
-      <c r="L90" s="162"/>
+      <c r="K90" s="252"/>
+      <c r="L90" s="252"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="159"/>
+      <c r="A91" s="249"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -5955,14 +7093,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="162"/>
-      <c r="L91" s="162"/>
+      <c r="K91" s="252"/>
+      <c r="L91" s="252"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="159"/>
+      <c r="A92" s="249"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -5992,14 +7130,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="162"/>
-      <c r="L92" s="162"/>
+      <c r="K92" s="252"/>
+      <c r="L92" s="252"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="159"/>
+      <c r="A93" s="249"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -6029,13 +7167,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="162"/>
-      <c r="L93" s="162"/>
+      <c r="K93" s="252"/>
+      <c r="L93" s="252"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="159"/>
-      <c r="B94" s="164" t="s">
+      <c r="A94" s="249"/>
+      <c r="B94" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -6064,15 +7202,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="162"/>
-      <c r="L94" s="162"/>
+      <c r="K94" s="252"/>
+      <c r="L94" s="252"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="159"/>
-      <c r="B95" s="165"/>
+      <c r="A95" s="249"/>
+      <c r="B95" s="255"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -6099,15 +7237,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="162"/>
-      <c r="L95" s="162"/>
+      <c r="K95" s="252"/>
+      <c r="L95" s="252"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="159"/>
-      <c r="B96" s="166"/>
+      <c r="A96" s="249"/>
+      <c r="B96" s="256"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -6134,13 +7272,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="162"/>
-      <c r="L96" s="162"/>
+      <c r="K96" s="252"/>
+      <c r="L96" s="252"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="159"/>
-      <c r="B97" s="156" t="s">
+      <c r="A97" s="249"/>
+      <c r="B97" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -6169,15 +7307,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="162"/>
-      <c r="L97" s="162"/>
+      <c r="K97" s="252"/>
+      <c r="L97" s="252"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="159"/>
-      <c r="B98" s="157"/>
+      <c r="A98" s="249"/>
+      <c r="B98" s="247"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -6204,14 +7342,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="162"/>
-      <c r="L98" s="162"/>
+      <c r="K98" s="252"/>
+      <c r="L98" s="252"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="160"/>
+      <c r="A99" s="250"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -6241,8 +7379,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="163"/>
-      <c r="L99" s="163"/>
+      <c r="K99" s="253"/>
+      <c r="L99" s="253"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -6335,7 +7473,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="158" t="s">
+      <c r="A103" s="248" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -6367,11 +7505,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="161">
+      <c r="K103" s="251">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="161">
+      <c r="L103" s="251">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -6380,7 +7518,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="159"/>
+      <c r="A104" s="249"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -6410,12 +7548,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="162"/>
-      <c r="L104" s="162"/>
+      <c r="K104" s="252"/>
+      <c r="L104" s="252"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="159"/>
+      <c r="A105" s="249"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -6445,14 +7583,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="162"/>
-      <c r="L105" s="162"/>
+      <c r="K105" s="252"/>
+      <c r="L105" s="252"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="159"/>
+      <c r="A106" s="249"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -6481,14 +7619,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="162"/>
-      <c r="L106" s="162"/>
+      <c r="K106" s="252"/>
+      <c r="L106" s="252"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="159"/>
+      <c r="A107" s="249"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -6518,13 +7656,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="162"/>
-      <c r="L107" s="162"/>
+      <c r="K107" s="252"/>
+      <c r="L107" s="252"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="159"/>
-      <c r="B108" s="164" t="s">
+      <c r="A108" s="249"/>
+      <c r="B108" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -6553,15 +7691,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="162"/>
-      <c r="L108" s="162"/>
+      <c r="K108" s="252"/>
+      <c r="L108" s="252"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="159"/>
-      <c r="B109" s="165"/>
+      <c r="A109" s="249"/>
+      <c r="B109" s="255"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -6588,15 +7726,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="162"/>
-      <c r="L109" s="162"/>
+      <c r="K109" s="252"/>
+      <c r="L109" s="252"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="159"/>
-      <c r="B110" s="166"/>
+      <c r="A110" s="249"/>
+      <c r="B110" s="256"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -6623,13 +7761,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="162"/>
-      <c r="L110" s="162"/>
+      <c r="K110" s="252"/>
+      <c r="L110" s="252"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="159"/>
-      <c r="B111" s="156" t="s">
+      <c r="A111" s="249"/>
+      <c r="B111" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -6658,15 +7796,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="162"/>
-      <c r="L111" s="162"/>
+      <c r="K111" s="252"/>
+      <c r="L111" s="252"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="159"/>
-      <c r="B112" s="157"/>
+      <c r="A112" s="249"/>
+      <c r="B112" s="247"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -6693,14 +7831,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="162"/>
-      <c r="L112" s="162"/>
+      <c r="K112" s="252"/>
+      <c r="L112" s="252"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="160"/>
+      <c r="A113" s="250"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -6730,8 +7868,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="163"/>
-      <c r="L113" s="163"/>
+      <c r="K113" s="253"/>
+      <c r="L113" s="253"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -6824,7 +7962,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="158" t="s">
+      <c r="A117" s="248" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -6856,11 +7994,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="161">
+      <c r="K117" s="251">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="161">
+      <c r="L117" s="251">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -6869,7 +8007,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="159"/>
+      <c r="A118" s="249"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -6899,12 +8037,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="162"/>
-      <c r="L118" s="162"/>
+      <c r="K118" s="252"/>
+      <c r="L118" s="252"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="159"/>
+      <c r="A119" s="249"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -6934,14 +8072,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="162"/>
-      <c r="L119" s="162"/>
+      <c r="K119" s="252"/>
+      <c r="L119" s="252"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="159"/>
+      <c r="A120" s="249"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -6971,13 +8109,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="162"/>
-      <c r="L120" s="162"/>
+      <c r="K120" s="252"/>
+      <c r="L120" s="252"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="159"/>
-      <c r="B121" s="164" t="s">
+      <c r="A121" s="249"/>
+      <c r="B121" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -7006,15 +8144,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="162"/>
-      <c r="L121" s="162"/>
+      <c r="K121" s="252"/>
+      <c r="L121" s="252"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="159"/>
-      <c r="B122" s="165"/>
+      <c r="A122" s="249"/>
+      <c r="B122" s="255"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -7041,15 +8179,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="162"/>
-      <c r="L122" s="162"/>
+      <c r="K122" s="252"/>
+      <c r="L122" s="252"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="159"/>
-      <c r="B123" s="166"/>
+      <c r="A123" s="249"/>
+      <c r="B123" s="256"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -7076,13 +8214,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="162"/>
-      <c r="L123" s="162"/>
+      <c r="K123" s="252"/>
+      <c r="L123" s="252"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="159"/>
-      <c r="B124" s="156" t="s">
+      <c r="A124" s="249"/>
+      <c r="B124" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -7111,15 +8249,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="162"/>
-      <c r="L124" s="162"/>
+      <c r="K124" s="252"/>
+      <c r="L124" s="252"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="159"/>
-      <c r="B125" s="157"/>
+      <c r="A125" s="249"/>
+      <c r="B125" s="247"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -7146,14 +8284,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="162"/>
-      <c r="L125" s="162"/>
+      <c r="K125" s="252"/>
+      <c r="L125" s="252"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="160"/>
+      <c r="A126" s="250"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -7183,8 +8321,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="163"/>
-      <c r="L126" s="163"/>
+      <c r="K126" s="253"/>
+      <c r="L126" s="253"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -7277,7 +8415,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="158" t="s">
+      <c r="A130" s="248" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -7309,11 +8447,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="161">
+      <c r="K130" s="251">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="161">
+      <c r="L130" s="251">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -7322,7 +8460,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="159"/>
+      <c r="A131" s="249"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -7352,12 +8490,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="162"/>
-      <c r="L131" s="162"/>
+      <c r="K131" s="252"/>
+      <c r="L131" s="252"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="159"/>
+      <c r="A132" s="249"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -7387,14 +8525,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="162"/>
-      <c r="L132" s="162"/>
+      <c r="K132" s="252"/>
+      <c r="L132" s="252"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="159"/>
+      <c r="A133" s="249"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -7424,13 +8562,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="162"/>
-      <c r="L133" s="162"/>
+      <c r="K133" s="252"/>
+      <c r="L133" s="252"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="159"/>
-      <c r="B134" s="164" t="s">
+      <c r="A134" s="249"/>
+      <c r="B134" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -7459,15 +8597,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="162"/>
-      <c r="L134" s="162"/>
+      <c r="K134" s="252"/>
+      <c r="L134" s="252"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="159"/>
-      <c r="B135" s="165"/>
+      <c r="A135" s="249"/>
+      <c r="B135" s="255"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -7494,15 +8632,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="162"/>
-      <c r="L135" s="162"/>
+      <c r="K135" s="252"/>
+      <c r="L135" s="252"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="159"/>
-      <c r="B136" s="166"/>
+      <c r="A136" s="249"/>
+      <c r="B136" s="256"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -7529,13 +8667,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="162"/>
-      <c r="L136" s="162"/>
+      <c r="K136" s="252"/>
+      <c r="L136" s="252"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="159"/>
-      <c r="B137" s="156" t="s">
+      <c r="A137" s="249"/>
+      <c r="B137" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -7564,15 +8702,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="162"/>
-      <c r="L137" s="162"/>
+      <c r="K137" s="252"/>
+      <c r="L137" s="252"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="159"/>
-      <c r="B138" s="157"/>
+      <c r="A138" s="249"/>
+      <c r="B138" s="247"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -7599,14 +8737,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="162"/>
-      <c r="L138" s="162"/>
+      <c r="K138" s="252"/>
+      <c r="L138" s="252"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="160"/>
+      <c r="A139" s="250"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -7636,8 +8774,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="163"/>
-      <c r="L139" s="163"/>
+      <c r="K139" s="253"/>
+      <c r="L139" s="253"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -7730,7 +8868,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="158" t="s">
+      <c r="A143" s="248" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -7762,11 +8900,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="161">
+      <c r="K143" s="251">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="161">
+      <c r="L143" s="251">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -7775,7 +8913,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="159"/>
+      <c r="A144" s="249"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7805,12 +8943,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="162"/>
-      <c r="L144" s="162"/>
+      <c r="K144" s="252"/>
+      <c r="L144" s="252"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="159"/>
+      <c r="A145" s="249"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -7840,14 +8978,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="162"/>
-      <c r="L145" s="162"/>
+      <c r="K145" s="252"/>
+      <c r="L145" s="252"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="159"/>
+      <c r="A146" s="249"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -7877,13 +9015,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="162"/>
-      <c r="L146" s="162"/>
+      <c r="K146" s="252"/>
+      <c r="L146" s="252"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="159"/>
-      <c r="B147" s="164" t="s">
+      <c r="A147" s="249"/>
+      <c r="B147" s="254" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -7912,15 +9050,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="162"/>
-      <c r="L147" s="162"/>
+      <c r="K147" s="252"/>
+      <c r="L147" s="252"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="159"/>
-      <c r="B148" s="165"/>
+      <c r="A148" s="249"/>
+      <c r="B148" s="255"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -7947,15 +9085,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="162"/>
-      <c r="L148" s="162"/>
+      <c r="K148" s="252"/>
+      <c r="L148" s="252"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="159"/>
-      <c r="B149" s="166"/>
+      <c r="A149" s="249"/>
+      <c r="B149" s="256"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -7982,13 +9120,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="162"/>
-      <c r="L149" s="162"/>
+      <c r="K149" s="252"/>
+      <c r="L149" s="252"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="159"/>
-      <c r="B150" s="156" t="s">
+      <c r="A150" s="249"/>
+      <c r="B150" s="246" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -8017,15 +9155,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="162"/>
-      <c r="L150" s="162"/>
+      <c r="K150" s="252"/>
+      <c r="L150" s="252"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="159"/>
-      <c r="B151" s="157"/>
+      <c r="A151" s="249"/>
+      <c r="B151" s="247"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -8052,14 +9190,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="162"/>
-      <c r="L151" s="162"/>
+      <c r="K151" s="252"/>
+      <c r="L151" s="252"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="160"/>
+      <c r="A152" s="250"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -8089,8 +9227,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="163"/>
-      <c r="L152" s="163"/>
+      <c r="K152" s="253"/>
+      <c r="L152" s="253"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -8163,10 +9301,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="167" t="s">
+      <c r="H155" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="168"/>
+      <c r="I155" s="258"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -8203,11 +9341,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="169">
+      <c r="H156" s="259">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="170"/>
+      <c r="I156" s="260"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -8287,74 +9425,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="190" t="s">
+    <row r="1" spans="1:14" s="157" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="C1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="190" t="s">
+      <c r="E1" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="190" t="s">
+      <c r="G1" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="190" t="s">
+      <c r="H1" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="190" t="s">
+      <c r="I1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="190" t="s">
+      <c r="J1" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="155"/>
+      <c r="L1" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="191" t="s">
+      <c r="M1" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="191" t="s">
+      <c r="N1" s="155" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="249" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -8377,19 +9513,19 @@
       <c r="H2" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I2" s="197">
+      <c r="I2" s="159">
         <v>10000</v>
       </c>
       <c r="J2" s="62">
         <f t="shared" ref="J2:J3" si="0">E2/D2</f>
         <v>6.4400000000000004E-4</v>
       </c>
-      <c r="K2" s="186"/>
-      <c r="L2" s="187">
+      <c r="K2" s="153"/>
+      <c r="L2" s="280">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="187">
+      <c r="M2" s="280">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -8398,7 +9534,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="159"/>
+      <c r="A3" s="249"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -8419,22 +9555,22 @@
       <c r="H3" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I3" s="197">
+      <c r="I3" s="159">
         <v>10000</v>
       </c>
       <c r="J3" s="62">
         <f t="shared" si="0"/>
         <v>4.4400000000000006E-4</v>
       </c>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="280"/>
+      <c r="M3" s="280"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="159"/>
+      <c r="A4" s="249"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -8457,21 +9593,21 @@
       <c r="H4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="197">
+      <c r="I4" s="159">
         <v>11041.86</v>
       </c>
       <c r="J4" s="62">
         <f t="shared" ref="J4:J9" si="2">E4/D4</f>
         <v>1.1139427596437556E-4</v>
       </c>
-      <c r="K4" s="186"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="280"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="159"/>
-      <c r="B5" s="164"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="254"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -8491,23 +9627,23 @@
       <c r="H5" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I5" s="197">
+      <c r="I5" s="159">
         <v>7000</v>
       </c>
       <c r="J5" s="62">
         <f t="shared" si="2"/>
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="K5" s="186"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="280"/>
+      <c r="M5" s="280"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="159"/>
-      <c r="B6" s="165"/>
+    <row r="6" spans="1:14" ht="25.5">
+      <c r="A6" s="249"/>
+      <c r="B6" s="255"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -8527,23 +9663,23 @@
       <c r="H6" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I6" s="197">
+      <c r="I6" s="159">
         <v>1000</v>
       </c>
       <c r="J6" s="62">
         <f t="shared" si="2"/>
         <v>3.2879999999999997E-4</v>
       </c>
-      <c r="K6" s="186"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="166"/>
+      <c r="A7" s="249"/>
+      <c r="B7" s="256"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -8563,20 +9699,20 @@
       <c r="H7" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="197">
+      <c r="I7" s="159">
         <v>1041.8161</v>
       </c>
       <c r="J7" s="62">
         <f t="shared" si="2"/>
         <v>1.6000904574233399E-4</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="280"/>
+      <c r="M7" s="280"/>
       <c r="N7" s="84"/>
     </row>
-    <row r="8" spans="1:14" ht="28.5">
-      <c r="A8" s="159"/>
+    <row r="8" spans="1:14" ht="42.75">
+      <c r="A8" s="249"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -8597,22 +9733,22 @@
       <c r="H8" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I8" s="197">
+      <c r="I8" s="159">
         <v>1100</v>
       </c>
       <c r="J8" s="62">
         <f t="shared" si="2"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K8" s="186"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="250"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -8633,16 +9769,16 @@
       <c r="H9" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I9" s="197">
+      <c r="I9" s="159">
         <v>10000</v>
       </c>
       <c r="J9" s="62">
         <f t="shared" si="2"/>
         <v>3.2900000000000003E-4</v>
       </c>
-      <c r="K9" s="186"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="281"/>
+      <c r="M9" s="281"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -8674,7 +9810,7 @@
         <f>L2*10000</f>
         <v>3.4265221524407075</v>
       </c>
-      <c r="I10" s="198">
+      <c r="I10" s="160">
         <f>SUM(I2:I9)</f>
         <v>51183.676099999997</v>
       </c>
@@ -8732,50 +9868,50 @@
       <c r="N11" s="115"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1"/>
-    <row r="13" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
-      <c r="A13" s="190" t="s">
+    <row r="13" spans="1:14" s="157" customFormat="1" ht="15" thickBot="1">
+      <c r="A13" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="190" t="s">
+      <c r="D13" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="190" t="s">
+      <c r="E13" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="190" t="s">
+      <c r="F13" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="190" t="s">
+      <c r="G13" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="190" t="s">
+      <c r="H13" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="190" t="s">
+      <c r="I13" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="191"/>
-      <c r="L13" s="190" t="s">
+      <c r="J13" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="155"/>
+      <c r="L13" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="191" t="s">
+      <c r="M13" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="191" t="s">
+      <c r="N13" s="155" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="249" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -8798,19 +9934,19 @@
       <c r="H14" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I14" s="197">
+      <c r="I14" s="159">
         <v>10000</v>
       </c>
       <c r="J14" s="62">
         <f t="shared" ref="J14:J21" si="3">E14/D14</f>
         <v>6.435855309180888E-4</v>
       </c>
-      <c r="K14" s="186"/>
-      <c r="L14" s="187">
+      <c r="K14" s="153"/>
+      <c r="L14" s="280">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="187">
+      <c r="M14" s="280">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -8819,7 +9955,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="159"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -8840,22 +9976,22 @@
       <c r="H15" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I15" s="197">
+      <c r="I15" s="159">
         <v>10000</v>
       </c>
       <c r="J15" s="62">
         <f t="shared" si="3"/>
         <v>4.4380295148953867E-4</v>
       </c>
-      <c r="K15" s="186"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="280"/>
+      <c r="M15" s="280"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="159"/>
+      <c r="A16" s="249"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -8877,21 +10013,21 @@
         <f>F16</f>
         <v>11044.32</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="159">
         <v>11041.86</v>
       </c>
       <c r="J16" s="62">
         <f t="shared" si="3"/>
         <v>1.1138186866176043E-4</v>
       </c>
-      <c r="K16" s="186"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="280"/>
+      <c r="M16" s="280"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="159"/>
-      <c r="B17" s="181"/>
+      <c r="A17" s="249"/>
+      <c r="B17" s="284"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -8911,23 +10047,23 @@
       <c r="H17" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I17" s="197">
+      <c r="I17" s="159">
         <v>7000</v>
       </c>
       <c r="J17" s="62">
         <f t="shared" si="3"/>
         <v>1.8996390685769706E-4</v>
       </c>
-      <c r="K17" s="186"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="280"/>
+      <c r="M17" s="280"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="159"/>
-      <c r="B18" s="182"/>
+    <row r="18" spans="1:14" ht="25.5">
+      <c r="A18" s="249"/>
+      <c r="B18" s="285"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -8947,23 +10083,23 @@
       <c r="H18" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I18" s="197">
+      <c r="I18" s="159">
         <v>1000</v>
       </c>
       <c r="J18" s="62">
         <f t="shared" si="3"/>
         <v>3.2869192609470005E-4</v>
       </c>
-      <c r="K18" s="186"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="280"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="159"/>
-      <c r="B19" s="183"/>
+      <c r="A19" s="249"/>
+      <c r="B19" s="286"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -8984,20 +10120,20 @@
         <f>F19</f>
         <v>1042.1492000000001</v>
       </c>
-      <c r="I19" s="197">
+      <c r="I19" s="159">
         <v>1041.8161</v>
       </c>
       <c r="J19" s="62">
         <f t="shared" si="3"/>
         <v>1.5969553432167976E-4</v>
       </c>
-      <c r="K19" s="186"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="280"/>
       <c r="N19" s="84"/>
     </row>
-    <row r="20" spans="1:14" ht="28.5">
-      <c r="A20" s="159"/>
+    <row r="20" spans="1:14" ht="42.75">
+      <c r="A20" s="249"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -9018,22 +10154,22 @@
       <c r="H20" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I20" s="197">
+      <c r="I20" s="159">
         <v>1100</v>
       </c>
       <c r="J20" s="62">
         <f t="shared" si="3"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K20" s="186"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="280"/>
+      <c r="M20" s="280"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="160"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -9054,16 +10190,16 @@
       <c r="H21" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I21" s="197">
+      <c r="I21" s="159">
         <v>10000</v>
       </c>
       <c r="J21" s="62">
         <f t="shared" si="3"/>
         <v>3.2889179459957672E-4</v>
       </c>
-      <c r="K21" s="186"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="281"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -9098,7 +10234,7 @@
         <f>L14*10000</f>
         <v>3.4252898568462267</v>
       </c>
-      <c r="I22" s="198">
+      <c r="I22" s="160">
         <f>SUM(I14:I21)</f>
         <v>51183.676099999997</v>
       </c>
@@ -9153,50 +10289,50 @@
       </c>
       <c r="N23" s="115"/>
     </row>
-    <row r="25" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
-      <c r="A25" s="190" t="s">
+    <row r="25" spans="1:14" s="157" customFormat="1" ht="15" thickBot="1">
+      <c r="A25" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="191" t="s">
+      <c r="B25" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="192" t="s">
+      <c r="C25" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="190" t="s">
+      <c r="D25" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="190" t="s">
+      <c r="E25" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="190" t="s">
+      <c r="F25" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="190" t="s">
+      <c r="G25" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="190" t="s">
+      <c r="H25" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="190" t="s">
+      <c r="I25" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" s="191"/>
-      <c r="L25" s="190" t="s">
+      <c r="J25" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="155"/>
+      <c r="L25" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="191" t="s">
+      <c r="M25" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="191" t="s">
+      <c r="N25" s="155" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="249" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -9219,19 +10355,19 @@
       <c r="H26" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I26" s="197">
+      <c r="I26" s="159">
         <v>10000</v>
       </c>
       <c r="J26" s="62">
         <f t="shared" ref="J26:J33" si="5">E26/D26</f>
         <v>6.431715949856584E-4</v>
       </c>
-      <c r="K26" s="186"/>
-      <c r="L26" s="187">
+      <c r="K26" s="153"/>
+      <c r="L26" s="280">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="187">
+      <c r="M26" s="280">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -9240,7 +10376,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="159"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -9261,22 +10397,22 @@
       <c r="H27" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I27" s="197">
+      <c r="I27" s="159">
         <v>10000</v>
       </c>
       <c r="J27" s="62">
         <f t="shared" si="5"/>
         <v>4.4360607780291101E-4</v>
       </c>
-      <c r="K27" s="186"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="280"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="159"/>
+      <c r="A28" s="249"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -9298,21 +10434,21 @@
         <f>F28</f>
         <v>11045.539999999999</v>
       </c>
-      <c r="I28" s="197">
+      <c r="I28" s="159">
         <v>11041.86</v>
       </c>
       <c r="J28" s="62">
         <f t="shared" si="5"/>
         <v>1.1046402132498878E-4</v>
       </c>
-      <c r="K28" s="186"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="280"/>
+      <c r="M28" s="280"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="159"/>
-      <c r="B29" s="181"/>
+      <c r="A29" s="249"/>
+      <c r="B29" s="284"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -9332,23 +10468,23 @@
       <c r="H29" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I29" s="197">
+      <c r="I29" s="159">
         <v>7000</v>
       </c>
       <c r="J29" s="62">
         <f t="shared" si="5"/>
         <v>1.899278274255783E-4</v>
       </c>
-      <c r="K29" s="186"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="280"/>
+      <c r="M29" s="280"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="159"/>
-      <c r="B30" s="182"/>
+    <row r="30" spans="1:14" ht="25.5">
+      <c r="A30" s="249"/>
+      <c r="B30" s="285"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -9368,23 +10504,23 @@
       <c r="H30" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I30" s="197">
+      <c r="I30" s="159">
         <v>1000</v>
       </c>
       <c r="J30" s="62">
         <f t="shared" si="5"/>
         <v>3.2858392321209571E-4</v>
       </c>
-      <c r="K30" s="186"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="280"/>
+      <c r="M30" s="280"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="159"/>
-      <c r="B31" s="183"/>
+      <c r="A31" s="249"/>
+      <c r="B31" s="286"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -9405,20 +10541,20 @@
         <f>F31</f>
         <v>1042.3148000000001</v>
       </c>
-      <c r="I31" s="197">
+      <c r="I31" s="159">
         <v>1041.8161</v>
       </c>
       <c r="J31" s="62">
         <f t="shared" si="5"/>
         <v>1.5890239132746058E-4</v>
       </c>
-      <c r="K31" s="186"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="280"/>
       <c r="N31" s="84"/>
     </row>
-    <row r="32" spans="1:14" ht="28.5">
-      <c r="A32" s="159"/>
+    <row r="32" spans="1:14" ht="42.75">
+      <c r="A32" s="249"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -9439,22 +10575,22 @@
       <c r="H32" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I32" s="197">
+      <c r="I32" s="159">
         <v>1100</v>
       </c>
       <c r="J32" s="62">
         <f t="shared" si="5"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K32" s="186"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="280"/>
+      <c r="M32" s="280"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="160"/>
+      <c r="A33" s="250"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -9475,16 +10611,16 @@
       <c r="H33" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I33" s="197">
+      <c r="I33" s="159">
         <v>10000</v>
       </c>
       <c r="J33" s="62">
         <f t="shared" si="5"/>
         <v>3.2878366035148869E-4</v>
       </c>
-      <c r="K33" s="186"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="281"/>
+      <c r="M33" s="281"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -9519,7 +10655,7 @@
         <f>L26*10000</f>
         <v>3.4220083948081812</v>
       </c>
-      <c r="I34" s="198">
+      <c r="I34" s="160">
         <f>SUM(I26:I33)</f>
         <v>51183.676099999997</v>
       </c>
@@ -9574,50 +10710,50 @@
       </c>
       <c r="N35" s="115"/>
     </row>
-    <row r="37" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
-      <c r="A37" s="190" t="s">
+    <row r="37" spans="1:14" s="157" customFormat="1" ht="15" thickBot="1">
+      <c r="A37" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="191" t="s">
+      <c r="B37" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="190" t="s">
+      <c r="D37" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="190" t="s">
+      <c r="E37" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="190" t="s">
+      <c r="F37" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="190" t="s">
+      <c r="G37" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="190" t="s">
+      <c r="H37" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="190" t="s">
+      <c r="I37" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="K37" s="191"/>
-      <c r="L37" s="190" t="s">
+      <c r="J37" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" s="155"/>
+      <c r="L37" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="191" t="s">
+      <c r="M37" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="191" t="s">
+      <c r="N37" s="155" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="249" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -9640,19 +10776,19 @@
       <c r="H38" s="95">
         <v>10077.32</v>
       </c>
-      <c r="I38" s="197">
+      <c r="I38" s="159">
         <v>10000</v>
       </c>
       <c r="J38" s="62">
         <f t="shared" ref="J38:J45" si="7">E38/D38</f>
         <v>6.4275819117465055E-4</v>
       </c>
-      <c r="K38" s="186"/>
-      <c r="L38" s="187">
+      <c r="K38" s="153"/>
+      <c r="L38" s="280">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="187">
+      <c r="M38" s="280">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -9661,7 +10797,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="159"/>
+      <c r="A39" s="249"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -9682,22 +10818,22 @@
       <c r="H39" s="98">
         <v>10079.98</v>
       </c>
-      <c r="I39" s="197">
+      <c r="I39" s="159">
         <v>10000</v>
       </c>
       <c r="J39" s="62">
         <f t="shared" si="7"/>
         <v>4.4340937870756148E-4</v>
       </c>
-      <c r="K39" s="186"/>
-      <c r="L39" s="187"/>
-      <c r="M39" s="187"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="280"/>
+      <c r="M39" s="280"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="159"/>
+      <c r="A40" s="249"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -9719,21 +10855,21 @@
         <f>F40</f>
         <v>11046.759999999998</v>
       </c>
-      <c r="I40" s="197">
+      <c r="I40" s="159">
         <v>11041.86</v>
       </c>
       <c r="J40" s="62">
         <f t="shared" si="7"/>
         <v>1.1045182037274774E-4</v>
       </c>
-      <c r="K40" s="186"/>
-      <c r="L40" s="187"/>
-      <c r="M40" s="187"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="280"/>
+      <c r="M40" s="280"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="159"/>
-      <c r="B41" s="181"/>
+      <c r="A41" s="249"/>
+      <c r="B41" s="284"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -9753,23 +10889,23 @@
       <c r="H41" s="103">
         <v>7021.29</v>
       </c>
-      <c r="I41" s="197">
+      <c r="I41" s="159">
         <v>7000</v>
       </c>
       <c r="J41" s="62">
         <f t="shared" si="7"/>
         <v>1.8989176169583339E-4</v>
       </c>
-      <c r="K41" s="186"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="187"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="280"/>
+      <c r="M41" s="280"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="159"/>
-      <c r="B42" s="182"/>
+    <row r="42" spans="1:14" ht="25.5">
+      <c r="A42" s="249"/>
+      <c r="B42" s="285"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -9789,23 +10925,23 @@
       <c r="H42" s="103">
         <v>1032.8800000000001</v>
       </c>
-      <c r="I42" s="197">
+      <c r="I42" s="159">
         <v>1000</v>
       </c>
       <c r="J42" s="62">
         <f t="shared" si="7"/>
         <v>3.2847599128219923E-4</v>
       </c>
-      <c r="K42" s="186"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="187"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="280"/>
+      <c r="M42" s="280"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="159"/>
-      <c r="B43" s="183"/>
+      <c r="A43" s="249"/>
+      <c r="B43" s="286"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -9826,20 +10962,20 @@
         <f>F43</f>
         <v>1042.4801</v>
       </c>
-      <c r="I43" s="197">
+      <c r="I43" s="159">
         <v>1041.8161</v>
       </c>
       <c r="J43" s="62">
         <f t="shared" si="7"/>
         <v>1.5858932445361035E-4</v>
       </c>
-      <c r="K43" s="186"/>
-      <c r="L43" s="187"/>
-      <c r="M43" s="187"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="280"/>
+      <c r="M43" s="280"/>
       <c r="N43" s="84"/>
     </row>
-    <row r="44" spans="1:14" ht="28.5">
-      <c r="A44" s="159"/>
+    <row r="44" spans="1:14" ht="42.75">
+      <c r="A44" s="249"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -9860,22 +10996,22 @@
       <c r="H44" s="28">
         <v>1128.46</v>
       </c>
-      <c r="I44" s="197">
+      <c r="I44" s="159">
         <v>1100</v>
       </c>
       <c r="J44" s="62">
         <f t="shared" si="7"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K44" s="186"/>
-      <c r="L44" s="187"/>
-      <c r="M44" s="187"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="280"/>
+      <c r="M44" s="280"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="160"/>
+      <c r="A45" s="250"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -9896,16 +11032,16 @@
       <c r="H45" s="58">
         <v>11196.73</v>
       </c>
-      <c r="I45" s="197">
+      <c r="I45" s="159">
         <v>10000</v>
       </c>
       <c r="J45" s="62">
         <f t="shared" si="7"/>
         <v>3.2867559718557774E-4</v>
       </c>
-      <c r="K45" s="186"/>
-      <c r="L45" s="188"/>
-      <c r="M45" s="188"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="281"/>
+      <c r="M45" s="281"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -9940,7 +11076,7 @@
         <f>L38*10000</f>
         <v>3.4207792289866763</v>
       </c>
-      <c r="I46" s="199">
+      <c r="I46" s="161">
         <f>SUM(I38:I45)</f>
         <v>51183.676099999997</v>
       </c>
@@ -9995,52 +11131,52 @@
       </c>
       <c r="N47" s="115"/>
     </row>
-    <row r="49" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
-      <c r="A49" s="190" t="s">
+    <row r="49" spans="1:14" s="157" customFormat="1" ht="15" thickBot="1">
+      <c r="A49" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="191" t="s">
+      <c r="B49" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="192" t="s">
+      <c r="C49" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="190" t="s">
+      <c r="D49" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="190" t="s">
+      <c r="E49" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="190" t="s">
+      <c r="F49" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="190" t="s">
+      <c r="G49" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="190" t="s">
+      <c r="H49" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="190" t="s">
+      <c r="I49" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="K49" s="191" t="s">
-        <v>184</v>
-      </c>
-      <c r="L49" s="190" t="s">
+      <c r="J49" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="L49" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="191" t="s">
+      <c r="M49" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="191" t="s">
+      <c r="N49" s="155" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="159" t="s">
+      <c r="A50" s="249" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -10076,11 +11212,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="187">
+      <c r="L50" s="280">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="187">
+      <c r="M50" s="280">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -10088,13 +11224,13 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="159"/>
+    <row r="51" spans="1:14" ht="25.5">
+      <c r="A51" s="249"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="96">
         <v>10000</v>
@@ -10123,19 +11259,19 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="187"/>
-      <c r="M51" s="187"/>
+      <c r="L51" s="280"/>
+      <c r="M51" s="280"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="159"/>
+      <c r="A52" s="249"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="99">
         <v>9000</v>
@@ -10165,17 +11301,17 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="187"/>
-      <c r="M52" s="187"/>
+      <c r="L52" s="280"/>
+      <c r="M52" s="280"/>
       <c r="N52" s="84"/>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="159"/>
-      <c r="B53" s="181">
+    <row r="53" spans="1:14" ht="25.5">
+      <c r="A53" s="249"/>
+      <c r="B53" s="284">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="102">
         <v>10000</v>
@@ -10204,15 +11340,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="187"/>
-      <c r="M53" s="187"/>
+      <c r="L53" s="280"/>
+      <c r="M53" s="280"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="159"/>
-      <c r="B54" s="182"/>
+      <c r="A54" s="249"/>
+      <c r="B54" s="285"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -10243,14 +11379,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="187"/>
-      <c r="M54" s="187"/>
+      <c r="L54" s="280"/>
+      <c r="M54" s="280"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="160"/>
+      <c r="A55" s="250"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -10284,8 +11420,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="188"/>
-      <c r="M55" s="188"/>
+      <c r="L55" s="281"/>
+      <c r="M55" s="281"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -10314,13 +11450,13 @@
         <v>50129.693500000008</v>
       </c>
       <c r="G56" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H56" s="66">
         <f>L50*10000</f>
         <v>2.2906443121160591</v>
       </c>
-      <c r="I56" s="196">
+      <c r="I56" s="158">
         <f>SUM(I50:I55)</f>
         <v>50000</v>
       </c>
@@ -10375,80 +11511,81 @@
       </c>
       <c r="N57" s="115"/>
     </row>
-    <row r="59" spans="1:14" s="193" customFormat="1" ht="15" thickBot="1">
-      <c r="A59" s="194" t="s">
+    <row r="58" spans="1:14" ht="15" thickBot="1"/>
+    <row r="59" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A59" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="191" t="s">
+      <c r="B59" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="195" t="s">
+      <c r="C59" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="194" t="s">
+      <c r="D59" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="194" t="s">
+      <c r="E59" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="194" t="s">
+      <c r="F59" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="194" t="s">
+      <c r="G59" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="194" t="s">
+      <c r="H59" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="194" t="s">
+      <c r="I59" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="J59" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="K59" s="191" t="s">
+      <c r="J59" s="213" t="s">
         <v>185</v>
       </c>
-      <c r="L59" s="194" t="s">
+      <c r="K59" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="L59" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="M59" s="191" t="s">
+      <c r="M59" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="N59" s="191" t="s">
+      <c r="N59" s="215" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="158" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="184">
+      <c r="A60" s="287" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="277">
         <v>28</v>
       </c>
-      <c r="C60" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="139">
+      <c r="C60" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="138">
         <v>8500</v>
       </c>
-      <c r="E60" s="139">
+      <c r="E60" s="138">
         <v>3.4651999999999998</v>
       </c>
-      <c r="F60" s="139">
+      <c r="F60" s="138">
         <f>D60+E60</f>
         <v>8503.4652000000006</v>
       </c>
-      <c r="G60" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60" s="141">
+      <c r="G60" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="140">
         <v>9733.6200000000008</v>
       </c>
-      <c r="I60" s="142">
+      <c r="I60" s="141">
         <v>8500</v>
       </c>
-      <c r="J60" s="143">
+      <c r="J60" s="142">
         <f t="shared" ref="J60" si="12">E60/D60</f>
         <v>4.0767058823529408E-4</v>
       </c>
@@ -10456,23 +11593,23 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="189">
+      <c r="L60" s="279">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="189">
+      <c r="M60" s="279">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
-      <c r="N60" s="144" t="s">
-        <v>183</v>
+      <c r="N60" s="216" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="159"/>
-      <c r="B61" s="185"/>
+      <c r="A61" s="288"/>
+      <c r="B61" s="278"/>
       <c r="C61" s="92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="94">
         <v>10041.740000000002</v>
@@ -10501,34 +11638,34 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="187"/>
-      <c r="M61" s="187"/>
-      <c r="N61" s="106">
+      <c r="L61" s="280"/>
+      <c r="M61" s="280"/>
+      <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="159"/>
-      <c r="B62" s="151">
+      <c r="A62" s="288"/>
+      <c r="B62" s="148">
         <v>117.98</v>
       </c>
-      <c r="C62" s="152" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="153">
+      <c r="C62" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="150">
         <v>10001.918</v>
       </c>
-      <c r="E62" s="153">
+      <c r="E62" s="150">
         <v>1.9179999999999999</v>
       </c>
-      <c r="F62" s="153">
+      <c r="F62" s="150">
         <f>D62+E62</f>
         <v>10003.835999999999</v>
       </c>
-      <c r="G62" s="154" t="s">
+      <c r="G62" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="H62" s="155">
+      <c r="H62" s="152">
         <v>10047.950000000001</v>
       </c>
       <c r="I62" s="12">
@@ -10542,19 +11679,19 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="187"/>
-      <c r="M62" s="187"/>
-      <c r="N62" s="106">
+      <c r="L62" s="280"/>
+      <c r="M62" s="280"/>
+      <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="159"/>
-      <c r="B63" s="214">
+      <c r="A63" s="288"/>
+      <c r="B63" s="282">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="102">
         <v>10002.1535</v>
@@ -10583,17 +11720,17 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="187"/>
-      <c r="M63" s="187"/>
-      <c r="N63" s="84" t="s">
+      <c r="L63" s="280"/>
+      <c r="M63" s="280"/>
+      <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="159"/>
-      <c r="B64" s="215"/>
+      <c r="A64" s="288"/>
+      <c r="B64" s="283"/>
       <c r="C64" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="102">
         <v>1021.372</v>
@@ -10622,40 +11759,40 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="187"/>
-      <c r="M64" s="187"/>
-      <c r="N64" s="84" t="s">
+      <c r="L64" s="280"/>
+      <c r="M64" s="280"/>
+      <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="160"/>
-      <c r="B65" s="216">
+      <c r="A65" s="289"/>
+      <c r="B65" s="173">
         <v>29.59</v>
       </c>
-      <c r="C65" s="213" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="145">
+      <c r="C65" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="143">
         <v>10062.51</v>
       </c>
-      <c r="E65" s="146">
+      <c r="E65" s="144">
         <v>3.29</v>
       </c>
-      <c r="F65" s="146">
+      <c r="F65" s="144">
         <f>D65+E65</f>
         <v>10065.800000000001</v>
       </c>
-      <c r="G65" s="147" t="s">
+      <c r="G65" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="146">
+      <c r="H65" s="144">
         <v>11196.73</v>
       </c>
-      <c r="I65" s="148">
+      <c r="I65" s="146">
         <v>10000</v>
       </c>
-      <c r="J65" s="149">
+      <c r="J65" s="147">
         <f>E65/D65</f>
         <v>3.2695619681371744E-4</v>
       </c>
@@ -10663,17 +11800,17 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="188"/>
-      <c r="M65" s="188"/>
-      <c r="N65" s="150" t="s">
+      <c r="L65" s="281"/>
+      <c r="M65" s="281"/>
+      <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="217">
+      <c r="B66" s="174">
         <f>SUM(B60:B65)+B69</f>
         <v>301.62</v>
       </c>
@@ -10693,13 +11830,13 @@
         <v>49644.639000000003</v>
       </c>
       <c r="G66" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H66" s="66">
         <f>L60*10000</f>
         <v>3.0114028409222384</v>
       </c>
-      <c r="I66" s="196">
+      <c r="I66" s="158">
         <f>SUM(I60:I65)</f>
         <v>49500</v>
       </c>
@@ -10712,13 +11849,14 @@
         <f>M60*10000</f>
         <v>1099.1620369366169</v>
       </c>
-      <c r="N66" s="87"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="N66" s="221"/>
+    </row>
+    <row r="67" spans="1:14" ht="29.25" thickTop="1">
+      <c r="A67" s="225"/>
       <c r="B67" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="123" t="s">
+      <c r="C67" s="184" t="s">
         <v>139</v>
       </c>
       <c r="D67" s="123">
@@ -10748,187 +11886,1362 @@
       <c r="K67" s="127"/>
       <c r="L67" s="128"/>
       <c r="M67" s="129"/>
-      <c r="N67" s="130"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="B68" s="131" t="s">
+      <c r="N67" s="222"/>
+    </row>
+    <row r="68" spans="1:14" ht="28.5">
+      <c r="A68" s="225"/>
+      <c r="B68" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="132" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" s="132">
+      <c r="C68" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="131">
         <v>1500</v>
       </c>
-      <c r="E68" s="133">
+      <c r="E68" s="132">
         <v>0</v>
       </c>
-      <c r="F68" s="133">
+      <c r="F68" s="132">
         <f>D68+E68</f>
         <v>1500</v>
       </c>
-      <c r="G68" s="134">
+      <c r="G68" s="133">
         <v>42927</v>
       </c>
-      <c r="H68" s="132">
+      <c r="H68" s="131">
         <f>F68</f>
         <v>1500</v>
       </c>
-      <c r="I68" s="206">
+      <c r="I68" s="167">
         <v>1500</v>
       </c>
-      <c r="J68" s="207">
+      <c r="J68" s="168">
         <f>(H68-I68)/I68</f>
         <v>0</v>
       </c>
-      <c r="K68" s="207"/>
-      <c r="L68" s="208"/>
-      <c r="M68" s="209"/>
-      <c r="N68" s="210"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="B69" s="201">
+      <c r="K68" s="168"/>
+      <c r="L68" s="169"/>
+      <c r="M68" s="170"/>
+      <c r="N68" s="223"/>
+    </row>
+    <row r="69" spans="1:14" ht="25.5">
+      <c r="A69" s="225"/>
+      <c r="B69" s="162">
         <v>7.12</v>
       </c>
-      <c r="C69" s="223" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="203">
+      <c r="C69" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="164">
         <v>450</v>
       </c>
-      <c r="E69" s="202">
+      <c r="E69" s="163">
         <v>0</v>
       </c>
-      <c r="F69" s="202">
+      <c r="F69" s="163">
         <f t="shared" ref="F69" si="16">D69+E69</f>
         <v>450</v>
       </c>
-      <c r="G69" s="204" t="s">
+      <c r="G69" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="H69" s="205">
+      <c r="H69" s="166">
         <f>F69</f>
         <v>450</v>
       </c>
-      <c r="I69" s="211">
+      <c r="I69" s="171">
         <v>450</v>
       </c>
-      <c r="J69" s="212">
+      <c r="J69" s="239">
         <f t="shared" ref="J69" si="17">E69/D69</f>
         <v>0</v>
       </c>
-      <c r="K69" s="212"/>
-      <c r="L69" s="218"/>
-      <c r="M69" s="219"/>
-      <c r="N69" s="203"/>
-    </row>
-    <row r="73" spans="1:14" s="193" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A73" s="224" t="s">
+      <c r="K69" s="240">
+        <f>(F69-I69)/I69</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="175"/>
+      <c r="M69" s="176"/>
+      <c r="N69" s="224"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="225"/>
+      <c r="B70" s="186"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="186"/>
+      <c r="E70" s="186"/>
+      <c r="F70" s="186"/>
+      <c r="G70" s="186"/>
+      <c r="H70" s="186"/>
+      <c r="I70" s="186"/>
+      <c r="J70" s="186"/>
+      <c r="K70" s="186"/>
+      <c r="L70" s="186"/>
+      <c r="M70" s="186"/>
+      <c r="N70" s="226"/>
+    </row>
+    <row r="71" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A71" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="224" t="s">
+      <c r="B71" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="228" t="s">
+      <c r="C71" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="228" t="s">
+      <c r="D71" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="228" t="s">
+      <c r="E71" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="224" t="s">
+      <c r="F71" s="178" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" s="178" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="I71" s="180" t="s">
+        <v>193</v>
+      </c>
+      <c r="J71" s="180" t="s">
+        <v>195</v>
+      </c>
+      <c r="K71" s="182" t="s">
+        <v>190</v>
+      </c>
+      <c r="L71" s="182" t="s">
+        <v>191</v>
+      </c>
+      <c r="M71" s="179" t="s">
+        <v>189</v>
+      </c>
+      <c r="N71" s="228" t="s">
         <v>188</v>
       </c>
-      <c r="G73" s="224" t="s">
-        <v>195</v>
-      </c>
-      <c r="H73" s="224" t="s">
-        <v>193</v>
-      </c>
-      <c r="I73" s="227" t="s">
-        <v>194</v>
-      </c>
-      <c r="J73" s="227" t="s">
-        <v>196</v>
-      </c>
-      <c r="K73" s="229" t="s">
-        <v>191</v>
-      </c>
-      <c r="L73" s="229" t="s">
-        <v>192</v>
-      </c>
-      <c r="M73" s="225" t="s">
-        <v>190</v>
-      </c>
-      <c r="N73" s="225" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="231" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A74" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="230" t="s">
+    </row>
+    <row r="72" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A72" s="229" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="230" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="220">
+      <c r="C72" s="231">
         <f>F66+B66</f>
         <v>49946.259000000005</v>
       </c>
-      <c r="D74" s="220">
+      <c r="D72" s="231">
         <f>I66</f>
         <v>49500</v>
       </c>
-      <c r="E74" s="221">
+      <c r="E72" s="232">
         <v>20</v>
       </c>
-      <c r="F74" s="222">
-        <f>C74-D74</f>
+      <c r="F72" s="233">
+        <f>C72-D72</f>
         <v>446.25900000000547</v>
       </c>
-      <c r="G74" s="200">
-        <f>F74/D74</f>
+      <c r="G72" s="234">
+        <f>F72/D72</f>
         <v>9.0153333333334446E-3</v>
       </c>
-      <c r="H74" s="222">
-        <f>F74/E74</f>
+      <c r="H72" s="233">
+        <f>F72/E72</f>
         <v>22.312950000000274</v>
       </c>
-      <c r="I74" s="200">
-        <f>G74/E74</f>
+      <c r="I72" s="234">
+        <f>G72/E72</f>
         <v>4.5076666666667224E-4</v>
       </c>
-      <c r="J74" s="232">
-        <f>H74*10000/D74</f>
+      <c r="J72" s="235">
+        <f>H72*10000/D72</f>
         <v>4.5076666666667222</v>
       </c>
-      <c r="K74" s="226">
+      <c r="K72" s="236">
         <f>B66</f>
         <v>301.62</v>
       </c>
-      <c r="L74" s="226">
-        <f>F74-K74</f>
+      <c r="L72" s="236">
+        <f>F72-K72</f>
         <v>144.63900000000547</v>
       </c>
-      <c r="M74" s="200">
-        <f>I74*365</f>
+      <c r="M72" s="234">
+        <f>I72*365</f>
         <v>0.16452983333333537</v>
       </c>
-      <c r="N74" s="222">
-        <f>H74*365</f>
+      <c r="N72" s="237">
+        <f>H72*365</f>
         <v>8144.2267500000999</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" thickTop="1"/>
+    <row r="73" spans="1:14" ht="15" thickTop="1"/>
+    <row r="74" spans="1:14" ht="15" thickBot="1"/>
+    <row r="75" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A75" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="K75" s="188" t="s">
+        <v>184</v>
+      </c>
+      <c r="L75" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M75" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="25.5">
+      <c r="A76" s="274" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="277">
+        <v>28</v>
+      </c>
+      <c r="C76" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="138">
+        <v>8503.4652000000006</v>
+      </c>
+      <c r="E76" s="138">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F76" s="138">
+        <f>D76+E76</f>
+        <v>8506.9304000000011</v>
+      </c>
+      <c r="G76" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="H76" s="140">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I76" s="141">
+        <v>8500</v>
+      </c>
+      <c r="J76" s="142">
+        <f t="shared" ref="J76:J80" si="18">E76/D76</f>
+        <v>4.075044606521115E-4</v>
+      </c>
+      <c r="K76" s="62">
+        <f>(F76-I76)/(H76-I76)</f>
+        <v>5.6179374523768226E-3</v>
+      </c>
+      <c r="L76" s="279">
+        <f>E82/D82</f>
+        <v>3.0104962592234782E-4</v>
+      </c>
+      <c r="M76" s="279">
+        <f>L76*365</f>
+        <v>0.10988311346165695</v>
+      </c>
+      <c r="N76" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="25.5">
+      <c r="A77" s="275"/>
+      <c r="B77" s="278"/>
+      <c r="C77" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="94">
+        <v>10045.530000000002</v>
+      </c>
+      <c r="E77" s="94">
+        <v>3.79</v>
+      </c>
+      <c r="F77" s="94">
+        <f>D77+E77</f>
+        <v>10049.320000000003</v>
+      </c>
+      <c r="G77" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="95">
+        <v>10049.32</v>
+      </c>
+      <c r="I77" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J77" s="62">
+        <f t="shared" si="18"/>
+        <v>3.7728223398864958E-4</v>
+      </c>
+      <c r="K77" s="62">
+        <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
+        <v>1.0000000000000737</v>
+      </c>
+      <c r="L77" s="280"/>
+      <c r="M77" s="280"/>
+      <c r="N77" s="192">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="25.5">
+      <c r="A78" s="275"/>
+      <c r="B78" s="148">
+        <v>117.98</v>
+      </c>
+      <c r="C78" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="150">
+        <v>10003.835999999999</v>
+      </c>
+      <c r="E78" s="150">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F78" s="150">
+        <f>D78+E78</f>
+        <v>10005.753999999999</v>
+      </c>
+      <c r="G78" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" s="152">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I78" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J78" s="62">
+        <f t="shared" si="18"/>
+        <v>1.9172645373234827E-4</v>
+      </c>
+      <c r="K78" s="62">
+        <f t="shared" si="19"/>
+        <v>0.11999999999997724</v>
+      </c>
+      <c r="L78" s="280"/>
+      <c r="M78" s="280"/>
+      <c r="N78" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="25.5">
+      <c r="A79" s="275"/>
+      <c r="B79" s="282">
+        <v>118.93</v>
+      </c>
+      <c r="C79" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="102">
+        <v>10004.307000000001</v>
+      </c>
+      <c r="E79" s="102">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F79" s="102">
+        <f t="shared" ref="F79:F80" si="20">D79+E79</f>
+        <v>10006.460500000001</v>
+      </c>
+      <c r="G79" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79" s="103">
+        <v>10079.68</v>
+      </c>
+      <c r="I79" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J79" s="62">
+        <f t="shared" si="18"/>
+        <v>2.1525728868576304E-4</v>
+      </c>
+      <c r="K79" s="62">
+        <f t="shared" si="19"/>
+        <v>8.1080572289169484E-2</v>
+      </c>
+      <c r="L79" s="280"/>
+      <c r="M79" s="280"/>
+      <c r="N79" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="25.5">
+      <c r="A80" s="275"/>
+      <c r="B80" s="283"/>
+      <c r="C80" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="102">
+        <v>1021.7008</v>
+      </c>
+      <c r="E80" s="102">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F80" s="102">
+        <f t="shared" si="20"/>
+        <v>1022.0296</v>
+      </c>
+      <c r="G80" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="103">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I80" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J80" s="62">
+        <f t="shared" si="18"/>
+        <v>3.2181632822446648E-4</v>
+      </c>
+      <c r="K80" s="62">
+        <f t="shared" si="19"/>
+        <v>0.66999999999999649</v>
+      </c>
+      <c r="L80" s="280"/>
+      <c r="M80" s="280"/>
+      <c r="N80" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A81" s="276"/>
+      <c r="B81" s="173">
+        <v>29.59</v>
+      </c>
+      <c r="C81" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="143">
+        <v>10065.800000000001</v>
+      </c>
+      <c r="E81" s="144">
+        <v>3.29</v>
+      </c>
+      <c r="F81" s="144">
+        <f>D81+E81</f>
+        <v>10069.090000000002</v>
+      </c>
+      <c r="G81" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" s="144">
+        <v>11196.73</v>
+      </c>
+      <c r="I81" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J81" s="147">
+        <f>E81/D81</f>
+        <v>3.2684933139939197E-4</v>
+      </c>
+      <c r="K81" s="62">
+        <f t="shared" si="19"/>
+        <v>5.7732320573564623E-2</v>
+      </c>
+      <c r="L81" s="281"/>
+      <c r="M81" s="281"/>
+      <c r="N81" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A82" s="195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="174">
+        <f>SUM(B76:B81)</f>
+        <v>294.5</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="11">
+        <f>SUM(D76:D81)</f>
+        <v>49644.639000000003</v>
+      </c>
+      <c r="E82" s="61">
+        <f>SUM(E76:E81)</f>
+        <v>14.945499999999999</v>
+      </c>
+      <c r="F82" s="11">
+        <f>SUM(F76:F81)</f>
+        <v>49659.584500000012</v>
+      </c>
+      <c r="G82" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H82" s="66">
+        <f>L76*10000</f>
+        <v>3.0104962592234781</v>
+      </c>
+      <c r="I82" s="158">
+        <f>SUM(I76:I81)</f>
+        <v>49500</v>
+      </c>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M82" s="66">
+        <f>M76*10000</f>
+        <v>1098.8311346165694</v>
+      </c>
+      <c r="N82" s="196"/>
+    </row>
+    <row r="83" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A83" s="271" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="123">
+        <v>1404.55</v>
+      </c>
+      <c r="E83" s="124">
+        <v>3.47</v>
+      </c>
+      <c r="F83" s="124">
+        <f>D83+E83</f>
+        <v>1408.02</v>
+      </c>
+      <c r="G83" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H83" s="123">
+        <f>F83</f>
+        <v>1408.02</v>
+      </c>
+      <c r="I83" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J83" s="127">
+        <f>(H83-I83)/I83</f>
+        <v>-6.1320000000000013E-2</v>
+      </c>
+      <c r="K83" s="127"/>
+      <c r="L83" s="128"/>
+      <c r="M83" s="129"/>
+      <c r="N83" s="197"/>
+    </row>
+    <row r="84" spans="1:14" ht="25.5">
+      <c r="A84" s="272"/>
+      <c r="B84" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="244" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="131">
+        <v>1500</v>
+      </c>
+      <c r="E84" s="132">
+        <v>-2.25</v>
+      </c>
+      <c r="F84" s="132">
+        <f>D84+E84</f>
+        <v>1497.75</v>
+      </c>
+      <c r="G84" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H84" s="131">
+        <f>F84</f>
+        <v>1497.75</v>
+      </c>
+      <c r="I84" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J84" s="168">
+        <f>(H84-I84)/I84</f>
+        <v>-1.5E-3</v>
+      </c>
+      <c r="K84" s="238" t="s">
+        <v>204</v>
+      </c>
+      <c r="L84" s="243">
+        <v>1.4562999999999999</v>
+      </c>
+      <c r="M84" s="242" t="s">
+        <v>203</v>
+      </c>
+      <c r="N84" s="241" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="25.5">
+      <c r="A85" s="273"/>
+      <c r="B85" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C85" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="164">
+        <v>450</v>
+      </c>
+      <c r="E85" s="163">
+        <v>0.06</v>
+      </c>
+      <c r="F85" s="163">
+        <f t="shared" ref="F85" si="21">D85+E85</f>
+        <v>450.06</v>
+      </c>
+      <c r="G85" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="166">
+        <f>F85</f>
+        <v>450.06</v>
+      </c>
+      <c r="I85" s="171">
+        <v>450</v>
+      </c>
+      <c r="J85" s="239">
+        <f t="shared" ref="J85" si="22">E85/D85</f>
+        <v>1.3333333333333334E-4</v>
+      </c>
+      <c r="K85" s="240">
+        <f>(F85-I85)/I85</f>
+        <v>1.3333333333333838E-4</v>
+      </c>
+      <c r="L85" s="175"/>
+      <c r="M85" s="176"/>
+      <c r="N85" s="198"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="199"/>
+      <c r="B86" s="186"/>
+      <c r="C86" s="186"/>
+      <c r="D86" s="186"/>
+      <c r="E86" s="186"/>
+      <c r="F86" s="186"/>
+      <c r="G86" s="186"/>
+      <c r="H86" s="186"/>
+      <c r="I86" s="186"/>
+      <c r="J86" s="186"/>
+      <c r="K86" s="186"/>
+      <c r="L86" s="186"/>
+      <c r="M86" s="186"/>
+      <c r="N86" s="200"/>
+    </row>
+    <row r="87" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A87" s="201" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="178" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" s="178" t="s">
+        <v>194</v>
+      </c>
+      <c r="H87" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="I87" s="180" t="s">
+        <v>193</v>
+      </c>
+      <c r="J87" s="180" t="s">
+        <v>195</v>
+      </c>
+      <c r="K87" s="182" t="s">
+        <v>190</v>
+      </c>
+      <c r="L87" s="182" t="s">
+        <v>191</v>
+      </c>
+      <c r="M87" s="179" t="s">
+        <v>189</v>
+      </c>
+      <c r="N87" s="202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A88" s="203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="205">
+        <f>F82+B82</f>
+        <v>49954.084500000012</v>
+      </c>
+      <c r="D88" s="205">
+        <f>I82</f>
+        <v>49500</v>
+      </c>
+      <c r="E88" s="206">
+        <v>21</v>
+      </c>
+      <c r="F88" s="207">
+        <f>C88-D88</f>
+        <v>454.08450000001176</v>
+      </c>
+      <c r="G88" s="208">
+        <f>F88/D88</f>
+        <v>9.1734242424244793E-3</v>
+      </c>
+      <c r="H88" s="207">
+        <f>F88/E88</f>
+        <v>21.62307142857199</v>
+      </c>
+      <c r="I88" s="208">
+        <f>G88/E88</f>
+        <v>4.3682972582973709E-4</v>
+      </c>
+      <c r="J88" s="209">
+        <f>H88*10000/D88</f>
+        <v>4.368297258297372</v>
+      </c>
+      <c r="K88" s="210">
+        <f>B82</f>
+        <v>294.5</v>
+      </c>
+      <c r="L88" s="210">
+        <f>F88-K88</f>
+        <v>159.58450000001176</v>
+      </c>
+      <c r="M88" s="208">
+        <f>I88*365</f>
+        <v>0.15944284992785404</v>
+      </c>
+      <c r="N88" s="211">
+        <f>H88*365</f>
+        <v>7892.4210714287765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="90" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A90" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="K90" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="L90" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M90" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N90" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="25.5">
+      <c r="A91" s="274" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="277">
+        <v>28</v>
+      </c>
+      <c r="C91" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="138">
+        <v>8506.9304000000011</v>
+      </c>
+      <c r="E91" s="138">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F91" s="138">
+        <f>D91+E91</f>
+        <v>8510.3956000000017</v>
+      </c>
+      <c r="G91" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="H91" s="140">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I91" s="141">
+        <v>8500</v>
+      </c>
+      <c r="J91" s="142">
+        <f t="shared" ref="J91:J95" si="23">E91/D91</f>
+        <v>4.0733846840923955E-4</v>
+      </c>
+      <c r="K91" s="62">
+        <f>(F91-I91)/(H91-I91)</f>
+        <v>8.4269061785652334E-3</v>
+      </c>
+      <c r="L91" s="279">
+        <f>E97/D97</f>
+        <v>2.2463941477399992E-4</v>
+      </c>
+      <c r="M91" s="279">
+        <f>L91*365</f>
+        <v>8.199338639250997E-2</v>
+      </c>
+      <c r="N91" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="25.5">
+      <c r="A92" s="275"/>
+      <c r="B92" s="278"/>
+      <c r="C92" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="94">
+        <v>10049.320000000003</v>
+      </c>
+      <c r="E92" s="94">
+        <v>0</v>
+      </c>
+      <c r="F92" s="94">
+        <f>D92+E92</f>
+        <v>10049.320000000003</v>
+      </c>
+      <c r="G92" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H92" s="95">
+        <v>10049.32</v>
+      </c>
+      <c r="I92" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J92" s="62">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="62">
+        <f t="shared" ref="K92:K96" si="24">(F92-I92)/(H92-I92)</f>
+        <v>1.0000000000000737</v>
+      </c>
+      <c r="L92" s="280"/>
+      <c r="M92" s="280"/>
+      <c r="N92" s="192">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="25.5">
+      <c r="A93" s="275"/>
+      <c r="B93" s="148">
+        <v>117.98</v>
+      </c>
+      <c r="C93" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="150">
+        <v>10005.753999999999</v>
+      </c>
+      <c r="E93" s="150">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F93" s="150">
+        <f>D93+E93</f>
+        <v>10007.671999999999</v>
+      </c>
+      <c r="G93" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" s="152">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I93" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J93" s="62">
+        <f t="shared" si="23"/>
+        <v>1.916897017456156E-4</v>
+      </c>
+      <c r="K93" s="62">
+        <f t="shared" si="24"/>
+        <v>0.15999999999996964</v>
+      </c>
+      <c r="L93" s="280"/>
+      <c r="M93" s="280"/>
+      <c r="N93" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="25.5">
+      <c r="A94" s="275"/>
+      <c r="B94" s="282">
+        <v>118.93</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="102">
+        <v>10006.460500000001</v>
+      </c>
+      <c r="E94" s="102">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F94" s="102">
+        <f t="shared" ref="F94:F95" si="25">D94+E94</f>
+        <v>10008.614000000001</v>
+      </c>
+      <c r="G94" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="H94" s="103">
+        <v>10079.68</v>
+      </c>
+      <c r="I94" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J94" s="62">
+        <f t="shared" si="23"/>
+        <v>2.1521096295738139E-4</v>
+      </c>
+      <c r="K94" s="62">
+        <f t="shared" si="24"/>
+        <v>0.10810742971889264</v>
+      </c>
+      <c r="L94" s="280"/>
+      <c r="M94" s="280"/>
+      <c r="N94" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="25.5">
+      <c r="A95" s="275"/>
+      <c r="B95" s="283"/>
+      <c r="C95" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="102">
+        <v>1022.0296</v>
+      </c>
+      <c r="E95" s="102">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F95" s="102">
+        <f t="shared" si="25"/>
+        <v>1022.3584</v>
+      </c>
+      <c r="G95" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95" s="103">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I95" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J95" s="62">
+        <f t="shared" si="23"/>
+        <v>3.2171279579378133E-4</v>
+      </c>
+      <c r="K95" s="62">
+        <f t="shared" si="24"/>
+        <v>0.6799999999999965</v>
+      </c>
+      <c r="L95" s="280"/>
+      <c r="M95" s="280"/>
+      <c r="N95" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A96" s="276"/>
+      <c r="B96" s="173">
+        <v>29.59</v>
+      </c>
+      <c r="C96" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="143">
+        <v>10069.090000000002</v>
+      </c>
+      <c r="E96" s="144">
+        <v>3.29</v>
+      </c>
+      <c r="F96" s="144">
+        <f>D96+E96</f>
+        <v>10072.380000000003</v>
+      </c>
+      <c r="G96" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="H96" s="144">
+        <v>11196.73</v>
+      </c>
+      <c r="I96" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J96" s="147">
+        <f>E96/D96</f>
+        <v>3.2674253582001941E-4</v>
+      </c>
+      <c r="K96" s="62">
+        <f t="shared" si="24"/>
+        <v>6.0481478696115969E-2</v>
+      </c>
+      <c r="L96" s="281"/>
+      <c r="M96" s="281"/>
+      <c r="N96" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A97" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="174">
+        <f>SUM(B91:B96)</f>
+        <v>294.5</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="11">
+        <f>SUM(D91:D96)</f>
+        <v>49659.584500000012</v>
+      </c>
+      <c r="E97" s="61">
+        <f>SUM(E91:E96)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F97" s="11">
+        <f>SUM(F91:F96)</f>
+        <v>49670.740000000005</v>
+      </c>
+      <c r="G97" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H97" s="66">
+        <f>L91*10000</f>
+        <v>2.2463941477399993</v>
+      </c>
+      <c r="I97" s="158">
+        <f>SUM(I91:I96)</f>
+        <v>49500</v>
+      </c>
+      <c r="J97" s="68"/>
+      <c r="K97" s="68"/>
+      <c r="L97" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M97" s="66">
+        <f>M91*10000</f>
+        <v>819.93386392509967</v>
+      </c>
+      <c r="N97" s="196"/>
+    </row>
+    <row r="98" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A98" s="271" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="123">
+        <v>1408.02</v>
+      </c>
+      <c r="E98" s="124">
+        <v>-3.01</v>
+      </c>
+      <c r="F98" s="124">
+        <f>D98+E98</f>
+        <v>1405.01</v>
+      </c>
+      <c r="G98" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H98" s="123">
+        <f>F98</f>
+        <v>1405.01</v>
+      </c>
+      <c r="I98" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J98" s="127">
+        <f>(H98-I98)/I98</f>
+        <v>-6.332666666666667E-2</v>
+      </c>
+      <c r="K98" s="127"/>
+      <c r="L98" s="128"/>
+      <c r="M98" s="129"/>
+      <c r="N98" s="197"/>
+    </row>
+    <row r="99" spans="1:14" ht="25.5">
+      <c r="A99" s="272"/>
+      <c r="B99" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="244" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="131">
+        <v>1497.75</v>
+      </c>
+      <c r="E99" s="132">
+        <v>-3.07</v>
+      </c>
+      <c r="F99" s="132">
+        <f>D99+E99</f>
+        <v>1494.68</v>
+      </c>
+      <c r="G99" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H99" s="131">
+        <f>F99</f>
+        <v>1494.68</v>
+      </c>
+      <c r="I99" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J99" s="168">
+        <f>(H99-I99)/I99</f>
+        <v>-3.5466666666666242E-3</v>
+      </c>
+      <c r="K99" s="238" t="s">
+        <v>204</v>
+      </c>
+      <c r="L99" s="243">
+        <v>1.456</v>
+      </c>
+      <c r="M99" s="242" t="s">
+        <v>203</v>
+      </c>
+      <c r="N99" s="241" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="25.5">
+      <c r="A100" s="273"/>
+      <c r="B100" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C100" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="164">
+        <v>450.06</v>
+      </c>
+      <c r="E100" s="163">
+        <v>0.06</v>
+      </c>
+      <c r="F100" s="163">
+        <f t="shared" ref="F100" si="26">D100+E100</f>
+        <v>450.12</v>
+      </c>
+      <c r="G100" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="166">
+        <f>F100</f>
+        <v>450.12</v>
+      </c>
+      <c r="I100" s="171">
+        <v>450</v>
+      </c>
+      <c r="J100" s="239">
+        <f t="shared" ref="J100" si="27">E100/D100</f>
+        <v>1.3331555792560991E-4</v>
+      </c>
+      <c r="K100" s="240">
+        <f>(F100-I100)/I100</f>
+        <v>2.6666666666667676E-4</v>
+      </c>
+      <c r="L100" s="175"/>
+      <c r="M100" s="176"/>
+      <c r="N100" s="198"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="199"/>
+      <c r="B101" s="186"/>
+      <c r="C101" s="186"/>
+      <c r="D101" s="186"/>
+      <c r="E101" s="186"/>
+      <c r="F101" s="186"/>
+      <c r="G101" s="186"/>
+      <c r="H101" s="186"/>
+      <c r="I101" s="186"/>
+      <c r="J101" s="186"/>
+      <c r="K101" s="186"/>
+      <c r="L101" s="186"/>
+      <c r="M101" s="186"/>
+      <c r="N101" s="200"/>
+    </row>
+    <row r="102" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A102" s="201" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="178" t="s">
+        <v>187</v>
+      </c>
+      <c r="G102" s="178" t="s">
+        <v>194</v>
+      </c>
+      <c r="H102" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="I102" s="180" t="s">
+        <v>193</v>
+      </c>
+      <c r="J102" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K102" s="182" t="s">
+        <v>190</v>
+      </c>
+      <c r="L102" s="182" t="s">
+        <v>225</v>
+      </c>
+      <c r="M102" s="179" t="s">
+        <v>189</v>
+      </c>
+      <c r="N102" s="202" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A103" s="203" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="205">
+        <f>F97+B97</f>
+        <v>49965.240000000005</v>
+      </c>
+      <c r="D103" s="205">
+        <f>I97</f>
+        <v>49500</v>
+      </c>
+      <c r="E103" s="206">
+        <v>22</v>
+      </c>
+      <c r="F103" s="207">
+        <f>C103-D103</f>
+        <v>465.24000000000524</v>
+      </c>
+      <c r="G103" s="208">
+        <f>F103/D103</f>
+        <v>9.3987878787879838E-3</v>
+      </c>
+      <c r="H103" s="207">
+        <f>F103/E103</f>
+        <v>21.147272727272966</v>
+      </c>
+      <c r="I103" s="208">
+        <f>G103/E103</f>
+        <v>4.2721763085399927E-4</v>
+      </c>
+      <c r="J103" s="209">
+        <f>H103*10000/D103</f>
+        <v>4.2721763085399926</v>
+      </c>
+      <c r="K103" s="210">
+        <f>B97</f>
+        <v>294.5</v>
+      </c>
+      <c r="L103" s="210">
+        <f>F103-K103</f>
+        <v>170.74000000000524</v>
+      </c>
+      <c r="M103" s="208">
+        <f>I103*365</f>
+        <v>0.15593443526170975</v>
+      </c>
+      <c r="N103" s="211">
+        <f>H103*365</f>
+        <v>7718.7545454546325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="L38:L45"/>
-    <mergeCell ref="M38:M45"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B53:B54"/>
+  <mergeCells count="37">
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="A60:A65"/>
     <mergeCell ref="L60:L65"/>
@@ -10949,6 +13262,23 @@
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="L50:L55"/>
     <mergeCell ref="M50:M55"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="L38:L45"/>
+    <mergeCell ref="M38:M45"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="L91:L96"/>
+    <mergeCell ref="M91:M96"/>
+    <mergeCell ref="B94:B95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10958,163 +13288,411 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="137">
+      <c r="C1" s="136">
         <v>4000</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="35" t="s">
         <v>157</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4">
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7">
         <v>400</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="135" t="s">
-        <v>169</v>
+      <c r="A8" s="134" t="s">
+        <v>168</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="135" t="s">
-        <v>170</v>
+      <c r="A9" s="134" t="s">
+        <v>169</v>
       </c>
       <c r="B9">
         <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10">
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="137">
+        <v>174</v>
+      </c>
+      <c r="B12" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="136">
         <v>8000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1">
       <c r="A13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="35" t="s">
         <v>157</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14">
         <v>4000</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75">
+      <c r="A17" s="290" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="291"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="291"/>
+      <c r="E17" s="291"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="291"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="292"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.25">
+      <c r="A18" s="293" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="293" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="294" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="295" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="296" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="296" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="303" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="293" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="304" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="293" t="s">
+        <v>217</v>
+      </c>
+      <c r="K18" s="293" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="293" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="297">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="297">
+        <v>7</v>
+      </c>
+      <c r="C19" s="297">
+        <v>49950</v>
+      </c>
+      <c r="D19" s="298">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="300">
+        <f>C19*D19</f>
+        <v>4995</v>
+      </c>
+      <c r="F19" s="300">
+        <f>E19/365*G19</f>
+        <v>424.23287671232879</v>
+      </c>
+      <c r="G19" s="297">
+        <v>31</v>
+      </c>
+      <c r="H19" s="299">
+        <v>294.5</v>
+      </c>
+      <c r="I19" s="305">
+        <f>F19-H19</f>
+        <v>129.73287671232879</v>
+      </c>
+      <c r="J19" s="297">
+        <v>0</v>
+      </c>
+      <c r="K19" s="302">
+        <f>H19/F19</f>
+        <v>0.69419419419419415</v>
+      </c>
+      <c r="L19" s="301" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="297">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="297">
+        <v>8</v>
+      </c>
+      <c r="C20" s="297">
+        <f>C19+J20</f>
+        <v>55950</v>
+      </c>
+      <c r="D20" s="298">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="300">
+        <f>C20*D20</f>
+        <v>5595</v>
+      </c>
+      <c r="F20" s="300">
+        <f>E20/365*G20</f>
+        <v>475.1917808219178</v>
+      </c>
+      <c r="G20" s="297">
+        <v>31</v>
+      </c>
+      <c r="H20" s="299">
+        <v>0</v>
+      </c>
+      <c r="I20" s="305">
+        <f>F20-H20</f>
+        <v>475.1917808219178</v>
+      </c>
+      <c r="J20" s="297">
+        <v>6000</v>
+      </c>
+      <c r="K20" s="302">
+        <f>H20/F20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="301" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75">
+      <c r="A22" s="290" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="291"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="291"/>
+      <c r="H22" s="291"/>
+      <c r="I22" s="291"/>
+      <c r="J22" s="291"/>
+      <c r="K22" s="291"/>
+      <c r="L22" s="292"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.25">
+      <c r="A23" s="293" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="293" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="294" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="295" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="296" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="296" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="303" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="293" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="304" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="293" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" s="293" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="293" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15">
+      <c r="A24" s="297">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="297">
+        <v>7</v>
+      </c>
+      <c r="C24" s="297">
+        <v>49950</v>
+      </c>
+      <c r="D24" s="298">
+        <v>8.199338639250997E-2</v>
+      </c>
+      <c r="E24" s="300">
+        <f>C24*D24</f>
+        <v>4095.569650305873</v>
+      </c>
+      <c r="F24" s="300">
+        <f>E24/365*G24</f>
+        <v>347.84290180680017</v>
+      </c>
+      <c r="G24" s="297">
+        <v>31</v>
+      </c>
+      <c r="H24" s="299">
+        <v>294.5</v>
+      </c>
+      <c r="I24" s="305">
+        <f>F24-H24</f>
+        <v>53.342901806800171</v>
+      </c>
+      <c r="J24" s="297">
+        <v>0</v>
+      </c>
+      <c r="K24" s="302">
+        <f>H24/F24</f>
+        <v>0.84664657082343442</v>
+      </c>
+      <c r="L24" s="301" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A17:L17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="228">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1467,7 +1467,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未收益/多出</t>
+    <t>钱时代豪华版(年)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝(1.5w~3w)(应急)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收益/多出(-)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2906,7 +2914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3645,37 +3653,109 @@
     <xf numFmtId="0" fontId="38" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3690,35 +3770,44 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3738,45 +3827,6 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3786,44 +3836,8 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4198,7 +4212,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="269">
+      <c r="F2" s="279">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4220,7 +4234,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="270"/>
+      <c r="F3" s="280"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4228,7 +4242,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="270"/>
+      <c r="F4" s="280"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4289,7 +4303,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="248" t="s">
+      <c r="A8" s="260" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4319,17 +4333,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="265">
+      <c r="K8" s="275">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="265">
+      <c r="L8" s="275">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="249"/>
+      <c r="A9" s="261"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4357,11 +4371,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="266"/>
-      <c r="L9" s="266"/>
+      <c r="K9" s="276"/>
+      <c r="L9" s="276"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="249"/>
+      <c r="A10" s="261"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4391,11 +4405,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="266"/>
-      <c r="L10" s="266"/>
+      <c r="K10" s="276"/>
+      <c r="L10" s="276"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="249"/>
+      <c r="A11" s="261"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4423,11 +4437,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="249"/>
+      <c r="A12" s="261"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4455,11 +4469,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="266"/>
-      <c r="L12" s="266"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="276"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="249"/>
+      <c r="A13" s="261"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4489,11 +4503,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="249"/>
+      <c r="A14" s="261"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4523,11 +4537,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="266"/>
-      <c r="L14" s="266"/>
+      <c r="K14" s="276"/>
+      <c r="L14" s="276"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="249"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4555,11 +4569,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="266"/>
-      <c r="L15" s="266"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="250"/>
+      <c r="A16" s="262"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4588,8 +4602,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="267"/>
-      <c r="L16" s="267"/>
+      <c r="K16" s="277"/>
+      <c r="L16" s="277"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -4670,7 +4684,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="248" t="s">
+      <c r="A20" s="260" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4702,17 +4716,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="264">
+      <c r="K20" s="274">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="264">
+      <c r="L20" s="274">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="249"/>
+      <c r="A21" s="261"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -4742,11 +4756,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="262"/>
-      <c r="L21" s="262"/>
+      <c r="K21" s="272"/>
+      <c r="L21" s="272"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="249"/>
+      <c r="A22" s="261"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -4776,11 +4790,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
+      <c r="K22" s="272"/>
+      <c r="L22" s="272"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="249"/>
+      <c r="A23" s="261"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -4810,11 +4824,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="262"/>
-      <c r="L23" s="262"/>
+      <c r="K23" s="272"/>
+      <c r="L23" s="272"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="249"/>
+      <c r="A24" s="261"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4844,11 +4858,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="262"/>
-      <c r="L24" s="262"/>
+      <c r="K24" s="272"/>
+      <c r="L24" s="272"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="249"/>
+      <c r="A25" s="261"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -4878,11 +4892,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="262"/>
-      <c r="L25" s="262"/>
+      <c r="K25" s="272"/>
+      <c r="L25" s="272"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="249"/>
+      <c r="A26" s="261"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -4912,11 +4926,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="262"/>
-      <c r="L26" s="262"/>
+      <c r="K26" s="272"/>
+      <c r="L26" s="272"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="249"/>
+      <c r="A27" s="261"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -4946,11 +4960,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="262"/>
-      <c r="L27" s="262"/>
+      <c r="K27" s="272"/>
+      <c r="L27" s="272"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="250"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -4980,8 +4994,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="268"/>
-      <c r="L28" s="268"/>
+      <c r="K28" s="278"/>
+      <c r="L28" s="278"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5066,7 +5080,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="248" t="s">
+      <c r="A32" s="260" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5098,17 +5112,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="261">
+      <c r="K32" s="271">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="264">
+      <c r="L32" s="274">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="249"/>
+      <c r="A33" s="261"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5138,11 +5152,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="262"/>
-      <c r="L33" s="262"/>
+      <c r="K33" s="272"/>
+      <c r="L33" s="272"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="249"/>
+      <c r="A34" s="261"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5172,11 +5186,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="262"/>
-      <c r="L34" s="262"/>
+      <c r="K34" s="272"/>
+      <c r="L34" s="272"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="249"/>
+      <c r="A35" s="261"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5206,11 +5220,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="262"/>
-      <c r="L35" s="262"/>
+      <c r="K35" s="272"/>
+      <c r="L35" s="272"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="249"/>
+      <c r="A36" s="261"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5240,12 +5254,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="262"/>
-      <c r="L36" s="262"/>
+      <c r="K36" s="272"/>
+      <c r="L36" s="272"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="249"/>
-      <c r="B37" s="254" t="s">
+      <c r="A37" s="261"/>
+      <c r="B37" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5274,12 +5288,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="262"/>
-      <c r="L37" s="262"/>
+      <c r="K37" s="272"/>
+      <c r="L37" s="272"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="249"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="261"/>
+      <c r="B38" s="267"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5306,12 +5320,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="262"/>
-      <c r="L38" s="262"/>
+      <c r="K38" s="272"/>
+      <c r="L38" s="272"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="249"/>
-      <c r="B39" s="256"/>
+      <c r="A39" s="261"/>
+      <c r="B39" s="268"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5338,12 +5352,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="262"/>
-      <c r="L39" s="262"/>
+      <c r="K39" s="272"/>
+      <c r="L39" s="272"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="249"/>
-      <c r="B40" s="246" t="s">
+      <c r="A40" s="261"/>
+      <c r="B40" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5372,12 +5386,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="262"/>
-      <c r="L40" s="262"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="272"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="249"/>
-      <c r="B41" s="247"/>
+      <c r="A41" s="261"/>
+      <c r="B41" s="270"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5397,11 +5411,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="262"/>
-      <c r="L41" s="262"/>
+      <c r="K41" s="272"/>
+      <c r="L41" s="272"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="250"/>
+      <c r="A42" s="262"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5431,8 +5445,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="263"/>
-      <c r="L42" s="263"/>
+      <c r="K42" s="273"/>
+      <c r="L42" s="273"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5517,7 +5531,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="248" t="s">
+      <c r="A46" s="260" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5549,17 +5563,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="261">
+      <c r="K46" s="271">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="264">
+      <c r="L46" s="274">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="249"/>
+      <c r="A47" s="261"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5589,11 +5603,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="262"/>
-      <c r="L47" s="262"/>
+      <c r="K47" s="272"/>
+      <c r="L47" s="272"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="249"/>
+      <c r="A48" s="261"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -5623,11 +5637,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="262"/>
-      <c r="L48" s="262"/>
+      <c r="K48" s="272"/>
+      <c r="L48" s="272"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="249"/>
+      <c r="A49" s="261"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5657,11 +5671,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="262"/>
-      <c r="L49" s="262"/>
+      <c r="K49" s="272"/>
+      <c r="L49" s="272"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="249"/>
+      <c r="A50" s="261"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5691,12 +5705,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="262"/>
-      <c r="L50" s="262"/>
+      <c r="K50" s="272"/>
+      <c r="L50" s="272"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="249"/>
-      <c r="B51" s="254" t="s">
+      <c r="A51" s="261"/>
+      <c r="B51" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -5725,12 +5739,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="262"/>
-      <c r="L51" s="262"/>
+      <c r="K51" s="272"/>
+      <c r="L51" s="272"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="249"/>
-      <c r="B52" s="255"/>
+      <c r="A52" s="261"/>
+      <c r="B52" s="267"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -5757,12 +5771,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="262"/>
-      <c r="L52" s="262"/>
+      <c r="K52" s="272"/>
+      <c r="L52" s="272"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="249"/>
-      <c r="B53" s="256"/>
+      <c r="A53" s="261"/>
+      <c r="B53" s="268"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -5789,12 +5803,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="262"/>
-      <c r="L53" s="262"/>
+      <c r="K53" s="272"/>
+      <c r="L53" s="272"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="249"/>
-      <c r="B54" s="246" t="s">
+      <c r="A54" s="261"/>
+      <c r="B54" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -5823,12 +5837,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="262"/>
-      <c r="L54" s="262"/>
+      <c r="K54" s="272"/>
+      <c r="L54" s="272"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="249"/>
-      <c r="B55" s="247"/>
+      <c r="A55" s="261"/>
+      <c r="B55" s="270"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -5855,11 +5869,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="262"/>
-      <c r="L55" s="262"/>
+      <c r="K55" s="272"/>
+      <c r="L55" s="272"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="250"/>
+      <c r="A56" s="262"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -5889,8 +5903,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="263"/>
-      <c r="L56" s="263"/>
+      <c r="K56" s="273"/>
+      <c r="L56" s="273"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -5980,7 +5994,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="248" t="s">
+      <c r="A60" s="260" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6012,11 +6026,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="251">
+      <c r="K60" s="263">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="251">
+      <c r="L60" s="263">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6025,7 +6039,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="249"/>
+      <c r="A61" s="261"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6055,12 +6069,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="252"/>
-      <c r="L61" s="252"/>
+      <c r="K61" s="264"/>
+      <c r="L61" s="264"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="249"/>
+      <c r="A62" s="261"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6090,14 +6104,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="252"/>
-      <c r="L62" s="252"/>
+      <c r="K62" s="264"/>
+      <c r="L62" s="264"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="249"/>
+      <c r="A63" s="261"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6127,12 +6141,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="252"/>
-      <c r="L63" s="252"/>
+      <c r="K63" s="264"/>
+      <c r="L63" s="264"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="249"/>
+      <c r="A64" s="261"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6162,13 +6176,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="252"/>
-      <c r="L64" s="252"/>
+      <c r="K64" s="264"/>
+      <c r="L64" s="264"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="249"/>
-      <c r="B65" s="254" t="s">
+      <c r="A65" s="261"/>
+      <c r="B65" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6197,13 +6211,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="252"/>
-      <c r="L65" s="252"/>
+      <c r="K65" s="264"/>
+      <c r="L65" s="264"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="249"/>
-      <c r="B66" s="255"/>
+      <c r="A66" s="261"/>
+      <c r="B66" s="267"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6230,15 +6244,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="252"/>
-      <c r="L66" s="252"/>
+      <c r="K66" s="264"/>
+      <c r="L66" s="264"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="249"/>
-      <c r="B67" s="256"/>
+      <c r="A67" s="261"/>
+      <c r="B67" s="268"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6265,13 +6279,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="252"/>
-      <c r="L67" s="252"/>
+      <c r="K67" s="264"/>
+      <c r="L67" s="264"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="249"/>
-      <c r="B68" s="246" t="s">
+      <c r="A68" s="261"/>
+      <c r="B68" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6300,15 +6314,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="252"/>
-      <c r="L68" s="252"/>
+      <c r="K68" s="264"/>
+      <c r="L68" s="264"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="249"/>
-      <c r="B69" s="247"/>
+      <c r="A69" s="261"/>
+      <c r="B69" s="270"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6335,14 +6349,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="252"/>
-      <c r="L69" s="252"/>
+      <c r="K69" s="264"/>
+      <c r="L69" s="264"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="250"/>
+      <c r="A70" s="262"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6372,8 +6386,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="253"/>
-      <c r="L70" s="253"/>
+      <c r="K70" s="265"/>
+      <c r="L70" s="265"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6465,7 +6479,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="248" t="s">
+      <c r="A74" s="260" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6497,11 +6511,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="251">
+      <c r="K74" s="263">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="251">
+      <c r="L74" s="263">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6510,7 +6524,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="249"/>
+      <c r="A75" s="261"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6540,12 +6554,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="252"/>
-      <c r="L75" s="252"/>
+      <c r="K75" s="264"/>
+      <c r="L75" s="264"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="249"/>
+      <c r="A76" s="261"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6575,14 +6589,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="252"/>
-      <c r="L76" s="252"/>
+      <c r="K76" s="264"/>
+      <c r="L76" s="264"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="249"/>
+      <c r="A77" s="261"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -6612,12 +6626,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="252"/>
-      <c r="L77" s="252"/>
+      <c r="K77" s="264"/>
+      <c r="L77" s="264"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="249"/>
+      <c r="A78" s="261"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -6647,13 +6661,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="252"/>
-      <c r="L78" s="252"/>
+      <c r="K78" s="264"/>
+      <c r="L78" s="264"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="249"/>
-      <c r="B79" s="254" t="s">
+      <c r="A79" s="261"/>
+      <c r="B79" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6682,13 +6696,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="252"/>
-      <c r="L79" s="252"/>
+      <c r="K79" s="264"/>
+      <c r="L79" s="264"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="249"/>
-      <c r="B80" s="255"/>
+      <c r="A80" s="261"/>
+      <c r="B80" s="267"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -6714,15 +6728,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="252"/>
-      <c r="L80" s="252"/>
+      <c r="K80" s="264"/>
+      <c r="L80" s="264"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="249"/>
-      <c r="B81" s="255"/>
+      <c r="A81" s="261"/>
+      <c r="B81" s="267"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -6749,15 +6763,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="252"/>
-      <c r="L81" s="252"/>
+      <c r="K81" s="264"/>
+      <c r="L81" s="264"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="249"/>
-      <c r="B82" s="256"/>
+      <c r="A82" s="261"/>
+      <c r="B82" s="268"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -6784,13 +6798,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="252"/>
-      <c r="L82" s="252"/>
+      <c r="K82" s="264"/>
+      <c r="L82" s="264"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="249"/>
-      <c r="B83" s="246" t="s">
+      <c r="A83" s="261"/>
+      <c r="B83" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -6819,15 +6833,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="252"/>
-      <c r="L83" s="252"/>
+      <c r="K83" s="264"/>
+      <c r="L83" s="264"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="249"/>
-      <c r="B84" s="247"/>
+      <c r="A84" s="261"/>
+      <c r="B84" s="270"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -6854,14 +6868,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="252"/>
-      <c r="L84" s="252"/>
+      <c r="K84" s="264"/>
+      <c r="L84" s="264"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="250"/>
+      <c r="A85" s="262"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -6891,8 +6905,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="253"/>
-      <c r="L85" s="253"/>
+      <c r="K85" s="265"/>
+      <c r="L85" s="265"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -6983,7 +6997,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="248" t="s">
+      <c r="A89" s="260" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7015,11 +7029,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="251">
+      <c r="K89" s="263">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="251">
+      <c r="L89" s="263">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7028,7 +7042,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="249"/>
+      <c r="A90" s="261"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7058,12 +7072,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="252"/>
-      <c r="L90" s="252"/>
+      <c r="K90" s="264"/>
+      <c r="L90" s="264"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="249"/>
+      <c r="A91" s="261"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7093,14 +7107,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="252"/>
-      <c r="L91" s="252"/>
+      <c r="K91" s="264"/>
+      <c r="L91" s="264"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="249"/>
+      <c r="A92" s="261"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7130,14 +7144,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="252"/>
-      <c r="L92" s="252"/>
+      <c r="K92" s="264"/>
+      <c r="L92" s="264"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="249"/>
+      <c r="A93" s="261"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7167,13 +7181,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="252"/>
-      <c r="L93" s="252"/>
+      <c r="K93" s="264"/>
+      <c r="L93" s="264"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="249"/>
-      <c r="B94" s="254" t="s">
+      <c r="A94" s="261"/>
+      <c r="B94" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7202,15 +7216,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="252"/>
-      <c r="L94" s="252"/>
+      <c r="K94" s="264"/>
+      <c r="L94" s="264"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="249"/>
-      <c r="B95" s="255"/>
+      <c r="A95" s="261"/>
+      <c r="B95" s="267"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7237,15 +7251,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="252"/>
-      <c r="L95" s="252"/>
+      <c r="K95" s="264"/>
+      <c r="L95" s="264"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="249"/>
-      <c r="B96" s="256"/>
+      <c r="A96" s="261"/>
+      <c r="B96" s="268"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7272,13 +7286,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="252"/>
-      <c r="L96" s="252"/>
+      <c r="K96" s="264"/>
+      <c r="L96" s="264"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="249"/>
-      <c r="B97" s="246" t="s">
+      <c r="A97" s="261"/>
+      <c r="B97" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7307,15 +7321,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="252"/>
-      <c r="L97" s="252"/>
+      <c r="K97" s="264"/>
+      <c r="L97" s="264"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="249"/>
-      <c r="B98" s="247"/>
+      <c r="A98" s="261"/>
+      <c r="B98" s="270"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7342,14 +7356,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="252"/>
-      <c r="L98" s="252"/>
+      <c r="K98" s="264"/>
+      <c r="L98" s="264"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="250"/>
+      <c r="A99" s="262"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7379,8 +7393,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="253"/>
-      <c r="L99" s="253"/>
+      <c r="K99" s="265"/>
+      <c r="L99" s="265"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7473,7 +7487,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="248" t="s">
+      <c r="A103" s="260" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7505,11 +7519,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="251">
+      <c r="K103" s="263">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="251">
+      <c r="L103" s="263">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7518,7 +7532,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="249"/>
+      <c r="A104" s="261"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7548,12 +7562,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="252"/>
-      <c r="L104" s="252"/>
+      <c r="K104" s="264"/>
+      <c r="L104" s="264"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="249"/>
+      <c r="A105" s="261"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7583,14 +7597,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="252"/>
-      <c r="L105" s="252"/>
+      <c r="K105" s="264"/>
+      <c r="L105" s="264"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="249"/>
+      <c r="A106" s="261"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -7619,14 +7633,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="252"/>
-      <c r="L106" s="252"/>
+      <c r="K106" s="264"/>
+      <c r="L106" s="264"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="249"/>
+      <c r="A107" s="261"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -7656,13 +7670,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="252"/>
-      <c r="L107" s="252"/>
+      <c r="K107" s="264"/>
+      <c r="L107" s="264"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="249"/>
-      <c r="B108" s="254" t="s">
+      <c r="A108" s="261"/>
+      <c r="B108" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -7691,15 +7705,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="252"/>
-      <c r="L108" s="252"/>
+      <c r="K108" s="264"/>
+      <c r="L108" s="264"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="249"/>
-      <c r="B109" s="255"/>
+      <c r="A109" s="261"/>
+      <c r="B109" s="267"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -7726,15 +7740,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="252"/>
-      <c r="L109" s="252"/>
+      <c r="K109" s="264"/>
+      <c r="L109" s="264"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="249"/>
-      <c r="B110" s="256"/>
+      <c r="A110" s="261"/>
+      <c r="B110" s="268"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -7761,13 +7775,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="252"/>
-      <c r="L110" s="252"/>
+      <c r="K110" s="264"/>
+      <c r="L110" s="264"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="249"/>
-      <c r="B111" s="246" t="s">
+      <c r="A111" s="261"/>
+      <c r="B111" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -7796,15 +7810,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="252"/>
-      <c r="L111" s="252"/>
+      <c r="K111" s="264"/>
+      <c r="L111" s="264"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="249"/>
-      <c r="B112" s="247"/>
+      <c r="A112" s="261"/>
+      <c r="B112" s="270"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -7831,14 +7845,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="252"/>
-      <c r="L112" s="252"/>
+      <c r="K112" s="264"/>
+      <c r="L112" s="264"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="250"/>
+      <c r="A113" s="262"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -7868,8 +7882,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="253"/>
-      <c r="L113" s="253"/>
+      <c r="K113" s="265"/>
+      <c r="L113" s="265"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -7962,7 +7976,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="248" t="s">
+      <c r="A117" s="260" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -7994,11 +8008,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="251">
+      <c r="K117" s="263">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="251">
+      <c r="L117" s="263">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8007,7 +8021,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="249"/>
+      <c r="A118" s="261"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8037,12 +8051,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="252"/>
-      <c r="L118" s="252"/>
+      <c r="K118" s="264"/>
+      <c r="L118" s="264"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="249"/>
+      <c r="A119" s="261"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8072,14 +8086,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="252"/>
-      <c r="L119" s="252"/>
+      <c r="K119" s="264"/>
+      <c r="L119" s="264"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="249"/>
+      <c r="A120" s="261"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8109,13 +8123,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="252"/>
-      <c r="L120" s="252"/>
+      <c r="K120" s="264"/>
+      <c r="L120" s="264"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="249"/>
-      <c r="B121" s="254" t="s">
+      <c r="A121" s="261"/>
+      <c r="B121" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8144,15 +8158,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="252"/>
-      <c r="L121" s="252"/>
+      <c r="K121" s="264"/>
+      <c r="L121" s="264"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="249"/>
-      <c r="B122" s="255"/>
+      <c r="A122" s="261"/>
+      <c r="B122" s="267"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8179,15 +8193,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="252"/>
-      <c r="L122" s="252"/>
+      <c r="K122" s="264"/>
+      <c r="L122" s="264"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="249"/>
-      <c r="B123" s="256"/>
+      <c r="A123" s="261"/>
+      <c r="B123" s="268"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8214,13 +8228,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="252"/>
-      <c r="L123" s="252"/>
+      <c r="K123" s="264"/>
+      <c r="L123" s="264"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="249"/>
-      <c r="B124" s="246" t="s">
+      <c r="A124" s="261"/>
+      <c r="B124" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8249,15 +8263,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="252"/>
-      <c r="L124" s="252"/>
+      <c r="K124" s="264"/>
+      <c r="L124" s="264"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="249"/>
-      <c r="B125" s="247"/>
+      <c r="A125" s="261"/>
+      <c r="B125" s="270"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8284,14 +8298,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="252"/>
-      <c r="L125" s="252"/>
+      <c r="K125" s="264"/>
+      <c r="L125" s="264"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="250"/>
+      <c r="A126" s="262"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8321,8 +8335,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="253"/>
-      <c r="L126" s="253"/>
+      <c r="K126" s="265"/>
+      <c r="L126" s="265"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8415,7 +8429,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="248" t="s">
+      <c r="A130" s="260" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8447,11 +8461,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="251">
+      <c r="K130" s="263">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="251">
+      <c r="L130" s="263">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8460,7 +8474,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="249"/>
+      <c r="A131" s="261"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8490,12 +8504,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="252"/>
-      <c r="L131" s="252"/>
+      <c r="K131" s="264"/>
+      <c r="L131" s="264"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="249"/>
+      <c r="A132" s="261"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8525,14 +8539,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="252"/>
-      <c r="L132" s="252"/>
+      <c r="K132" s="264"/>
+      <c r="L132" s="264"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="249"/>
+      <c r="A133" s="261"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8562,13 +8576,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="252"/>
-      <c r="L133" s="252"/>
+      <c r="K133" s="264"/>
+      <c r="L133" s="264"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="249"/>
-      <c r="B134" s="254" t="s">
+      <c r="A134" s="261"/>
+      <c r="B134" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8597,15 +8611,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="252"/>
-      <c r="L134" s="252"/>
+      <c r="K134" s="264"/>
+      <c r="L134" s="264"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="249"/>
-      <c r="B135" s="255"/>
+      <c r="A135" s="261"/>
+      <c r="B135" s="267"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -8632,15 +8646,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="252"/>
-      <c r="L135" s="252"/>
+      <c r="K135" s="264"/>
+      <c r="L135" s="264"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="249"/>
-      <c r="B136" s="256"/>
+      <c r="A136" s="261"/>
+      <c r="B136" s="268"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -8667,13 +8681,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="252"/>
-      <c r="L136" s="252"/>
+      <c r="K136" s="264"/>
+      <c r="L136" s="264"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="249"/>
-      <c r="B137" s="246" t="s">
+      <c r="A137" s="261"/>
+      <c r="B137" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -8702,15 +8716,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="252"/>
-      <c r="L137" s="252"/>
+      <c r="K137" s="264"/>
+      <c r="L137" s="264"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="249"/>
-      <c r="B138" s="247"/>
+      <c r="A138" s="261"/>
+      <c r="B138" s="270"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -8737,14 +8751,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="252"/>
-      <c r="L138" s="252"/>
+      <c r="K138" s="264"/>
+      <c r="L138" s="264"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="250"/>
+      <c r="A139" s="262"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -8774,8 +8788,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="253"/>
-      <c r="L139" s="253"/>
+      <c r="K139" s="265"/>
+      <c r="L139" s="265"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -8868,7 +8882,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="248" t="s">
+      <c r="A143" s="260" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -8900,11 +8914,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="251">
+      <c r="K143" s="263">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="251">
+      <c r="L143" s="263">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -8913,7 +8927,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="249"/>
+      <c r="A144" s="261"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -8943,12 +8957,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="252"/>
-      <c r="L144" s="252"/>
+      <c r="K144" s="264"/>
+      <c r="L144" s="264"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="249"/>
+      <c r="A145" s="261"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -8978,14 +8992,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="252"/>
-      <c r="L145" s="252"/>
+      <c r="K145" s="264"/>
+      <c r="L145" s="264"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="249"/>
+      <c r="A146" s="261"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9015,13 +9029,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="252"/>
-      <c r="L146" s="252"/>
+      <c r="K146" s="264"/>
+      <c r="L146" s="264"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="249"/>
-      <c r="B147" s="254" t="s">
+      <c r="A147" s="261"/>
+      <c r="B147" s="266" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9050,15 +9064,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="252"/>
-      <c r="L147" s="252"/>
+      <c r="K147" s="264"/>
+      <c r="L147" s="264"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="249"/>
-      <c r="B148" s="255"/>
+      <c r="A148" s="261"/>
+      <c r="B148" s="267"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9085,15 +9099,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="252"/>
-      <c r="L148" s="252"/>
+      <c r="K148" s="264"/>
+      <c r="L148" s="264"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="249"/>
-      <c r="B149" s="256"/>
+      <c r="A149" s="261"/>
+      <c r="B149" s="268"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9120,13 +9134,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="252"/>
-      <c r="L149" s="252"/>
+      <c r="K149" s="264"/>
+      <c r="L149" s="264"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="249"/>
-      <c r="B150" s="246" t="s">
+      <c r="A150" s="261"/>
+      <c r="B150" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9155,15 +9169,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="252"/>
-      <c r="L150" s="252"/>
+      <c r="K150" s="264"/>
+      <c r="L150" s="264"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="249"/>
-      <c r="B151" s="247"/>
+      <c r="A151" s="261"/>
+      <c r="B151" s="270"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9190,14 +9204,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="252"/>
-      <c r="L151" s="252"/>
+      <c r="K151" s="264"/>
+      <c r="L151" s="264"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="250"/>
+      <c r="A152" s="262"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9227,8 +9241,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="253"/>
-      <c r="L152" s="253"/>
+      <c r="K152" s="265"/>
+      <c r="L152" s="265"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9301,10 +9315,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="257" t="s">
+      <c r="H155" s="281" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="258"/>
+      <c r="I155" s="282"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9341,11 +9355,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="259">
+      <c r="H156" s="283">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="260"/>
+      <c r="I156" s="284"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9362,38 +9376,12 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9410,12 +9398,38 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9425,10 +9439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9490,7 +9504,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="261" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9521,11 +9535,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="280">
+      <c r="L2" s="291">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="280">
+      <c r="M2" s="291">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9534,7 +9548,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="249"/>
+      <c r="A3" s="261"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9563,14 +9577,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="291"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="249"/>
+      <c r="A4" s="261"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9601,13 +9615,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="280"/>
-      <c r="M4" s="280"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="291"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="249"/>
-      <c r="B5" s="254"/>
+      <c r="A5" s="261"/>
+      <c r="B5" s="266"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -9635,15 +9649,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
+      <c r="L5" s="291"/>
+      <c r="M5" s="291"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="249"/>
-      <c r="B6" s="255"/>
+      <c r="A6" s="261"/>
+      <c r="B6" s="267"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -9671,15 +9685,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
+      <c r="L6" s="291"/>
+      <c r="M6" s="291"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="249"/>
-      <c r="B7" s="256"/>
+      <c r="A7" s="261"/>
+      <c r="B7" s="268"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -9707,12 +9721,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="280"/>
-      <c r="M7" s="280"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="249"/>
+      <c r="A8" s="261"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -9741,14 +9755,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="280"/>
-      <c r="M8" s="280"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="250"/>
+      <c r="A9" s="262"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -9777,8 +9791,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="281"/>
-      <c r="M9" s="281"/>
+      <c r="L9" s="292"/>
+      <c r="M9" s="292"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -9911,7 +9925,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="261" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -9942,11 +9956,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="280">
+      <c r="L14" s="291">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="280">
+      <c r="M14" s="291">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -9955,7 +9969,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="249"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -9984,14 +9998,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="280"/>
-      <c r="M15" s="280"/>
+      <c r="L15" s="291"/>
+      <c r="M15" s="291"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="249"/>
+      <c r="A16" s="261"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10021,13 +10035,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="280"/>
-      <c r="M16" s="280"/>
+      <c r="L16" s="291"/>
+      <c r="M16" s="291"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="249"/>
-      <c r="B17" s="284"/>
+      <c r="A17" s="261"/>
+      <c r="B17" s="295"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10055,15 +10069,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="280"/>
-      <c r="M17" s="280"/>
+      <c r="L17" s="291"/>
+      <c r="M17" s="291"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="249"/>
-      <c r="B18" s="285"/>
+      <c r="A18" s="261"/>
+      <c r="B18" s="296"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10091,15 +10105,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="280"/>
-      <c r="M18" s="280"/>
+      <c r="L18" s="291"/>
+      <c r="M18" s="291"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="249"/>
-      <c r="B19" s="286"/>
+      <c r="A19" s="261"/>
+      <c r="B19" s="297"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10128,12 +10142,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="280"/>
-      <c r="M19" s="280"/>
+      <c r="L19" s="291"/>
+      <c r="M19" s="291"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="249"/>
+      <c r="A20" s="261"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10162,14 +10176,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="280"/>
-      <c r="M20" s="280"/>
+      <c r="L20" s="291"/>
+      <c r="M20" s="291"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="250"/>
+      <c r="A21" s="262"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10198,8 +10212,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="281"/>
-      <c r="M21" s="281"/>
+      <c r="L21" s="292"/>
+      <c r="M21" s="292"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10332,7 +10346,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="249" t="s">
+      <c r="A26" s="261" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10363,11 +10377,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="280">
+      <c r="L26" s="291">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="280">
+      <c r="M26" s="291">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10376,7 +10390,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="249"/>
+      <c r="A27" s="261"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10405,14 +10419,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="280"/>
+      <c r="L27" s="291"/>
+      <c r="M27" s="291"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="249"/>
+      <c r="A28" s="261"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10442,13 +10456,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="280"/>
-      <c r="M28" s="280"/>
+      <c r="L28" s="291"/>
+      <c r="M28" s="291"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="249"/>
-      <c r="B29" s="284"/>
+      <c r="A29" s="261"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10476,15 +10490,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="280"/>
-      <c r="M29" s="280"/>
+      <c r="L29" s="291"/>
+      <c r="M29" s="291"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="249"/>
-      <c r="B30" s="285"/>
+      <c r="A30" s="261"/>
+      <c r="B30" s="296"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10512,15 +10526,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="280"/>
-      <c r="M30" s="280"/>
+      <c r="L30" s="291"/>
+      <c r="M30" s="291"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="249"/>
-      <c r="B31" s="286"/>
+      <c r="A31" s="261"/>
+      <c r="B31" s="297"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10549,12 +10563,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="280"/>
-      <c r="M31" s="280"/>
+      <c r="L31" s="291"/>
+      <c r="M31" s="291"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="249"/>
+      <c r="A32" s="261"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10583,14 +10597,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="280"/>
-      <c r="M32" s="280"/>
+      <c r="L32" s="291"/>
+      <c r="M32" s="291"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="250"/>
+      <c r="A33" s="262"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -10619,8 +10633,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="281"/>
-      <c r="M33" s="281"/>
+      <c r="L33" s="292"/>
+      <c r="M33" s="292"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -10753,7 +10767,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="249" t="s">
+      <c r="A38" s="261" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -10784,11 +10798,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="280">
+      <c r="L38" s="291">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="280">
+      <c r="M38" s="291">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -10797,7 +10811,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="249"/>
+      <c r="A39" s="261"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -10826,14 +10840,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="280"/>
-      <c r="M39" s="280"/>
+      <c r="L39" s="291"/>
+      <c r="M39" s="291"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="249"/>
+      <c r="A40" s="261"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -10863,13 +10877,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="280"/>
-      <c r="M40" s="280"/>
+      <c r="L40" s="291"/>
+      <c r="M40" s="291"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="249"/>
-      <c r="B41" s="284"/>
+      <c r="A41" s="261"/>
+      <c r="B41" s="295"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -10897,15 +10911,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="280"/>
-      <c r="M41" s="280"/>
+      <c r="L41" s="291"/>
+      <c r="M41" s="291"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="249"/>
-      <c r="B42" s="285"/>
+      <c r="A42" s="261"/>
+      <c r="B42" s="296"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -10933,15 +10947,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="280"/>
-      <c r="M42" s="280"/>
+      <c r="L42" s="291"/>
+      <c r="M42" s="291"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="249"/>
-      <c r="B43" s="286"/>
+      <c r="A43" s="261"/>
+      <c r="B43" s="297"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -10970,12 +10984,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="280"/>
-      <c r="M43" s="280"/>
+      <c r="L43" s="291"/>
+      <c r="M43" s="291"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="249"/>
+      <c r="A44" s="261"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11004,14 +11018,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="280"/>
-      <c r="M44" s="280"/>
+      <c r="L44" s="291"/>
+      <c r="M44" s="291"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="250"/>
+      <c r="A45" s="262"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11040,8 +11054,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="281"/>
-      <c r="M45" s="281"/>
+      <c r="L45" s="292"/>
+      <c r="M45" s="292"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11176,7 +11190,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="249" t="s">
+      <c r="A50" s="261" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11212,11 +11226,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="280">
+      <c r="L50" s="291">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="280">
+      <c r="M50" s="291">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11225,7 +11239,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="249"/>
+      <c r="A51" s="261"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11259,14 +11273,14 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="280"/>
-      <c r="M51" s="280"/>
+      <c r="L51" s="291"/>
+      <c r="M51" s="291"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="249"/>
+      <c r="A52" s="261"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11301,13 +11315,13 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="280"/>
-      <c r="M52" s="280"/>
+      <c r="L52" s="291"/>
+      <c r="M52" s="291"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="249"/>
-      <c r="B53" s="284">
+      <c r="A53" s="261"/>
+      <c r="B53" s="295">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11340,15 +11354,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="280"/>
-      <c r="M53" s="280"/>
+      <c r="L53" s="291"/>
+      <c r="M53" s="291"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="249"/>
-      <c r="B54" s="285"/>
+      <c r="A54" s="261"/>
+      <c r="B54" s="296"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11379,14 +11393,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="280"/>
-      <c r="M54" s="280"/>
+      <c r="L54" s="291"/>
+      <c r="M54" s="291"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="250"/>
+      <c r="A55" s="262"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11420,8 +11434,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="281"/>
-      <c r="M55" s="281"/>
+      <c r="L55" s="292"/>
+      <c r="M55" s="292"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11560,7 +11574,7 @@
       <c r="A60" s="287" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="277">
+      <c r="B60" s="293">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11593,11 +11607,11 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="279">
+      <c r="L60" s="290">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="279">
+      <c r="M60" s="290">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11607,7 +11621,7 @@
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
       <c r="A61" s="288"/>
-      <c r="B61" s="278"/>
+      <c r="B61" s="294"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -11638,8 +11652,8 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="280"/>
-      <c r="M61" s="280"/>
+      <c r="L61" s="291"/>
+      <c r="M61" s="291"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
@@ -11679,15 +11693,15 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="280"/>
-      <c r="M62" s="280"/>
+      <c r="L62" s="291"/>
+      <c r="M62" s="291"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
       <c r="A63" s="288"/>
-      <c r="B63" s="282">
+      <c r="B63" s="285">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -11720,15 +11734,15 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="280"/>
-      <c r="M63" s="280"/>
+      <c r="L63" s="291"/>
+      <c r="M63" s="291"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
       <c r="A64" s="288"/>
-      <c r="B64" s="283"/>
+      <c r="B64" s="286"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -11759,8 +11773,8 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="280"/>
-      <c r="M64" s="280"/>
+      <c r="L64" s="291"/>
+      <c r="M64" s="291"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
@@ -11800,8 +11814,8 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="281"/>
-      <c r="M65" s="281"/>
+      <c r="L65" s="292"/>
+      <c r="M65" s="292"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12127,10 +12141,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="274" t="s">
+      <c r="A76" s="301" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="277">
+      <c r="B76" s="293">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12163,11 +12177,11 @@
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="279">
+      <c r="L76" s="290">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="279">
+      <c r="M76" s="290">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12176,8 +12190,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="275"/>
-      <c r="B77" s="278"/>
+      <c r="A77" s="302"/>
+      <c r="B77" s="294"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12208,14 +12222,14 @@
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="280"/>
-      <c r="M77" s="280"/>
+      <c r="L77" s="291"/>
+      <c r="M77" s="291"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="275"/>
+      <c r="A78" s="302"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12249,15 +12263,15 @@
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="280"/>
-      <c r="M78" s="280"/>
+      <c r="L78" s="291"/>
+      <c r="M78" s="291"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="275"/>
-      <c r="B79" s="282">
+      <c r="A79" s="302"/>
+      <c r="B79" s="285">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12290,15 +12304,15 @@
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="280"/>
-      <c r="M79" s="280"/>
+      <c r="L79" s="291"/>
+      <c r="M79" s="291"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="275"/>
-      <c r="B80" s="283"/>
+      <c r="A80" s="302"/>
+      <c r="B80" s="286"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12329,14 +12343,14 @@
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="280"/>
-      <c r="M80" s="280"/>
+      <c r="L80" s="291"/>
+      <c r="M80" s="291"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="276"/>
+      <c r="A81" s="303"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12370,8 +12384,8 @@
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="281"/>
-      <c r="M81" s="281"/>
+      <c r="L81" s="292"/>
+      <c r="M81" s="292"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12422,7 +12436,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="271" t="s">
+      <c r="A83" s="298" t="s">
         <v>198</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12461,7 +12475,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="272"/>
+      <c r="A84" s="299"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12506,7 +12520,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="273"/>
+      <c r="A85" s="300"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -12706,14 +12720,14 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="274" t="s">
+      <c r="A91" s="301" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="277">
-        <v>28</v>
+      <c r="B91" s="246">
+        <v>77.319999999999993</v>
       </c>
       <c r="C91" s="137" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="D91" s="138">
         <v>8506.9304000000011</v>
@@ -12735,526 +12749,485 @@
         <v>8500</v>
       </c>
       <c r="J91" s="142">
-        <f t="shared" ref="J91:J95" si="23">E91/D91</f>
+        <f t="shared" ref="J91:J94" si="23">E91/D91</f>
         <v>4.0733846840923955E-4</v>
       </c>
       <c r="K91" s="62">
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="279">
-        <f>E97/D97</f>
-        <v>2.2463941477399992E-4</v>
-      </c>
-      <c r="M91" s="279">
+      <c r="L91" s="290">
+        <f>E96/D96</f>
+        <v>2.8163154527786601E-4</v>
+      </c>
+      <c r="M91" s="290">
         <f>L91*365</f>
-        <v>8.199338639250997E-2</v>
+        <v>0.10279551402642109</v>
       </c>
       <c r="N91" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="275"/>
-      <c r="B92" s="278"/>
-      <c r="C92" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="94">
-        <v>10049.320000000003</v>
-      </c>
-      <c r="E92" s="94">
-        <v>0</v>
-      </c>
-      <c r="F92" s="94">
+      <c r="A92" s="302"/>
+      <c r="B92" s="148">
+        <v>117.98</v>
+      </c>
+      <c r="C92" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="150">
+        <v>10005.753999999999</v>
+      </c>
+      <c r="E92" s="150">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F92" s="150">
         <f>D92+E92</f>
-        <v>10049.320000000003</v>
-      </c>
-      <c r="G92" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="H92" s="95">
-        <v>10049.32</v>
+        <v>10007.671999999999</v>
+      </c>
+      <c r="G92" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H92" s="152">
+        <v>10047.950000000001</v>
       </c>
       <c r="I92" s="12">
         <v>10000</v>
       </c>
       <c r="J92" s="62">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.916897017456156E-4</v>
       </c>
       <c r="K92" s="62">
-        <f t="shared" ref="K92:K96" si="24">(F92-I92)/(H92-I92)</f>
-        <v>1.0000000000000737</v>
-      </c>
-      <c r="L92" s="280"/>
-      <c r="M92" s="280"/>
+        <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
+        <v>0.15999999999996964</v>
+      </c>
+      <c r="L92" s="291"/>
+      <c r="M92" s="291"/>
       <c r="N92" s="192">
-        <v>42929</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="275"/>
-      <c r="B93" s="148">
-        <v>117.98</v>
-      </c>
-      <c r="C93" s="149" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="150">
-        <v>10005.753999999999</v>
-      </c>
-      <c r="E93" s="150">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="F93" s="150">
-        <f>D93+E93</f>
-        <v>10007.671999999999</v>
-      </c>
-      <c r="G93" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H93" s="152">
-        <v>10047.950000000001</v>
+      <c r="A93" s="302"/>
+      <c r="B93" s="285">
+        <v>118.93</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="102">
+        <v>10006.460500000001</v>
+      </c>
+      <c r="E93" s="102">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F93" s="102">
+        <f t="shared" ref="F93:F94" si="25">D93+E93</f>
+        <v>10008.614000000001</v>
+      </c>
+      <c r="G93" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="H93" s="103">
+        <v>10079.68</v>
       </c>
       <c r="I93" s="12">
         <v>10000</v>
       </c>
       <c r="J93" s="62">
         <f t="shared" si="23"/>
-        <v>1.916897017456156E-4</v>
+        <v>2.1521096295738139E-4</v>
       </c>
       <c r="K93" s="62">
         <f t="shared" si="24"/>
-        <v>0.15999999999996964</v>
-      </c>
-      <c r="L93" s="280"/>
-      <c r="M93" s="280"/>
-      <c r="N93" s="192">
-        <v>42951</v>
+        <v>0.10810742971889264</v>
+      </c>
+      <c r="L93" s="291"/>
+      <c r="M93" s="291"/>
+      <c r="N93" s="193" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="275"/>
-      <c r="B94" s="282">
-        <v>118.93</v>
-      </c>
+      <c r="A94" s="302"/>
+      <c r="B94" s="286"/>
       <c r="C94" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D94" s="102">
-        <v>10006.460500000001</v>
+        <v>1022.0296</v>
       </c>
       <c r="E94" s="102">
-        <v>2.1535000000000002</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="F94" s="102">
-        <f t="shared" ref="F94:F95" si="25">D94+E94</f>
-        <v>10008.614000000001</v>
+        <f t="shared" si="25"/>
+        <v>1022.3584</v>
       </c>
       <c r="G94" s="72" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="H94" s="103">
-        <v>10079.68</v>
+        <v>1032.8800000000001</v>
       </c>
       <c r="I94" s="12">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J94" s="62">
         <f t="shared" si="23"/>
-        <v>2.1521096295738139E-4</v>
+        <v>3.2171279579378133E-4</v>
       </c>
       <c r="K94" s="62">
         <f t="shared" si="24"/>
-        <v>0.10810742971889264</v>
-      </c>
-      <c r="L94" s="280"/>
-      <c r="M94" s="280"/>
+        <v>0.6799999999999965</v>
+      </c>
+      <c r="L94" s="291"/>
+      <c r="M94" s="291"/>
       <c r="N94" s="193" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="25.5">
-      <c r="A95" s="275"/>
-      <c r="B95" s="283"/>
-      <c r="C95" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" s="102">
-        <v>1022.0296</v>
-      </c>
-      <c r="E95" s="102">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="F95" s="102">
-        <f t="shared" si="25"/>
-        <v>1022.3584</v>
-      </c>
-      <c r="G95" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H95" s="103">
-        <v>1032.8800000000001</v>
-      </c>
-      <c r="I95" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J95" s="62">
-        <f t="shared" si="23"/>
-        <v>3.2171279579378133E-4</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A95" s="303"/>
+      <c r="B95" s="173">
+        <v>29.59</v>
+      </c>
+      <c r="C95" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="143">
+        <v>10069.090000000002</v>
+      </c>
+      <c r="E95" s="144">
+        <v>3.29</v>
+      </c>
+      <c r="F95" s="144">
+        <f>D95+E95</f>
+        <v>10072.380000000003</v>
+      </c>
+      <c r="G95" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" s="144">
+        <v>11196.73</v>
+      </c>
+      <c r="I95" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J95" s="147">
+        <f>E95/D95</f>
+        <v>3.2674253582001941E-4</v>
       </c>
       <c r="K95" s="62">
         <f t="shared" si="24"/>
-        <v>0.6799999999999965</v>
-      </c>
-      <c r="L95" s="280"/>
-      <c r="M95" s="280"/>
-      <c r="N95" s="193" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A96" s="276"/>
-      <c r="B96" s="173">
-        <v>29.59</v>
-      </c>
-      <c r="C96" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="D96" s="143">
-        <v>10069.090000000002</v>
-      </c>
-      <c r="E96" s="144">
-        <v>3.29</v>
-      </c>
-      <c r="F96" s="144">
-        <f>D96+E96</f>
-        <v>10072.380000000003</v>
-      </c>
-      <c r="G96" s="145" t="s">
-        <v>126</v>
-      </c>
-      <c r="H96" s="144">
-        <v>11196.73</v>
-      </c>
-      <c r="I96" s="146">
-        <v>10000</v>
-      </c>
-      <c r="J96" s="147">
-        <f>E96/D96</f>
-        <v>3.2674253582001941E-4</v>
-      </c>
-      <c r="K96" s="62">
-        <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L96" s="281"/>
-      <c r="M96" s="281"/>
-      <c r="N96" s="194" t="s">
+      <c r="L95" s="292"/>
+      <c r="M95" s="292"/>
+      <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A97" s="195" t="s">
+    <row r="96" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A96" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="174">
-        <f>SUM(B91:B96)</f>
-        <v>294.5</v>
-      </c>
-      <c r="C97" s="37" t="s">
+      <c r="B96" s="174">
+        <f>SUM(B91:B95)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C96" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D97" s="11">
-        <f>SUM(D91:D96)</f>
-        <v>49659.584500000012</v>
-      </c>
-      <c r="E97" s="61">
-        <f>SUM(E91:E96)</f>
+      <c r="D96" s="11">
+        <f>SUM(D91:D95)</f>
+        <v>39610.264500000005</v>
+      </c>
+      <c r="E96" s="61">
+        <f>SUM(E91:E95)</f>
         <v>11.1555</v>
       </c>
-      <c r="F97" s="11">
-        <f>SUM(F91:F96)</f>
-        <v>49670.740000000005</v>
-      </c>
-      <c r="G97" s="121" t="s">
+      <c r="F96" s="11">
+        <f>SUM(F91:F95)</f>
+        <v>39621.420000000006</v>
+      </c>
+      <c r="G96" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="H97" s="66">
+      <c r="H96" s="66">
         <f>L91*10000</f>
-        <v>2.2463941477399993</v>
-      </c>
-      <c r="I97" s="158">
-        <f>SUM(I91:I96)</f>
-        <v>49500</v>
-      </c>
-      <c r="J97" s="68"/>
-      <c r="K97" s="68"/>
-      <c r="L97" s="7" t="s">
+        <v>2.8163154527786602</v>
+      </c>
+      <c r="I96" s="158">
+        <f>SUM(I91:I95)</f>
+        <v>39500</v>
+      </c>
+      <c r="J96" s="68"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M97" s="66">
+      <c r="M96" s="66">
         <f>M91*10000</f>
-        <v>819.93386392509967</v>
-      </c>
-      <c r="N97" s="196"/>
-    </row>
-    <row r="98" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A98" s="271" t="s">
+        <v>1027.955140264211</v>
+      </c>
+      <c r="N96" s="196"/>
+    </row>
+    <row r="97" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A97" s="298" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="122" t="s">
+      <c r="B97" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="245" t="s">
+      <c r="C97" s="245" t="s">
         <v>139</v>
       </c>
-      <c r="D98" s="123">
+      <c r="D97" s="123">
         <v>1408.02</v>
       </c>
-      <c r="E98" s="124">
+      <c r="E97" s="124">
         <v>-3.01</v>
       </c>
-      <c r="F98" s="124">
+      <c r="F97" s="124">
+        <f>D97+E97</f>
+        <v>1405.01</v>
+      </c>
+      <c r="G97" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H97" s="123">
+        <f>F97</f>
+        <v>1405.01</v>
+      </c>
+      <c r="I97" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J97" s="127">
+        <f>(H97-I97)/I97</f>
+        <v>-6.332666666666667E-2</v>
+      </c>
+      <c r="K97" s="127"/>
+      <c r="L97" s="128"/>
+      <c r="M97" s="129"/>
+      <c r="N97" s="197"/>
+    </row>
+    <row r="98" spans="1:14" ht="25.5">
+      <c r="A98" s="299"/>
+      <c r="B98" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="244" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="131">
+        <v>1497.75</v>
+      </c>
+      <c r="E98" s="132">
+        <v>-3.07</v>
+      </c>
+      <c r="F98" s="132">
         <f>D98+E98</f>
-        <v>1405.01</v>
-      </c>
-      <c r="G98" s="125">
-        <v>42811</v>
-      </c>
-      <c r="H98" s="123">
+        <v>1494.68</v>
+      </c>
+      <c r="G98" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H98" s="131">
         <f>F98</f>
-        <v>1405.01</v>
-      </c>
-      <c r="I98" s="126">
+        <v>1494.68</v>
+      </c>
+      <c r="I98" s="167">
         <v>1500</v>
       </c>
-      <c r="J98" s="127">
+      <c r="J98" s="168">
         <f>(H98-I98)/I98</f>
-        <v>-6.332666666666667E-2</v>
-      </c>
-      <c r="K98" s="127"/>
-      <c r="L98" s="128"/>
-      <c r="M98" s="129"/>
-      <c r="N98" s="197"/>
+        <v>-3.5466666666666242E-3</v>
+      </c>
+      <c r="K98" s="238" t="s">
+        <v>204</v>
+      </c>
+      <c r="L98" s="243">
+        <v>1.456</v>
+      </c>
+      <c r="M98" s="242" t="s">
+        <v>203</v>
+      </c>
+      <c r="N98" s="241" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="272"/>
-      <c r="B99" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" s="244" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99" s="131">
-        <v>1497.75</v>
-      </c>
-      <c r="E99" s="132">
-        <v>-3.07</v>
-      </c>
-      <c r="F99" s="132">
+      <c r="A99" s="300"/>
+      <c r="B99" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C99" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" s="164">
+        <v>450.06</v>
+      </c>
+      <c r="E99" s="163">
+        <v>0.06</v>
+      </c>
+      <c r="F99" s="163">
         <f>D99+E99</f>
-        <v>1494.68</v>
-      </c>
-      <c r="G99" s="133">
-        <v>42927</v>
-      </c>
-      <c r="H99" s="131">
+        <v>450.12</v>
+      </c>
+      <c r="G99" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="166">
         <f>F99</f>
-        <v>1494.68</v>
-      </c>
-      <c r="I99" s="167">
-        <v>1500</v>
-      </c>
-      <c r="J99" s="168">
-        <f>(H99-I99)/I99</f>
-        <v>-3.5466666666666242E-3</v>
-      </c>
-      <c r="K99" s="238" t="s">
-        <v>204</v>
-      </c>
-      <c r="L99" s="243">
-        <v>1.456</v>
-      </c>
-      <c r="M99" s="242" t="s">
-        <v>203</v>
-      </c>
-      <c r="N99" s="241" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="25.5">
-      <c r="A100" s="273"/>
-      <c r="B100" s="162">
-        <v>7.12</v>
-      </c>
-      <c r="C100" s="177" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" s="164">
-        <v>450.06</v>
-      </c>
-      <c r="E100" s="163">
-        <v>0.06</v>
-      </c>
-      <c r="F100" s="163">
-        <f t="shared" ref="F100" si="26">D100+E100</f>
         <v>450.12</v>
       </c>
-      <c r="G100" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="166">
-        <f>F100</f>
-        <v>450.12</v>
-      </c>
-      <c r="I100" s="171">
+      <c r="I99" s="171">
         <v>450</v>
       </c>
-      <c r="J100" s="239">
-        <f t="shared" ref="J100" si="27">E100/D100</f>
+      <c r="J99" s="239">
+        <f t="shared" ref="J99" si="26">E99/D99</f>
         <v>1.3331555792560991E-4</v>
       </c>
-      <c r="K100" s="240">
-        <f>(F100-I100)/I100</f>
+      <c r="K99" s="240">
+        <f>(F99-I99)/I99</f>
         <v>2.6666666666667676E-4</v>
       </c>
-      <c r="L100" s="175"/>
-      <c r="M100" s="176"/>
-      <c r="N100" s="198"/>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="199"/>
-      <c r="B101" s="186"/>
-      <c r="C101" s="186"/>
-      <c r="D101" s="186"/>
-      <c r="E101" s="186"/>
-      <c r="F101" s="186"/>
-      <c r="G101" s="186"/>
-      <c r="H101" s="186"/>
-      <c r="I101" s="186"/>
-      <c r="J101" s="186"/>
-      <c r="K101" s="186"/>
-      <c r="L101" s="186"/>
-      <c r="M101" s="186"/>
-      <c r="N101" s="200"/>
-    </row>
-    <row r="102" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A102" s="201" t="s">
+      <c r="L99" s="175"/>
+      <c r="M99" s="176"/>
+      <c r="N99" s="198"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="199"/>
+      <c r="B100" s="186"/>
+      <c r="C100" s="186"/>
+      <c r="D100" s="186"/>
+      <c r="E100" s="186"/>
+      <c r="F100" s="186"/>
+      <c r="G100" s="186"/>
+      <c r="H100" s="186"/>
+      <c r="I100" s="186"/>
+      <c r="J100" s="186"/>
+      <c r="K100" s="186"/>
+      <c r="L100" s="186"/>
+      <c r="M100" s="186"/>
+      <c r="N100" s="200"/>
+    </row>
+    <row r="101" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A101" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="178" t="s">
+      <c r="B101" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="181" t="s">
+      <c r="C101" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="D102" s="181" t="s">
+      <c r="D101" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="E102" s="181" t="s">
+      <c r="E101" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="F102" s="178" t="s">
+      <c r="F101" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="G102" s="178" t="s">
+      <c r="G101" s="178" t="s">
         <v>194</v>
       </c>
-      <c r="H102" s="178" t="s">
+      <c r="H101" s="178" t="s">
         <v>192</v>
       </c>
-      <c r="I102" s="180" t="s">
+      <c r="I101" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="J102" s="180" t="s">
+      <c r="J101" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="K102" s="182" t="s">
+      <c r="K101" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="L102" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="M102" s="179" t="s">
+      <c r="L101" s="307" t="s">
+        <v>227</v>
+      </c>
+      <c r="M101" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="N102" s="202" t="s">
+      <c r="N101" s="202" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A103" s="203" t="s">
+    <row r="102" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A102" s="203" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="204" t="s">
+      <c r="B102" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="C103" s="205">
-        <f>F97+B97</f>
-        <v>49965.240000000005</v>
-      </c>
-      <c r="D103" s="205">
-        <f>I97</f>
-        <v>49500</v>
-      </c>
-      <c r="E103" s="206">
+      <c r="C102" s="205">
+        <f>F96+B96</f>
+        <v>39965.240000000005</v>
+      </c>
+      <c r="D102" s="205">
+        <f>I96</f>
+        <v>39500</v>
+      </c>
+      <c r="E102" s="206">
         <v>22</v>
       </c>
-      <c r="F103" s="207">
-        <f>C103-D103</f>
+      <c r="F102" s="207">
+        <f>C102-D102</f>
         <v>465.24000000000524</v>
       </c>
-      <c r="G103" s="208">
-        <f>F103/D103</f>
-        <v>9.3987878787879838E-3</v>
-      </c>
-      <c r="H103" s="207">
-        <f>F103/E103</f>
+      <c r="G102" s="208">
+        <f>F102/D102</f>
+        <v>1.1778227848101399E-2</v>
+      </c>
+      <c r="H102" s="207">
+        <f>F102/E102</f>
         <v>21.147272727272966</v>
       </c>
-      <c r="I103" s="208">
-        <f>G103/E103</f>
-        <v>4.2721763085399927E-4</v>
-      </c>
-      <c r="J103" s="209">
-        <f>H103*10000/D103</f>
-        <v>4.2721763085399926</v>
-      </c>
-      <c r="K103" s="210">
-        <f>B97</f>
-        <v>294.5</v>
-      </c>
-      <c r="L103" s="210">
-        <f>F103-K103</f>
-        <v>170.74000000000524</v>
-      </c>
-      <c r="M103" s="208">
-        <f>I103*365</f>
-        <v>0.15593443526170975</v>
-      </c>
-      <c r="N103" s="211">
-        <f>H103*365</f>
+      <c r="I102" s="208">
+        <f>G102/E102</f>
+        <v>5.3537399309551816E-4</v>
+      </c>
+      <c r="J102" s="209">
+        <f>H102*10000/D102</f>
+        <v>5.3537399309551814</v>
+      </c>
+      <c r="K102" s="210">
+        <f>B96</f>
+        <v>343.82</v>
+      </c>
+      <c r="L102" s="210">
+        <f>F102-K102</f>
+        <v>121.42000000000525</v>
+      </c>
+      <c r="M102" s="208">
+        <f>I102*365</f>
+        <v>0.19541150747986413</v>
+      </c>
+      <c r="N102" s="211">
+        <f>H102*365</f>
         <v>7718.7545454546325</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15" thickTop="1"/>
+    <row r="103" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="36">
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -13267,18 +13240,19 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="L91:L96"/>
-    <mergeCell ref="M91:M96"/>
-    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13291,7 +13265,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13308,6 +13282,7 @@
     <col min="10" max="10" width="9.25" customWidth="1"/>
     <col min="11" max="11" width="10.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13454,237 +13429,237 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="290" t="s">
+      <c r="A17" s="304" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="291"/>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="291"/>
-      <c r="I17" s="291"/>
-      <c r="J17" s="291"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
+      <c r="B17" s="305"/>
+      <c r="C17" s="305"/>
+      <c r="D17" s="305"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="305"/>
+      <c r="K17" s="305"/>
+      <c r="L17" s="306"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
-      <c r="A18" s="293" t="s">
+      <c r="A18" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="293" t="s">
+      <c r="B18" s="247" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="294" t="s">
+      <c r="C18" s="248" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="295" t="s">
+      <c r="D18" s="249" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="296" t="s">
+      <c r="E18" s="250" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="296" t="s">
+      <c r="F18" s="250" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="303" t="s">
+      <c r="G18" s="257" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="293" t="s">
+      <c r="H18" s="247" t="s">
         <v>213</v>
       </c>
-      <c r="I18" s="304" t="s">
+      <c r="I18" s="258" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="293" t="s">
+      <c r="J18" s="247" t="s">
         <v>217</v>
       </c>
-      <c r="K18" s="293" t="s">
+      <c r="K18" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="L18" s="293" t="s">
+      <c r="L18" s="247" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15">
-      <c r="A19" s="297">
+      <c r="A19" s="251">
         <v>2017</v>
       </c>
-      <c r="B19" s="297">
+      <c r="B19" s="251">
         <v>7</v>
       </c>
-      <c r="C19" s="297">
+      <c r="C19" s="251">
         <v>49950</v>
       </c>
-      <c r="D19" s="298">
+      <c r="D19" s="252">
         <v>0.1</v>
       </c>
-      <c r="E19" s="300">
+      <c r="E19" s="254">
         <f>C19*D19</f>
         <v>4995</v>
       </c>
-      <c r="F19" s="300">
+      <c r="F19" s="254">
         <f>E19/365*G19</f>
         <v>424.23287671232879</v>
       </c>
-      <c r="G19" s="297">
+      <c r="G19" s="251">
         <v>31</v>
       </c>
-      <c r="H19" s="299">
-        <v>294.5</v>
-      </c>
-      <c r="I19" s="305">
+      <c r="H19" s="253">
+        <v>343.82</v>
+      </c>
+      <c r="I19" s="259">
         <f>F19-H19</f>
-        <v>129.73287671232879</v>
-      </c>
-      <c r="J19" s="297">
+        <v>80.412876712328796</v>
+      </c>
+      <c r="J19" s="251">
         <v>0</v>
       </c>
-      <c r="K19" s="302">
+      <c r="K19" s="256">
         <f>H19/F19</f>
-        <v>0.69419419419419415</v>
-      </c>
-      <c r="L19" s="301" t="s">
+        <v>0.81045109625754785</v>
+      </c>
+      <c r="L19" s="255" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15">
-      <c r="A20" s="297">
+      <c r="A20" s="251">
         <v>2017</v>
       </c>
-      <c r="B20" s="297">
+      <c r="B20" s="251">
         <v>8</v>
       </c>
-      <c r="C20" s="297">
+      <c r="C20" s="251">
         <f>C19+J20</f>
         <v>55950</v>
       </c>
-      <c r="D20" s="298">
+      <c r="D20" s="252">
         <v>0.1</v>
       </c>
-      <c r="E20" s="300">
+      <c r="E20" s="254">
         <f>C20*D20</f>
         <v>5595</v>
       </c>
-      <c r="F20" s="300">
+      <c r="F20" s="254">
         <f>E20/365*G20</f>
         <v>475.1917808219178</v>
       </c>
-      <c r="G20" s="297">
+      <c r="G20" s="251">
         <v>31</v>
       </c>
-      <c r="H20" s="299">
+      <c r="H20" s="253">
         <v>0</v>
       </c>
-      <c r="I20" s="305">
+      <c r="I20" s="259">
         <f>F20-H20</f>
         <v>475.1917808219178</v>
       </c>
-      <c r="J20" s="297">
+      <c r="J20" s="251">
         <v>6000</v>
       </c>
-      <c r="K20" s="302">
+      <c r="K20" s="256">
         <f>H20/F20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="301" t="s">
+      <c r="L20" s="255" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="290" t="s">
+      <c r="A22" s="304" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="291"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="291"/>
-      <c r="E22" s="291"/>
-      <c r="F22" s="291"/>
-      <c r="G22" s="291"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="291"/>
-      <c r="J22" s="291"/>
-      <c r="K22" s="291"/>
-      <c r="L22" s="292"/>
+      <c r="B22" s="305"/>
+      <c r="C22" s="305"/>
+      <c r="D22" s="305"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="305"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="305"/>
+      <c r="K22" s="305"/>
+      <c r="L22" s="306"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
-      <c r="A23" s="293" t="s">
+      <c r="A23" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="293" t="s">
+      <c r="B23" s="247" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="294" t="s">
+      <c r="C23" s="248" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="295" t="s">
+      <c r="D23" s="249" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="296" t="s">
+      <c r="E23" s="250" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="296" t="s">
+      <c r="F23" s="250" t="s">
         <v>214</v>
       </c>
-      <c r="G23" s="303" t="s">
+      <c r="G23" s="257" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="293" t="s">
+      <c r="H23" s="247" t="s">
         <v>213</v>
       </c>
-      <c r="I23" s="304" t="s">
+      <c r="I23" s="258" t="s">
         <v>218</v>
       </c>
-      <c r="J23" s="293" t="s">
+      <c r="J23" s="247" t="s">
         <v>217</v>
       </c>
-      <c r="K23" s="293" t="s">
+      <c r="K23" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="L23" s="293" t="s">
+      <c r="L23" s="247" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15">
-      <c r="A24" s="297">
+      <c r="A24" s="251">
         <v>2017</v>
       </c>
-      <c r="B24" s="297">
+      <c r="B24" s="251">
         <v>7</v>
       </c>
-      <c r="C24" s="297">
-        <v>49950</v>
-      </c>
-      <c r="D24" s="298">
-        <v>8.199338639250997E-2</v>
-      </c>
-      <c r="E24" s="300">
+      <c r="C24" s="251">
+        <v>39500</v>
+      </c>
+      <c r="D24" s="252">
+        <v>0.10279551402642109</v>
+      </c>
+      <c r="E24" s="254">
         <f>C24*D24</f>
-        <v>4095.569650305873</v>
-      </c>
-      <c r="F24" s="300">
+        <v>4060.4228040436333</v>
+      </c>
+      <c r="F24" s="254">
         <f>E24/365*G24</f>
-        <v>347.84290180680017</v>
-      </c>
-      <c r="G24" s="297">
+        <v>344.85782719274692</v>
+      </c>
+      <c r="G24" s="251">
         <v>31</v>
       </c>
-      <c r="H24" s="299">
-        <v>294.5</v>
-      </c>
-      <c r="I24" s="305">
+      <c r="H24" s="253">
+        <v>343.82</v>
+      </c>
+      <c r="I24" s="259">
         <f>F24-H24</f>
-        <v>53.342901806800171</v>
-      </c>
-      <c r="J24" s="297">
+        <v>1.0378271927469314</v>
+      </c>
+      <c r="J24" s="251">
         <v>0</v>
       </c>
-      <c r="K24" s="302">
+      <c r="K24" s="256">
         <f>H24/F24</f>
-        <v>0.84664657082343442</v>
-      </c>
-      <c r="L24" s="301" t="s">
+        <v>0.9969905650650438</v>
+      </c>
+      <c r="L24" s="255" t="s">
         <v>220</v>
       </c>
     </row>

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4月份" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="231">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1249,14 +1249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总转化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总转化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当天转化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1463,10 +1455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱时代豪华版(年)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1476,6 +1464,55 @@
   </si>
   <si>
     <t>未收益/多出(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际风险投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它已回本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(应急)余额宝(1.5w~3w)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1880,7 +1917,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1965,6 +2002,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="71">
     <border>
@@ -2914,7 +2963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3695,6 +3744,18 @@
     <xf numFmtId="186" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3722,10 +3783,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3758,16 +3825,31 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3776,6 +3858,21 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3785,48 +3882,6 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3836,8 +3891,107 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4212,7 +4366,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="279">
+      <c r="F2" s="285">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4234,7 +4388,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="280"/>
+      <c r="F3" s="286"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4242,7 +4396,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="280"/>
+      <c r="F4" s="286"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4303,7 +4457,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="260" t="s">
+      <c r="A8" s="264" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4333,17 +4487,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="275">
+      <c r="K8" s="281">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="275">
+      <c r="L8" s="281">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="261"/>
+      <c r="A9" s="265"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4371,11 +4525,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="276"/>
-      <c r="L9" s="276"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="282"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="261"/>
+      <c r="A10" s="265"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4405,11 +4559,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="276"/>
-      <c r="L10" s="276"/>
+      <c r="K10" s="282"/>
+      <c r="L10" s="282"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="261"/>
+      <c r="A11" s="265"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4437,11 +4591,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="276"/>
-      <c r="L11" s="276"/>
+      <c r="K11" s="282"/>
+      <c r="L11" s="282"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="261"/>
+      <c r="A12" s="265"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4469,11 +4623,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="276"/>
-      <c r="L12" s="276"/>
+      <c r="K12" s="282"/>
+      <c r="L12" s="282"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="261"/>
+      <c r="A13" s="265"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4503,11 +4657,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="276"/>
-      <c r="L13" s="276"/>
+      <c r="K13" s="282"/>
+      <c r="L13" s="282"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="261"/>
+      <c r="A14" s="265"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4537,11 +4691,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="276"/>
-      <c r="L14" s="276"/>
+      <c r="K14" s="282"/>
+      <c r="L14" s="282"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="261"/>
+      <c r="A15" s="265"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4569,11 +4723,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="276"/>
-      <c r="L15" s="276"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="282"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="262"/>
+      <c r="A16" s="266"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4602,8 +4756,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="277"/>
-      <c r="L16" s="277"/>
+      <c r="K16" s="283"/>
+      <c r="L16" s="283"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -4684,7 +4838,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="260" t="s">
+      <c r="A20" s="264" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4716,17 +4870,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="274">
+      <c r="K20" s="280">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="274">
+      <c r="L20" s="280">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="261"/>
+      <c r="A21" s="265"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -4756,11 +4910,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="272"/>
-      <c r="L21" s="272"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="261"/>
+      <c r="A22" s="265"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -4790,11 +4944,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="272"/>
-      <c r="L22" s="272"/>
+      <c r="K22" s="278"/>
+      <c r="L22" s="278"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="261"/>
+      <c r="A23" s="265"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -4824,11 +4978,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="272"/>
-      <c r="L23" s="272"/>
+      <c r="K23" s="278"/>
+      <c r="L23" s="278"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="261"/>
+      <c r="A24" s="265"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4858,11 +5012,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="272"/>
-      <c r="L24" s="272"/>
+      <c r="K24" s="278"/>
+      <c r="L24" s="278"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="261"/>
+      <c r="A25" s="265"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -4892,11 +5046,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="272"/>
-      <c r="L25" s="272"/>
+      <c r="K25" s="278"/>
+      <c r="L25" s="278"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="261"/>
+      <c r="A26" s="265"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -4926,11 +5080,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="272"/>
-      <c r="L26" s="272"/>
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="261"/>
+      <c r="A27" s="265"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -4960,11 +5114,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="272"/>
-      <c r="L27" s="272"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="262"/>
+      <c r="A28" s="266"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -4994,8 +5148,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="278"/>
-      <c r="L28" s="278"/>
+      <c r="K28" s="284"/>
+      <c r="L28" s="284"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5080,7 +5234,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="260" t="s">
+      <c r="A32" s="264" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5112,17 +5266,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="271">
+      <c r="K32" s="277">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="274">
+      <c r="L32" s="280">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="261"/>
+      <c r="A33" s="265"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5152,11 +5306,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="272"/>
-      <c r="L33" s="272"/>
+      <c r="K33" s="278"/>
+      <c r="L33" s="278"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="261"/>
+      <c r="A34" s="265"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5186,11 +5340,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="272"/>
-      <c r="L34" s="272"/>
+      <c r="K34" s="278"/>
+      <c r="L34" s="278"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="261"/>
+      <c r="A35" s="265"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5220,11 +5374,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="272"/>
-      <c r="L35" s="272"/>
+      <c r="K35" s="278"/>
+      <c r="L35" s="278"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="261"/>
+      <c r="A36" s="265"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5254,12 +5408,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="272"/>
-      <c r="L36" s="272"/>
+      <c r="K36" s="278"/>
+      <c r="L36" s="278"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="261"/>
-      <c r="B37" s="266" t="s">
+      <c r="A37" s="265"/>
+      <c r="B37" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5288,12 +5442,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="272"/>
-      <c r="L37" s="272"/>
+      <c r="K37" s="278"/>
+      <c r="L37" s="278"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="261"/>
-      <c r="B38" s="267"/>
+      <c r="A38" s="265"/>
+      <c r="B38" s="271"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5320,12 +5474,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="272"/>
-      <c r="L38" s="272"/>
+      <c r="K38" s="278"/>
+      <c r="L38" s="278"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="261"/>
-      <c r="B39" s="268"/>
+      <c r="A39" s="265"/>
+      <c r="B39" s="272"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5352,12 +5506,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="272"/>
-      <c r="L39" s="272"/>
+      <c r="K39" s="278"/>
+      <c r="L39" s="278"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="261"/>
-      <c r="B40" s="269" t="s">
+      <c r="A40" s="265"/>
+      <c r="B40" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5386,12 +5540,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="272"/>
-      <c r="L40" s="272"/>
+      <c r="K40" s="278"/>
+      <c r="L40" s="278"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="261"/>
-      <c r="B41" s="270"/>
+      <c r="A41" s="265"/>
+      <c r="B41" s="263"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5411,11 +5565,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="272"/>
-      <c r="L41" s="272"/>
+      <c r="K41" s="278"/>
+      <c r="L41" s="278"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="262"/>
+      <c r="A42" s="266"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5445,8 +5599,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="273"/>
-      <c r="L42" s="273"/>
+      <c r="K42" s="279"/>
+      <c r="L42" s="279"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5531,7 +5685,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="260" t="s">
+      <c r="A46" s="264" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5563,17 +5717,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="271">
+      <c r="K46" s="277">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="274">
+      <c r="L46" s="280">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="261"/>
+      <c r="A47" s="265"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5603,11 +5757,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="272"/>
-      <c r="L47" s="272"/>
+      <c r="K47" s="278"/>
+      <c r="L47" s="278"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="261"/>
+      <c r="A48" s="265"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -5637,11 +5791,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="272"/>
-      <c r="L48" s="272"/>
+      <c r="K48" s="278"/>
+      <c r="L48" s="278"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="261"/>
+      <c r="A49" s="265"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5671,11 +5825,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="272"/>
-      <c r="L49" s="272"/>
+      <c r="K49" s="278"/>
+      <c r="L49" s="278"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="261"/>
+      <c r="A50" s="265"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5705,12 +5859,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="272"/>
-      <c r="L50" s="272"/>
+      <c r="K50" s="278"/>
+      <c r="L50" s="278"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="261"/>
-      <c r="B51" s="266" t="s">
+      <c r="A51" s="265"/>
+      <c r="B51" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -5739,12 +5893,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="272"/>
-      <c r="L51" s="272"/>
+      <c r="K51" s="278"/>
+      <c r="L51" s="278"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="261"/>
-      <c r="B52" s="267"/>
+      <c r="A52" s="265"/>
+      <c r="B52" s="271"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -5771,12 +5925,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="272"/>
-      <c r="L52" s="272"/>
+      <c r="K52" s="278"/>
+      <c r="L52" s="278"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="261"/>
-      <c r="B53" s="268"/>
+      <c r="A53" s="265"/>
+      <c r="B53" s="272"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -5803,12 +5957,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="272"/>
-      <c r="L53" s="272"/>
+      <c r="K53" s="278"/>
+      <c r="L53" s="278"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="261"/>
-      <c r="B54" s="269" t="s">
+      <c r="A54" s="265"/>
+      <c r="B54" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -5837,12 +5991,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="272"/>
-      <c r="L54" s="272"/>
+      <c r="K54" s="278"/>
+      <c r="L54" s="278"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="261"/>
-      <c r="B55" s="270"/>
+      <c r="A55" s="265"/>
+      <c r="B55" s="263"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -5869,11 +6023,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="272"/>
-      <c r="L55" s="272"/>
+      <c r="K55" s="278"/>
+      <c r="L55" s="278"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="262"/>
+      <c r="A56" s="266"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -5903,8 +6057,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="273"/>
-      <c r="L56" s="273"/>
+      <c r="K56" s="279"/>
+      <c r="L56" s="279"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -5994,7 +6148,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="260" t="s">
+      <c r="A60" s="264" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6026,11 +6180,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="263">
+      <c r="K60" s="267">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="263">
+      <c r="L60" s="267">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6039,7 +6193,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="261"/>
+      <c r="A61" s="265"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6069,12 +6223,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="264"/>
-      <c r="L61" s="264"/>
+      <c r="K61" s="268"/>
+      <c r="L61" s="268"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="261"/>
+      <c r="A62" s="265"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6104,14 +6258,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="264"/>
-      <c r="L62" s="264"/>
+      <c r="K62" s="268"/>
+      <c r="L62" s="268"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="261"/>
+      <c r="A63" s="265"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6141,12 +6295,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="264"/>
-      <c r="L63" s="264"/>
+      <c r="K63" s="268"/>
+      <c r="L63" s="268"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="261"/>
+      <c r="A64" s="265"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6176,13 +6330,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="264"/>
-      <c r="L64" s="264"/>
+      <c r="K64" s="268"/>
+      <c r="L64" s="268"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="261"/>
-      <c r="B65" s="266" t="s">
+      <c r="A65" s="265"/>
+      <c r="B65" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6211,13 +6365,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="264"/>
-      <c r="L65" s="264"/>
+      <c r="K65" s="268"/>
+      <c r="L65" s="268"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="261"/>
-      <c r="B66" s="267"/>
+      <c r="A66" s="265"/>
+      <c r="B66" s="271"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6244,15 +6398,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="264"/>
-      <c r="L66" s="264"/>
+      <c r="K66" s="268"/>
+      <c r="L66" s="268"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="261"/>
-      <c r="B67" s="268"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="272"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6279,13 +6433,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="264"/>
-      <c r="L67" s="264"/>
+      <c r="K67" s="268"/>
+      <c r="L67" s="268"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="261"/>
-      <c r="B68" s="269" t="s">
+      <c r="A68" s="265"/>
+      <c r="B68" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6314,15 +6468,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="264"/>
-      <c r="L68" s="264"/>
+      <c r="K68" s="268"/>
+      <c r="L68" s="268"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="261"/>
-      <c r="B69" s="270"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="263"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6349,14 +6503,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="264"/>
-      <c r="L69" s="264"/>
+      <c r="K69" s="268"/>
+      <c r="L69" s="268"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="262"/>
+      <c r="A70" s="266"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6386,8 +6540,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="265"/>
-      <c r="L70" s="265"/>
+      <c r="K70" s="269"/>
+      <c r="L70" s="269"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6479,7 +6633,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="260" t="s">
+      <c r="A74" s="264" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6511,11 +6665,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="263">
+      <c r="K74" s="267">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="263">
+      <c r="L74" s="267">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6524,7 +6678,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="261"/>
+      <c r="A75" s="265"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6554,12 +6708,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="264"/>
-      <c r="L75" s="264"/>
+      <c r="K75" s="268"/>
+      <c r="L75" s="268"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="261"/>
+      <c r="A76" s="265"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6589,14 +6743,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="264"/>
-      <c r="L76" s="264"/>
+      <c r="K76" s="268"/>
+      <c r="L76" s="268"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="261"/>
+      <c r="A77" s="265"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -6626,12 +6780,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="264"/>
-      <c r="L77" s="264"/>
+      <c r="K77" s="268"/>
+      <c r="L77" s="268"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="261"/>
+      <c r="A78" s="265"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -6661,13 +6815,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="264"/>
-      <c r="L78" s="264"/>
+      <c r="K78" s="268"/>
+      <c r="L78" s="268"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="261"/>
-      <c r="B79" s="266" t="s">
+      <c r="A79" s="265"/>
+      <c r="B79" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6696,13 +6850,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="264"/>
-      <c r="L79" s="264"/>
+      <c r="K79" s="268"/>
+      <c r="L79" s="268"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="261"/>
-      <c r="B80" s="267"/>
+      <c r="A80" s="265"/>
+      <c r="B80" s="271"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -6728,15 +6882,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="264"/>
-      <c r="L80" s="264"/>
+      <c r="K80" s="268"/>
+      <c r="L80" s="268"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="261"/>
-      <c r="B81" s="267"/>
+      <c r="A81" s="265"/>
+      <c r="B81" s="271"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -6763,15 +6917,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="264"/>
-      <c r="L81" s="264"/>
+      <c r="K81" s="268"/>
+      <c r="L81" s="268"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="261"/>
-      <c r="B82" s="268"/>
+      <c r="A82" s="265"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -6798,13 +6952,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="264"/>
-      <c r="L82" s="264"/>
+      <c r="K82" s="268"/>
+      <c r="L82" s="268"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="261"/>
-      <c r="B83" s="269" t="s">
+      <c r="A83" s="265"/>
+      <c r="B83" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -6833,15 +6987,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="264"/>
-      <c r="L83" s="264"/>
+      <c r="K83" s="268"/>
+      <c r="L83" s="268"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="261"/>
-      <c r="B84" s="270"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="263"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -6868,14 +7022,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="264"/>
-      <c r="L84" s="264"/>
+      <c r="K84" s="268"/>
+      <c r="L84" s="268"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="262"/>
+      <c r="A85" s="266"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -6905,8 +7059,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="265"/>
-      <c r="L85" s="265"/>
+      <c r="K85" s="269"/>
+      <c r="L85" s="269"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -6997,7 +7151,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="260" t="s">
+      <c r="A89" s="264" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7029,11 +7183,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="263">
+      <c r="K89" s="267">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="263">
+      <c r="L89" s="267">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7042,7 +7196,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="261"/>
+      <c r="A90" s="265"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7072,12 +7226,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="264"/>
-      <c r="L90" s="264"/>
+      <c r="K90" s="268"/>
+      <c r="L90" s="268"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="261"/>
+      <c r="A91" s="265"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7107,14 +7261,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="264"/>
-      <c r="L91" s="264"/>
+      <c r="K91" s="268"/>
+      <c r="L91" s="268"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="261"/>
+      <c r="A92" s="265"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7144,14 +7298,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="264"/>
-      <c r="L92" s="264"/>
+      <c r="K92" s="268"/>
+      <c r="L92" s="268"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="261"/>
+      <c r="A93" s="265"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7181,13 +7335,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="264"/>
-      <c r="L93" s="264"/>
+      <c r="K93" s="268"/>
+      <c r="L93" s="268"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="261"/>
-      <c r="B94" s="266" t="s">
+      <c r="A94" s="265"/>
+      <c r="B94" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7216,15 +7370,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="264"/>
-      <c r="L94" s="264"/>
+      <c r="K94" s="268"/>
+      <c r="L94" s="268"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="261"/>
-      <c r="B95" s="267"/>
+      <c r="A95" s="265"/>
+      <c r="B95" s="271"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7251,15 +7405,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="264"/>
-      <c r="L95" s="264"/>
+      <c r="K95" s="268"/>
+      <c r="L95" s="268"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="261"/>
-      <c r="B96" s="268"/>
+      <c r="A96" s="265"/>
+      <c r="B96" s="272"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7286,13 +7440,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="264"/>
-      <c r="L96" s="264"/>
+      <c r="K96" s="268"/>
+      <c r="L96" s="268"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="261"/>
-      <c r="B97" s="269" t="s">
+      <c r="A97" s="265"/>
+      <c r="B97" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7321,15 +7475,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="264"/>
-      <c r="L97" s="264"/>
+      <c r="K97" s="268"/>
+      <c r="L97" s="268"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="261"/>
-      <c r="B98" s="270"/>
+      <c r="A98" s="265"/>
+      <c r="B98" s="263"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7356,14 +7510,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="264"/>
-      <c r="L98" s="264"/>
+      <c r="K98" s="268"/>
+      <c r="L98" s="268"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="262"/>
+      <c r="A99" s="266"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7393,8 +7547,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="265"/>
-      <c r="L99" s="265"/>
+      <c r="K99" s="269"/>
+      <c r="L99" s="269"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7487,7 +7641,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="260" t="s">
+      <c r="A103" s="264" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7519,11 +7673,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="263">
+      <c r="K103" s="267">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="263">
+      <c r="L103" s="267">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7532,7 +7686,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="261"/>
+      <c r="A104" s="265"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7562,12 +7716,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="264"/>
-      <c r="L104" s="264"/>
+      <c r="K104" s="268"/>
+      <c r="L104" s="268"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="261"/>
+      <c r="A105" s="265"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7597,14 +7751,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="264"/>
-      <c r="L105" s="264"/>
+      <c r="K105" s="268"/>
+      <c r="L105" s="268"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="261"/>
+      <c r="A106" s="265"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -7633,14 +7787,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="264"/>
-      <c r="L106" s="264"/>
+      <c r="K106" s="268"/>
+      <c r="L106" s="268"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="261"/>
+      <c r="A107" s="265"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -7670,13 +7824,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="264"/>
-      <c r="L107" s="264"/>
+      <c r="K107" s="268"/>
+      <c r="L107" s="268"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="261"/>
-      <c r="B108" s="266" t="s">
+      <c r="A108" s="265"/>
+      <c r="B108" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -7705,15 +7859,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="264"/>
-      <c r="L108" s="264"/>
+      <c r="K108" s="268"/>
+      <c r="L108" s="268"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="261"/>
-      <c r="B109" s="267"/>
+      <c r="A109" s="265"/>
+      <c r="B109" s="271"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -7740,15 +7894,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="264"/>
-      <c r="L109" s="264"/>
+      <c r="K109" s="268"/>
+      <c r="L109" s="268"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="261"/>
-      <c r="B110" s="268"/>
+      <c r="A110" s="265"/>
+      <c r="B110" s="272"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -7775,13 +7929,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="264"/>
-      <c r="L110" s="264"/>
+      <c r="K110" s="268"/>
+      <c r="L110" s="268"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="261"/>
-      <c r="B111" s="269" t="s">
+      <c r="A111" s="265"/>
+      <c r="B111" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -7810,15 +7964,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="264"/>
-      <c r="L111" s="264"/>
+      <c r="K111" s="268"/>
+      <c r="L111" s="268"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="261"/>
-      <c r="B112" s="270"/>
+      <c r="A112" s="265"/>
+      <c r="B112" s="263"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -7845,14 +7999,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="264"/>
-      <c r="L112" s="264"/>
+      <c r="K112" s="268"/>
+      <c r="L112" s="268"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="262"/>
+      <c r="A113" s="266"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -7882,8 +8036,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="265"/>
-      <c r="L113" s="265"/>
+      <c r="K113" s="269"/>
+      <c r="L113" s="269"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -7976,7 +8130,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="260" t="s">
+      <c r="A117" s="264" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8008,11 +8162,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="263">
+      <c r="K117" s="267">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="263">
+      <c r="L117" s="267">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8021,7 +8175,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="261"/>
+      <c r="A118" s="265"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8051,12 +8205,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="264"/>
-      <c r="L118" s="264"/>
+      <c r="K118" s="268"/>
+      <c r="L118" s="268"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="261"/>
+      <c r="A119" s="265"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8086,14 +8240,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="264"/>
-      <c r="L119" s="264"/>
+      <c r="K119" s="268"/>
+      <c r="L119" s="268"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="261"/>
+      <c r="A120" s="265"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8123,13 +8277,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="264"/>
-      <c r="L120" s="264"/>
+      <c r="K120" s="268"/>
+      <c r="L120" s="268"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="261"/>
-      <c r="B121" s="266" t="s">
+      <c r="A121" s="265"/>
+      <c r="B121" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8158,15 +8312,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="264"/>
-      <c r="L121" s="264"/>
+      <c r="K121" s="268"/>
+      <c r="L121" s="268"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="261"/>
-      <c r="B122" s="267"/>
+      <c r="A122" s="265"/>
+      <c r="B122" s="271"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8193,15 +8347,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="264"/>
-      <c r="L122" s="264"/>
+      <c r="K122" s="268"/>
+      <c r="L122" s="268"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="261"/>
-      <c r="B123" s="268"/>
+      <c r="A123" s="265"/>
+      <c r="B123" s="272"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8228,13 +8382,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="264"/>
-      <c r="L123" s="264"/>
+      <c r="K123" s="268"/>
+      <c r="L123" s="268"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="261"/>
-      <c r="B124" s="269" t="s">
+      <c r="A124" s="265"/>
+      <c r="B124" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8263,15 +8417,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="264"/>
-      <c r="L124" s="264"/>
+      <c r="K124" s="268"/>
+      <c r="L124" s="268"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="261"/>
-      <c r="B125" s="270"/>
+      <c r="A125" s="265"/>
+      <c r="B125" s="263"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8298,14 +8452,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="264"/>
-      <c r="L125" s="264"/>
+      <c r="K125" s="268"/>
+      <c r="L125" s="268"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="262"/>
+      <c r="A126" s="266"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8335,8 +8489,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="265"/>
-      <c r="L126" s="265"/>
+      <c r="K126" s="269"/>
+      <c r="L126" s="269"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8429,7 +8583,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="260" t="s">
+      <c r="A130" s="264" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8461,11 +8615,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="263">
+      <c r="K130" s="267">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="263">
+      <c r="L130" s="267">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8474,7 +8628,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="261"/>
+      <c r="A131" s="265"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8504,12 +8658,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="264"/>
-      <c r="L131" s="264"/>
+      <c r="K131" s="268"/>
+      <c r="L131" s="268"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="261"/>
+      <c r="A132" s="265"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8539,14 +8693,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="264"/>
-      <c r="L132" s="264"/>
+      <c r="K132" s="268"/>
+      <c r="L132" s="268"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="261"/>
+      <c r="A133" s="265"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8576,13 +8730,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="264"/>
-      <c r="L133" s="264"/>
+      <c r="K133" s="268"/>
+      <c r="L133" s="268"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="261"/>
-      <c r="B134" s="266" t="s">
+      <c r="A134" s="265"/>
+      <c r="B134" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8611,15 +8765,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="264"/>
-      <c r="L134" s="264"/>
+      <c r="K134" s="268"/>
+      <c r="L134" s="268"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="261"/>
-      <c r="B135" s="267"/>
+      <c r="A135" s="265"/>
+      <c r="B135" s="271"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -8646,15 +8800,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="264"/>
-      <c r="L135" s="264"/>
+      <c r="K135" s="268"/>
+      <c r="L135" s="268"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="261"/>
-      <c r="B136" s="268"/>
+      <c r="A136" s="265"/>
+      <c r="B136" s="272"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -8681,13 +8835,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="264"/>
-      <c r="L136" s="264"/>
+      <c r="K136" s="268"/>
+      <c r="L136" s="268"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="261"/>
-      <c r="B137" s="269" t="s">
+      <c r="A137" s="265"/>
+      <c r="B137" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -8716,15 +8870,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="264"/>
-      <c r="L137" s="264"/>
+      <c r="K137" s="268"/>
+      <c r="L137" s="268"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="261"/>
-      <c r="B138" s="270"/>
+      <c r="A138" s="265"/>
+      <c r="B138" s="263"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -8751,14 +8905,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="264"/>
-      <c r="L138" s="264"/>
+      <c r="K138" s="268"/>
+      <c r="L138" s="268"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="262"/>
+      <c r="A139" s="266"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -8788,8 +8942,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="265"/>
-      <c r="L139" s="265"/>
+      <c r="K139" s="269"/>
+      <c r="L139" s="269"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -8882,7 +9036,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="260" t="s">
+      <c r="A143" s="264" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -8914,11 +9068,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="263">
+      <c r="K143" s="267">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="263">
+      <c r="L143" s="267">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -8927,7 +9081,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="261"/>
+      <c r="A144" s="265"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -8957,12 +9111,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="264"/>
-      <c r="L144" s="264"/>
+      <c r="K144" s="268"/>
+      <c r="L144" s="268"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="261"/>
+      <c r="A145" s="265"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -8992,14 +9146,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="264"/>
-      <c r="L145" s="264"/>
+      <c r="K145" s="268"/>
+      <c r="L145" s="268"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="261"/>
+      <c r="A146" s="265"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9029,13 +9183,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="264"/>
-      <c r="L146" s="264"/>
+      <c r="K146" s="268"/>
+      <c r="L146" s="268"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="261"/>
-      <c r="B147" s="266" t="s">
+      <c r="A147" s="265"/>
+      <c r="B147" s="270" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9064,15 +9218,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="264"/>
-      <c r="L147" s="264"/>
+      <c r="K147" s="268"/>
+      <c r="L147" s="268"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="261"/>
-      <c r="B148" s="267"/>
+      <c r="A148" s="265"/>
+      <c r="B148" s="271"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9099,15 +9253,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="264"/>
-      <c r="L148" s="264"/>
+      <c r="K148" s="268"/>
+      <c r="L148" s="268"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="261"/>
-      <c r="B149" s="268"/>
+      <c r="A149" s="265"/>
+      <c r="B149" s="272"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9134,13 +9288,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="264"/>
-      <c r="L149" s="264"/>
+      <c r="K149" s="268"/>
+      <c r="L149" s="268"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="261"/>
-      <c r="B150" s="269" t="s">
+      <c r="A150" s="265"/>
+      <c r="B150" s="262" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9169,15 +9323,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="264"/>
-      <c r="L150" s="264"/>
+      <c r="K150" s="268"/>
+      <c r="L150" s="268"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="261"/>
-      <c r="B151" s="270"/>
+      <c r="A151" s="265"/>
+      <c r="B151" s="263"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9204,14 +9358,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="264"/>
-      <c r="L151" s="264"/>
+      <c r="K151" s="268"/>
+      <c r="L151" s="268"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="262"/>
+      <c r="A152" s="266"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9241,8 +9395,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="265"/>
-      <c r="L152" s="265"/>
+      <c r="K152" s="269"/>
+      <c r="L152" s="269"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9315,10 +9469,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="281" t="s">
+      <c r="H155" s="273" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="282"/>
+      <c r="I155" s="274"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9355,11 +9509,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="283">
+      <c r="H156" s="275">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="284"/>
+      <c r="I156" s="276"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9376,12 +9530,38 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9398,38 +9578,12 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9439,10 +9593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9456,7 +9610,8 @@
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9490,7 +9645,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K1" s="155"/>
       <c r="L1" s="154" t="s">
@@ -9504,7 +9659,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="265" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9535,11 +9690,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="291">
+      <c r="L2" s="294">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="291">
+      <c r="M2" s="294">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9548,7 +9703,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="261"/>
+      <c r="A3" s="265"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9577,14 +9732,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="291"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="294"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="261"/>
+      <c r="A4" s="265"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9615,13 +9770,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="291"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="294"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="261"/>
-      <c r="B5" s="266"/>
+      <c r="A5" s="265"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -9649,15 +9804,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="291"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="294"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="261"/>
-      <c r="B6" s="267"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="271"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -9685,15 +9840,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="291"/>
-      <c r="M6" s="291"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="294"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="261"/>
-      <c r="B7" s="268"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="272"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -9721,12 +9876,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="291"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="294"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="261"/>
+      <c r="A8" s="265"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -9755,14 +9910,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="291"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="294"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="262"/>
+      <c r="A9" s="266"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -9791,8 +9946,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="292"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -9911,7 +10066,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K13" s="155"/>
       <c r="L13" s="154" t="s">
@@ -9925,7 +10080,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="261" t="s">
+      <c r="A14" s="265" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -9956,11 +10111,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="291">
+      <c r="L14" s="294">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="291">
+      <c r="M14" s="294">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -9969,7 +10124,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="261"/>
+      <c r="A15" s="265"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -9998,14 +10153,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="291"/>
-      <c r="M15" s="291"/>
+      <c r="L15" s="294"/>
+      <c r="M15" s="294"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="261"/>
+      <c r="A16" s="265"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10035,13 +10190,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="291"/>
-      <c r="M16" s="291"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="261"/>
-      <c r="B17" s="295"/>
+      <c r="A17" s="265"/>
+      <c r="B17" s="300"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10069,15 +10224,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="291"/>
-      <c r="M17" s="291"/>
+      <c r="L17" s="294"/>
+      <c r="M17" s="294"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="261"/>
-      <c r="B18" s="296"/>
+      <c r="A18" s="265"/>
+      <c r="B18" s="301"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10105,15 +10260,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="291"/>
-      <c r="M18" s="291"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="261"/>
-      <c r="B19" s="297"/>
+      <c r="A19" s="265"/>
+      <c r="B19" s="302"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10142,12 +10297,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="291"/>
-      <c r="M19" s="291"/>
+      <c r="L19" s="294"/>
+      <c r="M19" s="294"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="261"/>
+      <c r="A20" s="265"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10176,14 +10331,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="291"/>
-      <c r="M20" s="291"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="294"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="262"/>
+      <c r="A21" s="266"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10212,8 +10367,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="292"/>
-      <c r="M21" s="292"/>
+      <c r="L21" s="295"/>
+      <c r="M21" s="295"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10332,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K25" s="155"/>
       <c r="L25" s="154" t="s">
@@ -10346,7 +10501,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="265" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10377,11 +10532,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="291">
+      <c r="L26" s="294">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="291">
+      <c r="M26" s="294">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10390,7 +10545,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="261"/>
+      <c r="A27" s="265"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10419,14 +10574,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="291"/>
-      <c r="M27" s="291"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="294"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="261"/>
+      <c r="A28" s="265"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10456,13 +10611,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="291"/>
-      <c r="M28" s="291"/>
+      <c r="L28" s="294"/>
+      <c r="M28" s="294"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="261"/>
-      <c r="B29" s="295"/>
+      <c r="A29" s="265"/>
+      <c r="B29" s="300"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10490,15 +10645,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="291"/>
-      <c r="M29" s="291"/>
+      <c r="L29" s="294"/>
+      <c r="M29" s="294"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="261"/>
-      <c r="B30" s="296"/>
+      <c r="A30" s="265"/>
+      <c r="B30" s="301"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10526,15 +10681,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="291"/>
-      <c r="M30" s="291"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="294"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="261"/>
-      <c r="B31" s="297"/>
+      <c r="A31" s="265"/>
+      <c r="B31" s="302"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10563,12 +10718,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="291"/>
-      <c r="M31" s="291"/>
+      <c r="L31" s="294"/>
+      <c r="M31" s="294"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="261"/>
+      <c r="A32" s="265"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10597,14 +10752,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="291"/>
-      <c r="M32" s="291"/>
+      <c r="L32" s="294"/>
+      <c r="M32" s="294"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="262"/>
+      <c r="A33" s="266"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -10633,8 +10788,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="292"/>
-      <c r="M33" s="292"/>
+      <c r="L33" s="295"/>
+      <c r="M33" s="295"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -10753,7 +10908,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K37" s="155"/>
       <c r="L37" s="154" t="s">
@@ -10767,7 +10922,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="265" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -10798,11 +10953,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="291">
+      <c r="L38" s="294">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="291">
+      <c r="M38" s="294">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -10811,7 +10966,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="261"/>
+      <c r="A39" s="265"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -10840,14 +10995,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="291"/>
-      <c r="M39" s="291"/>
+      <c r="L39" s="294"/>
+      <c r="M39" s="294"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="261"/>
+      <c r="A40" s="265"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -10877,13 +11032,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="291"/>
-      <c r="M40" s="291"/>
+      <c r="L40" s="294"/>
+      <c r="M40" s="294"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="261"/>
-      <c r="B41" s="295"/>
+      <c r="A41" s="265"/>
+      <c r="B41" s="300"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -10911,15 +11066,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="291"/>
-      <c r="M41" s="291"/>
+      <c r="L41" s="294"/>
+      <c r="M41" s="294"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="261"/>
-      <c r="B42" s="296"/>
+      <c r="A42" s="265"/>
+      <c r="B42" s="301"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -10947,15 +11102,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="291"/>
-      <c r="M42" s="291"/>
+      <c r="L42" s="294"/>
+      <c r="M42" s="294"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="261"/>
-      <c r="B43" s="297"/>
+      <c r="A43" s="265"/>
+      <c r="B43" s="302"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -10984,12 +11139,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="291"/>
-      <c r="M43" s="291"/>
+      <c r="L43" s="294"/>
+      <c r="M43" s="294"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="261"/>
+      <c r="A44" s="265"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11018,14 +11173,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="291"/>
-      <c r="M44" s="291"/>
+      <c r="L44" s="294"/>
+      <c r="M44" s="294"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="262"/>
+      <c r="A45" s="266"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11054,8 +11209,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="292"/>
-      <c r="M45" s="292"/>
+      <c r="L45" s="295"/>
+      <c r="M45" s="295"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11145,7 +11300,8 @@
       </c>
       <c r="N47" s="115"/>
     </row>
-    <row r="49" spans="1:14" s="157" customFormat="1" ht="15" thickBot="1">
+    <row r="48" spans="1:14" ht="15" thickBot="1"/>
+    <row r="49" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
       <c r="A49" s="154" t="s">
         <v>0</v>
       </c>
@@ -11174,10 +11330,10 @@
         <v>2</v>
       </c>
       <c r="J49" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="K49" s="155" t="s">
         <v>183</v>
+      </c>
+      <c r="K49" s="188" t="s">
+        <v>220</v>
       </c>
       <c r="L49" s="154" t="s">
         <v>49</v>
@@ -11190,7 +11346,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="261" t="s">
+      <c r="A50" s="265" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11222,15 +11378,15 @@
         <f t="shared" ref="J50:J54" si="9">E50/D50</f>
         <v>3.7756713273128477E-4</v>
       </c>
-      <c r="K50" s="62">
+      <c r="K50" s="322">
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="291">
+      <c r="L50" s="294">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="291">
+      <c r="M50" s="294">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11239,7 +11395,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="261"/>
+      <c r="A51" s="265"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11269,18 +11425,18 @@
         <f t="shared" si="9"/>
         <v>1.918E-4</v>
       </c>
-      <c r="K51" s="62">
+      <c r="K51" s="322">
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="291"/>
-      <c r="M51" s="291"/>
+      <c r="L51" s="294"/>
+      <c r="M51" s="294"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="261"/>
+      <c r="A52" s="265"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11311,17 +11467,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K52" s="62" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" s="291"/>
-      <c r="M52" s="291"/>
+      <c r="K52" s="322"/>
+      <c r="L52" s="294"/>
+      <c r="M52" s="294"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="261"/>
-      <c r="B53" s="295">
+      <c r="A53" s="265"/>
+      <c r="B53" s="300">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11350,19 +11503,19 @@
         <f t="shared" si="9"/>
         <v>2.1535000000000003E-4</v>
       </c>
-      <c r="K53" s="62">
+      <c r="K53" s="322">
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="291"/>
-      <c r="M53" s="291"/>
+      <c r="L53" s="294"/>
+      <c r="M53" s="294"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="261"/>
-      <c r="B54" s="296"/>
+      <c r="A54" s="265"/>
+      <c r="B54" s="301"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11389,18 +11542,18 @@
         <f t="shared" si="9"/>
         <v>3.2202359312514888E-4</v>
       </c>
-      <c r="K54" s="62">
+      <c r="K54" s="322">
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="291"/>
-      <c r="M54" s="291"/>
+      <c r="L54" s="294"/>
+      <c r="M54" s="294"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="262"/>
+      <c r="A55" s="266"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11430,12 +11583,12 @@
         <f>E55/D55</f>
         <v>3.270631321315172E-4</v>
       </c>
-      <c r="K55" s="62">
+      <c r="K55" s="322">
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="292"/>
-      <c r="M55" s="292"/>
+      <c r="L55" s="295"/>
+      <c r="M55" s="295"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11555,10 +11708,10 @@
         <v>2</v>
       </c>
       <c r="J59" s="213" t="s">
-        <v>185</v>
-      </c>
-      <c r="K59" s="213" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="K59" s="188" t="s">
+        <v>220</v>
       </c>
       <c r="L59" s="213" t="s">
         <v>49</v>
@@ -11571,10 +11724,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="287" t="s">
+      <c r="A60" s="303" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="293">
+      <c r="B60" s="298">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11603,15 +11756,15 @@
         <f t="shared" ref="J60" si="12">E60/D60</f>
         <v>4.0767058823529408E-4</v>
       </c>
-      <c r="K60" s="62">
+      <c r="K60" s="322">
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="290">
+      <c r="L60" s="293">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="290">
+      <c r="M60" s="293">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11620,8 +11773,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="288"/>
-      <c r="B61" s="294"/>
+      <c r="A61" s="304"/>
+      <c r="B61" s="299"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -11648,18 +11801,18 @@
         <f t="shared" ref="J61:J64" si="13">E61/D61</f>
         <v>3.7742462959606594E-4</v>
       </c>
-      <c r="K61" s="62">
+      <c r="K61" s="322">
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="291"/>
-      <c r="M61" s="291"/>
+      <c r="L61" s="294"/>
+      <c r="M61" s="294"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="288"/>
+      <c r="A62" s="304"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -11689,19 +11842,19 @@
         <f t="shared" si="13"/>
         <v>1.9176321981443959E-4</v>
       </c>
-      <c r="K62" s="62">
+      <c r="K62" s="322">
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="291"/>
-      <c r="M62" s="291"/>
+      <c r="L62" s="294"/>
+      <c r="M62" s="294"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="288"/>
-      <c r="B63" s="285">
+      <c r="A63" s="304"/>
+      <c r="B63" s="296">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -11730,19 +11883,19 @@
         <f t="shared" si="13"/>
         <v>2.1530363436234008E-4</v>
       </c>
-      <c r="K63" s="62">
+      <c r="K63" s="322">
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="291"/>
-      <c r="M63" s="291"/>
+      <c r="L63" s="294"/>
+      <c r="M63" s="294"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="288"/>
-      <c r="B64" s="286"/>
+      <c r="A64" s="304"/>
+      <c r="B64" s="297"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -11769,18 +11922,18 @@
         <f t="shared" si="13"/>
         <v>3.2191992731345681E-4</v>
       </c>
-      <c r="K64" s="62">
+      <c r="K64" s="322">
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="291"/>
-      <c r="M64" s="291"/>
+      <c r="L64" s="294"/>
+      <c r="M64" s="294"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="289"/>
+      <c r="A65" s="305"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -11810,12 +11963,12 @@
         <f>E65/D65</f>
         <v>3.2695619681371744E-4</v>
       </c>
-      <c r="K65" s="62">
+      <c r="K65" s="322">
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="292"/>
-      <c r="M65" s="292"/>
+      <c r="L65" s="295"/>
+      <c r="M65" s="295"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -11945,7 +12098,7 @@
         <v>7.12</v>
       </c>
       <c r="C69" s="177" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D69" s="164">
         <v>450</v>
@@ -12012,36 +12165,36 @@
         <v>94</v>
       </c>
       <c r="F71" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G71" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I71" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" s="180" t="s">
+        <v>193</v>
+      </c>
+      <c r="K71" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L71" s="182" t="s">
+        <v>189</v>
+      </c>
+      <c r="M71" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="G71" s="178" t="s">
-        <v>194</v>
-      </c>
-      <c r="H71" s="178" t="s">
-        <v>192</v>
-      </c>
-      <c r="I71" s="180" t="s">
-        <v>193</v>
-      </c>
-      <c r="J71" s="180" t="s">
-        <v>195</v>
-      </c>
-      <c r="K71" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="L71" s="182" t="s">
-        <v>191</v>
-      </c>
-      <c r="M71" s="179" t="s">
-        <v>189</v>
-      </c>
       <c r="N71" s="228" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
       <c r="A72" s="229" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B72" s="230" t="s">
         <v>58</v>
@@ -12125,10 +12278,10 @@
         <v>2</v>
       </c>
       <c r="J75" s="188" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K75" s="188" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="L75" s="188" t="s">
         <v>49</v>
@@ -12141,10 +12294,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="301" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="293">
+      <c r="A76" s="290" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="298">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12173,15 +12326,15 @@
         <f t="shared" ref="J76:J80" si="18">E76/D76</f>
         <v>4.075044606521115E-4</v>
       </c>
-      <c r="K76" s="62">
+      <c r="K76" s="322">
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="290">
+      <c r="L76" s="293">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="290">
+      <c r="M76" s="293">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12190,8 +12343,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="302"/>
-      <c r="B77" s="294"/>
+      <c r="A77" s="291"/>
+      <c r="B77" s="299"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12218,18 +12371,18 @@
         <f t="shared" si="18"/>
         <v>3.7728223398864958E-4</v>
       </c>
-      <c r="K77" s="62">
+      <c r="K77" s="322">
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="291"/>
-      <c r="M77" s="291"/>
+      <c r="L77" s="294"/>
+      <c r="M77" s="294"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="302"/>
+      <c r="A78" s="291"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12259,19 +12412,19 @@
         <f t="shared" si="18"/>
         <v>1.9172645373234827E-4</v>
       </c>
-      <c r="K78" s="62">
+      <c r="K78" s="322">
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="291"/>
-      <c r="M78" s="291"/>
+      <c r="L78" s="294"/>
+      <c r="M78" s="294"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="302"/>
-      <c r="B79" s="285">
+      <c r="A79" s="291"/>
+      <c r="B79" s="296">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12300,19 +12453,19 @@
         <f t="shared" si="18"/>
         <v>2.1525728868576304E-4</v>
       </c>
-      <c r="K79" s="62">
+      <c r="K79" s="322">
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="291"/>
-      <c r="M79" s="291"/>
+      <c r="L79" s="294"/>
+      <c r="M79" s="294"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="302"/>
-      <c r="B80" s="286"/>
+      <c r="A80" s="291"/>
+      <c r="B80" s="297"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12339,18 +12492,18 @@
         <f t="shared" si="18"/>
         <v>3.2181632822446648E-4</v>
       </c>
-      <c r="K80" s="62">
+      <c r="K80" s="322">
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="291"/>
-      <c r="M80" s="291"/>
+      <c r="L80" s="294"/>
+      <c r="M80" s="294"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="303"/>
+      <c r="A81" s="292"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12380,19 +12533,19 @@
         <f>E81/D81</f>
         <v>3.2684933139939197E-4</v>
       </c>
-      <c r="K81" s="62">
+      <c r="K81" s="322">
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="292"/>
-      <c r="M81" s="292"/>
+      <c r="L81" s="295"/>
+      <c r="M81" s="295"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18.75" thickBot="1">
       <c r="A82" s="195" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B82" s="174">
         <f>SUM(B76:B81)</f>
@@ -12436,8 +12589,8 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="298" t="s">
-        <v>198</v>
+      <c r="A83" s="287" t="s">
+        <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
         <v>138</v>
@@ -12475,12 +12628,12 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="299"/>
+      <c r="A84" s="288"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
       <c r="C84" s="244" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D84" s="131">
         <v>1500</v>
@@ -12507,25 +12660,25 @@
         <v>-1.5E-3</v>
       </c>
       <c r="K84" s="238" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L84" s="243">
         <v>1.4562999999999999</v>
       </c>
       <c r="M84" s="242" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N84" s="241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="300"/>
+      <c r="A85" s="289"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
       <c r="C85" s="177" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D85" s="164">
         <v>450</v>
@@ -12592,36 +12745,36 @@
         <v>94</v>
       </c>
       <c r="F87" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G87" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H87" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I87" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J87" s="180" t="s">
+        <v>193</v>
+      </c>
+      <c r="K87" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L87" s="182" t="s">
+        <v>189</v>
+      </c>
+      <c r="M87" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="G87" s="178" t="s">
-        <v>194</v>
-      </c>
-      <c r="H87" s="178" t="s">
-        <v>192</v>
-      </c>
-      <c r="I87" s="180" t="s">
-        <v>193</v>
-      </c>
-      <c r="J87" s="180" t="s">
-        <v>195</v>
-      </c>
-      <c r="K87" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="L87" s="182" t="s">
-        <v>191</v>
-      </c>
-      <c r="M87" s="179" t="s">
-        <v>189</v>
-      </c>
       <c r="N87" s="202" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
       <c r="A88" s="203" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B88" s="204" t="s">
         <v>58</v>
@@ -12704,10 +12857,10 @@
         <v>2</v>
       </c>
       <c r="J90" s="188" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K90" s="188" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="L90" s="188" t="s">
         <v>49</v>
@@ -12720,14 +12873,14 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="301" t="s">
-        <v>206</v>
+      <c r="A91" s="290" t="s">
+        <v>204</v>
       </c>
       <c r="B91" s="246">
         <v>77.319999999999993</v>
       </c>
       <c r="C91" s="137" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D91" s="138">
         <v>8506.9304000000011</v>
@@ -12752,15 +12905,15 @@
         <f t="shared" ref="J91:J94" si="23">E91/D91</f>
         <v>4.0733846840923955E-4</v>
       </c>
-      <c r="K91" s="62">
+      <c r="K91" s="322">
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="290">
+      <c r="L91" s="293">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="290">
+      <c r="M91" s="293">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -12769,7 +12922,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="302"/>
+      <c r="A92" s="291"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -12799,19 +12952,19 @@
         <f t="shared" si="23"/>
         <v>1.916897017456156E-4</v>
       </c>
-      <c r="K92" s="62">
+      <c r="K92" s="322">
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="291"/>
-      <c r="M92" s="291"/>
+      <c r="L92" s="294"/>
+      <c r="M92" s="294"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="302"/>
-      <c r="B93" s="285">
+      <c r="A93" s="291"/>
+      <c r="B93" s="296">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -12840,19 +12993,19 @@
         <f t="shared" si="23"/>
         <v>2.1521096295738139E-4</v>
       </c>
-      <c r="K93" s="62">
+      <c r="K93" s="322">
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="291"/>
-      <c r="M93" s="291"/>
+      <c r="L93" s="294"/>
+      <c r="M93" s="294"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="302"/>
-      <c r="B94" s="286"/>
+      <c r="A94" s="291"/>
+      <c r="B94" s="297"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -12879,18 +13032,18 @@
         <f t="shared" si="23"/>
         <v>3.2171279579378133E-4</v>
       </c>
-      <c r="K94" s="62">
+      <c r="K94" s="322">
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="291"/>
-      <c r="M94" s="291"/>
+      <c r="L94" s="294"/>
+      <c r="M94" s="294"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="303"/>
+      <c r="A95" s="292"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -12920,12 +13073,12 @@
         <f>E95/D95</f>
         <v>3.2674253582001941E-4</v>
       </c>
-      <c r="K95" s="62">
+      <c r="K95" s="322">
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="292"/>
-      <c r="M95" s="292"/>
+      <c r="L95" s="295"/>
+      <c r="M95" s="295"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -12976,8 +13129,8 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="298" t="s">
-        <v>198</v>
+      <c r="A97" s="287" t="s">
+        <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
         <v>138</v>
@@ -13015,12 +13168,12 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="299"/>
+      <c r="A98" s="288"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
       <c r="C98" s="244" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D98" s="131">
         <v>1497.75</v>
@@ -13047,25 +13200,25 @@
         <v>-3.5466666666666242E-3</v>
       </c>
       <c r="K98" s="238" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L98" s="243">
         <v>1.456</v>
       </c>
       <c r="M98" s="242" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N98" s="241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="300"/>
+      <c r="A99" s="289"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
       <c r="C99" s="177" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D99" s="164">
         <v>450.06</v>
@@ -13132,36 +13285,36 @@
         <v>94</v>
       </c>
       <c r="F101" s="178" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G101" s="178" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H101" s="178" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I101" s="180" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J101" s="180" t="s">
         <v>112</v>
       </c>
       <c r="K101" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="L101" s="307" t="s">
-        <v>227</v>
+        <v>188</v>
+      </c>
+      <c r="L101" s="261" t="s">
+        <v>224</v>
       </c>
       <c r="M101" s="179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N101" s="202" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
       <c r="A102" s="203" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B102" s="204" t="s">
         <v>58</v>
@@ -13214,20 +13367,593 @@
         <v>7718.7545454546325</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" thickTop="1"/>
+    <row r="103" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="104" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A104" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K104" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L104" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M104" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N104" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15" thickBot="1">
+      <c r="A105" s="290" t="s">
+        <v>225</v>
+      </c>
+      <c r="B105" s="260">
+        <v>78.91</v>
+      </c>
+      <c r="C105" s="338" t="s">
+        <v>229</v>
+      </c>
+      <c r="D105" s="310">
+        <v>11100</v>
+      </c>
+      <c r="E105" s="310"/>
+      <c r="F105" s="310">
+        <f>D105</f>
+        <v>11100</v>
+      </c>
+      <c r="G105" s="311"/>
+      <c r="H105" s="312"/>
+      <c r="I105" s="313">
+        <f>D105</f>
+        <v>11100</v>
+      </c>
+      <c r="J105" s="314"/>
+      <c r="K105" s="153"/>
+      <c r="L105" s="293">
+        <f>E111/D111</f>
+        <v>2.1993666581101237E-4</v>
+      </c>
+      <c r="M105" s="293">
+        <f>L105*365</f>
+        <v>8.0276883021019513E-2</v>
+      </c>
+      <c r="N105" s="191"/>
+    </row>
+    <row r="106" spans="1:14" ht="25.5">
+      <c r="A106" s="291"/>
+      <c r="B106" s="315">
+        <v>28</v>
+      </c>
+      <c r="C106" s="339" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="316">
+        <v>8510.3956000000017</v>
+      </c>
+      <c r="E106" s="316">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F106" s="316">
+        <f>D106+E106</f>
+        <v>8513.8608000000022</v>
+      </c>
+      <c r="G106" s="317" t="s">
+        <v>175</v>
+      </c>
+      <c r="H106" s="318">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I106" s="319">
+        <v>8500</v>
+      </c>
+      <c r="J106" s="320">
+        <f>E106/I106</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K106" s="321">
+        <f>(F106-I106)/(H106-I106)</f>
+        <v>1.1235874904753645E-2</v>
+      </c>
+      <c r="L106" s="294"/>
+      <c r="M106" s="294"/>
+      <c r="N106" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="25.5">
+      <c r="A107" s="291"/>
+      <c r="B107" s="334">
+        <v>117.98</v>
+      </c>
+      <c r="C107" s="340" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="335">
+        <v>10007.671999999999</v>
+      </c>
+      <c r="E107" s="335">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F107" s="335">
+        <f>D107+E107</f>
+        <v>10009.589999999998</v>
+      </c>
+      <c r="G107" s="336" t="s">
+        <v>149</v>
+      </c>
+      <c r="H107" s="337">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I107" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J107" s="320">
+        <f t="shared" ref="J107:J110" si="27">E107/I107</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K107" s="322">
+        <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
+        <v>0.19999999999996207</v>
+      </c>
+      <c r="L107" s="294"/>
+      <c r="M107" s="294"/>
+      <c r="N107" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="25.5">
+      <c r="A108" s="291"/>
+      <c r="B108" s="325">
+        <v>118.93</v>
+      </c>
+      <c r="C108" s="341" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" s="326">
+        <v>10008.614000000001</v>
+      </c>
+      <c r="E108" s="326">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F108" s="326">
+        <f t="shared" ref="F108:F109" si="29">D108+E108</f>
+        <v>10010.767500000002</v>
+      </c>
+      <c r="G108" s="327" t="s">
+        <v>150</v>
+      </c>
+      <c r="H108" s="328">
+        <v>10079.68</v>
+      </c>
+      <c r="I108" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J108" s="320">
+        <f t="shared" si="27"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K108" s="322">
+        <f t="shared" si="28"/>
+        <v>0.13513428714861581</v>
+      </c>
+      <c r="L108" s="294"/>
+      <c r="M108" s="294"/>
+      <c r="N108" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="25.5">
+      <c r="A109" s="291"/>
+      <c r="B109" s="329"/>
+      <c r="C109" s="341" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="326">
+        <v>1022.3584</v>
+      </c>
+      <c r="E109" s="326">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F109" s="326">
+        <f t="shared" si="29"/>
+        <v>1022.6872</v>
+      </c>
+      <c r="G109" s="327" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" s="328">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I109" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J109" s="320">
+        <f t="shared" si="27"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K109" s="322">
+        <f t="shared" si="28"/>
+        <v>0.68999999999999651</v>
+      </c>
+      <c r="L109" s="294"/>
+      <c r="M109" s="294"/>
+      <c r="N109" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A110" s="292"/>
+      <c r="B110" s="330"/>
+      <c r="C110" s="342" t="s">
+        <v>177</v>
+      </c>
+      <c r="D110" s="331">
+        <v>10072.380000000003</v>
+      </c>
+      <c r="E110" s="332">
+        <v>3.29</v>
+      </c>
+      <c r="F110" s="332">
+        <f>D110+E110</f>
+        <v>10075.670000000004</v>
+      </c>
+      <c r="G110" s="333" t="s">
+        <v>126</v>
+      </c>
+      <c r="H110" s="332">
+        <v>11196.73</v>
+      </c>
+      <c r="I110" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J110" s="320">
+        <f t="shared" si="27"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K110" s="322">
+        <f t="shared" si="28"/>
+        <v>6.3230636818667321E-2</v>
+      </c>
+      <c r="L110" s="295"/>
+      <c r="M110" s="295"/>
+      <c r="N110" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A111" s="195" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="174">
+        <f>SUM(B105:B110)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="11">
+        <f>SUM(D105:D110)</f>
+        <v>50721.420000000006</v>
+      </c>
+      <c r="E111" s="61">
+        <f>SUM(E105:E110)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F111" s="11">
+        <f>SUM(F105:F110)</f>
+        <v>50732.575500000006</v>
+      </c>
+      <c r="G111" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H111" s="66">
+        <f>L105*10000</f>
+        <v>2.1993666581101237</v>
+      </c>
+      <c r="I111" s="158">
+        <f>SUM(I105:I110)</f>
+        <v>50600</v>
+      </c>
+      <c r="J111" s="68"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M111" s="66">
+        <f>M105*10000</f>
+        <v>802.76883021019512</v>
+      </c>
+      <c r="N111" s="196"/>
+    </row>
+    <row r="112" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A112" s="287" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="123">
+        <v>1405.01</v>
+      </c>
+      <c r="E112" s="124">
+        <v>1</v>
+      </c>
+      <c r="F112" s="124">
+        <f>D112+E112</f>
+        <v>1406.01</v>
+      </c>
+      <c r="G112" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H112" s="123">
+        <f>F112</f>
+        <v>1406.01</v>
+      </c>
+      <c r="I112" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J112" s="127">
+        <f>(H112-I112)/I112</f>
+        <v>-6.2660000000000007E-2</v>
+      </c>
+      <c r="K112" s="127"/>
+      <c r="L112" s="128"/>
+      <c r="M112" s="129"/>
+      <c r="N112" s="197"/>
+    </row>
+    <row r="113" spans="1:14" ht="25.5">
+      <c r="A113" s="288"/>
+      <c r="B113" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D113" s="131">
+        <v>1494.68</v>
+      </c>
+      <c r="E113" s="132">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="F113" s="132">
+        <f>D113+E113</f>
+        <v>1492.63</v>
+      </c>
+      <c r="G113" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H113" s="131">
+        <f>F113</f>
+        <v>1492.63</v>
+      </c>
+      <c r="I113" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J113" s="168">
+        <f>(H113-I113)/I113</f>
+        <v>-4.9133333333332609E-3</v>
+      </c>
+      <c r="K113" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L113" s="243">
+        <v>1.454</v>
+      </c>
+      <c r="M113" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N113" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="28.5">
+      <c r="A114" s="289"/>
+      <c r="B114" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C114" s="324" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" s="164">
+        <v>5450.12</v>
+      </c>
+      <c r="E114" s="163">
+        <v>0.05</v>
+      </c>
+      <c r="F114" s="163">
+        <f>D114+E114</f>
+        <v>5450.17</v>
+      </c>
+      <c r="G114" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="166">
+        <f>F114</f>
+        <v>5450.17</v>
+      </c>
+      <c r="I114" s="171">
+        <v>5450</v>
+      </c>
+      <c r="J114" s="239">
+        <f t="shared" ref="J114" si="30">E114/D114</f>
+        <v>9.1741099278548003E-6</v>
+      </c>
+      <c r="K114" s="323">
+        <f>(F114-I114)/I114</f>
+        <v>3.1192660550472063E-5</v>
+      </c>
+      <c r="L114" s="175"/>
+      <c r="M114" s="176"/>
+      <c r="N114" s="198"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="199"/>
+      <c r="B115" s="186"/>
+      <c r="C115" s="186"/>
+      <c r="D115" s="186"/>
+      <c r="E115" s="186"/>
+      <c r="F115" s="186"/>
+      <c r="G115" s="186"/>
+      <c r="H115" s="186"/>
+      <c r="I115" s="186"/>
+      <c r="J115" s="186"/>
+      <c r="K115" s="186"/>
+      <c r="L115" s="186"/>
+      <c r="M115" s="186"/>
+      <c r="N115" s="200"/>
+    </row>
+    <row r="116" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A116" s="201" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="E116" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G116" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H116" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I116" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J116" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K116" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L116" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M116" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N116" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A117" s="203" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="205">
+        <f>F111+B111</f>
+        <v>51076.395500000006</v>
+      </c>
+      <c r="D117" s="205">
+        <f>I111</f>
+        <v>50600</v>
+      </c>
+      <c r="E117" s="206">
+        <v>23</v>
+      </c>
+      <c r="F117" s="207">
+        <f>C117-D117</f>
+        <v>476.395500000006</v>
+      </c>
+      <c r="G117" s="208">
+        <f>F117/D117</f>
+        <v>9.4149308300396448E-3</v>
+      </c>
+      <c r="H117" s="207">
+        <f>F117/E117</f>
+        <v>20.712847826087216</v>
+      </c>
+      <c r="I117" s="208">
+        <f>G117/E117</f>
+        <v>4.0934481869737586E-4</v>
+      </c>
+      <c r="J117" s="209">
+        <f>H117*10000/D117</f>
+        <v>4.0934481869737578</v>
+      </c>
+      <c r="K117" s="210">
+        <f>B111</f>
+        <v>343.82</v>
+      </c>
+      <c r="L117" s="210">
+        <f>F117-K117</f>
+        <v>132.575500000006</v>
+      </c>
+      <c r="M117" s="208">
+        <f>I117*365</f>
+        <v>0.14941085882454219</v>
+      </c>
+      <c r="N117" s="211">
+        <f>H117*365</f>
+        <v>7560.1894565218336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
+  <mergeCells count="41">
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -13240,19 +13966,17 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13264,8 +13988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13359,7 +14083,7 @@
         <v>400</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13429,65 +14153,65 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="304" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="305"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="305"/>
-      <c r="E17" s="305"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="305"/>
-      <c r="I17" s="305"/>
-      <c r="J17" s="305"/>
-      <c r="K17" s="305"/>
-      <c r="L17" s="306"/>
+      <c r="A17" s="306" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="307"/>
+      <c r="C17" s="307"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="307"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="307"/>
+      <c r="H17" s="307"/>
+      <c r="I17" s="307"/>
+      <c r="J17" s="307"/>
+      <c r="K17" s="307"/>
+      <c r="L17" s="308"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="247" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="248" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="247" t="s">
+      <c r="D18" s="249" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="248" t="s">
+      <c r="E18" s="250" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="250" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="257" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="247" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="249" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="250" t="s">
+      <c r="I18" s="258" t="s">
+        <v>216</v>
+      </c>
+      <c r="J18" s="247" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="250" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="257" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="247" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="258" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="247" t="s">
-        <v>217</v>
-      </c>
       <c r="K18" s="247" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L18" s="247" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15">
       <c r="A19" s="251">
         <v>2017</v>
       </c>
-      <c r="B19" s="251">
-        <v>7</v>
+      <c r="B19" s="309" t="s">
+        <v>227</v>
       </c>
       <c r="C19" s="251">
         <v>49950</v>
@@ -13521,7 +14245,7 @@
         <v>0.81045109625754785</v>
       </c>
       <c r="L19" s="255" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15">
@@ -13564,83 +14288,83 @@
         <v>0</v>
       </c>
       <c r="L20" s="255" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="304" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="305"/>
-      <c r="C22" s="305"/>
-      <c r="D22" s="305"/>
-      <c r="E22" s="305"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="305"/>
-      <c r="H22" s="305"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="305"/>
-      <c r="K22" s="305"/>
-      <c r="L22" s="306"/>
+      <c r="A22" s="306" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="307"/>
+      <c r="C22" s="307"/>
+      <c r="D22" s="307"/>
+      <c r="E22" s="307"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="307"/>
+      <c r="H22" s="307"/>
+      <c r="I22" s="307"/>
+      <c r="J22" s="307"/>
+      <c r="K22" s="307"/>
+      <c r="L22" s="308"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="247" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="248" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="247" t="s">
+      <c r="D23" s="249" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="248" t="s">
+      <c r="E23" s="250" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="250" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="257" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="247" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="249" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="250" t="s">
+      <c r="I23" s="258" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="247" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="250" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="257" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="247" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="258" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="247" t="s">
-        <v>217</v>
-      </c>
       <c r="K23" s="247" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L23" s="247" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15">
       <c r="A24" s="251">
         <v>2017</v>
       </c>
-      <c r="B24" s="251">
-        <v>7</v>
+      <c r="B24" s="309" t="s">
+        <v>227</v>
       </c>
       <c r="C24" s="251">
-        <v>39500</v>
+        <v>50600</v>
       </c>
       <c r="D24" s="252">
-        <v>0.10279551402642109</v>
+        <v>0.10276657171802524</v>
       </c>
       <c r="E24" s="254">
         <f>C24*D24</f>
-        <v>4060.4228040436333</v>
+        <v>5199.9885289320773</v>
       </c>
       <c r="F24" s="254">
         <f>E24/365*G24</f>
-        <v>344.85782719274692</v>
+        <v>441.64286136135451</v>
       </c>
       <c r="G24" s="251">
         <v>31</v>
@@ -13650,17 +14374,17 @@
       </c>
       <c r="I24" s="259">
         <f>F24-H24</f>
-        <v>1.0378271927469314</v>
+        <v>97.822861361354512</v>
       </c>
       <c r="J24" s="251">
         <v>0</v>
       </c>
       <c r="K24" s="256">
         <f>H24/F24</f>
-        <v>0.9969905650650438</v>
+        <v>0.77850233770377797</v>
       </c>
       <c r="L24" s="255" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="233">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1513,6 +1513,39 @@
   </si>
   <si>
     <t>(应急)余额宝(1.5w~3w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2963,7 +2996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3750,37 +3783,166 @@
     <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3795,35 +3957,29 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3834,30 +3990,21 @@
     <xf numFmtId="0" fontId="36" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3873,15 +4020,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3890,108 +4028,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4366,7 +4402,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="285">
+      <c r="F2" s="314">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4388,7 +4424,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="286"/>
+      <c r="F3" s="315"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4396,7 +4432,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="286"/>
+      <c r="F4" s="315"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4457,7 +4493,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="264" t="s">
+      <c r="A8" s="295" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4487,17 +4523,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="281">
+      <c r="K8" s="310">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="281">
+      <c r="L8" s="310">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="265"/>
+      <c r="A9" s="296"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4525,11 +4561,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="265"/>
+      <c r="A10" s="296"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4559,11 +4595,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="282"/>
-      <c r="L10" s="282"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="265"/>
+      <c r="A11" s="296"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4591,11 +4627,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="282"/>
-      <c r="L11" s="282"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="311"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="265"/>
+      <c r="A12" s="296"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4623,11 +4659,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="282"/>
-      <c r="L12" s="282"/>
+      <c r="K12" s="311"/>
+      <c r="L12" s="311"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="265"/>
+      <c r="A13" s="296"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4657,11 +4693,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="282"/>
-      <c r="L13" s="282"/>
+      <c r="K13" s="311"/>
+      <c r="L13" s="311"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="265"/>
+      <c r="A14" s="296"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4691,11 +4727,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="265"/>
+      <c r="A15" s="296"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4723,11 +4759,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="282"/>
-      <c r="L15" s="282"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="266"/>
+      <c r="A16" s="297"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4756,8 +4792,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="283"/>
-      <c r="L16" s="283"/>
+      <c r="K16" s="312"/>
+      <c r="L16" s="312"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -4838,7 +4874,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="264" t="s">
+      <c r="A20" s="295" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4870,17 +4906,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="280">
+      <c r="K20" s="309">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="280">
+      <c r="L20" s="309">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="265"/>
+      <c r="A21" s="296"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -4910,11 +4946,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
+      <c r="K21" s="307"/>
+      <c r="L21" s="307"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="265"/>
+      <c r="A22" s="296"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -4944,11 +4980,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="278"/>
-      <c r="L22" s="278"/>
+      <c r="K22" s="307"/>
+      <c r="L22" s="307"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="265"/>
+      <c r="A23" s="296"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -4978,11 +5014,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="278"/>
-      <c r="L23" s="278"/>
+      <c r="K23" s="307"/>
+      <c r="L23" s="307"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="265"/>
+      <c r="A24" s="296"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5012,11 +5048,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="278"/>
-      <c r="L24" s="278"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="265"/>
+      <c r="A25" s="296"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5046,11 +5082,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="278"/>
-      <c r="L25" s="278"/>
+      <c r="K25" s="307"/>
+      <c r="L25" s="307"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="265"/>
+      <c r="A26" s="296"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5080,11 +5116,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
+      <c r="K26" s="307"/>
+      <c r="L26" s="307"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="265"/>
+      <c r="A27" s="296"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5114,11 +5150,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
+      <c r="K27" s="307"/>
+      <c r="L27" s="307"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="266"/>
+      <c r="A28" s="297"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5148,8 +5184,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
+      <c r="K28" s="313"/>
+      <c r="L28" s="313"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5234,7 +5270,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="264" t="s">
+      <c r="A32" s="295" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5266,17 +5302,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="277">
+      <c r="K32" s="306">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="280">
+      <c r="L32" s="309">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="265"/>
+      <c r="A33" s="296"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5306,11 +5342,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="278"/>
-      <c r="L33" s="278"/>
+      <c r="K33" s="307"/>
+      <c r="L33" s="307"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="265"/>
+      <c r="A34" s="296"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5340,11 +5376,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="278"/>
-      <c r="L34" s="278"/>
+      <c r="K34" s="307"/>
+      <c r="L34" s="307"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="265"/>
+      <c r="A35" s="296"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5374,11 +5410,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="278"/>
-      <c r="L35" s="278"/>
+      <c r="K35" s="307"/>
+      <c r="L35" s="307"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="265"/>
+      <c r="A36" s="296"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5408,12 +5444,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="278"/>
-      <c r="L36" s="278"/>
+      <c r="K36" s="307"/>
+      <c r="L36" s="307"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="265"/>
-      <c r="B37" s="270" t="s">
+      <c r="A37" s="296"/>
+      <c r="B37" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5442,12 +5478,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
+      <c r="K37" s="307"/>
+      <c r="L37" s="307"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="265"/>
-      <c r="B38" s="271"/>
+      <c r="A38" s="296"/>
+      <c r="B38" s="302"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5474,12 +5510,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="278"/>
-      <c r="L38" s="278"/>
+      <c r="K38" s="307"/>
+      <c r="L38" s="307"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="265"/>
-      <c r="B39" s="272"/>
+      <c r="A39" s="296"/>
+      <c r="B39" s="303"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5506,12 +5542,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="278"/>
-      <c r="L39" s="278"/>
+      <c r="K39" s="307"/>
+      <c r="L39" s="307"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="265"/>
-      <c r="B40" s="262" t="s">
+      <c r="A40" s="296"/>
+      <c r="B40" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5540,12 +5576,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="278"/>
-      <c r="L40" s="278"/>
+      <c r="K40" s="307"/>
+      <c r="L40" s="307"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="265"/>
-      <c r="B41" s="263"/>
+      <c r="A41" s="296"/>
+      <c r="B41" s="305"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5565,11 +5601,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="278"/>
-      <c r="L41" s="278"/>
+      <c r="K41" s="307"/>
+      <c r="L41" s="307"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="266"/>
+      <c r="A42" s="297"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5599,8 +5635,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="279"/>
-      <c r="L42" s="279"/>
+      <c r="K42" s="308"/>
+      <c r="L42" s="308"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5685,7 +5721,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="264" t="s">
+      <c r="A46" s="295" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5717,17 +5753,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="277">
+      <c r="K46" s="306">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="280">
+      <c r="L46" s="309">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="265"/>
+      <c r="A47" s="296"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5757,11 +5793,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="278"/>
-      <c r="L47" s="278"/>
+      <c r="K47" s="307"/>
+      <c r="L47" s="307"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="265"/>
+      <c r="A48" s="296"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -5791,11 +5827,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="278"/>
-      <c r="L48" s="278"/>
+      <c r="K48" s="307"/>
+      <c r="L48" s="307"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="265"/>
+      <c r="A49" s="296"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5825,11 +5861,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="278"/>
-      <c r="L49" s="278"/>
+      <c r="K49" s="307"/>
+      <c r="L49" s="307"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="265"/>
+      <c r="A50" s="296"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5859,12 +5895,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="278"/>
-      <c r="L50" s="278"/>
+      <c r="K50" s="307"/>
+      <c r="L50" s="307"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="265"/>
-      <c r="B51" s="270" t="s">
+      <c r="A51" s="296"/>
+      <c r="B51" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -5893,12 +5929,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="278"/>
-      <c r="L51" s="278"/>
+      <c r="K51" s="307"/>
+      <c r="L51" s="307"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="265"/>
-      <c r="B52" s="271"/>
+      <c r="A52" s="296"/>
+      <c r="B52" s="302"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -5925,12 +5961,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="278"/>
-      <c r="L52" s="278"/>
+      <c r="K52" s="307"/>
+      <c r="L52" s="307"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="265"/>
-      <c r="B53" s="272"/>
+      <c r="A53" s="296"/>
+      <c r="B53" s="303"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -5957,12 +5993,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="278"/>
-      <c r="L53" s="278"/>
+      <c r="K53" s="307"/>
+      <c r="L53" s="307"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="265"/>
-      <c r="B54" s="262" t="s">
+      <c r="A54" s="296"/>
+      <c r="B54" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -5991,12 +6027,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="278"/>
-      <c r="L54" s="278"/>
+      <c r="K54" s="307"/>
+      <c r="L54" s="307"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="265"/>
-      <c r="B55" s="263"/>
+      <c r="A55" s="296"/>
+      <c r="B55" s="305"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6023,11 +6059,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="278"/>
-      <c r="L55" s="278"/>
+      <c r="K55" s="307"/>
+      <c r="L55" s="307"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="266"/>
+      <c r="A56" s="297"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6057,8 +6093,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="279"/>
-      <c r="L56" s="279"/>
+      <c r="K56" s="308"/>
+      <c r="L56" s="308"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6148,7 +6184,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="264" t="s">
+      <c r="A60" s="295" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6180,11 +6216,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="267">
+      <c r="K60" s="298">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="267">
+      <c r="L60" s="298">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6193,7 +6229,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="265"/>
+      <c r="A61" s="296"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6223,12 +6259,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="268"/>
-      <c r="L61" s="268"/>
+      <c r="K61" s="299"/>
+      <c r="L61" s="299"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="265"/>
+      <c r="A62" s="296"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6258,14 +6294,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="268"/>
-      <c r="L62" s="268"/>
+      <c r="K62" s="299"/>
+      <c r="L62" s="299"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="265"/>
+      <c r="A63" s="296"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6295,12 +6331,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="268"/>
-      <c r="L63" s="268"/>
+      <c r="K63" s="299"/>
+      <c r="L63" s="299"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="265"/>
+      <c r="A64" s="296"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6330,13 +6366,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="268"/>
-      <c r="L64" s="268"/>
+      <c r="K64" s="299"/>
+      <c r="L64" s="299"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="265"/>
-      <c r="B65" s="270" t="s">
+      <c r="A65" s="296"/>
+      <c r="B65" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6365,13 +6401,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="268"/>
-      <c r="L65" s="268"/>
+      <c r="K65" s="299"/>
+      <c r="L65" s="299"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="265"/>
-      <c r="B66" s="271"/>
+      <c r="A66" s="296"/>
+      <c r="B66" s="302"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6398,15 +6434,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="268"/>
-      <c r="L66" s="268"/>
+      <c r="K66" s="299"/>
+      <c r="L66" s="299"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="265"/>
-      <c r="B67" s="272"/>
+      <c r="A67" s="296"/>
+      <c r="B67" s="303"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6433,13 +6469,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="268"/>
-      <c r="L67" s="268"/>
+      <c r="K67" s="299"/>
+      <c r="L67" s="299"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="265"/>
-      <c r="B68" s="262" t="s">
+      <c r="A68" s="296"/>
+      <c r="B68" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6468,15 +6504,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="268"/>
-      <c r="L68" s="268"/>
+      <c r="K68" s="299"/>
+      <c r="L68" s="299"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="265"/>
-      <c r="B69" s="263"/>
+      <c r="A69" s="296"/>
+      <c r="B69" s="305"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6503,14 +6539,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="268"/>
-      <c r="L69" s="268"/>
+      <c r="K69" s="299"/>
+      <c r="L69" s="299"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="266"/>
+      <c r="A70" s="297"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6540,8 +6576,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="269"/>
-      <c r="L70" s="269"/>
+      <c r="K70" s="300"/>
+      <c r="L70" s="300"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6633,7 +6669,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="264" t="s">
+      <c r="A74" s="295" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6665,11 +6701,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="267">
+      <c r="K74" s="298">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="267">
+      <c r="L74" s="298">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6678,7 +6714,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="265"/>
+      <c r="A75" s="296"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6708,12 +6744,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="268"/>
-      <c r="L75" s="268"/>
+      <c r="K75" s="299"/>
+      <c r="L75" s="299"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="265"/>
+      <c r="A76" s="296"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6743,14 +6779,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="268"/>
-      <c r="L76" s="268"/>
+      <c r="K76" s="299"/>
+      <c r="L76" s="299"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="265"/>
+      <c r="A77" s="296"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -6780,12 +6816,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="268"/>
-      <c r="L77" s="268"/>
+      <c r="K77" s="299"/>
+      <c r="L77" s="299"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="265"/>
+      <c r="A78" s="296"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -6815,13 +6851,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="268"/>
-      <c r="L78" s="268"/>
+      <c r="K78" s="299"/>
+      <c r="L78" s="299"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="265"/>
-      <c r="B79" s="270" t="s">
+      <c r="A79" s="296"/>
+      <c r="B79" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6850,13 +6886,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="268"/>
-      <c r="L79" s="268"/>
+      <c r="K79" s="299"/>
+      <c r="L79" s="299"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="265"/>
-      <c r="B80" s="271"/>
+      <c r="A80" s="296"/>
+      <c r="B80" s="302"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -6882,15 +6918,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="268"/>
-      <c r="L80" s="268"/>
+      <c r="K80" s="299"/>
+      <c r="L80" s="299"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="265"/>
-      <c r="B81" s="271"/>
+      <c r="A81" s="296"/>
+      <c r="B81" s="302"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -6917,15 +6953,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="268"/>
-      <c r="L81" s="268"/>
+      <c r="K81" s="299"/>
+      <c r="L81" s="299"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="265"/>
-      <c r="B82" s="272"/>
+      <c r="A82" s="296"/>
+      <c r="B82" s="303"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -6952,13 +6988,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="268"/>
-      <c r="L82" s="268"/>
+      <c r="K82" s="299"/>
+      <c r="L82" s="299"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="265"/>
-      <c r="B83" s="262" t="s">
+      <c r="A83" s="296"/>
+      <c r="B83" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -6987,15 +7023,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="268"/>
-      <c r="L83" s="268"/>
+      <c r="K83" s="299"/>
+      <c r="L83" s="299"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="265"/>
-      <c r="B84" s="263"/>
+      <c r="A84" s="296"/>
+      <c r="B84" s="305"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7022,14 +7058,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="268"/>
-      <c r="L84" s="268"/>
+      <c r="K84" s="299"/>
+      <c r="L84" s="299"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="266"/>
+      <c r="A85" s="297"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7059,8 +7095,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="269"/>
-      <c r="L85" s="269"/>
+      <c r="K85" s="300"/>
+      <c r="L85" s="300"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7151,7 +7187,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="264" t="s">
+      <c r="A89" s="295" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7183,11 +7219,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="267">
+      <c r="K89" s="298">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="267">
+      <c r="L89" s="298">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7196,7 +7232,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="265"/>
+      <c r="A90" s="296"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7226,12 +7262,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="268"/>
-      <c r="L90" s="268"/>
+      <c r="K90" s="299"/>
+      <c r="L90" s="299"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="265"/>
+      <c r="A91" s="296"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7261,14 +7297,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="268"/>
-      <c r="L91" s="268"/>
+      <c r="K91" s="299"/>
+      <c r="L91" s="299"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="265"/>
+      <c r="A92" s="296"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7298,14 +7334,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="268"/>
-      <c r="L92" s="268"/>
+      <c r="K92" s="299"/>
+      <c r="L92" s="299"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="265"/>
+      <c r="A93" s="296"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7335,13 +7371,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="268"/>
-      <c r="L93" s="268"/>
+      <c r="K93" s="299"/>
+      <c r="L93" s="299"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="265"/>
-      <c r="B94" s="270" t="s">
+      <c r="A94" s="296"/>
+      <c r="B94" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7370,15 +7406,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="268"/>
-      <c r="L94" s="268"/>
+      <c r="K94" s="299"/>
+      <c r="L94" s="299"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="265"/>
-      <c r="B95" s="271"/>
+      <c r="A95" s="296"/>
+      <c r="B95" s="302"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7405,15 +7441,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="268"/>
-      <c r="L95" s="268"/>
+      <c r="K95" s="299"/>
+      <c r="L95" s="299"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="265"/>
-      <c r="B96" s="272"/>
+      <c r="A96" s="296"/>
+      <c r="B96" s="303"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7440,13 +7476,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="268"/>
-      <c r="L96" s="268"/>
+      <c r="K96" s="299"/>
+      <c r="L96" s="299"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="265"/>
-      <c r="B97" s="262" t="s">
+      <c r="A97" s="296"/>
+      <c r="B97" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7475,15 +7511,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="268"/>
-      <c r="L97" s="268"/>
+      <c r="K97" s="299"/>
+      <c r="L97" s="299"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="265"/>
-      <c r="B98" s="263"/>
+      <c r="A98" s="296"/>
+      <c r="B98" s="305"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7510,14 +7546,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="268"/>
-      <c r="L98" s="268"/>
+      <c r="K98" s="299"/>
+      <c r="L98" s="299"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="266"/>
+      <c r="A99" s="297"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7547,8 +7583,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="269"/>
-      <c r="L99" s="269"/>
+      <c r="K99" s="300"/>
+      <c r="L99" s="300"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7641,7 +7677,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="264" t="s">
+      <c r="A103" s="295" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7673,11 +7709,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="267">
+      <c r="K103" s="298">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="267">
+      <c r="L103" s="298">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7686,7 +7722,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="265"/>
+      <c r="A104" s="296"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7716,12 +7752,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="268"/>
-      <c r="L104" s="268"/>
+      <c r="K104" s="299"/>
+      <c r="L104" s="299"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="265"/>
+      <c r="A105" s="296"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7751,14 +7787,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="268"/>
-      <c r="L105" s="268"/>
+      <c r="K105" s="299"/>
+      <c r="L105" s="299"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="265"/>
+      <c r="A106" s="296"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -7787,14 +7823,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="268"/>
-      <c r="L106" s="268"/>
+      <c r="K106" s="299"/>
+      <c r="L106" s="299"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="265"/>
+      <c r="A107" s="296"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -7824,13 +7860,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="268"/>
-      <c r="L107" s="268"/>
+      <c r="K107" s="299"/>
+      <c r="L107" s="299"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="265"/>
-      <c r="B108" s="270" t="s">
+      <c r="A108" s="296"/>
+      <c r="B108" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -7859,15 +7895,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="268"/>
-      <c r="L108" s="268"/>
+      <c r="K108" s="299"/>
+      <c r="L108" s="299"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="265"/>
-      <c r="B109" s="271"/>
+      <c r="A109" s="296"/>
+      <c r="B109" s="302"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -7894,15 +7930,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="268"/>
-      <c r="L109" s="268"/>
+      <c r="K109" s="299"/>
+      <c r="L109" s="299"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="265"/>
-      <c r="B110" s="272"/>
+      <c r="A110" s="296"/>
+      <c r="B110" s="303"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -7929,13 +7965,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="268"/>
-      <c r="L110" s="268"/>
+      <c r="K110" s="299"/>
+      <c r="L110" s="299"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="265"/>
-      <c r="B111" s="262" t="s">
+      <c r="A111" s="296"/>
+      <c r="B111" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -7964,15 +8000,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="268"/>
-      <c r="L111" s="268"/>
+      <c r="K111" s="299"/>
+      <c r="L111" s="299"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="265"/>
-      <c r="B112" s="263"/>
+      <c r="A112" s="296"/>
+      <c r="B112" s="305"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -7999,14 +8035,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="268"/>
-      <c r="L112" s="268"/>
+      <c r="K112" s="299"/>
+      <c r="L112" s="299"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="266"/>
+      <c r="A113" s="297"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8036,8 +8072,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="269"/>
-      <c r="L113" s="269"/>
+      <c r="K113" s="300"/>
+      <c r="L113" s="300"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8130,7 +8166,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="264" t="s">
+      <c r="A117" s="295" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8162,11 +8198,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="267">
+      <c r="K117" s="298">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="267">
+      <c r="L117" s="298">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8175,7 +8211,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="265"/>
+      <c r="A118" s="296"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8205,12 +8241,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="268"/>
-      <c r="L118" s="268"/>
+      <c r="K118" s="299"/>
+      <c r="L118" s="299"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="265"/>
+      <c r="A119" s="296"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8240,14 +8276,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="268"/>
-      <c r="L119" s="268"/>
+      <c r="K119" s="299"/>
+      <c r="L119" s="299"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="265"/>
+      <c r="A120" s="296"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8277,13 +8313,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="268"/>
-      <c r="L120" s="268"/>
+      <c r="K120" s="299"/>
+      <c r="L120" s="299"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="265"/>
-      <c r="B121" s="270" t="s">
+      <c r="A121" s="296"/>
+      <c r="B121" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8312,15 +8348,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="268"/>
-      <c r="L121" s="268"/>
+      <c r="K121" s="299"/>
+      <c r="L121" s="299"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="265"/>
-      <c r="B122" s="271"/>
+      <c r="A122" s="296"/>
+      <c r="B122" s="302"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8347,15 +8383,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="268"/>
-      <c r="L122" s="268"/>
+      <c r="K122" s="299"/>
+      <c r="L122" s="299"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="265"/>
-      <c r="B123" s="272"/>
+      <c r="A123" s="296"/>
+      <c r="B123" s="303"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8382,13 +8418,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="268"/>
-      <c r="L123" s="268"/>
+      <c r="K123" s="299"/>
+      <c r="L123" s="299"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="265"/>
-      <c r="B124" s="262" t="s">
+      <c r="A124" s="296"/>
+      <c r="B124" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8417,15 +8453,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="268"/>
-      <c r="L124" s="268"/>
+      <c r="K124" s="299"/>
+      <c r="L124" s="299"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="265"/>
-      <c r="B125" s="263"/>
+      <c r="A125" s="296"/>
+      <c r="B125" s="305"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8452,14 +8488,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="268"/>
-      <c r="L125" s="268"/>
+      <c r="K125" s="299"/>
+      <c r="L125" s="299"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="266"/>
+      <c r="A126" s="297"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8489,8 +8525,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="269"/>
-      <c r="L126" s="269"/>
+      <c r="K126" s="300"/>
+      <c r="L126" s="300"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8583,7 +8619,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="264" t="s">
+      <c r="A130" s="295" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8615,11 +8651,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="267">
+      <c r="K130" s="298">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="267">
+      <c r="L130" s="298">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8628,7 +8664,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="265"/>
+      <c r="A131" s="296"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8658,12 +8694,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="268"/>
-      <c r="L131" s="268"/>
+      <c r="K131" s="299"/>
+      <c r="L131" s="299"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="265"/>
+      <c r="A132" s="296"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8693,14 +8729,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="268"/>
-      <c r="L132" s="268"/>
+      <c r="K132" s="299"/>
+      <c r="L132" s="299"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="265"/>
+      <c r="A133" s="296"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8730,13 +8766,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="268"/>
-      <c r="L133" s="268"/>
+      <c r="K133" s="299"/>
+      <c r="L133" s="299"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="265"/>
-      <c r="B134" s="270" t="s">
+      <c r="A134" s="296"/>
+      <c r="B134" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8765,15 +8801,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="268"/>
-      <c r="L134" s="268"/>
+      <c r="K134" s="299"/>
+      <c r="L134" s="299"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="265"/>
-      <c r="B135" s="271"/>
+      <c r="A135" s="296"/>
+      <c r="B135" s="302"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -8800,15 +8836,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="268"/>
-      <c r="L135" s="268"/>
+      <c r="K135" s="299"/>
+      <c r="L135" s="299"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="265"/>
-      <c r="B136" s="272"/>
+      <c r="A136" s="296"/>
+      <c r="B136" s="303"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -8835,13 +8871,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="268"/>
-      <c r="L136" s="268"/>
+      <c r="K136" s="299"/>
+      <c r="L136" s="299"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="265"/>
-      <c r="B137" s="262" t="s">
+      <c r="A137" s="296"/>
+      <c r="B137" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -8870,15 +8906,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="268"/>
-      <c r="L137" s="268"/>
+      <c r="K137" s="299"/>
+      <c r="L137" s="299"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="265"/>
-      <c r="B138" s="263"/>
+      <c r="A138" s="296"/>
+      <c r="B138" s="305"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -8905,14 +8941,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="268"/>
-      <c r="L138" s="268"/>
+      <c r="K138" s="299"/>
+      <c r="L138" s="299"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="266"/>
+      <c r="A139" s="297"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -8942,8 +8978,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="269"/>
-      <c r="L139" s="269"/>
+      <c r="K139" s="300"/>
+      <c r="L139" s="300"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9036,7 +9072,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="264" t="s">
+      <c r="A143" s="295" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9068,11 +9104,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="267">
+      <c r="K143" s="298">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="267">
+      <c r="L143" s="298">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9081,7 +9117,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="265"/>
+      <c r="A144" s="296"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9111,12 +9147,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="268"/>
-      <c r="L144" s="268"/>
+      <c r="K144" s="299"/>
+      <c r="L144" s="299"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="265"/>
+      <c r="A145" s="296"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9146,14 +9182,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="268"/>
-      <c r="L145" s="268"/>
+      <c r="K145" s="299"/>
+      <c r="L145" s="299"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="265"/>
+      <c r="A146" s="296"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9183,13 +9219,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="268"/>
-      <c r="L146" s="268"/>
+      <c r="K146" s="299"/>
+      <c r="L146" s="299"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="265"/>
-      <c r="B147" s="270" t="s">
+      <c r="A147" s="296"/>
+      <c r="B147" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9218,15 +9254,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="268"/>
-      <c r="L147" s="268"/>
+      <c r="K147" s="299"/>
+      <c r="L147" s="299"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="265"/>
-      <c r="B148" s="271"/>
+      <c r="A148" s="296"/>
+      <c r="B148" s="302"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9253,15 +9289,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="268"/>
-      <c r="L148" s="268"/>
+      <c r="K148" s="299"/>
+      <c r="L148" s="299"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="265"/>
-      <c r="B149" s="272"/>
+      <c r="A149" s="296"/>
+      <c r="B149" s="303"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9288,13 +9324,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="268"/>
-      <c r="L149" s="268"/>
+      <c r="K149" s="299"/>
+      <c r="L149" s="299"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="265"/>
-      <c r="B150" s="262" t="s">
+      <c r="A150" s="296"/>
+      <c r="B150" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9323,15 +9359,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="268"/>
-      <c r="L150" s="268"/>
+      <c r="K150" s="299"/>
+      <c r="L150" s="299"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="265"/>
-      <c r="B151" s="263"/>
+      <c r="A151" s="296"/>
+      <c r="B151" s="305"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9358,14 +9394,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="268"/>
-      <c r="L151" s="268"/>
+      <c r="K151" s="299"/>
+      <c r="L151" s="299"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="266"/>
+      <c r="A152" s="297"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9395,8 +9431,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="269"/>
-      <c r="L152" s="269"/>
+      <c r="K152" s="300"/>
+      <c r="L152" s="300"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9469,10 +9505,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="273" t="s">
+      <c r="H155" s="316" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="274"/>
+      <c r="I155" s="317"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9509,11 +9545,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="275">
+      <c r="H156" s="318">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="276"/>
+      <c r="I156" s="319"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9530,38 +9566,12 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9578,12 +9588,38 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9593,10 +9629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9659,7 +9695,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="296" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9690,11 +9726,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="294">
+      <c r="L2" s="324">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="294">
+      <c r="M2" s="324">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9703,7 +9739,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="265"/>
+      <c r="A3" s="296"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9732,14 +9768,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="294"/>
-      <c r="M3" s="294"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="265"/>
+      <c r="A4" s="296"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9770,13 +9806,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294"/>
+      <c r="L4" s="324"/>
+      <c r="M4" s="324"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="265"/>
-      <c r="B5" s="270"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="301"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -9804,15 +9840,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="265"/>
-      <c r="B6" s="271"/>
+      <c r="A6" s="296"/>
+      <c r="B6" s="302"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -9840,15 +9876,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="294"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="265"/>
-      <c r="B7" s="272"/>
+      <c r="A7" s="296"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -9876,12 +9912,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="294"/>
+      <c r="L7" s="324"/>
+      <c r="M7" s="324"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="265"/>
+      <c r="A8" s="296"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -9910,14 +9946,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
+      <c r="L8" s="324"/>
+      <c r="M8" s="324"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="266"/>
+      <c r="A9" s="297"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -9946,8 +9982,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="295"/>
-      <c r="M9" s="295"/>
+      <c r="L9" s="325"/>
+      <c r="M9" s="325"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10080,7 +10116,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="265" t="s">
+      <c r="A14" s="296" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10111,11 +10147,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="294">
+      <c r="L14" s="324">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="294">
+      <c r="M14" s="324">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10124,7 +10160,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="265"/>
+      <c r="A15" s="296"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10153,14 +10189,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="294"/>
-      <c r="M15" s="294"/>
+      <c r="L15" s="324"/>
+      <c r="M15" s="324"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="265"/>
+      <c r="A16" s="296"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10190,13 +10226,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="294"/>
-      <c r="M16" s="294"/>
+      <c r="L16" s="324"/>
+      <c r="M16" s="324"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="265"/>
-      <c r="B17" s="300"/>
+      <c r="A17" s="296"/>
+      <c r="B17" s="338"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10224,15 +10260,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="294"/>
-      <c r="M17" s="294"/>
+      <c r="L17" s="324"/>
+      <c r="M17" s="324"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="265"/>
-      <c r="B18" s="301"/>
+      <c r="A18" s="296"/>
+      <c r="B18" s="339"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10260,15 +10296,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="294"/>
+      <c r="L18" s="324"/>
+      <c r="M18" s="324"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="265"/>
-      <c r="B19" s="302"/>
+      <c r="A19" s="296"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10297,12 +10333,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="294"/>
+      <c r="L19" s="324"/>
+      <c r="M19" s="324"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="265"/>
+      <c r="A20" s="296"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10331,14 +10367,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="294"/>
+      <c r="L20" s="324"/>
+      <c r="M20" s="324"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="266"/>
+      <c r="A21" s="297"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10367,8 +10403,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="295"/>
-      <c r="M21" s="295"/>
+      <c r="L21" s="325"/>
+      <c r="M21" s="325"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10501,7 +10537,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="265" t="s">
+      <c r="A26" s="296" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10532,11 +10568,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="294">
+      <c r="L26" s="324">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="294">
+      <c r="M26" s="324">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10545,7 +10581,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="265"/>
+      <c r="A27" s="296"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10574,14 +10610,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="294"/>
+      <c r="L27" s="324"/>
+      <c r="M27" s="324"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="265"/>
+      <c r="A28" s="296"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10611,13 +10647,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="294"/>
-      <c r="M28" s="294"/>
+      <c r="L28" s="324"/>
+      <c r="M28" s="324"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="265"/>
-      <c r="B29" s="300"/>
+      <c r="A29" s="296"/>
+      <c r="B29" s="338"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10645,15 +10681,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
+      <c r="L29" s="324"/>
+      <c r="M29" s="324"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="265"/>
-      <c r="B30" s="301"/>
+      <c r="A30" s="296"/>
+      <c r="B30" s="339"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10681,15 +10717,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="294"/>
-      <c r="M30" s="294"/>
+      <c r="L30" s="324"/>
+      <c r="M30" s="324"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="265"/>
-      <c r="B31" s="302"/>
+      <c r="A31" s="296"/>
+      <c r="B31" s="340"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10718,12 +10754,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="294"/>
-      <c r="M31" s="294"/>
+      <c r="L31" s="324"/>
+      <c r="M31" s="324"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="265"/>
+      <c r="A32" s="296"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10752,14 +10788,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="294"/>
-      <c r="M32" s="294"/>
+      <c r="L32" s="324"/>
+      <c r="M32" s="324"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="266"/>
+      <c r="A33" s="297"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -10788,8 +10824,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="295"/>
-      <c r="M33" s="295"/>
+      <c r="L33" s="325"/>
+      <c r="M33" s="325"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -10922,7 +10958,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="265" t="s">
+      <c r="A38" s="296" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -10953,11 +10989,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="294">
+      <c r="L38" s="324">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="294">
+      <c r="M38" s="324">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -10966,7 +11002,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="265"/>
+      <c r="A39" s="296"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -10995,14 +11031,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="294"/>
-      <c r="M39" s="294"/>
+      <c r="L39" s="324"/>
+      <c r="M39" s="324"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="265"/>
+      <c r="A40" s="296"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11032,13 +11068,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="294"/>
-      <c r="M40" s="294"/>
+      <c r="L40" s="324"/>
+      <c r="M40" s="324"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="265"/>
-      <c r="B41" s="300"/>
+      <c r="A41" s="296"/>
+      <c r="B41" s="338"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11066,15 +11102,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="294"/>
-      <c r="M41" s="294"/>
+      <c r="L41" s="324"/>
+      <c r="M41" s="324"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="265"/>
-      <c r="B42" s="301"/>
+      <c r="A42" s="296"/>
+      <c r="B42" s="339"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11102,15 +11138,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="294"/>
-      <c r="M42" s="294"/>
+      <c r="L42" s="324"/>
+      <c r="M42" s="324"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="265"/>
-      <c r="B43" s="302"/>
+      <c r="A43" s="296"/>
+      <c r="B43" s="340"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11139,12 +11175,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="294"/>
-      <c r="M43" s="294"/>
+      <c r="L43" s="324"/>
+      <c r="M43" s="324"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="265"/>
+      <c r="A44" s="296"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11173,14 +11209,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="294"/>
-      <c r="M44" s="294"/>
+      <c r="L44" s="324"/>
+      <c r="M44" s="324"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="266"/>
+      <c r="A45" s="297"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11209,8 +11245,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="295"/>
-      <c r="M45" s="295"/>
+      <c r="L45" s="325"/>
+      <c r="M45" s="325"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11346,7 +11382,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="265" t="s">
+      <c r="A50" s="296" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11378,15 +11414,15 @@
         <f t="shared" ref="J50:J54" si="9">E50/D50</f>
         <v>3.7756713273128477E-4</v>
       </c>
-      <c r="K50" s="322">
+      <c r="K50" s="276">
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="294">
+      <c r="L50" s="324">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="294">
+      <c r="M50" s="324">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11395,7 +11431,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="265"/>
+      <c r="A51" s="296"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11425,18 +11461,18 @@
         <f t="shared" si="9"/>
         <v>1.918E-4</v>
       </c>
-      <c r="K51" s="322">
+      <c r="K51" s="276">
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="294"/>
-      <c r="M51" s="294"/>
+      <c r="L51" s="324"/>
+      <c r="M51" s="324"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="265"/>
+      <c r="A52" s="296"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11467,14 +11503,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K52" s="322"/>
-      <c r="L52" s="294"/>
-      <c r="M52" s="294"/>
+      <c r="K52" s="276"/>
+      <c r="L52" s="324"/>
+      <c r="M52" s="324"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="265"/>
-      <c r="B53" s="300">
+      <c r="A53" s="296"/>
+      <c r="B53" s="338">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11503,19 +11539,19 @@
         <f t="shared" si="9"/>
         <v>2.1535000000000003E-4</v>
       </c>
-      <c r="K53" s="322">
+      <c r="K53" s="276">
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="294"/>
-      <c r="M53" s="294"/>
+      <c r="L53" s="324"/>
+      <c r="M53" s="324"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="265"/>
-      <c r="B54" s="301"/>
+      <c r="A54" s="296"/>
+      <c r="B54" s="339"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11542,18 +11578,18 @@
         <f t="shared" si="9"/>
         <v>3.2202359312514888E-4</v>
       </c>
-      <c r="K54" s="322">
+      <c r="K54" s="276">
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="294"/>
-      <c r="M54" s="294"/>
+      <c r="L54" s="324"/>
+      <c r="M54" s="324"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="266"/>
+      <c r="A55" s="297"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11583,12 +11619,12 @@
         <f>E55/D55</f>
         <v>3.270631321315172E-4</v>
       </c>
-      <c r="K55" s="322">
+      <c r="K55" s="276">
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="295"/>
-      <c r="M55" s="295"/>
+      <c r="L55" s="325"/>
+      <c r="M55" s="325"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11724,10 +11760,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="303" t="s">
+      <c r="A60" s="333" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="298">
+      <c r="B60" s="336">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11756,15 +11792,15 @@
         <f t="shared" ref="J60" si="12">E60/D60</f>
         <v>4.0767058823529408E-4</v>
       </c>
-      <c r="K60" s="322">
+      <c r="K60" s="276">
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="293">
+      <c r="L60" s="323">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="293">
+      <c r="M60" s="323">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11773,8 +11809,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="304"/>
-      <c r="B61" s="299"/>
+      <c r="A61" s="334"/>
+      <c r="B61" s="337"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -11801,18 +11837,18 @@
         <f t="shared" ref="J61:J64" si="13">E61/D61</f>
         <v>3.7742462959606594E-4</v>
       </c>
-      <c r="K61" s="322">
+      <c r="K61" s="276">
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="294"/>
-      <c r="M61" s="294"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="324"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="304"/>
+      <c r="A62" s="334"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -11842,19 +11878,19 @@
         <f t="shared" si="13"/>
         <v>1.9176321981443959E-4</v>
       </c>
-      <c r="K62" s="322">
+      <c r="K62" s="276">
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="294"/>
-      <c r="M62" s="294"/>
+      <c r="L62" s="324"/>
+      <c r="M62" s="324"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="304"/>
-      <c r="B63" s="296">
+      <c r="A63" s="334"/>
+      <c r="B63" s="331">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -11883,19 +11919,19 @@
         <f t="shared" si="13"/>
         <v>2.1530363436234008E-4</v>
       </c>
-      <c r="K63" s="322">
+      <c r="K63" s="276">
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="294"/>
-      <c r="M63" s="294"/>
+      <c r="L63" s="324"/>
+      <c r="M63" s="324"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="304"/>
-      <c r="B64" s="297"/>
+      <c r="A64" s="334"/>
+      <c r="B64" s="332"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -11922,18 +11958,18 @@
         <f t="shared" si="13"/>
         <v>3.2191992731345681E-4</v>
       </c>
-      <c r="K64" s="322">
+      <c r="K64" s="276">
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="294"/>
-      <c r="M64" s="294"/>
+      <c r="L64" s="324"/>
+      <c r="M64" s="324"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="305"/>
+      <c r="A65" s="335"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -11963,12 +11999,12 @@
         <f>E65/D65</f>
         <v>3.2695619681371744E-4</v>
       </c>
-      <c r="K65" s="322">
+      <c r="K65" s="276">
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="295"/>
-      <c r="M65" s="295"/>
+      <c r="L65" s="325"/>
+      <c r="M65" s="325"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12294,10 +12330,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="290" t="s">
+      <c r="A76" s="320" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="298">
+      <c r="B76" s="336">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12326,15 +12362,15 @@
         <f t="shared" ref="J76:J80" si="18">E76/D76</f>
         <v>4.075044606521115E-4</v>
       </c>
-      <c r="K76" s="322">
+      <c r="K76" s="276">
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="293">
+      <c r="L76" s="323">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="293">
+      <c r="M76" s="323">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12343,8 +12379,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="291"/>
-      <c r="B77" s="299"/>
+      <c r="A77" s="321"/>
+      <c r="B77" s="337"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12371,18 +12407,18 @@
         <f t="shared" si="18"/>
         <v>3.7728223398864958E-4</v>
       </c>
-      <c r="K77" s="322">
+      <c r="K77" s="276">
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="294"/>
-      <c r="M77" s="294"/>
+      <c r="L77" s="324"/>
+      <c r="M77" s="324"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="291"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12412,19 +12448,19 @@
         <f t="shared" si="18"/>
         <v>1.9172645373234827E-4</v>
       </c>
-      <c r="K78" s="322">
+      <c r="K78" s="276">
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="294"/>
-      <c r="M78" s="294"/>
+      <c r="L78" s="324"/>
+      <c r="M78" s="324"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="291"/>
-      <c r="B79" s="296">
+      <c r="A79" s="321"/>
+      <c r="B79" s="331">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12453,19 +12489,19 @@
         <f t="shared" si="18"/>
         <v>2.1525728868576304E-4</v>
       </c>
-      <c r="K79" s="322">
+      <c r="K79" s="276">
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="294"/>
-      <c r="M79" s="294"/>
+      <c r="L79" s="324"/>
+      <c r="M79" s="324"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="291"/>
-      <c r="B80" s="297"/>
+      <c r="A80" s="321"/>
+      <c r="B80" s="332"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12492,18 +12528,18 @@
         <f t="shared" si="18"/>
         <v>3.2181632822446648E-4</v>
       </c>
-      <c r="K80" s="322">
+      <c r="K80" s="276">
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="294"/>
-      <c r="M80" s="294"/>
+      <c r="L80" s="324"/>
+      <c r="M80" s="324"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="292"/>
+      <c r="A81" s="322"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12533,12 +12569,12 @@
         <f>E81/D81</f>
         <v>3.2684933139939197E-4</v>
       </c>
-      <c r="K81" s="322">
+      <c r="K81" s="276">
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="295"/>
-      <c r="M81" s="295"/>
+      <c r="L81" s="325"/>
+      <c r="M81" s="325"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12589,7 +12625,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="287" t="s">
+      <c r="A83" s="328" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12628,7 +12664,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="288"/>
+      <c r="A84" s="329"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12673,7 +12709,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="289"/>
+      <c r="A85" s="330"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -12873,7 +12909,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="290" t="s">
+      <c r="A91" s="320" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -12905,15 +12941,15 @@
         <f t="shared" ref="J91:J94" si="23">E91/D91</f>
         <v>4.0733846840923955E-4</v>
       </c>
-      <c r="K91" s="322">
+      <c r="K91" s="276">
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="293">
+      <c r="L91" s="323">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="293">
+      <c r="M91" s="323">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -12922,7 +12958,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="291"/>
+      <c r="A92" s="321"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -12952,19 +12988,19 @@
         <f t="shared" si="23"/>
         <v>1.916897017456156E-4</v>
       </c>
-      <c r="K92" s="322">
+      <c r="K92" s="276">
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="294"/>
-      <c r="M92" s="294"/>
+      <c r="L92" s="324"/>
+      <c r="M92" s="324"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="291"/>
-      <c r="B93" s="296">
+      <c r="A93" s="321"/>
+      <c r="B93" s="331">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -12993,19 +13029,19 @@
         <f t="shared" si="23"/>
         <v>2.1521096295738139E-4</v>
       </c>
-      <c r="K93" s="322">
+      <c r="K93" s="276">
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="294"/>
-      <c r="M93" s="294"/>
+      <c r="L93" s="324"/>
+      <c r="M93" s="324"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="291"/>
-      <c r="B94" s="297"/>
+      <c r="A94" s="321"/>
+      <c r="B94" s="332"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13032,18 +13068,18 @@
         <f t="shared" si="23"/>
         <v>3.2171279579378133E-4</v>
       </c>
-      <c r="K94" s="322">
+      <c r="K94" s="276">
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="294"/>
-      <c r="M94" s="294"/>
+      <c r="L94" s="324"/>
+      <c r="M94" s="324"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="292"/>
+      <c r="A95" s="322"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13073,12 +13109,12 @@
         <f>E95/D95</f>
         <v>3.2674253582001941E-4</v>
       </c>
-      <c r="K95" s="322">
+      <c r="K95" s="276">
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="295"/>
-      <c r="M95" s="295"/>
+      <c r="L95" s="325"/>
+      <c r="M95" s="325"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13129,7 +13165,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="287" t="s">
+      <c r="A97" s="328" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13168,7 +13204,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="288"/>
+      <c r="A98" s="329"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13213,7 +13249,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="289"/>
+      <c r="A99" s="330"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13413,238 +13449,238 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="290" t="s">
+      <c r="A105" s="320" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
         <v>78.91</v>
       </c>
-      <c r="C105" s="338" t="s">
+      <c r="C105" s="290" t="s">
         <v>229</v>
       </c>
-      <c r="D105" s="310">
+      <c r="D105" s="264">
         <v>11100</v>
       </c>
-      <c r="E105" s="310"/>
-      <c r="F105" s="310">
+      <c r="E105" s="264"/>
+      <c r="F105" s="264">
         <f>D105</f>
         <v>11100</v>
       </c>
-      <c r="G105" s="311"/>
-      <c r="H105" s="312"/>
-      <c r="I105" s="313">
+      <c r="G105" s="265"/>
+      <c r="H105" s="266"/>
+      <c r="I105" s="267">
         <f>D105</f>
         <v>11100</v>
       </c>
-      <c r="J105" s="314"/>
+      <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="293">
+      <c r="L105" s="323">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="293">
+      <c r="M105" s="323">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="291"/>
-      <c r="B106" s="315">
+      <c r="A106" s="321"/>
+      <c r="B106" s="269">
         <v>28</v>
       </c>
-      <c r="C106" s="339" t="s">
+      <c r="C106" s="291" t="s">
         <v>222</v>
       </c>
-      <c r="D106" s="316">
+      <c r="D106" s="270">
         <v>8510.3956000000017</v>
       </c>
-      <c r="E106" s="316">
+      <c r="E106" s="270">
         <v>3.4651999999999998</v>
       </c>
-      <c r="F106" s="316">
+      <c r="F106" s="270">
         <f>D106+E106</f>
         <v>8513.8608000000022</v>
       </c>
-      <c r="G106" s="317" t="s">
+      <c r="G106" s="271" t="s">
         <v>175</v>
       </c>
-      <c r="H106" s="318">
+      <c r="H106" s="272">
         <v>9733.6200000000008</v>
       </c>
-      <c r="I106" s="319">
+      <c r="I106" s="273">
         <v>8500</v>
       </c>
-      <c r="J106" s="320">
+      <c r="J106" s="274">
         <f>E106/I106</f>
         <v>4.0767058823529408E-4</v>
       </c>
-      <c r="K106" s="321">
+      <c r="K106" s="275">
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="294"/>
-      <c r="M106" s="294"/>
+      <c r="L106" s="324"/>
+      <c r="M106" s="324"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="291"/>
-      <c r="B107" s="334">
+      <c r="A107" s="321"/>
+      <c r="B107" s="286">
         <v>117.98</v>
       </c>
-      <c r="C107" s="340" t="s">
+      <c r="C107" s="292" t="s">
         <v>181</v>
       </c>
-      <c r="D107" s="335">
+      <c r="D107" s="287">
         <v>10007.671999999999</v>
       </c>
-      <c r="E107" s="335">
+      <c r="E107" s="287">
         <v>1.9179999999999999</v>
       </c>
-      <c r="F107" s="335">
+      <c r="F107" s="287">
         <f>D107+E107</f>
         <v>10009.589999999998</v>
       </c>
-      <c r="G107" s="336" t="s">
+      <c r="G107" s="288" t="s">
         <v>149</v>
       </c>
-      <c r="H107" s="337">
+      <c r="H107" s="289">
         <v>10047.950000000001</v>
       </c>
       <c r="I107" s="12">
         <v>10000</v>
       </c>
-      <c r="J107" s="320">
+      <c r="J107" s="274">
         <f t="shared" ref="J107:J110" si="27">E107/I107</f>
         <v>1.918E-4</v>
       </c>
-      <c r="K107" s="322">
+      <c r="K107" s="276">
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="294"/>
-      <c r="M107" s="294"/>
+      <c r="L107" s="324"/>
+      <c r="M107" s="324"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="291"/>
-      <c r="B108" s="325">
+      <c r="A108" s="321"/>
+      <c r="B108" s="326">
         <v>118.93</v>
       </c>
-      <c r="C108" s="341" t="s">
+      <c r="C108" s="293" t="s">
         <v>178</v>
       </c>
-      <c r="D108" s="326">
+      <c r="D108" s="279">
         <v>10008.614000000001</v>
       </c>
-      <c r="E108" s="326">
+      <c r="E108" s="279">
         <v>2.1535000000000002</v>
       </c>
-      <c r="F108" s="326">
+      <c r="F108" s="279">
         <f t="shared" ref="F108:F109" si="29">D108+E108</f>
         <v>10010.767500000002</v>
       </c>
-      <c r="G108" s="327" t="s">
+      <c r="G108" s="280" t="s">
         <v>150</v>
       </c>
-      <c r="H108" s="328">
+      <c r="H108" s="281">
         <v>10079.68</v>
       </c>
       <c r="I108" s="12">
         <v>10000</v>
       </c>
-      <c r="J108" s="320">
+      <c r="J108" s="274">
         <f t="shared" si="27"/>
         <v>2.1535000000000003E-4</v>
       </c>
-      <c r="K108" s="322">
+      <c r="K108" s="276">
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="294"/>
-      <c r="M108" s="294"/>
+      <c r="L108" s="324"/>
+      <c r="M108" s="324"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="291"/>
-      <c r="B109" s="329"/>
-      <c r="C109" s="341" t="s">
+      <c r="A109" s="321"/>
+      <c r="B109" s="327"/>
+      <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D109" s="326">
+      <c r="D109" s="279">
         <v>1022.3584</v>
       </c>
-      <c r="E109" s="326">
+      <c r="E109" s="279">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F109" s="326">
+      <c r="F109" s="279">
         <f t="shared" si="29"/>
         <v>1022.6872</v>
       </c>
-      <c r="G109" s="327" t="s">
+      <c r="G109" s="280" t="s">
         <v>132</v>
       </c>
-      <c r="H109" s="328">
+      <c r="H109" s="281">
         <v>1032.8800000000001</v>
       </c>
       <c r="I109" s="12">
         <v>1000</v>
       </c>
-      <c r="J109" s="320">
+      <c r="J109" s="274">
         <f t="shared" si="27"/>
         <v>3.2879999999999997E-4</v>
       </c>
-      <c r="K109" s="322">
+      <c r="K109" s="276">
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="294"/>
-      <c r="M109" s="294"/>
+      <c r="L109" s="324"/>
+      <c r="M109" s="324"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="292"/>
-      <c r="B110" s="330"/>
-      <c r="C110" s="342" t="s">
+      <c r="A110" s="322"/>
+      <c r="B110" s="282"/>
+      <c r="C110" s="294" t="s">
         <v>177</v>
       </c>
-      <c r="D110" s="331">
+      <c r="D110" s="283">
         <v>10072.380000000003</v>
       </c>
-      <c r="E110" s="332">
+      <c r="E110" s="284">
         <v>3.29</v>
       </c>
-      <c r="F110" s="332">
+      <c r="F110" s="284">
         <f>D110+E110</f>
         <v>10075.670000000004</v>
       </c>
-      <c r="G110" s="333" t="s">
+      <c r="G110" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="H110" s="332">
+      <c r="H110" s="284">
         <v>11196.73</v>
       </c>
       <c r="I110" s="146">
         <v>10000</v>
       </c>
-      <c r="J110" s="320">
+      <c r="J110" s="274">
         <f t="shared" si="27"/>
         <v>3.2900000000000003E-4</v>
       </c>
-      <c r="K110" s="322">
+      <c r="K110" s="276">
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="295"/>
-      <c r="M110" s="295"/>
+      <c r="L110" s="325"/>
+      <c r="M110" s="325"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -13695,7 +13731,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="287" t="s">
+      <c r="A112" s="328" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -13734,7 +13770,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="288"/>
+      <c r="A113" s="329"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -13779,11 +13815,11 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="289"/>
+      <c r="A114" s="330"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
-      <c r="C114" s="324" t="s">
+      <c r="C114" s="278" t="s">
         <v>230</v>
       </c>
       <c r="D114" s="164">
@@ -13810,7 +13846,7 @@
         <f t="shared" ref="J114" si="30">E114/D114</f>
         <v>9.1741099278548003E-6</v>
       </c>
-      <c r="K114" s="323">
+      <c r="K114" s="277">
         <f>(F114-I114)/I114</f>
         <v>3.1192660550472063E-5</v>
       </c>
@@ -13933,27 +13969,591 @@
         <v>7560.1894565218336</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15" thickTop="1"/>
+    <row r="118" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="119" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A119" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K119" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L119" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M119" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N119" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15" thickBot="1">
+      <c r="A120" s="320" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="262">
+        <v>78.91</v>
+      </c>
+      <c r="C120" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D120" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E120" s="264"/>
+      <c r="F120" s="264">
+        <f>D120</f>
+        <v>11100</v>
+      </c>
+      <c r="G120" s="265"/>
+      <c r="H120" s="266"/>
+      <c r="I120" s="267">
+        <f>D120</f>
+        <v>11100</v>
+      </c>
+      <c r="J120" s="268"/>
+      <c r="K120" s="153"/>
+      <c r="L120" s="323">
+        <f>E126/D126</f>
+        <v>2.1988830431051147E-4</v>
+      </c>
+      <c r="M120" s="323">
+        <f>L120*365</f>
+        <v>8.0259231073336684E-2</v>
+      </c>
+      <c r="N120" s="191"/>
+    </row>
+    <row r="121" spans="1:14" ht="25.5">
+      <c r="A121" s="321"/>
+      <c r="B121" s="269">
+        <v>28</v>
+      </c>
+      <c r="C121" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="270">
+        <v>8513.8608000000022</v>
+      </c>
+      <c r="E121" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F121" s="270">
+        <f>D121+E121</f>
+        <v>8517.3260000000028</v>
+      </c>
+      <c r="G121" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I121" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J121" s="274">
+        <f>E121/I121</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K121" s="275">
+        <f>(F121-I121)/(H121-I121)</f>
+        <v>1.4044843630942055E-2</v>
+      </c>
+      <c r="L121" s="324"/>
+      <c r="M121" s="324"/>
+      <c r="N121" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="25.5">
+      <c r="A122" s="321"/>
+      <c r="B122" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C122" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" s="287">
+        <v>10009.589999999998</v>
+      </c>
+      <c r="E122" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F122" s="287">
+        <f>D122+E122</f>
+        <v>10011.507999999998</v>
+      </c>
+      <c r="G122" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H122" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I122" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J122" s="274">
+        <f t="shared" ref="J122:J125" si="31">E122/I122</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K122" s="276">
+        <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
+        <v>0.23999999999995447</v>
+      </c>
+      <c r="L122" s="324"/>
+      <c r="M122" s="324"/>
+      <c r="N122" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="25.5">
+      <c r="A123" s="321"/>
+      <c r="B123" s="326">
+        <v>118.93</v>
+      </c>
+      <c r="C123" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" s="279">
+        <v>10010.767500000002</v>
+      </c>
+      <c r="E123" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F123" s="279">
+        <f t="shared" ref="F123:F124" si="33">D123+E123</f>
+        <v>10012.921000000002</v>
+      </c>
+      <c r="G123" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H123" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I123" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J123" s="274">
+        <f t="shared" si="31"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K123" s="276">
+        <f t="shared" si="32"/>
+        <v>0.16216114457833897</v>
+      </c>
+      <c r="L123" s="324"/>
+      <c r="M123" s="324"/>
+      <c r="N123" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="25.5">
+      <c r="A124" s="321"/>
+      <c r="B124" s="327"/>
+      <c r="C124" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" s="279">
+        <v>1022.6872</v>
+      </c>
+      <c r="E124" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F124" s="279">
+        <f t="shared" si="33"/>
+        <v>1023.016</v>
+      </c>
+      <c r="G124" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H124" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I124" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J124" s="274">
+        <f t="shared" si="31"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K124" s="276">
+        <f t="shared" si="32"/>
+        <v>0.69999999999999651</v>
+      </c>
+      <c r="L124" s="324"/>
+      <c r="M124" s="324"/>
+      <c r="N124" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A125" s="322"/>
+      <c r="B125" s="282"/>
+      <c r="C125" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D125" s="283">
+        <v>10075.670000000004</v>
+      </c>
+      <c r="E125" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F125" s="284">
+        <f>D125+E125</f>
+        <v>10078.960000000005</v>
+      </c>
+      <c r="G125" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H125" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I125" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J125" s="274">
+        <f t="shared" si="31"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K125" s="276">
+        <f t="shared" si="32"/>
+        <v>6.5979794941218667E-2</v>
+      </c>
+      <c r="L125" s="325"/>
+      <c r="M125" s="325"/>
+      <c r="N125" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A126" s="195" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="174">
+        <f>SUM(B120:B125)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D126" s="11">
+        <f>SUM(D120:D125)</f>
+        <v>50732.575500000006</v>
+      </c>
+      <c r="E126" s="61">
+        <f>SUM(E120:E125)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F126" s="11">
+        <f>SUM(F120:F125)</f>
+        <v>50743.731000000014</v>
+      </c>
+      <c r="G126" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H126" s="66">
+        <f>L120*10000</f>
+        <v>2.198883043105115</v>
+      </c>
+      <c r="I126" s="158">
+        <f>SUM(I120:I125)</f>
+        <v>50600</v>
+      </c>
+      <c r="J126" s="68"/>
+      <c r="K126" s="68"/>
+      <c r="L126" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M126" s="66">
+        <f>M120*10000</f>
+        <v>802.59231073336684</v>
+      </c>
+      <c r="N126" s="196"/>
+    </row>
+    <row r="127" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A127" s="328" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="123">
+        <v>1406.01</v>
+      </c>
+      <c r="E127" s="124">
+        <v>7.58</v>
+      </c>
+      <c r="F127" s="124">
+        <f>D127+E127</f>
+        <v>1413.59</v>
+      </c>
+      <c r="G127" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H127" s="123">
+        <f>F127</f>
+        <v>1413.59</v>
+      </c>
+      <c r="I127" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J127" s="127">
+        <f>(H127-I127)/I127</f>
+        <v>-5.7606666666666723E-2</v>
+      </c>
+      <c r="K127" s="127"/>
+      <c r="L127" s="128"/>
+      <c r="M127" s="129"/>
+      <c r="N127" s="197"/>
+    </row>
+    <row r="128" spans="1:14" ht="25.5">
+      <c r="A128" s="329"/>
+      <c r="B128" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="131">
+        <v>1492.63</v>
+      </c>
+      <c r="E128" s="132">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="F128" s="132">
+        <f>D128+E128</f>
+        <v>1488.5300000000002</v>
+      </c>
+      <c r="G128" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H128" s="131">
+        <f>F128</f>
+        <v>1488.5300000000002</v>
+      </c>
+      <c r="I128" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J128" s="168">
+        <f>(H128-I128)/I128</f>
+        <v>-7.6466666666665335E-3</v>
+      </c>
+      <c r="K128" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L128" s="243">
+        <v>1.45</v>
+      </c>
+      <c r="M128" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N128" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="28.5">
+      <c r="A129" s="330"/>
+      <c r="B129" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C129" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" s="164">
+        <v>10500.17</v>
+      </c>
+      <c r="E129" s="163">
+        <v>0.05</v>
+      </c>
+      <c r="F129" s="163">
+        <f>D129+E129</f>
+        <v>10500.22</v>
+      </c>
+      <c r="G129" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="166">
+        <f>F129</f>
+        <v>10500.22</v>
+      </c>
+      <c r="I129" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J129" s="239">
+        <f t="shared" ref="J129" si="34">E129/D129</f>
+        <v>4.7618276656473184E-6</v>
+      </c>
+      <c r="K129" s="277">
+        <f>(F129-I129)/I129</f>
+        <v>2.0952380952318588E-5</v>
+      </c>
+      <c r="L129" s="175"/>
+      <c r="M129" s="176"/>
+      <c r="N129" s="198"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="199"/>
+      <c r="B130" s="186"/>
+      <c r="C130" s="186"/>
+      <c r="D130" s="186"/>
+      <c r="E130" s="186"/>
+      <c r="F130" s="186"/>
+      <c r="G130" s="186"/>
+      <c r="H130" s="186"/>
+      <c r="I130" s="186"/>
+      <c r="J130" s="186"/>
+      <c r="K130" s="186"/>
+      <c r="L130" s="186"/>
+      <c r="M130" s="186"/>
+      <c r="N130" s="200"/>
+    </row>
+    <row r="131" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A131" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G131" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H131" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I131" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J131" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K131" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L131" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M131" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N131" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A132" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="205">
+        <f>F126+B126</f>
+        <v>51087.551000000014</v>
+      </c>
+      <c r="D132" s="205">
+        <f>I126</f>
+        <v>50600</v>
+      </c>
+      <c r="E132" s="206">
+        <v>24</v>
+      </c>
+      <c r="F132" s="207">
+        <f>C132-D132</f>
+        <v>487.55100000001403</v>
+      </c>
+      <c r="G132" s="208">
+        <f>F132/D132</f>
+        <v>9.6353952569172736E-3</v>
+      </c>
+      <c r="H132" s="207">
+        <f>F132/E132</f>
+        <v>20.314625000000586</v>
+      </c>
+      <c r="I132" s="208">
+        <f>G132/E132</f>
+        <v>4.0147480237155307E-4</v>
+      </c>
+      <c r="J132" s="209">
+        <f>H132*10000/D132</f>
+        <v>4.0147480237155309</v>
+      </c>
+      <c r="K132" s="210">
+        <f>B126</f>
+        <v>343.82</v>
+      </c>
+      <c r="L132" s="210">
+        <f>F132-K132</f>
+        <v>143.73100000001403</v>
+      </c>
+      <c r="M132" s="208">
+        <f>I132*365</f>
+        <v>0.14653830286561687</v>
+      </c>
+      <c r="N132" s="211">
+        <f>H132*365</f>
+        <v>7414.8381250002139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="46">
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -13966,17 +14566,24 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13989,7 +14596,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A22" sqref="A22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14153,20 +14760,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="306" t="s">
+      <c r="A17" s="341" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="307"/>
-      <c r="C17" s="307"/>
-      <c r="D17" s="307"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="307"/>
-      <c r="G17" s="307"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="307"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="308"/>
+      <c r="B17" s="342"/>
+      <c r="C17" s="342"/>
+      <c r="D17" s="342"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="342"/>
+      <c r="G17" s="342"/>
+      <c r="H17" s="342"/>
+      <c r="I17" s="342"/>
+      <c r="J17" s="342"/>
+      <c r="K17" s="342"/>
+      <c r="L17" s="343"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -14210,22 +14817,22 @@
       <c r="A19" s="251">
         <v>2017</v>
       </c>
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="263" t="s">
         <v>227</v>
       </c>
       <c r="C19" s="251">
-        <v>49950</v>
+        <v>50600</v>
       </c>
       <c r="D19" s="252">
         <v>0.1</v>
       </c>
       <c r="E19" s="254">
         <f>C19*D19</f>
-        <v>4995</v>
+        <v>5060</v>
       </c>
       <c r="F19" s="254">
         <f>E19/365*G19</f>
-        <v>424.23287671232879</v>
+        <v>429.75342465753425</v>
       </c>
       <c r="G19" s="251">
         <v>31</v>
@@ -14235,14 +14842,14 @@
       </c>
       <c r="I19" s="259">
         <f>F19-H19</f>
-        <v>80.412876712328796</v>
+        <v>85.93342465753426</v>
       </c>
       <c r="J19" s="251">
         <v>0</v>
       </c>
       <c r="K19" s="256">
         <f>H19/F19</f>
-        <v>0.81045109625754785</v>
+        <v>0.80004016320285598</v>
       </c>
       <c r="L19" s="255" t="s">
         <v>218</v>
@@ -14257,18 +14864,18 @@
       </c>
       <c r="C20" s="251">
         <f>C19+J20</f>
-        <v>55950</v>
+        <v>56600</v>
       </c>
       <c r="D20" s="252">
         <v>0.1</v>
       </c>
       <c r="E20" s="254">
         <f>C20*D20</f>
-        <v>5595</v>
+        <v>5660</v>
       </c>
       <c r="F20" s="254">
         <f>E20/365*G20</f>
-        <v>475.1917808219178</v>
+        <v>480.71232876712327</v>
       </c>
       <c r="G20" s="251">
         <v>31</v>
@@ -14278,7 +14885,7 @@
       </c>
       <c r="I20" s="259">
         <f>F20-H20</f>
-        <v>475.1917808219178</v>
+        <v>480.71232876712327</v>
       </c>
       <c r="J20" s="251">
         <v>6000</v>
@@ -14292,20 +14899,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="306" t="s">
+      <c r="A22" s="341" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="307"/>
-      <c r="C22" s="307"/>
-      <c r="D22" s="307"/>
-      <c r="E22" s="307"/>
-      <c r="F22" s="307"/>
-      <c r="G22" s="307"/>
-      <c r="H22" s="307"/>
-      <c r="I22" s="307"/>
-      <c r="J22" s="307"/>
-      <c r="K22" s="307"/>
-      <c r="L22" s="308"/>
+      <c r="B22" s="342"/>
+      <c r="C22" s="342"/>
+      <c r="D22" s="342"/>
+      <c r="E22" s="342"/>
+      <c r="F22" s="342"/>
+      <c r="G22" s="342"/>
+      <c r="H22" s="342"/>
+      <c r="I22" s="342"/>
+      <c r="J22" s="342"/>
+      <c r="K22" s="342"/>
+      <c r="L22" s="343"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">
@@ -14349,7 +14956,7 @@
       <c r="A24" s="251">
         <v>2017</v>
       </c>
-      <c r="B24" s="309" t="s">
+      <c r="B24" s="263" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="251">

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M20-winx64\webapps\h5game\h5文档\理财\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M21\webapps\h5game\h5文档\理财\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="6~7月份" sheetId="2" r:id="rId2"/>
     <sheet name="费用开支" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="236">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1513,6 +1513,76 @@
   </si>
   <si>
     <t>(应急)余额宝(1.5w~3w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2963,7 +3033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3750,37 +3820,166 @@
     <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3795,35 +3994,29 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3834,30 +4027,21 @@
     <xf numFmtId="0" fontId="36" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3873,15 +4057,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3890,108 +4065,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4366,7 +4439,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="285">
+      <c r="F2" s="314">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4388,7 +4461,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="286"/>
+      <c r="F3" s="315"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4396,7 +4469,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="286"/>
+      <c r="F4" s="315"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4457,7 +4530,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="264" t="s">
+      <c r="A8" s="295" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4487,17 +4560,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="281">
+      <c r="K8" s="310">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="281">
+      <c r="L8" s="310">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="265"/>
+      <c r="A9" s="296"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4525,11 +4598,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="265"/>
+      <c r="A10" s="296"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4559,11 +4632,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="282"/>
-      <c r="L10" s="282"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="265"/>
+      <c r="A11" s="296"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4591,11 +4664,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="282"/>
-      <c r="L11" s="282"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="311"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="265"/>
+      <c r="A12" s="296"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4623,11 +4696,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="282"/>
-      <c r="L12" s="282"/>
+      <c r="K12" s="311"/>
+      <c r="L12" s="311"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="265"/>
+      <c r="A13" s="296"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4657,11 +4730,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="282"/>
-      <c r="L13" s="282"/>
+      <c r="K13" s="311"/>
+      <c r="L13" s="311"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="265"/>
+      <c r="A14" s="296"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4691,11 +4764,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="265"/>
+      <c r="A15" s="296"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4723,11 +4796,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="282"/>
-      <c r="L15" s="282"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="266"/>
+      <c r="A16" s="297"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4756,8 +4829,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="283"/>
-      <c r="L16" s="283"/>
+      <c r="K16" s="312"/>
+      <c r="L16" s="312"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -4838,7 +4911,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="264" t="s">
+      <c r="A20" s="295" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4870,17 +4943,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="280">
+      <c r="K20" s="309">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="280">
+      <c r="L20" s="309">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="265"/>
+      <c r="A21" s="296"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -4910,11 +4983,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
+      <c r="K21" s="307"/>
+      <c r="L21" s="307"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="265"/>
+      <c r="A22" s="296"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -4944,11 +5017,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="278"/>
-      <c r="L22" s="278"/>
+      <c r="K22" s="307"/>
+      <c r="L22" s="307"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="265"/>
+      <c r="A23" s="296"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -4978,11 +5051,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="278"/>
-      <c r="L23" s="278"/>
+      <c r="K23" s="307"/>
+      <c r="L23" s="307"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="265"/>
+      <c r="A24" s="296"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5012,11 +5085,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="278"/>
-      <c r="L24" s="278"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="265"/>
+      <c r="A25" s="296"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5046,11 +5119,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="278"/>
-      <c r="L25" s="278"/>
+      <c r="K25" s="307"/>
+      <c r="L25" s="307"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="265"/>
+      <c r="A26" s="296"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5080,11 +5153,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
+      <c r="K26" s="307"/>
+      <c r="L26" s="307"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="265"/>
+      <c r="A27" s="296"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5114,11 +5187,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
+      <c r="K27" s="307"/>
+      <c r="L27" s="307"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="266"/>
+      <c r="A28" s="297"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5148,8 +5221,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
+      <c r="K28" s="313"/>
+      <c r="L28" s="313"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5234,7 +5307,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="264" t="s">
+      <c r="A32" s="295" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5266,17 +5339,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="277">
+      <c r="K32" s="306">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="280">
+      <c r="L32" s="309">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="265"/>
+      <c r="A33" s="296"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5306,11 +5379,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="278"/>
-      <c r="L33" s="278"/>
+      <c r="K33" s="307"/>
+      <c r="L33" s="307"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="265"/>
+      <c r="A34" s="296"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5340,11 +5413,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="278"/>
-      <c r="L34" s="278"/>
+      <c r="K34" s="307"/>
+      <c r="L34" s="307"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="265"/>
+      <c r="A35" s="296"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5374,11 +5447,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="278"/>
-      <c r="L35" s="278"/>
+      <c r="K35" s="307"/>
+      <c r="L35" s="307"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="265"/>
+      <c r="A36" s="296"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5408,12 +5481,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="278"/>
-      <c r="L36" s="278"/>
+      <c r="K36" s="307"/>
+      <c r="L36" s="307"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="265"/>
-      <c r="B37" s="270" t="s">
+      <c r="A37" s="296"/>
+      <c r="B37" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5442,12 +5515,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
+      <c r="K37" s="307"/>
+      <c r="L37" s="307"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="265"/>
-      <c r="B38" s="271"/>
+      <c r="A38" s="296"/>
+      <c r="B38" s="302"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5474,12 +5547,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="278"/>
-      <c r="L38" s="278"/>
+      <c r="K38" s="307"/>
+      <c r="L38" s="307"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="265"/>
-      <c r="B39" s="272"/>
+      <c r="A39" s="296"/>
+      <c r="B39" s="303"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5506,12 +5579,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="278"/>
-      <c r="L39" s="278"/>
+      <c r="K39" s="307"/>
+      <c r="L39" s="307"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="265"/>
-      <c r="B40" s="262" t="s">
+      <c r="A40" s="296"/>
+      <c r="B40" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5540,12 +5613,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="278"/>
-      <c r="L40" s="278"/>
+      <c r="K40" s="307"/>
+      <c r="L40" s="307"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="265"/>
-      <c r="B41" s="263"/>
+      <c r="A41" s="296"/>
+      <c r="B41" s="305"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5565,11 +5638,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="278"/>
-      <c r="L41" s="278"/>
+      <c r="K41" s="307"/>
+      <c r="L41" s="307"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="266"/>
+      <c r="A42" s="297"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5599,8 +5672,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="279"/>
-      <c r="L42" s="279"/>
+      <c r="K42" s="308"/>
+      <c r="L42" s="308"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5685,7 +5758,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="264" t="s">
+      <c r="A46" s="295" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5717,17 +5790,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="277">
+      <c r="K46" s="306">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="280">
+      <c r="L46" s="309">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="265"/>
+      <c r="A47" s="296"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5757,11 +5830,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="278"/>
-      <c r="L47" s="278"/>
+      <c r="K47" s="307"/>
+      <c r="L47" s="307"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="265"/>
+      <c r="A48" s="296"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -5791,11 +5864,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="278"/>
-      <c r="L48" s="278"/>
+      <c r="K48" s="307"/>
+      <c r="L48" s="307"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="265"/>
+      <c r="A49" s="296"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5825,11 +5898,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="278"/>
-      <c r="L49" s="278"/>
+      <c r="K49" s="307"/>
+      <c r="L49" s="307"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="265"/>
+      <c r="A50" s="296"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5859,12 +5932,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="278"/>
-      <c r="L50" s="278"/>
+      <c r="K50" s="307"/>
+      <c r="L50" s="307"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="265"/>
-      <c r="B51" s="270" t="s">
+      <c r="A51" s="296"/>
+      <c r="B51" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -5893,12 +5966,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="278"/>
-      <c r="L51" s="278"/>
+      <c r="K51" s="307"/>
+      <c r="L51" s="307"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="265"/>
-      <c r="B52" s="271"/>
+      <c r="A52" s="296"/>
+      <c r="B52" s="302"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -5925,12 +5998,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="278"/>
-      <c r="L52" s="278"/>
+      <c r="K52" s="307"/>
+      <c r="L52" s="307"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="265"/>
-      <c r="B53" s="272"/>
+      <c r="A53" s="296"/>
+      <c r="B53" s="303"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -5957,12 +6030,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="278"/>
-      <c r="L53" s="278"/>
+      <c r="K53" s="307"/>
+      <c r="L53" s="307"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="265"/>
-      <c r="B54" s="262" t="s">
+      <c r="A54" s="296"/>
+      <c r="B54" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -5991,12 +6064,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="278"/>
-      <c r="L54" s="278"/>
+      <c r="K54" s="307"/>
+      <c r="L54" s="307"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="265"/>
-      <c r="B55" s="263"/>
+      <c r="A55" s="296"/>
+      <c r="B55" s="305"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6023,11 +6096,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="278"/>
-      <c r="L55" s="278"/>
+      <c r="K55" s="307"/>
+      <c r="L55" s="307"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="266"/>
+      <c r="A56" s="297"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6057,8 +6130,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="279"/>
-      <c r="L56" s="279"/>
+      <c r="K56" s="308"/>
+      <c r="L56" s="308"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6148,7 +6221,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="264" t="s">
+      <c r="A60" s="295" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6180,11 +6253,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="267">
+      <c r="K60" s="298">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="267">
+      <c r="L60" s="298">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6193,7 +6266,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="265"/>
+      <c r="A61" s="296"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6223,12 +6296,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="268"/>
-      <c r="L61" s="268"/>
+      <c r="K61" s="299"/>
+      <c r="L61" s="299"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="265"/>
+      <c r="A62" s="296"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6258,14 +6331,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="268"/>
-      <c r="L62" s="268"/>
+      <c r="K62" s="299"/>
+      <c r="L62" s="299"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="265"/>
+      <c r="A63" s="296"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6295,12 +6368,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="268"/>
-      <c r="L63" s="268"/>
+      <c r="K63" s="299"/>
+      <c r="L63" s="299"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="265"/>
+      <c r="A64" s="296"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6330,13 +6403,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="268"/>
-      <c r="L64" s="268"/>
+      <c r="K64" s="299"/>
+      <c r="L64" s="299"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="265"/>
-      <c r="B65" s="270" t="s">
+      <c r="A65" s="296"/>
+      <c r="B65" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6365,13 +6438,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="268"/>
-      <c r="L65" s="268"/>
+      <c r="K65" s="299"/>
+      <c r="L65" s="299"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="265"/>
-      <c r="B66" s="271"/>
+      <c r="A66" s="296"/>
+      <c r="B66" s="302"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6398,15 +6471,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="268"/>
-      <c r="L66" s="268"/>
+      <c r="K66" s="299"/>
+      <c r="L66" s="299"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="265"/>
-      <c r="B67" s="272"/>
+      <c r="A67" s="296"/>
+      <c r="B67" s="303"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6433,13 +6506,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="268"/>
-      <c r="L67" s="268"/>
+      <c r="K67" s="299"/>
+      <c r="L67" s="299"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="265"/>
-      <c r="B68" s="262" t="s">
+      <c r="A68" s="296"/>
+      <c r="B68" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6468,15 +6541,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="268"/>
-      <c r="L68" s="268"/>
+      <c r="K68" s="299"/>
+      <c r="L68" s="299"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="265"/>
-      <c r="B69" s="263"/>
+      <c r="A69" s="296"/>
+      <c r="B69" s="305"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6503,14 +6576,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="268"/>
-      <c r="L69" s="268"/>
+      <c r="K69" s="299"/>
+      <c r="L69" s="299"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="266"/>
+      <c r="A70" s="297"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6540,8 +6613,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="269"/>
-      <c r="L70" s="269"/>
+      <c r="K70" s="300"/>
+      <c r="L70" s="300"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6633,7 +6706,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="264" t="s">
+      <c r="A74" s="295" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6665,11 +6738,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="267">
+      <c r="K74" s="298">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="267">
+      <c r="L74" s="298">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6678,7 +6751,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="265"/>
+      <c r="A75" s="296"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6708,12 +6781,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="268"/>
-      <c r="L75" s="268"/>
+      <c r="K75" s="299"/>
+      <c r="L75" s="299"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="265"/>
+      <c r="A76" s="296"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6743,14 +6816,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="268"/>
-      <c r="L76" s="268"/>
+      <c r="K76" s="299"/>
+      <c r="L76" s="299"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="265"/>
+      <c r="A77" s="296"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -6780,12 +6853,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="268"/>
-      <c r="L77" s="268"/>
+      <c r="K77" s="299"/>
+      <c r="L77" s="299"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="265"/>
+      <c r="A78" s="296"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -6815,13 +6888,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="268"/>
-      <c r="L78" s="268"/>
+      <c r="K78" s="299"/>
+      <c r="L78" s="299"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="265"/>
-      <c r="B79" s="270" t="s">
+      <c r="A79" s="296"/>
+      <c r="B79" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6850,13 +6923,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="268"/>
-      <c r="L79" s="268"/>
+      <c r="K79" s="299"/>
+      <c r="L79" s="299"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="265"/>
-      <c r="B80" s="271"/>
+      <c r="A80" s="296"/>
+      <c r="B80" s="302"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -6882,15 +6955,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="268"/>
-      <c r="L80" s="268"/>
+      <c r="K80" s="299"/>
+      <c r="L80" s="299"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="265"/>
-      <c r="B81" s="271"/>
+      <c r="A81" s="296"/>
+      <c r="B81" s="302"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -6917,15 +6990,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="268"/>
-      <c r="L81" s="268"/>
+      <c r="K81" s="299"/>
+      <c r="L81" s="299"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="265"/>
-      <c r="B82" s="272"/>
+      <c r="A82" s="296"/>
+      <c r="B82" s="303"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -6952,13 +7025,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="268"/>
-      <c r="L82" s="268"/>
+      <c r="K82" s="299"/>
+      <c r="L82" s="299"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="265"/>
-      <c r="B83" s="262" t="s">
+      <c r="A83" s="296"/>
+      <c r="B83" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -6987,15 +7060,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="268"/>
-      <c r="L83" s="268"/>
+      <c r="K83" s="299"/>
+      <c r="L83" s="299"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="265"/>
-      <c r="B84" s="263"/>
+      <c r="A84" s="296"/>
+      <c r="B84" s="305"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7022,14 +7095,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="268"/>
-      <c r="L84" s="268"/>
+      <c r="K84" s="299"/>
+      <c r="L84" s="299"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="266"/>
+      <c r="A85" s="297"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7059,8 +7132,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="269"/>
-      <c r="L85" s="269"/>
+      <c r="K85" s="300"/>
+      <c r="L85" s="300"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7151,7 +7224,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="264" t="s">
+      <c r="A89" s="295" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7183,11 +7256,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="267">
+      <c r="K89" s="298">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="267">
+      <c r="L89" s="298">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7196,7 +7269,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="265"/>
+      <c r="A90" s="296"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7226,12 +7299,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="268"/>
-      <c r="L90" s="268"/>
+      <c r="K90" s="299"/>
+      <c r="L90" s="299"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="265"/>
+      <c r="A91" s="296"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7261,14 +7334,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="268"/>
-      <c r="L91" s="268"/>
+      <c r="K91" s="299"/>
+      <c r="L91" s="299"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="265"/>
+      <c r="A92" s="296"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7298,14 +7371,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="268"/>
-      <c r="L92" s="268"/>
+      <c r="K92" s="299"/>
+      <c r="L92" s="299"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="265"/>
+      <c r="A93" s="296"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7335,13 +7408,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="268"/>
-      <c r="L93" s="268"/>
+      <c r="K93" s="299"/>
+      <c r="L93" s="299"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="265"/>
-      <c r="B94" s="270" t="s">
+      <c r="A94" s="296"/>
+      <c r="B94" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7370,15 +7443,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="268"/>
-      <c r="L94" s="268"/>
+      <c r="K94" s="299"/>
+      <c r="L94" s="299"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="265"/>
-      <c r="B95" s="271"/>
+      <c r="A95" s="296"/>
+      <c r="B95" s="302"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7405,15 +7478,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="268"/>
-      <c r="L95" s="268"/>
+      <c r="K95" s="299"/>
+      <c r="L95" s="299"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="265"/>
-      <c r="B96" s="272"/>
+      <c r="A96" s="296"/>
+      <c r="B96" s="303"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7440,13 +7513,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="268"/>
-      <c r="L96" s="268"/>
+      <c r="K96" s="299"/>
+      <c r="L96" s="299"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="265"/>
-      <c r="B97" s="262" t="s">
+      <c r="A97" s="296"/>
+      <c r="B97" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7475,15 +7548,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="268"/>
-      <c r="L97" s="268"/>
+      <c r="K97" s="299"/>
+      <c r="L97" s="299"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="265"/>
-      <c r="B98" s="263"/>
+      <c r="A98" s="296"/>
+      <c r="B98" s="305"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7510,14 +7583,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="268"/>
-      <c r="L98" s="268"/>
+      <c r="K98" s="299"/>
+      <c r="L98" s="299"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="266"/>
+      <c r="A99" s="297"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7547,8 +7620,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="269"/>
-      <c r="L99" s="269"/>
+      <c r="K99" s="300"/>
+      <c r="L99" s="300"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7641,7 +7714,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="264" t="s">
+      <c r="A103" s="295" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7673,11 +7746,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="267">
+      <c r="K103" s="298">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="267">
+      <c r="L103" s="298">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7686,7 +7759,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="265"/>
+      <c r="A104" s="296"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7716,12 +7789,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="268"/>
-      <c r="L104" s="268"/>
+      <c r="K104" s="299"/>
+      <c r="L104" s="299"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="265"/>
+      <c r="A105" s="296"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7751,14 +7824,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="268"/>
-      <c r="L105" s="268"/>
+      <c r="K105" s="299"/>
+      <c r="L105" s="299"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="265"/>
+      <c r="A106" s="296"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -7787,14 +7860,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="268"/>
-      <c r="L106" s="268"/>
+      <c r="K106" s="299"/>
+      <c r="L106" s="299"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="265"/>
+      <c r="A107" s="296"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -7824,13 +7897,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="268"/>
-      <c r="L107" s="268"/>
+      <c r="K107" s="299"/>
+      <c r="L107" s="299"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="265"/>
-      <c r="B108" s="270" t="s">
+      <c r="A108" s="296"/>
+      <c r="B108" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -7859,15 +7932,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="268"/>
-      <c r="L108" s="268"/>
+      <c r="K108" s="299"/>
+      <c r="L108" s="299"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="265"/>
-      <c r="B109" s="271"/>
+      <c r="A109" s="296"/>
+      <c r="B109" s="302"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -7894,15 +7967,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="268"/>
-      <c r="L109" s="268"/>
+      <c r="K109" s="299"/>
+      <c r="L109" s="299"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="265"/>
-      <c r="B110" s="272"/>
+      <c r="A110" s="296"/>
+      <c r="B110" s="303"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -7929,13 +8002,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="268"/>
-      <c r="L110" s="268"/>
+      <c r="K110" s="299"/>
+      <c r="L110" s="299"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="265"/>
-      <c r="B111" s="262" t="s">
+      <c r="A111" s="296"/>
+      <c r="B111" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -7964,15 +8037,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="268"/>
-      <c r="L111" s="268"/>
+      <c r="K111" s="299"/>
+      <c r="L111" s="299"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="265"/>
-      <c r="B112" s="263"/>
+      <c r="A112" s="296"/>
+      <c r="B112" s="305"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -7999,14 +8072,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="268"/>
-      <c r="L112" s="268"/>
+      <c r="K112" s="299"/>
+      <c r="L112" s="299"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="266"/>
+      <c r="A113" s="297"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8036,8 +8109,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="269"/>
-      <c r="L113" s="269"/>
+      <c r="K113" s="300"/>
+      <c r="L113" s="300"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8130,7 +8203,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="264" t="s">
+      <c r="A117" s="295" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8162,11 +8235,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="267">
+      <c r="K117" s="298">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="267">
+      <c r="L117" s="298">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8175,7 +8248,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="265"/>
+      <c r="A118" s="296"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8205,12 +8278,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="268"/>
-      <c r="L118" s="268"/>
+      <c r="K118" s="299"/>
+      <c r="L118" s="299"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="265"/>
+      <c r="A119" s="296"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8240,14 +8313,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="268"/>
-      <c r="L119" s="268"/>
+      <c r="K119" s="299"/>
+      <c r="L119" s="299"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="265"/>
+      <c r="A120" s="296"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8277,13 +8350,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="268"/>
-      <c r="L120" s="268"/>
+      <c r="K120" s="299"/>
+      <c r="L120" s="299"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="265"/>
-      <c r="B121" s="270" t="s">
+      <c r="A121" s="296"/>
+      <c r="B121" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8312,15 +8385,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="268"/>
-      <c r="L121" s="268"/>
+      <c r="K121" s="299"/>
+      <c r="L121" s="299"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="265"/>
-      <c r="B122" s="271"/>
+      <c r="A122" s="296"/>
+      <c r="B122" s="302"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8347,15 +8420,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="268"/>
-      <c r="L122" s="268"/>
+      <c r="K122" s="299"/>
+      <c r="L122" s="299"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="265"/>
-      <c r="B123" s="272"/>
+      <c r="A123" s="296"/>
+      <c r="B123" s="303"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8382,13 +8455,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="268"/>
-      <c r="L123" s="268"/>
+      <c r="K123" s="299"/>
+      <c r="L123" s="299"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="265"/>
-      <c r="B124" s="262" t="s">
+      <c r="A124" s="296"/>
+      <c r="B124" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8417,15 +8490,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="268"/>
-      <c r="L124" s="268"/>
+      <c r="K124" s="299"/>
+      <c r="L124" s="299"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="265"/>
-      <c r="B125" s="263"/>
+      <c r="A125" s="296"/>
+      <c r="B125" s="305"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8452,14 +8525,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="268"/>
-      <c r="L125" s="268"/>
+      <c r="K125" s="299"/>
+      <c r="L125" s="299"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="266"/>
+      <c r="A126" s="297"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8489,8 +8562,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="269"/>
-      <c r="L126" s="269"/>
+      <c r="K126" s="300"/>
+      <c r="L126" s="300"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8583,7 +8656,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="264" t="s">
+      <c r="A130" s="295" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8615,11 +8688,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="267">
+      <c r="K130" s="298">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="267">
+      <c r="L130" s="298">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8628,7 +8701,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="265"/>
+      <c r="A131" s="296"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8658,12 +8731,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="268"/>
-      <c r="L131" s="268"/>
+      <c r="K131" s="299"/>
+      <c r="L131" s="299"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="265"/>
+      <c r="A132" s="296"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8693,14 +8766,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="268"/>
-      <c r="L132" s="268"/>
+      <c r="K132" s="299"/>
+      <c r="L132" s="299"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="265"/>
+      <c r="A133" s="296"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8730,13 +8803,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="268"/>
-      <c r="L133" s="268"/>
+      <c r="K133" s="299"/>
+      <c r="L133" s="299"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="265"/>
-      <c r="B134" s="270" t="s">
+      <c r="A134" s="296"/>
+      <c r="B134" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8765,15 +8838,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="268"/>
-      <c r="L134" s="268"/>
+      <c r="K134" s="299"/>
+      <c r="L134" s="299"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="265"/>
-      <c r="B135" s="271"/>
+      <c r="A135" s="296"/>
+      <c r="B135" s="302"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -8800,15 +8873,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="268"/>
-      <c r="L135" s="268"/>
+      <c r="K135" s="299"/>
+      <c r="L135" s="299"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="265"/>
-      <c r="B136" s="272"/>
+      <c r="A136" s="296"/>
+      <c r="B136" s="303"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -8835,13 +8908,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="268"/>
-      <c r="L136" s="268"/>
+      <c r="K136" s="299"/>
+      <c r="L136" s="299"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="265"/>
-      <c r="B137" s="262" t="s">
+      <c r="A137" s="296"/>
+      <c r="B137" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -8870,15 +8943,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="268"/>
-      <c r="L137" s="268"/>
+      <c r="K137" s="299"/>
+      <c r="L137" s="299"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="265"/>
-      <c r="B138" s="263"/>
+      <c r="A138" s="296"/>
+      <c r="B138" s="305"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -8905,14 +8978,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="268"/>
-      <c r="L138" s="268"/>
+      <c r="K138" s="299"/>
+      <c r="L138" s="299"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="266"/>
+      <c r="A139" s="297"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -8942,8 +9015,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="269"/>
-      <c r="L139" s="269"/>
+      <c r="K139" s="300"/>
+      <c r="L139" s="300"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9036,7 +9109,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="264" t="s">
+      <c r="A143" s="295" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9068,11 +9141,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="267">
+      <c r="K143" s="298">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="267">
+      <c r="L143" s="298">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9081,7 +9154,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="265"/>
+      <c r="A144" s="296"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9111,12 +9184,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="268"/>
-      <c r="L144" s="268"/>
+      <c r="K144" s="299"/>
+      <c r="L144" s="299"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="265"/>
+      <c r="A145" s="296"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9146,14 +9219,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="268"/>
-      <c r="L145" s="268"/>
+      <c r="K145" s="299"/>
+      <c r="L145" s="299"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="265"/>
+      <c r="A146" s="296"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9183,13 +9256,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="268"/>
-      <c r="L146" s="268"/>
+      <c r="K146" s="299"/>
+      <c r="L146" s="299"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="265"/>
-      <c r="B147" s="270" t="s">
+      <c r="A147" s="296"/>
+      <c r="B147" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9218,15 +9291,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="268"/>
-      <c r="L147" s="268"/>
+      <c r="K147" s="299"/>
+      <c r="L147" s="299"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="265"/>
-      <c r="B148" s="271"/>
+      <c r="A148" s="296"/>
+      <c r="B148" s="302"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9253,15 +9326,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="268"/>
-      <c r="L148" s="268"/>
+      <c r="K148" s="299"/>
+      <c r="L148" s="299"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="265"/>
-      <c r="B149" s="272"/>
+      <c r="A149" s="296"/>
+      <c r="B149" s="303"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9288,13 +9361,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="268"/>
-      <c r="L149" s="268"/>
+      <c r="K149" s="299"/>
+      <c r="L149" s="299"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="265"/>
-      <c r="B150" s="262" t="s">
+      <c r="A150" s="296"/>
+      <c r="B150" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9323,15 +9396,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="268"/>
-      <c r="L150" s="268"/>
+      <c r="K150" s="299"/>
+      <c r="L150" s="299"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="265"/>
-      <c r="B151" s="263"/>
+      <c r="A151" s="296"/>
+      <c r="B151" s="305"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9358,14 +9431,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="268"/>
-      <c r="L151" s="268"/>
+      <c r="K151" s="299"/>
+      <c r="L151" s="299"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="266"/>
+      <c r="A152" s="297"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9395,8 +9468,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="269"/>
-      <c r="L152" s="269"/>
+      <c r="K152" s="300"/>
+      <c r="L152" s="300"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9469,10 +9542,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="273" t="s">
+      <c r="H155" s="316" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="274"/>
+      <c r="I155" s="317"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9509,11 +9582,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="275">
+      <c r="H156" s="318">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="276"/>
+      <c r="I156" s="319"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9530,38 +9603,12 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9578,12 +9625,38 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9593,10 +9666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9659,7 +9732,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="296" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9690,11 +9763,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="294">
+      <c r="L2" s="324">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="294">
+      <c r="M2" s="324">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9703,7 +9776,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="265"/>
+      <c r="A3" s="296"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9732,14 +9805,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="294"/>
-      <c r="M3" s="294"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="265"/>
+      <c r="A4" s="296"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9770,13 +9843,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294"/>
+      <c r="L4" s="324"/>
+      <c r="M4" s="324"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="265"/>
-      <c r="B5" s="270"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="301"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -9804,15 +9877,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="265"/>
-      <c r="B6" s="271"/>
+      <c r="A6" s="296"/>
+      <c r="B6" s="302"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -9840,15 +9913,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="294"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="265"/>
-      <c r="B7" s="272"/>
+      <c r="A7" s="296"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -9876,12 +9949,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="294"/>
+      <c r="L7" s="324"/>
+      <c r="M7" s="324"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="265"/>
+      <c r="A8" s="296"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -9910,14 +9983,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
+      <c r="L8" s="324"/>
+      <c r="M8" s="324"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="266"/>
+      <c r="A9" s="297"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -9946,8 +10019,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="295"/>
-      <c r="M9" s="295"/>
+      <c r="L9" s="325"/>
+      <c r="M9" s="325"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10080,7 +10153,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="265" t="s">
+      <c r="A14" s="296" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10111,11 +10184,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="294">
+      <c r="L14" s="324">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="294">
+      <c r="M14" s="324">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10124,7 +10197,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="265"/>
+      <c r="A15" s="296"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10153,14 +10226,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="294"/>
-      <c r="M15" s="294"/>
+      <c r="L15" s="324"/>
+      <c r="M15" s="324"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="265"/>
+      <c r="A16" s="296"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10190,13 +10263,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="294"/>
-      <c r="M16" s="294"/>
+      <c r="L16" s="324"/>
+      <c r="M16" s="324"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="265"/>
-      <c r="B17" s="300"/>
+      <c r="A17" s="296"/>
+      <c r="B17" s="338"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10224,15 +10297,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="294"/>
-      <c r="M17" s="294"/>
+      <c r="L17" s="324"/>
+      <c r="M17" s="324"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="265"/>
-      <c r="B18" s="301"/>
+      <c r="A18" s="296"/>
+      <c r="B18" s="339"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10260,15 +10333,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="294"/>
+      <c r="L18" s="324"/>
+      <c r="M18" s="324"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="265"/>
-      <c r="B19" s="302"/>
+      <c r="A19" s="296"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10297,12 +10370,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="294"/>
+      <c r="L19" s="324"/>
+      <c r="M19" s="324"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="265"/>
+      <c r="A20" s="296"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10331,14 +10404,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="294"/>
+      <c r="L20" s="324"/>
+      <c r="M20" s="324"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="266"/>
+      <c r="A21" s="297"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10367,8 +10440,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="295"/>
-      <c r="M21" s="295"/>
+      <c r="L21" s="325"/>
+      <c r="M21" s="325"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10501,7 +10574,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="265" t="s">
+      <c r="A26" s="296" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10532,11 +10605,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="294">
+      <c r="L26" s="324">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="294">
+      <c r="M26" s="324">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10545,7 +10618,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="265"/>
+      <c r="A27" s="296"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10574,14 +10647,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="294"/>
+      <c r="L27" s="324"/>
+      <c r="M27" s="324"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="265"/>
+      <c r="A28" s="296"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10611,13 +10684,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="294"/>
-      <c r="M28" s="294"/>
+      <c r="L28" s="324"/>
+      <c r="M28" s="324"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="265"/>
-      <c r="B29" s="300"/>
+      <c r="A29" s="296"/>
+      <c r="B29" s="338"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10645,15 +10718,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
+      <c r="L29" s="324"/>
+      <c r="M29" s="324"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="265"/>
-      <c r="B30" s="301"/>
+      <c r="A30" s="296"/>
+      <c r="B30" s="339"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10681,15 +10754,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="294"/>
-      <c r="M30" s="294"/>
+      <c r="L30" s="324"/>
+      <c r="M30" s="324"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="265"/>
-      <c r="B31" s="302"/>
+      <c r="A31" s="296"/>
+      <c r="B31" s="340"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10718,12 +10791,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="294"/>
-      <c r="M31" s="294"/>
+      <c r="L31" s="324"/>
+      <c r="M31" s="324"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="265"/>
+      <c r="A32" s="296"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10752,14 +10825,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="294"/>
-      <c r="M32" s="294"/>
+      <c r="L32" s="324"/>
+      <c r="M32" s="324"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="266"/>
+      <c r="A33" s="297"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -10788,8 +10861,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="295"/>
-      <c r="M33" s="295"/>
+      <c r="L33" s="325"/>
+      <c r="M33" s="325"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -10922,7 +10995,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="265" t="s">
+      <c r="A38" s="296" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -10953,11 +11026,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="294">
+      <c r="L38" s="324">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="294">
+      <c r="M38" s="324">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -10966,7 +11039,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="265"/>
+      <c r="A39" s="296"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -10995,14 +11068,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="294"/>
-      <c r="M39" s="294"/>
+      <c r="L39" s="324"/>
+      <c r="M39" s="324"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="265"/>
+      <c r="A40" s="296"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11032,13 +11105,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="294"/>
-      <c r="M40" s="294"/>
+      <c r="L40" s="324"/>
+      <c r="M40" s="324"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="265"/>
-      <c r="B41" s="300"/>
+      <c r="A41" s="296"/>
+      <c r="B41" s="338"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11066,15 +11139,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="294"/>
-      <c r="M41" s="294"/>
+      <c r="L41" s="324"/>
+      <c r="M41" s="324"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="265"/>
-      <c r="B42" s="301"/>
+      <c r="A42" s="296"/>
+      <c r="B42" s="339"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11102,15 +11175,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="294"/>
-      <c r="M42" s="294"/>
+      <c r="L42" s="324"/>
+      <c r="M42" s="324"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="265"/>
-      <c r="B43" s="302"/>
+      <c r="A43" s="296"/>
+      <c r="B43" s="340"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11139,12 +11212,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="294"/>
-      <c r="M43" s="294"/>
+      <c r="L43" s="324"/>
+      <c r="M43" s="324"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="265"/>
+      <c r="A44" s="296"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11173,14 +11246,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="294"/>
-      <c r="M44" s="294"/>
+      <c r="L44" s="324"/>
+      <c r="M44" s="324"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="266"/>
+      <c r="A45" s="297"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11209,8 +11282,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="295"/>
-      <c r="M45" s="295"/>
+      <c r="L45" s="325"/>
+      <c r="M45" s="325"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11346,7 +11419,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="265" t="s">
+      <c r="A50" s="296" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11378,15 +11451,15 @@
         <f t="shared" ref="J50:J54" si="9">E50/D50</f>
         <v>3.7756713273128477E-4</v>
       </c>
-      <c r="K50" s="322">
+      <c r="K50" s="276">
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="294">
+      <c r="L50" s="324">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="294">
+      <c r="M50" s="324">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11395,7 +11468,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="265"/>
+      <c r="A51" s="296"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11425,18 +11498,18 @@
         <f t="shared" si="9"/>
         <v>1.918E-4</v>
       </c>
-      <c r="K51" s="322">
+      <c r="K51" s="276">
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="294"/>
-      <c r="M51" s="294"/>
+      <c r="L51" s="324"/>
+      <c r="M51" s="324"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="265"/>
+      <c r="A52" s="296"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11467,14 +11540,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K52" s="322"/>
-      <c r="L52" s="294"/>
-      <c r="M52" s="294"/>
+      <c r="K52" s="276"/>
+      <c r="L52" s="324"/>
+      <c r="M52" s="324"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="265"/>
-      <c r="B53" s="300">
+      <c r="A53" s="296"/>
+      <c r="B53" s="338">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11503,19 +11576,19 @@
         <f t="shared" si="9"/>
         <v>2.1535000000000003E-4</v>
       </c>
-      <c r="K53" s="322">
+      <c r="K53" s="276">
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="294"/>
-      <c r="M53" s="294"/>
+      <c r="L53" s="324"/>
+      <c r="M53" s="324"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="265"/>
-      <c r="B54" s="301"/>
+      <c r="A54" s="296"/>
+      <c r="B54" s="339"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11542,18 +11615,18 @@
         <f t="shared" si="9"/>
         <v>3.2202359312514888E-4</v>
       </c>
-      <c r="K54" s="322">
+      <c r="K54" s="276">
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="294"/>
-      <c r="M54" s="294"/>
+      <c r="L54" s="324"/>
+      <c r="M54" s="324"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="266"/>
+      <c r="A55" s="297"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11583,12 +11656,12 @@
         <f>E55/D55</f>
         <v>3.270631321315172E-4</v>
       </c>
-      <c r="K55" s="322">
+      <c r="K55" s="276">
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="295"/>
-      <c r="M55" s="295"/>
+      <c r="L55" s="325"/>
+      <c r="M55" s="325"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11724,10 +11797,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="303" t="s">
+      <c r="A60" s="333" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="298">
+      <c r="B60" s="336">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11756,15 +11829,15 @@
         <f t="shared" ref="J60" si="12">E60/D60</f>
         <v>4.0767058823529408E-4</v>
       </c>
-      <c r="K60" s="322">
+      <c r="K60" s="276">
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="293">
+      <c r="L60" s="323">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="293">
+      <c r="M60" s="323">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11773,8 +11846,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="304"/>
-      <c r="B61" s="299"/>
+      <c r="A61" s="334"/>
+      <c r="B61" s="337"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -11801,18 +11874,18 @@
         <f t="shared" ref="J61:J64" si="13">E61/D61</f>
         <v>3.7742462959606594E-4</v>
       </c>
-      <c r="K61" s="322">
+      <c r="K61" s="276">
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="294"/>
-      <c r="M61" s="294"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="324"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="304"/>
+      <c r="A62" s="334"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -11842,19 +11915,19 @@
         <f t="shared" si="13"/>
         <v>1.9176321981443959E-4</v>
       </c>
-      <c r="K62" s="322">
+      <c r="K62" s="276">
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="294"/>
-      <c r="M62" s="294"/>
+      <c r="L62" s="324"/>
+      <c r="M62" s="324"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="304"/>
-      <c r="B63" s="296">
+      <c r="A63" s="334"/>
+      <c r="B63" s="331">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -11883,19 +11956,19 @@
         <f t="shared" si="13"/>
         <v>2.1530363436234008E-4</v>
       </c>
-      <c r="K63" s="322">
+      <c r="K63" s="276">
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="294"/>
-      <c r="M63" s="294"/>
+      <c r="L63" s="324"/>
+      <c r="M63" s="324"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="304"/>
-      <c r="B64" s="297"/>
+      <c r="A64" s="334"/>
+      <c r="B64" s="332"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -11922,18 +11995,18 @@
         <f t="shared" si="13"/>
         <v>3.2191992731345681E-4</v>
       </c>
-      <c r="K64" s="322">
+      <c r="K64" s="276">
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="294"/>
-      <c r="M64" s="294"/>
+      <c r="L64" s="324"/>
+      <c r="M64" s="324"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="305"/>
+      <c r="A65" s="335"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -11963,12 +12036,12 @@
         <f>E65/D65</f>
         <v>3.2695619681371744E-4</v>
       </c>
-      <c r="K65" s="322">
+      <c r="K65" s="276">
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="295"/>
-      <c r="M65" s="295"/>
+      <c r="L65" s="325"/>
+      <c r="M65" s="325"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12294,10 +12367,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="290" t="s">
+      <c r="A76" s="320" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="298">
+      <c r="B76" s="336">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12326,15 +12399,15 @@
         <f t="shared" ref="J76:J80" si="18">E76/D76</f>
         <v>4.075044606521115E-4</v>
       </c>
-      <c r="K76" s="322">
+      <c r="K76" s="276">
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="293">
+      <c r="L76" s="323">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="293">
+      <c r="M76" s="323">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12343,8 +12416,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="291"/>
-      <c r="B77" s="299"/>
+      <c r="A77" s="321"/>
+      <c r="B77" s="337"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12371,18 +12444,18 @@
         <f t="shared" si="18"/>
         <v>3.7728223398864958E-4</v>
       </c>
-      <c r="K77" s="322">
+      <c r="K77" s="276">
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="294"/>
-      <c r="M77" s="294"/>
+      <c r="L77" s="324"/>
+      <c r="M77" s="324"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="291"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12412,19 +12485,19 @@
         <f t="shared" si="18"/>
         <v>1.9172645373234827E-4</v>
       </c>
-      <c r="K78" s="322">
+      <c r="K78" s="276">
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="294"/>
-      <c r="M78" s="294"/>
+      <c r="L78" s="324"/>
+      <c r="M78" s="324"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="291"/>
-      <c r="B79" s="296">
+      <c r="A79" s="321"/>
+      <c r="B79" s="331">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12453,19 +12526,19 @@
         <f t="shared" si="18"/>
         <v>2.1525728868576304E-4</v>
       </c>
-      <c r="K79" s="322">
+      <c r="K79" s="276">
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="294"/>
-      <c r="M79" s="294"/>
+      <c r="L79" s="324"/>
+      <c r="M79" s="324"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="291"/>
-      <c r="B80" s="297"/>
+      <c r="A80" s="321"/>
+      <c r="B80" s="332"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12492,18 +12565,18 @@
         <f t="shared" si="18"/>
         <v>3.2181632822446648E-4</v>
       </c>
-      <c r="K80" s="322">
+      <c r="K80" s="276">
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="294"/>
-      <c r="M80" s="294"/>
+      <c r="L80" s="324"/>
+      <c r="M80" s="324"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="292"/>
+      <c r="A81" s="322"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12533,12 +12606,12 @@
         <f>E81/D81</f>
         <v>3.2684933139939197E-4</v>
       </c>
-      <c r="K81" s="322">
+      <c r="K81" s="276">
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="295"/>
-      <c r="M81" s="295"/>
+      <c r="L81" s="325"/>
+      <c r="M81" s="325"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12589,7 +12662,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="287" t="s">
+      <c r="A83" s="328" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12628,7 +12701,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="288"/>
+      <c r="A84" s="329"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12673,7 +12746,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="289"/>
+      <c r="A85" s="330"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -12873,7 +12946,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="290" t="s">
+      <c r="A91" s="320" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -12905,15 +12978,15 @@
         <f t="shared" ref="J91:J94" si="23">E91/D91</f>
         <v>4.0733846840923955E-4</v>
       </c>
-      <c r="K91" s="322">
+      <c r="K91" s="276">
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="293">
+      <c r="L91" s="323">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="293">
+      <c r="M91" s="323">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -12922,7 +12995,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="291"/>
+      <c r="A92" s="321"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -12952,19 +13025,19 @@
         <f t="shared" si="23"/>
         <v>1.916897017456156E-4</v>
       </c>
-      <c r="K92" s="322">
+      <c r="K92" s="276">
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="294"/>
-      <c r="M92" s="294"/>
+      <c r="L92" s="324"/>
+      <c r="M92" s="324"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="291"/>
-      <c r="B93" s="296">
+      <c r="A93" s="321"/>
+      <c r="B93" s="331">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -12993,19 +13066,19 @@
         <f t="shared" si="23"/>
         <v>2.1521096295738139E-4</v>
       </c>
-      <c r="K93" s="322">
+      <c r="K93" s="276">
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="294"/>
-      <c r="M93" s="294"/>
+      <c r="L93" s="324"/>
+      <c r="M93" s="324"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="291"/>
-      <c r="B94" s="297"/>
+      <c r="A94" s="321"/>
+      <c r="B94" s="332"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13032,18 +13105,18 @@
         <f t="shared" si="23"/>
         <v>3.2171279579378133E-4</v>
       </c>
-      <c r="K94" s="322">
+      <c r="K94" s="276">
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="294"/>
-      <c r="M94" s="294"/>
+      <c r="L94" s="324"/>
+      <c r="M94" s="324"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="292"/>
+      <c r="A95" s="322"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13073,12 +13146,12 @@
         <f>E95/D95</f>
         <v>3.2674253582001941E-4</v>
       </c>
-      <c r="K95" s="322">
+      <c r="K95" s="276">
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="295"/>
-      <c r="M95" s="295"/>
+      <c r="L95" s="325"/>
+      <c r="M95" s="325"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13129,7 +13202,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="287" t="s">
+      <c r="A97" s="328" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13168,7 +13241,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="288"/>
+      <c r="A98" s="329"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13213,7 +13286,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="289"/>
+      <c r="A99" s="330"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13413,238 +13486,238 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="290" t="s">
+      <c r="A105" s="320" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
         <v>78.91</v>
       </c>
-      <c r="C105" s="338" t="s">
+      <c r="C105" s="290" t="s">
         <v>229</v>
       </c>
-      <c r="D105" s="310">
+      <c r="D105" s="264">
         <v>11100</v>
       </c>
-      <c r="E105" s="310"/>
-      <c r="F105" s="310">
+      <c r="E105" s="264"/>
+      <c r="F105" s="264">
         <f>D105</f>
         <v>11100</v>
       </c>
-      <c r="G105" s="311"/>
-      <c r="H105" s="312"/>
-      <c r="I105" s="313">
+      <c r="G105" s="265"/>
+      <c r="H105" s="266"/>
+      <c r="I105" s="267">
         <f>D105</f>
         <v>11100</v>
       </c>
-      <c r="J105" s="314"/>
+      <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="293">
+      <c r="L105" s="323">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="293">
+      <c r="M105" s="323">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="291"/>
-      <c r="B106" s="315">
+      <c r="A106" s="321"/>
+      <c r="B106" s="269">
         <v>28</v>
       </c>
-      <c r="C106" s="339" t="s">
+      <c r="C106" s="291" t="s">
         <v>222</v>
       </c>
-      <c r="D106" s="316">
+      <c r="D106" s="270">
         <v>8510.3956000000017</v>
       </c>
-      <c r="E106" s="316">
+      <c r="E106" s="270">
         <v>3.4651999999999998</v>
       </c>
-      <c r="F106" s="316">
+      <c r="F106" s="270">
         <f>D106+E106</f>
         <v>8513.8608000000022</v>
       </c>
-      <c r="G106" s="317" t="s">
+      <c r="G106" s="271" t="s">
         <v>175</v>
       </c>
-      <c r="H106" s="318">
+      <c r="H106" s="272">
         <v>9733.6200000000008</v>
       </c>
-      <c r="I106" s="319">
+      <c r="I106" s="273">
         <v>8500</v>
       </c>
-      <c r="J106" s="320">
+      <c r="J106" s="274">
         <f>E106/I106</f>
         <v>4.0767058823529408E-4</v>
       </c>
-      <c r="K106" s="321">
+      <c r="K106" s="275">
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="294"/>
-      <c r="M106" s="294"/>
+      <c r="L106" s="324"/>
+      <c r="M106" s="324"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="291"/>
-      <c r="B107" s="334">
+      <c r="A107" s="321"/>
+      <c r="B107" s="286">
         <v>117.98</v>
       </c>
-      <c r="C107" s="340" t="s">
+      <c r="C107" s="292" t="s">
         <v>181</v>
       </c>
-      <c r="D107" s="335">
+      <c r="D107" s="287">
         <v>10007.671999999999</v>
       </c>
-      <c r="E107" s="335">
+      <c r="E107" s="287">
         <v>1.9179999999999999</v>
       </c>
-      <c r="F107" s="335">
+      <c r="F107" s="287">
         <f>D107+E107</f>
         <v>10009.589999999998</v>
       </c>
-      <c r="G107" s="336" t="s">
+      <c r="G107" s="288" t="s">
         <v>149</v>
       </c>
-      <c r="H107" s="337">
+      <c r="H107" s="289">
         <v>10047.950000000001</v>
       </c>
       <c r="I107" s="12">
         <v>10000</v>
       </c>
-      <c r="J107" s="320">
+      <c r="J107" s="274">
         <f t="shared" ref="J107:J110" si="27">E107/I107</f>
         <v>1.918E-4</v>
       </c>
-      <c r="K107" s="322">
+      <c r="K107" s="276">
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="294"/>
-      <c r="M107" s="294"/>
+      <c r="L107" s="324"/>
+      <c r="M107" s="324"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="291"/>
-      <c r="B108" s="325">
+      <c r="A108" s="321"/>
+      <c r="B108" s="326">
         <v>118.93</v>
       </c>
-      <c r="C108" s="341" t="s">
+      <c r="C108" s="293" t="s">
         <v>178</v>
       </c>
-      <c r="D108" s="326">
+      <c r="D108" s="279">
         <v>10008.614000000001</v>
       </c>
-      <c r="E108" s="326">
+      <c r="E108" s="279">
         <v>2.1535000000000002</v>
       </c>
-      <c r="F108" s="326">
+      <c r="F108" s="279">
         <f t="shared" ref="F108:F109" si="29">D108+E108</f>
         <v>10010.767500000002</v>
       </c>
-      <c r="G108" s="327" t="s">
+      <c r="G108" s="280" t="s">
         <v>150</v>
       </c>
-      <c r="H108" s="328">
+      <c r="H108" s="281">
         <v>10079.68</v>
       </c>
       <c r="I108" s="12">
         <v>10000</v>
       </c>
-      <c r="J108" s="320">
+      <c r="J108" s="274">
         <f t="shared" si="27"/>
         <v>2.1535000000000003E-4</v>
       </c>
-      <c r="K108" s="322">
+      <c r="K108" s="276">
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="294"/>
-      <c r="M108" s="294"/>
+      <c r="L108" s="324"/>
+      <c r="M108" s="324"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="291"/>
-      <c r="B109" s="329"/>
-      <c r="C109" s="341" t="s">
+      <c r="A109" s="321"/>
+      <c r="B109" s="327"/>
+      <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="D109" s="326">
+      <c r="D109" s="279">
         <v>1022.3584</v>
       </c>
-      <c r="E109" s="326">
+      <c r="E109" s="279">
         <v>0.32879999999999998</v>
       </c>
-      <c r="F109" s="326">
+      <c r="F109" s="279">
         <f t="shared" si="29"/>
         <v>1022.6872</v>
       </c>
-      <c r="G109" s="327" t="s">
+      <c r="G109" s="280" t="s">
         <v>132</v>
       </c>
-      <c r="H109" s="328">
+      <c r="H109" s="281">
         <v>1032.8800000000001</v>
       </c>
       <c r="I109" s="12">
         <v>1000</v>
       </c>
-      <c r="J109" s="320">
+      <c r="J109" s="274">
         <f t="shared" si="27"/>
         <v>3.2879999999999997E-4</v>
       </c>
-      <c r="K109" s="322">
+      <c r="K109" s="276">
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="294"/>
-      <c r="M109" s="294"/>
+      <c r="L109" s="324"/>
+      <c r="M109" s="324"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="292"/>
-      <c r="B110" s="330"/>
-      <c r="C110" s="342" t="s">
+      <c r="A110" s="322"/>
+      <c r="B110" s="282"/>
+      <c r="C110" s="294" t="s">
         <v>177</v>
       </c>
-      <c r="D110" s="331">
+      <c r="D110" s="283">
         <v>10072.380000000003</v>
       </c>
-      <c r="E110" s="332">
+      <c r="E110" s="284">
         <v>3.29</v>
       </c>
-      <c r="F110" s="332">
+      <c r="F110" s="284">
         <f>D110+E110</f>
         <v>10075.670000000004</v>
       </c>
-      <c r="G110" s="333" t="s">
+      <c r="G110" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="H110" s="332">
+      <c r="H110" s="284">
         <v>11196.73</v>
       </c>
       <c r="I110" s="146">
         <v>10000</v>
       </c>
-      <c r="J110" s="320">
+      <c r="J110" s="274">
         <f t="shared" si="27"/>
         <v>3.2900000000000003E-4</v>
       </c>
-      <c r="K110" s="322">
+      <c r="K110" s="276">
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="295"/>
-      <c r="M110" s="295"/>
+      <c r="L110" s="325"/>
+      <c r="M110" s="325"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -13695,7 +13768,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="287" t="s">
+      <c r="A112" s="328" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -13734,7 +13807,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="288"/>
+      <c r="A113" s="329"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -13779,11 +13852,11 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="289"/>
+      <c r="A114" s="330"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
-      <c r="C114" s="324" t="s">
+      <c r="C114" s="278" t="s">
         <v>230</v>
       </c>
       <c r="D114" s="164">
@@ -13810,7 +13883,7 @@
         <f t="shared" ref="J114" si="30">E114/D114</f>
         <v>9.1741099278548003E-6</v>
       </c>
-      <c r="K114" s="323">
+      <c r="K114" s="277">
         <f>(F114-I114)/I114</f>
         <v>3.1192660550472063E-5</v>
       </c>
@@ -13933,27 +14006,1162 @@
         <v>7560.1894565218336</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15" thickTop="1"/>
+    <row r="118" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="119" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A119" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K119" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L119" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M119" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N119" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15" thickBot="1">
+      <c r="A120" s="320" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="262">
+        <v>78.91</v>
+      </c>
+      <c r="C120" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D120" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E120" s="264"/>
+      <c r="F120" s="264">
+        <f>D120</f>
+        <v>11100</v>
+      </c>
+      <c r="G120" s="265"/>
+      <c r="H120" s="266"/>
+      <c r="I120" s="267">
+        <f>D120</f>
+        <v>11100</v>
+      </c>
+      <c r="J120" s="268"/>
+      <c r="K120" s="153"/>
+      <c r="L120" s="323">
+        <f>E126/D126</f>
+        <v>2.1988830431051147E-4</v>
+      </c>
+      <c r="M120" s="323">
+        <f>L120*365</f>
+        <v>8.0259231073336684E-2</v>
+      </c>
+      <c r="N120" s="191"/>
+    </row>
+    <row r="121" spans="1:14" ht="25.5">
+      <c r="A121" s="321"/>
+      <c r="B121" s="269">
+        <v>28</v>
+      </c>
+      <c r="C121" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="270">
+        <v>8513.8608000000022</v>
+      </c>
+      <c r="E121" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F121" s="270">
+        <f>D121+E121</f>
+        <v>8517.3260000000028</v>
+      </c>
+      <c r="G121" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I121" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J121" s="274">
+        <f>E121/I121</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K121" s="275">
+        <f>(F121-I121)/(H121-I121)</f>
+        <v>1.4044843630942055E-2</v>
+      </c>
+      <c r="L121" s="324"/>
+      <c r="M121" s="324"/>
+      <c r="N121" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="25.5">
+      <c r="A122" s="321"/>
+      <c r="B122" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C122" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" s="287">
+        <v>10009.589999999998</v>
+      </c>
+      <c r="E122" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F122" s="287">
+        <f>D122+E122</f>
+        <v>10011.507999999998</v>
+      </c>
+      <c r="G122" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H122" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I122" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J122" s="274">
+        <f t="shared" ref="J122:J125" si="31">E122/I122</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K122" s="276">
+        <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
+        <v>0.23999999999995447</v>
+      </c>
+      <c r="L122" s="324"/>
+      <c r="M122" s="324"/>
+      <c r="N122" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="25.5">
+      <c r="A123" s="321"/>
+      <c r="B123" s="326">
+        <v>118.93</v>
+      </c>
+      <c r="C123" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" s="279">
+        <v>10010.767500000002</v>
+      </c>
+      <c r="E123" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F123" s="279">
+        <f t="shared" ref="F123:F124" si="33">D123+E123</f>
+        <v>10012.921000000002</v>
+      </c>
+      <c r="G123" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H123" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I123" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J123" s="274">
+        <f t="shared" si="31"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K123" s="276">
+        <f t="shared" si="32"/>
+        <v>0.16216114457833897</v>
+      </c>
+      <c r="L123" s="324"/>
+      <c r="M123" s="324"/>
+      <c r="N123" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="25.5">
+      <c r="A124" s="321"/>
+      <c r="B124" s="327"/>
+      <c r="C124" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" s="279">
+        <v>1022.6872</v>
+      </c>
+      <c r="E124" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F124" s="279">
+        <f t="shared" si="33"/>
+        <v>1023.016</v>
+      </c>
+      <c r="G124" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H124" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I124" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J124" s="274">
+        <f t="shared" si="31"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K124" s="276">
+        <f t="shared" si="32"/>
+        <v>0.69999999999999651</v>
+      </c>
+      <c r="L124" s="324"/>
+      <c r="M124" s="324"/>
+      <c r="N124" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A125" s="322"/>
+      <c r="B125" s="282"/>
+      <c r="C125" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D125" s="283">
+        <v>10075.670000000004</v>
+      </c>
+      <c r="E125" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F125" s="284">
+        <f>D125+E125</f>
+        <v>10078.960000000005</v>
+      </c>
+      <c r="G125" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H125" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I125" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J125" s="274">
+        <f t="shared" si="31"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K125" s="276">
+        <f t="shared" si="32"/>
+        <v>6.5979794941218667E-2</v>
+      </c>
+      <c r="L125" s="325"/>
+      <c r="M125" s="325"/>
+      <c r="N125" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A126" s="195" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="174">
+        <f>SUM(B120:B125)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D126" s="11">
+        <f>SUM(D120:D125)</f>
+        <v>50732.575500000006</v>
+      </c>
+      <c r="E126" s="61">
+        <f>SUM(E120:E125)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F126" s="11">
+        <f>SUM(F120:F125)</f>
+        <v>50743.731000000014</v>
+      </c>
+      <c r="G126" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H126" s="66">
+        <f>L120*10000</f>
+        <v>2.198883043105115</v>
+      </c>
+      <c r="I126" s="158">
+        <f>SUM(I120:I125)</f>
+        <v>50600</v>
+      </c>
+      <c r="J126" s="68"/>
+      <c r="K126" s="68"/>
+      <c r="L126" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M126" s="66">
+        <f>M120*10000</f>
+        <v>802.59231073336684</v>
+      </c>
+      <c r="N126" s="196"/>
+    </row>
+    <row r="127" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A127" s="328" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="123">
+        <v>1406.01</v>
+      </c>
+      <c r="E127" s="124">
+        <v>7.6</v>
+      </c>
+      <c r="F127" s="124">
+        <f>D127+E127</f>
+        <v>1413.61</v>
+      </c>
+      <c r="G127" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H127" s="123">
+        <f>F127</f>
+        <v>1413.61</v>
+      </c>
+      <c r="I127" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J127" s="127">
+        <f>(H127-I127)/I127</f>
+        <v>-5.7593333333333399E-2</v>
+      </c>
+      <c r="K127" s="127"/>
+      <c r="L127" s="128"/>
+      <c r="M127" s="129"/>
+      <c r="N127" s="197"/>
+    </row>
+    <row r="128" spans="1:14" ht="25.5">
+      <c r="A128" s="329"/>
+      <c r="B128" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="131">
+        <v>1492.63</v>
+      </c>
+      <c r="E128" s="132">
+        <v>-0.02</v>
+      </c>
+      <c r="F128" s="132">
+        <f>D128+E128</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="G128" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H128" s="131">
+        <f>F128</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="I128" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J128" s="168">
+        <f>(H128-I128)/I128</f>
+        <v>-4.9266666666665819E-3</v>
+      </c>
+      <c r="K128" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L128" s="243">
+        <v>1.454</v>
+      </c>
+      <c r="M128" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N128" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="28.5">
+      <c r="A129" s="330"/>
+      <c r="B129" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C129" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" s="164">
+        <v>10500.17</v>
+      </c>
+      <c r="E129" s="163">
+        <v>0.05</v>
+      </c>
+      <c r="F129" s="163">
+        <f>D129+E129</f>
+        <v>10500.22</v>
+      </c>
+      <c r="G129" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="166">
+        <f>F129</f>
+        <v>10500.22</v>
+      </c>
+      <c r="I129" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J129" s="239">
+        <f t="shared" ref="J129" si="34">E129/D129</f>
+        <v>4.7618276656473184E-6</v>
+      </c>
+      <c r="K129" s="277">
+        <f>(F129-I129)/I129</f>
+        <v>2.0952380952318588E-5</v>
+      </c>
+      <c r="L129" s="175"/>
+      <c r="M129" s="176"/>
+      <c r="N129" s="198"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="199"/>
+      <c r="B130" s="186"/>
+      <c r="C130" s="186"/>
+      <c r="D130" s="186"/>
+      <c r="E130" s="186"/>
+      <c r="F130" s="186"/>
+      <c r="G130" s="186"/>
+      <c r="H130" s="186"/>
+      <c r="I130" s="186"/>
+      <c r="J130" s="186"/>
+      <c r="K130" s="186"/>
+      <c r="L130" s="186"/>
+      <c r="M130" s="186"/>
+      <c r="N130" s="200"/>
+    </row>
+    <row r="131" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A131" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G131" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H131" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I131" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J131" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K131" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L131" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M131" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N131" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A132" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="205">
+        <f>F126+B126</f>
+        <v>51087.551000000014</v>
+      </c>
+      <c r="D132" s="205">
+        <f>I126</f>
+        <v>50600</v>
+      </c>
+      <c r="E132" s="206">
+        <v>24</v>
+      </c>
+      <c r="F132" s="207">
+        <f>C132-D132</f>
+        <v>487.55100000001403</v>
+      </c>
+      <c r="G132" s="208">
+        <f>F132/D132</f>
+        <v>9.6353952569172736E-3</v>
+      </c>
+      <c r="H132" s="207">
+        <f>F132/E132</f>
+        <v>20.314625000000586</v>
+      </c>
+      <c r="I132" s="208">
+        <f>G132/E132</f>
+        <v>4.0147480237155307E-4</v>
+      </c>
+      <c r="J132" s="209">
+        <f>H132*10000/D132</f>
+        <v>4.0147480237155309</v>
+      </c>
+      <c r="K132" s="210">
+        <f>B126</f>
+        <v>343.82</v>
+      </c>
+      <c r="L132" s="210">
+        <f>F132-K132</f>
+        <v>143.73100000001403</v>
+      </c>
+      <c r="M132" s="208">
+        <f>I132*365</f>
+        <v>0.14653830286561687</v>
+      </c>
+      <c r="N132" s="211">
+        <f>H132*365</f>
+        <v>7414.8381250002139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="134" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A134" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J134" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K134" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L134" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M134" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N134" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15" thickBot="1">
+      <c r="A135" s="320" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" s="262">
+        <v>78.91</v>
+      </c>
+      <c r="C135" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D135" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E135" s="264"/>
+      <c r="F135" s="264">
+        <f>D135</f>
+        <v>11100</v>
+      </c>
+      <c r="G135" s="265"/>
+      <c r="H135" s="266"/>
+      <c r="I135" s="267">
+        <f>D135</f>
+        <v>11100</v>
+      </c>
+      <c r="J135" s="268"/>
+      <c r="K135" s="153"/>
+      <c r="L135" s="323">
+        <f>E141/D141</f>
+        <v>2.1983996407359162E-4</v>
+      </c>
+      <c r="M135" s="323">
+        <f>L135*365</f>
+        <v>8.0241586886860936E-2</v>
+      </c>
+      <c r="N135" s="191"/>
+    </row>
+    <row r="136" spans="1:14" ht="25.5">
+      <c r="A136" s="321"/>
+      <c r="B136" s="269">
+        <v>28</v>
+      </c>
+      <c r="C136" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" s="270">
+        <v>8517.3260000000028</v>
+      </c>
+      <c r="E136" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F136" s="270">
+        <f>D136+E136</f>
+        <v>8520.7912000000033</v>
+      </c>
+      <c r="G136" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H136" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I136" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J136" s="274">
+        <f>E136/I136</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K136" s="275">
+        <f>(F136-I136)/(H136-I136)</f>
+        <v>1.6853812357130467E-2</v>
+      </c>
+      <c r="L136" s="324"/>
+      <c r="M136" s="324"/>
+      <c r="N136" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="25.5">
+      <c r="A137" s="321"/>
+      <c r="B137" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C137" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="287">
+        <v>10011.507999999998</v>
+      </c>
+      <c r="E137" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F137" s="287">
+        <f>D137+E137</f>
+        <v>10013.425999999998</v>
+      </c>
+      <c r="G137" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H137" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I137" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J137" s="274">
+        <f t="shared" ref="J137:J140" si="35">E137/I137</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K137" s="276">
+        <f t="shared" ref="K137:K140" si="36">(F137-I137)/(H137-I137)</f>
+        <v>0.2799999999999469</v>
+      </c>
+      <c r="L137" s="324"/>
+      <c r="M137" s="324"/>
+      <c r="N137" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="25.5">
+      <c r="A138" s="321"/>
+      <c r="B138" s="326">
+        <v>118.93</v>
+      </c>
+      <c r="C138" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="279">
+        <v>10012.921000000002</v>
+      </c>
+      <c r="E138" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F138" s="279">
+        <f t="shared" ref="F138:F139" si="37">D138+E138</f>
+        <v>10015.074500000002</v>
+      </c>
+      <c r="G138" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H138" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I138" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J138" s="274">
+        <f t="shared" si="35"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K138" s="276">
+        <f t="shared" si="36"/>
+        <v>0.18918800200806213</v>
+      </c>
+      <c r="L138" s="324"/>
+      <c r="M138" s="324"/>
+      <c r="N138" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="25.5">
+      <c r="A139" s="321"/>
+      <c r="B139" s="327"/>
+      <c r="C139" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="279">
+        <v>1023.016</v>
+      </c>
+      <c r="E139" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F139" s="279">
+        <f t="shared" si="37"/>
+        <v>1023.3448</v>
+      </c>
+      <c r="G139" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H139" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I139" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J139" s="274">
+        <f t="shared" si="35"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K139" s="276">
+        <f t="shared" si="36"/>
+        <v>0.70999999999999652</v>
+      </c>
+      <c r="L139" s="324"/>
+      <c r="M139" s="324"/>
+      <c r="N139" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A140" s="322"/>
+      <c r="B140" s="282"/>
+      <c r="C140" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" s="283">
+        <v>10078.960000000005</v>
+      </c>
+      <c r="E140" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F140" s="284">
+        <f>D140+E140</f>
+        <v>10082.250000000005</v>
+      </c>
+      <c r="G140" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H140" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I140" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J140" s="274">
+        <f t="shared" si="35"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K140" s="276">
+        <f t="shared" si="36"/>
+        <v>6.8728953063770012E-2</v>
+      </c>
+      <c r="L140" s="325"/>
+      <c r="M140" s="325"/>
+      <c r="N140" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A141" s="195" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" s="174">
+        <f>SUM(B135:B140)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D141" s="11">
+        <f>SUM(D135:D140)</f>
+        <v>50743.731000000014</v>
+      </c>
+      <c r="E141" s="61">
+        <f>SUM(E135:E140)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F141" s="11">
+        <f>SUM(F135:F140)</f>
+        <v>50754.886500000008</v>
+      </c>
+      <c r="G141" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H141" s="66">
+        <f>L135*10000</f>
+        <v>2.1983996407359161</v>
+      </c>
+      <c r="I141" s="158">
+        <f>SUM(I135:I140)</f>
+        <v>50600</v>
+      </c>
+      <c r="J141" s="68"/>
+      <c r="K141" s="68"/>
+      <c r="L141" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M141" s="66">
+        <f>M135*10000</f>
+        <v>802.41586886860932</v>
+      </c>
+      <c r="N141" s="196"/>
+    </row>
+    <row r="142" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A142" s="328" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="123">
+        <v>1413.61</v>
+      </c>
+      <c r="E142" s="124">
+        <v>0</v>
+      </c>
+      <c r="F142" s="124">
+        <f>D142+E142</f>
+        <v>1413.61</v>
+      </c>
+      <c r="G142" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H142" s="123">
+        <f>F142</f>
+        <v>1413.61</v>
+      </c>
+      <c r="I142" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J142" s="127">
+        <f>(H142-I142)/I142</f>
+        <v>-5.7593333333333399E-2</v>
+      </c>
+      <c r="K142" s="127"/>
+      <c r="L142" s="128"/>
+      <c r="M142" s="129"/>
+      <c r="N142" s="197"/>
+    </row>
+    <row r="143" spans="1:14" ht="25.5">
+      <c r="A143" s="329"/>
+      <c r="B143" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C143" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D143" s="131">
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="E143" s="132">
+        <v>0</v>
+      </c>
+      <c r="F143" s="132">
+        <f>D143+E143</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="G143" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H143" s="131">
+        <f>F143</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="I143" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J143" s="168">
+        <f>(H143-I143)/I143</f>
+        <v>-4.9266666666665819E-3</v>
+      </c>
+      <c r="K143" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L143" s="243">
+        <v>1.454</v>
+      </c>
+      <c r="M143" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N143" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="28.5">
+      <c r="A144" s="330"/>
+      <c r="B144" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C144" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D144" s="164">
+        <v>10500.22</v>
+      </c>
+      <c r="E144" s="163">
+        <v>0.05</v>
+      </c>
+      <c r="F144" s="163">
+        <f>D144+E144</f>
+        <v>10500.269999999999</v>
+      </c>
+      <c r="G144" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" s="166">
+        <f>F144</f>
+        <v>10500.269999999999</v>
+      </c>
+      <c r="I144" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J144" s="239">
+        <f t="shared" ref="J144" si="38">E144/D144</f>
+        <v>4.7618049907525756E-6</v>
+      </c>
+      <c r="K144" s="277">
+        <f>(F144-I144)/I144</f>
+        <v>2.5714285714154055E-5</v>
+      </c>
+      <c r="L144" s="175"/>
+      <c r="M144" s="176"/>
+      <c r="N144" s="198"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="199"/>
+      <c r="B145" s="186"/>
+      <c r="C145" s="186"/>
+      <c r="D145" s="186"/>
+      <c r="E145" s="186"/>
+      <c r="F145" s="186"/>
+      <c r="G145" s="186"/>
+      <c r="H145" s="186"/>
+      <c r="I145" s="186"/>
+      <c r="J145" s="186"/>
+      <c r="K145" s="186"/>
+      <c r="L145" s="186"/>
+      <c r="M145" s="186"/>
+      <c r="N145" s="200"/>
+    </row>
+    <row r="146" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A146" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D146" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F146" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G146" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H146" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I146" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J146" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K146" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L146" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M146" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N146" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A147" s="203" t="s">
+        <v>235</v>
+      </c>
+      <c r="B147" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147" s="205">
+        <f>F141+B141</f>
+        <v>51098.706500000008</v>
+      </c>
+      <c r="D147" s="205">
+        <f>I141</f>
+        <v>50600</v>
+      </c>
+      <c r="E147" s="206">
+        <v>25</v>
+      </c>
+      <c r="F147" s="207">
+        <f>C147-D147</f>
+        <v>498.70650000000751</v>
+      </c>
+      <c r="G147" s="208">
+        <f>F147/D147</f>
+        <v>9.8558596837946145E-3</v>
+      </c>
+      <c r="H147" s="207">
+        <f>F147/E147</f>
+        <v>19.9482600000003</v>
+      </c>
+      <c r="I147" s="208">
+        <f>G147/E147</f>
+        <v>3.9423438735178458E-4</v>
+      </c>
+      <c r="J147" s="209">
+        <f>H147*10000/D147</f>
+        <v>3.9423438735178458</v>
+      </c>
+      <c r="K147" s="210">
+        <f>B141</f>
+        <v>343.82</v>
+      </c>
+      <c r="L147" s="210">
+        <f>F147-K147</f>
+        <v>154.88650000000752</v>
+      </c>
+      <c r="M147" s="208">
+        <f>I147*365</f>
+        <v>0.14389555138340138</v>
+      </c>
+      <c r="N147" s="211">
+        <f>H147*365</f>
+        <v>7281.1149000001096</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="51">
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="L135:L140"/>
+    <mergeCell ref="M135:M140"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -13966,17 +15174,24 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14153,20 +15368,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="306" t="s">
+      <c r="A17" s="341" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="307"/>
-      <c r="C17" s="307"/>
-      <c r="D17" s="307"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="307"/>
-      <c r="G17" s="307"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="307"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="308"/>
+      <c r="B17" s="342"/>
+      <c r="C17" s="342"/>
+      <c r="D17" s="342"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="342"/>
+      <c r="G17" s="342"/>
+      <c r="H17" s="342"/>
+      <c r="I17" s="342"/>
+      <c r="J17" s="342"/>
+      <c r="K17" s="342"/>
+      <c r="L17" s="343"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -14210,7 +15425,7 @@
       <c r="A19" s="251">
         <v>2017</v>
       </c>
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="263" t="s">
         <v>227</v>
       </c>
       <c r="C19" s="251">
@@ -14292,20 +15507,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="306" t="s">
+      <c r="A22" s="341" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="307"/>
-      <c r="C22" s="307"/>
-      <c r="D22" s="307"/>
-      <c r="E22" s="307"/>
-      <c r="F22" s="307"/>
-      <c r="G22" s="307"/>
-      <c r="H22" s="307"/>
-      <c r="I22" s="307"/>
-      <c r="J22" s="307"/>
-      <c r="K22" s="307"/>
-      <c r="L22" s="308"/>
+      <c r="B22" s="342"/>
+      <c r="C22" s="342"/>
+      <c r="D22" s="342"/>
+      <c r="E22" s="342"/>
+      <c r="F22" s="342"/>
+      <c r="G22" s="342"/>
+      <c r="H22" s="342"/>
+      <c r="I22" s="342"/>
+      <c r="J22" s="342"/>
+      <c r="K22" s="342"/>
+      <c r="L22" s="343"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">
@@ -14349,7 +15564,7 @@
       <c r="A24" s="251">
         <v>2017</v>
       </c>
-      <c r="B24" s="309" t="s">
+      <c r="B24" s="263" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="251">

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M21\webapps\h5game\h5文档\理财\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M20-winx64\webapps\h5game\h5文档\理财\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="6~7月份" sheetId="2" r:id="rId2"/>
     <sheet name="费用开支" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="239">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1583,6 +1583,43 @@
   </si>
   <si>
     <t>6.22~7.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3033,7 +3070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3919,6 +3956,15 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3946,10 +3992,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3982,18 +4034,6 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4033,6 +4073,21 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4041,21 +4096,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4439,7 +4479,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="314">
+      <c r="F2" s="319">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4461,7 +4501,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="315"/>
+      <c r="F3" s="320"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4469,7 +4509,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="315"/>
+      <c r="F4" s="320"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4530,7 +4570,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="295" t="s">
+      <c r="A8" s="298" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4560,17 +4600,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="310">
+      <c r="K8" s="315">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="310">
+      <c r="L8" s="315">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="296"/>
+      <c r="A9" s="299"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4598,11 +4638,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="316"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="296"/>
+      <c r="A10" s="299"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4632,11 +4672,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="311"/>
-      <c r="L10" s="311"/>
+      <c r="K10" s="316"/>
+      <c r="L10" s="316"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="296"/>
+      <c r="A11" s="299"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4664,11 +4704,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="311"/>
-      <c r="L11" s="311"/>
+      <c r="K11" s="316"/>
+      <c r="L11" s="316"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="296"/>
+      <c r="A12" s="299"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4696,11 +4736,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="311"/>
-      <c r="L12" s="311"/>
+      <c r="K12" s="316"/>
+      <c r="L12" s="316"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="296"/>
+      <c r="A13" s="299"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4730,11 +4770,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="311"/>
-      <c r="L13" s="311"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="316"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="296"/>
+      <c r="A14" s="299"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4764,11 +4804,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="311"/>
-      <c r="L14" s="311"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="296"/>
+      <c r="A15" s="299"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4796,11 +4836,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="311"/>
-      <c r="L15" s="311"/>
+      <c r="K15" s="316"/>
+      <c r="L15" s="316"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="297"/>
+      <c r="A16" s="300"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4829,8 +4869,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="312"/>
-      <c r="L16" s="312"/>
+      <c r="K16" s="317"/>
+      <c r="L16" s="317"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -4911,7 +4951,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="295" t="s">
+      <c r="A20" s="298" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4943,17 +4983,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="309">
+      <c r="K20" s="314">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="309">
+      <c r="L20" s="314">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="296"/>
+      <c r="A21" s="299"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -4983,11 +5023,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="307"/>
-      <c r="L21" s="307"/>
+      <c r="K21" s="312"/>
+      <c r="L21" s="312"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="296"/>
+      <c r="A22" s="299"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -5017,11 +5057,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="307"/>
-      <c r="L22" s="307"/>
+      <c r="K22" s="312"/>
+      <c r="L22" s="312"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="296"/>
+      <c r="A23" s="299"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -5051,11 +5091,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="307"/>
-      <c r="L23" s="307"/>
+      <c r="K23" s="312"/>
+      <c r="L23" s="312"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="296"/>
+      <c r="A24" s="299"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5085,11 +5125,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="307"/>
-      <c r="L24" s="307"/>
+      <c r="K24" s="312"/>
+      <c r="L24" s="312"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="296"/>
+      <c r="A25" s="299"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5119,11 +5159,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="307"/>
-      <c r="L25" s="307"/>
+      <c r="K25" s="312"/>
+      <c r="L25" s="312"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="296"/>
+      <c r="A26" s="299"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5153,11 +5193,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="307"/>
-      <c r="L26" s="307"/>
+      <c r="K26" s="312"/>
+      <c r="L26" s="312"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="296"/>
+      <c r="A27" s="299"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5187,11 +5227,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="307"/>
-      <c r="L27" s="307"/>
+      <c r="K27" s="312"/>
+      <c r="L27" s="312"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="297"/>
+      <c r="A28" s="300"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5221,8 +5261,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="313"/>
-      <c r="L28" s="313"/>
+      <c r="K28" s="318"/>
+      <c r="L28" s="318"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5307,7 +5347,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="295" t="s">
+      <c r="A32" s="298" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5339,17 +5379,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="306">
+      <c r="K32" s="311">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="309">
+      <c r="L32" s="314">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="296"/>
+      <c r="A33" s="299"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5379,11 +5419,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="307"/>
-      <c r="L33" s="307"/>
+      <c r="K33" s="312"/>
+      <c r="L33" s="312"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="296"/>
+      <c r="A34" s="299"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5413,11 +5453,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="307"/>
-      <c r="L34" s="307"/>
+      <c r="K34" s="312"/>
+      <c r="L34" s="312"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="296"/>
+      <c r="A35" s="299"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5447,11 +5487,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="307"/>
-      <c r="L35" s="307"/>
+      <c r="K35" s="312"/>
+      <c r="L35" s="312"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="296"/>
+      <c r="A36" s="299"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5481,12 +5521,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="307"/>
-      <c r="L36" s="307"/>
+      <c r="K36" s="312"/>
+      <c r="L36" s="312"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="296"/>
-      <c r="B37" s="301" t="s">
+      <c r="A37" s="299"/>
+      <c r="B37" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5515,12 +5555,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="307"/>
-      <c r="L37" s="307"/>
+      <c r="K37" s="312"/>
+      <c r="L37" s="312"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="296"/>
-      <c r="B38" s="302"/>
+      <c r="A38" s="299"/>
+      <c r="B38" s="305"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5547,12 +5587,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="307"/>
-      <c r="L38" s="307"/>
+      <c r="K38" s="312"/>
+      <c r="L38" s="312"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="296"/>
-      <c r="B39" s="303"/>
+      <c r="A39" s="299"/>
+      <c r="B39" s="306"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5579,12 +5619,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="307"/>
-      <c r="L39" s="307"/>
+      <c r="K39" s="312"/>
+      <c r="L39" s="312"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="296"/>
-      <c r="B40" s="304" t="s">
+      <c r="A40" s="299"/>
+      <c r="B40" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5613,12 +5653,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="307"/>
-      <c r="L40" s="307"/>
+      <c r="K40" s="312"/>
+      <c r="L40" s="312"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="296"/>
-      <c r="B41" s="305"/>
+      <c r="A41" s="299"/>
+      <c r="B41" s="297"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5638,11 +5678,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="307"/>
-      <c r="L41" s="307"/>
+      <c r="K41" s="312"/>
+      <c r="L41" s="312"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="297"/>
+      <c r="A42" s="300"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5672,8 +5712,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="308"/>
-      <c r="L42" s="308"/>
+      <c r="K42" s="313"/>
+      <c r="L42" s="313"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5758,7 +5798,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="295" t="s">
+      <c r="A46" s="298" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5790,17 +5830,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="306">
+      <c r="K46" s="311">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="309">
+      <c r="L46" s="314">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="296"/>
+      <c r="A47" s="299"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5830,11 +5870,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="307"/>
-      <c r="L47" s="307"/>
+      <c r="K47" s="312"/>
+      <c r="L47" s="312"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="296"/>
+      <c r="A48" s="299"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -5864,11 +5904,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="307"/>
-      <c r="L48" s="307"/>
+      <c r="K48" s="312"/>
+      <c r="L48" s="312"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="296"/>
+      <c r="A49" s="299"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5898,11 +5938,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="307"/>
-      <c r="L49" s="307"/>
+      <c r="K49" s="312"/>
+      <c r="L49" s="312"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="296"/>
+      <c r="A50" s="299"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5932,12 +5972,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="307"/>
-      <c r="L50" s="307"/>
+      <c r="K50" s="312"/>
+      <c r="L50" s="312"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="296"/>
-      <c r="B51" s="301" t="s">
+      <c r="A51" s="299"/>
+      <c r="B51" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -5966,12 +6006,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="307"/>
-      <c r="L51" s="307"/>
+      <c r="K51" s="312"/>
+      <c r="L51" s="312"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="296"/>
-      <c r="B52" s="302"/>
+      <c r="A52" s="299"/>
+      <c r="B52" s="305"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -5998,12 +6038,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="307"/>
-      <c r="L52" s="307"/>
+      <c r="K52" s="312"/>
+      <c r="L52" s="312"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="296"/>
-      <c r="B53" s="303"/>
+      <c r="A53" s="299"/>
+      <c r="B53" s="306"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -6030,12 +6070,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="307"/>
-      <c r="L53" s="307"/>
+      <c r="K53" s="312"/>
+      <c r="L53" s="312"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="296"/>
-      <c r="B54" s="304" t="s">
+      <c r="A54" s="299"/>
+      <c r="B54" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -6064,12 +6104,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="307"/>
-      <c r="L54" s="307"/>
+      <c r="K54" s="312"/>
+      <c r="L54" s="312"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="296"/>
-      <c r="B55" s="305"/>
+      <c r="A55" s="299"/>
+      <c r="B55" s="297"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6096,11 +6136,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="307"/>
-      <c r="L55" s="307"/>
+      <c r="K55" s="312"/>
+      <c r="L55" s="312"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="297"/>
+      <c r="A56" s="300"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6130,8 +6170,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="308"/>
-      <c r="L56" s="308"/>
+      <c r="K56" s="313"/>
+      <c r="L56" s="313"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6221,7 +6261,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="295" t="s">
+      <c r="A60" s="298" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6253,11 +6293,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="298">
+      <c r="K60" s="301">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="298">
+      <c r="L60" s="301">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6266,7 +6306,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="296"/>
+      <c r="A61" s="299"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6296,12 +6336,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="299"/>
-      <c r="L61" s="299"/>
+      <c r="K61" s="302"/>
+      <c r="L61" s="302"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="296"/>
+      <c r="A62" s="299"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6331,14 +6371,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="299"/>
-      <c r="L62" s="299"/>
+      <c r="K62" s="302"/>
+      <c r="L62" s="302"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="296"/>
+      <c r="A63" s="299"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6368,12 +6408,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="299"/>
-      <c r="L63" s="299"/>
+      <c r="K63" s="302"/>
+      <c r="L63" s="302"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="296"/>
+      <c r="A64" s="299"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6403,13 +6443,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="299"/>
-      <c r="L64" s="299"/>
+      <c r="K64" s="302"/>
+      <c r="L64" s="302"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="296"/>
-      <c r="B65" s="301" t="s">
+      <c r="A65" s="299"/>
+      <c r="B65" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6438,13 +6478,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="299"/>
-      <c r="L65" s="299"/>
+      <c r="K65" s="302"/>
+      <c r="L65" s="302"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="296"/>
-      <c r="B66" s="302"/>
+      <c r="A66" s="299"/>
+      <c r="B66" s="305"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6471,15 +6511,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="299"/>
-      <c r="L66" s="299"/>
+      <c r="K66" s="302"/>
+      <c r="L66" s="302"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="296"/>
-      <c r="B67" s="303"/>
+      <c r="A67" s="299"/>
+      <c r="B67" s="306"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6506,13 +6546,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="299"/>
-      <c r="L67" s="299"/>
+      <c r="K67" s="302"/>
+      <c r="L67" s="302"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="296"/>
-      <c r="B68" s="304" t="s">
+      <c r="A68" s="299"/>
+      <c r="B68" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6541,15 +6581,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="299"/>
-      <c r="L68" s="299"/>
+      <c r="K68" s="302"/>
+      <c r="L68" s="302"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="296"/>
-      <c r="B69" s="305"/>
+      <c r="A69" s="299"/>
+      <c r="B69" s="297"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6576,14 +6616,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="299"/>
-      <c r="L69" s="299"/>
+      <c r="K69" s="302"/>
+      <c r="L69" s="302"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="297"/>
+      <c r="A70" s="300"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6613,8 +6653,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="300"/>
-      <c r="L70" s="300"/>
+      <c r="K70" s="303"/>
+      <c r="L70" s="303"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6706,7 +6746,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="295" t="s">
+      <c r="A74" s="298" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6738,11 +6778,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="298">
+      <c r="K74" s="301">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="298">
+      <c r="L74" s="301">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6751,7 +6791,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="296"/>
+      <c r="A75" s="299"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6781,12 +6821,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="299"/>
-      <c r="L75" s="299"/>
+      <c r="K75" s="302"/>
+      <c r="L75" s="302"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="296"/>
+      <c r="A76" s="299"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6816,14 +6856,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="299"/>
-      <c r="L76" s="299"/>
+      <c r="K76" s="302"/>
+      <c r="L76" s="302"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="296"/>
+      <c r="A77" s="299"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -6853,12 +6893,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="299"/>
-      <c r="L77" s="299"/>
+      <c r="K77" s="302"/>
+      <c r="L77" s="302"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="296"/>
+      <c r="A78" s="299"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -6888,13 +6928,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="299"/>
-      <c r="L78" s="299"/>
+      <c r="K78" s="302"/>
+      <c r="L78" s="302"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="296"/>
-      <c r="B79" s="301" t="s">
+      <c r="A79" s="299"/>
+      <c r="B79" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6923,13 +6963,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="299"/>
-      <c r="L79" s="299"/>
+      <c r="K79" s="302"/>
+      <c r="L79" s="302"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="296"/>
-      <c r="B80" s="302"/>
+      <c r="A80" s="299"/>
+      <c r="B80" s="305"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -6955,15 +6995,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="299"/>
-      <c r="L80" s="299"/>
+      <c r="K80" s="302"/>
+      <c r="L80" s="302"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="296"/>
-      <c r="B81" s="302"/>
+      <c r="A81" s="299"/>
+      <c r="B81" s="305"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -6990,15 +7030,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="299"/>
-      <c r="L81" s="299"/>
+      <c r="K81" s="302"/>
+      <c r="L81" s="302"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="296"/>
-      <c r="B82" s="303"/>
+      <c r="A82" s="299"/>
+      <c r="B82" s="306"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -7025,13 +7065,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="299"/>
-      <c r="L82" s="299"/>
+      <c r="K82" s="302"/>
+      <c r="L82" s="302"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="296"/>
-      <c r="B83" s="304" t="s">
+      <c r="A83" s="299"/>
+      <c r="B83" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -7060,15 +7100,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="299"/>
-      <c r="L83" s="299"/>
+      <c r="K83" s="302"/>
+      <c r="L83" s="302"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="296"/>
-      <c r="B84" s="305"/>
+      <c r="A84" s="299"/>
+      <c r="B84" s="297"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7095,14 +7135,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="299"/>
-      <c r="L84" s="299"/>
+      <c r="K84" s="302"/>
+      <c r="L84" s="302"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="297"/>
+      <c r="A85" s="300"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7132,8 +7172,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="300"/>
-      <c r="L85" s="300"/>
+      <c r="K85" s="303"/>
+      <c r="L85" s="303"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7224,7 +7264,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="295" t="s">
+      <c r="A89" s="298" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7256,11 +7296,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="298">
+      <c r="K89" s="301">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="298">
+      <c r="L89" s="301">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7269,7 +7309,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="296"/>
+      <c r="A90" s="299"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7299,12 +7339,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="299"/>
-      <c r="L90" s="299"/>
+      <c r="K90" s="302"/>
+      <c r="L90" s="302"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="296"/>
+      <c r="A91" s="299"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7334,14 +7374,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="299"/>
-      <c r="L91" s="299"/>
+      <c r="K91" s="302"/>
+      <c r="L91" s="302"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="296"/>
+      <c r="A92" s="299"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7371,14 +7411,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="299"/>
-      <c r="L92" s="299"/>
+      <c r="K92" s="302"/>
+      <c r="L92" s="302"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="296"/>
+      <c r="A93" s="299"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7408,13 +7448,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="299"/>
-      <c r="L93" s="299"/>
+      <c r="K93" s="302"/>
+      <c r="L93" s="302"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="296"/>
-      <c r="B94" s="301" t="s">
+      <c r="A94" s="299"/>
+      <c r="B94" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7443,15 +7483,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="299"/>
-      <c r="L94" s="299"/>
+      <c r="K94" s="302"/>
+      <c r="L94" s="302"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="296"/>
-      <c r="B95" s="302"/>
+      <c r="A95" s="299"/>
+      <c r="B95" s="305"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7478,15 +7518,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="299"/>
-      <c r="L95" s="299"/>
+      <c r="K95" s="302"/>
+      <c r="L95" s="302"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="296"/>
-      <c r="B96" s="303"/>
+      <c r="A96" s="299"/>
+      <c r="B96" s="306"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7513,13 +7553,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="299"/>
-      <c r="L96" s="299"/>
+      <c r="K96" s="302"/>
+      <c r="L96" s="302"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="296"/>
-      <c r="B97" s="304" t="s">
+      <c r="A97" s="299"/>
+      <c r="B97" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7548,15 +7588,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="299"/>
-      <c r="L97" s="299"/>
+      <c r="K97" s="302"/>
+      <c r="L97" s="302"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="296"/>
-      <c r="B98" s="305"/>
+      <c r="A98" s="299"/>
+      <c r="B98" s="297"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7583,14 +7623,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="299"/>
-      <c r="L98" s="299"/>
+      <c r="K98" s="302"/>
+      <c r="L98" s="302"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="297"/>
+      <c r="A99" s="300"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7620,8 +7660,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="300"/>
-      <c r="L99" s="300"/>
+      <c r="K99" s="303"/>
+      <c r="L99" s="303"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7714,7 +7754,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="295" t="s">
+      <c r="A103" s="298" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7746,11 +7786,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="298">
+      <c r="K103" s="301">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="298">
+      <c r="L103" s="301">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7759,7 +7799,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="296"/>
+      <c r="A104" s="299"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7789,12 +7829,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="299"/>
-      <c r="L104" s="299"/>
+      <c r="K104" s="302"/>
+      <c r="L104" s="302"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="296"/>
+      <c r="A105" s="299"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7824,14 +7864,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="299"/>
-      <c r="L105" s="299"/>
+      <c r="K105" s="302"/>
+      <c r="L105" s="302"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="296"/>
+      <c r="A106" s="299"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -7860,14 +7900,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="299"/>
-      <c r="L106" s="299"/>
+      <c r="K106" s="302"/>
+      <c r="L106" s="302"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="296"/>
+      <c r="A107" s="299"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -7897,13 +7937,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="299"/>
-      <c r="L107" s="299"/>
+      <c r="K107" s="302"/>
+      <c r="L107" s="302"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="296"/>
-      <c r="B108" s="301" t="s">
+      <c r="A108" s="299"/>
+      <c r="B108" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -7932,15 +7972,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="299"/>
-      <c r="L108" s="299"/>
+      <c r="K108" s="302"/>
+      <c r="L108" s="302"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="296"/>
-      <c r="B109" s="302"/>
+      <c r="A109" s="299"/>
+      <c r="B109" s="305"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -7967,15 +8007,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="299"/>
-      <c r="L109" s="299"/>
+      <c r="K109" s="302"/>
+      <c r="L109" s="302"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="296"/>
-      <c r="B110" s="303"/>
+      <c r="A110" s="299"/>
+      <c r="B110" s="306"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -8002,13 +8042,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="299"/>
-      <c r="L110" s="299"/>
+      <c r="K110" s="302"/>
+      <c r="L110" s="302"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="296"/>
-      <c r="B111" s="304" t="s">
+      <c r="A111" s="299"/>
+      <c r="B111" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -8037,15 +8077,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="299"/>
-      <c r="L111" s="299"/>
+      <c r="K111" s="302"/>
+      <c r="L111" s="302"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="296"/>
-      <c r="B112" s="305"/>
+      <c r="A112" s="299"/>
+      <c r="B112" s="297"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -8072,14 +8112,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="299"/>
-      <c r="L112" s="299"/>
+      <c r="K112" s="302"/>
+      <c r="L112" s="302"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="297"/>
+      <c r="A113" s="300"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8109,8 +8149,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="300"/>
-      <c r="L113" s="300"/>
+      <c r="K113" s="303"/>
+      <c r="L113" s="303"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8203,7 +8243,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="295" t="s">
+      <c r="A117" s="298" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8235,11 +8275,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="298">
+      <c r="K117" s="301">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="298">
+      <c r="L117" s="301">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8248,7 +8288,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="296"/>
+      <c r="A118" s="299"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8278,12 +8318,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="299"/>
-      <c r="L118" s="299"/>
+      <c r="K118" s="302"/>
+      <c r="L118" s="302"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="296"/>
+      <c r="A119" s="299"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8313,14 +8353,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="299"/>
-      <c r="L119" s="299"/>
+      <c r="K119" s="302"/>
+      <c r="L119" s="302"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="296"/>
+      <c r="A120" s="299"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8350,13 +8390,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="299"/>
-      <c r="L120" s="299"/>
+      <c r="K120" s="302"/>
+      <c r="L120" s="302"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="296"/>
-      <c r="B121" s="301" t="s">
+      <c r="A121" s="299"/>
+      <c r="B121" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8385,15 +8425,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="299"/>
-      <c r="L121" s="299"/>
+      <c r="K121" s="302"/>
+      <c r="L121" s="302"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="296"/>
-      <c r="B122" s="302"/>
+      <c r="A122" s="299"/>
+      <c r="B122" s="305"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8420,15 +8460,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="299"/>
-      <c r="L122" s="299"/>
+      <c r="K122" s="302"/>
+      <c r="L122" s="302"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="296"/>
-      <c r="B123" s="303"/>
+      <c r="A123" s="299"/>
+      <c r="B123" s="306"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8455,13 +8495,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="299"/>
-      <c r="L123" s="299"/>
+      <c r="K123" s="302"/>
+      <c r="L123" s="302"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="296"/>
-      <c r="B124" s="304" t="s">
+      <c r="A124" s="299"/>
+      <c r="B124" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8490,15 +8530,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="299"/>
-      <c r="L124" s="299"/>
+      <c r="K124" s="302"/>
+      <c r="L124" s="302"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="296"/>
-      <c r="B125" s="305"/>
+      <c r="A125" s="299"/>
+      <c r="B125" s="297"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8525,14 +8565,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="299"/>
-      <c r="L125" s="299"/>
+      <c r="K125" s="302"/>
+      <c r="L125" s="302"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="297"/>
+      <c r="A126" s="300"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8562,8 +8602,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="300"/>
-      <c r="L126" s="300"/>
+      <c r="K126" s="303"/>
+      <c r="L126" s="303"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8656,7 +8696,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="295" t="s">
+      <c r="A130" s="298" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8688,11 +8728,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="298">
+      <c r="K130" s="301">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="298">
+      <c r="L130" s="301">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8701,7 +8741,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="296"/>
+      <c r="A131" s="299"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8731,12 +8771,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="299"/>
-      <c r="L131" s="299"/>
+      <c r="K131" s="302"/>
+      <c r="L131" s="302"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="296"/>
+      <c r="A132" s="299"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8766,14 +8806,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="299"/>
-      <c r="L132" s="299"/>
+      <c r="K132" s="302"/>
+      <c r="L132" s="302"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="296"/>
+      <c r="A133" s="299"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8803,13 +8843,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="299"/>
-      <c r="L133" s="299"/>
+      <c r="K133" s="302"/>
+      <c r="L133" s="302"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="296"/>
-      <c r="B134" s="301" t="s">
+      <c r="A134" s="299"/>
+      <c r="B134" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8838,15 +8878,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="299"/>
-      <c r="L134" s="299"/>
+      <c r="K134" s="302"/>
+      <c r="L134" s="302"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="296"/>
-      <c r="B135" s="302"/>
+      <c r="A135" s="299"/>
+      <c r="B135" s="305"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -8873,15 +8913,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="299"/>
-      <c r="L135" s="299"/>
+      <c r="K135" s="302"/>
+      <c r="L135" s="302"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="296"/>
-      <c r="B136" s="303"/>
+      <c r="A136" s="299"/>
+      <c r="B136" s="306"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -8908,13 +8948,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="299"/>
-      <c r="L136" s="299"/>
+      <c r="K136" s="302"/>
+      <c r="L136" s="302"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="296"/>
-      <c r="B137" s="304" t="s">
+      <c r="A137" s="299"/>
+      <c r="B137" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -8943,15 +8983,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="299"/>
-      <c r="L137" s="299"/>
+      <c r="K137" s="302"/>
+      <c r="L137" s="302"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="296"/>
-      <c r="B138" s="305"/>
+      <c r="A138" s="299"/>
+      <c r="B138" s="297"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -8978,14 +9018,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="299"/>
-      <c r="L138" s="299"/>
+      <c r="K138" s="302"/>
+      <c r="L138" s="302"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="297"/>
+      <c r="A139" s="300"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -9015,8 +9055,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="300"/>
-      <c r="L139" s="300"/>
+      <c r="K139" s="303"/>
+      <c r="L139" s="303"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9109,7 +9149,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="295" t="s">
+      <c r="A143" s="298" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9141,11 +9181,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="298">
+      <c r="K143" s="301">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="298">
+      <c r="L143" s="301">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9154,7 +9194,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="296"/>
+      <c r="A144" s="299"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9184,12 +9224,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="299"/>
-      <c r="L144" s="299"/>
+      <c r="K144" s="302"/>
+      <c r="L144" s="302"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="296"/>
+      <c r="A145" s="299"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9219,14 +9259,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="299"/>
-      <c r="L145" s="299"/>
+      <c r="K145" s="302"/>
+      <c r="L145" s="302"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="296"/>
+      <c r="A146" s="299"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9256,13 +9296,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="299"/>
-      <c r="L146" s="299"/>
+      <c r="K146" s="302"/>
+      <c r="L146" s="302"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="296"/>
-      <c r="B147" s="301" t="s">
+      <c r="A147" s="299"/>
+      <c r="B147" s="304" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9291,15 +9331,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="299"/>
-      <c r="L147" s="299"/>
+      <c r="K147" s="302"/>
+      <c r="L147" s="302"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="296"/>
-      <c r="B148" s="302"/>
+      <c r="A148" s="299"/>
+      <c r="B148" s="305"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9326,15 +9366,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="299"/>
-      <c r="L148" s="299"/>
+      <c r="K148" s="302"/>
+      <c r="L148" s="302"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="296"/>
-      <c r="B149" s="303"/>
+      <c r="A149" s="299"/>
+      <c r="B149" s="306"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9361,13 +9401,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="299"/>
-      <c r="L149" s="299"/>
+      <c r="K149" s="302"/>
+      <c r="L149" s="302"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="296"/>
-      <c r="B150" s="304" t="s">
+      <c r="A150" s="299"/>
+      <c r="B150" s="296" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9396,15 +9436,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="299"/>
-      <c r="L150" s="299"/>
+      <c r="K150" s="302"/>
+      <c r="L150" s="302"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="296"/>
-      <c r="B151" s="305"/>
+      <c r="A151" s="299"/>
+      <c r="B151" s="297"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9431,14 +9471,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="299"/>
-      <c r="L151" s="299"/>
+      <c r="K151" s="302"/>
+      <c r="L151" s="302"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="297"/>
+      <c r="A152" s="300"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9468,8 +9508,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="300"/>
-      <c r="L152" s="300"/>
+      <c r="K152" s="303"/>
+      <c r="L152" s="303"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9542,10 +9582,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="316" t="s">
+      <c r="H155" s="307" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="317"/>
+      <c r="I155" s="308"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9582,11 +9622,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="318">
+      <c r="H156" s="309">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="319"/>
+      <c r="I156" s="310"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9603,12 +9643,38 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9625,38 +9691,12 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9666,10 +9706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9732,7 +9772,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="299" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9763,11 +9803,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="324">
+      <c r="L2" s="325">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="324">
+      <c r="M2" s="325">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9776,7 +9816,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="296"/>
+      <c r="A3" s="299"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9805,14 +9845,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
+      <c r="L3" s="325"/>
+      <c r="M3" s="325"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="296"/>
+      <c r="A4" s="299"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9843,13 +9883,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="324"/>
-      <c r="M4" s="324"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="325"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="296"/>
-      <c r="B5" s="301"/>
+      <c r="A5" s="299"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -9877,15 +9917,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="296"/>
-      <c r="B6" s="302"/>
+      <c r="A6" s="299"/>
+      <c r="B6" s="305"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -9913,15 +9953,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="324"/>
+      <c r="L6" s="325"/>
+      <c r="M6" s="325"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="296"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="299"/>
+      <c r="B7" s="306"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -9949,12 +9989,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="324"/>
-      <c r="M7" s="324"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="296"/>
+      <c r="A8" s="299"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -9983,14 +10023,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="324"/>
-      <c r="M8" s="324"/>
+      <c r="L8" s="325"/>
+      <c r="M8" s="325"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="297"/>
+      <c r="A9" s="300"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -10019,8 +10059,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="325"/>
-      <c r="M9" s="325"/>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10153,7 +10193,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="296" t="s">
+      <c r="A14" s="299" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10184,11 +10224,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="324">
+      <c r="L14" s="325">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="324">
+      <c r="M14" s="325">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10197,7 +10237,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="296"/>
+      <c r="A15" s="299"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10226,14 +10266,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="324"/>
-      <c r="M15" s="324"/>
+      <c r="L15" s="325"/>
+      <c r="M15" s="325"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="296"/>
+      <c r="A16" s="299"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10263,13 +10303,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="324"/>
-      <c r="M16" s="324"/>
+      <c r="L16" s="325"/>
+      <c r="M16" s="325"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="296"/>
-      <c r="B17" s="338"/>
+      <c r="A17" s="299"/>
+      <c r="B17" s="336"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10297,15 +10337,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="324"/>
-      <c r="M17" s="324"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="296"/>
-      <c r="B18" s="339"/>
+      <c r="A18" s="299"/>
+      <c r="B18" s="337"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10333,15 +10373,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="324"/>
-      <c r="M18" s="324"/>
+      <c r="L18" s="325"/>
+      <c r="M18" s="325"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="296"/>
-      <c r="B19" s="340"/>
+      <c r="A19" s="299"/>
+      <c r="B19" s="338"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10370,12 +10410,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="324"/>
-      <c r="M19" s="324"/>
+      <c r="L19" s="325"/>
+      <c r="M19" s="325"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="296"/>
+      <c r="A20" s="299"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10404,14 +10444,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="324"/>
-      <c r="M20" s="324"/>
+      <c r="L20" s="325"/>
+      <c r="M20" s="325"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="297"/>
+      <c r="A21" s="300"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10440,8 +10480,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="325"/>
-      <c r="M21" s="325"/>
+      <c r="L21" s="326"/>
+      <c r="M21" s="326"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10574,7 +10614,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="296" t="s">
+      <c r="A26" s="299" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10605,11 +10645,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="324">
+      <c r="L26" s="325">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="324">
+      <c r="M26" s="325">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10618,7 +10658,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="296"/>
+      <c r="A27" s="299"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10647,14 +10687,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="324"/>
-      <c r="M27" s="324"/>
+      <c r="L27" s="325"/>
+      <c r="M27" s="325"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="296"/>
+      <c r="A28" s="299"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10684,13 +10724,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="324"/>
-      <c r="M28" s="324"/>
+      <c r="L28" s="325"/>
+      <c r="M28" s="325"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="296"/>
-      <c r="B29" s="338"/>
+      <c r="A29" s="299"/>
+      <c r="B29" s="336"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10718,15 +10758,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="324"/>
-      <c r="M29" s="324"/>
+      <c r="L29" s="325"/>
+      <c r="M29" s="325"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="296"/>
-      <c r="B30" s="339"/>
+      <c r="A30" s="299"/>
+      <c r="B30" s="337"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10754,15 +10794,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="324"/>
-      <c r="M30" s="324"/>
+      <c r="L30" s="325"/>
+      <c r="M30" s="325"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="296"/>
-      <c r="B31" s="340"/>
+      <c r="A31" s="299"/>
+      <c r="B31" s="338"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10791,12 +10831,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="324"/>
-      <c r="M31" s="324"/>
+      <c r="L31" s="325"/>
+      <c r="M31" s="325"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="296"/>
+      <c r="A32" s="299"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10825,14 +10865,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="324"/>
-      <c r="M32" s="324"/>
+      <c r="L32" s="325"/>
+      <c r="M32" s="325"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="297"/>
+      <c r="A33" s="300"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -10861,8 +10901,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="325"/>
-      <c r="M33" s="325"/>
+      <c r="L33" s="326"/>
+      <c r="M33" s="326"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -10995,7 +11035,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="296" t="s">
+      <c r="A38" s="299" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -11026,11 +11066,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="324">
+      <c r="L38" s="325">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="324">
+      <c r="M38" s="325">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -11039,7 +11079,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="296"/>
+      <c r="A39" s="299"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -11068,14 +11108,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="324"/>
-      <c r="M39" s="324"/>
+      <c r="L39" s="325"/>
+      <c r="M39" s="325"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="296"/>
+      <c r="A40" s="299"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11105,13 +11145,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="324"/>
-      <c r="M40" s="324"/>
+      <c r="L40" s="325"/>
+      <c r="M40" s="325"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="296"/>
-      <c r="B41" s="338"/>
+      <c r="A41" s="299"/>
+      <c r="B41" s="336"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11139,15 +11179,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="324"/>
-      <c r="M41" s="324"/>
+      <c r="L41" s="325"/>
+      <c r="M41" s="325"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="296"/>
-      <c r="B42" s="339"/>
+      <c r="A42" s="299"/>
+      <c r="B42" s="337"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11175,15 +11215,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="324"/>
-      <c r="M42" s="324"/>
+      <c r="L42" s="325"/>
+      <c r="M42" s="325"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="296"/>
-      <c r="B43" s="340"/>
+      <c r="A43" s="299"/>
+      <c r="B43" s="338"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11212,12 +11252,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="324"/>
-      <c r="M43" s="324"/>
+      <c r="L43" s="325"/>
+      <c r="M43" s="325"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="296"/>
+      <c r="A44" s="299"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11246,14 +11286,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="324"/>
-      <c r="M44" s="324"/>
+      <c r="L44" s="325"/>
+      <c r="M44" s="325"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="297"/>
+      <c r="A45" s="300"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11282,8 +11322,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="325"/>
-      <c r="M45" s="325"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="326"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11419,7 +11459,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="296" t="s">
+      <c r="A50" s="299" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11455,11 +11495,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="324">
+      <c r="L50" s="325">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="324">
+      <c r="M50" s="325">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11468,7 +11508,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="296"/>
+      <c r="A51" s="299"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11502,14 +11542,14 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="324"/>
-      <c r="M51" s="324"/>
+      <c r="L51" s="325"/>
+      <c r="M51" s="325"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="296"/>
+      <c r="A52" s="299"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11541,13 +11581,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="276"/>
-      <c r="L52" s="324"/>
-      <c r="M52" s="324"/>
+      <c r="L52" s="325"/>
+      <c r="M52" s="325"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="296"/>
-      <c r="B53" s="338">
+      <c r="A53" s="299"/>
+      <c r="B53" s="336">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11580,15 +11620,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="324"/>
-      <c r="M53" s="324"/>
+      <c r="L53" s="325"/>
+      <c r="M53" s="325"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="296"/>
-      <c r="B54" s="339"/>
+      <c r="A54" s="299"/>
+      <c r="B54" s="337"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11619,14 +11659,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="324"/>
-      <c r="M54" s="324"/>
+      <c r="L54" s="325"/>
+      <c r="M54" s="325"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="297"/>
+      <c r="A55" s="300"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11660,8 +11700,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="325"/>
-      <c r="M55" s="325"/>
+      <c r="L55" s="326"/>
+      <c r="M55" s="326"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11797,10 +11837,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="333" t="s">
+      <c r="A60" s="339" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="336">
+      <c r="B60" s="334">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11833,11 +11873,11 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="323">
+      <c r="L60" s="324">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="323">
+      <c r="M60" s="324">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11846,8 +11886,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="334"/>
-      <c r="B61" s="337"/>
+      <c r="A61" s="340"/>
+      <c r="B61" s="335"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -11878,14 +11918,14 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="324"/>
-      <c r="M61" s="324"/>
+      <c r="L61" s="325"/>
+      <c r="M61" s="325"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="334"/>
+      <c r="A62" s="340"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -11919,15 +11959,15 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="324"/>
-      <c r="M62" s="324"/>
+      <c r="L62" s="325"/>
+      <c r="M62" s="325"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="334"/>
-      <c r="B63" s="331">
+      <c r="A63" s="340"/>
+      <c r="B63" s="332">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -11960,15 +12000,15 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="324"/>
-      <c r="M63" s="324"/>
+      <c r="L63" s="325"/>
+      <c r="M63" s="325"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="334"/>
-      <c r="B64" s="332"/>
+      <c r="A64" s="340"/>
+      <c r="B64" s="333"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -11999,14 +12039,14 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="324"/>
-      <c r="M64" s="324"/>
+      <c r="L64" s="325"/>
+      <c r="M64" s="325"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="335"/>
+      <c r="A65" s="341"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -12040,8 +12080,8 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="325"/>
-      <c r="M65" s="325"/>
+      <c r="L65" s="326"/>
+      <c r="M65" s="326"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12367,10 +12407,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="320" t="s">
+      <c r="A76" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="336">
+      <c r="B76" s="334">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12403,11 +12443,11 @@
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="323">
+      <c r="L76" s="324">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="323">
+      <c r="M76" s="324">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12416,8 +12456,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="321"/>
-      <c r="B77" s="337"/>
+      <c r="A77" s="322"/>
+      <c r="B77" s="335"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12448,14 +12488,14 @@
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="324"/>
-      <c r="M77" s="324"/>
+      <c r="L77" s="325"/>
+      <c r="M77" s="325"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="321"/>
+      <c r="A78" s="322"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12489,15 +12529,15 @@
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="324"/>
-      <c r="M78" s="324"/>
+      <c r="L78" s="325"/>
+      <c r="M78" s="325"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="321"/>
-      <c r="B79" s="331">
+      <c r="A79" s="322"/>
+      <c r="B79" s="332">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12530,15 +12570,15 @@
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="324"/>
-      <c r="M79" s="324"/>
+      <c r="L79" s="325"/>
+      <c r="M79" s="325"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="321"/>
-      <c r="B80" s="332"/>
+      <c r="A80" s="322"/>
+      <c r="B80" s="333"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12569,14 +12609,14 @@
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="324"/>
-      <c r="M80" s="324"/>
+      <c r="L80" s="325"/>
+      <c r="M80" s="325"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="322"/>
+      <c r="A81" s="323"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12610,8 +12650,8 @@
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="325"/>
-      <c r="M81" s="325"/>
+      <c r="L81" s="326"/>
+      <c r="M81" s="326"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12662,7 +12702,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="328" t="s">
+      <c r="A83" s="329" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12701,7 +12741,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="329"/>
+      <c r="A84" s="330"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12746,7 +12786,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="330"/>
+      <c r="A85" s="331"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -12946,7 +12986,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="320" t="s">
+      <c r="A91" s="321" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -12982,11 +13022,11 @@
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="323">
+      <c r="L91" s="324">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="323">
+      <c r="M91" s="324">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -12995,7 +13035,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="321"/>
+      <c r="A92" s="322"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -13029,15 +13069,15 @@
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="324"/>
-      <c r="M92" s="324"/>
+      <c r="L92" s="325"/>
+      <c r="M92" s="325"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="321"/>
-      <c r="B93" s="331">
+      <c r="A93" s="322"/>
+      <c r="B93" s="332">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -13070,15 +13110,15 @@
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="324"/>
-      <c r="M93" s="324"/>
+      <c r="L93" s="325"/>
+      <c r="M93" s="325"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="321"/>
-      <c r="B94" s="332"/>
+      <c r="A94" s="322"/>
+      <c r="B94" s="333"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13109,14 +13149,14 @@
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="324"/>
-      <c r="M94" s="324"/>
+      <c r="L94" s="325"/>
+      <c r="M94" s="325"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="322"/>
+      <c r="A95" s="323"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13150,8 +13190,8 @@
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="325"/>
-      <c r="M95" s="325"/>
+      <c r="L95" s="326"/>
+      <c r="M95" s="326"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13202,7 +13242,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="328" t="s">
+      <c r="A97" s="329" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13241,7 +13281,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="329"/>
+      <c r="A98" s="330"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13286,7 +13326,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="330"/>
+      <c r="A99" s="331"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13486,7 +13526,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="320" t="s">
+      <c r="A105" s="321" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
@@ -13511,18 +13551,18 @@
       </c>
       <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="323">
+      <c r="L105" s="324">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="323">
+      <c r="M105" s="324">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="321"/>
+      <c r="A106" s="322"/>
       <c r="B106" s="269">
         <v>28</v>
       </c>
@@ -13556,14 +13596,14 @@
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="324"/>
-      <c r="M106" s="324"/>
+      <c r="L106" s="325"/>
+      <c r="M106" s="325"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="321"/>
+      <c r="A107" s="322"/>
       <c r="B107" s="286">
         <v>117.98</v>
       </c>
@@ -13597,15 +13637,15 @@
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="324"/>
-      <c r="M107" s="324"/>
+      <c r="L107" s="325"/>
+      <c r="M107" s="325"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="321"/>
-      <c r="B108" s="326">
+      <c r="A108" s="322"/>
+      <c r="B108" s="327">
         <v>118.93</v>
       </c>
       <c r="C108" s="293" t="s">
@@ -13638,15 +13678,15 @@
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="324"/>
-      <c r="M108" s="324"/>
+      <c r="L108" s="325"/>
+      <c r="M108" s="325"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="321"/>
-      <c r="B109" s="327"/>
+      <c r="A109" s="322"/>
+      <c r="B109" s="328"/>
       <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
@@ -13677,14 +13717,14 @@
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="324"/>
-      <c r="M109" s="324"/>
+      <c r="L109" s="325"/>
+      <c r="M109" s="325"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="322"/>
+      <c r="A110" s="323"/>
       <c r="B110" s="282"/>
       <c r="C110" s="294" t="s">
         <v>177</v>
@@ -13716,8 +13756,8 @@
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="325"/>
-      <c r="M110" s="325"/>
+      <c r="L110" s="326"/>
+      <c r="M110" s="326"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -13768,7 +13808,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="328" t="s">
+      <c r="A112" s="329" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -13807,7 +13847,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="329"/>
+      <c r="A113" s="330"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -13852,7 +13892,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="330"/>
+      <c r="A114" s="331"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
@@ -14052,7 +14092,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1">
-      <c r="A120" s="320" t="s">
+      <c r="A120" s="321" t="s">
         <v>231</v>
       </c>
       <c r="B120" s="262">
@@ -14077,18 +14117,18 @@
       </c>
       <c r="J120" s="268"/>
       <c r="K120" s="153"/>
-      <c r="L120" s="323">
+      <c r="L120" s="324">
         <f>E126/D126</f>
         <v>2.1988830431051147E-4</v>
       </c>
-      <c r="M120" s="323">
+      <c r="M120" s="324">
         <f>L120*365</f>
         <v>8.0259231073336684E-2</v>
       </c>
       <c r="N120" s="191"/>
     </row>
     <row r="121" spans="1:14" ht="25.5">
-      <c r="A121" s="321"/>
+      <c r="A121" s="322"/>
       <c r="B121" s="269">
         <v>28</v>
       </c>
@@ -14122,14 +14162,14 @@
         <f>(F121-I121)/(H121-I121)</f>
         <v>1.4044843630942055E-2</v>
       </c>
-      <c r="L121" s="324"/>
-      <c r="M121" s="324"/>
+      <c r="L121" s="325"/>
+      <c r="M121" s="325"/>
       <c r="N121" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="25.5">
-      <c r="A122" s="321"/>
+      <c r="A122" s="322"/>
       <c r="B122" s="286">
         <v>117.98</v>
       </c>
@@ -14163,15 +14203,15 @@
         <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
         <v>0.23999999999995447</v>
       </c>
-      <c r="L122" s="324"/>
-      <c r="M122" s="324"/>
+      <c r="L122" s="325"/>
+      <c r="M122" s="325"/>
       <c r="N122" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="25.5">
-      <c r="A123" s="321"/>
-      <c r="B123" s="326">
+      <c r="A123" s="322"/>
+      <c r="B123" s="327">
         <v>118.93</v>
       </c>
       <c r="C123" s="293" t="s">
@@ -14204,15 +14244,15 @@
         <f t="shared" si="32"/>
         <v>0.16216114457833897</v>
       </c>
-      <c r="L123" s="324"/>
-      <c r="M123" s="324"/>
+      <c r="L123" s="325"/>
+      <c r="M123" s="325"/>
       <c r="N123" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="25.5">
-      <c r="A124" s="321"/>
-      <c r="B124" s="327"/>
+      <c r="A124" s="322"/>
+      <c r="B124" s="328"/>
       <c r="C124" s="293" t="s">
         <v>179</v>
       </c>
@@ -14243,14 +14283,14 @@
         <f t="shared" si="32"/>
         <v>0.69999999999999651</v>
       </c>
-      <c r="L124" s="324"/>
-      <c r="M124" s="324"/>
+      <c r="L124" s="325"/>
+      <c r="M124" s="325"/>
       <c r="N124" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A125" s="322"/>
+      <c r="A125" s="323"/>
       <c r="B125" s="282"/>
       <c r="C125" s="294" t="s">
         <v>177</v>
@@ -14282,8 +14322,8 @@
         <f t="shared" si="32"/>
         <v>6.5979794941218667E-2</v>
       </c>
-      <c r="L125" s="325"/>
-      <c r="M125" s="325"/>
+      <c r="L125" s="326"/>
+      <c r="M125" s="326"/>
       <c r="N125" s="194" t="s">
         <v>135</v>
       </c>
@@ -14334,7 +14374,7 @@
       <c r="N126" s="196"/>
     </row>
     <row r="127" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A127" s="328" t="s">
+      <c r="A127" s="329" t="s">
         <v>196</v>
       </c>
       <c r="B127" s="122" t="s">
@@ -14373,7 +14413,7 @@
       <c r="N127" s="197"/>
     </row>
     <row r="128" spans="1:14" ht="25.5">
-      <c r="A128" s="329"/>
+      <c r="A128" s="330"/>
       <c r="B128" s="130" t="s">
         <v>138</v>
       </c>
@@ -14418,7 +14458,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="28.5">
-      <c r="A129" s="330"/>
+      <c r="A129" s="331"/>
       <c r="B129" s="162">
         <v>7.12</v>
       </c>
@@ -14618,7 +14658,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" thickBot="1">
-      <c r="A135" s="320" t="s">
+      <c r="A135" s="321" t="s">
         <v>233</v>
       </c>
       <c r="B135" s="262">
@@ -14643,18 +14683,18 @@
       </c>
       <c r="J135" s="268"/>
       <c r="K135" s="153"/>
-      <c r="L135" s="323">
+      <c r="L135" s="324">
         <f>E141/D141</f>
         <v>2.1983996407359162E-4</v>
       </c>
-      <c r="M135" s="323">
+      <c r="M135" s="324">
         <f>L135*365</f>
         <v>8.0241586886860936E-2</v>
       </c>
       <c r="N135" s="191"/>
     </row>
     <row r="136" spans="1:14" ht="25.5">
-      <c r="A136" s="321"/>
+      <c r="A136" s="322"/>
       <c r="B136" s="269">
         <v>28</v>
       </c>
@@ -14688,14 +14728,14 @@
         <f>(F136-I136)/(H136-I136)</f>
         <v>1.6853812357130467E-2</v>
       </c>
-      <c r="L136" s="324"/>
-      <c r="M136" s="324"/>
+      <c r="L136" s="325"/>
+      <c r="M136" s="325"/>
       <c r="N136" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="25.5">
-      <c r="A137" s="321"/>
+      <c r="A137" s="322"/>
       <c r="B137" s="286">
         <v>117.98</v>
       </c>
@@ -14729,15 +14769,15 @@
         <f t="shared" ref="K137:K140" si="36">(F137-I137)/(H137-I137)</f>
         <v>0.2799999999999469</v>
       </c>
-      <c r="L137" s="324"/>
-      <c r="M137" s="324"/>
+      <c r="L137" s="325"/>
+      <c r="M137" s="325"/>
       <c r="N137" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5">
-      <c r="A138" s="321"/>
-      <c r="B138" s="326">
+      <c r="A138" s="322"/>
+      <c r="B138" s="327">
         <v>118.93</v>
       </c>
       <c r="C138" s="293" t="s">
@@ -14770,15 +14810,15 @@
         <f t="shared" si="36"/>
         <v>0.18918800200806213</v>
       </c>
-      <c r="L138" s="324"/>
-      <c r="M138" s="324"/>
+      <c r="L138" s="325"/>
+      <c r="M138" s="325"/>
       <c r="N138" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="25.5">
-      <c r="A139" s="321"/>
-      <c r="B139" s="327"/>
+      <c r="A139" s="322"/>
+      <c r="B139" s="328"/>
       <c r="C139" s="293" t="s">
         <v>179</v>
       </c>
@@ -14809,14 +14849,14 @@
         <f t="shared" si="36"/>
         <v>0.70999999999999652</v>
       </c>
-      <c r="L139" s="324"/>
-      <c r="M139" s="324"/>
+      <c r="L139" s="325"/>
+      <c r="M139" s="325"/>
       <c r="N139" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A140" s="322"/>
+      <c r="A140" s="323"/>
       <c r="B140" s="282"/>
       <c r="C140" s="294" t="s">
         <v>177</v>
@@ -14848,8 +14888,8 @@
         <f t="shared" si="36"/>
         <v>6.8728953063770012E-2</v>
       </c>
-      <c r="L140" s="325"/>
-      <c r="M140" s="325"/>
+      <c r="L140" s="326"/>
+      <c r="M140" s="326"/>
       <c r="N140" s="194" t="s">
         <v>135</v>
       </c>
@@ -14900,7 +14940,7 @@
       <c r="N141" s="196"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A142" s="328" t="s">
+      <c r="A142" s="329" t="s">
         <v>196</v>
       </c>
       <c r="B142" s="122" t="s">
@@ -14939,7 +14979,7 @@
       <c r="N142" s="197"/>
     </row>
     <row r="143" spans="1:14" ht="25.5">
-      <c r="A143" s="329"/>
+      <c r="A143" s="330"/>
       <c r="B143" s="130" t="s">
         <v>138</v>
       </c>
@@ -14984,7 +15024,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="28.5">
-      <c r="A144" s="330"/>
+      <c r="A144" s="331"/>
       <c r="B144" s="162">
         <v>7.12</v>
       </c>
@@ -15138,30 +15178,598 @@
         <v>7281.1149000001096</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="15" thickTop="1"/>
+    <row r="148" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="149" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A149" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J149" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K149" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L149" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M149" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N149" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15" thickBot="1">
+      <c r="A150" s="321" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150" s="295">
+        <v>78.91</v>
+      </c>
+      <c r="C150" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D150" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E150" s="264"/>
+      <c r="F150" s="264">
+        <f>D150</f>
+        <v>11100</v>
+      </c>
+      <c r="G150" s="265"/>
+      <c r="H150" s="266"/>
+      <c r="I150" s="267">
+        <f>D150</f>
+        <v>11100</v>
+      </c>
+      <c r="J150" s="268"/>
+      <c r="K150" s="153"/>
+      <c r="L150" s="324">
+        <f>E156/D156</f>
+        <v>2.197916450862322E-4</v>
+      </c>
+      <c r="M150" s="324">
+        <f>L150*365</f>
+        <v>8.0223950456474749E-2</v>
+      </c>
+      <c r="N150" s="191"/>
+    </row>
+    <row r="151" spans="1:14" ht="25.5">
+      <c r="A151" s="322"/>
+      <c r="B151" s="269">
+        <v>28</v>
+      </c>
+      <c r="C151" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D151" s="270">
+        <v>8520.7912000000033</v>
+      </c>
+      <c r="E151" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F151" s="270">
+        <f>D151+E151</f>
+        <v>8524.2564000000039</v>
+      </c>
+      <c r="G151" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H151" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I151" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J151" s="274">
+        <f>E151/I151</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K151" s="275">
+        <f>(F151-I151)/(H151-I151)</f>
+        <v>1.9662781083318877E-2</v>
+      </c>
+      <c r="L151" s="325"/>
+      <c r="M151" s="325"/>
+      <c r="N151" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="25.5">
+      <c r="A152" s="322"/>
+      <c r="B152" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C152" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="287">
+        <v>10013.425999999998</v>
+      </c>
+      <c r="E152" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F152" s="287">
+        <f>D152+E152</f>
+        <v>10015.343999999997</v>
+      </c>
+      <c r="G152" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H152" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I152" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J152" s="274">
+        <f t="shared" ref="J152:J155" si="39">E152/I152</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K152" s="276">
+        <f t="shared" ref="K152:K155" si="40">(F152-I152)/(H152-I152)</f>
+        <v>0.31999999999993928</v>
+      </c>
+      <c r="L152" s="325"/>
+      <c r="M152" s="325"/>
+      <c r="N152" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="25.5">
+      <c r="A153" s="322"/>
+      <c r="B153" s="327">
+        <v>118.93</v>
+      </c>
+      <c r="C153" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D153" s="279">
+        <v>10015.074500000002</v>
+      </c>
+      <c r="E153" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F153" s="279">
+        <f t="shared" ref="F153:F154" si="41">D153+E153</f>
+        <v>10017.228000000003</v>
+      </c>
+      <c r="G153" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H153" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I153" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J153" s="274">
+        <f t="shared" si="39"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K153" s="276">
+        <f t="shared" si="40"/>
+        <v>0.21621485943778529</v>
+      </c>
+      <c r="L153" s="325"/>
+      <c r="M153" s="325"/>
+      <c r="N153" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="25.5">
+      <c r="A154" s="322"/>
+      <c r="B154" s="328"/>
+      <c r="C154" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D154" s="279">
+        <v>1023.3448</v>
+      </c>
+      <c r="E154" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F154" s="279">
+        <f t="shared" si="41"/>
+        <v>1023.6736</v>
+      </c>
+      <c r="G154" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H154" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I154" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J154" s="274">
+        <f t="shared" si="39"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K154" s="276">
+        <f t="shared" si="40"/>
+        <v>0.71999999999999653</v>
+      </c>
+      <c r="L154" s="325"/>
+      <c r="M154" s="325"/>
+      <c r="N154" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A155" s="323"/>
+      <c r="B155" s="282"/>
+      <c r="C155" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155" s="283">
+        <v>10082.250000000005</v>
+      </c>
+      <c r="E155" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F155" s="284">
+        <f>D155+E155</f>
+        <v>10085.540000000006</v>
+      </c>
+      <c r="G155" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H155" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I155" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J155" s="274">
+        <f t="shared" si="39"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K155" s="276">
+        <f t="shared" si="40"/>
+        <v>7.1478111186321358E-2</v>
+      </c>
+      <c r="L155" s="326"/>
+      <c r="M155" s="326"/>
+      <c r="N155" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A156" s="195" t="s">
+        <v>237</v>
+      </c>
+      <c r="B156" s="174">
+        <f>SUM(B150:B155)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D156" s="11">
+        <f>SUM(D150:D155)</f>
+        <v>50754.886500000008</v>
+      </c>
+      <c r="E156" s="61">
+        <f>SUM(E150:E155)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F156" s="11">
+        <f>SUM(F150:F155)</f>
+        <v>50766.042000000016</v>
+      </c>
+      <c r="G156" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H156" s="66">
+        <f>L150*10000</f>
+        <v>2.1979164508623219</v>
+      </c>
+      <c r="I156" s="158">
+        <f>SUM(I150:I155)</f>
+        <v>50600</v>
+      </c>
+      <c r="J156" s="68"/>
+      <c r="K156" s="68"/>
+      <c r="L156" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M156" s="66">
+        <f>M150*10000</f>
+        <v>802.23950456474745</v>
+      </c>
+      <c r="N156" s="196"/>
+    </row>
+    <row r="157" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A157" s="329" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D157" s="123">
+        <v>1413.61</v>
+      </c>
+      <c r="E157" s="124">
+        <v>0</v>
+      </c>
+      <c r="F157" s="124">
+        <f>D157+E157</f>
+        <v>1413.61</v>
+      </c>
+      <c r="G157" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H157" s="123">
+        <f>F157</f>
+        <v>1413.61</v>
+      </c>
+      <c r="I157" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J157" s="127">
+        <f>(H157-I157)/I157</f>
+        <v>-5.7593333333333399E-2</v>
+      </c>
+      <c r="K157" s="127"/>
+      <c r="L157" s="128"/>
+      <c r="M157" s="129"/>
+      <c r="N157" s="197"/>
+    </row>
+    <row r="158" spans="1:14" ht="25.5">
+      <c r="A158" s="330"/>
+      <c r="B158" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D158" s="131">
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="E158" s="132">
+        <v>0</v>
+      </c>
+      <c r="F158" s="132">
+        <f>D158+E158</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="G158" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H158" s="131">
+        <f>F158</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="I158" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J158" s="168">
+        <f>(H158-I158)/I158</f>
+        <v>-4.9266666666665819E-3</v>
+      </c>
+      <c r="K158" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L158" s="243">
+        <v>1.454</v>
+      </c>
+      <c r="M158" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N158" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="28.5">
+      <c r="A159" s="331"/>
+      <c r="B159" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C159" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D159" s="164">
+        <v>10500.269999999999</v>
+      </c>
+      <c r="E159" s="163">
+        <v>0.05</v>
+      </c>
+      <c r="F159" s="163">
+        <f>D159+E159</f>
+        <v>10500.319999999998</v>
+      </c>
+      <c r="G159" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="166">
+        <f>F159</f>
+        <v>10500.319999999998</v>
+      </c>
+      <c r="I159" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J159" s="239">
+        <f t="shared" ref="J159" si="42">E159/D159</f>
+        <v>4.7617823160737779E-6</v>
+      </c>
+      <c r="K159" s="277">
+        <f>(F159-I159)/I159</f>
+        <v>3.0476190475989522E-5</v>
+      </c>
+      <c r="L159" s="175"/>
+      <c r="M159" s="176"/>
+      <c r="N159" s="198"/>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="199"/>
+      <c r="B160" s="186"/>
+      <c r="C160" s="186"/>
+      <c r="D160" s="186"/>
+      <c r="E160" s="186"/>
+      <c r="F160" s="186"/>
+      <c r="G160" s="186"/>
+      <c r="H160" s="186"/>
+      <c r="I160" s="186"/>
+      <c r="J160" s="186"/>
+      <c r="K160" s="186"/>
+      <c r="L160" s="186"/>
+      <c r="M160" s="186"/>
+      <c r="N160" s="200"/>
+    </row>
+    <row r="161" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A161" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D161" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F161" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G161" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H161" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I161" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J161" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K161" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L161" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M161" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N161" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A162" s="203" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" s="205">
+        <f>F156+B156</f>
+        <v>51109.862000000016</v>
+      </c>
+      <c r="D162" s="205">
+        <f>I156</f>
+        <v>50600</v>
+      </c>
+      <c r="E162" s="206">
+        <v>26</v>
+      </c>
+      <c r="F162" s="207">
+        <f>C162-D162</f>
+        <v>509.86200000001554</v>
+      </c>
+      <c r="G162" s="208">
+        <f>F162/D162</f>
+        <v>1.0076324110672243E-2</v>
+      </c>
+      <c r="H162" s="207">
+        <f>F162/E162</f>
+        <v>19.610076923077521</v>
+      </c>
+      <c r="I162" s="208">
+        <f>G162/E162</f>
+        <v>3.875509273335478E-4</v>
+      </c>
+      <c r="J162" s="209">
+        <f>H162*10000/D162</f>
+        <v>3.8755092733354783</v>
+      </c>
+      <c r="K162" s="210">
+        <f>B156</f>
+        <v>343.82</v>
+      </c>
+      <c r="L162" s="210">
+        <f>F162-K162</f>
+        <v>166.04200000001555</v>
+      </c>
+      <c r="M162" s="208">
+        <f>I162*365</f>
+        <v>0.14145608847674496</v>
+      </c>
+      <c r="N162" s="211">
+        <f>H162*365</f>
+        <v>7157.6780769232955</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="L135:L140"/>
-    <mergeCell ref="M135:M140"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="L120:L125"/>
-    <mergeCell ref="M120:M125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
+  <mergeCells count="56">
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="L150:L155"/>
+    <mergeCell ref="M150:M155"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -15174,24 +15782,27 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="L135:L140"/>
+    <mergeCell ref="M135:M140"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A142:A144"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15368,20 +15979,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="341" t="s">
+      <c r="A17" s="342" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="342"/>
-      <c r="C17" s="342"/>
-      <c r="D17" s="342"/>
-      <c r="E17" s="342"/>
-      <c r="F17" s="342"/>
-      <c r="G17" s="342"/>
-      <c r="H17" s="342"/>
-      <c r="I17" s="342"/>
-      <c r="J17" s="342"/>
-      <c r="K17" s="342"/>
-      <c r="L17" s="343"/>
+      <c r="B17" s="343"/>
+      <c r="C17" s="343"/>
+      <c r="D17" s="343"/>
+      <c r="E17" s="343"/>
+      <c r="F17" s="343"/>
+      <c r="G17" s="343"/>
+      <c r="H17" s="343"/>
+      <c r="I17" s="343"/>
+      <c r="J17" s="343"/>
+      <c r="K17" s="343"/>
+      <c r="L17" s="344"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -15507,20 +16118,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="341" t="s">
+      <c r="A22" s="342" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="342"/>
-      <c r="C22" s="342"/>
-      <c r="D22" s="342"/>
-      <c r="E22" s="342"/>
-      <c r="F22" s="342"/>
-      <c r="G22" s="342"/>
-      <c r="H22" s="342"/>
-      <c r="I22" s="342"/>
-      <c r="J22" s="342"/>
-      <c r="K22" s="342"/>
-      <c r="L22" s="343"/>
+      <c r="B22" s="343"/>
+      <c r="C22" s="343"/>
+      <c r="D22" s="343"/>
+      <c r="E22" s="343"/>
+      <c r="F22" s="343"/>
+      <c r="G22" s="343"/>
+      <c r="H22" s="343"/>
+      <c r="I22" s="343"/>
+      <c r="J22" s="343"/>
+      <c r="K22" s="343"/>
+      <c r="L22" s="344"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="241">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1620,6 +1620,39 @@
   </si>
   <si>
     <t>6.22~7.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3070,7 +3103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3959,37 +3992,70 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4004,36 +4070,6 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4073,6 +4109,15 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4087,15 +4132,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4479,7 +4515,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="319">
+      <c r="F2" s="316">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4501,7 +4537,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="320"/>
+      <c r="F3" s="317"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4509,7 +4545,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="320"/>
+      <c r="F4" s="317"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4570,7 +4606,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="298" t="s">
+      <c r="A8" s="297" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4600,17 +4636,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="315">
+      <c r="K8" s="312">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="315">
+      <c r="L8" s="312">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="299"/>
+      <c r="A9" s="298"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4638,11 +4674,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="316"/>
-      <c r="L9" s="316"/>
+      <c r="K9" s="313"/>
+      <c r="L9" s="313"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="299"/>
+      <c r="A10" s="298"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4672,11 +4708,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="316"/>
-      <c r="L10" s="316"/>
+      <c r="K10" s="313"/>
+      <c r="L10" s="313"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="299"/>
+      <c r="A11" s="298"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4704,11 +4740,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="316"/>
-      <c r="L11" s="316"/>
+      <c r="K11" s="313"/>
+      <c r="L11" s="313"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="299"/>
+      <c r="A12" s="298"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4736,11 +4772,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="316"/>
-      <c r="L12" s="316"/>
+      <c r="K12" s="313"/>
+      <c r="L12" s="313"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="299"/>
+      <c r="A13" s="298"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4770,11 +4806,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="316"/>
-      <c r="L13" s="316"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="313"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="299"/>
+      <c r="A14" s="298"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4804,11 +4840,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="313"/>
+      <c r="L14" s="313"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="299"/>
+      <c r="A15" s="298"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4836,11 +4872,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="316"/>
-      <c r="L15" s="316"/>
+      <c r="K15" s="313"/>
+      <c r="L15" s="313"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="300"/>
+      <c r="A16" s="299"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4869,8 +4905,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="317"/>
-      <c r="L16" s="317"/>
+      <c r="K16" s="314"/>
+      <c r="L16" s="314"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -4951,7 +4987,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="298" t="s">
+      <c r="A20" s="297" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4983,17 +5019,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="314">
+      <c r="K20" s="311">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="314">
+      <c r="L20" s="311">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="299"/>
+      <c r="A21" s="298"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -5023,11 +5059,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="312"/>
-      <c r="L21" s="312"/>
+      <c r="K21" s="309"/>
+      <c r="L21" s="309"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="299"/>
+      <c r="A22" s="298"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -5057,11 +5093,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="312"/>
-      <c r="L22" s="312"/>
+      <c r="K22" s="309"/>
+      <c r="L22" s="309"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="299"/>
+      <c r="A23" s="298"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -5091,11 +5127,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="312"/>
-      <c r="L23" s="312"/>
+      <c r="K23" s="309"/>
+      <c r="L23" s="309"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="299"/>
+      <c r="A24" s="298"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5125,11 +5161,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="312"/>
-      <c r="L24" s="312"/>
+      <c r="K24" s="309"/>
+      <c r="L24" s="309"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="299"/>
+      <c r="A25" s="298"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5159,11 +5195,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="312"/>
-      <c r="L25" s="312"/>
+      <c r="K25" s="309"/>
+      <c r="L25" s="309"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="299"/>
+      <c r="A26" s="298"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5193,11 +5229,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="312"/>
-      <c r="L26" s="312"/>
+      <c r="K26" s="309"/>
+      <c r="L26" s="309"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="299"/>
+      <c r="A27" s="298"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5227,11 +5263,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="312"/>
-      <c r="L27" s="312"/>
+      <c r="K27" s="309"/>
+      <c r="L27" s="309"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="300"/>
+      <c r="A28" s="299"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5261,8 +5297,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="318"/>
-      <c r="L28" s="318"/>
+      <c r="K28" s="315"/>
+      <c r="L28" s="315"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5347,7 +5383,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="298" t="s">
+      <c r="A32" s="297" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5379,17 +5415,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="311">
+      <c r="K32" s="308">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="314">
+      <c r="L32" s="311">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="299"/>
+      <c r="A33" s="298"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5419,11 +5455,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="312"/>
-      <c r="L33" s="312"/>
+      <c r="K33" s="309"/>
+      <c r="L33" s="309"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="299"/>
+      <c r="A34" s="298"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5453,11 +5489,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="312"/>
-      <c r="L34" s="312"/>
+      <c r="K34" s="309"/>
+      <c r="L34" s="309"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="299"/>
+      <c r="A35" s="298"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5487,11 +5523,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="312"/>
-      <c r="L35" s="312"/>
+      <c r="K35" s="309"/>
+      <c r="L35" s="309"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="299"/>
+      <c r="A36" s="298"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5521,12 +5557,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="312"/>
-      <c r="L36" s="312"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="309"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="299"/>
-      <c r="B37" s="304" t="s">
+      <c r="A37" s="298"/>
+      <c r="B37" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5555,12 +5591,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="312"/>
-      <c r="L37" s="312"/>
+      <c r="K37" s="309"/>
+      <c r="L37" s="309"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="299"/>
-      <c r="B38" s="305"/>
+      <c r="A38" s="298"/>
+      <c r="B38" s="304"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5587,12 +5623,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="312"/>
-      <c r="L38" s="312"/>
+      <c r="K38" s="309"/>
+      <c r="L38" s="309"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="299"/>
-      <c r="B39" s="306"/>
+      <c r="A39" s="298"/>
+      <c r="B39" s="305"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5619,12 +5655,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="312"/>
-      <c r="L39" s="312"/>
+      <c r="K39" s="309"/>
+      <c r="L39" s="309"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="299"/>
-      <c r="B40" s="296" t="s">
+      <c r="A40" s="298"/>
+      <c r="B40" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5653,12 +5689,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="312"/>
-      <c r="L40" s="312"/>
+      <c r="K40" s="309"/>
+      <c r="L40" s="309"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="299"/>
-      <c r="B41" s="297"/>
+      <c r="A41" s="298"/>
+      <c r="B41" s="307"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5678,11 +5714,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="312"/>
-      <c r="L41" s="312"/>
+      <c r="K41" s="309"/>
+      <c r="L41" s="309"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="300"/>
+      <c r="A42" s="299"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5712,8 +5748,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="313"/>
-      <c r="L42" s="313"/>
+      <c r="K42" s="310"/>
+      <c r="L42" s="310"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5798,7 +5834,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="298" t="s">
+      <c r="A46" s="297" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5830,17 +5866,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="311">
+      <c r="K46" s="308">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="314">
+      <c r="L46" s="311">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="299"/>
+      <c r="A47" s="298"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5870,11 +5906,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="312"/>
-      <c r="L47" s="312"/>
+      <c r="K47" s="309"/>
+      <c r="L47" s="309"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="299"/>
+      <c r="A48" s="298"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -5904,11 +5940,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="312"/>
-      <c r="L48" s="312"/>
+      <c r="K48" s="309"/>
+      <c r="L48" s="309"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="299"/>
+      <c r="A49" s="298"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5938,11 +5974,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="312"/>
-      <c r="L49" s="312"/>
+      <c r="K49" s="309"/>
+      <c r="L49" s="309"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="299"/>
+      <c r="A50" s="298"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -5972,12 +6008,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="312"/>
-      <c r="L50" s="312"/>
+      <c r="K50" s="309"/>
+      <c r="L50" s="309"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="299"/>
-      <c r="B51" s="304" t="s">
+      <c r="A51" s="298"/>
+      <c r="B51" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -6006,12 +6042,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="312"/>
-      <c r="L51" s="312"/>
+      <c r="K51" s="309"/>
+      <c r="L51" s="309"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="299"/>
-      <c r="B52" s="305"/>
+      <c r="A52" s="298"/>
+      <c r="B52" s="304"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -6038,12 +6074,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="312"/>
-      <c r="L52" s="312"/>
+      <c r="K52" s="309"/>
+      <c r="L52" s="309"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="299"/>
-      <c r="B53" s="306"/>
+      <c r="A53" s="298"/>
+      <c r="B53" s="305"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -6070,12 +6106,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="312"/>
-      <c r="L53" s="312"/>
+      <c r="K53" s="309"/>
+      <c r="L53" s="309"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="299"/>
-      <c r="B54" s="296" t="s">
+      <c r="A54" s="298"/>
+      <c r="B54" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -6104,12 +6140,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="312"/>
-      <c r="L54" s="312"/>
+      <c r="K54" s="309"/>
+      <c r="L54" s="309"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="299"/>
-      <c r="B55" s="297"/>
+      <c r="A55" s="298"/>
+      <c r="B55" s="307"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6136,11 +6172,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="312"/>
-      <c r="L55" s="312"/>
+      <c r="K55" s="309"/>
+      <c r="L55" s="309"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="300"/>
+      <c r="A56" s="299"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6170,8 +6206,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="313"/>
-      <c r="L56" s="313"/>
+      <c r="K56" s="310"/>
+      <c r="L56" s="310"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6261,7 +6297,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="298" t="s">
+      <c r="A60" s="297" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6293,11 +6329,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="301">
+      <c r="K60" s="300">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="301">
+      <c r="L60" s="300">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6306,7 +6342,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="299"/>
+      <c r="A61" s="298"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6336,12 +6372,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="302"/>
-      <c r="L61" s="302"/>
+      <c r="K61" s="301"/>
+      <c r="L61" s="301"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="299"/>
+      <c r="A62" s="298"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6371,14 +6407,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="302"/>
-      <c r="L62" s="302"/>
+      <c r="K62" s="301"/>
+      <c r="L62" s="301"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="299"/>
+      <c r="A63" s="298"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6408,12 +6444,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="302"/>
-      <c r="L63" s="302"/>
+      <c r="K63" s="301"/>
+      <c r="L63" s="301"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="299"/>
+      <c r="A64" s="298"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6443,13 +6479,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="302"/>
-      <c r="L64" s="302"/>
+      <c r="K64" s="301"/>
+      <c r="L64" s="301"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="299"/>
-      <c r="B65" s="304" t="s">
+      <c r="A65" s="298"/>
+      <c r="B65" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6478,13 +6514,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="302"/>
-      <c r="L65" s="302"/>
+      <c r="K65" s="301"/>
+      <c r="L65" s="301"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="299"/>
-      <c r="B66" s="305"/>
+      <c r="A66" s="298"/>
+      <c r="B66" s="304"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6511,15 +6547,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="302"/>
-      <c r="L66" s="302"/>
+      <c r="K66" s="301"/>
+      <c r="L66" s="301"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="299"/>
-      <c r="B67" s="306"/>
+      <c r="A67" s="298"/>
+      <c r="B67" s="305"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6546,13 +6582,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="302"/>
-      <c r="L67" s="302"/>
+      <c r="K67" s="301"/>
+      <c r="L67" s="301"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="299"/>
-      <c r="B68" s="296" t="s">
+      <c r="A68" s="298"/>
+      <c r="B68" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6581,15 +6617,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="302"/>
-      <c r="L68" s="302"/>
+      <c r="K68" s="301"/>
+      <c r="L68" s="301"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="299"/>
-      <c r="B69" s="297"/>
+      <c r="A69" s="298"/>
+      <c r="B69" s="307"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6616,14 +6652,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="302"/>
-      <c r="L69" s="302"/>
+      <c r="K69" s="301"/>
+      <c r="L69" s="301"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="300"/>
+      <c r="A70" s="299"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6653,8 +6689,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="303"/>
-      <c r="L70" s="303"/>
+      <c r="K70" s="302"/>
+      <c r="L70" s="302"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6746,7 +6782,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="298" t="s">
+      <c r="A74" s="297" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6778,11 +6814,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="301">
+      <c r="K74" s="300">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="301">
+      <c r="L74" s="300">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6791,7 +6827,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="299"/>
+      <c r="A75" s="298"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6821,12 +6857,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="302"/>
-      <c r="L75" s="302"/>
+      <c r="K75" s="301"/>
+      <c r="L75" s="301"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="299"/>
+      <c r="A76" s="298"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6856,14 +6892,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="302"/>
-      <c r="L76" s="302"/>
+      <c r="K76" s="301"/>
+      <c r="L76" s="301"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="299"/>
+      <c r="A77" s="298"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -6893,12 +6929,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="302"/>
-      <c r="L77" s="302"/>
+      <c r="K77" s="301"/>
+      <c r="L77" s="301"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="299"/>
+      <c r="A78" s="298"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -6928,13 +6964,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="302"/>
-      <c r="L78" s="302"/>
+      <c r="K78" s="301"/>
+      <c r="L78" s="301"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="299"/>
-      <c r="B79" s="304" t="s">
+      <c r="A79" s="298"/>
+      <c r="B79" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6963,13 +6999,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="302"/>
-      <c r="L79" s="302"/>
+      <c r="K79" s="301"/>
+      <c r="L79" s="301"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="299"/>
-      <c r="B80" s="305"/>
+      <c r="A80" s="298"/>
+      <c r="B80" s="304"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -6995,15 +7031,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="302"/>
-      <c r="L80" s="302"/>
+      <c r="K80" s="301"/>
+      <c r="L80" s="301"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="299"/>
-      <c r="B81" s="305"/>
+      <c r="A81" s="298"/>
+      <c r="B81" s="304"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -7030,15 +7066,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="302"/>
-      <c r="L81" s="302"/>
+      <c r="K81" s="301"/>
+      <c r="L81" s="301"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="299"/>
-      <c r="B82" s="306"/>
+      <c r="A82" s="298"/>
+      <c r="B82" s="305"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -7065,13 +7101,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="302"/>
-      <c r="L82" s="302"/>
+      <c r="K82" s="301"/>
+      <c r="L82" s="301"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="299"/>
-      <c r="B83" s="296" t="s">
+      <c r="A83" s="298"/>
+      <c r="B83" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -7100,15 +7136,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="302"/>
-      <c r="L83" s="302"/>
+      <c r="K83" s="301"/>
+      <c r="L83" s="301"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="299"/>
-      <c r="B84" s="297"/>
+      <c r="A84" s="298"/>
+      <c r="B84" s="307"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7135,14 +7171,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="302"/>
-      <c r="L84" s="302"/>
+      <c r="K84" s="301"/>
+      <c r="L84" s="301"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="300"/>
+      <c r="A85" s="299"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7172,8 +7208,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="303"/>
-      <c r="L85" s="303"/>
+      <c r="K85" s="302"/>
+      <c r="L85" s="302"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7264,7 +7300,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="298" t="s">
+      <c r="A89" s="297" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7296,11 +7332,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="301">
+      <c r="K89" s="300">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="301">
+      <c r="L89" s="300">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7309,7 +7345,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="299"/>
+      <c r="A90" s="298"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7339,12 +7375,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="302"/>
-      <c r="L90" s="302"/>
+      <c r="K90" s="301"/>
+      <c r="L90" s="301"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="299"/>
+      <c r="A91" s="298"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7374,14 +7410,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="302"/>
-      <c r="L91" s="302"/>
+      <c r="K91" s="301"/>
+      <c r="L91" s="301"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="299"/>
+      <c r="A92" s="298"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7411,14 +7447,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="302"/>
-      <c r="L92" s="302"/>
+      <c r="K92" s="301"/>
+      <c r="L92" s="301"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="299"/>
+      <c r="A93" s="298"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7448,13 +7484,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="302"/>
-      <c r="L93" s="302"/>
+      <c r="K93" s="301"/>
+      <c r="L93" s="301"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="299"/>
-      <c r="B94" s="304" t="s">
+      <c r="A94" s="298"/>
+      <c r="B94" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7483,15 +7519,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="302"/>
-      <c r="L94" s="302"/>
+      <c r="K94" s="301"/>
+      <c r="L94" s="301"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="299"/>
-      <c r="B95" s="305"/>
+      <c r="A95" s="298"/>
+      <c r="B95" s="304"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7518,15 +7554,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="302"/>
-      <c r="L95" s="302"/>
+      <c r="K95" s="301"/>
+      <c r="L95" s="301"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="299"/>
-      <c r="B96" s="306"/>
+      <c r="A96" s="298"/>
+      <c r="B96" s="305"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7553,13 +7589,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="302"/>
-      <c r="L96" s="302"/>
+      <c r="K96" s="301"/>
+      <c r="L96" s="301"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="299"/>
-      <c r="B97" s="296" t="s">
+      <c r="A97" s="298"/>
+      <c r="B97" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7588,15 +7624,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="302"/>
-      <c r="L97" s="302"/>
+      <c r="K97" s="301"/>
+      <c r="L97" s="301"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="299"/>
-      <c r="B98" s="297"/>
+      <c r="A98" s="298"/>
+      <c r="B98" s="307"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7623,14 +7659,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="302"/>
-      <c r="L98" s="302"/>
+      <c r="K98" s="301"/>
+      <c r="L98" s="301"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="300"/>
+      <c r="A99" s="299"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7660,8 +7696,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="303"/>
-      <c r="L99" s="303"/>
+      <c r="K99" s="302"/>
+      <c r="L99" s="302"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7754,7 +7790,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="298" t="s">
+      <c r="A103" s="297" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7786,11 +7822,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="301">
+      <c r="K103" s="300">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="301">
+      <c r="L103" s="300">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7799,7 +7835,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="299"/>
+      <c r="A104" s="298"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7829,12 +7865,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="302"/>
-      <c r="L104" s="302"/>
+      <c r="K104" s="301"/>
+      <c r="L104" s="301"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="299"/>
+      <c r="A105" s="298"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7864,14 +7900,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="302"/>
-      <c r="L105" s="302"/>
+      <c r="K105" s="301"/>
+      <c r="L105" s="301"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="299"/>
+      <c r="A106" s="298"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -7900,14 +7936,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="302"/>
-      <c r="L106" s="302"/>
+      <c r="K106" s="301"/>
+      <c r="L106" s="301"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="299"/>
+      <c r="A107" s="298"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -7937,13 +7973,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="302"/>
-      <c r="L107" s="302"/>
+      <c r="K107" s="301"/>
+      <c r="L107" s="301"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="299"/>
-      <c r="B108" s="304" t="s">
+      <c r="A108" s="298"/>
+      <c r="B108" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -7972,15 +8008,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="302"/>
-      <c r="L108" s="302"/>
+      <c r="K108" s="301"/>
+      <c r="L108" s="301"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="299"/>
-      <c r="B109" s="305"/>
+      <c r="A109" s="298"/>
+      <c r="B109" s="304"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -8007,15 +8043,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="302"/>
-      <c r="L109" s="302"/>
+      <c r="K109" s="301"/>
+      <c r="L109" s="301"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="299"/>
-      <c r="B110" s="306"/>
+      <c r="A110" s="298"/>
+      <c r="B110" s="305"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -8042,13 +8078,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="302"/>
-      <c r="L110" s="302"/>
+      <c r="K110" s="301"/>
+      <c r="L110" s="301"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="299"/>
-      <c r="B111" s="296" t="s">
+      <c r="A111" s="298"/>
+      <c r="B111" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -8077,15 +8113,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="302"/>
-      <c r="L111" s="302"/>
+      <c r="K111" s="301"/>
+      <c r="L111" s="301"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="299"/>
-      <c r="B112" s="297"/>
+      <c r="A112" s="298"/>
+      <c r="B112" s="307"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -8112,14 +8148,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="302"/>
-      <c r="L112" s="302"/>
+      <c r="K112" s="301"/>
+      <c r="L112" s="301"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="300"/>
+      <c r="A113" s="299"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8149,8 +8185,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="303"/>
-      <c r="L113" s="303"/>
+      <c r="K113" s="302"/>
+      <c r="L113" s="302"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8243,7 +8279,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="298" t="s">
+      <c r="A117" s="297" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8275,11 +8311,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="301">
+      <c r="K117" s="300">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="301">
+      <c r="L117" s="300">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8288,7 +8324,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="299"/>
+      <c r="A118" s="298"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8318,12 +8354,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="302"/>
-      <c r="L118" s="302"/>
+      <c r="K118" s="301"/>
+      <c r="L118" s="301"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="299"/>
+      <c r="A119" s="298"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8353,14 +8389,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="302"/>
-      <c r="L119" s="302"/>
+      <c r="K119" s="301"/>
+      <c r="L119" s="301"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="299"/>
+      <c r="A120" s="298"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8390,13 +8426,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="302"/>
-      <c r="L120" s="302"/>
+      <c r="K120" s="301"/>
+      <c r="L120" s="301"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="299"/>
-      <c r="B121" s="304" t="s">
+      <c r="A121" s="298"/>
+      <c r="B121" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8425,15 +8461,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="302"/>
-      <c r="L121" s="302"/>
+      <c r="K121" s="301"/>
+      <c r="L121" s="301"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="299"/>
-      <c r="B122" s="305"/>
+      <c r="A122" s="298"/>
+      <c r="B122" s="304"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8460,15 +8496,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="302"/>
-      <c r="L122" s="302"/>
+      <c r="K122" s="301"/>
+      <c r="L122" s="301"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="299"/>
-      <c r="B123" s="306"/>
+      <c r="A123" s="298"/>
+      <c r="B123" s="305"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8495,13 +8531,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="302"/>
-      <c r="L123" s="302"/>
+      <c r="K123" s="301"/>
+      <c r="L123" s="301"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="299"/>
-      <c r="B124" s="296" t="s">
+      <c r="A124" s="298"/>
+      <c r="B124" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8530,15 +8566,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="302"/>
-      <c r="L124" s="302"/>
+      <c r="K124" s="301"/>
+      <c r="L124" s="301"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="299"/>
-      <c r="B125" s="297"/>
+      <c r="A125" s="298"/>
+      <c r="B125" s="307"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8565,14 +8601,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="302"/>
-      <c r="L125" s="302"/>
+      <c r="K125" s="301"/>
+      <c r="L125" s="301"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="300"/>
+      <c r="A126" s="299"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8602,8 +8638,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="303"/>
-      <c r="L126" s="303"/>
+      <c r="K126" s="302"/>
+      <c r="L126" s="302"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8696,7 +8732,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="298" t="s">
+      <c r="A130" s="297" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8728,11 +8764,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="301">
+      <c r="K130" s="300">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="301">
+      <c r="L130" s="300">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8741,7 +8777,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="299"/>
+      <c r="A131" s="298"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8771,12 +8807,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="302"/>
-      <c r="L131" s="302"/>
+      <c r="K131" s="301"/>
+      <c r="L131" s="301"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="299"/>
+      <c r="A132" s="298"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8806,14 +8842,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="302"/>
-      <c r="L132" s="302"/>
+      <c r="K132" s="301"/>
+      <c r="L132" s="301"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="299"/>
+      <c r="A133" s="298"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8843,13 +8879,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="302"/>
-      <c r="L133" s="302"/>
+      <c r="K133" s="301"/>
+      <c r="L133" s="301"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="299"/>
-      <c r="B134" s="304" t="s">
+      <c r="A134" s="298"/>
+      <c r="B134" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8878,15 +8914,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="302"/>
-      <c r="L134" s="302"/>
+      <c r="K134" s="301"/>
+      <c r="L134" s="301"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="299"/>
-      <c r="B135" s="305"/>
+      <c r="A135" s="298"/>
+      <c r="B135" s="304"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -8913,15 +8949,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="302"/>
-      <c r="L135" s="302"/>
+      <c r="K135" s="301"/>
+      <c r="L135" s="301"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="299"/>
-      <c r="B136" s="306"/>
+      <c r="A136" s="298"/>
+      <c r="B136" s="305"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -8948,13 +8984,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="302"/>
-      <c r="L136" s="302"/>
+      <c r="K136" s="301"/>
+      <c r="L136" s="301"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="299"/>
-      <c r="B137" s="296" t="s">
+      <c r="A137" s="298"/>
+      <c r="B137" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -8983,15 +9019,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="302"/>
-      <c r="L137" s="302"/>
+      <c r="K137" s="301"/>
+      <c r="L137" s="301"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="299"/>
-      <c r="B138" s="297"/>
+      <c r="A138" s="298"/>
+      <c r="B138" s="307"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -9018,14 +9054,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="302"/>
-      <c r="L138" s="302"/>
+      <c r="K138" s="301"/>
+      <c r="L138" s="301"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="300"/>
+      <c r="A139" s="299"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -9055,8 +9091,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="303"/>
-      <c r="L139" s="303"/>
+      <c r="K139" s="302"/>
+      <c r="L139" s="302"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9149,7 +9185,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="298" t="s">
+      <c r="A143" s="297" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9181,11 +9217,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="301">
+      <c r="K143" s="300">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="301">
+      <c r="L143" s="300">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9194,7 +9230,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="299"/>
+      <c r="A144" s="298"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9224,12 +9260,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="302"/>
-      <c r="L144" s="302"/>
+      <c r="K144" s="301"/>
+      <c r="L144" s="301"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="299"/>
+      <c r="A145" s="298"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9259,14 +9295,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="302"/>
-      <c r="L145" s="302"/>
+      <c r="K145" s="301"/>
+      <c r="L145" s="301"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="299"/>
+      <c r="A146" s="298"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9296,13 +9332,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="302"/>
-      <c r="L146" s="302"/>
+      <c r="K146" s="301"/>
+      <c r="L146" s="301"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="299"/>
-      <c r="B147" s="304" t="s">
+      <c r="A147" s="298"/>
+      <c r="B147" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9331,15 +9367,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="302"/>
-      <c r="L147" s="302"/>
+      <c r="K147" s="301"/>
+      <c r="L147" s="301"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="299"/>
-      <c r="B148" s="305"/>
+      <c r="A148" s="298"/>
+      <c r="B148" s="304"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9366,15 +9402,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="302"/>
-      <c r="L148" s="302"/>
+      <c r="K148" s="301"/>
+      <c r="L148" s="301"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="299"/>
-      <c r="B149" s="306"/>
+      <c r="A149" s="298"/>
+      <c r="B149" s="305"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9401,13 +9437,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="302"/>
-      <c r="L149" s="302"/>
+      <c r="K149" s="301"/>
+      <c r="L149" s="301"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="299"/>
-      <c r="B150" s="296" t="s">
+      <c r="A150" s="298"/>
+      <c r="B150" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9436,15 +9472,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="302"/>
-      <c r="L150" s="302"/>
+      <c r="K150" s="301"/>
+      <c r="L150" s="301"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="299"/>
-      <c r="B151" s="297"/>
+      <c r="A151" s="298"/>
+      <c r="B151" s="307"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9471,14 +9507,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="302"/>
-      <c r="L151" s="302"/>
+      <c r="K151" s="301"/>
+      <c r="L151" s="301"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="300"/>
+      <c r="A152" s="299"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9508,8 +9544,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="303"/>
-      <c r="L152" s="303"/>
+      <c r="K152" s="302"/>
+      <c r="L152" s="302"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9582,10 +9618,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="307" t="s">
+      <c r="H155" s="318" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="308"/>
+      <c r="I155" s="319"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9622,11 +9658,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="309">
+      <c r="H156" s="320">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="310"/>
+      <c r="I156" s="321"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9643,38 +9679,12 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9691,12 +9701,38 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9706,10 +9742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9772,7 +9808,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="298" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9803,11 +9839,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="325">
+      <c r="L2" s="326">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="325">
+      <c r="M2" s="326">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9816,7 +9852,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="299"/>
+      <c r="A3" s="298"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9845,14 +9881,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="299"/>
+      <c r="A4" s="298"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9883,13 +9919,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="325"/>
-      <c r="M4" s="325"/>
+      <c r="L4" s="326"/>
+      <c r="M4" s="326"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="299"/>
-      <c r="B5" s="304"/>
+      <c r="A5" s="298"/>
+      <c r="B5" s="303"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -9917,15 +9953,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="326"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="299"/>
-      <c r="B6" s="305"/>
+      <c r="A6" s="298"/>
+      <c r="B6" s="304"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -9953,15 +9989,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="325"/>
-      <c r="M6" s="325"/>
+      <c r="L6" s="326"/>
+      <c r="M6" s="326"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="299"/>
-      <c r="B7" s="306"/>
+      <c r="A7" s="298"/>
+      <c r="B7" s="305"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -9989,12 +10025,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="325"/>
-      <c r="M7" s="325"/>
+      <c r="L7" s="326"/>
+      <c r="M7" s="326"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="299"/>
+      <c r="A8" s="298"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -10023,14 +10059,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="325"/>
-      <c r="M8" s="325"/>
+      <c r="L8" s="326"/>
+      <c r="M8" s="326"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="300"/>
+      <c r="A9" s="299"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -10059,8 +10095,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="326"/>
-      <c r="M9" s="326"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10193,7 +10229,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="299" t="s">
+      <c r="A14" s="298" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10224,11 +10260,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="325">
+      <c r="L14" s="326">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="325">
+      <c r="M14" s="326">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10237,7 +10273,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="299"/>
+      <c r="A15" s="298"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10266,14 +10302,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="325"/>
-      <c r="M15" s="325"/>
+      <c r="L15" s="326"/>
+      <c r="M15" s="326"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="299"/>
+      <c r="A16" s="298"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10303,13 +10339,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="325"/>
-      <c r="M16" s="325"/>
+      <c r="L16" s="326"/>
+      <c r="M16" s="326"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="299"/>
-      <c r="B17" s="336"/>
+      <c r="A17" s="298"/>
+      <c r="B17" s="340"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10337,15 +10373,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="325"/>
-      <c r="M17" s="325"/>
+      <c r="L17" s="326"/>
+      <c r="M17" s="326"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="299"/>
-      <c r="B18" s="337"/>
+      <c r="A18" s="298"/>
+      <c r="B18" s="341"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10373,15 +10409,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="325"/>
-      <c r="M18" s="325"/>
+      <c r="L18" s="326"/>
+      <c r="M18" s="326"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="299"/>
-      <c r="B19" s="338"/>
+      <c r="A19" s="298"/>
+      <c r="B19" s="342"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10410,12 +10446,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="325"/>
-      <c r="M19" s="325"/>
+      <c r="L19" s="326"/>
+      <c r="M19" s="326"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="299"/>
+      <c r="A20" s="298"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10444,14 +10480,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="325"/>
-      <c r="M20" s="325"/>
+      <c r="L20" s="326"/>
+      <c r="M20" s="326"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="300"/>
+      <c r="A21" s="299"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10480,8 +10516,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="326"/>
-      <c r="M21" s="326"/>
+      <c r="L21" s="327"/>
+      <c r="M21" s="327"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10614,7 +10650,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="299" t="s">
+      <c r="A26" s="298" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10645,11 +10681,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="325">
+      <c r="L26" s="326">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="325">
+      <c r="M26" s="326">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10658,7 +10694,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="299"/>
+      <c r="A27" s="298"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10687,14 +10723,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
+      <c r="L27" s="326"/>
+      <c r="M27" s="326"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="299"/>
+      <c r="A28" s="298"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10724,13 +10760,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="325"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="326"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="299"/>
-      <c r="B29" s="336"/>
+      <c r="A29" s="298"/>
+      <c r="B29" s="340"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10758,15 +10794,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="325"/>
-      <c r="M29" s="325"/>
+      <c r="L29" s="326"/>
+      <c r="M29" s="326"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="299"/>
-      <c r="B30" s="337"/>
+      <c r="A30" s="298"/>
+      <c r="B30" s="341"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10794,15 +10830,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="325"/>
-      <c r="M30" s="325"/>
+      <c r="L30" s="326"/>
+      <c r="M30" s="326"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="299"/>
-      <c r="B31" s="338"/>
+      <c r="A31" s="298"/>
+      <c r="B31" s="342"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10831,12 +10867,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="325"/>
-      <c r="M31" s="325"/>
+      <c r="L31" s="326"/>
+      <c r="M31" s="326"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="299"/>
+      <c r="A32" s="298"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10865,14 +10901,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="325"/>
-      <c r="M32" s="325"/>
+      <c r="L32" s="326"/>
+      <c r="M32" s="326"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="300"/>
+      <c r="A33" s="299"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -10901,8 +10937,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="326"/>
-      <c r="M33" s="326"/>
+      <c r="L33" s="327"/>
+      <c r="M33" s="327"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -11035,7 +11071,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="299" t="s">
+      <c r="A38" s="298" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -11066,11 +11102,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="325">
+      <c r="L38" s="326">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="325">
+      <c r="M38" s="326">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -11079,7 +11115,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="299"/>
+      <c r="A39" s="298"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -11108,14 +11144,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="325"/>
-      <c r="M39" s="325"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="326"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="299"/>
+      <c r="A40" s="298"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11145,13 +11181,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="325"/>
-      <c r="M40" s="325"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="326"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="299"/>
-      <c r="B41" s="336"/>
+      <c r="A41" s="298"/>
+      <c r="B41" s="340"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11179,15 +11215,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="325"/>
-      <c r="M41" s="325"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="326"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="299"/>
-      <c r="B42" s="337"/>
+      <c r="A42" s="298"/>
+      <c r="B42" s="341"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11215,15 +11251,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="325"/>
-      <c r="M42" s="325"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="299"/>
-      <c r="B43" s="338"/>
+      <c r="A43" s="298"/>
+      <c r="B43" s="342"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11252,12 +11288,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="325"/>
-      <c r="M43" s="325"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="326"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="299"/>
+      <c r="A44" s="298"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11286,14 +11322,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="325"/>
-      <c r="M44" s="325"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="326"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="300"/>
+      <c r="A45" s="299"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11322,8 +11358,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="326"/>
-      <c r="M45" s="326"/>
+      <c r="L45" s="327"/>
+      <c r="M45" s="327"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11459,7 +11495,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="299" t="s">
+      <c r="A50" s="298" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11495,11 +11531,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="325">
+      <c r="L50" s="326">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="325">
+      <c r="M50" s="326">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11508,7 +11544,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="299"/>
+      <c r="A51" s="298"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11542,14 +11578,14 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="325"/>
-      <c r="M51" s="325"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="326"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="299"/>
+      <c r="A52" s="298"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11581,13 +11617,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="276"/>
-      <c r="L52" s="325"/>
-      <c r="M52" s="325"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="326"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="299"/>
-      <c r="B53" s="336">
+      <c r="A53" s="298"/>
+      <c r="B53" s="340">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11620,15 +11656,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="325"/>
-      <c r="M53" s="325"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="326"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="299"/>
-      <c r="B54" s="337"/>
+      <c r="A54" s="298"/>
+      <c r="B54" s="341"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11659,14 +11695,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="325"/>
-      <c r="M54" s="325"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="326"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="300"/>
+      <c r="A55" s="299"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11700,8 +11736,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="326"/>
-      <c r="M55" s="326"/>
+      <c r="L55" s="327"/>
+      <c r="M55" s="327"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11837,10 +11873,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="339" t="s">
+      <c r="A60" s="335" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="334">
+      <c r="B60" s="338">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11873,11 +11909,11 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="324">
+      <c r="L60" s="325">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="324">
+      <c r="M60" s="325">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11886,8 +11922,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="340"/>
-      <c r="B61" s="335"/>
+      <c r="A61" s="336"/>
+      <c r="B61" s="339"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -11918,14 +11954,14 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="325"/>
-      <c r="M61" s="325"/>
+      <c r="L61" s="326"/>
+      <c r="M61" s="326"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="340"/>
+      <c r="A62" s="336"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -11959,15 +11995,15 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="325"/>
-      <c r="M62" s="325"/>
+      <c r="L62" s="326"/>
+      <c r="M62" s="326"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="340"/>
-      <c r="B63" s="332">
+      <c r="A63" s="336"/>
+      <c r="B63" s="333">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -12000,15 +12036,15 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="325"/>
-      <c r="M63" s="325"/>
+      <c r="L63" s="326"/>
+      <c r="M63" s="326"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="340"/>
-      <c r="B64" s="333"/>
+      <c r="A64" s="336"/>
+      <c r="B64" s="334"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -12039,14 +12075,14 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="325"/>
-      <c r="M64" s="325"/>
+      <c r="L64" s="326"/>
+      <c r="M64" s="326"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="341"/>
+      <c r="A65" s="337"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -12080,8 +12116,8 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="326"/>
-      <c r="M65" s="326"/>
+      <c r="L65" s="327"/>
+      <c r="M65" s="327"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12407,10 +12443,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="321" t="s">
+      <c r="A76" s="322" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="334">
+      <c r="B76" s="338">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12443,11 +12479,11 @@
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="324">
+      <c r="L76" s="325">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="324">
+      <c r="M76" s="325">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12456,8 +12492,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="322"/>
-      <c r="B77" s="335"/>
+      <c r="A77" s="323"/>
+      <c r="B77" s="339"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12488,14 +12524,14 @@
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="325"/>
-      <c r="M77" s="325"/>
+      <c r="L77" s="326"/>
+      <c r="M77" s="326"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="322"/>
+      <c r="A78" s="323"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12529,15 +12565,15 @@
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="325"/>
-      <c r="M78" s="325"/>
+      <c r="L78" s="326"/>
+      <c r="M78" s="326"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="322"/>
-      <c r="B79" s="332">
+      <c r="A79" s="323"/>
+      <c r="B79" s="333">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12570,15 +12606,15 @@
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="325"/>
-      <c r="M79" s="325"/>
+      <c r="L79" s="326"/>
+      <c r="M79" s="326"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="322"/>
-      <c r="B80" s="333"/>
+      <c r="A80" s="323"/>
+      <c r="B80" s="334"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12609,14 +12645,14 @@
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="325"/>
-      <c r="M80" s="325"/>
+      <c r="L80" s="326"/>
+      <c r="M80" s="326"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="323"/>
+      <c r="A81" s="324"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12650,8 +12686,8 @@
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="326"/>
-      <c r="M81" s="326"/>
+      <c r="L81" s="327"/>
+      <c r="M81" s="327"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12702,7 +12738,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="329" t="s">
+      <c r="A83" s="330" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12741,7 +12777,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="330"/>
+      <c r="A84" s="331"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12786,7 +12822,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="331"/>
+      <c r="A85" s="332"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -12986,7 +13022,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="321" t="s">
+      <c r="A91" s="322" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -13022,11 +13058,11 @@
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="324">
+      <c r="L91" s="325">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="324">
+      <c r="M91" s="325">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -13035,7 +13071,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="322"/>
+      <c r="A92" s="323"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -13069,15 +13105,15 @@
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="325"/>
-      <c r="M92" s="325"/>
+      <c r="L92" s="326"/>
+      <c r="M92" s="326"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="322"/>
-      <c r="B93" s="332">
+      <c r="A93" s="323"/>
+      <c r="B93" s="333">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -13110,15 +13146,15 @@
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="325"/>
-      <c r="M93" s="325"/>
+      <c r="L93" s="326"/>
+      <c r="M93" s="326"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="322"/>
-      <c r="B94" s="333"/>
+      <c r="A94" s="323"/>
+      <c r="B94" s="334"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13149,14 +13185,14 @@
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="325"/>
-      <c r="M94" s="325"/>
+      <c r="L94" s="326"/>
+      <c r="M94" s="326"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="323"/>
+      <c r="A95" s="324"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13190,8 +13226,8 @@
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="326"/>
-      <c r="M95" s="326"/>
+      <c r="L95" s="327"/>
+      <c r="M95" s="327"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13242,7 +13278,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="329" t="s">
+      <c r="A97" s="330" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13281,7 +13317,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="330"/>
+      <c r="A98" s="331"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13326,7 +13362,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="331"/>
+      <c r="A99" s="332"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13526,7 +13562,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="321" t="s">
+      <c r="A105" s="322" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
@@ -13551,18 +13587,18 @@
       </c>
       <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="324">
+      <c r="L105" s="325">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="324">
+      <c r="M105" s="325">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="322"/>
+      <c r="A106" s="323"/>
       <c r="B106" s="269">
         <v>28</v>
       </c>
@@ -13596,14 +13632,14 @@
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="325"/>
-      <c r="M106" s="325"/>
+      <c r="L106" s="326"/>
+      <c r="M106" s="326"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="322"/>
+      <c r="A107" s="323"/>
       <c r="B107" s="286">
         <v>117.98</v>
       </c>
@@ -13637,15 +13673,15 @@
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="325"/>
-      <c r="M107" s="325"/>
+      <c r="L107" s="326"/>
+      <c r="M107" s="326"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="322"/>
-      <c r="B108" s="327">
+      <c r="A108" s="323"/>
+      <c r="B108" s="328">
         <v>118.93</v>
       </c>
       <c r="C108" s="293" t="s">
@@ -13678,15 +13714,15 @@
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="325"/>
-      <c r="M108" s="325"/>
+      <c r="L108" s="326"/>
+      <c r="M108" s="326"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="322"/>
-      <c r="B109" s="328"/>
+      <c r="A109" s="323"/>
+      <c r="B109" s="329"/>
       <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
@@ -13717,14 +13753,14 @@
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="325"/>
-      <c r="M109" s="325"/>
+      <c r="L109" s="326"/>
+      <c r="M109" s="326"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="323"/>
+      <c r="A110" s="324"/>
       <c r="B110" s="282"/>
       <c r="C110" s="294" t="s">
         <v>177</v>
@@ -13756,8 +13792,8 @@
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="326"/>
-      <c r="M110" s="326"/>
+      <c r="L110" s="327"/>
+      <c r="M110" s="327"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -13808,7 +13844,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="329" t="s">
+      <c r="A112" s="330" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -13847,7 +13883,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="330"/>
+      <c r="A113" s="331"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -13892,7 +13928,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="331"/>
+      <c r="A114" s="332"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
@@ -14092,7 +14128,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1">
-      <c r="A120" s="321" t="s">
+      <c r="A120" s="322" t="s">
         <v>231</v>
       </c>
       <c r="B120" s="262">
@@ -14117,18 +14153,18 @@
       </c>
       <c r="J120" s="268"/>
       <c r="K120" s="153"/>
-      <c r="L120" s="324">
+      <c r="L120" s="325">
         <f>E126/D126</f>
         <v>2.1988830431051147E-4</v>
       </c>
-      <c r="M120" s="324">
+      <c r="M120" s="325">
         <f>L120*365</f>
         <v>8.0259231073336684E-2</v>
       </c>
       <c r="N120" s="191"/>
     </row>
     <row r="121" spans="1:14" ht="25.5">
-      <c r="A121" s="322"/>
+      <c r="A121" s="323"/>
       <c r="B121" s="269">
         <v>28</v>
       </c>
@@ -14162,14 +14198,14 @@
         <f>(F121-I121)/(H121-I121)</f>
         <v>1.4044843630942055E-2</v>
       </c>
-      <c r="L121" s="325"/>
-      <c r="M121" s="325"/>
+      <c r="L121" s="326"/>
+      <c r="M121" s="326"/>
       <c r="N121" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="25.5">
-      <c r="A122" s="322"/>
+      <c r="A122" s="323"/>
       <c r="B122" s="286">
         <v>117.98</v>
       </c>
@@ -14203,15 +14239,15 @@
         <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
         <v>0.23999999999995447</v>
       </c>
-      <c r="L122" s="325"/>
-      <c r="M122" s="325"/>
+      <c r="L122" s="326"/>
+      <c r="M122" s="326"/>
       <c r="N122" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="25.5">
-      <c r="A123" s="322"/>
-      <c r="B123" s="327">
+      <c r="A123" s="323"/>
+      <c r="B123" s="328">
         <v>118.93</v>
       </c>
       <c r="C123" s="293" t="s">
@@ -14244,15 +14280,15 @@
         <f t="shared" si="32"/>
         <v>0.16216114457833897</v>
       </c>
-      <c r="L123" s="325"/>
-      <c r="M123" s="325"/>
+      <c r="L123" s="326"/>
+      <c r="M123" s="326"/>
       <c r="N123" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="25.5">
-      <c r="A124" s="322"/>
-      <c r="B124" s="328"/>
+      <c r="A124" s="323"/>
+      <c r="B124" s="329"/>
       <c r="C124" s="293" t="s">
         <v>179</v>
       </c>
@@ -14283,14 +14319,14 @@
         <f t="shared" si="32"/>
         <v>0.69999999999999651</v>
       </c>
-      <c r="L124" s="325"/>
-      <c r="M124" s="325"/>
+      <c r="L124" s="326"/>
+      <c r="M124" s="326"/>
       <c r="N124" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A125" s="323"/>
+      <c r="A125" s="324"/>
       <c r="B125" s="282"/>
       <c r="C125" s="294" t="s">
         <v>177</v>
@@ -14322,8 +14358,8 @@
         <f t="shared" si="32"/>
         <v>6.5979794941218667E-2</v>
       </c>
-      <c r="L125" s="326"/>
-      <c r="M125" s="326"/>
+      <c r="L125" s="327"/>
+      <c r="M125" s="327"/>
       <c r="N125" s="194" t="s">
         <v>135</v>
       </c>
@@ -14374,7 +14410,7 @@
       <c r="N126" s="196"/>
     </row>
     <row r="127" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A127" s="329" t="s">
+      <c r="A127" s="330" t="s">
         <v>196</v>
       </c>
       <c r="B127" s="122" t="s">
@@ -14413,7 +14449,7 @@
       <c r="N127" s="197"/>
     </row>
     <row r="128" spans="1:14" ht="25.5">
-      <c r="A128" s="330"/>
+      <c r="A128" s="331"/>
       <c r="B128" s="130" t="s">
         <v>138</v>
       </c>
@@ -14458,7 +14494,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="28.5">
-      <c r="A129" s="331"/>
+      <c r="A129" s="332"/>
       <c r="B129" s="162">
         <v>7.12</v>
       </c>
@@ -14658,7 +14694,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" thickBot="1">
-      <c r="A135" s="321" t="s">
+      <c r="A135" s="322" t="s">
         <v>233</v>
       </c>
       <c r="B135" s="262">
@@ -14683,18 +14719,18 @@
       </c>
       <c r="J135" s="268"/>
       <c r="K135" s="153"/>
-      <c r="L135" s="324">
+      <c r="L135" s="325">
         <f>E141/D141</f>
         <v>2.1983996407359162E-4</v>
       </c>
-      <c r="M135" s="324">
+      <c r="M135" s="325">
         <f>L135*365</f>
         <v>8.0241586886860936E-2</v>
       </c>
       <c r="N135" s="191"/>
     </row>
     <row r="136" spans="1:14" ht="25.5">
-      <c r="A136" s="322"/>
+      <c r="A136" s="323"/>
       <c r="B136" s="269">
         <v>28</v>
       </c>
@@ -14728,14 +14764,14 @@
         <f>(F136-I136)/(H136-I136)</f>
         <v>1.6853812357130467E-2</v>
       </c>
-      <c r="L136" s="325"/>
-      <c r="M136" s="325"/>
+      <c r="L136" s="326"/>
+      <c r="M136" s="326"/>
       <c r="N136" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="25.5">
-      <c r="A137" s="322"/>
+      <c r="A137" s="323"/>
       <c r="B137" s="286">
         <v>117.98</v>
       </c>
@@ -14769,15 +14805,15 @@
         <f t="shared" ref="K137:K140" si="36">(F137-I137)/(H137-I137)</f>
         <v>0.2799999999999469</v>
       </c>
-      <c r="L137" s="325"/>
-      <c r="M137" s="325"/>
+      <c r="L137" s="326"/>
+      <c r="M137" s="326"/>
       <c r="N137" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5">
-      <c r="A138" s="322"/>
-      <c r="B138" s="327">
+      <c r="A138" s="323"/>
+      <c r="B138" s="328">
         <v>118.93</v>
       </c>
       <c r="C138" s="293" t="s">
@@ -14810,15 +14846,15 @@
         <f t="shared" si="36"/>
         <v>0.18918800200806213</v>
       </c>
-      <c r="L138" s="325"/>
-      <c r="M138" s="325"/>
+      <c r="L138" s="326"/>
+      <c r="M138" s="326"/>
       <c r="N138" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="25.5">
-      <c r="A139" s="322"/>
-      <c r="B139" s="328"/>
+      <c r="A139" s="323"/>
+      <c r="B139" s="329"/>
       <c r="C139" s="293" t="s">
         <v>179</v>
       </c>
@@ -14849,14 +14885,14 @@
         <f t="shared" si="36"/>
         <v>0.70999999999999652</v>
       </c>
-      <c r="L139" s="325"/>
-      <c r="M139" s="325"/>
+      <c r="L139" s="326"/>
+      <c r="M139" s="326"/>
       <c r="N139" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A140" s="323"/>
+      <c r="A140" s="324"/>
       <c r="B140" s="282"/>
       <c r="C140" s="294" t="s">
         <v>177</v>
@@ -14888,8 +14924,8 @@
         <f t="shared" si="36"/>
         <v>6.8728953063770012E-2</v>
       </c>
-      <c r="L140" s="326"/>
-      <c r="M140" s="326"/>
+      <c r="L140" s="327"/>
+      <c r="M140" s="327"/>
       <c r="N140" s="194" t="s">
         <v>135</v>
       </c>
@@ -14940,7 +14976,7 @@
       <c r="N141" s="196"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A142" s="329" t="s">
+      <c r="A142" s="330" t="s">
         <v>196</v>
       </c>
       <c r="B142" s="122" t="s">
@@ -14979,7 +15015,7 @@
       <c r="N142" s="197"/>
     </row>
     <row r="143" spans="1:14" ht="25.5">
-      <c r="A143" s="330"/>
+      <c r="A143" s="331"/>
       <c r="B143" s="130" t="s">
         <v>138</v>
       </c>
@@ -15024,7 +15060,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="28.5">
-      <c r="A144" s="331"/>
+      <c r="A144" s="332"/>
       <c r="B144" s="162">
         <v>7.12</v>
       </c>
@@ -15224,7 +15260,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" thickBot="1">
-      <c r="A150" s="321" t="s">
+      <c r="A150" s="322" t="s">
         <v>236</v>
       </c>
       <c r="B150" s="295">
@@ -15249,18 +15285,18 @@
       </c>
       <c r="J150" s="268"/>
       <c r="K150" s="153"/>
-      <c r="L150" s="324">
+      <c r="L150" s="325">
         <f>E156/D156</f>
         <v>2.197916450862322E-4</v>
       </c>
-      <c r="M150" s="324">
+      <c r="M150" s="325">
         <f>L150*365</f>
         <v>8.0223950456474749E-2</v>
       </c>
       <c r="N150" s="191"/>
     </row>
     <row r="151" spans="1:14" ht="25.5">
-      <c r="A151" s="322"/>
+      <c r="A151" s="323"/>
       <c r="B151" s="269">
         <v>28</v>
       </c>
@@ -15294,14 +15330,14 @@
         <f>(F151-I151)/(H151-I151)</f>
         <v>1.9662781083318877E-2</v>
       </c>
-      <c r="L151" s="325"/>
-      <c r="M151" s="325"/>
+      <c r="L151" s="326"/>
+      <c r="M151" s="326"/>
       <c r="N151" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="25.5">
-      <c r="A152" s="322"/>
+      <c r="A152" s="323"/>
       <c r="B152" s="286">
         <v>117.98</v>
       </c>
@@ -15335,15 +15371,15 @@
         <f t="shared" ref="K152:K155" si="40">(F152-I152)/(H152-I152)</f>
         <v>0.31999999999993928</v>
       </c>
-      <c r="L152" s="325"/>
-      <c r="M152" s="325"/>
+      <c r="L152" s="326"/>
+      <c r="M152" s="326"/>
       <c r="N152" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="25.5">
-      <c r="A153" s="322"/>
-      <c r="B153" s="327">
+      <c r="A153" s="323"/>
+      <c r="B153" s="328">
         <v>118.93</v>
       </c>
       <c r="C153" s="293" t="s">
@@ -15376,15 +15412,15 @@
         <f t="shared" si="40"/>
         <v>0.21621485943778529</v>
       </c>
-      <c r="L153" s="325"/>
-      <c r="M153" s="325"/>
+      <c r="L153" s="326"/>
+      <c r="M153" s="326"/>
       <c r="N153" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="25.5">
-      <c r="A154" s="322"/>
-      <c r="B154" s="328"/>
+      <c r="A154" s="323"/>
+      <c r="B154" s="329"/>
       <c r="C154" s="293" t="s">
         <v>179</v>
       </c>
@@ -15415,14 +15451,14 @@
         <f t="shared" si="40"/>
         <v>0.71999999999999653</v>
       </c>
-      <c r="L154" s="325"/>
-      <c r="M154" s="325"/>
+      <c r="L154" s="326"/>
+      <c r="M154" s="326"/>
       <c r="N154" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A155" s="323"/>
+      <c r="A155" s="324"/>
       <c r="B155" s="282"/>
       <c r="C155" s="294" t="s">
         <v>177</v>
@@ -15454,8 +15490,8 @@
         <f t="shared" si="40"/>
         <v>7.1478111186321358E-2</v>
       </c>
-      <c r="L155" s="326"/>
-      <c r="M155" s="326"/>
+      <c r="L155" s="327"/>
+      <c r="M155" s="327"/>
       <c r="N155" s="194" t="s">
         <v>135</v>
       </c>
@@ -15506,7 +15542,7 @@
       <c r="N156" s="196"/>
     </row>
     <row r="157" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A157" s="329" t="s">
+      <c r="A157" s="330" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="122" t="s">
@@ -15545,7 +15581,7 @@
       <c r="N157" s="197"/>
     </row>
     <row r="158" spans="1:14" ht="25.5">
-      <c r="A158" s="330"/>
+      <c r="A158" s="331"/>
       <c r="B158" s="130" t="s">
         <v>138</v>
       </c>
@@ -15590,7 +15626,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="28.5">
-      <c r="A159" s="331"/>
+      <c r="A159" s="332"/>
       <c r="B159" s="162">
         <v>7.12</v>
       </c>
@@ -15744,32 +15780,601 @@
         <v>7157.6780769232955</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="15" thickTop="1"/>
+    <row r="163" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="164" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A164" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C164" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J164" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K164" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L164" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M164" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N164" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15" thickBot="1">
+      <c r="A165" s="322" t="s">
+        <v>239</v>
+      </c>
+      <c r="B165" s="296">
+        <v>78.91</v>
+      </c>
+      <c r="C165" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D165" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E165" s="264"/>
+      <c r="F165" s="264">
+        <f>D165</f>
+        <v>11100</v>
+      </c>
+      <c r="G165" s="265"/>
+      <c r="H165" s="266"/>
+      <c r="I165" s="267">
+        <f>D165</f>
+        <v>11100</v>
+      </c>
+      <c r="J165" s="268"/>
+      <c r="K165" s="153"/>
+      <c r="L165" s="325">
+        <f>E171/D171</f>
+        <v>2.1974334733442479E-4</v>
+      </c>
+      <c r="M165" s="325">
+        <f>L165*365</f>
+        <v>8.0206321777065048E-2</v>
+      </c>
+      <c r="N165" s="191"/>
+    </row>
+    <row r="166" spans="1:14" ht="25.5">
+      <c r="A166" s="323"/>
+      <c r="B166" s="269">
+        <v>28</v>
+      </c>
+      <c r="C166" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D166" s="270">
+        <v>8524.2564000000039</v>
+      </c>
+      <c r="E166" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F166" s="270">
+        <f>D166+E166</f>
+        <v>8527.7216000000044</v>
+      </c>
+      <c r="G166" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H166" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I166" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J166" s="274">
+        <f>E166/I166</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K166" s="275">
+        <f>(F166-I166)/(H166-I166)</f>
+        <v>2.247174980950729E-2</v>
+      </c>
+      <c r="L166" s="326"/>
+      <c r="M166" s="326"/>
+      <c r="N166" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="25.5">
+      <c r="A167" s="323"/>
+      <c r="B167" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C167" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D167" s="287">
+        <v>10015.343999999997</v>
+      </c>
+      <c r="E167" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F167" s="287">
+        <f>D167+E167</f>
+        <v>10017.261999999997</v>
+      </c>
+      <c r="G167" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H167" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I167" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J167" s="274">
+        <f t="shared" ref="J167:J170" si="43">E167/I167</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K167" s="276">
+        <f t="shared" ref="K167:K170" si="44">(F167-I167)/(H167-I167)</f>
+        <v>0.35999999999993171</v>
+      </c>
+      <c r="L167" s="326"/>
+      <c r="M167" s="326"/>
+      <c r="N167" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="25.5">
+      <c r="A168" s="323"/>
+      <c r="B168" s="328">
+        <v>118.93</v>
+      </c>
+      <c r="C168" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" s="279">
+        <v>10017.228000000003</v>
+      </c>
+      <c r="E168" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F168" s="279">
+        <f t="shared" ref="F168:F169" si="45">D168+E168</f>
+        <v>10019.381500000003</v>
+      </c>
+      <c r="G168" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H168" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I168" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J168" s="274">
+        <f t="shared" si="43"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K168" s="276">
+        <f t="shared" si="44"/>
+        <v>0.24324171686750845</v>
+      </c>
+      <c r="L168" s="326"/>
+      <c r="M168" s="326"/>
+      <c r="N168" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="25.5">
+      <c r="A169" s="323"/>
+      <c r="B169" s="329"/>
+      <c r="C169" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" s="279">
+        <v>1023.6736</v>
+      </c>
+      <c r="E169" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F169" s="279">
+        <f t="shared" si="45"/>
+        <v>1024.0023999999999</v>
+      </c>
+      <c r="G169" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H169" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I169" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J169" s="274">
+        <f t="shared" si="43"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K169" s="276">
+        <f t="shared" si="44"/>
+        <v>0.7299999999999931</v>
+      </c>
+      <c r="L169" s="326"/>
+      <c r="M169" s="326"/>
+      <c r="N169" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A170" s="324"/>
+      <c r="B170" s="282"/>
+      <c r="C170" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D170" s="283">
+        <v>10085.540000000006</v>
+      </c>
+      <c r="E170" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F170" s="284">
+        <f>D170+E170</f>
+        <v>10088.830000000007</v>
+      </c>
+      <c r="G170" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H170" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I170" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J170" s="274">
+        <f t="shared" si="43"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K170" s="276">
+        <f t="shared" si="44"/>
+        <v>7.4227269308872704E-2</v>
+      </c>
+      <c r="L170" s="327"/>
+      <c r="M170" s="327"/>
+      <c r="N170" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A171" s="195" t="s">
+        <v>79</v>
+      </c>
+      <c r="B171" s="174">
+        <f>SUM(B165:B170)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D171" s="11">
+        <f>SUM(D165:D170)</f>
+        <v>50766.042000000016</v>
+      </c>
+      <c r="E171" s="61">
+        <f>SUM(E165:E170)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F171" s="11">
+        <f>SUM(F165:F170)</f>
+        <v>50777.197500000009</v>
+      </c>
+      <c r="G171" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H171" s="66">
+        <f>L165*10000</f>
+        <v>2.197433473344248</v>
+      </c>
+      <c r="I171" s="158">
+        <f>SUM(I165:I170)</f>
+        <v>50600</v>
+      </c>
+      <c r="J171" s="68"/>
+      <c r="K171" s="68"/>
+      <c r="L171" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M171" s="66">
+        <f>M165*10000</f>
+        <v>802.06321777065045</v>
+      </c>
+      <c r="N171" s="196"/>
+    </row>
+    <row r="172" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A172" s="330" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C172" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D172" s="123">
+        <v>1413.61</v>
+      </c>
+      <c r="E172" s="124">
+        <v>0</v>
+      </c>
+      <c r="F172" s="124">
+        <f>D172+E172</f>
+        <v>1413.61</v>
+      </c>
+      <c r="G172" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H172" s="123">
+        <f>F172</f>
+        <v>1413.61</v>
+      </c>
+      <c r="I172" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J172" s="127">
+        <f>(H172-I172)/I172</f>
+        <v>-5.7593333333333399E-2</v>
+      </c>
+      <c r="K172" s="127"/>
+      <c r="L172" s="128"/>
+      <c r="M172" s="129"/>
+      <c r="N172" s="197"/>
+    </row>
+    <row r="173" spans="1:14" ht="25.5">
+      <c r="A173" s="331"/>
+      <c r="B173" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C173" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D173" s="131">
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="E173" s="132">
+        <v>0</v>
+      </c>
+      <c r="F173" s="132">
+        <f>D173+E173</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="G173" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H173" s="131">
+        <f>F173</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="I173" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J173" s="168">
+        <f>(H173-I173)/I173</f>
+        <v>-4.9266666666665819E-3</v>
+      </c>
+      <c r="K173" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L173" s="243">
+        <v>1.454</v>
+      </c>
+      <c r="M173" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N173" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="28.5">
+      <c r="A174" s="332"/>
+      <c r="B174" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C174" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D174" s="164">
+        <v>10500.319999999998</v>
+      </c>
+      <c r="E174" s="163">
+        <v>0.6</v>
+      </c>
+      <c r="F174" s="163">
+        <f>D174+E174</f>
+        <v>10500.919999999998</v>
+      </c>
+      <c r="G174" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="166">
+        <f>F174</f>
+        <v>10500.919999999998</v>
+      </c>
+      <c r="I174" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J174" s="239">
+        <f t="shared" ref="J174" si="46">E174/D174</f>
+        <v>5.7141115699331078E-5</v>
+      </c>
+      <c r="K174" s="277">
+        <f>(F174-I174)/I174</f>
+        <v>8.7619047618881307E-5</v>
+      </c>
+      <c r="L174" s="175"/>
+      <c r="M174" s="176"/>
+      <c r="N174" s="198"/>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="199"/>
+      <c r="B175" s="186"/>
+      <c r="C175" s="186"/>
+      <c r="D175" s="186"/>
+      <c r="E175" s="186"/>
+      <c r="F175" s="186"/>
+      <c r="G175" s="186"/>
+      <c r="H175" s="186"/>
+      <c r="I175" s="186"/>
+      <c r="J175" s="186"/>
+      <c r="K175" s="186"/>
+      <c r="L175" s="186"/>
+      <c r="M175" s="186"/>
+      <c r="N175" s="200"/>
+    </row>
+    <row r="176" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A176" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D176" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F176" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G176" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H176" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I176" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J176" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K176" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L176" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M176" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N176" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A177" s="203" t="s">
+        <v>240</v>
+      </c>
+      <c r="B177" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C177" s="205">
+        <f>F171+B171</f>
+        <v>51121.017500000009</v>
+      </c>
+      <c r="D177" s="205">
+        <f>I171</f>
+        <v>50600</v>
+      </c>
+      <c r="E177" s="206">
+        <v>27</v>
+      </c>
+      <c r="F177" s="207">
+        <f>C177-D177</f>
+        <v>521.01750000000902</v>
+      </c>
+      <c r="G177" s="208">
+        <f>F177/D177</f>
+        <v>1.0296788537549586E-2</v>
+      </c>
+      <c r="H177" s="207">
+        <f>F177/E177</f>
+        <v>19.29694444444478</v>
+      </c>
+      <c r="I177" s="208">
+        <f>G177/E177</f>
+        <v>3.8136253842776244E-4</v>
+      </c>
+      <c r="J177" s="209">
+        <f>H177*10000/D177</f>
+        <v>3.813625384277624</v>
+      </c>
+      <c r="K177" s="210">
+        <f>B171</f>
+        <v>343.82</v>
+      </c>
+      <c r="L177" s="210">
+        <f>F177-K177</f>
+        <v>177.19750000000903</v>
+      </c>
+      <c r="M177" s="208">
+        <f>I177*365</f>
+        <v>0.13919732652613329</v>
+      </c>
+      <c r="N177" s="211">
+        <f>H177*365</f>
+        <v>7043.3847222223449</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="L150:L155"/>
-    <mergeCell ref="M150:M155"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="61">
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="L165:L170"/>
+    <mergeCell ref="M165:M170"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="L135:L140"/>
+    <mergeCell ref="M135:M140"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -15782,27 +16387,29 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="L120:L125"/>
-    <mergeCell ref="M120:M125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="L135:L140"/>
-    <mergeCell ref="M135:M140"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="L150:L155"/>
+    <mergeCell ref="M150:M155"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A157:A159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15979,20 +16586,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="342" t="s">
+      <c r="A17" s="343" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="343"/>
-      <c r="C17" s="343"/>
-      <c r="D17" s="343"/>
-      <c r="E17" s="343"/>
-      <c r="F17" s="343"/>
-      <c r="G17" s="343"/>
-      <c r="H17" s="343"/>
-      <c r="I17" s="343"/>
-      <c r="J17" s="343"/>
-      <c r="K17" s="343"/>
-      <c r="L17" s="344"/>
+      <c r="B17" s="344"/>
+      <c r="C17" s="344"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="344"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="344"/>
+      <c r="L17" s="345"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -16118,20 +16725,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="342" t="s">
+      <c r="A22" s="343" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="343"/>
-      <c r="C22" s="343"/>
-      <c r="D22" s="343"/>
-      <c r="E22" s="343"/>
-      <c r="F22" s="343"/>
-      <c r="G22" s="343"/>
-      <c r="H22" s="343"/>
-      <c r="I22" s="343"/>
-      <c r="J22" s="343"/>
-      <c r="K22" s="343"/>
-      <c r="L22" s="344"/>
+      <c r="B22" s="344"/>
+      <c r="C22" s="344"/>
+      <c r="D22" s="344"/>
+      <c r="E22" s="344"/>
+      <c r="F22" s="344"/>
+      <c r="G22" s="344"/>
+      <c r="H22" s="344"/>
+      <c r="I22" s="344"/>
+      <c r="J22" s="344"/>
+      <c r="K22" s="344"/>
+      <c r="L22" s="345"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M20-winx64\webapps\h5game\h5文档\理财\"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="247">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1653,6 +1653,80 @@
   </si>
   <si>
     <t>6.22~7.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3103,7 +3177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3995,6 +4069,15 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4022,10 +4105,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4058,18 +4147,6 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4109,6 +4186,21 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4117,21 +4209,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4515,7 +4592,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="316">
+      <c r="F2" s="321">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4537,7 +4614,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="317"/>
+      <c r="F3" s="322"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4545,7 +4622,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="317"/>
+      <c r="F4" s="322"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4606,7 +4683,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="297" t="s">
+      <c r="A8" s="300" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4636,17 +4713,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="312">
+      <c r="K8" s="317">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="312">
+      <c r="L8" s="317">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="298"/>
+      <c r="A9" s="301"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4674,11 +4751,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="313"/>
-      <c r="L9" s="313"/>
+      <c r="K9" s="318"/>
+      <c r="L9" s="318"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="298"/>
+      <c r="A10" s="301"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4708,11 +4785,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="313"/>
-      <c r="L10" s="313"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="298"/>
+      <c r="A11" s="301"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4740,11 +4817,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="313"/>
-      <c r="L11" s="313"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="318"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="298"/>
+      <c r="A12" s="301"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4772,11 +4849,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="313"/>
-      <c r="L12" s="313"/>
+      <c r="K12" s="318"/>
+      <c r="L12" s="318"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="298"/>
+      <c r="A13" s="301"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4806,11 +4883,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="313"/>
-      <c r="L13" s="313"/>
+      <c r="K13" s="318"/>
+      <c r="L13" s="318"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="298"/>
+      <c r="A14" s="301"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4840,11 +4917,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="313"/>
-      <c r="L14" s="313"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="298"/>
+      <c r="A15" s="301"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4872,11 +4949,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="313"/>
-      <c r="L15" s="313"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="299"/>
+      <c r="A16" s="302"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4905,8 +4982,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="314"/>
-      <c r="L16" s="314"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="319"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -4987,7 +5064,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="297" t="s">
+      <c r="A20" s="300" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5019,17 +5096,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="311">
+      <c r="K20" s="316">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="311">
+      <c r="L20" s="316">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="298"/>
+      <c r="A21" s="301"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -5059,11 +5136,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="309"/>
-      <c r="L21" s="309"/>
+      <c r="K21" s="314"/>
+      <c r="L21" s="314"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="298"/>
+      <c r="A22" s="301"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -5093,11 +5170,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="309"/>
-      <c r="L22" s="309"/>
+      <c r="K22" s="314"/>
+      <c r="L22" s="314"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="298"/>
+      <c r="A23" s="301"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -5127,11 +5204,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="309"/>
-      <c r="L23" s="309"/>
+      <c r="K23" s="314"/>
+      <c r="L23" s="314"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="298"/>
+      <c r="A24" s="301"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5161,11 +5238,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="309"/>
-      <c r="L24" s="309"/>
+      <c r="K24" s="314"/>
+      <c r="L24" s="314"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="298"/>
+      <c r="A25" s="301"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5195,11 +5272,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="309"/>
-      <c r="L25" s="309"/>
+      <c r="K25" s="314"/>
+      <c r="L25" s="314"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="298"/>
+      <c r="A26" s="301"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5229,11 +5306,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="309"/>
-      <c r="L26" s="309"/>
+      <c r="K26" s="314"/>
+      <c r="L26" s="314"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="298"/>
+      <c r="A27" s="301"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5263,11 +5340,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="309"/>
-      <c r="L27" s="309"/>
+      <c r="K27" s="314"/>
+      <c r="L27" s="314"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="299"/>
+      <c r="A28" s="302"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5297,8 +5374,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="315"/>
-      <c r="L28" s="315"/>
+      <c r="K28" s="320"/>
+      <c r="L28" s="320"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5383,7 +5460,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="297" t="s">
+      <c r="A32" s="300" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5415,17 +5492,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="308">
+      <c r="K32" s="313">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="311">
+      <c r="L32" s="316">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="298"/>
+      <c r="A33" s="301"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5455,11 +5532,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="309"/>
-      <c r="L33" s="309"/>
+      <c r="K33" s="314"/>
+      <c r="L33" s="314"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="298"/>
+      <c r="A34" s="301"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5489,11 +5566,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="309"/>
-      <c r="L34" s="309"/>
+      <c r="K34" s="314"/>
+      <c r="L34" s="314"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="298"/>
+      <c r="A35" s="301"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5523,11 +5600,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="309"/>
-      <c r="L35" s="309"/>
+      <c r="K35" s="314"/>
+      <c r="L35" s="314"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="298"/>
+      <c r="A36" s="301"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5557,12 +5634,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="309"/>
-      <c r="L36" s="309"/>
+      <c r="K36" s="314"/>
+      <c r="L36" s="314"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="298"/>
-      <c r="B37" s="303" t="s">
+      <c r="A37" s="301"/>
+      <c r="B37" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5591,12 +5668,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="309"/>
-      <c r="L37" s="309"/>
+      <c r="K37" s="314"/>
+      <c r="L37" s="314"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="298"/>
-      <c r="B38" s="304"/>
+      <c r="A38" s="301"/>
+      <c r="B38" s="307"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5623,12 +5700,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="309"/>
-      <c r="L38" s="309"/>
+      <c r="K38" s="314"/>
+      <c r="L38" s="314"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="298"/>
-      <c r="B39" s="305"/>
+      <c r="A39" s="301"/>
+      <c r="B39" s="308"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5655,12 +5732,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="309"/>
-      <c r="L39" s="309"/>
+      <c r="K39" s="314"/>
+      <c r="L39" s="314"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="298"/>
-      <c r="B40" s="306" t="s">
+      <c r="A40" s="301"/>
+      <c r="B40" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5689,12 +5766,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="309"/>
-      <c r="L40" s="309"/>
+      <c r="K40" s="314"/>
+      <c r="L40" s="314"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="298"/>
-      <c r="B41" s="307"/>
+      <c r="A41" s="301"/>
+      <c r="B41" s="299"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5714,11 +5791,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="309"/>
-      <c r="L41" s="309"/>
+      <c r="K41" s="314"/>
+      <c r="L41" s="314"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="299"/>
+      <c r="A42" s="302"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5748,8 +5825,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="310"/>
-      <c r="L42" s="310"/>
+      <c r="K42" s="315"/>
+      <c r="L42" s="315"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5834,7 +5911,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="297" t="s">
+      <c r="A46" s="300" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5866,17 +5943,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="308">
+      <c r="K46" s="313">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="311">
+      <c r="L46" s="316">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="298"/>
+      <c r="A47" s="301"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5906,11 +5983,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="309"/>
-      <c r="L47" s="309"/>
+      <c r="K47" s="314"/>
+      <c r="L47" s="314"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="298"/>
+      <c r="A48" s="301"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -5940,11 +6017,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="309"/>
-      <c r="L48" s="309"/>
+      <c r="K48" s="314"/>
+      <c r="L48" s="314"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="298"/>
+      <c r="A49" s="301"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5974,11 +6051,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="309"/>
-      <c r="L49" s="309"/>
+      <c r="K49" s="314"/>
+      <c r="L49" s="314"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="298"/>
+      <c r="A50" s="301"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6008,12 +6085,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="309"/>
-      <c r="L50" s="309"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="314"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="298"/>
-      <c r="B51" s="303" t="s">
+      <c r="A51" s="301"/>
+      <c r="B51" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -6042,12 +6119,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="309"/>
-      <c r="L51" s="309"/>
+      <c r="K51" s="314"/>
+      <c r="L51" s="314"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="298"/>
-      <c r="B52" s="304"/>
+      <c r="A52" s="301"/>
+      <c r="B52" s="307"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -6074,12 +6151,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="309"/>
-      <c r="L52" s="309"/>
+      <c r="K52" s="314"/>
+      <c r="L52" s="314"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="298"/>
-      <c r="B53" s="305"/>
+      <c r="A53" s="301"/>
+      <c r="B53" s="308"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -6106,12 +6183,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="309"/>
-      <c r="L53" s="309"/>
+      <c r="K53" s="314"/>
+      <c r="L53" s="314"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="298"/>
-      <c r="B54" s="306" t="s">
+      <c r="A54" s="301"/>
+      <c r="B54" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -6140,12 +6217,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="309"/>
-      <c r="L54" s="309"/>
+      <c r="K54" s="314"/>
+      <c r="L54" s="314"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="298"/>
-      <c r="B55" s="307"/>
+      <c r="A55" s="301"/>
+      <c r="B55" s="299"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6172,11 +6249,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="309"/>
-      <c r="L55" s="309"/>
+      <c r="K55" s="314"/>
+      <c r="L55" s="314"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="299"/>
+      <c r="A56" s="302"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6206,8 +6283,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="310"/>
-      <c r="L56" s="310"/>
+      <c r="K56" s="315"/>
+      <c r="L56" s="315"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6297,7 +6374,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="297" t="s">
+      <c r="A60" s="300" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6329,11 +6406,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="300">
+      <c r="K60" s="303">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="300">
+      <c r="L60" s="303">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6342,7 +6419,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="298"/>
+      <c r="A61" s="301"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6372,12 +6449,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="301"/>
-      <c r="L61" s="301"/>
+      <c r="K61" s="304"/>
+      <c r="L61" s="304"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="298"/>
+      <c r="A62" s="301"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6407,14 +6484,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="301"/>
-      <c r="L62" s="301"/>
+      <c r="K62" s="304"/>
+      <c r="L62" s="304"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="298"/>
+      <c r="A63" s="301"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6444,12 +6521,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="301"/>
-      <c r="L63" s="301"/>
+      <c r="K63" s="304"/>
+      <c r="L63" s="304"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="298"/>
+      <c r="A64" s="301"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6479,13 +6556,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="301"/>
-      <c r="L64" s="301"/>
+      <c r="K64" s="304"/>
+      <c r="L64" s="304"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="298"/>
-      <c r="B65" s="303" t="s">
+      <c r="A65" s="301"/>
+      <c r="B65" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6514,13 +6591,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="301"/>
-      <c r="L65" s="301"/>
+      <c r="K65" s="304"/>
+      <c r="L65" s="304"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="298"/>
-      <c r="B66" s="304"/>
+      <c r="A66" s="301"/>
+      <c r="B66" s="307"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6547,15 +6624,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="301"/>
-      <c r="L66" s="301"/>
+      <c r="K66" s="304"/>
+      <c r="L66" s="304"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="298"/>
-      <c r="B67" s="305"/>
+      <c r="A67" s="301"/>
+      <c r="B67" s="308"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6582,13 +6659,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="301"/>
-      <c r="L67" s="301"/>
+      <c r="K67" s="304"/>
+      <c r="L67" s="304"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="298"/>
-      <c r="B68" s="306" t="s">
+      <c r="A68" s="301"/>
+      <c r="B68" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6617,15 +6694,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="301"/>
-      <c r="L68" s="301"/>
+      <c r="K68" s="304"/>
+      <c r="L68" s="304"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="298"/>
-      <c r="B69" s="307"/>
+      <c r="A69" s="301"/>
+      <c r="B69" s="299"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6652,14 +6729,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="301"/>
-      <c r="L69" s="301"/>
+      <c r="K69" s="304"/>
+      <c r="L69" s="304"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="299"/>
+      <c r="A70" s="302"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6689,8 +6766,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="302"/>
-      <c r="L70" s="302"/>
+      <c r="K70" s="305"/>
+      <c r="L70" s="305"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6782,7 +6859,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="297" t="s">
+      <c r="A74" s="300" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6814,11 +6891,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="300">
+      <c r="K74" s="303">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="300">
+      <c r="L74" s="303">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6827,7 +6904,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="298"/>
+      <c r="A75" s="301"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6857,12 +6934,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="301"/>
-      <c r="L75" s="301"/>
+      <c r="K75" s="304"/>
+      <c r="L75" s="304"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="298"/>
+      <c r="A76" s="301"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6892,14 +6969,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="301"/>
-      <c r="L76" s="301"/>
+      <c r="K76" s="304"/>
+      <c r="L76" s="304"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="298"/>
+      <c r="A77" s="301"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -6929,12 +7006,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="301"/>
-      <c r="L77" s="301"/>
+      <c r="K77" s="304"/>
+      <c r="L77" s="304"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="298"/>
+      <c r="A78" s="301"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -6964,13 +7041,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="301"/>
-      <c r="L78" s="301"/>
+      <c r="K78" s="304"/>
+      <c r="L78" s="304"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="298"/>
-      <c r="B79" s="303" t="s">
+      <c r="A79" s="301"/>
+      <c r="B79" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6999,13 +7076,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="301"/>
-      <c r="L79" s="301"/>
+      <c r="K79" s="304"/>
+      <c r="L79" s="304"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="298"/>
-      <c r="B80" s="304"/>
+      <c r="A80" s="301"/>
+      <c r="B80" s="307"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -7031,15 +7108,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="301"/>
-      <c r="L80" s="301"/>
+      <c r="K80" s="304"/>
+      <c r="L80" s="304"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="298"/>
-      <c r="B81" s="304"/>
+      <c r="A81" s="301"/>
+      <c r="B81" s="307"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -7066,15 +7143,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="301"/>
-      <c r="L81" s="301"/>
+      <c r="K81" s="304"/>
+      <c r="L81" s="304"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="298"/>
-      <c r="B82" s="305"/>
+      <c r="A82" s="301"/>
+      <c r="B82" s="308"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -7101,13 +7178,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="301"/>
-      <c r="L82" s="301"/>
+      <c r="K82" s="304"/>
+      <c r="L82" s="304"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="298"/>
-      <c r="B83" s="306" t="s">
+      <c r="A83" s="301"/>
+      <c r="B83" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -7136,15 +7213,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="301"/>
-      <c r="L83" s="301"/>
+      <c r="K83" s="304"/>
+      <c r="L83" s="304"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="298"/>
-      <c r="B84" s="307"/>
+      <c r="A84" s="301"/>
+      <c r="B84" s="299"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7171,14 +7248,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="301"/>
-      <c r="L84" s="301"/>
+      <c r="K84" s="304"/>
+      <c r="L84" s="304"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="299"/>
+      <c r="A85" s="302"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7208,8 +7285,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="302"/>
-      <c r="L85" s="302"/>
+      <c r="K85" s="305"/>
+      <c r="L85" s="305"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7300,7 +7377,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="297" t="s">
+      <c r="A89" s="300" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7332,11 +7409,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="300">
+      <c r="K89" s="303">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="300">
+      <c r="L89" s="303">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7345,7 +7422,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="298"/>
+      <c r="A90" s="301"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7375,12 +7452,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="301"/>
-      <c r="L90" s="301"/>
+      <c r="K90" s="304"/>
+      <c r="L90" s="304"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="298"/>
+      <c r="A91" s="301"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7410,14 +7487,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="301"/>
-      <c r="L91" s="301"/>
+      <c r="K91" s="304"/>
+      <c r="L91" s="304"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="298"/>
+      <c r="A92" s="301"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7447,14 +7524,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="301"/>
-      <c r="L92" s="301"/>
+      <c r="K92" s="304"/>
+      <c r="L92" s="304"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="298"/>
+      <c r="A93" s="301"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7484,13 +7561,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="301"/>
-      <c r="L93" s="301"/>
+      <c r="K93" s="304"/>
+      <c r="L93" s="304"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="298"/>
-      <c r="B94" s="303" t="s">
+      <c r="A94" s="301"/>
+      <c r="B94" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7519,15 +7596,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="301"/>
-      <c r="L94" s="301"/>
+      <c r="K94" s="304"/>
+      <c r="L94" s="304"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="298"/>
-      <c r="B95" s="304"/>
+      <c r="A95" s="301"/>
+      <c r="B95" s="307"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7554,15 +7631,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="301"/>
-      <c r="L95" s="301"/>
+      <c r="K95" s="304"/>
+      <c r="L95" s="304"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="298"/>
-      <c r="B96" s="305"/>
+      <c r="A96" s="301"/>
+      <c r="B96" s="308"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7589,13 +7666,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="301"/>
-      <c r="L96" s="301"/>
+      <c r="K96" s="304"/>
+      <c r="L96" s="304"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="298"/>
-      <c r="B97" s="306" t="s">
+      <c r="A97" s="301"/>
+      <c r="B97" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7624,15 +7701,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="301"/>
-      <c r="L97" s="301"/>
+      <c r="K97" s="304"/>
+      <c r="L97" s="304"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="298"/>
-      <c r="B98" s="307"/>
+      <c r="A98" s="301"/>
+      <c r="B98" s="299"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7659,14 +7736,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="301"/>
-      <c r="L98" s="301"/>
+      <c r="K98" s="304"/>
+      <c r="L98" s="304"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="299"/>
+      <c r="A99" s="302"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7696,8 +7773,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="302"/>
-      <c r="L99" s="302"/>
+      <c r="K99" s="305"/>
+      <c r="L99" s="305"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7790,7 +7867,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="297" t="s">
+      <c r="A103" s="300" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7822,11 +7899,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="300">
+      <c r="K103" s="303">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="300">
+      <c r="L103" s="303">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7835,7 +7912,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="298"/>
+      <c r="A104" s="301"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7865,12 +7942,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="301"/>
-      <c r="L104" s="301"/>
+      <c r="K104" s="304"/>
+      <c r="L104" s="304"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="298"/>
+      <c r="A105" s="301"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7900,14 +7977,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="301"/>
-      <c r="L105" s="301"/>
+      <c r="K105" s="304"/>
+      <c r="L105" s="304"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="298"/>
+      <c r="A106" s="301"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -7936,14 +8013,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="301"/>
-      <c r="L106" s="301"/>
+      <c r="K106" s="304"/>
+      <c r="L106" s="304"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="298"/>
+      <c r="A107" s="301"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -7973,13 +8050,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="301"/>
-      <c r="L107" s="301"/>
+      <c r="K107" s="304"/>
+      <c r="L107" s="304"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="298"/>
-      <c r="B108" s="303" t="s">
+      <c r="A108" s="301"/>
+      <c r="B108" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -8008,15 +8085,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="301"/>
-      <c r="L108" s="301"/>
+      <c r="K108" s="304"/>
+      <c r="L108" s="304"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="298"/>
-      <c r="B109" s="304"/>
+      <c r="A109" s="301"/>
+      <c r="B109" s="307"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -8043,15 +8120,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="301"/>
-      <c r="L109" s="301"/>
+      <c r="K109" s="304"/>
+      <c r="L109" s="304"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="298"/>
-      <c r="B110" s="305"/>
+      <c r="A110" s="301"/>
+      <c r="B110" s="308"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -8078,13 +8155,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="301"/>
-      <c r="L110" s="301"/>
+      <c r="K110" s="304"/>
+      <c r="L110" s="304"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="298"/>
-      <c r="B111" s="306" t="s">
+      <c r="A111" s="301"/>
+      <c r="B111" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -8113,15 +8190,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="301"/>
-      <c r="L111" s="301"/>
+      <c r="K111" s="304"/>
+      <c r="L111" s="304"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="298"/>
-      <c r="B112" s="307"/>
+      <c r="A112" s="301"/>
+      <c r="B112" s="299"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -8148,14 +8225,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="301"/>
-      <c r="L112" s="301"/>
+      <c r="K112" s="304"/>
+      <c r="L112" s="304"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="299"/>
+      <c r="A113" s="302"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8185,8 +8262,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="302"/>
-      <c r="L113" s="302"/>
+      <c r="K113" s="305"/>
+      <c r="L113" s="305"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8279,7 +8356,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="297" t="s">
+      <c r="A117" s="300" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8311,11 +8388,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="300">
+      <c r="K117" s="303">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="300">
+      <c r="L117" s="303">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8324,7 +8401,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="298"/>
+      <c r="A118" s="301"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8354,12 +8431,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="301"/>
-      <c r="L118" s="301"/>
+      <c r="K118" s="304"/>
+      <c r="L118" s="304"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="298"/>
+      <c r="A119" s="301"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8389,14 +8466,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="301"/>
-      <c r="L119" s="301"/>
+      <c r="K119" s="304"/>
+      <c r="L119" s="304"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="298"/>
+      <c r="A120" s="301"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8426,13 +8503,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="301"/>
-      <c r="L120" s="301"/>
+      <c r="K120" s="304"/>
+      <c r="L120" s="304"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="298"/>
-      <c r="B121" s="303" t="s">
+      <c r="A121" s="301"/>
+      <c r="B121" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8461,15 +8538,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="301"/>
-      <c r="L121" s="301"/>
+      <c r="K121" s="304"/>
+      <c r="L121" s="304"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="298"/>
-      <c r="B122" s="304"/>
+      <c r="A122" s="301"/>
+      <c r="B122" s="307"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8496,15 +8573,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="301"/>
-      <c r="L122" s="301"/>
+      <c r="K122" s="304"/>
+      <c r="L122" s="304"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="298"/>
-      <c r="B123" s="305"/>
+      <c r="A123" s="301"/>
+      <c r="B123" s="308"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8531,13 +8608,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="301"/>
-      <c r="L123" s="301"/>
+      <c r="K123" s="304"/>
+      <c r="L123" s="304"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="298"/>
-      <c r="B124" s="306" t="s">
+      <c r="A124" s="301"/>
+      <c r="B124" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8566,15 +8643,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="301"/>
-      <c r="L124" s="301"/>
+      <c r="K124" s="304"/>
+      <c r="L124" s="304"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="298"/>
-      <c r="B125" s="307"/>
+      <c r="A125" s="301"/>
+      <c r="B125" s="299"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8601,14 +8678,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="301"/>
-      <c r="L125" s="301"/>
+      <c r="K125" s="304"/>
+      <c r="L125" s="304"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="299"/>
+      <c r="A126" s="302"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8638,8 +8715,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="302"/>
-      <c r="L126" s="302"/>
+      <c r="K126" s="305"/>
+      <c r="L126" s="305"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8732,7 +8809,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="297" t="s">
+      <c r="A130" s="300" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8764,11 +8841,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="300">
+      <c r="K130" s="303">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="300">
+      <c r="L130" s="303">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8777,7 +8854,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="298"/>
+      <c r="A131" s="301"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8807,12 +8884,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="301"/>
-      <c r="L131" s="301"/>
+      <c r="K131" s="304"/>
+      <c r="L131" s="304"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="298"/>
+      <c r="A132" s="301"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8842,14 +8919,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="301"/>
-      <c r="L132" s="301"/>
+      <c r="K132" s="304"/>
+      <c r="L132" s="304"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="298"/>
+      <c r="A133" s="301"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8879,13 +8956,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="301"/>
-      <c r="L133" s="301"/>
+      <c r="K133" s="304"/>
+      <c r="L133" s="304"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="298"/>
-      <c r="B134" s="303" t="s">
+      <c r="A134" s="301"/>
+      <c r="B134" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8914,15 +8991,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="301"/>
-      <c r="L134" s="301"/>
+      <c r="K134" s="304"/>
+      <c r="L134" s="304"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="298"/>
-      <c r="B135" s="304"/>
+      <c r="A135" s="301"/>
+      <c r="B135" s="307"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -8949,15 +9026,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="301"/>
-      <c r="L135" s="301"/>
+      <c r="K135" s="304"/>
+      <c r="L135" s="304"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="298"/>
-      <c r="B136" s="305"/>
+      <c r="A136" s="301"/>
+      <c r="B136" s="308"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -8984,13 +9061,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="301"/>
-      <c r="L136" s="301"/>
+      <c r="K136" s="304"/>
+      <c r="L136" s="304"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="298"/>
-      <c r="B137" s="306" t="s">
+      <c r="A137" s="301"/>
+      <c r="B137" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -9019,15 +9096,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="301"/>
-      <c r="L137" s="301"/>
+      <c r="K137" s="304"/>
+      <c r="L137" s="304"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="298"/>
-      <c r="B138" s="307"/>
+      <c r="A138" s="301"/>
+      <c r="B138" s="299"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -9054,14 +9131,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="301"/>
-      <c r="L138" s="301"/>
+      <c r="K138" s="304"/>
+      <c r="L138" s="304"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="299"/>
+      <c r="A139" s="302"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -9091,8 +9168,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="302"/>
-      <c r="L139" s="302"/>
+      <c r="K139" s="305"/>
+      <c r="L139" s="305"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9185,7 +9262,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="297" t="s">
+      <c r="A143" s="300" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9217,11 +9294,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="300">
+      <c r="K143" s="303">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="300">
+      <c r="L143" s="303">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9230,7 +9307,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="298"/>
+      <c r="A144" s="301"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9260,12 +9337,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="301"/>
-      <c r="L144" s="301"/>
+      <c r="K144" s="304"/>
+      <c r="L144" s="304"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="298"/>
+      <c r="A145" s="301"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9295,14 +9372,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="301"/>
-      <c r="L145" s="301"/>
+      <c r="K145" s="304"/>
+      <c r="L145" s="304"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="298"/>
+      <c r="A146" s="301"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9332,13 +9409,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="301"/>
-      <c r="L146" s="301"/>
+      <c r="K146" s="304"/>
+      <c r="L146" s="304"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="298"/>
-      <c r="B147" s="303" t="s">
+      <c r="A147" s="301"/>
+      <c r="B147" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9367,15 +9444,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="301"/>
-      <c r="L147" s="301"/>
+      <c r="K147" s="304"/>
+      <c r="L147" s="304"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="298"/>
-      <c r="B148" s="304"/>
+      <c r="A148" s="301"/>
+      <c r="B148" s="307"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9402,15 +9479,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="301"/>
-      <c r="L148" s="301"/>
+      <c r="K148" s="304"/>
+      <c r="L148" s="304"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="298"/>
-      <c r="B149" s="305"/>
+      <c r="A149" s="301"/>
+      <c r="B149" s="308"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9437,13 +9514,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="301"/>
-      <c r="L149" s="301"/>
+      <c r="K149" s="304"/>
+      <c r="L149" s="304"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="298"/>
-      <c r="B150" s="306" t="s">
+      <c r="A150" s="301"/>
+      <c r="B150" s="298" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9472,15 +9549,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="301"/>
-      <c r="L150" s="301"/>
+      <c r="K150" s="304"/>
+      <c r="L150" s="304"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="298"/>
-      <c r="B151" s="307"/>
+      <c r="A151" s="301"/>
+      <c r="B151" s="299"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9507,14 +9584,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="301"/>
-      <c r="L151" s="301"/>
+      <c r="K151" s="304"/>
+      <c r="L151" s="304"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="299"/>
+      <c r="A152" s="302"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9544,8 +9621,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="302"/>
-      <c r="L152" s="302"/>
+      <c r="K152" s="305"/>
+      <c r="L152" s="305"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9618,10 +9695,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="318" t="s">
+      <c r="H155" s="309" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="319"/>
+      <c r="I155" s="310"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9658,11 +9735,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="320">
+      <c r="H156" s="311">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="321"/>
+      <c r="I156" s="312"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9679,12 +9756,38 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9701,38 +9804,12 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9742,10 +9819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="L211" sqref="L211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9808,7 +9885,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="301" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9839,11 +9916,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="326">
+      <c r="L2" s="327">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="326">
+      <c r="M2" s="327">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9852,7 +9929,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="298"/>
+      <c r="A3" s="301"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9881,14 +9958,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="327"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="298"/>
+      <c r="A4" s="301"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9919,13 +9996,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="326"/>
-      <c r="M4" s="326"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="327"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="298"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="301"/>
+      <c r="B5" s="306"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -9953,15 +10030,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
+      <c r="L5" s="327"/>
+      <c r="M5" s="327"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="298"/>
-      <c r="B6" s="304"/>
+      <c r="A6" s="301"/>
+      <c r="B6" s="307"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -9989,15 +10066,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="326"/>
-      <c r="M6" s="326"/>
+      <c r="L6" s="327"/>
+      <c r="M6" s="327"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="298"/>
-      <c r="B7" s="305"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="308"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -10025,12 +10102,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="326"/>
-      <c r="M7" s="326"/>
+      <c r="L7" s="327"/>
+      <c r="M7" s="327"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="298"/>
+      <c r="A8" s="301"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -10059,14 +10136,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="326"/>
-      <c r="M8" s="326"/>
+      <c r="L8" s="327"/>
+      <c r="M8" s="327"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="299"/>
+      <c r="A9" s="302"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -10095,8 +10172,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
+      <c r="L9" s="328"/>
+      <c r="M9" s="328"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10229,7 +10306,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="298" t="s">
+      <c r="A14" s="301" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10260,11 +10337,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="326">
+      <c r="L14" s="327">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="326">
+      <c r="M14" s="327">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10273,7 +10350,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="298"/>
+      <c r="A15" s="301"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10302,14 +10379,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="326"/>
-      <c r="M15" s="326"/>
+      <c r="L15" s="327"/>
+      <c r="M15" s="327"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="298"/>
+      <c r="A16" s="301"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10339,13 +10416,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="326"/>
-      <c r="M16" s="326"/>
+      <c r="L16" s="327"/>
+      <c r="M16" s="327"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="298"/>
-      <c r="B17" s="340"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="338"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10373,15 +10450,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="326"/>
-      <c r="M17" s="326"/>
+      <c r="L17" s="327"/>
+      <c r="M17" s="327"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="298"/>
-      <c r="B18" s="341"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="339"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10409,15 +10486,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="326"/>
-      <c r="M18" s="326"/>
+      <c r="L18" s="327"/>
+      <c r="M18" s="327"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="298"/>
-      <c r="B19" s="342"/>
+      <c r="A19" s="301"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10446,12 +10523,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="326"/>
-      <c r="M19" s="326"/>
+      <c r="L19" s="327"/>
+      <c r="M19" s="327"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="298"/>
+      <c r="A20" s="301"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10480,14 +10557,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="326"/>
-      <c r="M20" s="326"/>
+      <c r="L20" s="327"/>
+      <c r="M20" s="327"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="299"/>
+      <c r="A21" s="302"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10516,8 +10593,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="327"/>
-      <c r="M21" s="327"/>
+      <c r="L21" s="328"/>
+      <c r="M21" s="328"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10650,7 +10727,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="298" t="s">
+      <c r="A26" s="301" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10681,11 +10758,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="326">
+      <c r="L26" s="327">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="326">
+      <c r="M26" s="327">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10694,7 +10771,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="298"/>
+      <c r="A27" s="301"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10723,14 +10800,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="326"/>
-      <c r="M27" s="326"/>
+      <c r="L27" s="327"/>
+      <c r="M27" s="327"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="298"/>
+      <c r="A28" s="301"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10760,13 +10837,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="326"/>
-      <c r="M28" s="326"/>
+      <c r="L28" s="327"/>
+      <c r="M28" s="327"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="298"/>
-      <c r="B29" s="340"/>
+      <c r="A29" s="301"/>
+      <c r="B29" s="338"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10794,15 +10871,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="326"/>
-      <c r="M29" s="326"/>
+      <c r="L29" s="327"/>
+      <c r="M29" s="327"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="298"/>
-      <c r="B30" s="341"/>
+      <c r="A30" s="301"/>
+      <c r="B30" s="339"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10830,15 +10907,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="326"/>
-      <c r="M30" s="326"/>
+      <c r="L30" s="327"/>
+      <c r="M30" s="327"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="298"/>
-      <c r="B31" s="342"/>
+      <c r="A31" s="301"/>
+      <c r="B31" s="340"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10867,12 +10944,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="326"/>
-      <c r="M31" s="326"/>
+      <c r="L31" s="327"/>
+      <c r="M31" s="327"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="298"/>
+      <c r="A32" s="301"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10901,14 +10978,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="326"/>
-      <c r="M32" s="326"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="327"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="299"/>
+      <c r="A33" s="302"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -10937,8 +11014,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="327"/>
-      <c r="M33" s="327"/>
+      <c r="L33" s="328"/>
+      <c r="M33" s="328"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -11071,7 +11148,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="298" t="s">
+      <c r="A38" s="301" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -11102,11 +11179,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="326">
+      <c r="L38" s="327">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="326">
+      <c r="M38" s="327">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -11115,7 +11192,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="298"/>
+      <c r="A39" s="301"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -11144,14 +11221,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="326"/>
-      <c r="M39" s="326"/>
+      <c r="L39" s="327"/>
+      <c r="M39" s="327"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="298"/>
+      <c r="A40" s="301"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11181,13 +11258,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="326"/>
-      <c r="M40" s="326"/>
+      <c r="L40" s="327"/>
+      <c r="M40" s="327"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="298"/>
-      <c r="B41" s="340"/>
+      <c r="A41" s="301"/>
+      <c r="B41" s="338"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11215,15 +11292,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="326"/>
-      <c r="M41" s="326"/>
+      <c r="L41" s="327"/>
+      <c r="M41" s="327"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="298"/>
-      <c r="B42" s="341"/>
+      <c r="A42" s="301"/>
+      <c r="B42" s="339"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11251,15 +11328,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
+      <c r="L42" s="327"/>
+      <c r="M42" s="327"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="298"/>
-      <c r="B43" s="342"/>
+      <c r="A43" s="301"/>
+      <c r="B43" s="340"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11288,12 +11365,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="326"/>
-      <c r="M43" s="326"/>
+      <c r="L43" s="327"/>
+      <c r="M43" s="327"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="298"/>
+      <c r="A44" s="301"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11322,14 +11399,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="326"/>
-      <c r="M44" s="326"/>
+      <c r="L44" s="327"/>
+      <c r="M44" s="327"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="299"/>
+      <c r="A45" s="302"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11358,8 +11435,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="327"/>
-      <c r="M45" s="327"/>
+      <c r="L45" s="328"/>
+      <c r="M45" s="328"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11495,7 +11572,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="298" t="s">
+      <c r="A50" s="301" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11531,11 +11608,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="326">
+      <c r="L50" s="327">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="326">
+      <c r="M50" s="327">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11544,7 +11621,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="298"/>
+      <c r="A51" s="301"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11578,14 +11655,14 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="326"/>
-      <c r="M51" s="326"/>
+      <c r="L51" s="327"/>
+      <c r="M51" s="327"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="298"/>
+      <c r="A52" s="301"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11617,13 +11694,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="276"/>
-      <c r="L52" s="326"/>
-      <c r="M52" s="326"/>
+      <c r="L52" s="327"/>
+      <c r="M52" s="327"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="298"/>
-      <c r="B53" s="340">
+      <c r="A53" s="301"/>
+      <c r="B53" s="338">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11656,15 +11733,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="326"/>
-      <c r="M53" s="326"/>
+      <c r="L53" s="327"/>
+      <c r="M53" s="327"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="298"/>
-      <c r="B54" s="341"/>
+      <c r="A54" s="301"/>
+      <c r="B54" s="339"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11695,14 +11772,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="326"/>
-      <c r="M54" s="326"/>
+      <c r="L54" s="327"/>
+      <c r="M54" s="327"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="299"/>
+      <c r="A55" s="302"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11736,8 +11813,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="327"/>
-      <c r="M55" s="327"/>
+      <c r="L55" s="328"/>
+      <c r="M55" s="328"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11873,10 +11950,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="335" t="s">
+      <c r="A60" s="341" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="338">
+      <c r="B60" s="336">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11909,11 +11986,11 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="325">
+      <c r="L60" s="326">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="325">
+      <c r="M60" s="326">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11922,8 +11999,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="336"/>
-      <c r="B61" s="339"/>
+      <c r="A61" s="342"/>
+      <c r="B61" s="337"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -11954,14 +12031,14 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="326"/>
-      <c r="M61" s="326"/>
+      <c r="L61" s="327"/>
+      <c r="M61" s="327"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="336"/>
+      <c r="A62" s="342"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -11995,15 +12072,15 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="326"/>
-      <c r="M62" s="326"/>
+      <c r="L62" s="327"/>
+      <c r="M62" s="327"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="336"/>
-      <c r="B63" s="333">
+      <c r="A63" s="342"/>
+      <c r="B63" s="334">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -12036,15 +12113,15 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="326"/>
-      <c r="M63" s="326"/>
+      <c r="L63" s="327"/>
+      <c r="M63" s="327"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="336"/>
-      <c r="B64" s="334"/>
+      <c r="A64" s="342"/>
+      <c r="B64" s="335"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -12075,14 +12152,14 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="326"/>
-      <c r="M64" s="326"/>
+      <c r="L64" s="327"/>
+      <c r="M64" s="327"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="337"/>
+      <c r="A65" s="343"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -12116,8 +12193,8 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="327"/>
-      <c r="M65" s="327"/>
+      <c r="L65" s="328"/>
+      <c r="M65" s="328"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12443,10 +12520,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="322" t="s">
+      <c r="A76" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="338">
+      <c r="B76" s="336">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12479,11 +12556,11 @@
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="325">
+      <c r="L76" s="326">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="325">
+      <c r="M76" s="326">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12492,8 +12569,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="323"/>
-      <c r="B77" s="339"/>
+      <c r="A77" s="324"/>
+      <c r="B77" s="337"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12524,14 +12601,14 @@
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="326"/>
-      <c r="M77" s="326"/>
+      <c r="L77" s="327"/>
+      <c r="M77" s="327"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="323"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12565,15 +12642,15 @@
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="326"/>
-      <c r="M78" s="326"/>
+      <c r="L78" s="327"/>
+      <c r="M78" s="327"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="323"/>
-      <c r="B79" s="333">
+      <c r="A79" s="324"/>
+      <c r="B79" s="334">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12606,15 +12683,15 @@
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="326"/>
-      <c r="M79" s="326"/>
+      <c r="L79" s="327"/>
+      <c r="M79" s="327"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="323"/>
-      <c r="B80" s="334"/>
+      <c r="A80" s="324"/>
+      <c r="B80" s="335"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12645,14 +12722,14 @@
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="326"/>
-      <c r="M80" s="326"/>
+      <c r="L80" s="327"/>
+      <c r="M80" s="327"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="324"/>
+      <c r="A81" s="325"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12686,8 +12763,8 @@
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="327"/>
-      <c r="M81" s="327"/>
+      <c r="L81" s="328"/>
+      <c r="M81" s="328"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12738,7 +12815,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="330" t="s">
+      <c r="A83" s="331" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12777,7 +12854,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="331"/>
+      <c r="A84" s="332"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12822,7 +12899,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="332"/>
+      <c r="A85" s="333"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -13022,7 +13099,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="322" t="s">
+      <c r="A91" s="323" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -13058,11 +13135,11 @@
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="325">
+      <c r="L91" s="326">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="325">
+      <c r="M91" s="326">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -13071,7 +13148,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="323"/>
+      <c r="A92" s="324"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -13105,15 +13182,15 @@
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="326"/>
-      <c r="M92" s="326"/>
+      <c r="L92" s="327"/>
+      <c r="M92" s="327"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="323"/>
-      <c r="B93" s="333">
+      <c r="A93" s="324"/>
+      <c r="B93" s="334">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -13146,15 +13223,15 @@
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="326"/>
-      <c r="M93" s="326"/>
+      <c r="L93" s="327"/>
+      <c r="M93" s="327"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="323"/>
-      <c r="B94" s="334"/>
+      <c r="A94" s="324"/>
+      <c r="B94" s="335"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13185,14 +13262,14 @@
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="326"/>
-      <c r="M94" s="326"/>
+      <c r="L94" s="327"/>
+      <c r="M94" s="327"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="324"/>
+      <c r="A95" s="325"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13226,8 +13303,8 @@
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="327"/>
-      <c r="M95" s="327"/>
+      <c r="L95" s="328"/>
+      <c r="M95" s="328"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13278,7 +13355,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="330" t="s">
+      <c r="A97" s="331" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13317,7 +13394,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="331"/>
+      <c r="A98" s="332"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13362,7 +13439,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="332"/>
+      <c r="A99" s="333"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13562,7 +13639,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="322" t="s">
+      <c r="A105" s="323" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
@@ -13587,18 +13664,18 @@
       </c>
       <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="325">
+      <c r="L105" s="326">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="325">
+      <c r="M105" s="326">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="323"/>
+      <c r="A106" s="324"/>
       <c r="B106" s="269">
         <v>28</v>
       </c>
@@ -13632,14 +13709,14 @@
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="326"/>
-      <c r="M106" s="326"/>
+      <c r="L106" s="327"/>
+      <c r="M106" s="327"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="323"/>
+      <c r="A107" s="324"/>
       <c r="B107" s="286">
         <v>117.98</v>
       </c>
@@ -13673,15 +13750,15 @@
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="326"/>
-      <c r="M107" s="326"/>
+      <c r="L107" s="327"/>
+      <c r="M107" s="327"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="323"/>
-      <c r="B108" s="328">
+      <c r="A108" s="324"/>
+      <c r="B108" s="329">
         <v>118.93</v>
       </c>
       <c r="C108" s="293" t="s">
@@ -13714,15 +13791,15 @@
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="326"/>
-      <c r="M108" s="326"/>
+      <c r="L108" s="327"/>
+      <c r="M108" s="327"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="323"/>
-      <c r="B109" s="329"/>
+      <c r="A109" s="324"/>
+      <c r="B109" s="330"/>
       <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
@@ -13753,14 +13830,14 @@
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="326"/>
-      <c r="M109" s="326"/>
+      <c r="L109" s="327"/>
+      <c r="M109" s="327"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="324"/>
+      <c r="A110" s="325"/>
       <c r="B110" s="282"/>
       <c r="C110" s="294" t="s">
         <v>177</v>
@@ -13792,8 +13869,8 @@
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="327"/>
-      <c r="M110" s="327"/>
+      <c r="L110" s="328"/>
+      <c r="M110" s="328"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -13844,7 +13921,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="330" t="s">
+      <c r="A112" s="331" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -13883,7 +13960,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="331"/>
+      <c r="A113" s="332"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -13928,7 +14005,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="332"/>
+      <c r="A114" s="333"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
@@ -14128,7 +14205,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1">
-      <c r="A120" s="322" t="s">
+      <c r="A120" s="323" t="s">
         <v>231</v>
       </c>
       <c r="B120" s="262">
@@ -14153,18 +14230,18 @@
       </c>
       <c r="J120" s="268"/>
       <c r="K120" s="153"/>
-      <c r="L120" s="325">
+      <c r="L120" s="326">
         <f>E126/D126</f>
         <v>2.1988830431051147E-4</v>
       </c>
-      <c r="M120" s="325">
+      <c r="M120" s="326">
         <f>L120*365</f>
         <v>8.0259231073336684E-2</v>
       </c>
       <c r="N120" s="191"/>
     </row>
     <row r="121" spans="1:14" ht="25.5">
-      <c r="A121" s="323"/>
+      <c r="A121" s="324"/>
       <c r="B121" s="269">
         <v>28</v>
       </c>
@@ -14198,14 +14275,14 @@
         <f>(F121-I121)/(H121-I121)</f>
         <v>1.4044843630942055E-2</v>
       </c>
-      <c r="L121" s="326"/>
-      <c r="M121" s="326"/>
+      <c r="L121" s="327"/>
+      <c r="M121" s="327"/>
       <c r="N121" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="25.5">
-      <c r="A122" s="323"/>
+      <c r="A122" s="324"/>
       <c r="B122" s="286">
         <v>117.98</v>
       </c>
@@ -14239,15 +14316,15 @@
         <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
         <v>0.23999999999995447</v>
       </c>
-      <c r="L122" s="326"/>
-      <c r="M122" s="326"/>
+      <c r="L122" s="327"/>
+      <c r="M122" s="327"/>
       <c r="N122" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="25.5">
-      <c r="A123" s="323"/>
-      <c r="B123" s="328">
+      <c r="A123" s="324"/>
+      <c r="B123" s="329">
         <v>118.93</v>
       </c>
       <c r="C123" s="293" t="s">
@@ -14280,15 +14357,15 @@
         <f t="shared" si="32"/>
         <v>0.16216114457833897</v>
       </c>
-      <c r="L123" s="326"/>
-      <c r="M123" s="326"/>
+      <c r="L123" s="327"/>
+      <c r="M123" s="327"/>
       <c r="N123" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="25.5">
-      <c r="A124" s="323"/>
-      <c r="B124" s="329"/>
+      <c r="A124" s="324"/>
+      <c r="B124" s="330"/>
       <c r="C124" s="293" t="s">
         <v>179</v>
       </c>
@@ -14319,14 +14396,14 @@
         <f t="shared" si="32"/>
         <v>0.69999999999999651</v>
       </c>
-      <c r="L124" s="326"/>
-      <c r="M124" s="326"/>
+      <c r="L124" s="327"/>
+      <c r="M124" s="327"/>
       <c r="N124" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A125" s="324"/>
+      <c r="A125" s="325"/>
       <c r="B125" s="282"/>
       <c r="C125" s="294" t="s">
         <v>177</v>
@@ -14358,8 +14435,8 @@
         <f t="shared" si="32"/>
         <v>6.5979794941218667E-2</v>
       </c>
-      <c r="L125" s="327"/>
-      <c r="M125" s="327"/>
+      <c r="L125" s="328"/>
+      <c r="M125" s="328"/>
       <c r="N125" s="194" t="s">
         <v>135</v>
       </c>
@@ -14410,7 +14487,7 @@
       <c r="N126" s="196"/>
     </row>
     <row r="127" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A127" s="330" t="s">
+      <c r="A127" s="331" t="s">
         <v>196</v>
       </c>
       <c r="B127" s="122" t="s">
@@ -14449,7 +14526,7 @@
       <c r="N127" s="197"/>
     </row>
     <row r="128" spans="1:14" ht="25.5">
-      <c r="A128" s="331"/>
+      <c r="A128" s="332"/>
       <c r="B128" s="130" t="s">
         <v>138</v>
       </c>
@@ -14494,7 +14571,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="28.5">
-      <c r="A129" s="332"/>
+      <c r="A129" s="333"/>
       <c r="B129" s="162">
         <v>7.12</v>
       </c>
@@ -14694,7 +14771,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" thickBot="1">
-      <c r="A135" s="322" t="s">
+      <c r="A135" s="323" t="s">
         <v>233</v>
       </c>
       <c r="B135" s="262">
@@ -14719,18 +14796,18 @@
       </c>
       <c r="J135" s="268"/>
       <c r="K135" s="153"/>
-      <c r="L135" s="325">
+      <c r="L135" s="326">
         <f>E141/D141</f>
         <v>2.1983996407359162E-4</v>
       </c>
-      <c r="M135" s="325">
+      <c r="M135" s="326">
         <f>L135*365</f>
         <v>8.0241586886860936E-2</v>
       </c>
       <c r="N135" s="191"/>
     </row>
     <row r="136" spans="1:14" ht="25.5">
-      <c r="A136" s="323"/>
+      <c r="A136" s="324"/>
       <c r="B136" s="269">
         <v>28</v>
       </c>
@@ -14764,14 +14841,14 @@
         <f>(F136-I136)/(H136-I136)</f>
         <v>1.6853812357130467E-2</v>
       </c>
-      <c r="L136" s="326"/>
-      <c r="M136" s="326"/>
+      <c r="L136" s="327"/>
+      <c r="M136" s="327"/>
       <c r="N136" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="25.5">
-      <c r="A137" s="323"/>
+      <c r="A137" s="324"/>
       <c r="B137" s="286">
         <v>117.98</v>
       </c>
@@ -14805,15 +14882,15 @@
         <f t="shared" ref="K137:K140" si="36">(F137-I137)/(H137-I137)</f>
         <v>0.2799999999999469</v>
       </c>
-      <c r="L137" s="326"/>
-      <c r="M137" s="326"/>
+      <c r="L137" s="327"/>
+      <c r="M137" s="327"/>
       <c r="N137" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5">
-      <c r="A138" s="323"/>
-      <c r="B138" s="328">
+      <c r="A138" s="324"/>
+      <c r="B138" s="329">
         <v>118.93</v>
       </c>
       <c r="C138" s="293" t="s">
@@ -14846,15 +14923,15 @@
         <f t="shared" si="36"/>
         <v>0.18918800200806213</v>
       </c>
-      <c r="L138" s="326"/>
-      <c r="M138" s="326"/>
+      <c r="L138" s="327"/>
+      <c r="M138" s="327"/>
       <c r="N138" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="25.5">
-      <c r="A139" s="323"/>
-      <c r="B139" s="329"/>
+      <c r="A139" s="324"/>
+      <c r="B139" s="330"/>
       <c r="C139" s="293" t="s">
         <v>179</v>
       </c>
@@ -14885,14 +14962,14 @@
         <f t="shared" si="36"/>
         <v>0.70999999999999652</v>
       </c>
-      <c r="L139" s="326"/>
-      <c r="M139" s="326"/>
+      <c r="L139" s="327"/>
+      <c r="M139" s="327"/>
       <c r="N139" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A140" s="324"/>
+      <c r="A140" s="325"/>
       <c r="B140" s="282"/>
       <c r="C140" s="294" t="s">
         <v>177</v>
@@ -14924,8 +15001,8 @@
         <f t="shared" si="36"/>
         <v>6.8728953063770012E-2</v>
       </c>
-      <c r="L140" s="327"/>
-      <c r="M140" s="327"/>
+      <c r="L140" s="328"/>
+      <c r="M140" s="328"/>
       <c r="N140" s="194" t="s">
         <v>135</v>
       </c>
@@ -14976,7 +15053,7 @@
       <c r="N141" s="196"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A142" s="330" t="s">
+      <c r="A142" s="331" t="s">
         <v>196</v>
       </c>
       <c r="B142" s="122" t="s">
@@ -15015,7 +15092,7 @@
       <c r="N142" s="197"/>
     </row>
     <row r="143" spans="1:14" ht="25.5">
-      <c r="A143" s="331"/>
+      <c r="A143" s="332"/>
       <c r="B143" s="130" t="s">
         <v>138</v>
       </c>
@@ -15060,7 +15137,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="28.5">
-      <c r="A144" s="332"/>
+      <c r="A144" s="333"/>
       <c r="B144" s="162">
         <v>7.12</v>
       </c>
@@ -15260,7 +15337,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" thickBot="1">
-      <c r="A150" s="322" t="s">
+      <c r="A150" s="323" t="s">
         <v>236</v>
       </c>
       <c r="B150" s="295">
@@ -15285,18 +15362,18 @@
       </c>
       <c r="J150" s="268"/>
       <c r="K150" s="153"/>
-      <c r="L150" s="325">
+      <c r="L150" s="326">
         <f>E156/D156</f>
         <v>2.197916450862322E-4</v>
       </c>
-      <c r="M150" s="325">
+      <c r="M150" s="326">
         <f>L150*365</f>
         <v>8.0223950456474749E-2</v>
       </c>
       <c r="N150" s="191"/>
     </row>
     <row r="151" spans="1:14" ht="25.5">
-      <c r="A151" s="323"/>
+      <c r="A151" s="324"/>
       <c r="B151" s="269">
         <v>28</v>
       </c>
@@ -15330,14 +15407,14 @@
         <f>(F151-I151)/(H151-I151)</f>
         <v>1.9662781083318877E-2</v>
       </c>
-      <c r="L151" s="326"/>
-      <c r="M151" s="326"/>
+      <c r="L151" s="327"/>
+      <c r="M151" s="327"/>
       <c r="N151" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="25.5">
-      <c r="A152" s="323"/>
+      <c r="A152" s="324"/>
       <c r="B152" s="286">
         <v>117.98</v>
       </c>
@@ -15371,15 +15448,15 @@
         <f t="shared" ref="K152:K155" si="40">(F152-I152)/(H152-I152)</f>
         <v>0.31999999999993928</v>
       </c>
-      <c r="L152" s="326"/>
-      <c r="M152" s="326"/>
+      <c r="L152" s="327"/>
+      <c r="M152" s="327"/>
       <c r="N152" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="25.5">
-      <c r="A153" s="323"/>
-      <c r="B153" s="328">
+      <c r="A153" s="324"/>
+      <c r="B153" s="329">
         <v>118.93</v>
       </c>
       <c r="C153" s="293" t="s">
@@ -15412,15 +15489,15 @@
         <f t="shared" si="40"/>
         <v>0.21621485943778529</v>
       </c>
-      <c r="L153" s="326"/>
-      <c r="M153" s="326"/>
+      <c r="L153" s="327"/>
+      <c r="M153" s="327"/>
       <c r="N153" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="25.5">
-      <c r="A154" s="323"/>
-      <c r="B154" s="329"/>
+      <c r="A154" s="324"/>
+      <c r="B154" s="330"/>
       <c r="C154" s="293" t="s">
         <v>179</v>
       </c>
@@ -15451,14 +15528,14 @@
         <f t="shared" si="40"/>
         <v>0.71999999999999653</v>
       </c>
-      <c r="L154" s="326"/>
-      <c r="M154" s="326"/>
+      <c r="L154" s="327"/>
+      <c r="M154" s="327"/>
       <c r="N154" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A155" s="324"/>
+      <c r="A155" s="325"/>
       <c r="B155" s="282"/>
       <c r="C155" s="294" t="s">
         <v>177</v>
@@ -15490,8 +15567,8 @@
         <f t="shared" si="40"/>
         <v>7.1478111186321358E-2</v>
       </c>
-      <c r="L155" s="327"/>
-      <c r="M155" s="327"/>
+      <c r="L155" s="328"/>
+      <c r="M155" s="328"/>
       <c r="N155" s="194" t="s">
         <v>135</v>
       </c>
@@ -15542,7 +15619,7 @@
       <c r="N156" s="196"/>
     </row>
     <row r="157" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A157" s="330" t="s">
+      <c r="A157" s="331" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="122" t="s">
@@ -15581,7 +15658,7 @@
       <c r="N157" s="197"/>
     </row>
     <row r="158" spans="1:14" ht="25.5">
-      <c r="A158" s="331"/>
+      <c r="A158" s="332"/>
       <c r="B158" s="130" t="s">
         <v>138</v>
       </c>
@@ -15626,7 +15703,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="28.5">
-      <c r="A159" s="332"/>
+      <c r="A159" s="333"/>
       <c r="B159" s="162">
         <v>7.12</v>
       </c>
@@ -15826,7 +15903,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" thickBot="1">
-      <c r="A165" s="322" t="s">
+      <c r="A165" s="323" t="s">
         <v>239</v>
       </c>
       <c r="B165" s="296">
@@ -15851,18 +15928,18 @@
       </c>
       <c r="J165" s="268"/>
       <c r="K165" s="153"/>
-      <c r="L165" s="325">
+      <c r="L165" s="326">
         <f>E171/D171</f>
         <v>2.1974334733442479E-4</v>
       </c>
-      <c r="M165" s="325">
+      <c r="M165" s="326">
         <f>L165*365</f>
         <v>8.0206321777065048E-2</v>
       </c>
       <c r="N165" s="191"/>
     </row>
     <row r="166" spans="1:14" ht="25.5">
-      <c r="A166" s="323"/>
+      <c r="A166" s="324"/>
       <c r="B166" s="269">
         <v>28</v>
       </c>
@@ -15896,14 +15973,14 @@
         <f>(F166-I166)/(H166-I166)</f>
         <v>2.247174980950729E-2</v>
       </c>
-      <c r="L166" s="326"/>
-      <c r="M166" s="326"/>
+      <c r="L166" s="327"/>
+      <c r="M166" s="327"/>
       <c r="N166" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="25.5">
-      <c r="A167" s="323"/>
+      <c r="A167" s="324"/>
       <c r="B167" s="286">
         <v>117.98</v>
       </c>
@@ -15937,15 +16014,15 @@
         <f t="shared" ref="K167:K170" si="44">(F167-I167)/(H167-I167)</f>
         <v>0.35999999999993171</v>
       </c>
-      <c r="L167" s="326"/>
-      <c r="M167" s="326"/>
+      <c r="L167" s="327"/>
+      <c r="M167" s="327"/>
       <c r="N167" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="25.5">
-      <c r="A168" s="323"/>
-      <c r="B168" s="328">
+      <c r="A168" s="324"/>
+      <c r="B168" s="329">
         <v>118.93</v>
       </c>
       <c r="C168" s="293" t="s">
@@ -15978,15 +16055,15 @@
         <f t="shared" si="44"/>
         <v>0.24324171686750845</v>
       </c>
-      <c r="L168" s="326"/>
-      <c r="M168" s="326"/>
+      <c r="L168" s="327"/>
+      <c r="M168" s="327"/>
       <c r="N168" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="25.5">
-      <c r="A169" s="323"/>
-      <c r="B169" s="329"/>
+      <c r="A169" s="324"/>
+      <c r="B169" s="330"/>
       <c r="C169" s="293" t="s">
         <v>179</v>
       </c>
@@ -16017,14 +16094,14 @@
         <f t="shared" si="44"/>
         <v>0.7299999999999931</v>
       </c>
-      <c r="L169" s="326"/>
-      <c r="M169" s="326"/>
+      <c r="L169" s="327"/>
+      <c r="M169" s="327"/>
       <c r="N169" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A170" s="324"/>
+      <c r="A170" s="325"/>
       <c r="B170" s="282"/>
       <c r="C170" s="294" t="s">
         <v>177</v>
@@ -16056,8 +16133,8 @@
         <f t="shared" si="44"/>
         <v>7.4227269308872704E-2</v>
       </c>
-      <c r="L170" s="327"/>
-      <c r="M170" s="327"/>
+      <c r="L170" s="328"/>
+      <c r="M170" s="328"/>
       <c r="N170" s="194" t="s">
         <v>135</v>
       </c>
@@ -16108,7 +16185,7 @@
       <c r="N171" s="196"/>
     </row>
     <row r="172" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A172" s="330" t="s">
+      <c r="A172" s="331" t="s">
         <v>196</v>
       </c>
       <c r="B172" s="122" t="s">
@@ -16147,7 +16224,7 @@
       <c r="N172" s="197"/>
     </row>
     <row r="173" spans="1:14" ht="25.5">
-      <c r="A173" s="331"/>
+      <c r="A173" s="332"/>
       <c r="B173" s="130" t="s">
         <v>138</v>
       </c>
@@ -16192,7 +16269,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" ht="28.5">
-      <c r="A174" s="332"/>
+      <c r="A174" s="333"/>
       <c r="B174" s="162">
         <v>7.12</v>
       </c>
@@ -16346,35 +16423,1179 @@
         <v>7043.3847222223449</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="15" thickTop="1"/>
+    <row r="178" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="179" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A179" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J179" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K179" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L179" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M179" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N179" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15" thickBot="1">
+      <c r="A180" s="323" t="s">
+        <v>241</v>
+      </c>
+      <c r="B180" s="297">
+        <v>78.91</v>
+      </c>
+      <c r="C180" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D180" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E180" s="264"/>
+      <c r="F180" s="264">
+        <f>D180</f>
+        <v>11100</v>
+      </c>
+      <c r="G180" s="265"/>
+      <c r="H180" s="266"/>
+      <c r="I180" s="267">
+        <f>D180</f>
+        <v>11100</v>
+      </c>
+      <c r="J180" s="268"/>
+      <c r="K180" s="153"/>
+      <c r="L180" s="326">
+        <f>E186/D186</f>
+        <v>2.1969507080417343E-4</v>
+      </c>
+      <c r="M180" s="326">
+        <f>L180*365</f>
+        <v>8.0188700843523295E-2</v>
+      </c>
+      <c r="N180" s="191"/>
+    </row>
+    <row r="181" spans="1:14" ht="25.5">
+      <c r="A181" s="324"/>
+      <c r="B181" s="269">
+        <v>28</v>
+      </c>
+      <c r="C181" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D181" s="270">
+        <v>8527.7216000000044</v>
+      </c>
+      <c r="E181" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F181" s="270">
+        <f>D181+E181</f>
+        <v>8531.186800000005</v>
+      </c>
+      <c r="G181" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H181" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I181" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J181" s="274">
+        <f>E181/I181</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K181" s="275">
+        <f>(F181-I181)/(H181-I181)</f>
+        <v>2.52807185356957E-2</v>
+      </c>
+      <c r="L181" s="327"/>
+      <c r="M181" s="327"/>
+      <c r="N181" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="25.5">
+      <c r="A182" s="324"/>
+      <c r="B182" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C182" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D182" s="287">
+        <v>10017.261999999997</v>
+      </c>
+      <c r="E182" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F182" s="287">
+        <f>D182+E182</f>
+        <v>10019.179999999997</v>
+      </c>
+      <c r="G182" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H182" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I182" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J182" s="274">
+        <f t="shared" ref="J182:J185" si="47">E182/I182</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K182" s="276">
+        <f t="shared" ref="K182:K185" si="48">(F182-I182)/(H182-I182)</f>
+        <v>0.39999999999992414</v>
+      </c>
+      <c r="L182" s="327"/>
+      <c r="M182" s="327"/>
+      <c r="N182" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="25.5">
+      <c r="A183" s="324"/>
+      <c r="B183" s="329">
+        <v>118.93</v>
+      </c>
+      <c r="C183" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D183" s="279">
+        <v>10019.381500000003</v>
+      </c>
+      <c r="E183" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F183" s="279">
+        <f t="shared" ref="F183:F184" si="49">D183+E183</f>
+        <v>10021.535000000003</v>
+      </c>
+      <c r="G183" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H183" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I183" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J183" s="274">
+        <f t="shared" si="47"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K183" s="276">
+        <f t="shared" si="48"/>
+        <v>0.27026857429723161</v>
+      </c>
+      <c r="L183" s="327"/>
+      <c r="M183" s="327"/>
+      <c r="N183" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="25.5">
+      <c r="A184" s="324"/>
+      <c r="B184" s="330"/>
+      <c r="C184" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" s="279">
+        <v>1024.0023999999999</v>
+      </c>
+      <c r="E184" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F184" s="279">
+        <f t="shared" si="49"/>
+        <v>1024.3311999999999</v>
+      </c>
+      <c r="G184" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H184" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I184" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J184" s="274">
+        <f t="shared" si="47"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K184" s="276">
+        <f t="shared" si="48"/>
+        <v>0.73999999999999311</v>
+      </c>
+      <c r="L184" s="327"/>
+      <c r="M184" s="327"/>
+      <c r="N184" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A185" s="325"/>
+      <c r="B185" s="282"/>
+      <c r="C185" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D185" s="283">
+        <v>10088.830000000007</v>
+      </c>
+      <c r="E185" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F185" s="284">
+        <f>D185+E185</f>
+        <v>10092.120000000008</v>
+      </c>
+      <c r="G185" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H185" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I185" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J185" s="274">
+        <f t="shared" si="47"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K185" s="276">
+        <f t="shared" si="48"/>
+        <v>7.6976427431424049E-2</v>
+      </c>
+      <c r="L185" s="328"/>
+      <c r="M185" s="328"/>
+      <c r="N185" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A186" s="195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B186" s="174">
+        <f>SUM(B180:B185)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" s="11">
+        <f>SUM(D180:D185)</f>
+        <v>50777.197500000009</v>
+      </c>
+      <c r="E186" s="61">
+        <f>SUM(E180:E185)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F186" s="11">
+        <f>SUM(F180:F185)</f>
+        <v>50788.353000000017</v>
+      </c>
+      <c r="G186" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H186" s="66">
+        <f>L180*10000</f>
+        <v>2.1969507080417343</v>
+      </c>
+      <c r="I186" s="158">
+        <f>SUM(I180:I185)</f>
+        <v>50600</v>
+      </c>
+      <c r="J186" s="68"/>
+      <c r="K186" s="68"/>
+      <c r="L186" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M186" s="66">
+        <f>M180*10000</f>
+        <v>801.88700843523293</v>
+      </c>
+      <c r="N186" s="196"/>
+    </row>
+    <row r="187" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A187" s="331" t="s">
+        <v>196</v>
+      </c>
+      <c r="B187" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D187" s="123">
+        <v>1413.61</v>
+      </c>
+      <c r="E187" s="124">
+        <v>0</v>
+      </c>
+      <c r="F187" s="124">
+        <f>D187+E187</f>
+        <v>1413.61</v>
+      </c>
+      <c r="G187" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H187" s="123">
+        <f>F187</f>
+        <v>1413.61</v>
+      </c>
+      <c r="I187" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J187" s="127">
+        <f>(H187-I187)/I187</f>
+        <v>-5.7593333333333399E-2</v>
+      </c>
+      <c r="K187" s="127"/>
+      <c r="L187" s="128"/>
+      <c r="M187" s="129"/>
+      <c r="N187" s="197"/>
+    </row>
+    <row r="188" spans="1:14" ht="25.5">
+      <c r="A188" s="332"/>
+      <c r="B188" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C188" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D188" s="131">
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="E188" s="132">
+        <v>0</v>
+      </c>
+      <c r="F188" s="132">
+        <f>D188+E188</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="G188" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H188" s="131">
+        <f>F188</f>
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="I188" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J188" s="168">
+        <f>(H188-I188)/I188</f>
+        <v>-4.9266666666665819E-3</v>
+      </c>
+      <c r="K188" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L188" s="243">
+        <v>1.454</v>
+      </c>
+      <c r="M188" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N188" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="28.5">
+      <c r="A189" s="333"/>
+      <c r="B189" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C189" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D189" s="164">
+        <v>10500.919999999998</v>
+      </c>
+      <c r="E189" s="163">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F189" s="163">
+        <f>D189+E189</f>
+        <v>10502.069999999998</v>
+      </c>
+      <c r="G189" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189" s="166">
+        <f>F189</f>
+        <v>10502.069999999998</v>
+      </c>
+      <c r="I189" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J189" s="239">
+        <f t="shared" ref="J189" si="50">E189/D189</f>
+        <v>1.0951421399267874E-4</v>
+      </c>
+      <c r="K189" s="277">
+        <f>(F189-I189)/I189</f>
+        <v>1.971428571426562E-4</v>
+      </c>
+      <c r="L189" s="175"/>
+      <c r="M189" s="176"/>
+      <c r="N189" s="198"/>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="199"/>
+      <c r="B190" s="186"/>
+      <c r="C190" s="186"/>
+      <c r="D190" s="186"/>
+      <c r="E190" s="186"/>
+      <c r="F190" s="186"/>
+      <c r="G190" s="186"/>
+      <c r="H190" s="186"/>
+      <c r="I190" s="186"/>
+      <c r="J190" s="186"/>
+      <c r="K190" s="186"/>
+      <c r="L190" s="186"/>
+      <c r="M190" s="186"/>
+      <c r="N190" s="200"/>
+    </row>
+    <row r="191" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A191" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D191" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F191" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G191" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H191" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I191" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J191" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K191" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L191" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M191" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N191" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A192" s="203" t="s">
+        <v>242</v>
+      </c>
+      <c r="B192" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C192" s="205">
+        <f>F186+B186</f>
+        <v>51132.173000000017</v>
+      </c>
+      <c r="D192" s="205">
+        <f>I186</f>
+        <v>50600</v>
+      </c>
+      <c r="E192" s="206">
+        <v>28</v>
+      </c>
+      <c r="F192" s="207">
+        <f>C192-D192</f>
+        <v>532.17300000001705</v>
+      </c>
+      <c r="G192" s="208">
+        <f>F192/D192</f>
+        <v>1.0517252964427215E-2</v>
+      </c>
+      <c r="H192" s="207">
+        <f>F192/E192</f>
+        <v>19.006178571429182</v>
+      </c>
+      <c r="I192" s="208">
+        <f>G192/E192</f>
+        <v>3.7561617730097198E-4</v>
+      </c>
+      <c r="J192" s="209">
+        <f>H192*10000/D192</f>
+        <v>3.7561617730097199</v>
+      </c>
+      <c r="K192" s="210">
+        <f>B186</f>
+        <v>343.82</v>
+      </c>
+      <c r="L192" s="210">
+        <f>F192-K192</f>
+        <v>188.35300000001706</v>
+      </c>
+      <c r="M192" s="208">
+        <f>I192*365</f>
+        <v>0.13709990471485478</v>
+      </c>
+      <c r="N192" s="211">
+        <f>H192*365</f>
+        <v>6937.2551785716514</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="194" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A194" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C194" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J194" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K194" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L194" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M194" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N194" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15" thickBot="1">
+      <c r="A195" s="323" t="s">
+        <v>243</v>
+      </c>
+      <c r="B195" s="297">
+        <v>78.91</v>
+      </c>
+      <c r="C195" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D195" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E195" s="264"/>
+      <c r="F195" s="264">
+        <f>D195</f>
+        <v>11100</v>
+      </c>
+      <c r="G195" s="265"/>
+      <c r="H195" s="266"/>
+      <c r="I195" s="267">
+        <f>D195</f>
+        <v>11100</v>
+      </c>
+      <c r="J195" s="268"/>
+      <c r="K195" s="153"/>
+      <c r="L195" s="326">
+        <f>E201/D201</f>
+        <v>2.1964681548149428E-4</v>
+      </c>
+      <c r="M195" s="326">
+        <f>L195*365</f>
+        <v>8.0171087650745418E-2</v>
+      </c>
+      <c r="N195" s="191"/>
+    </row>
+    <row r="196" spans="1:14" ht="25.5">
+      <c r="A196" s="324"/>
+      <c r="B196" s="269">
+        <v>28</v>
+      </c>
+      <c r="C196" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D196" s="270">
+        <v>8531.186800000005</v>
+      </c>
+      <c r="E196" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F196" s="270">
+        <f>D196+E196</f>
+        <v>8534.6520000000055</v>
+      </c>
+      <c r="G196" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H196" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I196" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J196" s="274">
+        <f>E196/I196</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K196" s="275">
+        <f>(F196-I196)/(H196-I196)</f>
+        <v>2.808968726188411E-2</v>
+      </c>
+      <c r="L196" s="327"/>
+      <c r="M196" s="327"/>
+      <c r="N196" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="25.5">
+      <c r="A197" s="324"/>
+      <c r="B197" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C197" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D197" s="287">
+        <v>10019.179999999997</v>
+      </c>
+      <c r="E197" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F197" s="287">
+        <f>D197+E197</f>
+        <v>10021.097999999996</v>
+      </c>
+      <c r="G197" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H197" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I197" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J197" s="274">
+        <f t="shared" ref="J197:J200" si="51">E197/I197</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K197" s="276">
+        <f t="shared" ref="K197:K200" si="52">(F197-I197)/(H197-I197)</f>
+        <v>0.43999999999991657</v>
+      </c>
+      <c r="L197" s="327"/>
+      <c r="M197" s="327"/>
+      <c r="N197" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="25.5">
+      <c r="A198" s="324"/>
+      <c r="B198" s="329">
+        <v>118.93</v>
+      </c>
+      <c r="C198" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D198" s="279">
+        <v>10021.535000000003</v>
+      </c>
+      <c r="E198" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F198" s="279">
+        <f t="shared" ref="F198:F199" si="53">D198+E198</f>
+        <v>10023.688500000004</v>
+      </c>
+      <c r="G198" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H198" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I198" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J198" s="274">
+        <f t="shared" si="51"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K198" s="276">
+        <f t="shared" si="52"/>
+        <v>0.29729543172695477</v>
+      </c>
+      <c r="L198" s="327"/>
+      <c r="M198" s="327"/>
+      <c r="N198" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="25.5">
+      <c r="A199" s="324"/>
+      <c r="B199" s="330"/>
+      <c r="C199" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D199" s="279">
+        <v>1024.3311999999999</v>
+      </c>
+      <c r="E199" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F199" s="279">
+        <f t="shared" si="53"/>
+        <v>1024.6599999999999</v>
+      </c>
+      <c r="G199" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H199" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I199" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J199" s="274">
+        <f t="shared" si="51"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K199" s="276">
+        <f t="shared" si="52"/>
+        <v>0.74999999999999312</v>
+      </c>
+      <c r="L199" s="327"/>
+      <c r="M199" s="327"/>
+      <c r="N199" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A200" s="325"/>
+      <c r="B200" s="282"/>
+      <c r="C200" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D200" s="283">
+        <v>10092.120000000008</v>
+      </c>
+      <c r="E200" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F200" s="284">
+        <f>D200+E200</f>
+        <v>10095.410000000009</v>
+      </c>
+      <c r="G200" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H200" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I200" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J200" s="274">
+        <f t="shared" si="51"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K200" s="276">
+        <f t="shared" si="52"/>
+        <v>7.9725585553975409E-2</v>
+      </c>
+      <c r="L200" s="328"/>
+      <c r="M200" s="328"/>
+      <c r="N200" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A201" s="195" t="s">
+        <v>244</v>
+      </c>
+      <c r="B201" s="174">
+        <f>SUM(B195:B200)</f>
+        <v>343.82</v>
+      </c>
+      <c r="C201" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D201" s="11">
+        <f>SUM(D195:D200)</f>
+        <v>50788.353000000017</v>
+      </c>
+      <c r="E201" s="61">
+        <f>SUM(E195:E200)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F201" s="11">
+        <f>SUM(F195:F200)</f>
+        <v>50799.508500000018</v>
+      </c>
+      <c r="G201" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H201" s="66">
+        <f>L195*10000</f>
+        <v>2.196468154814943</v>
+      </c>
+      <c r="I201" s="158">
+        <f>SUM(I195:I200)</f>
+        <v>50600</v>
+      </c>
+      <c r="J201" s="68"/>
+      <c r="K201" s="68"/>
+      <c r="L201" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M201" s="66">
+        <f>M195*10000</f>
+        <v>801.71087650745415</v>
+      </c>
+      <c r="N201" s="196"/>
+    </row>
+    <row r="202" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A202" s="331" t="s">
+        <v>196</v>
+      </c>
+      <c r="B202" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C202" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D202" s="123">
+        <v>1413.61</v>
+      </c>
+      <c r="E202" s="124">
+        <v>-5.62</v>
+      </c>
+      <c r="F202" s="124">
+        <f>D202+E202</f>
+        <v>1407.99</v>
+      </c>
+      <c r="G202" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H202" s="123">
+        <f>F202</f>
+        <v>1407.99</v>
+      </c>
+      <c r="I202" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J202" s="127">
+        <f>(H202-I202)/I202</f>
+        <v>-6.1339999999999992E-2</v>
+      </c>
+      <c r="K202" s="127"/>
+      <c r="L202" s="128"/>
+      <c r="M202" s="129"/>
+      <c r="N202" s="197"/>
+    </row>
+    <row r="203" spans="1:14" ht="25.5">
+      <c r="A203" s="332"/>
+      <c r="B203" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C203" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D203" s="131">
+        <v>1492.6100000000001</v>
+      </c>
+      <c r="E203" s="132">
+        <v>-49.27</v>
+      </c>
+      <c r="F203" s="132">
+        <f>D203+E203</f>
+        <v>1443.3400000000001</v>
+      </c>
+      <c r="G203" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H203" s="131">
+        <f>F203</f>
+        <v>1443.3400000000001</v>
+      </c>
+      <c r="I203" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J203" s="168">
+        <f>(H203-I203)/I203</f>
+        <v>-3.7773333333333235E-2</v>
+      </c>
+      <c r="K203" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L203" s="243">
+        <v>1.423</v>
+      </c>
+      <c r="M203" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N203" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="28.5">
+      <c r="A204" s="333"/>
+      <c r="B204" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C204" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D204" s="164">
+        <v>10502.069999999998</v>
+      </c>
+      <c r="E204" s="163">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F204" s="163">
+        <f>D204+E204</f>
+        <v>10503.229999999998</v>
+      </c>
+      <c r="G204" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="166">
+        <f>F204</f>
+        <v>10503.229999999998</v>
+      </c>
+      <c r="I204" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J204" s="239">
+        <f t="shared" ref="J204" si="54">E204/D204</f>
+        <v>1.1045441517719842E-4</v>
+      </c>
+      <c r="K204" s="277">
+        <f>(F204-I204)/I204</f>
+        <v>3.0761904761883278E-4</v>
+      </c>
+      <c r="L204" s="175"/>
+      <c r="M204" s="176"/>
+      <c r="N204" s="198"/>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" s="199"/>
+      <c r="B205" s="186"/>
+      <c r="C205" s="186"/>
+      <c r="D205" s="186"/>
+      <c r="E205" s="186"/>
+      <c r="F205" s="186"/>
+      <c r="G205" s="186"/>
+      <c r="H205" s="186"/>
+      <c r="I205" s="186"/>
+      <c r="J205" s="186"/>
+      <c r="K205" s="186"/>
+      <c r="L205" s="186"/>
+      <c r="M205" s="186"/>
+      <c r="N205" s="200"/>
+    </row>
+    <row r="206" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A206" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D206" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F206" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G206" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H206" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I206" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J206" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K206" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L206" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M206" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N206" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A207" s="203" t="s">
+        <v>245</v>
+      </c>
+      <c r="B207" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207" s="205">
+        <f>F201+B201</f>
+        <v>51143.328500000018</v>
+      </c>
+      <c r="D207" s="205">
+        <f>I201</f>
+        <v>50600</v>
+      </c>
+      <c r="E207" s="206">
+        <v>29</v>
+      </c>
+      <c r="F207" s="207">
+        <f>C207-D207</f>
+        <v>543.32850000001781</v>
+      </c>
+      <c r="G207" s="208">
+        <f>F207/D207</f>
+        <v>1.07377173913047E-2</v>
+      </c>
+      <c r="H207" s="207">
+        <f>F207/E207</f>
+        <v>18.735465517241995</v>
+      </c>
+      <c r="I207" s="208">
+        <f>G207/E207</f>
+        <v>3.7026611694154137E-4</v>
+      </c>
+      <c r="J207" s="209">
+        <f>H207*10000/D207</f>
+        <v>3.7026611694154137</v>
+      </c>
+      <c r="K207" s="210">
+        <f>B201</f>
+        <v>343.82</v>
+      </c>
+      <c r="L207" s="210">
+        <f>F207-K207</f>
+        <v>199.50850000001782</v>
+      </c>
+      <c r="M207" s="208">
+        <f>I207*365</f>
+        <v>0.1351471326836626</v>
+      </c>
+      <c r="N207" s="211">
+        <f>H207*365</f>
+        <v>6838.4449137933279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15" thickTop="1"/>
+    <row r="210" spans="5:5">
+      <c r="E210" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="L165:L170"/>
-    <mergeCell ref="M165:M170"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="L135:L140"/>
-    <mergeCell ref="M135:M140"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="L120:L125"/>
-    <mergeCell ref="M120:M125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
+  <mergeCells count="71">
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="L195:L200"/>
+    <mergeCell ref="M195:M200"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="L180:L185"/>
+    <mergeCell ref="M180:M185"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="L150:L155"/>
+    <mergeCell ref="M150:M155"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -16387,29 +17608,32 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="L150:L155"/>
-    <mergeCell ref="M150:M155"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="L135:L140"/>
+    <mergeCell ref="M135:M140"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="L165:L170"/>
+    <mergeCell ref="M165:M170"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A172:A174"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16586,20 +17810,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="343" t="s">
+      <c r="A17" s="344" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="344"/>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="344"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="344"/>
-      <c r="K17" s="344"/>
-      <c r="L17" s="345"/>
+      <c r="B17" s="345"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="345"/>
+      <c r="E17" s="345"/>
+      <c r="F17" s="345"/>
+      <c r="G17" s="345"/>
+      <c r="H17" s="345"/>
+      <c r="I17" s="345"/>
+      <c r="J17" s="345"/>
+      <c r="K17" s="345"/>
+      <c r="L17" s="346"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -16725,20 +17949,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="343" t="s">
+      <c r="A22" s="344" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="344"/>
-      <c r="C22" s="344"/>
-      <c r="D22" s="344"/>
-      <c r="E22" s="344"/>
-      <c r="F22" s="344"/>
-      <c r="G22" s="344"/>
-      <c r="H22" s="344"/>
-      <c r="I22" s="344"/>
-      <c r="J22" s="344"/>
-      <c r="K22" s="344"/>
-      <c r="L22" s="345"/>
+      <c r="B22" s="345"/>
+      <c r="C22" s="345"/>
+      <c r="D22" s="345"/>
+      <c r="E22" s="345"/>
+      <c r="F22" s="345"/>
+      <c r="G22" s="345"/>
+      <c r="H22" s="345"/>
+      <c r="I22" s="345"/>
+      <c r="J22" s="345"/>
+      <c r="K22" s="345"/>
+      <c r="L22" s="346"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M20-winx64\webapps\h5game\h5文档\理财\"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="251">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1726,7 +1726,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.</t>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3177,7 +3243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4062,6 +4128,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4592,7 +4661,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="321">
+      <c r="F2" s="322">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4614,7 +4683,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="322"/>
+      <c r="F3" s="323"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4622,7 +4691,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="322"/>
+      <c r="F4" s="323"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4683,7 +4752,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="300" t="s">
+      <c r="A8" s="301" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4713,17 +4782,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="317">
+      <c r="K8" s="318">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="317">
+      <c r="L8" s="318">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="301"/>
+      <c r="A9" s="302"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4751,11 +4820,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="318"/>
-      <c r="L9" s="318"/>
+      <c r="K9" s="319"/>
+      <c r="L9" s="319"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="301"/>
+      <c r="A10" s="302"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4785,11 +4854,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="318"/>
-      <c r="L10" s="318"/>
+      <c r="K10" s="319"/>
+      <c r="L10" s="319"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="301"/>
+      <c r="A11" s="302"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4817,11 +4886,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="318"/>
-      <c r="L11" s="318"/>
+      <c r="K11" s="319"/>
+      <c r="L11" s="319"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="301"/>
+      <c r="A12" s="302"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4849,11 +4918,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="318"/>
-      <c r="L12" s="318"/>
+      <c r="K12" s="319"/>
+      <c r="L12" s="319"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="301"/>
+      <c r="A13" s="302"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4883,11 +4952,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="318"/>
-      <c r="L13" s="318"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="319"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="301"/>
+      <c r="A14" s="302"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4917,11 +4986,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="301"/>
+      <c r="A15" s="302"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4949,11 +5018,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="319"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="302"/>
+      <c r="A16" s="303"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -4982,8 +5051,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="319"/>
-      <c r="L16" s="319"/>
+      <c r="K16" s="320"/>
+      <c r="L16" s="320"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -5064,7 +5133,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="300" t="s">
+      <c r="A20" s="301" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5096,17 +5165,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="316">
+      <c r="K20" s="317">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="316">
+      <c r="L20" s="317">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="301"/>
+      <c r="A21" s="302"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -5136,11 +5205,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="314"/>
-      <c r="L21" s="314"/>
+      <c r="K21" s="315"/>
+      <c r="L21" s="315"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="301"/>
+      <c r="A22" s="302"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -5170,11 +5239,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="314"/>
-      <c r="L22" s="314"/>
+      <c r="K22" s="315"/>
+      <c r="L22" s="315"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="301"/>
+      <c r="A23" s="302"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -5204,11 +5273,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="314"/>
-      <c r="L23" s="314"/>
+      <c r="K23" s="315"/>
+      <c r="L23" s="315"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="301"/>
+      <c r="A24" s="302"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5238,11 +5307,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="314"/>
-      <c r="L24" s="314"/>
+      <c r="K24" s="315"/>
+      <c r="L24" s="315"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="301"/>
+      <c r="A25" s="302"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5272,11 +5341,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="314"/>
-      <c r="L25" s="314"/>
+      <c r="K25" s="315"/>
+      <c r="L25" s="315"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="301"/>
+      <c r="A26" s="302"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5306,11 +5375,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="314"/>
-      <c r="L26" s="314"/>
+      <c r="K26" s="315"/>
+      <c r="L26" s="315"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="301"/>
+      <c r="A27" s="302"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5340,11 +5409,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="314"/>
-      <c r="L27" s="314"/>
+      <c r="K27" s="315"/>
+      <c r="L27" s="315"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="302"/>
+      <c r="A28" s="303"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5374,8 +5443,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="320"/>
-      <c r="L28" s="320"/>
+      <c r="K28" s="321"/>
+      <c r="L28" s="321"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5460,7 +5529,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="300" t="s">
+      <c r="A32" s="301" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5492,17 +5561,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="313">
+      <c r="K32" s="314">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="316">
+      <c r="L32" s="317">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="301"/>
+      <c r="A33" s="302"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5532,11 +5601,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="314"/>
-      <c r="L33" s="314"/>
+      <c r="K33" s="315"/>
+      <c r="L33" s="315"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="301"/>
+      <c r="A34" s="302"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5566,11 +5635,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="314"/>
-      <c r="L34" s="314"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="301"/>
+      <c r="A35" s="302"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5600,11 +5669,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="314"/>
-      <c r="L35" s="314"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="315"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="301"/>
+      <c r="A36" s="302"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5634,12 +5703,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="314"/>
-      <c r="L36" s="314"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="315"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="301"/>
-      <c r="B37" s="306" t="s">
+      <c r="A37" s="302"/>
+      <c r="B37" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5668,12 +5737,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="314"/>
-      <c r="L37" s="314"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="315"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="301"/>
-      <c r="B38" s="307"/>
+      <c r="A38" s="302"/>
+      <c r="B38" s="308"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5700,12 +5769,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="314"/>
-      <c r="L38" s="314"/>
+      <c r="K38" s="315"/>
+      <c r="L38" s="315"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="301"/>
-      <c r="B39" s="308"/>
+      <c r="A39" s="302"/>
+      <c r="B39" s="309"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5732,12 +5801,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="314"/>
-      <c r="L39" s="314"/>
+      <c r="K39" s="315"/>
+      <c r="L39" s="315"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="301"/>
-      <c r="B40" s="298" t="s">
+      <c r="A40" s="302"/>
+      <c r="B40" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5766,12 +5835,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="314"/>
-      <c r="L40" s="314"/>
+      <c r="K40" s="315"/>
+      <c r="L40" s="315"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="301"/>
-      <c r="B41" s="299"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="300"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5791,11 +5860,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="314"/>
-      <c r="L41" s="314"/>
+      <c r="K41" s="315"/>
+      <c r="L41" s="315"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="302"/>
+      <c r="A42" s="303"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5825,8 +5894,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="315"/>
-      <c r="L42" s="315"/>
+      <c r="K42" s="316"/>
+      <c r="L42" s="316"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5911,7 +5980,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="300" t="s">
+      <c r="A46" s="301" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -5943,17 +6012,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="313">
+      <c r="K46" s="314">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="316">
+      <c r="L46" s="317">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="301"/>
+      <c r="A47" s="302"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5983,11 +6052,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="314"/>
-      <c r="L47" s="314"/>
+      <c r="K47" s="315"/>
+      <c r="L47" s="315"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="301"/>
+      <c r="A48" s="302"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -6017,11 +6086,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="314"/>
-      <c r="L48" s="314"/>
+      <c r="K48" s="315"/>
+      <c r="L48" s="315"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="301"/>
+      <c r="A49" s="302"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -6051,11 +6120,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="314"/>
-      <c r="L49" s="314"/>
+      <c r="K49" s="315"/>
+      <c r="L49" s="315"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="301"/>
+      <c r="A50" s="302"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6085,12 +6154,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="314"/>
-      <c r="L50" s="314"/>
+      <c r="K50" s="315"/>
+      <c r="L50" s="315"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="301"/>
-      <c r="B51" s="306" t="s">
+      <c r="A51" s="302"/>
+      <c r="B51" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -6119,12 +6188,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="314"/>
-      <c r="L51" s="314"/>
+      <c r="K51" s="315"/>
+      <c r="L51" s="315"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="301"/>
-      <c r="B52" s="307"/>
+      <c r="A52" s="302"/>
+      <c r="B52" s="308"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -6151,12 +6220,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="314"/>
-      <c r="L52" s="314"/>
+      <c r="K52" s="315"/>
+      <c r="L52" s="315"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="301"/>
-      <c r="B53" s="308"/>
+      <c r="A53" s="302"/>
+      <c r="B53" s="309"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -6183,12 +6252,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="314"/>
-      <c r="L53" s="314"/>
+      <c r="K53" s="315"/>
+      <c r="L53" s="315"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="301"/>
-      <c r="B54" s="298" t="s">
+      <c r="A54" s="302"/>
+      <c r="B54" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -6217,12 +6286,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="314"/>
-      <c r="L54" s="314"/>
+      <c r="K54" s="315"/>
+      <c r="L54" s="315"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="301"/>
-      <c r="B55" s="299"/>
+      <c r="A55" s="302"/>
+      <c r="B55" s="300"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6249,11 +6318,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="314"/>
-      <c r="L55" s="314"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="315"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="302"/>
+      <c r="A56" s="303"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6283,8 +6352,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="315"/>
-      <c r="L56" s="315"/>
+      <c r="K56" s="316"/>
+      <c r="L56" s="316"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6374,7 +6443,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="300" t="s">
+      <c r="A60" s="301" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6406,11 +6475,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="303">
+      <c r="K60" s="304">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="303">
+      <c r="L60" s="304">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6419,7 +6488,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="301"/>
+      <c r="A61" s="302"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6449,12 +6518,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="304"/>
-      <c r="L61" s="304"/>
+      <c r="K61" s="305"/>
+      <c r="L61" s="305"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="301"/>
+      <c r="A62" s="302"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6484,14 +6553,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="304"/>
-      <c r="L62" s="304"/>
+      <c r="K62" s="305"/>
+      <c r="L62" s="305"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="301"/>
+      <c r="A63" s="302"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6521,12 +6590,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="304"/>
-      <c r="L63" s="304"/>
+      <c r="K63" s="305"/>
+      <c r="L63" s="305"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="301"/>
+      <c r="A64" s="302"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6556,13 +6625,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="304"/>
-      <c r="L64" s="304"/>
+      <c r="K64" s="305"/>
+      <c r="L64" s="305"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="301"/>
-      <c r="B65" s="306" t="s">
+      <c r="A65" s="302"/>
+      <c r="B65" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6591,13 +6660,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="304"/>
-      <c r="L65" s="304"/>
+      <c r="K65" s="305"/>
+      <c r="L65" s="305"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="301"/>
-      <c r="B66" s="307"/>
+      <c r="A66" s="302"/>
+      <c r="B66" s="308"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6624,15 +6693,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="304"/>
-      <c r="L66" s="304"/>
+      <c r="K66" s="305"/>
+      <c r="L66" s="305"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="301"/>
-      <c r="B67" s="308"/>
+      <c r="A67" s="302"/>
+      <c r="B67" s="309"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6659,13 +6728,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="304"/>
-      <c r="L67" s="304"/>
+      <c r="K67" s="305"/>
+      <c r="L67" s="305"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="301"/>
-      <c r="B68" s="298" t="s">
+      <c r="A68" s="302"/>
+      <c r="B68" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6694,15 +6763,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="304"/>
-      <c r="L68" s="304"/>
+      <c r="K68" s="305"/>
+      <c r="L68" s="305"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="301"/>
-      <c r="B69" s="299"/>
+      <c r="A69" s="302"/>
+      <c r="B69" s="300"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6729,14 +6798,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="304"/>
-      <c r="L69" s="304"/>
+      <c r="K69" s="305"/>
+      <c r="L69" s="305"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="302"/>
+      <c r="A70" s="303"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6766,8 +6835,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="305"/>
-      <c r="L70" s="305"/>
+      <c r="K70" s="306"/>
+      <c r="L70" s="306"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6859,7 +6928,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="300" t="s">
+      <c r="A74" s="301" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6891,11 +6960,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="303">
+      <c r="K74" s="304">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="303">
+      <c r="L74" s="304">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6904,7 +6973,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="301"/>
+      <c r="A75" s="302"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -6934,12 +7003,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="304"/>
-      <c r="L75" s="304"/>
+      <c r="K75" s="305"/>
+      <c r="L75" s="305"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="301"/>
+      <c r="A76" s="302"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -6969,14 +7038,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="304"/>
-      <c r="L76" s="304"/>
+      <c r="K76" s="305"/>
+      <c r="L76" s="305"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="301"/>
+      <c r="A77" s="302"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -7006,12 +7075,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="304"/>
-      <c r="L77" s="304"/>
+      <c r="K77" s="305"/>
+      <c r="L77" s="305"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="301"/>
+      <c r="A78" s="302"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -7041,13 +7110,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="304"/>
-      <c r="L78" s="304"/>
+      <c r="K78" s="305"/>
+      <c r="L78" s="305"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="301"/>
-      <c r="B79" s="306" t="s">
+      <c r="A79" s="302"/>
+      <c r="B79" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -7076,13 +7145,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="304"/>
-      <c r="L79" s="304"/>
+      <c r="K79" s="305"/>
+      <c r="L79" s="305"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="301"/>
-      <c r="B80" s="307"/>
+      <c r="A80" s="302"/>
+      <c r="B80" s="308"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -7108,15 +7177,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="304"/>
-      <c r="L80" s="304"/>
+      <c r="K80" s="305"/>
+      <c r="L80" s="305"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="301"/>
-      <c r="B81" s="307"/>
+      <c r="A81" s="302"/>
+      <c r="B81" s="308"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -7143,15 +7212,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="304"/>
-      <c r="L81" s="304"/>
+      <c r="K81" s="305"/>
+      <c r="L81" s="305"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="301"/>
-      <c r="B82" s="308"/>
+      <c r="A82" s="302"/>
+      <c r="B82" s="309"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -7178,13 +7247,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="304"/>
-      <c r="L82" s="304"/>
+      <c r="K82" s="305"/>
+      <c r="L82" s="305"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="301"/>
-      <c r="B83" s="298" t="s">
+      <c r="A83" s="302"/>
+      <c r="B83" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -7213,15 +7282,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="304"/>
-      <c r="L83" s="304"/>
+      <c r="K83" s="305"/>
+      <c r="L83" s="305"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="301"/>
-      <c r="B84" s="299"/>
+      <c r="A84" s="302"/>
+      <c r="B84" s="300"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7248,14 +7317,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="304"/>
-      <c r="L84" s="304"/>
+      <c r="K84" s="305"/>
+      <c r="L84" s="305"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="302"/>
+      <c r="A85" s="303"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7285,8 +7354,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="305"/>
-      <c r="L85" s="305"/>
+      <c r="K85" s="306"/>
+      <c r="L85" s="306"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7377,7 +7446,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="300" t="s">
+      <c r="A89" s="301" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7409,11 +7478,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="303">
+      <c r="K89" s="304">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="303">
+      <c r="L89" s="304">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7422,7 +7491,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="301"/>
+      <c r="A90" s="302"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7452,12 +7521,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="304"/>
-      <c r="L90" s="304"/>
+      <c r="K90" s="305"/>
+      <c r="L90" s="305"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="301"/>
+      <c r="A91" s="302"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7487,14 +7556,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="304"/>
-      <c r="L91" s="304"/>
+      <c r="K91" s="305"/>
+      <c r="L91" s="305"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="301"/>
+      <c r="A92" s="302"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7524,14 +7593,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="304"/>
-      <c r="L92" s="304"/>
+      <c r="K92" s="305"/>
+      <c r="L92" s="305"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="301"/>
+      <c r="A93" s="302"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7561,13 +7630,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="304"/>
-      <c r="L93" s="304"/>
+      <c r="K93" s="305"/>
+      <c r="L93" s="305"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="301"/>
-      <c r="B94" s="306" t="s">
+      <c r="A94" s="302"/>
+      <c r="B94" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7596,15 +7665,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="304"/>
-      <c r="L94" s="304"/>
+      <c r="K94" s="305"/>
+      <c r="L94" s="305"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="301"/>
-      <c r="B95" s="307"/>
+      <c r="A95" s="302"/>
+      <c r="B95" s="308"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7631,15 +7700,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="304"/>
-      <c r="L95" s="304"/>
+      <c r="K95" s="305"/>
+      <c r="L95" s="305"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="301"/>
-      <c r="B96" s="308"/>
+      <c r="A96" s="302"/>
+      <c r="B96" s="309"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7666,13 +7735,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="304"/>
-      <c r="L96" s="304"/>
+      <c r="K96" s="305"/>
+      <c r="L96" s="305"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="301"/>
-      <c r="B97" s="298" t="s">
+      <c r="A97" s="302"/>
+      <c r="B97" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7701,15 +7770,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="304"/>
-      <c r="L97" s="304"/>
+      <c r="K97" s="305"/>
+      <c r="L97" s="305"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="301"/>
-      <c r="B98" s="299"/>
+      <c r="A98" s="302"/>
+      <c r="B98" s="300"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7736,14 +7805,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="304"/>
-      <c r="L98" s="304"/>
+      <c r="K98" s="305"/>
+      <c r="L98" s="305"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="302"/>
+      <c r="A99" s="303"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7773,8 +7842,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="305"/>
-      <c r="L99" s="305"/>
+      <c r="K99" s="306"/>
+      <c r="L99" s="306"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7867,7 +7936,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="300" t="s">
+      <c r="A103" s="301" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7899,11 +7968,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="303">
+      <c r="K103" s="304">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="303">
+      <c r="L103" s="304">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7912,7 +7981,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="301"/>
+      <c r="A104" s="302"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -7942,12 +8011,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="304"/>
-      <c r="L104" s="304"/>
+      <c r="K104" s="305"/>
+      <c r="L104" s="305"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="301"/>
+      <c r="A105" s="302"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -7977,14 +8046,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="304"/>
-      <c r="L105" s="304"/>
+      <c r="K105" s="305"/>
+      <c r="L105" s="305"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="301"/>
+      <c r="A106" s="302"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -8013,14 +8082,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="304"/>
-      <c r="L106" s="304"/>
+      <c r="K106" s="305"/>
+      <c r="L106" s="305"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="301"/>
+      <c r="A107" s="302"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -8050,13 +8119,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="304"/>
-      <c r="L107" s="304"/>
+      <c r="K107" s="305"/>
+      <c r="L107" s="305"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="301"/>
-      <c r="B108" s="306" t="s">
+      <c r="A108" s="302"/>
+      <c r="B108" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -8085,15 +8154,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="304"/>
-      <c r="L108" s="304"/>
+      <c r="K108" s="305"/>
+      <c r="L108" s="305"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="301"/>
-      <c r="B109" s="307"/>
+      <c r="A109" s="302"/>
+      <c r="B109" s="308"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -8120,15 +8189,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="304"/>
-      <c r="L109" s="304"/>
+      <c r="K109" s="305"/>
+      <c r="L109" s="305"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="301"/>
-      <c r="B110" s="308"/>
+      <c r="A110" s="302"/>
+      <c r="B110" s="309"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -8155,13 +8224,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="304"/>
-      <c r="L110" s="304"/>
+      <c r="K110" s="305"/>
+      <c r="L110" s="305"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="301"/>
-      <c r="B111" s="298" t="s">
+      <c r="A111" s="302"/>
+      <c r="B111" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -8190,15 +8259,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="304"/>
-      <c r="L111" s="304"/>
+      <c r="K111" s="305"/>
+      <c r="L111" s="305"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="301"/>
-      <c r="B112" s="299"/>
+      <c r="A112" s="302"/>
+      <c r="B112" s="300"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -8225,14 +8294,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="304"/>
-      <c r="L112" s="304"/>
+      <c r="K112" s="305"/>
+      <c r="L112" s="305"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="302"/>
+      <c r="A113" s="303"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8262,8 +8331,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="305"/>
-      <c r="L113" s="305"/>
+      <c r="K113" s="306"/>
+      <c r="L113" s="306"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8356,7 +8425,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="300" t="s">
+      <c r="A117" s="301" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8388,11 +8457,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="303">
+      <c r="K117" s="304">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="303">
+      <c r="L117" s="304">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8401,7 +8470,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="301"/>
+      <c r="A118" s="302"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8431,12 +8500,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="304"/>
-      <c r="L118" s="304"/>
+      <c r="K118" s="305"/>
+      <c r="L118" s="305"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="301"/>
+      <c r="A119" s="302"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8466,14 +8535,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="304"/>
-      <c r="L119" s="304"/>
+      <c r="K119" s="305"/>
+      <c r="L119" s="305"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="301"/>
+      <c r="A120" s="302"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8503,13 +8572,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="304"/>
-      <c r="L120" s="304"/>
+      <c r="K120" s="305"/>
+      <c r="L120" s="305"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="301"/>
-      <c r="B121" s="306" t="s">
+      <c r="A121" s="302"/>
+      <c r="B121" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8538,15 +8607,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="304"/>
-      <c r="L121" s="304"/>
+      <c r="K121" s="305"/>
+      <c r="L121" s="305"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="301"/>
-      <c r="B122" s="307"/>
+      <c r="A122" s="302"/>
+      <c r="B122" s="308"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8573,15 +8642,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="304"/>
-      <c r="L122" s="304"/>
+      <c r="K122" s="305"/>
+      <c r="L122" s="305"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="301"/>
-      <c r="B123" s="308"/>
+      <c r="A123" s="302"/>
+      <c r="B123" s="309"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8608,13 +8677,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="304"/>
-      <c r="L123" s="304"/>
+      <c r="K123" s="305"/>
+      <c r="L123" s="305"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="301"/>
-      <c r="B124" s="298" t="s">
+      <c r="A124" s="302"/>
+      <c r="B124" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8643,15 +8712,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="304"/>
-      <c r="L124" s="304"/>
+      <c r="K124" s="305"/>
+      <c r="L124" s="305"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="301"/>
-      <c r="B125" s="299"/>
+      <c r="A125" s="302"/>
+      <c r="B125" s="300"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8678,14 +8747,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="304"/>
-      <c r="L125" s="304"/>
+      <c r="K125" s="305"/>
+      <c r="L125" s="305"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="302"/>
+      <c r="A126" s="303"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8715,8 +8784,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="305"/>
-      <c r="L126" s="305"/>
+      <c r="K126" s="306"/>
+      <c r="L126" s="306"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8809,7 +8878,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="300" t="s">
+      <c r="A130" s="301" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8841,11 +8910,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="303">
+      <c r="K130" s="304">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="303">
+      <c r="L130" s="304">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8854,7 +8923,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="301"/>
+      <c r="A131" s="302"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8884,12 +8953,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="304"/>
-      <c r="L131" s="304"/>
+      <c r="K131" s="305"/>
+      <c r="L131" s="305"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="301"/>
+      <c r="A132" s="302"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8919,14 +8988,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="304"/>
-      <c r="L132" s="304"/>
+      <c r="K132" s="305"/>
+      <c r="L132" s="305"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="301"/>
+      <c r="A133" s="302"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -8956,13 +9025,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="304"/>
-      <c r="L133" s="304"/>
+      <c r="K133" s="305"/>
+      <c r="L133" s="305"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="301"/>
-      <c r="B134" s="306" t="s">
+      <c r="A134" s="302"/>
+      <c r="B134" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -8991,15 +9060,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="304"/>
-      <c r="L134" s="304"/>
+      <c r="K134" s="305"/>
+      <c r="L134" s="305"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="301"/>
-      <c r="B135" s="307"/>
+      <c r="A135" s="302"/>
+      <c r="B135" s="308"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -9026,15 +9095,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="304"/>
-      <c r="L135" s="304"/>
+      <c r="K135" s="305"/>
+      <c r="L135" s="305"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="301"/>
-      <c r="B136" s="308"/>
+      <c r="A136" s="302"/>
+      <c r="B136" s="309"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -9061,13 +9130,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="304"/>
-      <c r="L136" s="304"/>
+      <c r="K136" s="305"/>
+      <c r="L136" s="305"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="301"/>
-      <c r="B137" s="298" t="s">
+      <c r="A137" s="302"/>
+      <c r="B137" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -9096,15 +9165,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="304"/>
-      <c r="L137" s="304"/>
+      <c r="K137" s="305"/>
+      <c r="L137" s="305"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="301"/>
-      <c r="B138" s="299"/>
+      <c r="A138" s="302"/>
+      <c r="B138" s="300"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -9131,14 +9200,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="304"/>
-      <c r="L138" s="304"/>
+      <c r="K138" s="305"/>
+      <c r="L138" s="305"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="302"/>
+      <c r="A139" s="303"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -9168,8 +9237,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="305"/>
-      <c r="L139" s="305"/>
+      <c r="K139" s="306"/>
+      <c r="L139" s="306"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9262,7 +9331,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="300" t="s">
+      <c r="A143" s="301" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9294,11 +9363,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="303">
+      <c r="K143" s="304">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="303">
+      <c r="L143" s="304">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9307,7 +9376,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="301"/>
+      <c r="A144" s="302"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9337,12 +9406,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="304"/>
-      <c r="L144" s="304"/>
+      <c r="K144" s="305"/>
+      <c r="L144" s="305"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="301"/>
+      <c r="A145" s="302"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9372,14 +9441,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="304"/>
-      <c r="L145" s="304"/>
+      <c r="K145" s="305"/>
+      <c r="L145" s="305"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="301"/>
+      <c r="A146" s="302"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9409,13 +9478,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="304"/>
-      <c r="L146" s="304"/>
+      <c r="K146" s="305"/>
+      <c r="L146" s="305"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="301"/>
-      <c r="B147" s="306" t="s">
+      <c r="A147" s="302"/>
+      <c r="B147" s="307" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9444,15 +9513,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="304"/>
-      <c r="L147" s="304"/>
+      <c r="K147" s="305"/>
+      <c r="L147" s="305"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="301"/>
-      <c r="B148" s="307"/>
+      <c r="A148" s="302"/>
+      <c r="B148" s="308"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9479,15 +9548,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="304"/>
-      <c r="L148" s="304"/>
+      <c r="K148" s="305"/>
+      <c r="L148" s="305"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="301"/>
-      <c r="B149" s="308"/>
+      <c r="A149" s="302"/>
+      <c r="B149" s="309"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9514,13 +9583,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="304"/>
-      <c r="L149" s="304"/>
+      <c r="K149" s="305"/>
+      <c r="L149" s="305"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="301"/>
-      <c r="B150" s="298" t="s">
+      <c r="A150" s="302"/>
+      <c r="B150" s="299" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9549,15 +9618,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="304"/>
-      <c r="L150" s="304"/>
+      <c r="K150" s="305"/>
+      <c r="L150" s="305"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="301"/>
-      <c r="B151" s="299"/>
+      <c r="A151" s="302"/>
+      <c r="B151" s="300"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9584,14 +9653,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="304"/>
-      <c r="L151" s="304"/>
+      <c r="K151" s="305"/>
+      <c r="L151" s="305"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="302"/>
+      <c r="A152" s="303"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9621,8 +9690,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="305"/>
-      <c r="L152" s="305"/>
+      <c r="K152" s="306"/>
+      <c r="L152" s="306"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9695,10 +9764,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="309" t="s">
+      <c r="H155" s="310" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="310"/>
+      <c r="I155" s="311"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9735,11 +9804,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="311">
+      <c r="H156" s="312">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="312"/>
+      <c r="I156" s="313"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9819,10 +9888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="L211" sqref="L211"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240:G242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9885,7 +9954,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="302" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9916,11 +9985,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="327">
+      <c r="L2" s="328">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="327">
+      <c r="M2" s="328">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9929,7 +9998,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="301"/>
+      <c r="A3" s="302"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -9958,14 +10027,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="301"/>
+      <c r="A4" s="302"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -9996,13 +10065,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="327"/>
+      <c r="L4" s="328"/>
+      <c r="M4" s="328"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="301"/>
-      <c r="B5" s="306"/>
+      <c r="A5" s="302"/>
+      <c r="B5" s="307"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -10030,15 +10099,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="327"/>
-      <c r="M5" s="327"/>
+      <c r="L5" s="328"/>
+      <c r="M5" s="328"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="301"/>
-      <c r="B6" s="307"/>
+      <c r="A6" s="302"/>
+      <c r="B6" s="308"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -10066,15 +10135,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="327"/>
-      <c r="M6" s="327"/>
+      <c r="L6" s="328"/>
+      <c r="M6" s="328"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="301"/>
-      <c r="B7" s="308"/>
+      <c r="A7" s="302"/>
+      <c r="B7" s="309"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -10102,12 +10171,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
+      <c r="L7" s="328"/>
+      <c r="M7" s="328"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="301"/>
+      <c r="A8" s="302"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -10136,14 +10205,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="327"/>
-      <c r="M8" s="327"/>
+      <c r="L8" s="328"/>
+      <c r="M8" s="328"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="302"/>
+      <c r="A9" s="303"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -10172,8 +10241,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="328"/>
-      <c r="M9" s="328"/>
+      <c r="L9" s="329"/>
+      <c r="M9" s="329"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10306,7 +10375,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="301" t="s">
+      <c r="A14" s="302" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10337,11 +10406,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="327">
+      <c r="L14" s="328">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="327">
+      <c r="M14" s="328">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10350,7 +10419,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="301"/>
+      <c r="A15" s="302"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10379,14 +10448,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="327"/>
-      <c r="M15" s="327"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="301"/>
+      <c r="A16" s="302"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10416,13 +10485,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="327"/>
-      <c r="M16" s="327"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="328"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="301"/>
-      <c r="B17" s="338"/>
+      <c r="A17" s="302"/>
+      <c r="B17" s="339"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10450,15 +10519,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="327"/>
-      <c r="M17" s="327"/>
+      <c r="L17" s="328"/>
+      <c r="M17" s="328"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="301"/>
-      <c r="B18" s="339"/>
+      <c r="A18" s="302"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10486,15 +10555,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="327"/>
-      <c r="M18" s="327"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="328"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="301"/>
-      <c r="B19" s="340"/>
+      <c r="A19" s="302"/>
+      <c r="B19" s="341"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10523,12 +10592,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="327"/>
-      <c r="M19" s="327"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="328"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="301"/>
+      <c r="A20" s="302"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10557,14 +10626,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="327"/>
-      <c r="M20" s="327"/>
+      <c r="L20" s="328"/>
+      <c r="M20" s="328"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="302"/>
+      <c r="A21" s="303"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10593,8 +10662,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="328"/>
-      <c r="M21" s="328"/>
+      <c r="L21" s="329"/>
+      <c r="M21" s="329"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10727,7 +10796,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="301" t="s">
+      <c r="A26" s="302" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10758,11 +10827,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="327">
+      <c r="L26" s="328">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="327">
+      <c r="M26" s="328">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10771,7 +10840,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="301"/>
+      <c r="A27" s="302"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10800,14 +10869,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="327"/>
-      <c r="M27" s="327"/>
+      <c r="L27" s="328"/>
+      <c r="M27" s="328"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="301"/>
+      <c r="A28" s="302"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10837,13 +10906,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="327"/>
-      <c r="M28" s="327"/>
+      <c r="L28" s="328"/>
+      <c r="M28" s="328"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="301"/>
-      <c r="B29" s="338"/>
+      <c r="A29" s="302"/>
+      <c r="B29" s="339"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10871,15 +10940,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="327"/>
-      <c r="M29" s="327"/>
+      <c r="L29" s="328"/>
+      <c r="M29" s="328"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="301"/>
-      <c r="B30" s="339"/>
+      <c r="A30" s="302"/>
+      <c r="B30" s="340"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10907,15 +10976,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="327"/>
-      <c r="M30" s="327"/>
+      <c r="L30" s="328"/>
+      <c r="M30" s="328"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="301"/>
-      <c r="B31" s="340"/>
+      <c r="A31" s="302"/>
+      <c r="B31" s="341"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -10944,12 +11013,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="327"/>
-      <c r="M31" s="327"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="328"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="301"/>
+      <c r="A32" s="302"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -10978,14 +11047,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="327"/>
-      <c r="M32" s="327"/>
+      <c r="L32" s="328"/>
+      <c r="M32" s="328"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="302"/>
+      <c r="A33" s="303"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -11014,8 +11083,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="328"/>
-      <c r="M33" s="328"/>
+      <c r="L33" s="329"/>
+      <c r="M33" s="329"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -11148,7 +11217,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="301" t="s">
+      <c r="A38" s="302" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -11179,11 +11248,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="327">
+      <c r="L38" s="328">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="327">
+      <c r="M38" s="328">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -11192,7 +11261,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="301"/>
+      <c r="A39" s="302"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -11221,14 +11290,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="327"/>
-      <c r="M39" s="327"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="328"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="301"/>
+      <c r="A40" s="302"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11258,13 +11327,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="327"/>
-      <c r="M40" s="327"/>
+      <c r="L40" s="328"/>
+      <c r="M40" s="328"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="301"/>
-      <c r="B41" s="338"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="339"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11292,15 +11361,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="327"/>
-      <c r="M41" s="327"/>
+      <c r="L41" s="328"/>
+      <c r="M41" s="328"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="301"/>
-      <c r="B42" s="339"/>
+      <c r="A42" s="302"/>
+      <c r="B42" s="340"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11328,15 +11397,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="327"/>
-      <c r="M42" s="327"/>
+      <c r="L42" s="328"/>
+      <c r="M42" s="328"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="301"/>
-      <c r="B43" s="340"/>
+      <c r="A43" s="302"/>
+      <c r="B43" s="341"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11365,12 +11434,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="327"/>
-      <c r="M43" s="327"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="301"/>
+      <c r="A44" s="302"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11399,14 +11468,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="327"/>
-      <c r="M44" s="327"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="302"/>
+      <c r="A45" s="303"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11435,8 +11504,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="328"/>
-      <c r="M45" s="328"/>
+      <c r="L45" s="329"/>
+      <c r="M45" s="329"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11572,7 +11641,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="301" t="s">
+      <c r="A50" s="302" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11608,11 +11677,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="327">
+      <c r="L50" s="328">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="327">
+      <c r="M50" s="328">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11621,7 +11690,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="301"/>
+      <c r="A51" s="302"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11655,14 +11724,14 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="327"/>
-      <c r="M51" s="327"/>
+      <c r="L51" s="328"/>
+      <c r="M51" s="328"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="301"/>
+      <c r="A52" s="302"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11694,13 +11763,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="276"/>
-      <c r="L52" s="327"/>
-      <c r="M52" s="327"/>
+      <c r="L52" s="328"/>
+      <c r="M52" s="328"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="301"/>
-      <c r="B53" s="338">
+      <c r="A53" s="302"/>
+      <c r="B53" s="339">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11733,15 +11802,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="327"/>
-      <c r="M53" s="327"/>
+      <c r="L53" s="328"/>
+      <c r="M53" s="328"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="301"/>
-      <c r="B54" s="339"/>
+      <c r="A54" s="302"/>
+      <c r="B54" s="340"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11772,14 +11841,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="327"/>
-      <c r="M54" s="327"/>
+      <c r="L54" s="328"/>
+      <c r="M54" s="328"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="302"/>
+      <c r="A55" s="303"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11813,8 +11882,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="328"/>
-      <c r="M55" s="328"/>
+      <c r="L55" s="329"/>
+      <c r="M55" s="329"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -11950,10 +12019,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="341" t="s">
+      <c r="A60" s="342" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="336">
+      <c r="B60" s="337">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -11986,11 +12055,11 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="326">
+      <c r="L60" s="327">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="326">
+      <c r="M60" s="327">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -11999,8 +12068,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="342"/>
-      <c r="B61" s="337"/>
+      <c r="A61" s="343"/>
+      <c r="B61" s="338"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -12031,14 +12100,14 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="327"/>
-      <c r="M61" s="327"/>
+      <c r="L61" s="328"/>
+      <c r="M61" s="328"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="342"/>
+      <c r="A62" s="343"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -12072,15 +12141,15 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="327"/>
-      <c r="M62" s="327"/>
+      <c r="L62" s="328"/>
+      <c r="M62" s="328"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="342"/>
-      <c r="B63" s="334">
+      <c r="A63" s="343"/>
+      <c r="B63" s="335">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -12113,15 +12182,15 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="327"/>
-      <c r="M63" s="327"/>
+      <c r="L63" s="328"/>
+      <c r="M63" s="328"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="342"/>
-      <c r="B64" s="335"/>
+      <c r="A64" s="343"/>
+      <c r="B64" s="336"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -12152,14 +12221,14 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="327"/>
-      <c r="M64" s="327"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="328"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="343"/>
+      <c r="A65" s="344"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -12193,8 +12262,8 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="328"/>
-      <c r="M65" s="328"/>
+      <c r="L65" s="329"/>
+      <c r="M65" s="329"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12520,10 +12589,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="323" t="s">
+      <c r="A76" s="324" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="336">
+      <c r="B76" s="337">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12556,11 +12625,11 @@
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="326">
+      <c r="L76" s="327">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="326">
+      <c r="M76" s="327">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12569,8 +12638,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="324"/>
-      <c r="B77" s="337"/>
+      <c r="A77" s="325"/>
+      <c r="B77" s="338"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12601,14 +12670,14 @@
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="327"/>
-      <c r="M77" s="327"/>
+      <c r="L77" s="328"/>
+      <c r="M77" s="328"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="324"/>
+      <c r="A78" s="325"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12642,15 +12711,15 @@
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="327"/>
-      <c r="M78" s="327"/>
+      <c r="L78" s="328"/>
+      <c r="M78" s="328"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="324"/>
-      <c r="B79" s="334">
+      <c r="A79" s="325"/>
+      <c r="B79" s="335">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12683,15 +12752,15 @@
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="327"/>
-      <c r="M79" s="327"/>
+      <c r="L79" s="328"/>
+      <c r="M79" s="328"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="324"/>
-      <c r="B80" s="335"/>
+      <c r="A80" s="325"/>
+      <c r="B80" s="336"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12722,14 +12791,14 @@
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="327"/>
-      <c r="M80" s="327"/>
+      <c r="L80" s="328"/>
+      <c r="M80" s="328"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="325"/>
+      <c r="A81" s="326"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12763,8 +12832,8 @@
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="328"/>
-      <c r="M81" s="328"/>
+      <c r="L81" s="329"/>
+      <c r="M81" s="329"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12815,7 +12884,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="331" t="s">
+      <c r="A83" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12854,7 +12923,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="332"/>
+      <c r="A84" s="333"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12899,7 +12968,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="333"/>
+      <c r="A85" s="334"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -13099,7 +13168,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="323" t="s">
+      <c r="A91" s="324" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -13135,11 +13204,11 @@
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="326">
+      <c r="L91" s="327">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="326">
+      <c r="M91" s="327">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -13148,7 +13217,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="324"/>
+      <c r="A92" s="325"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -13182,15 +13251,15 @@
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="327"/>
-      <c r="M92" s="327"/>
+      <c r="L92" s="328"/>
+      <c r="M92" s="328"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="324"/>
-      <c r="B93" s="334">
+      <c r="A93" s="325"/>
+      <c r="B93" s="335">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -13223,15 +13292,15 @@
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="327"/>
-      <c r="M93" s="327"/>
+      <c r="L93" s="328"/>
+      <c r="M93" s="328"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="324"/>
-      <c r="B94" s="335"/>
+      <c r="A94" s="325"/>
+      <c r="B94" s="336"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13262,14 +13331,14 @@
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="327"/>
-      <c r="M94" s="327"/>
+      <c r="L94" s="328"/>
+      <c r="M94" s="328"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="325"/>
+      <c r="A95" s="326"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13303,8 +13372,8 @@
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="328"/>
-      <c r="M95" s="328"/>
+      <c r="L95" s="329"/>
+      <c r="M95" s="329"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13355,7 +13424,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="331" t="s">
+      <c r="A97" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13394,7 +13463,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="332"/>
+      <c r="A98" s="333"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13439,7 +13508,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="333"/>
+      <c r="A99" s="334"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13639,7 +13708,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="323" t="s">
+      <c r="A105" s="324" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
@@ -13664,18 +13733,18 @@
       </c>
       <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="326">
+      <c r="L105" s="327">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="326">
+      <c r="M105" s="327">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="324"/>
+      <c r="A106" s="325"/>
       <c r="B106" s="269">
         <v>28</v>
       </c>
@@ -13709,14 +13778,14 @@
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="327"/>
-      <c r="M106" s="327"/>
+      <c r="L106" s="328"/>
+      <c r="M106" s="328"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="324"/>
+      <c r="A107" s="325"/>
       <c r="B107" s="286">
         <v>117.98</v>
       </c>
@@ -13750,15 +13819,15 @@
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="327"/>
-      <c r="M107" s="327"/>
+      <c r="L107" s="328"/>
+      <c r="M107" s="328"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="324"/>
-      <c r="B108" s="329">
+      <c r="A108" s="325"/>
+      <c r="B108" s="330">
         <v>118.93</v>
       </c>
       <c r="C108" s="293" t="s">
@@ -13791,15 +13860,15 @@
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="327"/>
-      <c r="M108" s="327"/>
+      <c r="L108" s="328"/>
+      <c r="M108" s="328"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="324"/>
-      <c r="B109" s="330"/>
+      <c r="A109" s="325"/>
+      <c r="B109" s="331"/>
       <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
@@ -13830,14 +13899,14 @@
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="327"/>
-      <c r="M109" s="327"/>
+      <c r="L109" s="328"/>
+      <c r="M109" s="328"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="325"/>
+      <c r="A110" s="326"/>
       <c r="B110" s="282"/>
       <c r="C110" s="294" t="s">
         <v>177</v>
@@ -13869,8 +13938,8 @@
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="328"/>
-      <c r="M110" s="328"/>
+      <c r="L110" s="329"/>
+      <c r="M110" s="329"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -13921,7 +13990,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="331" t="s">
+      <c r="A112" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -13960,7 +14029,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="332"/>
+      <c r="A113" s="333"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -14005,7 +14074,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="333"/>
+      <c r="A114" s="334"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
@@ -14205,7 +14274,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1">
-      <c r="A120" s="323" t="s">
+      <c r="A120" s="324" t="s">
         <v>231</v>
       </c>
       <c r="B120" s="262">
@@ -14230,18 +14299,18 @@
       </c>
       <c r="J120" s="268"/>
       <c r="K120" s="153"/>
-      <c r="L120" s="326">
+      <c r="L120" s="327">
         <f>E126/D126</f>
         <v>2.1988830431051147E-4</v>
       </c>
-      <c r="M120" s="326">
+      <c r="M120" s="327">
         <f>L120*365</f>
         <v>8.0259231073336684E-2</v>
       </c>
       <c r="N120" s="191"/>
     </row>
     <row r="121" spans="1:14" ht="25.5">
-      <c r="A121" s="324"/>
+      <c r="A121" s="325"/>
       <c r="B121" s="269">
         <v>28</v>
       </c>
@@ -14275,14 +14344,14 @@
         <f>(F121-I121)/(H121-I121)</f>
         <v>1.4044843630942055E-2</v>
       </c>
-      <c r="L121" s="327"/>
-      <c r="M121" s="327"/>
+      <c r="L121" s="328"/>
+      <c r="M121" s="328"/>
       <c r="N121" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="25.5">
-      <c r="A122" s="324"/>
+      <c r="A122" s="325"/>
       <c r="B122" s="286">
         <v>117.98</v>
       </c>
@@ -14316,15 +14385,15 @@
         <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
         <v>0.23999999999995447</v>
       </c>
-      <c r="L122" s="327"/>
-      <c r="M122" s="327"/>
+      <c r="L122" s="328"/>
+      <c r="M122" s="328"/>
       <c r="N122" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="25.5">
-      <c r="A123" s="324"/>
-      <c r="B123" s="329">
+      <c r="A123" s="325"/>
+      <c r="B123" s="330">
         <v>118.93</v>
       </c>
       <c r="C123" s="293" t="s">
@@ -14357,15 +14426,15 @@
         <f t="shared" si="32"/>
         <v>0.16216114457833897</v>
       </c>
-      <c r="L123" s="327"/>
-      <c r="M123" s="327"/>
+      <c r="L123" s="328"/>
+      <c r="M123" s="328"/>
       <c r="N123" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="25.5">
-      <c r="A124" s="324"/>
-      <c r="B124" s="330"/>
+      <c r="A124" s="325"/>
+      <c r="B124" s="331"/>
       <c r="C124" s="293" t="s">
         <v>179</v>
       </c>
@@ -14396,14 +14465,14 @@
         <f t="shared" si="32"/>
         <v>0.69999999999999651</v>
       </c>
-      <c r="L124" s="327"/>
-      <c r="M124" s="327"/>
+      <c r="L124" s="328"/>
+      <c r="M124" s="328"/>
       <c r="N124" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A125" s="325"/>
+      <c r="A125" s="326"/>
       <c r="B125" s="282"/>
       <c r="C125" s="294" t="s">
         <v>177</v>
@@ -14435,8 +14504,8 @@
         <f t="shared" si="32"/>
         <v>6.5979794941218667E-2</v>
       </c>
-      <c r="L125" s="328"/>
-      <c r="M125" s="328"/>
+      <c r="L125" s="329"/>
+      <c r="M125" s="329"/>
       <c r="N125" s="194" t="s">
         <v>135</v>
       </c>
@@ -14487,7 +14556,7 @@
       <c r="N126" s="196"/>
     </row>
     <row r="127" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A127" s="331" t="s">
+      <c r="A127" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B127" s="122" t="s">
@@ -14526,7 +14595,7 @@
       <c r="N127" s="197"/>
     </row>
     <row r="128" spans="1:14" ht="25.5">
-      <c r="A128" s="332"/>
+      <c r="A128" s="333"/>
       <c r="B128" s="130" t="s">
         <v>138</v>
       </c>
@@ -14571,7 +14640,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="28.5">
-      <c r="A129" s="333"/>
+      <c r="A129" s="334"/>
       <c r="B129" s="162">
         <v>7.12</v>
       </c>
@@ -14771,7 +14840,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" thickBot="1">
-      <c r="A135" s="323" t="s">
+      <c r="A135" s="324" t="s">
         <v>233</v>
       </c>
       <c r="B135" s="262">
@@ -14796,18 +14865,18 @@
       </c>
       <c r="J135" s="268"/>
       <c r="K135" s="153"/>
-      <c r="L135" s="326">
+      <c r="L135" s="327">
         <f>E141/D141</f>
         <v>2.1983996407359162E-4</v>
       </c>
-      <c r="M135" s="326">
+      <c r="M135" s="327">
         <f>L135*365</f>
         <v>8.0241586886860936E-2</v>
       </c>
       <c r="N135" s="191"/>
     </row>
     <row r="136" spans="1:14" ht="25.5">
-      <c r="A136" s="324"/>
+      <c r="A136" s="325"/>
       <c r="B136" s="269">
         <v>28</v>
       </c>
@@ -14841,14 +14910,14 @@
         <f>(F136-I136)/(H136-I136)</f>
         <v>1.6853812357130467E-2</v>
       </c>
-      <c r="L136" s="327"/>
-      <c r="M136" s="327"/>
+      <c r="L136" s="328"/>
+      <c r="M136" s="328"/>
       <c r="N136" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="25.5">
-      <c r="A137" s="324"/>
+      <c r="A137" s="325"/>
       <c r="B137" s="286">
         <v>117.98</v>
       </c>
@@ -14882,15 +14951,15 @@
         <f t="shared" ref="K137:K140" si="36">(F137-I137)/(H137-I137)</f>
         <v>0.2799999999999469</v>
       </c>
-      <c r="L137" s="327"/>
-      <c r="M137" s="327"/>
+      <c r="L137" s="328"/>
+      <c r="M137" s="328"/>
       <c r="N137" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5">
-      <c r="A138" s="324"/>
-      <c r="B138" s="329">
+      <c r="A138" s="325"/>
+      <c r="B138" s="330">
         <v>118.93</v>
       </c>
       <c r="C138" s="293" t="s">
@@ -14923,15 +14992,15 @@
         <f t="shared" si="36"/>
         <v>0.18918800200806213</v>
       </c>
-      <c r="L138" s="327"/>
-      <c r="M138" s="327"/>
+      <c r="L138" s="328"/>
+      <c r="M138" s="328"/>
       <c r="N138" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="25.5">
-      <c r="A139" s="324"/>
-      <c r="B139" s="330"/>
+      <c r="A139" s="325"/>
+      <c r="B139" s="331"/>
       <c r="C139" s="293" t="s">
         <v>179</v>
       </c>
@@ -14962,14 +15031,14 @@
         <f t="shared" si="36"/>
         <v>0.70999999999999652</v>
       </c>
-      <c r="L139" s="327"/>
-      <c r="M139" s="327"/>
+      <c r="L139" s="328"/>
+      <c r="M139" s="328"/>
       <c r="N139" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A140" s="325"/>
+      <c r="A140" s="326"/>
       <c r="B140" s="282"/>
       <c r="C140" s="294" t="s">
         <v>177</v>
@@ -15001,8 +15070,8 @@
         <f t="shared" si="36"/>
         <v>6.8728953063770012E-2</v>
       </c>
-      <c r="L140" s="328"/>
-      <c r="M140" s="328"/>
+      <c r="L140" s="329"/>
+      <c r="M140" s="329"/>
       <c r="N140" s="194" t="s">
         <v>135</v>
       </c>
@@ -15053,7 +15122,7 @@
       <c r="N141" s="196"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A142" s="331" t="s">
+      <c r="A142" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B142" s="122" t="s">
@@ -15092,7 +15161,7 @@
       <c r="N142" s="197"/>
     </row>
     <row r="143" spans="1:14" ht="25.5">
-      <c r="A143" s="332"/>
+      <c r="A143" s="333"/>
       <c r="B143" s="130" t="s">
         <v>138</v>
       </c>
@@ -15137,7 +15206,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="28.5">
-      <c r="A144" s="333"/>
+      <c r="A144" s="334"/>
       <c r="B144" s="162">
         <v>7.12</v>
       </c>
@@ -15337,7 +15406,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" thickBot="1">
-      <c r="A150" s="323" t="s">
+      <c r="A150" s="324" t="s">
         <v>236</v>
       </c>
       <c r="B150" s="295">
@@ -15362,18 +15431,18 @@
       </c>
       <c r="J150" s="268"/>
       <c r="K150" s="153"/>
-      <c r="L150" s="326">
+      <c r="L150" s="327">
         <f>E156/D156</f>
         <v>2.197916450862322E-4</v>
       </c>
-      <c r="M150" s="326">
+      <c r="M150" s="327">
         <f>L150*365</f>
         <v>8.0223950456474749E-2</v>
       </c>
       <c r="N150" s="191"/>
     </row>
     <row r="151" spans="1:14" ht="25.5">
-      <c r="A151" s="324"/>
+      <c r="A151" s="325"/>
       <c r="B151" s="269">
         <v>28</v>
       </c>
@@ -15407,14 +15476,14 @@
         <f>(F151-I151)/(H151-I151)</f>
         <v>1.9662781083318877E-2</v>
       </c>
-      <c r="L151" s="327"/>
-      <c r="M151" s="327"/>
+      <c r="L151" s="328"/>
+      <c r="M151" s="328"/>
       <c r="N151" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="25.5">
-      <c r="A152" s="324"/>
+      <c r="A152" s="325"/>
       <c r="B152" s="286">
         <v>117.98</v>
       </c>
@@ -15448,15 +15517,15 @@
         <f t="shared" ref="K152:K155" si="40">(F152-I152)/(H152-I152)</f>
         <v>0.31999999999993928</v>
       </c>
-      <c r="L152" s="327"/>
-      <c r="M152" s="327"/>
+      <c r="L152" s="328"/>
+      <c r="M152" s="328"/>
       <c r="N152" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="25.5">
-      <c r="A153" s="324"/>
-      <c r="B153" s="329">
+      <c r="A153" s="325"/>
+      <c r="B153" s="330">
         <v>118.93</v>
       </c>
       <c r="C153" s="293" t="s">
@@ -15489,15 +15558,15 @@
         <f t="shared" si="40"/>
         <v>0.21621485943778529</v>
       </c>
-      <c r="L153" s="327"/>
-      <c r="M153" s="327"/>
+      <c r="L153" s="328"/>
+      <c r="M153" s="328"/>
       <c r="N153" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="25.5">
-      <c r="A154" s="324"/>
-      <c r="B154" s="330"/>
+      <c r="A154" s="325"/>
+      <c r="B154" s="331"/>
       <c r="C154" s="293" t="s">
         <v>179</v>
       </c>
@@ -15528,14 +15597,14 @@
         <f t="shared" si="40"/>
         <v>0.71999999999999653</v>
       </c>
-      <c r="L154" s="327"/>
-      <c r="M154" s="327"/>
+      <c r="L154" s="328"/>
+      <c r="M154" s="328"/>
       <c r="N154" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A155" s="325"/>
+      <c r="A155" s="326"/>
       <c r="B155" s="282"/>
       <c r="C155" s="294" t="s">
         <v>177</v>
@@ -15567,8 +15636,8 @@
         <f t="shared" si="40"/>
         <v>7.1478111186321358E-2</v>
       </c>
-      <c r="L155" s="328"/>
-      <c r="M155" s="328"/>
+      <c r="L155" s="329"/>
+      <c r="M155" s="329"/>
       <c r="N155" s="194" t="s">
         <v>135</v>
       </c>
@@ -15619,7 +15688,7 @@
       <c r="N156" s="196"/>
     </row>
     <row r="157" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A157" s="331" t="s">
+      <c r="A157" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="122" t="s">
@@ -15658,7 +15727,7 @@
       <c r="N157" s="197"/>
     </row>
     <row r="158" spans="1:14" ht="25.5">
-      <c r="A158" s="332"/>
+      <c r="A158" s="333"/>
       <c r="B158" s="130" t="s">
         <v>138</v>
       </c>
@@ -15703,7 +15772,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="28.5">
-      <c r="A159" s="333"/>
+      <c r="A159" s="334"/>
       <c r="B159" s="162">
         <v>7.12</v>
       </c>
@@ -15903,7 +15972,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" thickBot="1">
-      <c r="A165" s="323" t="s">
+      <c r="A165" s="324" t="s">
         <v>239</v>
       </c>
       <c r="B165" s="296">
@@ -15928,18 +15997,18 @@
       </c>
       <c r="J165" s="268"/>
       <c r="K165" s="153"/>
-      <c r="L165" s="326">
+      <c r="L165" s="327">
         <f>E171/D171</f>
         <v>2.1974334733442479E-4</v>
       </c>
-      <c r="M165" s="326">
+      <c r="M165" s="327">
         <f>L165*365</f>
         <v>8.0206321777065048E-2</v>
       </c>
       <c r="N165" s="191"/>
     </row>
     <row r="166" spans="1:14" ht="25.5">
-      <c r="A166" s="324"/>
+      <c r="A166" s="325"/>
       <c r="B166" s="269">
         <v>28</v>
       </c>
@@ -15973,14 +16042,14 @@
         <f>(F166-I166)/(H166-I166)</f>
         <v>2.247174980950729E-2</v>
       </c>
-      <c r="L166" s="327"/>
-      <c r="M166" s="327"/>
+      <c r="L166" s="328"/>
+      <c r="M166" s="328"/>
       <c r="N166" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="25.5">
-      <c r="A167" s="324"/>
+      <c r="A167" s="325"/>
       <c r="B167" s="286">
         <v>117.98</v>
       </c>
@@ -16014,15 +16083,15 @@
         <f t="shared" ref="K167:K170" si="44">(F167-I167)/(H167-I167)</f>
         <v>0.35999999999993171</v>
       </c>
-      <c r="L167" s="327"/>
-      <c r="M167" s="327"/>
+      <c r="L167" s="328"/>
+      <c r="M167" s="328"/>
       <c r="N167" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="25.5">
-      <c r="A168" s="324"/>
-      <c r="B168" s="329">
+      <c r="A168" s="325"/>
+      <c r="B168" s="330">
         <v>118.93</v>
       </c>
       <c r="C168" s="293" t="s">
@@ -16055,15 +16124,15 @@
         <f t="shared" si="44"/>
         <v>0.24324171686750845</v>
       </c>
-      <c r="L168" s="327"/>
-      <c r="M168" s="327"/>
+      <c r="L168" s="328"/>
+      <c r="M168" s="328"/>
       <c r="N168" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="25.5">
-      <c r="A169" s="324"/>
-      <c r="B169" s="330"/>
+      <c r="A169" s="325"/>
+      <c r="B169" s="331"/>
       <c r="C169" s="293" t="s">
         <v>179</v>
       </c>
@@ -16094,14 +16163,14 @@
         <f t="shared" si="44"/>
         <v>0.7299999999999931</v>
       </c>
-      <c r="L169" s="327"/>
-      <c r="M169" s="327"/>
+      <c r="L169" s="328"/>
+      <c r="M169" s="328"/>
       <c r="N169" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A170" s="325"/>
+      <c r="A170" s="326"/>
       <c r="B170" s="282"/>
       <c r="C170" s="294" t="s">
         <v>177</v>
@@ -16133,8 +16202,8 @@
         <f t="shared" si="44"/>
         <v>7.4227269308872704E-2</v>
       </c>
-      <c r="L170" s="328"/>
-      <c r="M170" s="328"/>
+      <c r="L170" s="329"/>
+      <c r="M170" s="329"/>
       <c r="N170" s="194" t="s">
         <v>135</v>
       </c>
@@ -16185,7 +16254,7 @@
       <c r="N171" s="196"/>
     </row>
     <row r="172" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A172" s="331" t="s">
+      <c r="A172" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B172" s="122" t="s">
@@ -16224,7 +16293,7 @@
       <c r="N172" s="197"/>
     </row>
     <row r="173" spans="1:14" ht="25.5">
-      <c r="A173" s="332"/>
+      <c r="A173" s="333"/>
       <c r="B173" s="130" t="s">
         <v>138</v>
       </c>
@@ -16269,7 +16338,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" ht="28.5">
-      <c r="A174" s="333"/>
+      <c r="A174" s="334"/>
       <c r="B174" s="162">
         <v>7.12</v>
       </c>
@@ -16469,7 +16538,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" ht="15" thickBot="1">
-      <c r="A180" s="323" t="s">
+      <c r="A180" s="324" t="s">
         <v>241</v>
       </c>
       <c r="B180" s="297">
@@ -16494,18 +16563,18 @@
       </c>
       <c r="J180" s="268"/>
       <c r="K180" s="153"/>
-      <c r="L180" s="326">
+      <c r="L180" s="327">
         <f>E186/D186</f>
         <v>2.1969507080417343E-4</v>
       </c>
-      <c r="M180" s="326">
+      <c r="M180" s="327">
         <f>L180*365</f>
         <v>8.0188700843523295E-2</v>
       </c>
       <c r="N180" s="191"/>
     </row>
     <row r="181" spans="1:14" ht="25.5">
-      <c r="A181" s="324"/>
+      <c r="A181" s="325"/>
       <c r="B181" s="269">
         <v>28</v>
       </c>
@@ -16539,14 +16608,14 @@
         <f>(F181-I181)/(H181-I181)</f>
         <v>2.52807185356957E-2</v>
       </c>
-      <c r="L181" s="327"/>
-      <c r="M181" s="327"/>
+      <c r="L181" s="328"/>
+      <c r="M181" s="328"/>
       <c r="N181" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="25.5">
-      <c r="A182" s="324"/>
+      <c r="A182" s="325"/>
       <c r="B182" s="286">
         <v>117.98</v>
       </c>
@@ -16580,15 +16649,15 @@
         <f t="shared" ref="K182:K185" si="48">(F182-I182)/(H182-I182)</f>
         <v>0.39999999999992414</v>
       </c>
-      <c r="L182" s="327"/>
-      <c r="M182" s="327"/>
+      <c r="L182" s="328"/>
+      <c r="M182" s="328"/>
       <c r="N182" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="25.5">
-      <c r="A183" s="324"/>
-      <c r="B183" s="329">
+      <c r="A183" s="325"/>
+      <c r="B183" s="330">
         <v>118.93</v>
       </c>
       <c r="C183" s="293" t="s">
@@ -16621,15 +16690,15 @@
         <f t="shared" si="48"/>
         <v>0.27026857429723161</v>
       </c>
-      <c r="L183" s="327"/>
-      <c r="M183" s="327"/>
+      <c r="L183" s="328"/>
+      <c r="M183" s="328"/>
       <c r="N183" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="25.5">
-      <c r="A184" s="324"/>
-      <c r="B184" s="330"/>
+      <c r="A184" s="325"/>
+      <c r="B184" s="331"/>
       <c r="C184" s="293" t="s">
         <v>179</v>
       </c>
@@ -16660,14 +16729,14 @@
         <f t="shared" si="48"/>
         <v>0.73999999999999311</v>
       </c>
-      <c r="L184" s="327"/>
-      <c r="M184" s="327"/>
+      <c r="L184" s="328"/>
+      <c r="M184" s="328"/>
       <c r="N184" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A185" s="325"/>
+      <c r="A185" s="326"/>
       <c r="B185" s="282"/>
       <c r="C185" s="294" t="s">
         <v>177</v>
@@ -16699,8 +16768,8 @@
         <f t="shared" si="48"/>
         <v>7.6976427431424049E-2</v>
       </c>
-      <c r="L185" s="328"/>
-      <c r="M185" s="328"/>
+      <c r="L185" s="329"/>
+      <c r="M185" s="329"/>
       <c r="N185" s="194" t="s">
         <v>135</v>
       </c>
@@ -16751,7 +16820,7 @@
       <c r="N186" s="196"/>
     </row>
     <row r="187" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A187" s="331" t="s">
+      <c r="A187" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B187" s="122" t="s">
@@ -16790,7 +16859,7 @@
       <c r="N187" s="197"/>
     </row>
     <row r="188" spans="1:14" ht="25.5">
-      <c r="A188" s="332"/>
+      <c r="A188" s="333"/>
       <c r="B188" s="130" t="s">
         <v>138</v>
       </c>
@@ -16835,7 +16904,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" ht="28.5">
-      <c r="A189" s="333"/>
+      <c r="A189" s="334"/>
       <c r="B189" s="162">
         <v>7.12</v>
       </c>
@@ -17035,7 +17104,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="15" thickBot="1">
-      <c r="A195" s="323" t="s">
+      <c r="A195" s="324" t="s">
         <v>243</v>
       </c>
       <c r="B195" s="297">
@@ -17060,18 +17129,18 @@
       </c>
       <c r="J195" s="268"/>
       <c r="K195" s="153"/>
-      <c r="L195" s="326">
+      <c r="L195" s="327">
         <f>E201/D201</f>
         <v>2.1964681548149428E-4</v>
       </c>
-      <c r="M195" s="326">
+      <c r="M195" s="327">
         <f>L195*365</f>
         <v>8.0171087650745418E-2</v>
       </c>
       <c r="N195" s="191"/>
     </row>
     <row r="196" spans="1:14" ht="25.5">
-      <c r="A196" s="324"/>
+      <c r="A196" s="325"/>
       <c r="B196" s="269">
         <v>28</v>
       </c>
@@ -17105,14 +17174,14 @@
         <f>(F196-I196)/(H196-I196)</f>
         <v>2.808968726188411E-2</v>
       </c>
-      <c r="L196" s="327"/>
-      <c r="M196" s="327"/>
+      <c r="L196" s="328"/>
+      <c r="M196" s="328"/>
       <c r="N196" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="25.5">
-      <c r="A197" s="324"/>
+      <c r="A197" s="325"/>
       <c r="B197" s="286">
         <v>117.98</v>
       </c>
@@ -17146,15 +17215,15 @@
         <f t="shared" ref="K197:K200" si="52">(F197-I197)/(H197-I197)</f>
         <v>0.43999999999991657</v>
       </c>
-      <c r="L197" s="327"/>
-      <c r="M197" s="327"/>
+      <c r="L197" s="328"/>
+      <c r="M197" s="328"/>
       <c r="N197" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="25.5">
-      <c r="A198" s="324"/>
-      <c r="B198" s="329">
+      <c r="A198" s="325"/>
+      <c r="B198" s="330">
         <v>118.93</v>
       </c>
       <c r="C198" s="293" t="s">
@@ -17187,15 +17256,15 @@
         <f t="shared" si="52"/>
         <v>0.29729543172695477</v>
       </c>
-      <c r="L198" s="327"/>
-      <c r="M198" s="327"/>
+      <c r="L198" s="328"/>
+      <c r="M198" s="328"/>
       <c r="N198" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="25.5">
-      <c r="A199" s="324"/>
-      <c r="B199" s="330"/>
+      <c r="A199" s="325"/>
+      <c r="B199" s="331"/>
       <c r="C199" s="293" t="s">
         <v>179</v>
       </c>
@@ -17226,14 +17295,14 @@
         <f t="shared" si="52"/>
         <v>0.74999999999999312</v>
       </c>
-      <c r="L199" s="327"/>
-      <c r="M199" s="327"/>
+      <c r="L199" s="328"/>
+      <c r="M199" s="328"/>
       <c r="N199" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A200" s="325"/>
+      <c r="A200" s="326"/>
       <c r="B200" s="282"/>
       <c r="C200" s="294" t="s">
         <v>177</v>
@@ -17265,8 +17334,8 @@
         <f t="shared" si="52"/>
         <v>7.9725585553975409E-2</v>
       </c>
-      <c r="L200" s="328"/>
-      <c r="M200" s="328"/>
+      <c r="L200" s="329"/>
+      <c r="M200" s="329"/>
       <c r="N200" s="194" t="s">
         <v>135</v>
       </c>
@@ -17317,7 +17386,7 @@
       <c r="N201" s="196"/>
     </row>
     <row r="202" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A202" s="331" t="s">
+      <c r="A202" s="332" t="s">
         <v>196</v>
       </c>
       <c r="B202" s="122" t="s">
@@ -17356,7 +17425,7 @@
       <c r="N202" s="197"/>
     </row>
     <row r="203" spans="1:14" ht="25.5">
-      <c r="A203" s="332"/>
+      <c r="A203" s="333"/>
       <c r="B203" s="130" t="s">
         <v>138</v>
       </c>
@@ -17401,7 +17470,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="28.5">
-      <c r="A204" s="333"/>
+      <c r="A204" s="334"/>
       <c r="B204" s="162">
         <v>7.12</v>
       </c>
@@ -17555,14 +17624,1144 @@
         <v>6838.4449137933279</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="15" thickTop="1"/>
-    <row r="210" spans="5:5">
-      <c r="E210" t="s">
+    <row r="208" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="209" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A209" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C209" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J209" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K209" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L209" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M209" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N209" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15" thickBot="1">
+      <c r="A210" s="324" t="s">
         <v>246</v>
       </c>
-    </row>
+      <c r="B210" s="298">
+        <v>78.91</v>
+      </c>
+      <c r="C210" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D210" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E210" s="264"/>
+      <c r="F210" s="264">
+        <f>D210</f>
+        <v>11100</v>
+      </c>
+      <c r="G210" s="265"/>
+      <c r="H210" s="266"/>
+      <c r="I210" s="267">
+        <f>D210</f>
+        <v>11100</v>
+      </c>
+      <c r="J210" s="268"/>
+      <c r="K210" s="153"/>
+      <c r="L210" s="327">
+        <f>E216/D216</f>
+        <v>2.1959858135241596E-4</v>
+      </c>
+      <c r="M210" s="327">
+        <f>L210*365</f>
+        <v>8.0153482193631831E-2</v>
+      </c>
+      <c r="N210" s="191"/>
+    </row>
+    <row r="211" spans="1:14" ht="25.5">
+      <c r="A211" s="325"/>
+      <c r="B211" s="269">
+        <v>59.19</v>
+      </c>
+      <c r="C211" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D211" s="270">
+        <v>8534.6520000000055</v>
+      </c>
+      <c r="E211" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F211" s="270">
+        <f>D211+E211</f>
+        <v>8538.1172000000061</v>
+      </c>
+      <c r="G211" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H211" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I211" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J211" s="274">
+        <f>E211/I211</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K211" s="275">
+        <f>(F211-I211)/(H211-I211)</f>
+        <v>3.0898655988072524E-2</v>
+      </c>
+      <c r="L211" s="328"/>
+      <c r="M211" s="328"/>
+      <c r="N211" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="25.5">
+      <c r="A212" s="325"/>
+      <c r="B212" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C212" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D212" s="287">
+        <v>10021.097999999996</v>
+      </c>
+      <c r="E212" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F212" s="287">
+        <f>D212+E212</f>
+        <v>10023.015999999996</v>
+      </c>
+      <c r="G212" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H212" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I212" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J212" s="274">
+        <f t="shared" ref="J212:J215" si="55">E212/I212</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K212" s="276">
+        <f t="shared" ref="K212:K215" si="56">(F212-I212)/(H212-I212)</f>
+        <v>0.47999999999990894</v>
+      </c>
+      <c r="L212" s="328"/>
+      <c r="M212" s="328"/>
+      <c r="N212" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="25.5">
+      <c r="A213" s="325"/>
+      <c r="B213" s="330">
+        <v>118.93</v>
+      </c>
+      <c r="C213" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D213" s="279">
+        <v>10023.688500000004</v>
+      </c>
+      <c r="E213" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F213" s="279">
+        <f t="shared" ref="F213:F214" si="57">D213+E213</f>
+        <v>10025.842000000004</v>
+      </c>
+      <c r="G213" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H213" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I213" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J213" s="274">
+        <f t="shared" si="55"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K213" s="276">
+        <f t="shared" si="56"/>
+        <v>0.32432228915667793</v>
+      </c>
+      <c r="L213" s="328"/>
+      <c r="M213" s="328"/>
+      <c r="N213" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="25.5">
+      <c r="A214" s="325"/>
+      <c r="B214" s="331"/>
+      <c r="C214" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D214" s="279">
+        <v>1024.6599999999999</v>
+      </c>
+      <c r="E214" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F214" s="279">
+        <f t="shared" si="57"/>
+        <v>1024.9887999999999</v>
+      </c>
+      <c r="G214" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H214" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I214" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J214" s="274">
+        <f t="shared" si="55"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K214" s="276">
+        <f t="shared" si="56"/>
+        <v>0.75999999999999313</v>
+      </c>
+      <c r="L214" s="328"/>
+      <c r="M214" s="328"/>
+      <c r="N214" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A215" s="326"/>
+      <c r="B215" s="282"/>
+      <c r="C215" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215" s="283">
+        <v>10095.410000000009</v>
+      </c>
+      <c r="E215" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F215" s="284">
+        <f>D215+E215</f>
+        <v>10098.70000000001</v>
+      </c>
+      <c r="G215" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H215" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I215" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J215" s="274">
+        <f t="shared" si="55"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K215" s="276">
+        <f t="shared" si="56"/>
+        <v>8.2474743676526754E-2</v>
+      </c>
+      <c r="L215" s="329"/>
+      <c r="M215" s="329"/>
+      <c r="N215" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A216" s="195" t="s">
+        <v>247</v>
+      </c>
+      <c r="B216" s="174">
+        <f>SUM(B210:B215)</f>
+        <v>375.01</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D216" s="11">
+        <f>SUM(D210:D215)</f>
+        <v>50799.508500000018</v>
+      </c>
+      <c r="E216" s="61">
+        <f>SUM(E210:E215)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F216" s="11">
+        <f>SUM(F210:F215)</f>
+        <v>50810.664000000019</v>
+      </c>
+      <c r="G216" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H216" s="66">
+        <f>L210*10000</f>
+        <v>2.1959858135241594</v>
+      </c>
+      <c r="I216" s="158">
+        <f>SUM(I210:I215)</f>
+        <v>50600</v>
+      </c>
+      <c r="J216" s="68"/>
+      <c r="K216" s="68"/>
+      <c r="L216" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M216" s="66">
+        <f>M210*10000</f>
+        <v>801.53482193631828</v>
+      </c>
+      <c r="N216" s="196"/>
+    </row>
+    <row r="217" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A217" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="B217" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C217" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D217" s="123">
+        <v>1407.99</v>
+      </c>
+      <c r="E217" s="124">
+        <v>0</v>
+      </c>
+      <c r="F217" s="124">
+        <f>D217+E217</f>
+        <v>1407.99</v>
+      </c>
+      <c r="G217" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H217" s="123">
+        <f>F217</f>
+        <v>1407.99</v>
+      </c>
+      <c r="I217" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J217" s="127">
+        <f>(H217-I217)/I217</f>
+        <v>-6.1339999999999992E-2</v>
+      </c>
+      <c r="K217" s="127"/>
+      <c r="L217" s="128"/>
+      <c r="M217" s="129"/>
+      <c r="N217" s="197"/>
+    </row>
+    <row r="218" spans="1:14" ht="25.5">
+      <c r="A218" s="333"/>
+      <c r="B218" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C218" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D218" s="131">
+        <v>1443.3400000000001</v>
+      </c>
+      <c r="E218" s="132">
+        <v>0</v>
+      </c>
+      <c r="F218" s="132">
+        <f>D218+E218</f>
+        <v>1443.3400000000001</v>
+      </c>
+      <c r="G218" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H218" s="131">
+        <f>F218</f>
+        <v>1443.3400000000001</v>
+      </c>
+      <c r="I218" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J218" s="168">
+        <f>(H218-I218)/I218</f>
+        <v>-3.7773333333333235E-2</v>
+      </c>
+      <c r="K218" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L218" s="243">
+        <v>1.423</v>
+      </c>
+      <c r="M218" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N218" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="28.5">
+      <c r="A219" s="334"/>
+      <c r="B219" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C219" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D219" s="164">
+        <v>10503.229999999998</v>
+      </c>
+      <c r="E219" s="163">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F219" s="163">
+        <f>D219+E219</f>
+        <v>10504.379999999997</v>
+      </c>
+      <c r="G219" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H219" s="166">
+        <f>F219</f>
+        <v>10504.379999999997</v>
+      </c>
+      <c r="I219" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J219" s="239">
+        <f t="shared" ref="J219" si="58">E219/D219</f>
+        <v>1.0949012827482595E-4</v>
+      </c>
+      <c r="K219" s="277">
+        <f>(F219-I219)/I219</f>
+        <v>4.1714285714260766E-4</v>
+      </c>
+      <c r="L219" s="175"/>
+      <c r="M219" s="176"/>
+      <c r="N219" s="198"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="199"/>
+      <c r="B220" s="186"/>
+      <c r="C220" s="186"/>
+      <c r="D220" s="186"/>
+      <c r="E220" s="186"/>
+      <c r="F220" s="186"/>
+      <c r="G220" s="186"/>
+      <c r="H220" s="186"/>
+      <c r="I220" s="186"/>
+      <c r="J220" s="186"/>
+      <c r="K220" s="186"/>
+      <c r="L220" s="186"/>
+      <c r="M220" s="186"/>
+      <c r="N220" s="200"/>
+    </row>
+    <row r="221" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A221" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D221" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E221" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F221" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G221" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H221" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I221" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J221" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K221" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L221" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M221" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N221" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A222" s="203" t="s">
+        <v>248</v>
+      </c>
+      <c r="B222" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C222" s="205">
+        <f>F216+B216</f>
+        <v>51185.674000000021</v>
+      </c>
+      <c r="D222" s="205">
+        <f>I216</f>
+        <v>50600</v>
+      </c>
+      <c r="E222" s="206">
+        <v>30</v>
+      </c>
+      <c r="F222" s="207">
+        <f>C222-D222</f>
+        <v>585.6740000000209</v>
+      </c>
+      <c r="G222" s="208">
+        <f>F222/D222</f>
+        <v>1.1574584980237567E-2</v>
+      </c>
+      <c r="H222" s="207">
+        <f>F222/E222</f>
+        <v>19.522466666667363</v>
+      </c>
+      <c r="I222" s="208">
+        <f>G222/E222</f>
+        <v>3.8581949934125224E-4</v>
+      </c>
+      <c r="J222" s="209">
+        <f>H222*10000/D222</f>
+        <v>3.8581949934125226</v>
+      </c>
+      <c r="K222" s="210">
+        <f>B216</f>
+        <v>375.01</v>
+      </c>
+      <c r="L222" s="210">
+        <f>F222-K222</f>
+        <v>210.66400000002091</v>
+      </c>
+      <c r="M222" s="208">
+        <f>I222*365</f>
+        <v>0.14082411725955707</v>
+      </c>
+      <c r="N222" s="211">
+        <f>H222*365</f>
+        <v>7125.700333333587</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="224" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A224" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C224" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J224" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K224" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L224" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M224" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N224" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15" thickBot="1">
+      <c r="A225" s="324" t="s">
+        <v>249</v>
+      </c>
+      <c r="B225" s="298">
+        <v>78.91</v>
+      </c>
+      <c r="C225" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D225" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E225" s="264"/>
+      <c r="F225" s="264">
+        <f>D225</f>
+        <v>11100</v>
+      </c>
+      <c r="G225" s="265"/>
+      <c r="H225" s="266"/>
+      <c r="I225" s="267">
+        <f>D225</f>
+        <v>11100</v>
+      </c>
+      <c r="J225" s="268"/>
+      <c r="K225" s="153"/>
+      <c r="L225" s="327">
+        <f>E231/D231</f>
+        <v>2.1955062766032063E-4</v>
+      </c>
+      <c r="M225" s="327">
+        <f>L225*365</f>
+        <v>8.0135979096017038E-2</v>
+      </c>
+      <c r="N225" s="191"/>
+    </row>
+    <row r="226" spans="1:14" ht="25.5">
+      <c r="A226" s="325"/>
+      <c r="B226" s="269">
+        <v>59.19</v>
+      </c>
+      <c r="C226" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D226" s="270">
+        <v>8538.1172000000061</v>
+      </c>
+      <c r="E226" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F226" s="270">
+        <f>D226+E226</f>
+        <v>8541.5824000000066</v>
+      </c>
+      <c r="G226" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H226" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I226" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J226" s="274">
+        <f>E226/I226</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K226" s="275">
+        <f>(F226-I226)/(H226-I226)</f>
+        <v>3.3707624714260934E-2</v>
+      </c>
+      <c r="L226" s="328"/>
+      <c r="M226" s="328"/>
+      <c r="N226" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="25.5">
+      <c r="A227" s="325"/>
+      <c r="B227" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C227" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D227" s="287">
+        <v>10023.015999999996</v>
+      </c>
+      <c r="E227" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F227" s="287">
+        <f>D227+E227</f>
+        <v>10024.933999999996</v>
+      </c>
+      <c r="G227" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H227" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I227" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J227" s="274">
+        <f t="shared" ref="J227:J230" si="59">E227/I227</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K227" s="276">
+        <f t="shared" ref="K227:K230" si="60">(F227-I227)/(H227-I227)</f>
+        <v>0.51999999999990132</v>
+      </c>
+      <c r="L227" s="328"/>
+      <c r="M227" s="328"/>
+      <c r="N227" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="25.5">
+      <c r="A228" s="325"/>
+      <c r="B228" s="330">
+        <v>118.93</v>
+      </c>
+      <c r="C228" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D228" s="279">
+        <v>10025.842000000004</v>
+      </c>
+      <c r="E228" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F228" s="279">
+        <f t="shared" ref="F228:F229" si="61">D228+E228</f>
+        <v>10027.995500000005</v>
+      </c>
+      <c r="G228" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H228" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I228" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J228" s="274">
+        <f t="shared" si="59"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K228" s="276">
+        <f t="shared" si="60"/>
+        <v>0.3513491465864011</v>
+      </c>
+      <c r="L228" s="328"/>
+      <c r="M228" s="328"/>
+      <c r="N228" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="25.5">
+      <c r="A229" s="325"/>
+      <c r="B229" s="331"/>
+      <c r="C229" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D229" s="279">
+        <v>1024.9887999999999</v>
+      </c>
+      <c r="E229" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F229" s="279">
+        <f t="shared" si="61"/>
+        <v>1025.3175999999999</v>
+      </c>
+      <c r="G229" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H229" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I229" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J229" s="274">
+        <f t="shared" si="59"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K229" s="276">
+        <f t="shared" si="60"/>
+        <v>0.76999999999999313</v>
+      </c>
+      <c r="L229" s="328"/>
+      <c r="M229" s="328"/>
+      <c r="N229" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A230" s="326"/>
+      <c r="B230" s="282">
+        <v>98.64</v>
+      </c>
+      <c r="C230" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D230" s="283">
+        <v>10098.64</v>
+      </c>
+      <c r="E230" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F230" s="284">
+        <f>D230+E230</f>
+        <v>10101.93</v>
+      </c>
+      <c r="G230" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H230" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I230" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J230" s="274">
+        <f t="shared" si="59"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K230" s="276">
+        <f t="shared" si="60"/>
+        <v>8.517376517677365E-2</v>
+      </c>
+      <c r="L230" s="329"/>
+      <c r="M230" s="329"/>
+      <c r="N230" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A231" s="195" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" s="174">
+        <f>SUM(B225:B230)</f>
+        <v>473.65</v>
+      </c>
+      <c r="C231" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D231" s="11">
+        <f>SUM(D225:D230)</f>
+        <v>50810.604000000007</v>
+      </c>
+      <c r="E231" s="61">
+        <f>SUM(E225:E230)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F231" s="11">
+        <f>SUM(F225:F230)</f>
+        <v>50821.759500000007</v>
+      </c>
+      <c r="G231" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H231" s="66">
+        <f>L225*10000</f>
+        <v>2.1955062766032065</v>
+      </c>
+      <c r="I231" s="158">
+        <f>SUM(I225:I230)</f>
+        <v>50600</v>
+      </c>
+      <c r="J231" s="68"/>
+      <c r="K231" s="68"/>
+      <c r="L231" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M231" s="66">
+        <f>M225*10000</f>
+        <v>801.35979096017036</v>
+      </c>
+      <c r="N231" s="196"/>
+    </row>
+    <row r="232" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A232" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="B232" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C232" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D232" s="123">
+        <v>1402.3700000000001</v>
+      </c>
+      <c r="E232" s="124">
+        <v>23.31</v>
+      </c>
+      <c r="F232" s="124">
+        <f>D232+E232</f>
+        <v>1425.68</v>
+      </c>
+      <c r="G232" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H232" s="123">
+        <f>F232</f>
+        <v>1425.68</v>
+      </c>
+      <c r="I232" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J232" s="127">
+        <f>(H232-I232)/I232</f>
+        <v>-4.9546666666666621E-2</v>
+      </c>
+      <c r="K232" s="127"/>
+      <c r="L232" s="128"/>
+      <c r="M232" s="129"/>
+      <c r="N232" s="197"/>
+    </row>
+    <row r="233" spans="1:14" ht="25.5">
+      <c r="A233" s="333"/>
+      <c r="B233" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C233" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D233" s="131">
+        <v>1394.0700000000002</v>
+      </c>
+      <c r="E233" s="132">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="F233" s="132">
+        <f>D233+E233</f>
+        <v>1465.92</v>
+      </c>
+      <c r="G233" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H233" s="131">
+        <f>F233</f>
+        <v>1465.92</v>
+      </c>
+      <c r="I233" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J233" s="168">
+        <f>(H233-I233)/I233</f>
+        <v>-2.2719999999999952E-2</v>
+      </c>
+      <c r="K233" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L233" s="243">
+        <f>F233/1026.56</f>
+        <v>1.4279925187032421</v>
+      </c>
+      <c r="M233" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N233" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="28.5">
+      <c r="A234" s="334"/>
+      <c r="B234" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C234" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D234" s="164">
+        <v>10504.379999999997</v>
+      </c>
+      <c r="E234" s="163">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F234" s="163">
+        <f>D234+E234</f>
+        <v>10505.519999999997</v>
+      </c>
+      <c r="G234" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H234" s="166">
+        <f>F234</f>
+        <v>10505.519999999997</v>
+      </c>
+      <c r="I234" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J234" s="239">
+        <f t="shared" ref="J234" si="62">E234/D234</f>
+        <v>1.0852615765994758E-4</v>
+      </c>
+      <c r="K234" s="277">
+        <f>(F234-I234)/I234</f>
+        <v>5.2571428571398084E-4</v>
+      </c>
+      <c r="L234" s="175"/>
+      <c r="M234" s="176"/>
+      <c r="N234" s="198"/>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="199"/>
+      <c r="B235" s="186"/>
+      <c r="C235" s="186"/>
+      <c r="D235" s="186"/>
+      <c r="E235" s="186"/>
+      <c r="F235" s="186"/>
+      <c r="G235" s="186"/>
+      <c r="H235" s="186"/>
+      <c r="I235" s="186"/>
+      <c r="J235" s="186"/>
+      <c r="K235" s="186"/>
+      <c r="L235" s="186"/>
+      <c r="M235" s="186"/>
+      <c r="N235" s="200"/>
+    </row>
+    <row r="236" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A236" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D236" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E236" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F236" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G236" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H236" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I236" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J236" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K236" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L236" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M236" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N236" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A237" s="203" t="s">
+        <v>250</v>
+      </c>
+      <c r="B237" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C237" s="205">
+        <f>F231+B231</f>
+        <v>51295.409500000009</v>
+      </c>
+      <c r="D237" s="205">
+        <f>I231</f>
+        <v>50600</v>
+      </c>
+      <c r="E237" s="206">
+        <v>31</v>
+      </c>
+      <c r="F237" s="207">
+        <f>C237-D237</f>
+        <v>695.40950000000885</v>
+      </c>
+      <c r="G237" s="208">
+        <f>F237/D237</f>
+        <v>1.3743270750988317E-2</v>
+      </c>
+      <c r="H237" s="207">
+        <f>F237/E237</f>
+        <v>22.432564516129318</v>
+      </c>
+      <c r="I237" s="208">
+        <f>G237/E237</f>
+        <v>4.4333131454801024E-4</v>
+      </c>
+      <c r="J237" s="209">
+        <f>H237*10000/D237</f>
+        <v>4.4333131454801027</v>
+      </c>
+      <c r="K237" s="210">
+        <f>B231</f>
+        <v>473.65</v>
+      </c>
+      <c r="L237" s="210">
+        <f>F237-K237</f>
+        <v>221.75950000000887</v>
+      </c>
+      <c r="M237" s="208">
+        <f>I237*365</f>
+        <v>0.16181592981002374</v>
+      </c>
+      <c r="N237" s="211">
+        <f>H237*365</f>
+        <v>8187.8860483872013</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="81">
     <mergeCell ref="A195:A200"/>
     <mergeCell ref="L195:L200"/>
     <mergeCell ref="M195:M200"/>
@@ -17634,6 +18833,16 @@
     <mergeCell ref="M165:M170"/>
     <mergeCell ref="B168:B169"/>
     <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="L210:L215"/>
+    <mergeCell ref="M210:M215"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="L225:L230"/>
+    <mergeCell ref="M225:M230"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="A232:A234"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17646,7 +18855,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17810,20 +19019,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="344" t="s">
+      <c r="A17" s="345" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="345"/>
-      <c r="C17" s="345"/>
-      <c r="D17" s="345"/>
-      <c r="E17" s="345"/>
-      <c r="F17" s="345"/>
-      <c r="G17" s="345"/>
-      <c r="H17" s="345"/>
-      <c r="I17" s="345"/>
-      <c r="J17" s="345"/>
-      <c r="K17" s="345"/>
-      <c r="L17" s="346"/>
+      <c r="B17" s="346"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="346"/>
+      <c r="G17" s="346"/>
+      <c r="H17" s="346"/>
+      <c r="I17" s="346"/>
+      <c r="J17" s="346"/>
+      <c r="K17" s="346"/>
+      <c r="L17" s="347"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -17888,18 +19097,18 @@
         <v>31</v>
       </c>
       <c r="H19" s="253">
-        <v>343.82</v>
+        <v>473.65</v>
       </c>
       <c r="I19" s="259">
         <f>F19-H19</f>
-        <v>80.412876712328796</v>
+        <v>-49.417123287671188</v>
       </c>
       <c r="J19" s="251">
         <v>0</v>
       </c>
       <c r="K19" s="256">
         <f>H19/F19</f>
-        <v>0.81045109625754785</v>
+        <v>1.1164858406793889</v>
       </c>
       <c r="L19" s="255" t="s">
         <v>218</v>
@@ -17949,20 +19158,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="344" t="s">
+      <c r="A22" s="345" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="345"/>
-      <c r="C22" s="345"/>
-      <c r="D22" s="345"/>
-      <c r="E22" s="345"/>
-      <c r="F22" s="345"/>
-      <c r="G22" s="345"/>
-      <c r="H22" s="345"/>
-      <c r="I22" s="345"/>
-      <c r="J22" s="345"/>
-      <c r="K22" s="345"/>
-      <c r="L22" s="346"/>
+      <c r="B22" s="346"/>
+      <c r="C22" s="346"/>
+      <c r="D22" s="346"/>
+      <c r="E22" s="346"/>
+      <c r="F22" s="346"/>
+      <c r="G22" s="346"/>
+      <c r="H22" s="346"/>
+      <c r="I22" s="346"/>
+      <c r="J22" s="346"/>
+      <c r="K22" s="346"/>
+      <c r="L22" s="347"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">
@@ -18027,18 +19236,18 @@
         <v>31</v>
       </c>
       <c r="H24" s="253">
-        <v>343.82</v>
+        <v>473.65</v>
       </c>
       <c r="I24" s="259">
         <f>F24-H24</f>
-        <v>97.822861361354512</v>
+        <v>-32.007138638645472</v>
       </c>
       <c r="J24" s="251">
         <v>0</v>
       </c>
       <c r="K24" s="256">
         <f>H24/F24</f>
-        <v>0.77850233770377797</v>
+        <v>1.072472899346735</v>
       </c>
       <c r="L24" s="255" t="s">
         <v>218</v>

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="256">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1793,6 +1793,76 @@
   </si>
   <si>
     <t>6.22~7.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3243,7 +3313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4141,37 +4211,70 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4186,36 +4289,6 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4255,6 +4328,15 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4269,15 +4351,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4661,7 +4734,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="322">
+      <c r="F2" s="319">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4683,7 +4756,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="323"/>
+      <c r="F3" s="320"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4691,7 +4764,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="323"/>
+      <c r="F4" s="320"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4752,7 +4825,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="300" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4782,17 +4855,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="318">
+      <c r="K8" s="315">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="318">
+      <c r="L8" s="315">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="302"/>
+      <c r="A9" s="301"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4820,11 +4893,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="319"/>
-      <c r="L9" s="319"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="316"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="302"/>
+      <c r="A10" s="301"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4854,11 +4927,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
+      <c r="K10" s="316"/>
+      <c r="L10" s="316"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="302"/>
+      <c r="A11" s="301"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4886,11 +4959,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="319"/>
-      <c r="L11" s="319"/>
+      <c r="K11" s="316"/>
+      <c r="L11" s="316"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="302"/>
+      <c r="A12" s="301"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4918,11 +4991,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
+      <c r="K12" s="316"/>
+      <c r="L12" s="316"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="302"/>
+      <c r="A13" s="301"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -4952,11 +5025,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
+      <c r="K13" s="316"/>
+      <c r="L13" s="316"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="302"/>
+      <c r="A14" s="301"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -4986,11 +5059,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="319"/>
-      <c r="L14" s="319"/>
+      <c r="K14" s="316"/>
+      <c r="L14" s="316"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="302"/>
+      <c r="A15" s="301"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -5018,11 +5091,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="319"/>
-      <c r="L15" s="319"/>
+      <c r="K15" s="316"/>
+      <c r="L15" s="316"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="303"/>
+      <c r="A16" s="302"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -5051,8 +5124,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="320"/>
-      <c r="L16" s="320"/>
+      <c r="K16" s="317"/>
+      <c r="L16" s="317"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -5133,7 +5206,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="301" t="s">
+      <c r="A20" s="300" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5165,17 +5238,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="317">
+      <c r="K20" s="314">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="317">
+      <c r="L20" s="314">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="302"/>
+      <c r="A21" s="301"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -5205,11 +5278,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="315"/>
-      <c r="L21" s="315"/>
+      <c r="K21" s="312"/>
+      <c r="L21" s="312"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="302"/>
+      <c r="A22" s="301"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -5239,11 +5312,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="315"/>
-      <c r="L22" s="315"/>
+      <c r="K22" s="312"/>
+      <c r="L22" s="312"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="302"/>
+      <c r="A23" s="301"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -5273,11 +5346,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="315"/>
-      <c r="L23" s="315"/>
+      <c r="K23" s="312"/>
+      <c r="L23" s="312"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="302"/>
+      <c r="A24" s="301"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5307,11 +5380,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="315"/>
-      <c r="L24" s="315"/>
+      <c r="K24" s="312"/>
+      <c r="L24" s="312"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="302"/>
+      <c r="A25" s="301"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5341,11 +5414,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="315"/>
-      <c r="L25" s="315"/>
+      <c r="K25" s="312"/>
+      <c r="L25" s="312"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="302"/>
+      <c r="A26" s="301"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5375,11 +5448,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="315"/>
-      <c r="L26" s="315"/>
+      <c r="K26" s="312"/>
+      <c r="L26" s="312"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="302"/>
+      <c r="A27" s="301"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5409,11 +5482,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="315"/>
-      <c r="L27" s="315"/>
+      <c r="K27" s="312"/>
+      <c r="L27" s="312"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="303"/>
+      <c r="A28" s="302"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5443,8 +5516,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="321"/>
-      <c r="L28" s="321"/>
+      <c r="K28" s="318"/>
+      <c r="L28" s="318"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5529,7 +5602,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="301" t="s">
+      <c r="A32" s="300" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5561,17 +5634,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="314">
+      <c r="K32" s="311">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="317">
+      <c r="L32" s="314">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="302"/>
+      <c r="A33" s="301"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5601,11 +5674,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="315"/>
-      <c r="L33" s="315"/>
+      <c r="K33" s="312"/>
+      <c r="L33" s="312"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="302"/>
+      <c r="A34" s="301"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5635,11 +5708,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="315"/>
-      <c r="L34" s="315"/>
+      <c r="K34" s="312"/>
+      <c r="L34" s="312"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="302"/>
+      <c r="A35" s="301"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5669,11 +5742,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="315"/>
-      <c r="L35" s="315"/>
+      <c r="K35" s="312"/>
+      <c r="L35" s="312"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="302"/>
+      <c r="A36" s="301"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5703,12 +5776,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="315"/>
-      <c r="L36" s="315"/>
+      <c r="K36" s="312"/>
+      <c r="L36" s="312"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="302"/>
-      <c r="B37" s="307" t="s">
+      <c r="A37" s="301"/>
+      <c r="B37" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5737,12 +5810,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="315"/>
-      <c r="L37" s="315"/>
+      <c r="K37" s="312"/>
+      <c r="L37" s="312"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="302"/>
-      <c r="B38" s="308"/>
+      <c r="A38" s="301"/>
+      <c r="B38" s="307"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5769,12 +5842,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="315"/>
-      <c r="L38" s="315"/>
+      <c r="K38" s="312"/>
+      <c r="L38" s="312"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="302"/>
-      <c r="B39" s="309"/>
+      <c r="A39" s="301"/>
+      <c r="B39" s="308"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5801,12 +5874,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="315"/>
-      <c r="L39" s="315"/>
+      <c r="K39" s="312"/>
+      <c r="L39" s="312"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="302"/>
-      <c r="B40" s="299" t="s">
+      <c r="A40" s="301"/>
+      <c r="B40" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5835,12 +5908,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="315"/>
-      <c r="L40" s="315"/>
+      <c r="K40" s="312"/>
+      <c r="L40" s="312"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="302"/>
-      <c r="B41" s="300"/>
+      <c r="A41" s="301"/>
+      <c r="B41" s="310"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5860,11 +5933,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="315"/>
-      <c r="L41" s="315"/>
+      <c r="K41" s="312"/>
+      <c r="L41" s="312"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="303"/>
+      <c r="A42" s="302"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5894,8 +5967,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="316"/>
-      <c r="L42" s="316"/>
+      <c r="K42" s="313"/>
+      <c r="L42" s="313"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -5980,7 +6053,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="301" t="s">
+      <c r="A46" s="300" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -6012,17 +6085,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="314">
+      <c r="K46" s="311">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="317">
+      <c r="L46" s="314">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="302"/>
+      <c r="A47" s="301"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -6052,11 +6125,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="315"/>
-      <c r="L47" s="315"/>
+      <c r="K47" s="312"/>
+      <c r="L47" s="312"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="302"/>
+      <c r="A48" s="301"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -6086,11 +6159,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="315"/>
-      <c r="L48" s="315"/>
+      <c r="K48" s="312"/>
+      <c r="L48" s="312"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="302"/>
+      <c r="A49" s="301"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -6120,11 +6193,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="315"/>
-      <c r="L49" s="315"/>
+      <c r="K49" s="312"/>
+      <c r="L49" s="312"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="302"/>
+      <c r="A50" s="301"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6154,12 +6227,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="315"/>
-      <c r="L50" s="315"/>
+      <c r="K50" s="312"/>
+      <c r="L50" s="312"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="302"/>
-      <c r="B51" s="307" t="s">
+      <c r="A51" s="301"/>
+      <c r="B51" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -6188,12 +6261,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="315"/>
-      <c r="L51" s="315"/>
+      <c r="K51" s="312"/>
+      <c r="L51" s="312"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="302"/>
-      <c r="B52" s="308"/>
+      <c r="A52" s="301"/>
+      <c r="B52" s="307"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -6220,12 +6293,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="315"/>
-      <c r="L52" s="315"/>
+      <c r="K52" s="312"/>
+      <c r="L52" s="312"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="302"/>
-      <c r="B53" s="309"/>
+      <c r="A53" s="301"/>
+      <c r="B53" s="308"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -6252,12 +6325,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="315"/>
-      <c r="L53" s="315"/>
+      <c r="K53" s="312"/>
+      <c r="L53" s="312"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="302"/>
-      <c r="B54" s="299" t="s">
+      <c r="A54" s="301"/>
+      <c r="B54" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -6286,12 +6359,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="315"/>
-      <c r="L54" s="315"/>
+      <c r="K54" s="312"/>
+      <c r="L54" s="312"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="302"/>
-      <c r="B55" s="300"/>
+      <c r="A55" s="301"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6318,11 +6391,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="315"/>
-      <c r="L55" s="315"/>
+      <c r="K55" s="312"/>
+      <c r="L55" s="312"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="303"/>
+      <c r="A56" s="302"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6352,8 +6425,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="316"/>
-      <c r="L56" s="316"/>
+      <c r="K56" s="313"/>
+      <c r="L56" s="313"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6443,7 +6516,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="301" t="s">
+      <c r="A60" s="300" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6475,11 +6548,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="304">
+      <c r="K60" s="303">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="304">
+      <c r="L60" s="303">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6488,7 +6561,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="302"/>
+      <c r="A61" s="301"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6518,12 +6591,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="305"/>
-      <c r="L61" s="305"/>
+      <c r="K61" s="304"/>
+      <c r="L61" s="304"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="302"/>
+      <c r="A62" s="301"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6553,14 +6626,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="305"/>
-      <c r="L62" s="305"/>
+      <c r="K62" s="304"/>
+      <c r="L62" s="304"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="302"/>
+      <c r="A63" s="301"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6590,12 +6663,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="305"/>
-      <c r="L63" s="305"/>
+      <c r="K63" s="304"/>
+      <c r="L63" s="304"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="302"/>
+      <c r="A64" s="301"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6625,13 +6698,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="305"/>
-      <c r="L64" s="305"/>
+      <c r="K64" s="304"/>
+      <c r="L64" s="304"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="302"/>
-      <c r="B65" s="307" t="s">
+      <c r="A65" s="301"/>
+      <c r="B65" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6660,13 +6733,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="305"/>
-      <c r="L65" s="305"/>
+      <c r="K65" s="304"/>
+      <c r="L65" s="304"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="302"/>
-      <c r="B66" s="308"/>
+      <c r="A66" s="301"/>
+      <c r="B66" s="307"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6693,15 +6766,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="305"/>
-      <c r="L66" s="305"/>
+      <c r="K66" s="304"/>
+      <c r="L66" s="304"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="302"/>
-      <c r="B67" s="309"/>
+      <c r="A67" s="301"/>
+      <c r="B67" s="308"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6728,13 +6801,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="305"/>
-      <c r="L67" s="305"/>
+      <c r="K67" s="304"/>
+      <c r="L67" s="304"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="302"/>
-      <c r="B68" s="299" t="s">
+      <c r="A68" s="301"/>
+      <c r="B68" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6763,15 +6836,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="305"/>
-      <c r="L68" s="305"/>
+      <c r="K68" s="304"/>
+      <c r="L68" s="304"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="302"/>
-      <c r="B69" s="300"/>
+      <c r="A69" s="301"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6798,14 +6871,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="305"/>
-      <c r="L69" s="305"/>
+      <c r="K69" s="304"/>
+      <c r="L69" s="304"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="303"/>
+      <c r="A70" s="302"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6835,8 +6908,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="306"/>
-      <c r="L70" s="306"/>
+      <c r="K70" s="305"/>
+      <c r="L70" s="305"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -6928,7 +7001,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="301" t="s">
+      <c r="A74" s="300" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -6960,11 +7033,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="304">
+      <c r="K74" s="303">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="304">
+      <c r="L74" s="303">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -6973,7 +7046,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="302"/>
+      <c r="A75" s="301"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -7003,12 +7076,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="305"/>
-      <c r="L75" s="305"/>
+      <c r="K75" s="304"/>
+      <c r="L75" s="304"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="302"/>
+      <c r="A76" s="301"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -7038,14 +7111,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="305"/>
-      <c r="L76" s="305"/>
+      <c r="K76" s="304"/>
+      <c r="L76" s="304"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="302"/>
+      <c r="A77" s="301"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -7075,12 +7148,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="305"/>
-      <c r="L77" s="305"/>
+      <c r="K77" s="304"/>
+      <c r="L77" s="304"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="302"/>
+      <c r="A78" s="301"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -7110,13 +7183,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="305"/>
-      <c r="L78" s="305"/>
+      <c r="K78" s="304"/>
+      <c r="L78" s="304"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="302"/>
-      <c r="B79" s="307" t="s">
+      <c r="A79" s="301"/>
+      <c r="B79" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -7145,13 +7218,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="305"/>
-      <c r="L79" s="305"/>
+      <c r="K79" s="304"/>
+      <c r="L79" s="304"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="302"/>
-      <c r="B80" s="308"/>
+      <c r="A80" s="301"/>
+      <c r="B80" s="307"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -7177,15 +7250,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="305"/>
-      <c r="L80" s="305"/>
+      <c r="K80" s="304"/>
+      <c r="L80" s="304"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="302"/>
-      <c r="B81" s="308"/>
+      <c r="A81" s="301"/>
+      <c r="B81" s="307"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -7212,15 +7285,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="305"/>
-      <c r="L81" s="305"/>
+      <c r="K81" s="304"/>
+      <c r="L81" s="304"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="302"/>
-      <c r="B82" s="309"/>
+      <c r="A82" s="301"/>
+      <c r="B82" s="308"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -7247,13 +7320,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="305"/>
-      <c r="L82" s="305"/>
+      <c r="K82" s="304"/>
+      <c r="L82" s="304"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="302"/>
-      <c r="B83" s="299" t="s">
+      <c r="A83" s="301"/>
+      <c r="B83" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -7282,15 +7355,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="305"/>
-      <c r="L83" s="305"/>
+      <c r="K83" s="304"/>
+      <c r="L83" s="304"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="302"/>
-      <c r="B84" s="300"/>
+      <c r="A84" s="301"/>
+      <c r="B84" s="310"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7317,14 +7390,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="305"/>
-      <c r="L84" s="305"/>
+      <c r="K84" s="304"/>
+      <c r="L84" s="304"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="303"/>
+      <c r="A85" s="302"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7354,8 +7427,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="306"/>
-      <c r="L85" s="306"/>
+      <c r="K85" s="305"/>
+      <c r="L85" s="305"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7446,7 +7519,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="301" t="s">
+      <c r="A89" s="300" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7478,11 +7551,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="304">
+      <c r="K89" s="303">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="304">
+      <c r="L89" s="303">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7491,7 +7564,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="302"/>
+      <c r="A90" s="301"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7521,12 +7594,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="305"/>
-      <c r="L90" s="305"/>
+      <c r="K90" s="304"/>
+      <c r="L90" s="304"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="302"/>
+      <c r="A91" s="301"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7556,14 +7629,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="305"/>
-      <c r="L91" s="305"/>
+      <c r="K91" s="304"/>
+      <c r="L91" s="304"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="302"/>
+      <c r="A92" s="301"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7593,14 +7666,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="305"/>
-      <c r="L92" s="305"/>
+      <c r="K92" s="304"/>
+      <c r="L92" s="304"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="302"/>
+      <c r="A93" s="301"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7630,13 +7703,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="305"/>
-      <c r="L93" s="305"/>
+      <c r="K93" s="304"/>
+      <c r="L93" s="304"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="302"/>
-      <c r="B94" s="307" t="s">
+      <c r="A94" s="301"/>
+      <c r="B94" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7665,15 +7738,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="305"/>
-      <c r="L94" s="305"/>
+      <c r="K94" s="304"/>
+      <c r="L94" s="304"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="302"/>
-      <c r="B95" s="308"/>
+      <c r="A95" s="301"/>
+      <c r="B95" s="307"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7700,15 +7773,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="305"/>
-      <c r="L95" s="305"/>
+      <c r="K95" s="304"/>
+      <c r="L95" s="304"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="302"/>
-      <c r="B96" s="309"/>
+      <c r="A96" s="301"/>
+      <c r="B96" s="308"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7735,13 +7808,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="305"/>
-      <c r="L96" s="305"/>
+      <c r="K96" s="304"/>
+      <c r="L96" s="304"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="302"/>
-      <c r="B97" s="299" t="s">
+      <c r="A97" s="301"/>
+      <c r="B97" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7770,15 +7843,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="305"/>
-      <c r="L97" s="305"/>
+      <c r="K97" s="304"/>
+      <c r="L97" s="304"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="302"/>
-      <c r="B98" s="300"/>
+      <c r="A98" s="301"/>
+      <c r="B98" s="310"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7805,14 +7878,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="305"/>
-      <c r="L98" s="305"/>
+      <c r="K98" s="304"/>
+      <c r="L98" s="304"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="303"/>
+      <c r="A99" s="302"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7842,8 +7915,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="306"/>
-      <c r="L99" s="306"/>
+      <c r="K99" s="305"/>
+      <c r="L99" s="305"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -7936,7 +8009,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="301" t="s">
+      <c r="A103" s="300" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7968,11 +8041,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="304">
+      <c r="K103" s="303">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="304">
+      <c r="L103" s="303">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -7981,7 +8054,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="302"/>
+      <c r="A104" s="301"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -8011,12 +8084,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="305"/>
-      <c r="L104" s="305"/>
+      <c r="K104" s="304"/>
+      <c r="L104" s="304"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="302"/>
+      <c r="A105" s="301"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -8046,14 +8119,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="305"/>
-      <c r="L105" s="305"/>
+      <c r="K105" s="304"/>
+      <c r="L105" s="304"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="302"/>
+      <c r="A106" s="301"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -8082,14 +8155,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="305"/>
-      <c r="L106" s="305"/>
+      <c r="K106" s="304"/>
+      <c r="L106" s="304"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="302"/>
+      <c r="A107" s="301"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -8119,13 +8192,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="305"/>
-      <c r="L107" s="305"/>
+      <c r="K107" s="304"/>
+      <c r="L107" s="304"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="302"/>
-      <c r="B108" s="307" t="s">
+      <c r="A108" s="301"/>
+      <c r="B108" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -8154,15 +8227,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="305"/>
-      <c r="L108" s="305"/>
+      <c r="K108" s="304"/>
+      <c r="L108" s="304"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="302"/>
-      <c r="B109" s="308"/>
+      <c r="A109" s="301"/>
+      <c r="B109" s="307"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -8189,15 +8262,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="305"/>
-      <c r="L109" s="305"/>
+      <c r="K109" s="304"/>
+      <c r="L109" s="304"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="302"/>
-      <c r="B110" s="309"/>
+      <c r="A110" s="301"/>
+      <c r="B110" s="308"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -8224,13 +8297,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="305"/>
-      <c r="L110" s="305"/>
+      <c r="K110" s="304"/>
+      <c r="L110" s="304"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="302"/>
-      <c r="B111" s="299" t="s">
+      <c r="A111" s="301"/>
+      <c r="B111" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -8259,15 +8332,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="305"/>
-      <c r="L111" s="305"/>
+      <c r="K111" s="304"/>
+      <c r="L111" s="304"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="302"/>
-      <c r="B112" s="300"/>
+      <c r="A112" s="301"/>
+      <c r="B112" s="310"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -8294,14 +8367,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="305"/>
-      <c r="L112" s="305"/>
+      <c r="K112" s="304"/>
+      <c r="L112" s="304"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="303"/>
+      <c r="A113" s="302"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8331,8 +8404,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="306"/>
-      <c r="L113" s="306"/>
+      <c r="K113" s="305"/>
+      <c r="L113" s="305"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8425,7 +8498,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="301" t="s">
+      <c r="A117" s="300" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8457,11 +8530,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="304">
+      <c r="K117" s="303">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="304">
+      <c r="L117" s="303">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8470,7 +8543,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="302"/>
+      <c r="A118" s="301"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8500,12 +8573,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="305"/>
-      <c r="L118" s="305"/>
+      <c r="K118" s="304"/>
+      <c r="L118" s="304"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="302"/>
+      <c r="A119" s="301"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8535,14 +8608,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="305"/>
-      <c r="L119" s="305"/>
+      <c r="K119" s="304"/>
+      <c r="L119" s="304"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="302"/>
+      <c r="A120" s="301"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8572,13 +8645,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="305"/>
-      <c r="L120" s="305"/>
+      <c r="K120" s="304"/>
+      <c r="L120" s="304"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="302"/>
-      <c r="B121" s="307" t="s">
+      <c r="A121" s="301"/>
+      <c r="B121" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8607,15 +8680,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="305"/>
-      <c r="L121" s="305"/>
+      <c r="K121" s="304"/>
+      <c r="L121" s="304"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="302"/>
-      <c r="B122" s="308"/>
+      <c r="A122" s="301"/>
+      <c r="B122" s="307"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8642,15 +8715,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="305"/>
-      <c r="L122" s="305"/>
+      <c r="K122" s="304"/>
+      <c r="L122" s="304"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="302"/>
-      <c r="B123" s="309"/>
+      <c r="A123" s="301"/>
+      <c r="B123" s="308"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8677,13 +8750,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="305"/>
-      <c r="L123" s="305"/>
+      <c r="K123" s="304"/>
+      <c r="L123" s="304"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="302"/>
-      <c r="B124" s="299" t="s">
+      <c r="A124" s="301"/>
+      <c r="B124" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8712,15 +8785,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="305"/>
-      <c r="L124" s="305"/>
+      <c r="K124" s="304"/>
+      <c r="L124" s="304"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="302"/>
-      <c r="B125" s="300"/>
+      <c r="A125" s="301"/>
+      <c r="B125" s="310"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8747,14 +8820,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="305"/>
-      <c r="L125" s="305"/>
+      <c r="K125" s="304"/>
+      <c r="L125" s="304"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="303"/>
+      <c r="A126" s="302"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8784,8 +8857,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="306"/>
-      <c r="L126" s="306"/>
+      <c r="K126" s="305"/>
+      <c r="L126" s="305"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8878,7 +8951,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="301" t="s">
+      <c r="A130" s="300" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8910,11 +8983,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="304">
+      <c r="K130" s="303">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="304">
+      <c r="L130" s="303">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8923,7 +8996,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="302"/>
+      <c r="A131" s="301"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -8953,12 +9026,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="305"/>
-      <c r="L131" s="305"/>
+      <c r="K131" s="304"/>
+      <c r="L131" s="304"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="302"/>
+      <c r="A132" s="301"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -8988,14 +9061,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="305"/>
-      <c r="L132" s="305"/>
+      <c r="K132" s="304"/>
+      <c r="L132" s="304"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="302"/>
+      <c r="A133" s="301"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -9025,13 +9098,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="305"/>
-      <c r="L133" s="305"/>
+      <c r="K133" s="304"/>
+      <c r="L133" s="304"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="302"/>
-      <c r="B134" s="307" t="s">
+      <c r="A134" s="301"/>
+      <c r="B134" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -9060,15 +9133,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="305"/>
-      <c r="L134" s="305"/>
+      <c r="K134" s="304"/>
+      <c r="L134" s="304"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="302"/>
-      <c r="B135" s="308"/>
+      <c r="A135" s="301"/>
+      <c r="B135" s="307"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -9095,15 +9168,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="305"/>
-      <c r="L135" s="305"/>
+      <c r="K135" s="304"/>
+      <c r="L135" s="304"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="302"/>
-      <c r="B136" s="309"/>
+      <c r="A136" s="301"/>
+      <c r="B136" s="308"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -9130,13 +9203,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="305"/>
-      <c r="L136" s="305"/>
+      <c r="K136" s="304"/>
+      <c r="L136" s="304"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="302"/>
-      <c r="B137" s="299" t="s">
+      <c r="A137" s="301"/>
+      <c r="B137" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -9165,15 +9238,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="305"/>
-      <c r="L137" s="305"/>
+      <c r="K137" s="304"/>
+      <c r="L137" s="304"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="302"/>
-      <c r="B138" s="300"/>
+      <c r="A138" s="301"/>
+      <c r="B138" s="310"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -9200,14 +9273,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="305"/>
-      <c r="L138" s="305"/>
+      <c r="K138" s="304"/>
+      <c r="L138" s="304"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="303"/>
+      <c r="A139" s="302"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -9237,8 +9310,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="306"/>
-      <c r="L139" s="306"/>
+      <c r="K139" s="305"/>
+      <c r="L139" s="305"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9331,7 +9404,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="301" t="s">
+      <c r="A143" s="300" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9363,11 +9436,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="304">
+      <c r="K143" s="303">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="304">
+      <c r="L143" s="303">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9376,7 +9449,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="302"/>
+      <c r="A144" s="301"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9406,12 +9479,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="305"/>
-      <c r="L144" s="305"/>
+      <c r="K144" s="304"/>
+      <c r="L144" s="304"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="302"/>
+      <c r="A145" s="301"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9441,14 +9514,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="305"/>
-      <c r="L145" s="305"/>
+      <c r="K145" s="304"/>
+      <c r="L145" s="304"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="302"/>
+      <c r="A146" s="301"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9478,13 +9551,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="305"/>
-      <c r="L146" s="305"/>
+      <c r="K146" s="304"/>
+      <c r="L146" s="304"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="302"/>
-      <c r="B147" s="307" t="s">
+      <c r="A147" s="301"/>
+      <c r="B147" s="306" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9513,15 +9586,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="305"/>
-      <c r="L147" s="305"/>
+      <c r="K147" s="304"/>
+      <c r="L147" s="304"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="302"/>
-      <c r="B148" s="308"/>
+      <c r="A148" s="301"/>
+      <c r="B148" s="307"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9548,15 +9621,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="305"/>
-      <c r="L148" s="305"/>
+      <c r="K148" s="304"/>
+      <c r="L148" s="304"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="302"/>
-      <c r="B149" s="309"/>
+      <c r="A149" s="301"/>
+      <c r="B149" s="308"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9583,13 +9656,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="305"/>
-      <c r="L149" s="305"/>
+      <c r="K149" s="304"/>
+      <c r="L149" s="304"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="302"/>
-      <c r="B150" s="299" t="s">
+      <c r="A150" s="301"/>
+      <c r="B150" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9618,15 +9691,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="305"/>
-      <c r="L150" s="305"/>
+      <c r="K150" s="304"/>
+      <c r="L150" s="304"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="302"/>
-      <c r="B151" s="300"/>
+      <c r="A151" s="301"/>
+      <c r="B151" s="310"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9653,14 +9726,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="305"/>
-      <c r="L151" s="305"/>
+      <c r="K151" s="304"/>
+      <c r="L151" s="304"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="303"/>
+      <c r="A152" s="302"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9690,8 +9763,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="306"/>
-      <c r="L152" s="306"/>
+      <c r="K152" s="305"/>
+      <c r="L152" s="305"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9764,10 +9837,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="310" t="s">
+      <c r="H155" s="321" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="311"/>
+      <c r="I155" s="322"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9804,11 +9877,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="312">
+      <c r="H156" s="323">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="313"/>
+      <c r="I156" s="324"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9825,38 +9898,12 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9873,12 +9920,38 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9888,10 +9961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240:G242"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="L271" sqref="L271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9954,7 +10027,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="301" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -9985,11 +10058,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="328">
+      <c r="L2" s="329">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="328">
+      <c r="M2" s="329">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -9998,7 +10071,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="302"/>
+      <c r="A3" s="301"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -10027,14 +10100,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="302"/>
+      <c r="A4" s="301"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -10065,13 +10138,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="328"/>
-      <c r="M4" s="328"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="329"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="302"/>
-      <c r="B5" s="307"/>
+      <c r="A5" s="301"/>
+      <c r="B5" s="306"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -10099,15 +10172,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="328"/>
-      <c r="M5" s="328"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="329"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="302"/>
-      <c r="B6" s="308"/>
+      <c r="A6" s="301"/>
+      <c r="B6" s="307"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -10135,15 +10208,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="328"/>
-      <c r="M6" s="328"/>
+      <c r="L6" s="329"/>
+      <c r="M6" s="329"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="302"/>
-      <c r="B7" s="309"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="308"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -10171,12 +10244,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="328"/>
-      <c r="M7" s="328"/>
+      <c r="L7" s="329"/>
+      <c r="M7" s="329"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="302"/>
+      <c r="A8" s="301"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -10205,14 +10278,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="328"/>
-      <c r="M8" s="328"/>
+      <c r="L8" s="329"/>
+      <c r="M8" s="329"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="303"/>
+      <c r="A9" s="302"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -10241,8 +10314,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="329"/>
-      <c r="M9" s="329"/>
+      <c r="L9" s="330"/>
+      <c r="M9" s="330"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10375,7 +10448,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="302" t="s">
+      <c r="A14" s="301" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10406,11 +10479,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="328">
+      <c r="L14" s="329">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="328">
+      <c r="M14" s="329">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10419,7 +10492,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="302"/>
+      <c r="A15" s="301"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10448,14 +10521,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="328"/>
+      <c r="L15" s="329"/>
+      <c r="M15" s="329"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="302"/>
+      <c r="A16" s="301"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10485,13 +10558,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="328"/>
-      <c r="M16" s="328"/>
+      <c r="L16" s="329"/>
+      <c r="M16" s="329"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="302"/>
-      <c r="B17" s="339"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="343"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10519,15 +10592,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="328"/>
-      <c r="M17" s="328"/>
+      <c r="L17" s="329"/>
+      <c r="M17" s="329"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="302"/>
-      <c r="B18" s="340"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="344"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10555,15 +10628,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="328"/>
+      <c r="L18" s="329"/>
+      <c r="M18" s="329"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="302"/>
-      <c r="B19" s="341"/>
+      <c r="A19" s="301"/>
+      <c r="B19" s="345"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10592,12 +10665,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="328"/>
+      <c r="L19" s="329"/>
+      <c r="M19" s="329"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="302"/>
+      <c r="A20" s="301"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10626,14 +10699,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="328"/>
-      <c r="M20" s="328"/>
+      <c r="L20" s="329"/>
+      <c r="M20" s="329"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="303"/>
+      <c r="A21" s="302"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10662,8 +10735,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="329"/>
-      <c r="M21" s="329"/>
+      <c r="L21" s="330"/>
+      <c r="M21" s="330"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10796,7 +10869,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="302" t="s">
+      <c r="A26" s="301" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10827,11 +10900,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="328">
+      <c r="L26" s="329">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="328">
+      <c r="M26" s="329">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10840,7 +10913,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="302"/>
+      <c r="A27" s="301"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10869,14 +10942,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="328"/>
-      <c r="M27" s="328"/>
+      <c r="L27" s="329"/>
+      <c r="M27" s="329"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="302"/>
+      <c r="A28" s="301"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10906,13 +10979,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="328"/>
-      <c r="M28" s="328"/>
+      <c r="L28" s="329"/>
+      <c r="M28" s="329"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="302"/>
-      <c r="B29" s="339"/>
+      <c r="A29" s="301"/>
+      <c r="B29" s="343"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -10940,15 +11013,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="328"/>
-      <c r="M29" s="328"/>
+      <c r="L29" s="329"/>
+      <c r="M29" s="329"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="302"/>
-      <c r="B30" s="340"/>
+      <c r="A30" s="301"/>
+      <c r="B30" s="344"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -10976,15 +11049,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="328"/>
-      <c r="M30" s="328"/>
+      <c r="L30" s="329"/>
+      <c r="M30" s="329"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="302"/>
-      <c r="B31" s="341"/>
+      <c r="A31" s="301"/>
+      <c r="B31" s="345"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -11013,12 +11086,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="328"/>
-      <c r="M31" s="328"/>
+      <c r="L31" s="329"/>
+      <c r="M31" s="329"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="302"/>
+      <c r="A32" s="301"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -11047,14 +11120,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="328"/>
-      <c r="M32" s="328"/>
+      <c r="L32" s="329"/>
+      <c r="M32" s="329"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="303"/>
+      <c r="A33" s="302"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -11083,8 +11156,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="329"/>
-      <c r="M33" s="329"/>
+      <c r="L33" s="330"/>
+      <c r="M33" s="330"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -11217,7 +11290,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="302" t="s">
+      <c r="A38" s="301" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -11248,11 +11321,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="328">
+      <c r="L38" s="329">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="328">
+      <c r="M38" s="329">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -11261,7 +11334,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="302"/>
+      <c r="A39" s="301"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -11290,14 +11363,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="328"/>
-      <c r="M39" s="328"/>
+      <c r="L39" s="329"/>
+      <c r="M39" s="329"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="302"/>
+      <c r="A40" s="301"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11327,13 +11400,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="328"/>
-      <c r="M40" s="328"/>
+      <c r="L40" s="329"/>
+      <c r="M40" s="329"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="302"/>
-      <c r="B41" s="339"/>
+      <c r="A41" s="301"/>
+      <c r="B41" s="343"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11361,15 +11434,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="328"/>
-      <c r="M41" s="328"/>
+      <c r="L41" s="329"/>
+      <c r="M41" s="329"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="302"/>
-      <c r="B42" s="340"/>
+      <c r="A42" s="301"/>
+      <c r="B42" s="344"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11397,15 +11470,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="328"/>
-      <c r="M42" s="328"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="302"/>
-      <c r="B43" s="341"/>
+      <c r="A43" s="301"/>
+      <c r="B43" s="345"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11434,12 +11507,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="328"/>
-      <c r="M43" s="328"/>
+      <c r="L43" s="329"/>
+      <c r="M43" s="329"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="302"/>
+      <c r="A44" s="301"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11468,14 +11541,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="328"/>
-      <c r="M44" s="328"/>
+      <c r="L44" s="329"/>
+      <c r="M44" s="329"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="303"/>
+      <c r="A45" s="302"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11504,8 +11577,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="329"/>
-      <c r="M45" s="329"/>
+      <c r="L45" s="330"/>
+      <c r="M45" s="330"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11641,7 +11714,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="302" t="s">
+      <c r="A50" s="301" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11677,11 +11750,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="328">
+      <c r="L50" s="329">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="328">
+      <c r="M50" s="329">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11690,7 +11763,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="302"/>
+      <c r="A51" s="301"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11724,14 +11797,14 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="328"/>
-      <c r="M51" s="328"/>
+      <c r="L51" s="329"/>
+      <c r="M51" s="329"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="302"/>
+      <c r="A52" s="301"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11763,13 +11836,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="276"/>
-      <c r="L52" s="328"/>
-      <c r="M52" s="328"/>
+      <c r="L52" s="329"/>
+      <c r="M52" s="329"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="302"/>
-      <c r="B53" s="339">
+      <c r="A53" s="301"/>
+      <c r="B53" s="343">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11802,15 +11875,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="328"/>
+      <c r="L53" s="329"/>
+      <c r="M53" s="329"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="302"/>
-      <c r="B54" s="340"/>
+      <c r="A54" s="301"/>
+      <c r="B54" s="344"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11841,14 +11914,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="328"/>
-      <c r="M54" s="328"/>
+      <c r="L54" s="329"/>
+      <c r="M54" s="329"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="303"/>
+      <c r="A55" s="302"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11882,8 +11955,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="329"/>
-      <c r="M55" s="329"/>
+      <c r="L55" s="330"/>
+      <c r="M55" s="330"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -12019,10 +12092,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="342" t="s">
+      <c r="A60" s="338" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="337">
+      <c r="B60" s="341">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -12055,11 +12128,11 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="327">
+      <c r="L60" s="328">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="327">
+      <c r="M60" s="328">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -12068,8 +12141,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="343"/>
-      <c r="B61" s="338"/>
+      <c r="A61" s="339"/>
+      <c r="B61" s="342"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -12100,14 +12173,14 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="328"/>
-      <c r="M61" s="328"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="329"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="343"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -12141,15 +12214,15 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="328"/>
-      <c r="M62" s="328"/>
+      <c r="L62" s="329"/>
+      <c r="M62" s="329"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="343"/>
-      <c r="B63" s="335">
+      <c r="A63" s="339"/>
+      <c r="B63" s="336">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -12182,15 +12255,15 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="328"/>
-      <c r="M63" s="328"/>
+      <c r="L63" s="329"/>
+      <c r="M63" s="329"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="343"/>
-      <c r="B64" s="336"/>
+      <c r="A64" s="339"/>
+      <c r="B64" s="337"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -12221,14 +12294,14 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="328"/>
-      <c r="M64" s="328"/>
+      <c r="L64" s="329"/>
+      <c r="M64" s="329"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="344"/>
+      <c r="A65" s="340"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -12262,8 +12335,8 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="329"/>
-      <c r="M65" s="329"/>
+      <c r="L65" s="330"/>
+      <c r="M65" s="330"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12589,10 +12662,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="324" t="s">
+      <c r="A76" s="325" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="337">
+      <c r="B76" s="341">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12625,11 +12698,11 @@
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="327">
+      <c r="L76" s="328">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="327">
+      <c r="M76" s="328">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12638,8 +12711,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="325"/>
-      <c r="B77" s="338"/>
+      <c r="A77" s="326"/>
+      <c r="B77" s="342"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12670,14 +12743,14 @@
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="328"/>
-      <c r="M77" s="328"/>
+      <c r="L77" s="329"/>
+      <c r="M77" s="329"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="325"/>
+      <c r="A78" s="326"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12711,15 +12784,15 @@
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="328"/>
-      <c r="M78" s="328"/>
+      <c r="L78" s="329"/>
+      <c r="M78" s="329"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="325"/>
-      <c r="B79" s="335">
+      <c r="A79" s="326"/>
+      <c r="B79" s="336">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12752,15 +12825,15 @@
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="328"/>
-      <c r="M79" s="328"/>
+      <c r="L79" s="329"/>
+      <c r="M79" s="329"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="325"/>
-      <c r="B80" s="336"/>
+      <c r="A80" s="326"/>
+      <c r="B80" s="337"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12791,14 +12864,14 @@
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="328"/>
-      <c r="M80" s="328"/>
+      <c r="L80" s="329"/>
+      <c r="M80" s="329"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="326"/>
+      <c r="A81" s="327"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12832,8 +12905,8 @@
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="329"/>
-      <c r="M81" s="329"/>
+      <c r="L81" s="330"/>
+      <c r="M81" s="330"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12884,7 +12957,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="332" t="s">
+      <c r="A83" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12923,7 +12996,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="333"/>
+      <c r="A84" s="334"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -12968,7 +13041,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="334"/>
+      <c r="A85" s="335"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -13168,7 +13241,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="324" t="s">
+      <c r="A91" s="325" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -13204,11 +13277,11 @@
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="327">
+      <c r="L91" s="328">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="327">
+      <c r="M91" s="328">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -13217,7 +13290,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="325"/>
+      <c r="A92" s="326"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -13251,15 +13324,15 @@
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="328"/>
-      <c r="M92" s="328"/>
+      <c r="L92" s="329"/>
+      <c r="M92" s="329"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="325"/>
-      <c r="B93" s="335">
+      <c r="A93" s="326"/>
+      <c r="B93" s="336">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -13292,15 +13365,15 @@
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="328"/>
-      <c r="M93" s="328"/>
+      <c r="L93" s="329"/>
+      <c r="M93" s="329"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="325"/>
-      <c r="B94" s="336"/>
+      <c r="A94" s="326"/>
+      <c r="B94" s="337"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13331,14 +13404,14 @@
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="328"/>
-      <c r="M94" s="328"/>
+      <c r="L94" s="329"/>
+      <c r="M94" s="329"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="326"/>
+      <c r="A95" s="327"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13372,8 +13445,8 @@
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="329"/>
-      <c r="M95" s="329"/>
+      <c r="L95" s="330"/>
+      <c r="M95" s="330"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13424,7 +13497,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="332" t="s">
+      <c r="A97" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13463,7 +13536,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="333"/>
+      <c r="A98" s="334"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13508,7 +13581,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="334"/>
+      <c r="A99" s="335"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13708,7 +13781,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="324" t="s">
+      <c r="A105" s="325" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
@@ -13733,18 +13806,18 @@
       </c>
       <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="327">
+      <c r="L105" s="328">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="327">
+      <c r="M105" s="328">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="325"/>
+      <c r="A106" s="326"/>
       <c r="B106" s="269">
         <v>28</v>
       </c>
@@ -13778,14 +13851,14 @@
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="328"/>
-      <c r="M106" s="328"/>
+      <c r="L106" s="329"/>
+      <c r="M106" s="329"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="325"/>
+      <c r="A107" s="326"/>
       <c r="B107" s="286">
         <v>117.98</v>
       </c>
@@ -13819,15 +13892,15 @@
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="328"/>
-      <c r="M107" s="328"/>
+      <c r="L107" s="329"/>
+      <c r="M107" s="329"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="325"/>
-      <c r="B108" s="330">
+      <c r="A108" s="326"/>
+      <c r="B108" s="331">
         <v>118.93</v>
       </c>
       <c r="C108" s="293" t="s">
@@ -13860,15 +13933,15 @@
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="328"/>
-      <c r="M108" s="328"/>
+      <c r="L108" s="329"/>
+      <c r="M108" s="329"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="325"/>
-      <c r="B109" s="331"/>
+      <c r="A109" s="326"/>
+      <c r="B109" s="332"/>
       <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
@@ -13899,14 +13972,14 @@
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="328"/>
-      <c r="M109" s="328"/>
+      <c r="L109" s="329"/>
+      <c r="M109" s="329"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="326"/>
+      <c r="A110" s="327"/>
       <c r="B110" s="282"/>
       <c r="C110" s="294" t="s">
         <v>177</v>
@@ -13938,8 +14011,8 @@
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="329"/>
-      <c r="M110" s="329"/>
+      <c r="L110" s="330"/>
+      <c r="M110" s="330"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -13990,7 +14063,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="332" t="s">
+      <c r="A112" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -14029,7 +14102,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="333"/>
+      <c r="A113" s="334"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -14074,7 +14147,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="334"/>
+      <c r="A114" s="335"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
@@ -14274,7 +14347,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1">
-      <c r="A120" s="324" t="s">
+      <c r="A120" s="325" t="s">
         <v>231</v>
       </c>
       <c r="B120" s="262">
@@ -14299,18 +14372,18 @@
       </c>
       <c r="J120" s="268"/>
       <c r="K120" s="153"/>
-      <c r="L120" s="327">
+      <c r="L120" s="328">
         <f>E126/D126</f>
         <v>2.1988830431051147E-4</v>
       </c>
-      <c r="M120" s="327">
+      <c r="M120" s="328">
         <f>L120*365</f>
         <v>8.0259231073336684E-2</v>
       </c>
       <c r="N120" s="191"/>
     </row>
     <row r="121" spans="1:14" ht="25.5">
-      <c r="A121" s="325"/>
+      <c r="A121" s="326"/>
       <c r="B121" s="269">
         <v>28</v>
       </c>
@@ -14344,14 +14417,14 @@
         <f>(F121-I121)/(H121-I121)</f>
         <v>1.4044843630942055E-2</v>
       </c>
-      <c r="L121" s="328"/>
-      <c r="M121" s="328"/>
+      <c r="L121" s="329"/>
+      <c r="M121" s="329"/>
       <c r="N121" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="25.5">
-      <c r="A122" s="325"/>
+      <c r="A122" s="326"/>
       <c r="B122" s="286">
         <v>117.98</v>
       </c>
@@ -14385,15 +14458,15 @@
         <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
         <v>0.23999999999995447</v>
       </c>
-      <c r="L122" s="328"/>
-      <c r="M122" s="328"/>
+      <c r="L122" s="329"/>
+      <c r="M122" s="329"/>
       <c r="N122" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="25.5">
-      <c r="A123" s="325"/>
-      <c r="B123" s="330">
+      <c r="A123" s="326"/>
+      <c r="B123" s="331">
         <v>118.93</v>
       </c>
       <c r="C123" s="293" t="s">
@@ -14426,15 +14499,15 @@
         <f t="shared" si="32"/>
         <v>0.16216114457833897</v>
       </c>
-      <c r="L123" s="328"/>
-      <c r="M123" s="328"/>
+      <c r="L123" s="329"/>
+      <c r="M123" s="329"/>
       <c r="N123" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="25.5">
-      <c r="A124" s="325"/>
-      <c r="B124" s="331"/>
+      <c r="A124" s="326"/>
+      <c r="B124" s="332"/>
       <c r="C124" s="293" t="s">
         <v>179</v>
       </c>
@@ -14465,14 +14538,14 @@
         <f t="shared" si="32"/>
         <v>0.69999999999999651</v>
       </c>
-      <c r="L124" s="328"/>
-      <c r="M124" s="328"/>
+      <c r="L124" s="329"/>
+      <c r="M124" s="329"/>
       <c r="N124" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A125" s="326"/>
+      <c r="A125" s="327"/>
       <c r="B125" s="282"/>
       <c r="C125" s="294" t="s">
         <v>177</v>
@@ -14504,8 +14577,8 @@
         <f t="shared" si="32"/>
         <v>6.5979794941218667E-2</v>
       </c>
-      <c r="L125" s="329"/>
-      <c r="M125" s="329"/>
+      <c r="L125" s="330"/>
+      <c r="M125" s="330"/>
       <c r="N125" s="194" t="s">
         <v>135</v>
       </c>
@@ -14556,7 +14629,7 @@
       <c r="N126" s="196"/>
     </row>
     <row r="127" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A127" s="332" t="s">
+      <c r="A127" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B127" s="122" t="s">
@@ -14595,7 +14668,7 @@
       <c r="N127" s="197"/>
     </row>
     <row r="128" spans="1:14" ht="25.5">
-      <c r="A128" s="333"/>
+      <c r="A128" s="334"/>
       <c r="B128" s="130" t="s">
         <v>138</v>
       </c>
@@ -14640,7 +14713,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="28.5">
-      <c r="A129" s="334"/>
+      <c r="A129" s="335"/>
       <c r="B129" s="162">
         <v>7.12</v>
       </c>
@@ -14840,7 +14913,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" thickBot="1">
-      <c r="A135" s="324" t="s">
+      <c r="A135" s="325" t="s">
         <v>233</v>
       </c>
       <c r="B135" s="262">
@@ -14865,18 +14938,18 @@
       </c>
       <c r="J135" s="268"/>
       <c r="K135" s="153"/>
-      <c r="L135" s="327">
+      <c r="L135" s="328">
         <f>E141/D141</f>
         <v>2.1983996407359162E-4</v>
       </c>
-      <c r="M135" s="327">
+      <c r="M135" s="328">
         <f>L135*365</f>
         <v>8.0241586886860936E-2</v>
       </c>
       <c r="N135" s="191"/>
     </row>
     <row r="136" spans="1:14" ht="25.5">
-      <c r="A136" s="325"/>
+      <c r="A136" s="326"/>
       <c r="B136" s="269">
         <v>28</v>
       </c>
@@ -14910,14 +14983,14 @@
         <f>(F136-I136)/(H136-I136)</f>
         <v>1.6853812357130467E-2</v>
       </c>
-      <c r="L136" s="328"/>
-      <c r="M136" s="328"/>
+      <c r="L136" s="329"/>
+      <c r="M136" s="329"/>
       <c r="N136" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="25.5">
-      <c r="A137" s="325"/>
+      <c r="A137" s="326"/>
       <c r="B137" s="286">
         <v>117.98</v>
       </c>
@@ -14951,15 +15024,15 @@
         <f t="shared" ref="K137:K140" si="36">(F137-I137)/(H137-I137)</f>
         <v>0.2799999999999469</v>
       </c>
-      <c r="L137" s="328"/>
-      <c r="M137" s="328"/>
+      <c r="L137" s="329"/>
+      <c r="M137" s="329"/>
       <c r="N137" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5">
-      <c r="A138" s="325"/>
-      <c r="B138" s="330">
+      <c r="A138" s="326"/>
+      <c r="B138" s="331">
         <v>118.93</v>
       </c>
       <c r="C138" s="293" t="s">
@@ -14992,15 +15065,15 @@
         <f t="shared" si="36"/>
         <v>0.18918800200806213</v>
       </c>
-      <c r="L138" s="328"/>
-      <c r="M138" s="328"/>
+      <c r="L138" s="329"/>
+      <c r="M138" s="329"/>
       <c r="N138" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="25.5">
-      <c r="A139" s="325"/>
-      <c r="B139" s="331"/>
+      <c r="A139" s="326"/>
+      <c r="B139" s="332"/>
       <c r="C139" s="293" t="s">
         <v>179</v>
       </c>
@@ -15031,14 +15104,14 @@
         <f t="shared" si="36"/>
         <v>0.70999999999999652</v>
       </c>
-      <c r="L139" s="328"/>
-      <c r="M139" s="328"/>
+      <c r="L139" s="329"/>
+      <c r="M139" s="329"/>
       <c r="N139" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A140" s="326"/>
+      <c r="A140" s="327"/>
       <c r="B140" s="282"/>
       <c r="C140" s="294" t="s">
         <v>177</v>
@@ -15070,8 +15143,8 @@
         <f t="shared" si="36"/>
         <v>6.8728953063770012E-2</v>
       </c>
-      <c r="L140" s="329"/>
-      <c r="M140" s="329"/>
+      <c r="L140" s="330"/>
+      <c r="M140" s="330"/>
       <c r="N140" s="194" t="s">
         <v>135</v>
       </c>
@@ -15122,7 +15195,7 @@
       <c r="N141" s="196"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A142" s="332" t="s">
+      <c r="A142" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B142" s="122" t="s">
@@ -15161,7 +15234,7 @@
       <c r="N142" s="197"/>
     </row>
     <row r="143" spans="1:14" ht="25.5">
-      <c r="A143" s="333"/>
+      <c r="A143" s="334"/>
       <c r="B143" s="130" t="s">
         <v>138</v>
       </c>
@@ -15206,7 +15279,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="28.5">
-      <c r="A144" s="334"/>
+      <c r="A144" s="335"/>
       <c r="B144" s="162">
         <v>7.12</v>
       </c>
@@ -15406,7 +15479,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" thickBot="1">
-      <c r="A150" s="324" t="s">
+      <c r="A150" s="325" t="s">
         <v>236</v>
       </c>
       <c r="B150" s="295">
@@ -15431,18 +15504,18 @@
       </c>
       <c r="J150" s="268"/>
       <c r="K150" s="153"/>
-      <c r="L150" s="327">
+      <c r="L150" s="328">
         <f>E156/D156</f>
         <v>2.197916450862322E-4</v>
       </c>
-      <c r="M150" s="327">
+      <c r="M150" s="328">
         <f>L150*365</f>
         <v>8.0223950456474749E-2</v>
       </c>
       <c r="N150" s="191"/>
     </row>
     <row r="151" spans="1:14" ht="25.5">
-      <c r="A151" s="325"/>
+      <c r="A151" s="326"/>
       <c r="B151" s="269">
         <v>28</v>
       </c>
@@ -15476,14 +15549,14 @@
         <f>(F151-I151)/(H151-I151)</f>
         <v>1.9662781083318877E-2</v>
       </c>
-      <c r="L151" s="328"/>
-      <c r="M151" s="328"/>
+      <c r="L151" s="329"/>
+      <c r="M151" s="329"/>
       <c r="N151" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="25.5">
-      <c r="A152" s="325"/>
+      <c r="A152" s="326"/>
       <c r="B152" s="286">
         <v>117.98</v>
       </c>
@@ -15517,15 +15590,15 @@
         <f t="shared" ref="K152:K155" si="40">(F152-I152)/(H152-I152)</f>
         <v>0.31999999999993928</v>
       </c>
-      <c r="L152" s="328"/>
-      <c r="M152" s="328"/>
+      <c r="L152" s="329"/>
+      <c r="M152" s="329"/>
       <c r="N152" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="25.5">
-      <c r="A153" s="325"/>
-      <c r="B153" s="330">
+      <c r="A153" s="326"/>
+      <c r="B153" s="331">
         <v>118.93</v>
       </c>
       <c r="C153" s="293" t="s">
@@ -15558,15 +15631,15 @@
         <f t="shared" si="40"/>
         <v>0.21621485943778529</v>
       </c>
-      <c r="L153" s="328"/>
-      <c r="M153" s="328"/>
+      <c r="L153" s="329"/>
+      <c r="M153" s="329"/>
       <c r="N153" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="25.5">
-      <c r="A154" s="325"/>
-      <c r="B154" s="331"/>
+      <c r="A154" s="326"/>
+      <c r="B154" s="332"/>
       <c r="C154" s="293" t="s">
         <v>179</v>
       </c>
@@ -15597,14 +15670,14 @@
         <f t="shared" si="40"/>
         <v>0.71999999999999653</v>
       </c>
-      <c r="L154" s="328"/>
-      <c r="M154" s="328"/>
+      <c r="L154" s="329"/>
+      <c r="M154" s="329"/>
       <c r="N154" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A155" s="326"/>
+      <c r="A155" s="327"/>
       <c r="B155" s="282"/>
       <c r="C155" s="294" t="s">
         <v>177</v>
@@ -15636,8 +15709,8 @@
         <f t="shared" si="40"/>
         <v>7.1478111186321358E-2</v>
       </c>
-      <c r="L155" s="329"/>
-      <c r="M155" s="329"/>
+      <c r="L155" s="330"/>
+      <c r="M155" s="330"/>
       <c r="N155" s="194" t="s">
         <v>135</v>
       </c>
@@ -15688,7 +15761,7 @@
       <c r="N156" s="196"/>
     </row>
     <row r="157" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A157" s="332" t="s">
+      <c r="A157" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="122" t="s">
@@ -15727,7 +15800,7 @@
       <c r="N157" s="197"/>
     </row>
     <row r="158" spans="1:14" ht="25.5">
-      <c r="A158" s="333"/>
+      <c r="A158" s="334"/>
       <c r="B158" s="130" t="s">
         <v>138</v>
       </c>
@@ -15772,7 +15845,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="28.5">
-      <c r="A159" s="334"/>
+      <c r="A159" s="335"/>
       <c r="B159" s="162">
         <v>7.12</v>
       </c>
@@ -15972,7 +16045,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" thickBot="1">
-      <c r="A165" s="324" t="s">
+      <c r="A165" s="325" t="s">
         <v>239</v>
       </c>
       <c r="B165" s="296">
@@ -15997,18 +16070,18 @@
       </c>
       <c r="J165" s="268"/>
       <c r="K165" s="153"/>
-      <c r="L165" s="327">
+      <c r="L165" s="328">
         <f>E171/D171</f>
         <v>2.1974334733442479E-4</v>
       </c>
-      <c r="M165" s="327">
+      <c r="M165" s="328">
         <f>L165*365</f>
         <v>8.0206321777065048E-2</v>
       </c>
       <c r="N165" s="191"/>
     </row>
     <row r="166" spans="1:14" ht="25.5">
-      <c r="A166" s="325"/>
+      <c r="A166" s="326"/>
       <c r="B166" s="269">
         <v>28</v>
       </c>
@@ -16042,14 +16115,14 @@
         <f>(F166-I166)/(H166-I166)</f>
         <v>2.247174980950729E-2</v>
       </c>
-      <c r="L166" s="328"/>
-      <c r="M166" s="328"/>
+      <c r="L166" s="329"/>
+      <c r="M166" s="329"/>
       <c r="N166" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="25.5">
-      <c r="A167" s="325"/>
+      <c r="A167" s="326"/>
       <c r="B167" s="286">
         <v>117.98</v>
       </c>
@@ -16083,15 +16156,15 @@
         <f t="shared" ref="K167:K170" si="44">(F167-I167)/(H167-I167)</f>
         <v>0.35999999999993171</v>
       </c>
-      <c r="L167" s="328"/>
-      <c r="M167" s="328"/>
+      <c r="L167" s="329"/>
+      <c r="M167" s="329"/>
       <c r="N167" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="25.5">
-      <c r="A168" s="325"/>
-      <c r="B168" s="330">
+      <c r="A168" s="326"/>
+      <c r="B168" s="331">
         <v>118.93</v>
       </c>
       <c r="C168" s="293" t="s">
@@ -16124,15 +16197,15 @@
         <f t="shared" si="44"/>
         <v>0.24324171686750845</v>
       </c>
-      <c r="L168" s="328"/>
-      <c r="M168" s="328"/>
+      <c r="L168" s="329"/>
+      <c r="M168" s="329"/>
       <c r="N168" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="25.5">
-      <c r="A169" s="325"/>
-      <c r="B169" s="331"/>
+      <c r="A169" s="326"/>
+      <c r="B169" s="332"/>
       <c r="C169" s="293" t="s">
         <v>179</v>
       </c>
@@ -16163,14 +16236,14 @@
         <f t="shared" si="44"/>
         <v>0.7299999999999931</v>
       </c>
-      <c r="L169" s="328"/>
-      <c r="M169" s="328"/>
+      <c r="L169" s="329"/>
+      <c r="M169" s="329"/>
       <c r="N169" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A170" s="326"/>
+      <c r="A170" s="327"/>
       <c r="B170" s="282"/>
       <c r="C170" s="294" t="s">
         <v>177</v>
@@ -16202,8 +16275,8 @@
         <f t="shared" si="44"/>
         <v>7.4227269308872704E-2</v>
       </c>
-      <c r="L170" s="329"/>
-      <c r="M170" s="329"/>
+      <c r="L170" s="330"/>
+      <c r="M170" s="330"/>
       <c r="N170" s="194" t="s">
         <v>135</v>
       </c>
@@ -16254,7 +16327,7 @@
       <c r="N171" s="196"/>
     </row>
     <row r="172" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A172" s="332" t="s">
+      <c r="A172" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B172" s="122" t="s">
@@ -16293,7 +16366,7 @@
       <c r="N172" s="197"/>
     </row>
     <row r="173" spans="1:14" ht="25.5">
-      <c r="A173" s="333"/>
+      <c r="A173" s="334"/>
       <c r="B173" s="130" t="s">
         <v>138</v>
       </c>
@@ -16338,7 +16411,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" ht="28.5">
-      <c r="A174" s="334"/>
+      <c r="A174" s="335"/>
       <c r="B174" s="162">
         <v>7.12</v>
       </c>
@@ -16538,7 +16611,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" ht="15" thickBot="1">
-      <c r="A180" s="324" t="s">
+      <c r="A180" s="325" t="s">
         <v>241</v>
       </c>
       <c r="B180" s="297">
@@ -16563,18 +16636,18 @@
       </c>
       <c r="J180" s="268"/>
       <c r="K180" s="153"/>
-      <c r="L180" s="327">
+      <c r="L180" s="328">
         <f>E186/D186</f>
         <v>2.1969507080417343E-4</v>
       </c>
-      <c r="M180" s="327">
+      <c r="M180" s="328">
         <f>L180*365</f>
         <v>8.0188700843523295E-2</v>
       </c>
       <c r="N180" s="191"/>
     </row>
     <row r="181" spans="1:14" ht="25.5">
-      <c r="A181" s="325"/>
+      <c r="A181" s="326"/>
       <c r="B181" s="269">
         <v>28</v>
       </c>
@@ -16608,14 +16681,14 @@
         <f>(F181-I181)/(H181-I181)</f>
         <v>2.52807185356957E-2</v>
       </c>
-      <c r="L181" s="328"/>
-      <c r="M181" s="328"/>
+      <c r="L181" s="329"/>
+      <c r="M181" s="329"/>
       <c r="N181" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="25.5">
-      <c r="A182" s="325"/>
+      <c r="A182" s="326"/>
       <c r="B182" s="286">
         <v>117.98</v>
       </c>
@@ -16649,15 +16722,15 @@
         <f t="shared" ref="K182:K185" si="48">(F182-I182)/(H182-I182)</f>
         <v>0.39999999999992414</v>
       </c>
-      <c r="L182" s="328"/>
-      <c r="M182" s="328"/>
+      <c r="L182" s="329"/>
+      <c r="M182" s="329"/>
       <c r="N182" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="25.5">
-      <c r="A183" s="325"/>
-      <c r="B183" s="330">
+      <c r="A183" s="326"/>
+      <c r="B183" s="331">
         <v>118.93</v>
       </c>
       <c r="C183" s="293" t="s">
@@ -16690,15 +16763,15 @@
         <f t="shared" si="48"/>
         <v>0.27026857429723161</v>
       </c>
-      <c r="L183" s="328"/>
-      <c r="M183" s="328"/>
+      <c r="L183" s="329"/>
+      <c r="M183" s="329"/>
       <c r="N183" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="25.5">
-      <c r="A184" s="325"/>
-      <c r="B184" s="331"/>
+      <c r="A184" s="326"/>
+      <c r="B184" s="332"/>
       <c r="C184" s="293" t="s">
         <v>179</v>
       </c>
@@ -16729,14 +16802,14 @@
         <f t="shared" si="48"/>
         <v>0.73999999999999311</v>
       </c>
-      <c r="L184" s="328"/>
-      <c r="M184" s="328"/>
+      <c r="L184" s="329"/>
+      <c r="M184" s="329"/>
       <c r="N184" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A185" s="326"/>
+      <c r="A185" s="327"/>
       <c r="B185" s="282"/>
       <c r="C185" s="294" t="s">
         <v>177</v>
@@ -16768,8 +16841,8 @@
         <f t="shared" si="48"/>
         <v>7.6976427431424049E-2</v>
       </c>
-      <c r="L185" s="329"/>
-      <c r="M185" s="329"/>
+      <c r="L185" s="330"/>
+      <c r="M185" s="330"/>
       <c r="N185" s="194" t="s">
         <v>135</v>
       </c>
@@ -16820,7 +16893,7 @@
       <c r="N186" s="196"/>
     </row>
     <row r="187" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A187" s="332" t="s">
+      <c r="A187" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B187" s="122" t="s">
@@ -16859,7 +16932,7 @@
       <c r="N187" s="197"/>
     </row>
     <row r="188" spans="1:14" ht="25.5">
-      <c r="A188" s="333"/>
+      <c r="A188" s="334"/>
       <c r="B188" s="130" t="s">
         <v>138</v>
       </c>
@@ -16904,7 +16977,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" ht="28.5">
-      <c r="A189" s="334"/>
+      <c r="A189" s="335"/>
       <c r="B189" s="162">
         <v>7.12</v>
       </c>
@@ -17104,7 +17177,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="15" thickBot="1">
-      <c r="A195" s="324" t="s">
+      <c r="A195" s="325" t="s">
         <v>243</v>
       </c>
       <c r="B195" s="297">
@@ -17129,18 +17202,18 @@
       </c>
       <c r="J195" s="268"/>
       <c r="K195" s="153"/>
-      <c r="L195" s="327">
+      <c r="L195" s="328">
         <f>E201/D201</f>
         <v>2.1964681548149428E-4</v>
       </c>
-      <c r="M195" s="327">
+      <c r="M195" s="328">
         <f>L195*365</f>
         <v>8.0171087650745418E-2</v>
       </c>
       <c r="N195" s="191"/>
     </row>
     <row r="196" spans="1:14" ht="25.5">
-      <c r="A196" s="325"/>
+      <c r="A196" s="326"/>
       <c r="B196" s="269">
         <v>28</v>
       </c>
@@ -17174,14 +17247,14 @@
         <f>(F196-I196)/(H196-I196)</f>
         <v>2.808968726188411E-2</v>
       </c>
-      <c r="L196" s="328"/>
-      <c r="M196" s="328"/>
+      <c r="L196" s="329"/>
+      <c r="M196" s="329"/>
       <c r="N196" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="25.5">
-      <c r="A197" s="325"/>
+      <c r="A197" s="326"/>
       <c r="B197" s="286">
         <v>117.98</v>
       </c>
@@ -17215,15 +17288,15 @@
         <f t="shared" ref="K197:K200" si="52">(F197-I197)/(H197-I197)</f>
         <v>0.43999999999991657</v>
       </c>
-      <c r="L197" s="328"/>
-      <c r="M197" s="328"/>
+      <c r="L197" s="329"/>
+      <c r="M197" s="329"/>
       <c r="N197" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="25.5">
-      <c r="A198" s="325"/>
-      <c r="B198" s="330">
+      <c r="A198" s="326"/>
+      <c r="B198" s="331">
         <v>118.93</v>
       </c>
       <c r="C198" s="293" t="s">
@@ -17256,15 +17329,15 @@
         <f t="shared" si="52"/>
         <v>0.29729543172695477</v>
       </c>
-      <c r="L198" s="328"/>
-      <c r="M198" s="328"/>
+      <c r="L198" s="329"/>
+      <c r="M198" s="329"/>
       <c r="N198" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="25.5">
-      <c r="A199" s="325"/>
-      <c r="B199" s="331"/>
+      <c r="A199" s="326"/>
+      <c r="B199" s="332"/>
       <c r="C199" s="293" t="s">
         <v>179</v>
       </c>
@@ -17295,14 +17368,14 @@
         <f t="shared" si="52"/>
         <v>0.74999999999999312</v>
       </c>
-      <c r="L199" s="328"/>
-      <c r="M199" s="328"/>
+      <c r="L199" s="329"/>
+      <c r="M199" s="329"/>
       <c r="N199" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A200" s="326"/>
+      <c r="A200" s="327"/>
       <c r="B200" s="282"/>
       <c r="C200" s="294" t="s">
         <v>177</v>
@@ -17334,8 +17407,8 @@
         <f t="shared" si="52"/>
         <v>7.9725585553975409E-2</v>
       </c>
-      <c r="L200" s="329"/>
-      <c r="M200" s="329"/>
+      <c r="L200" s="330"/>
+      <c r="M200" s="330"/>
       <c r="N200" s="194" t="s">
         <v>135</v>
       </c>
@@ -17386,7 +17459,7 @@
       <c r="N201" s="196"/>
     </row>
     <row r="202" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A202" s="332" t="s">
+      <c r="A202" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B202" s="122" t="s">
@@ -17425,7 +17498,7 @@
       <c r="N202" s="197"/>
     </row>
     <row r="203" spans="1:14" ht="25.5">
-      <c r="A203" s="333"/>
+      <c r="A203" s="334"/>
       <c r="B203" s="130" t="s">
         <v>138</v>
       </c>
@@ -17470,7 +17543,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="28.5">
-      <c r="A204" s="334"/>
+      <c r="A204" s="335"/>
       <c r="B204" s="162">
         <v>7.12</v>
       </c>
@@ -17670,7 +17743,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" ht="15" thickBot="1">
-      <c r="A210" s="324" t="s">
+      <c r="A210" s="325" t="s">
         <v>246</v>
       </c>
       <c r="B210" s="298">
@@ -17695,18 +17768,18 @@
       </c>
       <c r="J210" s="268"/>
       <c r="K210" s="153"/>
-      <c r="L210" s="327">
+      <c r="L210" s="328">
         <f>E216/D216</f>
         <v>2.1959858135241596E-4</v>
       </c>
-      <c r="M210" s="327">
+      <c r="M210" s="328">
         <f>L210*365</f>
         <v>8.0153482193631831E-2</v>
       </c>
       <c r="N210" s="191"/>
     </row>
     <row r="211" spans="1:14" ht="25.5">
-      <c r="A211" s="325"/>
+      <c r="A211" s="326"/>
       <c r="B211" s="269">
         <v>59.19</v>
       </c>
@@ -17740,14 +17813,14 @@
         <f>(F211-I211)/(H211-I211)</f>
         <v>3.0898655988072524E-2</v>
       </c>
-      <c r="L211" s="328"/>
-      <c r="M211" s="328"/>
+      <c r="L211" s="329"/>
+      <c r="M211" s="329"/>
       <c r="N211" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="25.5">
-      <c r="A212" s="325"/>
+      <c r="A212" s="326"/>
       <c r="B212" s="286">
         <v>117.98</v>
       </c>
@@ -17781,15 +17854,15 @@
         <f t="shared" ref="K212:K215" si="56">(F212-I212)/(H212-I212)</f>
         <v>0.47999999999990894</v>
       </c>
-      <c r="L212" s="328"/>
-      <c r="M212" s="328"/>
+      <c r="L212" s="329"/>
+      <c r="M212" s="329"/>
       <c r="N212" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="25.5">
-      <c r="A213" s="325"/>
-      <c r="B213" s="330">
+      <c r="A213" s="326"/>
+      <c r="B213" s="331">
         <v>118.93</v>
       </c>
       <c r="C213" s="293" t="s">
@@ -17822,15 +17895,15 @@
         <f t="shared" si="56"/>
         <v>0.32432228915667793</v>
       </c>
-      <c r="L213" s="328"/>
-      <c r="M213" s="328"/>
+      <c r="L213" s="329"/>
+      <c r="M213" s="329"/>
       <c r="N213" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="25.5">
-      <c r="A214" s="325"/>
-      <c r="B214" s="331"/>
+      <c r="A214" s="326"/>
+      <c r="B214" s="332"/>
       <c r="C214" s="293" t="s">
         <v>179</v>
       </c>
@@ -17861,14 +17934,14 @@
         <f t="shared" si="56"/>
         <v>0.75999999999999313</v>
       </c>
-      <c r="L214" s="328"/>
-      <c r="M214" s="328"/>
+      <c r="L214" s="329"/>
+      <c r="M214" s="329"/>
       <c r="N214" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A215" s="326"/>
+      <c r="A215" s="327"/>
       <c r="B215" s="282"/>
       <c r="C215" s="294" t="s">
         <v>177</v>
@@ -17900,8 +17973,8 @@
         <f t="shared" si="56"/>
         <v>8.2474743676526754E-2</v>
       </c>
-      <c r="L215" s="329"/>
-      <c r="M215" s="329"/>
+      <c r="L215" s="330"/>
+      <c r="M215" s="330"/>
       <c r="N215" s="194" t="s">
         <v>135</v>
       </c>
@@ -17952,7 +18025,7 @@
       <c r="N216" s="196"/>
     </row>
     <row r="217" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A217" s="332" t="s">
+      <c r="A217" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B217" s="122" t="s">
@@ -17991,7 +18064,7 @@
       <c r="N217" s="197"/>
     </row>
     <row r="218" spans="1:14" ht="25.5">
-      <c r="A218" s="333"/>
+      <c r="A218" s="334"/>
       <c r="B218" s="130" t="s">
         <v>138</v>
       </c>
@@ -18036,7 +18109,7 @@
       </c>
     </row>
     <row r="219" spans="1:14" ht="28.5">
-      <c r="A219" s="334"/>
+      <c r="A219" s="335"/>
       <c r="B219" s="162">
         <v>7.12</v>
       </c>
@@ -18236,7 +18309,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="15" thickBot="1">
-      <c r="A225" s="324" t="s">
+      <c r="A225" s="325" t="s">
         <v>249</v>
       </c>
       <c r="B225" s="298">
@@ -18261,18 +18334,18 @@
       </c>
       <c r="J225" s="268"/>
       <c r="K225" s="153"/>
-      <c r="L225" s="327">
+      <c r="L225" s="328">
         <f>E231/D231</f>
         <v>2.1955062766032063E-4</v>
       </c>
-      <c r="M225" s="327">
+      <c r="M225" s="328">
         <f>L225*365</f>
         <v>8.0135979096017038E-2</v>
       </c>
       <c r="N225" s="191"/>
     </row>
     <row r="226" spans="1:14" ht="25.5">
-      <c r="A226" s="325"/>
+      <c r="A226" s="326"/>
       <c r="B226" s="269">
         <v>59.19</v>
       </c>
@@ -18306,14 +18379,14 @@
         <f>(F226-I226)/(H226-I226)</f>
         <v>3.3707624714260934E-2</v>
       </c>
-      <c r="L226" s="328"/>
-      <c r="M226" s="328"/>
+      <c r="L226" s="329"/>
+      <c r="M226" s="329"/>
       <c r="N226" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="25.5">
-      <c r="A227" s="325"/>
+      <c r="A227" s="326"/>
       <c r="B227" s="286">
         <v>117.98</v>
       </c>
@@ -18347,15 +18420,15 @@
         <f t="shared" ref="K227:K230" si="60">(F227-I227)/(H227-I227)</f>
         <v>0.51999999999990132</v>
       </c>
-      <c r="L227" s="328"/>
-      <c r="M227" s="328"/>
+      <c r="L227" s="329"/>
+      <c r="M227" s="329"/>
       <c r="N227" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="25.5">
-      <c r="A228" s="325"/>
-      <c r="B228" s="330">
+      <c r="A228" s="326"/>
+      <c r="B228" s="331">
         <v>118.93</v>
       </c>
       <c r="C228" s="293" t="s">
@@ -18388,15 +18461,15 @@
         <f t="shared" si="60"/>
         <v>0.3513491465864011</v>
       </c>
-      <c r="L228" s="328"/>
-      <c r="M228" s="328"/>
+      <c r="L228" s="329"/>
+      <c r="M228" s="329"/>
       <c r="N228" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="25.5">
-      <c r="A229" s="325"/>
-      <c r="B229" s="331"/>
+      <c r="A229" s="326"/>
+      <c r="B229" s="332"/>
       <c r="C229" s="293" t="s">
         <v>179</v>
       </c>
@@ -18427,14 +18500,14 @@
         <f t="shared" si="60"/>
         <v>0.76999999999999313</v>
       </c>
-      <c r="L229" s="328"/>
-      <c r="M229" s="328"/>
+      <c r="L229" s="329"/>
+      <c r="M229" s="329"/>
       <c r="N229" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A230" s="326"/>
+      <c r="A230" s="327"/>
       <c r="B230" s="282">
         <v>98.64</v>
       </c>
@@ -18468,8 +18541,8 @@
         <f t="shared" si="60"/>
         <v>8.517376517677365E-2</v>
       </c>
-      <c r="L230" s="329"/>
-      <c r="M230" s="329"/>
+      <c r="L230" s="330"/>
+      <c r="M230" s="330"/>
       <c r="N230" s="194" t="s">
         <v>135</v>
       </c>
@@ -18520,7 +18593,7 @@
       <c r="N231" s="196"/>
     </row>
     <row r="232" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A232" s="332" t="s">
+      <c r="A232" s="333" t="s">
         <v>196</v>
       </c>
       <c r="B232" s="122" t="s">
@@ -18559,7 +18632,7 @@
       <c r="N232" s="197"/>
     </row>
     <row r="233" spans="1:14" ht="25.5">
-      <c r="A233" s="333"/>
+      <c r="A233" s="334"/>
       <c r="B233" s="130" t="s">
         <v>138</v>
       </c>
@@ -18605,7 +18678,7 @@
       </c>
     </row>
     <row r="234" spans="1:14" ht="28.5">
-      <c r="A234" s="334"/>
+      <c r="A234" s="335"/>
       <c r="B234" s="162">
         <v>7.12</v>
       </c>
@@ -18759,42 +18832,1193 @@
         <v>8187.8860483872013</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="15" thickTop="1"/>
+    <row r="238" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="239" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A239" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C239" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J239" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K239" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L239" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M239" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N239" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15" thickBot="1">
+      <c r="A240" s="325" t="s">
+        <v>251</v>
+      </c>
+      <c r="B240" s="299">
+        <v>78.91</v>
+      </c>
+      <c r="C240" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D240" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E240" s="264"/>
+      <c r="F240" s="264">
+        <f>D240</f>
+        <v>11100</v>
+      </c>
+      <c r="G240" s="265"/>
+      <c r="H240" s="266"/>
+      <c r="I240" s="267">
+        <f>D240</f>
+        <v>11100</v>
+      </c>
+      <c r="J240" s="268"/>
+      <c r="K240" s="153"/>
+      <c r="L240" s="328">
+        <f>E246/D246</f>
+        <v>2.1950243576277596E-4</v>
+      </c>
+      <c r="M240" s="328">
+        <f>L240*365</f>
+        <v>8.011838905341323E-2</v>
+      </c>
+      <c r="N240" s="191"/>
+    </row>
+    <row r="241" spans="1:14" ht="25.5">
+      <c r="A241" s="326"/>
+      <c r="B241" s="269">
+        <v>59.19</v>
+      </c>
+      <c r="C241" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D241" s="270">
+        <v>8541.5824000000066</v>
+      </c>
+      <c r="E241" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F241" s="270">
+        <f>D241+E241</f>
+        <v>8545.0476000000072</v>
+      </c>
+      <c r="G241" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H241" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I241" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J241" s="274">
+        <f>E241/I241</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K241" s="275">
+        <f>(F241-I241)/(H241-I241)</f>
+        <v>3.6516593440449344E-2</v>
+      </c>
+      <c r="L241" s="329"/>
+      <c r="M241" s="329"/>
+      <c r="N241" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="25.5">
+      <c r="A242" s="326"/>
+      <c r="B242" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C242" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D242" s="287">
+        <v>10024.933999999996</v>
+      </c>
+      <c r="E242" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F242" s="287">
+        <f>D242+E242</f>
+        <v>10026.851999999995</v>
+      </c>
+      <c r="G242" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H242" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I242" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J242" s="274">
+        <f t="shared" ref="J242:J245" si="63">E242/I242</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K242" s="276">
+        <f t="shared" ref="K242:K245" si="64">(F242-I242)/(H242-I242)</f>
+        <v>0.5599999999998938</v>
+      </c>
+      <c r="L242" s="329"/>
+      <c r="M242" s="329"/>
+      <c r="N242" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="25.5">
+      <c r="A243" s="326"/>
+      <c r="B243" s="331">
+        <v>118.93</v>
+      </c>
+      <c r="C243" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D243" s="279">
+        <v>10027.995500000005</v>
+      </c>
+      <c r="E243" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F243" s="279">
+        <f t="shared" ref="F243:F244" si="65">D243+E243</f>
+        <v>10030.149000000005</v>
+      </c>
+      <c r="G243" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H243" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I243" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J243" s="274">
+        <f t="shared" si="63"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K243" s="276">
+        <f t="shared" si="64"/>
+        <v>0.37837600401612426</v>
+      </c>
+      <c r="L243" s="329"/>
+      <c r="M243" s="329"/>
+      <c r="N243" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="25.5">
+      <c r="A244" s="326"/>
+      <c r="B244" s="332"/>
+      <c r="C244" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D244" s="279">
+        <v>1025.3175999999999</v>
+      </c>
+      <c r="E244" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F244" s="279">
+        <f t="shared" si="65"/>
+        <v>1025.6463999999999</v>
+      </c>
+      <c r="G244" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H244" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I244" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J244" s="274">
+        <f t="shared" si="63"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K244" s="276">
+        <f t="shared" si="64"/>
+        <v>0.77999999999999303</v>
+      </c>
+      <c r="L244" s="329"/>
+      <c r="M244" s="329"/>
+      <c r="N244" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A245" s="327"/>
+      <c r="B245" s="282">
+        <v>98.64</v>
+      </c>
+      <c r="C245" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D245" s="283">
+        <v>10101.93</v>
+      </c>
+      <c r="E245" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F245" s="284">
+        <f>D245+E245</f>
+        <v>10105.220000000001</v>
+      </c>
+      <c r="G245" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H245" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I245" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J245" s="274">
+        <f t="shared" si="63"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K245" s="276">
+        <f t="shared" si="64"/>
+        <v>8.7922923299324995E-2</v>
+      </c>
+      <c r="L245" s="330"/>
+      <c r="M245" s="330"/>
+      <c r="N245" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A246" s="195" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246" s="174">
+        <f>SUM(B240:B245)</f>
+        <v>473.65</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D246" s="11">
+        <f>SUM(D240:D245)</f>
+        <v>50821.759500000007</v>
+      </c>
+      <c r="E246" s="61">
+        <f>SUM(E240:E245)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F246" s="11">
+        <f>SUM(F240:F245)</f>
+        <v>50832.915000000008</v>
+      </c>
+      <c r="G246" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H246" s="66">
+        <f>L240*10000</f>
+        <v>2.1950243576277595</v>
+      </c>
+      <c r="I246" s="158">
+        <f>SUM(I240:I245)</f>
+        <v>50600</v>
+      </c>
+      <c r="J246" s="68"/>
+      <c r="K246" s="68"/>
+      <c r="L246" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M246" s="66">
+        <f>M240*10000</f>
+        <v>801.18389053413227</v>
+      </c>
+      <c r="N246" s="196"/>
+    </row>
+    <row r="247" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A247" s="333" t="s">
+        <v>196</v>
+      </c>
+      <c r="B247" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C247" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D247" s="123">
+        <v>1425.68</v>
+      </c>
+      <c r="E247" s="124">
+        <v>0</v>
+      </c>
+      <c r="F247" s="124">
+        <f>D247+E247</f>
+        <v>1425.68</v>
+      </c>
+      <c r="G247" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H247" s="123">
+        <f>F247</f>
+        <v>1425.68</v>
+      </c>
+      <c r="I247" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J247" s="127">
+        <f>(H247-I247)/I247</f>
+        <v>-4.9546666666666621E-2</v>
+      </c>
+      <c r="K247" s="127"/>
+      <c r="L247" s="128"/>
+      <c r="M247" s="129"/>
+      <c r="N247" s="197"/>
+    </row>
+    <row r="248" spans="1:14" ht="25.5">
+      <c r="A248" s="334"/>
+      <c r="B248" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C248" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D248" s="131">
+        <v>1465.92</v>
+      </c>
+      <c r="E248" s="132">
+        <v>0</v>
+      </c>
+      <c r="F248" s="132">
+        <f>D248+E248</f>
+        <v>1465.92</v>
+      </c>
+      <c r="G248" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H248" s="131">
+        <f>F248</f>
+        <v>1465.92</v>
+      </c>
+      <c r="I248" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J248" s="168">
+        <f>(H248-I248)/I248</f>
+        <v>-2.2719999999999952E-2</v>
+      </c>
+      <c r="K248" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L248" s="243">
+        <f>F248/1026.56</f>
+        <v>1.4279925187032421</v>
+      </c>
+      <c r="M248" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N248" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="28.5">
+      <c r="A249" s="335"/>
+      <c r="B249" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C249" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D249" s="164">
+        <v>10505.519999999997</v>
+      </c>
+      <c r="E249" s="163">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F249" s="163">
+        <f>D249+E249</f>
+        <v>10506.659999999996</v>
+      </c>
+      <c r="G249" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H249" s="166">
+        <f>F249</f>
+        <v>10506.659999999996</v>
+      </c>
+      <c r="I249" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J249" s="239">
+        <f t="shared" ref="J249" si="66">E249/D249</f>
+        <v>1.085143810111256E-4</v>
+      </c>
+      <c r="K249" s="277">
+        <f>(F249-I249)/I249</f>
+        <v>6.342857142853539E-4</v>
+      </c>
+      <c r="L249" s="175"/>
+      <c r="M249" s="176"/>
+      <c r="N249" s="198"/>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" s="199"/>
+      <c r="B250" s="186"/>
+      <c r="C250" s="186"/>
+      <c r="D250" s="186"/>
+      <c r="E250" s="186"/>
+      <c r="F250" s="186"/>
+      <c r="G250" s="186"/>
+      <c r="H250" s="186"/>
+      <c r="I250" s="186"/>
+      <c r="J250" s="186"/>
+      <c r="K250" s="186"/>
+      <c r="L250" s="186"/>
+      <c r="M250" s="186"/>
+      <c r="N250" s="200"/>
+    </row>
+    <row r="251" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A251" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D251" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F251" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G251" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H251" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I251" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J251" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K251" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L251" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M251" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N251" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A252" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C252" s="205">
+        <f>F246+B246</f>
+        <v>51306.56500000001</v>
+      </c>
+      <c r="D252" s="205">
+        <f>I246</f>
+        <v>50600</v>
+      </c>
+      <c r="E252" s="206">
+        <v>32</v>
+      </c>
+      <c r="F252" s="207">
+        <f>C252-D252</f>
+        <v>706.5650000000096</v>
+      </c>
+      <c r="G252" s="208">
+        <f>F252/D252</f>
+        <v>1.3963735177865802E-2</v>
+      </c>
+      <c r="H252" s="207">
+        <f>F252/E252</f>
+        <v>22.0801562500003</v>
+      </c>
+      <c r="I252" s="208">
+        <f>G252/E252</f>
+        <v>4.363667243083063E-4</v>
+      </c>
+      <c r="J252" s="209">
+        <f>H252*10000/D252</f>
+        <v>4.3636672430830634</v>
+      </c>
+      <c r="K252" s="210">
+        <f>B246</f>
+        <v>473.65</v>
+      </c>
+      <c r="L252" s="210">
+        <f>F252-K252</f>
+        <v>232.91500000000963</v>
+      </c>
+      <c r="M252" s="208">
+        <f>I252*365</f>
+        <v>0.1592738543725318</v>
+      </c>
+      <c r="N252" s="211">
+        <f>H252*365</f>
+        <v>8059.2570312501093</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="254" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A254" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C254" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G254" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I254" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J254" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K254" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L254" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M254" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N254" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15" thickBot="1">
+      <c r="A255" s="325" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" s="299">
+        <v>78.91</v>
+      </c>
+      <c r="C255" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D255" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E255" s="264"/>
+      <c r="F255" s="264">
+        <f>D255</f>
+        <v>11100</v>
+      </c>
+      <c r="G255" s="265"/>
+      <c r="H255" s="266"/>
+      <c r="I255" s="267">
+        <f>D255</f>
+        <v>11100</v>
+      </c>
+      <c r="J255" s="268"/>
+      <c r="K255" s="153"/>
+      <c r="L255" s="328">
+        <f>E261/D261</f>
+        <v>2.1945426501706616E-4</v>
+      </c>
+      <c r="M255" s="328">
+        <f>L255*365</f>
+        <v>8.0100806731229143E-2</v>
+      </c>
+      <c r="N255" s="191"/>
+    </row>
+    <row r="256" spans="1:14" ht="25.5">
+      <c r="A256" s="326"/>
+      <c r="B256" s="269">
+        <v>59.19</v>
+      </c>
+      <c r="C256" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D256" s="270">
+        <v>8545.0476000000072</v>
+      </c>
+      <c r="E256" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F256" s="270">
+        <f>D256+E256</f>
+        <v>8548.5128000000077</v>
+      </c>
+      <c r="G256" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H256" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I256" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J256" s="274">
+        <f>E256/I256</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K256" s="275">
+        <f>(F256-I256)/(H256-I256)</f>
+        <v>3.9325562166637754E-2</v>
+      </c>
+      <c r="L256" s="329"/>
+      <c r="M256" s="329"/>
+      <c r="N256" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="25.5">
+      <c r="A257" s="326"/>
+      <c r="B257" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C257" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D257" s="287">
+        <v>10026.851999999995</v>
+      </c>
+      <c r="E257" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F257" s="287">
+        <f>D257+E257</f>
+        <v>10028.769999999995</v>
+      </c>
+      <c r="G257" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H257" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I257" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J257" s="274">
+        <f t="shared" ref="J257:J260" si="67">E257/I257</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K257" s="276">
+        <f t="shared" ref="K257:K260" si="68">(F257-I257)/(H257-I257)</f>
+        <v>0.59999999999988618</v>
+      </c>
+      <c r="L257" s="329"/>
+      <c r="M257" s="329"/>
+      <c r="N257" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="25.5">
+      <c r="A258" s="326"/>
+      <c r="B258" s="331">
+        <v>118.93</v>
+      </c>
+      <c r="C258" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D258" s="279">
+        <v>10030.149000000005</v>
+      </c>
+      <c r="E258" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F258" s="279">
+        <f t="shared" ref="F258:F259" si="69">D258+E258</f>
+        <v>10032.302500000005</v>
+      </c>
+      <c r="G258" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H258" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I258" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J258" s="274">
+        <f t="shared" si="67"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K258" s="276">
+        <f t="shared" si="68"/>
+        <v>0.40540286144584742</v>
+      </c>
+      <c r="L258" s="329"/>
+      <c r="M258" s="329"/>
+      <c r="N258" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="25.5">
+      <c r="A259" s="326"/>
+      <c r="B259" s="332"/>
+      <c r="C259" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D259" s="279">
+        <v>1025.6463999999999</v>
+      </c>
+      <c r="E259" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F259" s="279">
+        <f t="shared" si="69"/>
+        <v>1025.9751999999999</v>
+      </c>
+      <c r="G259" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H259" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I259" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J259" s="274">
+        <f t="shared" si="67"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K259" s="276">
+        <f t="shared" si="68"/>
+        <v>0.78999999999999304</v>
+      </c>
+      <c r="L259" s="329"/>
+      <c r="M259" s="329"/>
+      <c r="N259" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A260" s="327"/>
+      <c r="B260" s="282">
+        <v>98.64</v>
+      </c>
+      <c r="C260" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D260" s="283">
+        <v>10105.220000000001</v>
+      </c>
+      <c r="E260" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F260" s="284">
+        <f>D260+E260</f>
+        <v>10108.510000000002</v>
+      </c>
+      <c r="G260" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H260" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I260" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J260" s="274">
+        <f t="shared" si="67"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K260" s="276">
+        <f t="shared" si="68"/>
+        <v>9.0672081421876341E-2</v>
+      </c>
+      <c r="L260" s="330"/>
+      <c r="M260" s="330"/>
+      <c r="N260" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A261" s="195" t="s">
+        <v>122</v>
+      </c>
+      <c r="B261" s="174">
+        <f>SUM(B255:B260)</f>
+        <v>473.65</v>
+      </c>
+      <c r="C261" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D261" s="11">
+        <f>SUM(D255:D260)</f>
+        <v>50832.915000000008</v>
+      </c>
+      <c r="E261" s="61">
+        <f>SUM(E255:E260)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F261" s="11">
+        <f>SUM(F255:F260)</f>
+        <v>50844.070500000009</v>
+      </c>
+      <c r="G261" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H261" s="66">
+        <f>L255*10000</f>
+        <v>2.1945426501706615</v>
+      </c>
+      <c r="I261" s="158">
+        <f>SUM(I255:I260)</f>
+        <v>50600</v>
+      </c>
+      <c r="J261" s="68"/>
+      <c r="K261" s="68"/>
+      <c r="L261" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M261" s="66">
+        <f>M255*10000</f>
+        <v>801.00806731229147</v>
+      </c>
+      <c r="N261" s="196"/>
+    </row>
+    <row r="262" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A262" s="333" t="s">
+        <v>196</v>
+      </c>
+      <c r="B262" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C262" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D262" s="123">
+        <v>1425.68</v>
+      </c>
+      <c r="E262" s="124">
+        <v>0</v>
+      </c>
+      <c r="F262" s="124">
+        <f>D262+E262</f>
+        <v>1425.68</v>
+      </c>
+      <c r="G262" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H262" s="123">
+        <f>F262</f>
+        <v>1425.68</v>
+      </c>
+      <c r="I262" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J262" s="127">
+        <f>(H262-I262)/I262</f>
+        <v>-4.9546666666666621E-2</v>
+      </c>
+      <c r="K262" s="127"/>
+      <c r="L262" s="128"/>
+      <c r="M262" s="129"/>
+      <c r="N262" s="197"/>
+    </row>
+    <row r="263" spans="1:14" ht="25.5">
+      <c r="A263" s="334"/>
+      <c r="B263" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C263" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D263" s="131">
+        <v>1465.92</v>
+      </c>
+      <c r="E263" s="132">
+        <v>4.1099999999999</v>
+      </c>
+      <c r="F263" s="132">
+        <f>D263+E263</f>
+        <v>1470.03</v>
+      </c>
+      <c r="G263" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H263" s="131">
+        <f>F263</f>
+        <v>1470.03</v>
+      </c>
+      <c r="I263" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J263" s="168">
+        <f>(H263-I263)/I263</f>
+        <v>-1.9980000000000019E-2</v>
+      </c>
+      <c r="K263" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L263" s="243">
+        <f>F263/1026.56</f>
+        <v>1.4319961814214464</v>
+      </c>
+      <c r="M263" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N263" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="28.5">
+      <c r="A264" s="335"/>
+      <c r="B264" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C264" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D264" s="164">
+        <v>10506.659999999996</v>
+      </c>
+      <c r="E264" s="163">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F264" s="163">
+        <f>D264+E264</f>
+        <v>10507.799999999996</v>
+      </c>
+      <c r="G264" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H264" s="166">
+        <f>F264</f>
+        <v>10507.799999999996</v>
+      </c>
+      <c r="I264" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J264" s="239">
+        <f t="shared" ref="J264" si="70">E264/D264</f>
+        <v>1.0850260691789781E-4</v>
+      </c>
+      <c r="K264" s="277">
+        <f>(F264-I264)/I264</f>
+        <v>7.4285714285672708E-4</v>
+      </c>
+      <c r="L264" s="175"/>
+      <c r="M264" s="176"/>
+      <c r="N264" s="198"/>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="199"/>
+      <c r="B265" s="186"/>
+      <c r="C265" s="186"/>
+      <c r="D265" s="186"/>
+      <c r="E265" s="186"/>
+      <c r="F265" s="186"/>
+      <c r="G265" s="186"/>
+      <c r="H265" s="186"/>
+      <c r="I265" s="186"/>
+      <c r="J265" s="186"/>
+      <c r="K265" s="186"/>
+      <c r="L265" s="186"/>
+      <c r="M265" s="186"/>
+      <c r="N265" s="200"/>
+    </row>
+    <row r="266" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A266" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D266" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E266" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F266" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G266" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H266" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I266" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J266" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K266" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L266" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M266" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N266" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A267" s="203" t="s">
+        <v>255</v>
+      </c>
+      <c r="B267" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C267" s="205">
+        <f>F261+B261</f>
+        <v>51317.72050000001</v>
+      </c>
+      <c r="D267" s="205">
+        <f>I261</f>
+        <v>50600</v>
+      </c>
+      <c r="E267" s="206">
+        <v>33</v>
+      </c>
+      <c r="F267" s="207">
+        <f>C267-D267</f>
+        <v>717.72050000001036</v>
+      </c>
+      <c r="G267" s="208">
+        <f>F267/D267</f>
+        <v>1.4184199604743288E-2</v>
+      </c>
+      <c r="H267" s="207">
+        <f>F267/E267</f>
+        <v>21.749106060606376</v>
+      </c>
+      <c r="I267" s="208">
+        <f>G267/E267</f>
+        <v>4.2982423044676631E-4</v>
+      </c>
+      <c r="J267" s="209">
+        <f>H267*10000/D267</f>
+        <v>4.2982423044676628</v>
+      </c>
+      <c r="K267" s="210">
+        <f>B261</f>
+        <v>473.65</v>
+      </c>
+      <c r="L267" s="210">
+        <f>F267-K267</f>
+        <v>244.07050000001038</v>
+      </c>
+      <c r="M267" s="208">
+        <f>I267*365</f>
+        <v>0.15688584411306969</v>
+      </c>
+      <c r="N267" s="211">
+        <f>H267*365</f>
+        <v>7938.4237121213273</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="L195:L200"/>
-    <mergeCell ref="M195:M200"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="L180:L185"/>
-    <mergeCell ref="M180:M185"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="L150:L155"/>
-    <mergeCell ref="M150:M155"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="91">
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="L255:L260"/>
+    <mergeCell ref="M255:M260"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="A262:A264"/>
+    <mergeCell ref="A240:A245"/>
+    <mergeCell ref="L240:L245"/>
+    <mergeCell ref="M240:M245"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="L225:L230"/>
+    <mergeCell ref="M225:M230"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="L210:L215"/>
+    <mergeCell ref="M210:M215"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="L165:L170"/>
+    <mergeCell ref="M165:M170"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="L135:L140"/>
+    <mergeCell ref="M135:M140"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -18807,42 +20031,39 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="L120:L125"/>
-    <mergeCell ref="M120:M125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="L135:L140"/>
-    <mergeCell ref="M135:M140"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="L165:L170"/>
-    <mergeCell ref="M165:M170"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="L210:L215"/>
-    <mergeCell ref="M210:M215"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="L225:L230"/>
-    <mergeCell ref="M225:M230"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="L150:L155"/>
+    <mergeCell ref="M150:M155"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="L180:L185"/>
+    <mergeCell ref="M180:M185"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="L195:L200"/>
+    <mergeCell ref="M195:M200"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A202:A204"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19019,20 +20240,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="345" t="s">
+      <c r="A17" s="346" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="346"/>
-      <c r="C17" s="346"/>
-      <c r="D17" s="346"/>
-      <c r="E17" s="346"/>
-      <c r="F17" s="346"/>
-      <c r="G17" s="346"/>
-      <c r="H17" s="346"/>
-      <c r="I17" s="346"/>
-      <c r="J17" s="346"/>
-      <c r="K17" s="346"/>
-      <c r="L17" s="347"/>
+      <c r="B17" s="347"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="347"/>
+      <c r="H17" s="347"/>
+      <c r="I17" s="347"/>
+      <c r="J17" s="347"/>
+      <c r="K17" s="347"/>
+      <c r="L17" s="348"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -19158,20 +20379,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="345" t="s">
+      <c r="A22" s="346" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="346"/>
-      <c r="C22" s="346"/>
-      <c r="D22" s="346"/>
-      <c r="E22" s="346"/>
-      <c r="F22" s="346"/>
-      <c r="G22" s="346"/>
-      <c r="H22" s="346"/>
-      <c r="I22" s="346"/>
-      <c r="J22" s="346"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="347"/>
+      <c r="B22" s="347"/>
+      <c r="C22" s="347"/>
+      <c r="D22" s="347"/>
+      <c r="E22" s="347"/>
+      <c r="F22" s="347"/>
+      <c r="G22" s="347"/>
+      <c r="H22" s="347"/>
+      <c r="I22" s="347"/>
+      <c r="J22" s="347"/>
+      <c r="K22" s="347"/>
+      <c r="L22" s="348"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="260">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1863,6 +1863,72 @@
   </si>
   <si>
     <t>6.22~7.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3313,7 +3379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4214,6 +4280,15 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4241,10 +4316,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4277,18 +4358,6 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4328,6 +4397,21 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4336,21 +4420,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4734,7 +4803,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="319">
+      <c r="F2" s="324">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4756,7 +4825,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="320"/>
+      <c r="F3" s="325"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4764,7 +4833,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="320"/>
+      <c r="F4" s="325"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4825,7 +4894,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="300" t="s">
+      <c r="A8" s="303" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4855,17 +4924,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="315">
+      <c r="K8" s="320">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="315">
+      <c r="L8" s="320">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="301"/>
+      <c r="A9" s="304"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4893,11 +4962,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="316"/>
-      <c r="L9" s="316"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="301"/>
+      <c r="A10" s="304"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4927,11 +4996,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="316"/>
-      <c r="L10" s="316"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="301"/>
+      <c r="A11" s="304"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -4959,11 +5028,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="316"/>
-      <c r="L11" s="316"/>
+      <c r="K11" s="321"/>
+      <c r="L11" s="321"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="301"/>
+      <c r="A12" s="304"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4991,11 +5060,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="316"/>
-      <c r="L12" s="316"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="301"/>
+      <c r="A13" s="304"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -5025,11 +5094,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="316"/>
-      <c r="L13" s="316"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="321"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="301"/>
+      <c r="A14" s="304"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -5059,11 +5128,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="301"/>
+      <c r="A15" s="304"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -5091,11 +5160,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="316"/>
-      <c r="L15" s="316"/>
+      <c r="K15" s="321"/>
+      <c r="L15" s="321"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="302"/>
+      <c r="A16" s="305"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -5124,8 +5193,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="317"/>
-      <c r="L16" s="317"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -5206,7 +5275,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="300" t="s">
+      <c r="A20" s="303" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5238,17 +5307,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="314">
+      <c r="K20" s="319">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="314">
+      <c r="L20" s="319">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="301"/>
+      <c r="A21" s="304"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -5278,11 +5347,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="312"/>
-      <c r="L21" s="312"/>
+      <c r="K21" s="317"/>
+      <c r="L21" s="317"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="301"/>
+      <c r="A22" s="304"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -5312,11 +5381,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="312"/>
-      <c r="L22" s="312"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="317"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="301"/>
+      <c r="A23" s="304"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -5346,11 +5415,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="312"/>
-      <c r="L23" s="312"/>
+      <c r="K23" s="317"/>
+      <c r="L23" s="317"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="301"/>
+      <c r="A24" s="304"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5380,11 +5449,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="312"/>
-      <c r="L24" s="312"/>
+      <c r="K24" s="317"/>
+      <c r="L24" s="317"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="301"/>
+      <c r="A25" s="304"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5414,11 +5483,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="312"/>
-      <c r="L25" s="312"/>
+      <c r="K25" s="317"/>
+      <c r="L25" s="317"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="301"/>
+      <c r="A26" s="304"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5448,11 +5517,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="312"/>
-      <c r="L26" s="312"/>
+      <c r="K26" s="317"/>
+      <c r="L26" s="317"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="301"/>
+      <c r="A27" s="304"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5482,11 +5551,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="312"/>
-      <c r="L27" s="312"/>
+      <c r="K27" s="317"/>
+      <c r="L27" s="317"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="302"/>
+      <c r="A28" s="305"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5516,8 +5585,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="318"/>
-      <c r="L28" s="318"/>
+      <c r="K28" s="323"/>
+      <c r="L28" s="323"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5602,7 +5671,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="300" t="s">
+      <c r="A32" s="303" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5634,17 +5703,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="311">
+      <c r="K32" s="316">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="314">
+      <c r="L32" s="319">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="301"/>
+      <c r="A33" s="304"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5674,11 +5743,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="312"/>
-      <c r="L33" s="312"/>
+      <c r="K33" s="317"/>
+      <c r="L33" s="317"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="301"/>
+      <c r="A34" s="304"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5708,11 +5777,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="312"/>
-      <c r="L34" s="312"/>
+      <c r="K34" s="317"/>
+      <c r="L34" s="317"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="301"/>
+      <c r="A35" s="304"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5742,11 +5811,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="312"/>
-      <c r="L35" s="312"/>
+      <c r="K35" s="317"/>
+      <c r="L35" s="317"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="301"/>
+      <c r="A36" s="304"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5776,12 +5845,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="312"/>
-      <c r="L36" s="312"/>
+      <c r="K36" s="317"/>
+      <c r="L36" s="317"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="301"/>
-      <c r="B37" s="306" t="s">
+      <c r="A37" s="304"/>
+      <c r="B37" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5810,12 +5879,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="312"/>
-      <c r="L37" s="312"/>
+      <c r="K37" s="317"/>
+      <c r="L37" s="317"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="301"/>
-      <c r="B38" s="307"/>
+      <c r="A38" s="304"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5842,12 +5911,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="312"/>
-      <c r="L38" s="312"/>
+      <c r="K38" s="317"/>
+      <c r="L38" s="317"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="301"/>
-      <c r="B39" s="308"/>
+      <c r="A39" s="304"/>
+      <c r="B39" s="311"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5874,12 +5943,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="312"/>
-      <c r="L39" s="312"/>
+      <c r="K39" s="317"/>
+      <c r="L39" s="317"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="301"/>
-      <c r="B40" s="309" t="s">
+      <c r="A40" s="304"/>
+      <c r="B40" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5908,12 +5977,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="312"/>
-      <c r="L40" s="312"/>
+      <c r="K40" s="317"/>
+      <c r="L40" s="317"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="301"/>
-      <c r="B41" s="310"/>
+      <c r="A41" s="304"/>
+      <c r="B41" s="302"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -5933,11 +6002,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="312"/>
-      <c r="L41" s="312"/>
+      <c r="K41" s="317"/>
+      <c r="L41" s="317"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="302"/>
+      <c r="A42" s="305"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -5967,8 +6036,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="313"/>
-      <c r="L42" s="313"/>
+      <c r="K42" s="318"/>
+      <c r="L42" s="318"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -6053,7 +6122,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="300" t="s">
+      <c r="A46" s="303" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -6085,17 +6154,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="311">
+      <c r="K46" s="316">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="314">
+      <c r="L46" s="319">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="301"/>
+      <c r="A47" s="304"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -6125,11 +6194,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="312"/>
-      <c r="L47" s="312"/>
+      <c r="K47" s="317"/>
+      <c r="L47" s="317"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="301"/>
+      <c r="A48" s="304"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -6159,11 +6228,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="312"/>
-      <c r="L48" s="312"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="301"/>
+      <c r="A49" s="304"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -6193,11 +6262,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="312"/>
-      <c r="L49" s="312"/>
+      <c r="K49" s="317"/>
+      <c r="L49" s="317"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="301"/>
+      <c r="A50" s="304"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6227,12 +6296,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="312"/>
-      <c r="L50" s="312"/>
+      <c r="K50" s="317"/>
+      <c r="L50" s="317"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="301"/>
-      <c r="B51" s="306" t="s">
+      <c r="A51" s="304"/>
+      <c r="B51" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -6261,12 +6330,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="312"/>
-      <c r="L51" s="312"/>
+      <c r="K51" s="317"/>
+      <c r="L51" s="317"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="301"/>
-      <c r="B52" s="307"/>
+      <c r="A52" s="304"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -6293,12 +6362,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="312"/>
-      <c r="L52" s="312"/>
+      <c r="K52" s="317"/>
+      <c r="L52" s="317"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="301"/>
-      <c r="B53" s="308"/>
+      <c r="A53" s="304"/>
+      <c r="B53" s="311"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -6325,12 +6394,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="312"/>
-      <c r="L53" s="312"/>
+      <c r="K53" s="317"/>
+      <c r="L53" s="317"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="301"/>
-      <c r="B54" s="309" t="s">
+      <c r="A54" s="304"/>
+      <c r="B54" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -6359,12 +6428,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="312"/>
-      <c r="L54" s="312"/>
+      <c r="K54" s="317"/>
+      <c r="L54" s="317"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="301"/>
-      <c r="B55" s="310"/>
+      <c r="A55" s="304"/>
+      <c r="B55" s="302"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6391,11 +6460,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="312"/>
-      <c r="L55" s="312"/>
+      <c r="K55" s="317"/>
+      <c r="L55" s="317"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="302"/>
+      <c r="A56" s="305"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6425,8 +6494,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="313"/>
-      <c r="L56" s="313"/>
+      <c r="K56" s="318"/>
+      <c r="L56" s="318"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6516,7 +6585,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="300" t="s">
+      <c r="A60" s="303" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6548,11 +6617,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="303">
+      <c r="K60" s="306">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="303">
+      <c r="L60" s="306">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6561,7 +6630,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="301"/>
+      <c r="A61" s="304"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6591,12 +6660,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="304"/>
-      <c r="L61" s="304"/>
+      <c r="K61" s="307"/>
+      <c r="L61" s="307"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="301"/>
+      <c r="A62" s="304"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6626,14 +6695,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="304"/>
-      <c r="L62" s="304"/>
+      <c r="K62" s="307"/>
+      <c r="L62" s="307"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="301"/>
+      <c r="A63" s="304"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6663,12 +6732,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="304"/>
-      <c r="L63" s="304"/>
+      <c r="K63" s="307"/>
+      <c r="L63" s="307"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="301"/>
+      <c r="A64" s="304"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6698,13 +6767,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="304"/>
-      <c r="L64" s="304"/>
+      <c r="K64" s="307"/>
+      <c r="L64" s="307"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="301"/>
-      <c r="B65" s="306" t="s">
+      <c r="A65" s="304"/>
+      <c r="B65" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6733,13 +6802,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="304"/>
-      <c r="L65" s="304"/>
+      <c r="K65" s="307"/>
+      <c r="L65" s="307"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="301"/>
-      <c r="B66" s="307"/>
+      <c r="A66" s="304"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6766,15 +6835,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="304"/>
-      <c r="L66" s="304"/>
+      <c r="K66" s="307"/>
+      <c r="L66" s="307"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="301"/>
-      <c r="B67" s="308"/>
+      <c r="A67" s="304"/>
+      <c r="B67" s="311"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6801,13 +6870,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="304"/>
-      <c r="L67" s="304"/>
+      <c r="K67" s="307"/>
+      <c r="L67" s="307"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="301"/>
-      <c r="B68" s="309" t="s">
+      <c r="A68" s="304"/>
+      <c r="B68" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6836,15 +6905,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="304"/>
-      <c r="L68" s="304"/>
+      <c r="K68" s="307"/>
+      <c r="L68" s="307"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="301"/>
-      <c r="B69" s="310"/>
+      <c r="A69" s="304"/>
+      <c r="B69" s="302"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6871,14 +6940,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="304"/>
-      <c r="L69" s="304"/>
+      <c r="K69" s="307"/>
+      <c r="L69" s="307"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="302"/>
+      <c r="A70" s="305"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6908,8 +6977,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="305"/>
-      <c r="L70" s="305"/>
+      <c r="K70" s="308"/>
+      <c r="L70" s="308"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -7001,7 +7070,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="300" t="s">
+      <c r="A74" s="303" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -7033,11 +7102,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="303">
+      <c r="K74" s="306">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="303">
+      <c r="L74" s="306">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -7046,7 +7115,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="301"/>
+      <c r="A75" s="304"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -7076,12 +7145,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="304"/>
-      <c r="L75" s="304"/>
+      <c r="K75" s="307"/>
+      <c r="L75" s="307"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="301"/>
+      <c r="A76" s="304"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -7111,14 +7180,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="304"/>
-      <c r="L76" s="304"/>
+      <c r="K76" s="307"/>
+      <c r="L76" s="307"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="301"/>
+      <c r="A77" s="304"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -7148,12 +7217,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="304"/>
-      <c r="L77" s="304"/>
+      <c r="K77" s="307"/>
+      <c r="L77" s="307"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="301"/>
+      <c r="A78" s="304"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -7183,13 +7252,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="304"/>
-      <c r="L78" s="304"/>
+      <c r="K78" s="307"/>
+      <c r="L78" s="307"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="301"/>
-      <c r="B79" s="306" t="s">
+      <c r="A79" s="304"/>
+      <c r="B79" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -7218,13 +7287,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="304"/>
-      <c r="L79" s="304"/>
+      <c r="K79" s="307"/>
+      <c r="L79" s="307"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="301"/>
-      <c r="B80" s="307"/>
+      <c r="A80" s="304"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -7250,15 +7319,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="304"/>
-      <c r="L80" s="304"/>
+      <c r="K80" s="307"/>
+      <c r="L80" s="307"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="301"/>
-      <c r="B81" s="307"/>
+      <c r="A81" s="304"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -7285,15 +7354,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="304"/>
-      <c r="L81" s="304"/>
+      <c r="K81" s="307"/>
+      <c r="L81" s="307"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="301"/>
-      <c r="B82" s="308"/>
+      <c r="A82" s="304"/>
+      <c r="B82" s="311"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -7320,13 +7389,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="304"/>
-      <c r="L82" s="304"/>
+      <c r="K82" s="307"/>
+      <c r="L82" s="307"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="301"/>
-      <c r="B83" s="309" t="s">
+      <c r="A83" s="304"/>
+      <c r="B83" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -7355,15 +7424,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="304"/>
-      <c r="L83" s="304"/>
+      <c r="K83" s="307"/>
+      <c r="L83" s="307"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="301"/>
-      <c r="B84" s="310"/>
+      <c r="A84" s="304"/>
+      <c r="B84" s="302"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7390,14 +7459,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="304"/>
-      <c r="L84" s="304"/>
+      <c r="K84" s="307"/>
+      <c r="L84" s="307"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="302"/>
+      <c r="A85" s="305"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7427,8 +7496,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="305"/>
-      <c r="L85" s="305"/>
+      <c r="K85" s="308"/>
+      <c r="L85" s="308"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7519,7 +7588,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="300" t="s">
+      <c r="A89" s="303" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7551,11 +7620,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="303">
+      <c r="K89" s="306">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="303">
+      <c r="L89" s="306">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7564,7 +7633,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="301"/>
+      <c r="A90" s="304"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7594,12 +7663,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="304"/>
-      <c r="L90" s="304"/>
+      <c r="K90" s="307"/>
+      <c r="L90" s="307"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="301"/>
+      <c r="A91" s="304"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7629,14 +7698,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="304"/>
-      <c r="L91" s="304"/>
+      <c r="K91" s="307"/>
+      <c r="L91" s="307"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="301"/>
+      <c r="A92" s="304"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7666,14 +7735,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="304"/>
-      <c r="L92" s="304"/>
+      <c r="K92" s="307"/>
+      <c r="L92" s="307"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="301"/>
+      <c r="A93" s="304"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7703,13 +7772,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="304"/>
-      <c r="L93" s="304"/>
+      <c r="K93" s="307"/>
+      <c r="L93" s="307"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="301"/>
-      <c r="B94" s="306" t="s">
+      <c r="A94" s="304"/>
+      <c r="B94" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7738,15 +7807,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="304"/>
-      <c r="L94" s="304"/>
+      <c r="K94" s="307"/>
+      <c r="L94" s="307"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="301"/>
-      <c r="B95" s="307"/>
+      <c r="A95" s="304"/>
+      <c r="B95" s="310"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7773,15 +7842,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="304"/>
-      <c r="L95" s="304"/>
+      <c r="K95" s="307"/>
+      <c r="L95" s="307"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="301"/>
-      <c r="B96" s="308"/>
+      <c r="A96" s="304"/>
+      <c r="B96" s="311"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7808,13 +7877,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="304"/>
-      <c r="L96" s="304"/>
+      <c r="K96" s="307"/>
+      <c r="L96" s="307"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="301"/>
-      <c r="B97" s="309" t="s">
+      <c r="A97" s="304"/>
+      <c r="B97" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7843,15 +7912,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="304"/>
-      <c r="L97" s="304"/>
+      <c r="K97" s="307"/>
+      <c r="L97" s="307"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="301"/>
-      <c r="B98" s="310"/>
+      <c r="A98" s="304"/>
+      <c r="B98" s="302"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7878,14 +7947,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="304"/>
-      <c r="L98" s="304"/>
+      <c r="K98" s="307"/>
+      <c r="L98" s="307"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="302"/>
+      <c r="A99" s="305"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7915,8 +7984,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="305"/>
-      <c r="L99" s="305"/>
+      <c r="K99" s="308"/>
+      <c r="L99" s="308"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -8009,7 +8078,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="300" t="s">
+      <c r="A103" s="303" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -8041,11 +8110,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="303">
+      <c r="K103" s="306">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="303">
+      <c r="L103" s="306">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -8054,7 +8123,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="301"/>
+      <c r="A104" s="304"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -8084,12 +8153,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="304"/>
-      <c r="L104" s="304"/>
+      <c r="K104" s="307"/>
+      <c r="L104" s="307"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="301"/>
+      <c r="A105" s="304"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -8119,14 +8188,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="304"/>
-      <c r="L105" s="304"/>
+      <c r="K105" s="307"/>
+      <c r="L105" s="307"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="301"/>
+      <c r="A106" s="304"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -8155,14 +8224,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="304"/>
-      <c r="L106" s="304"/>
+      <c r="K106" s="307"/>
+      <c r="L106" s="307"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="301"/>
+      <c r="A107" s="304"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -8192,13 +8261,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="304"/>
-      <c r="L107" s="304"/>
+      <c r="K107" s="307"/>
+      <c r="L107" s="307"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="301"/>
-      <c r="B108" s="306" t="s">
+      <c r="A108" s="304"/>
+      <c r="B108" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -8227,15 +8296,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="304"/>
-      <c r="L108" s="304"/>
+      <c r="K108" s="307"/>
+      <c r="L108" s="307"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="301"/>
-      <c r="B109" s="307"/>
+      <c r="A109" s="304"/>
+      <c r="B109" s="310"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -8262,15 +8331,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="304"/>
-      <c r="L109" s="304"/>
+      <c r="K109" s="307"/>
+      <c r="L109" s="307"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="301"/>
-      <c r="B110" s="308"/>
+      <c r="A110" s="304"/>
+      <c r="B110" s="311"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -8297,13 +8366,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="304"/>
-      <c r="L110" s="304"/>
+      <c r="K110" s="307"/>
+      <c r="L110" s="307"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="301"/>
-      <c r="B111" s="309" t="s">
+      <c r="A111" s="304"/>
+      <c r="B111" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -8332,15 +8401,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="304"/>
-      <c r="L111" s="304"/>
+      <c r="K111" s="307"/>
+      <c r="L111" s="307"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="301"/>
-      <c r="B112" s="310"/>
+      <c r="A112" s="304"/>
+      <c r="B112" s="302"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -8367,14 +8436,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="304"/>
-      <c r="L112" s="304"/>
+      <c r="K112" s="307"/>
+      <c r="L112" s="307"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="302"/>
+      <c r="A113" s="305"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8404,8 +8473,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="305"/>
-      <c r="L113" s="305"/>
+      <c r="K113" s="308"/>
+      <c r="L113" s="308"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8498,7 +8567,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="300" t="s">
+      <c r="A117" s="303" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8530,11 +8599,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="303">
+      <c r="K117" s="306">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="303">
+      <c r="L117" s="306">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8543,7 +8612,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="301"/>
+      <c r="A118" s="304"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8573,12 +8642,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="304"/>
-      <c r="L118" s="304"/>
+      <c r="K118" s="307"/>
+      <c r="L118" s="307"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="301"/>
+      <c r="A119" s="304"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8608,14 +8677,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="304"/>
-      <c r="L119" s="304"/>
+      <c r="K119" s="307"/>
+      <c r="L119" s="307"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="301"/>
+      <c r="A120" s="304"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8645,13 +8714,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="304"/>
-      <c r="L120" s="304"/>
+      <c r="K120" s="307"/>
+      <c r="L120" s="307"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="301"/>
-      <c r="B121" s="306" t="s">
+      <c r="A121" s="304"/>
+      <c r="B121" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8680,15 +8749,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="304"/>
-      <c r="L121" s="304"/>
+      <c r="K121" s="307"/>
+      <c r="L121" s="307"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="301"/>
-      <c r="B122" s="307"/>
+      <c r="A122" s="304"/>
+      <c r="B122" s="310"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8715,15 +8784,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="304"/>
-      <c r="L122" s="304"/>
+      <c r="K122" s="307"/>
+      <c r="L122" s="307"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="301"/>
-      <c r="B123" s="308"/>
+      <c r="A123" s="304"/>
+      <c r="B123" s="311"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8750,13 +8819,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="304"/>
-      <c r="L123" s="304"/>
+      <c r="K123" s="307"/>
+      <c r="L123" s="307"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="301"/>
-      <c r="B124" s="309" t="s">
+      <c r="A124" s="304"/>
+      <c r="B124" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8785,15 +8854,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="304"/>
-      <c r="L124" s="304"/>
+      <c r="K124" s="307"/>
+      <c r="L124" s="307"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="301"/>
-      <c r="B125" s="310"/>
+      <c r="A125" s="304"/>
+      <c r="B125" s="302"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8820,14 +8889,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="304"/>
-      <c r="L125" s="304"/>
+      <c r="K125" s="307"/>
+      <c r="L125" s="307"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="302"/>
+      <c r="A126" s="305"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8857,8 +8926,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="305"/>
-      <c r="L126" s="305"/>
+      <c r="K126" s="308"/>
+      <c r="L126" s="308"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -8951,7 +9020,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="300" t="s">
+      <c r="A130" s="303" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8983,11 +9052,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="303">
+      <c r="K130" s="306">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="303">
+      <c r="L130" s="306">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -8996,7 +9065,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="301"/>
+      <c r="A131" s="304"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -9026,12 +9095,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="304"/>
-      <c r="L131" s="304"/>
+      <c r="K131" s="307"/>
+      <c r="L131" s="307"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="301"/>
+      <c r="A132" s="304"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -9061,14 +9130,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="304"/>
-      <c r="L132" s="304"/>
+      <c r="K132" s="307"/>
+      <c r="L132" s="307"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="301"/>
+      <c r="A133" s="304"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -9098,13 +9167,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="304"/>
-      <c r="L133" s="304"/>
+      <c r="K133" s="307"/>
+      <c r="L133" s="307"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="301"/>
-      <c r="B134" s="306" t="s">
+      <c r="A134" s="304"/>
+      <c r="B134" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -9133,15 +9202,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="304"/>
-      <c r="L134" s="304"/>
+      <c r="K134" s="307"/>
+      <c r="L134" s="307"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="301"/>
-      <c r="B135" s="307"/>
+      <c r="A135" s="304"/>
+      <c r="B135" s="310"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -9168,15 +9237,15 @@
         <f t="shared" si="26"/>
         <v>2.0702841484977256E-4</v>
       </c>
-      <c r="K135" s="304"/>
-      <c r="L135" s="304"/>
+      <c r="K135" s="307"/>
+      <c r="L135" s="307"/>
       <c r="M135" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A136" s="301"/>
-      <c r="B136" s="308"/>
+      <c r="A136" s="304"/>
+      <c r="B136" s="311"/>
       <c r="C136" s="42" t="s">
         <v>13</v>
       </c>
@@ -9203,13 +9272,13 @@
         <f t="shared" si="26"/>
         <v>1.6793446202864032E-4</v>
       </c>
-      <c r="K136" s="304"/>
-      <c r="L136" s="304"/>
+      <c r="K136" s="307"/>
+      <c r="L136" s="307"/>
       <c r="M136" s="84"/>
     </row>
     <row r="137" spans="1:13" ht="28.5">
-      <c r="A137" s="301"/>
-      <c r="B137" s="309" t="s">
+      <c r="A137" s="304"/>
+      <c r="B137" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="43" t="s">
@@ -9238,15 +9307,15 @@
         <f t="shared" si="26"/>
         <v>2.3707582181732147E-4</v>
       </c>
-      <c r="K137" s="304"/>
-      <c r="L137" s="304"/>
+      <c r="K137" s="307"/>
+      <c r="L137" s="307"/>
       <c r="M137" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="28.5">
-      <c r="A138" s="301"/>
-      <c r="B138" s="310"/>
+      <c r="A138" s="304"/>
+      <c r="B138" s="302"/>
       <c r="C138" s="43" t="s">
         <v>91</v>
       </c>
@@ -9273,14 +9342,14 @@
         <f t="shared" si="26"/>
         <v>2.8378868696864499E-4</v>
       </c>
-      <c r="K138" s="304"/>
-      <c r="L138" s="304"/>
+      <c r="K138" s="307"/>
+      <c r="L138" s="307"/>
       <c r="M138" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A139" s="302"/>
+      <c r="A139" s="305"/>
       <c r="B139" s="55" t="s">
         <v>69</v>
       </c>
@@ -9310,8 +9379,8 @@
         <f t="shared" si="26"/>
         <v>2.2375565073542763E-4</v>
       </c>
-      <c r="K139" s="305"/>
-      <c r="L139" s="305"/>
+      <c r="K139" s="308"/>
+      <c r="L139" s="308"/>
       <c r="M139" s="84" t="s">
         <v>110</v>
       </c>
@@ -9404,7 +9473,7 @@
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="300" t="s">
+      <c r="A143" s="303" t="s">
         <v>121</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9436,11 +9505,11 @@
         <f>E143/D143</f>
         <v>-1.1413134109328619E-2</v>
       </c>
-      <c r="K143" s="303">
+      <c r="K143" s="306">
         <f>E153/D153</f>
         <v>-2.8114152995039877E-4</v>
       </c>
-      <c r="L143" s="303">
+      <c r="L143" s="306">
         <f>K143*365</f>
         <v>-0.10261665843189555</v>
       </c>
@@ -9449,7 +9518,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A144" s="301"/>
+      <c r="A144" s="304"/>
       <c r="B144" s="4" t="s">
         <v>43</v>
       </c>
@@ -9479,12 +9548,12 @@
         <f t="shared" ref="J144:J152" si="28">E144/D144</f>
         <v>1.1187203986582515E-4</v>
       </c>
-      <c r="K144" s="304"/>
-      <c r="L144" s="304"/>
+      <c r="K144" s="307"/>
+      <c r="L144" s="307"/>
       <c r="M144" s="84"/>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="301"/>
+      <c r="A145" s="304"/>
       <c r="B145" s="34" t="s">
         <v>43</v>
       </c>
@@ -9514,14 +9583,14 @@
         <f t="shared" si="28"/>
         <v>3.6031651700272791E-4</v>
       </c>
-      <c r="K145" s="304"/>
-      <c r="L145" s="304"/>
+      <c r="K145" s="307"/>
+      <c r="L145" s="307"/>
       <c r="M145" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A146" s="301"/>
+      <c r="A146" s="304"/>
       <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
@@ -9551,13 +9620,13 @@
         <f t="shared" si="28"/>
         <v>1.0586381565328844E-4</v>
       </c>
-      <c r="K146" s="304"/>
-      <c r="L146" s="304"/>
+      <c r="K146" s="307"/>
+      <c r="L146" s="307"/>
       <c r="M146" s="84"/>
     </row>
     <row r="147" spans="1:13" ht="25.5">
-      <c r="A147" s="301"/>
-      <c r="B147" s="306" t="s">
+      <c r="A147" s="304"/>
+      <c r="B147" s="309" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="48" t="s">
@@ -9586,15 +9655,15 @@
         <f t="shared" si="28"/>
         <v>2.0955992415926545E-4</v>
       </c>
-      <c r="K147" s="304"/>
-      <c r="L147" s="304"/>
+      <c r="K147" s="307"/>
+      <c r="L147" s="307"/>
       <c r="M147" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="301"/>
-      <c r="B148" s="307"/>
+      <c r="A148" s="304"/>
+      <c r="B148" s="310"/>
       <c r="C148" s="41" t="s">
         <v>86</v>
       </c>
@@ -9621,15 +9690,15 @@
         <f t="shared" si="28"/>
         <v>2.0698556295677684E-4</v>
       </c>
-      <c r="K148" s="304"/>
-      <c r="L148" s="304"/>
+      <c r="K148" s="307"/>
+      <c r="L148" s="307"/>
       <c r="M148" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A149" s="301"/>
-      <c r="B149" s="308"/>
+      <c r="A149" s="304"/>
+      <c r="B149" s="311"/>
       <c r="C149" s="42" t="s">
         <v>13</v>
       </c>
@@ -9656,13 +9725,13 @@
         <f t="shared" si="28"/>
         <v>1.6740713795286528E-4</v>
       </c>
-      <c r="K149" s="304"/>
-      <c r="L149" s="304"/>
+      <c r="K149" s="307"/>
+      <c r="L149" s="307"/>
       <c r="M149" s="84"/>
     </row>
     <row r="150" spans="1:13" ht="28.5">
-      <c r="A150" s="301"/>
-      <c r="B150" s="309" t="s">
+      <c r="A150" s="304"/>
+      <c r="B150" s="301" t="s">
         <v>68</v>
       </c>
       <c r="C150" s="43" t="s">
@@ -9691,15 +9760,15 @@
         <f t="shared" si="28"/>
         <v>2.3701963019370648E-4</v>
       </c>
-      <c r="K150" s="304"/>
-      <c r="L150" s="304"/>
+      <c r="K150" s="307"/>
+      <c r="L150" s="307"/>
       <c r="M150" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="28.5">
-      <c r="A151" s="301"/>
-      <c r="B151" s="310"/>
+      <c r="A151" s="304"/>
+      <c r="B151" s="302"/>
       <c r="C151" s="43" t="s">
         <v>91</v>
       </c>
@@ -9726,14 +9795,14 @@
         <f t="shared" si="28"/>
         <v>2.8370817379852047E-4</v>
       </c>
-      <c r="K151" s="304"/>
-      <c r="L151" s="304"/>
+      <c r="K151" s="307"/>
+      <c r="L151" s="307"/>
       <c r="M151" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A152" s="302"/>
+      <c r="A152" s="305"/>
       <c r="B152" s="55" t="s">
         <v>69</v>
       </c>
@@ -9763,8 +9832,8 @@
         <f t="shared" si="28"/>
         <v>2.2370559534436819E-4</v>
       </c>
-      <c r="K152" s="305"/>
-      <c r="L152" s="305"/>
+      <c r="K152" s="308"/>
+      <c r="L152" s="308"/>
       <c r="M152" s="84" t="s">
         <v>110</v>
       </c>
@@ -9837,10 +9906,10 @@
       <c r="G155" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H155" s="321" t="s">
+      <c r="H155" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="I155" s="322"/>
+      <c r="I155" s="313"/>
       <c r="J155" s="78" t="s">
         <v>30</v>
       </c>
@@ -9877,11 +9946,11 @@
         <f>F156/C156</f>
         <v>1.385818760094701E-3</v>
       </c>
-      <c r="H156" s="323">
+      <c r="H156" s="314">
         <f>G156/E156</f>
         <v>1.2598352364497282E-4</v>
       </c>
-      <c r="I156" s="324"/>
+      <c r="I156" s="315"/>
       <c r="J156" s="83">
         <f>H156*365</f>
         <v>4.5983986130415079E-2</v>
@@ -9898,12 +9967,38 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A143:A152"/>
-    <mergeCell ref="K143:K152"/>
-    <mergeCell ref="L143:L152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="L89:L99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="K60:K70"/>
+    <mergeCell ref="L60:L70"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="K32:K42"/>
+    <mergeCell ref="L32:L42"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="K8:K16"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="L46:L56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L74:L85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="H155:I155"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="A103:A113"/>
@@ -9920,38 +10015,12 @@
     <mergeCell ref="K130:K139"/>
     <mergeCell ref="L130:L139"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L74:L85"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="L46:L56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="K8:K16"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="K32:K42"/>
-    <mergeCell ref="L32:L42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="K60:K70"/>
-    <mergeCell ref="L60:L70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="L89:L99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="K143:K152"/>
+    <mergeCell ref="L143:L152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9961,10 +10030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:N298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="L271" sqref="L271"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10027,7 +10096,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="304" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="91"/>
@@ -10058,11 +10127,11 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="K2" s="153"/>
-      <c r="L2" s="329">
+      <c r="L2" s="330">
         <f>E10/D10</f>
         <v>3.4265221524407076E-4</v>
       </c>
-      <c r="M2" s="329">
+      <c r="M2" s="330">
         <f>L2*365</f>
         <v>0.12506805856408582</v>
       </c>
@@ -10071,7 +10140,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="301"/>
+      <c r="A3" s="304"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
         <v>127</v>
@@ -10100,14 +10169,14 @@
         <v>4.4400000000000006E-4</v>
       </c>
       <c r="K3" s="153"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
+      <c r="L3" s="330"/>
+      <c r="M3" s="330"/>
       <c r="N3" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="301"/>
+      <c r="A4" s="304"/>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -10138,13 +10207,13 @@
         <v>1.1139427596437556E-4</v>
       </c>
       <c r="K4" s="153"/>
-      <c r="L4" s="329"/>
-      <c r="M4" s="329"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="25.5">
-      <c r="A5" s="301"/>
-      <c r="B5" s="306"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="309"/>
       <c r="C5" s="48" t="s">
         <v>129</v>
       </c>
@@ -10172,15 +10241,15 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K5" s="153"/>
-      <c r="L5" s="329"/>
-      <c r="M5" s="329"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
       <c r="N5" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5">
-      <c r="A6" s="301"/>
-      <c r="B6" s="307"/>
+      <c r="A6" s="304"/>
+      <c r="B6" s="310"/>
       <c r="C6" s="48" t="s">
         <v>131</v>
       </c>
@@ -10208,15 +10277,15 @@
         <v>3.2879999999999997E-4</v>
       </c>
       <c r="K6" s="153"/>
-      <c r="L6" s="329"/>
-      <c r="M6" s="329"/>
+      <c r="L6" s="330"/>
+      <c r="M6" s="330"/>
       <c r="N6" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="301"/>
-      <c r="B7" s="308"/>
+      <c r="A7" s="304"/>
+      <c r="B7" s="311"/>
       <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
@@ -10244,12 +10313,12 @@
         <v>1.6000904574233399E-4</v>
       </c>
       <c r="K7" s="153"/>
-      <c r="L7" s="329"/>
-      <c r="M7" s="329"/>
+      <c r="L7" s="330"/>
+      <c r="M7" s="330"/>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="42.75">
-      <c r="A8" s="301"/>
+      <c r="A8" s="304"/>
       <c r="B8" s="88"/>
       <c r="C8" s="43" t="s">
         <v>91</v>
@@ -10278,14 +10347,14 @@
         <v>2.8427272727272725E-4</v>
       </c>
       <c r="K8" s="153"/>
-      <c r="L8" s="329"/>
-      <c r="M8" s="329"/>
+      <c r="L8" s="330"/>
+      <c r="M8" s="330"/>
       <c r="N8" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A9" s="302"/>
+      <c r="A9" s="305"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>125</v>
@@ -10314,8 +10383,8 @@
         <v>3.2900000000000003E-4</v>
       </c>
       <c r="K9" s="153"/>
-      <c r="L9" s="330"/>
-      <c r="M9" s="330"/>
+      <c r="L9" s="331"/>
+      <c r="M9" s="331"/>
       <c r="N9" s="84" t="s">
         <v>135</v>
       </c>
@@ -10448,7 +10517,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="301" t="s">
+      <c r="A14" s="304" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="116"/>
@@ -10479,11 +10548,11 @@
         <v>6.435855309180888E-4</v>
       </c>
       <c r="K14" s="153"/>
-      <c r="L14" s="329">
+      <c r="L14" s="330">
         <f>E22/D22</f>
         <v>3.4252898568462267E-4</v>
       </c>
-      <c r="M14" s="329">
+      <c r="M14" s="330">
         <f>L14*365</f>
         <v>0.12502307977488727</v>
       </c>
@@ -10492,7 +10561,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="301"/>
+      <c r="A15" s="304"/>
       <c r="B15" s="117"/>
       <c r="C15" s="90" t="s">
         <v>127</v>
@@ -10521,14 +10590,14 @@
         <v>4.4380295148953867E-4</v>
       </c>
       <c r="K15" s="153"/>
-      <c r="L15" s="329"/>
-      <c r="M15" s="329"/>
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
       <c r="N15" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="301"/>
+      <c r="A16" s="304"/>
       <c r="B16" s="120"/>
       <c r="C16" s="44" t="s">
         <v>3</v>
@@ -10558,13 +10627,13 @@
         <v>1.1138186866176043E-4</v>
       </c>
       <c r="K16" s="153"/>
-      <c r="L16" s="329"/>
-      <c r="M16" s="329"/>
+      <c r="L16" s="330"/>
+      <c r="M16" s="330"/>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="25.5">
-      <c r="A17" s="301"/>
-      <c r="B17" s="343"/>
+      <c r="A17" s="304"/>
+      <c r="B17" s="341"/>
       <c r="C17" s="48" t="s">
         <v>129</v>
       </c>
@@ -10592,15 +10661,15 @@
         <v>1.8996390685769706E-4</v>
       </c>
       <c r="K17" s="153"/>
-      <c r="L17" s="329"/>
-      <c r="M17" s="329"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
       <c r="N17" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="301"/>
-      <c r="B18" s="344"/>
+      <c r="A18" s="304"/>
+      <c r="B18" s="342"/>
       <c r="C18" s="48" t="s">
         <v>131</v>
       </c>
@@ -10628,15 +10697,15 @@
         <v>3.2869192609470005E-4</v>
       </c>
       <c r="K18" s="153"/>
-      <c r="L18" s="329"/>
-      <c r="M18" s="329"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
       <c r="N18" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="301"/>
-      <c r="B19" s="345"/>
+      <c r="A19" s="304"/>
+      <c r="B19" s="343"/>
       <c r="C19" s="42" t="s">
         <v>13</v>
       </c>
@@ -10665,12 +10734,12 @@
         <v>1.5969553432167976E-4</v>
       </c>
       <c r="K19" s="153"/>
-      <c r="L19" s="329"/>
-      <c r="M19" s="329"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="42.75">
-      <c r="A20" s="301"/>
+      <c r="A20" s="304"/>
       <c r="B20" s="118"/>
       <c r="C20" s="43" t="s">
         <v>91</v>
@@ -10699,14 +10768,14 @@
         <v>2.841919392550863E-4</v>
       </c>
       <c r="K20" s="153"/>
-      <c r="L20" s="329"/>
-      <c r="M20" s="329"/>
+      <c r="L20" s="330"/>
+      <c r="M20" s="330"/>
       <c r="N20" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A21" s="302"/>
+      <c r="A21" s="305"/>
       <c r="B21" s="119"/>
       <c r="C21" s="56" t="s">
         <v>125</v>
@@ -10735,8 +10804,8 @@
         <v>3.2889179459957672E-4</v>
       </c>
       <c r="K21" s="153"/>
-      <c r="L21" s="330"/>
-      <c r="M21" s="330"/>
+      <c r="L21" s="331"/>
+      <c r="M21" s="331"/>
       <c r="N21" s="84" t="s">
         <v>135</v>
       </c>
@@ -10869,7 +10938,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="301" t="s">
+      <c r="A26" s="304" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="116"/>
@@ -10900,11 +10969,11 @@
         <v>6.431715949856584E-4</v>
       </c>
       <c r="K26" s="153"/>
-      <c r="L26" s="329">
+      <c r="L26" s="330">
         <f>E34/D34</f>
         <v>3.4220083948081811E-4</v>
       </c>
-      <c r="M26" s="329">
+      <c r="M26" s="330">
         <f>L26*365</f>
         <v>0.12490330641049861</v>
       </c>
@@ -10913,7 +10982,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="301"/>
+      <c r="A27" s="304"/>
       <c r="B27" s="117"/>
       <c r="C27" s="90" t="s">
         <v>127</v>
@@ -10942,14 +11011,14 @@
         <v>4.4360607780291101E-4</v>
       </c>
       <c r="K27" s="153"/>
-      <c r="L27" s="329"/>
-      <c r="M27" s="329"/>
+      <c r="L27" s="330"/>
+      <c r="M27" s="330"/>
       <c r="N27" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A28" s="301"/>
+      <c r="A28" s="304"/>
       <c r="B28" s="120"/>
       <c r="C28" s="44" t="s">
         <v>3</v>
@@ -10979,13 +11048,13 @@
         <v>1.1046402132498878E-4</v>
       </c>
       <c r="K28" s="153"/>
-      <c r="L28" s="329"/>
-      <c r="M28" s="329"/>
+      <c r="L28" s="330"/>
+      <c r="M28" s="330"/>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="25.5">
-      <c r="A29" s="301"/>
-      <c r="B29" s="343"/>
+      <c r="A29" s="304"/>
+      <c r="B29" s="341"/>
       <c r="C29" s="48" t="s">
         <v>129</v>
       </c>
@@ -11013,15 +11082,15 @@
         <v>1.899278274255783E-4</v>
       </c>
       <c r="K29" s="153"/>
-      <c r="L29" s="329"/>
-      <c r="M29" s="329"/>
+      <c r="L29" s="330"/>
+      <c r="M29" s="330"/>
       <c r="N29" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5">
-      <c r="A30" s="301"/>
-      <c r="B30" s="344"/>
+      <c r="A30" s="304"/>
+      <c r="B30" s="342"/>
       <c r="C30" s="48" t="s">
         <v>131</v>
       </c>
@@ -11049,15 +11118,15 @@
         <v>3.2858392321209571E-4</v>
       </c>
       <c r="K30" s="153"/>
-      <c r="L30" s="329"/>
-      <c r="M30" s="329"/>
+      <c r="L30" s="330"/>
+      <c r="M30" s="330"/>
       <c r="N30" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A31" s="301"/>
-      <c r="B31" s="345"/>
+      <c r="A31" s="304"/>
+      <c r="B31" s="343"/>
       <c r="C31" s="42" t="s">
         <v>13</v>
       </c>
@@ -11086,12 +11155,12 @@
         <v>1.5890239132746058E-4</v>
       </c>
       <c r="K31" s="153"/>
-      <c r="L31" s="329"/>
-      <c r="M31" s="329"/>
+      <c r="L31" s="330"/>
+      <c r="M31" s="330"/>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" ht="42.75">
-      <c r="A32" s="301"/>
+      <c r="A32" s="304"/>
       <c r="B32" s="118"/>
       <c r="C32" s="43" t="s">
         <v>91</v>
@@ -11120,14 +11189,14 @@
         <v>2.8411119714300616E-4</v>
       </c>
       <c r="K32" s="153"/>
-      <c r="L32" s="329"/>
-      <c r="M32" s="329"/>
+      <c r="L32" s="330"/>
+      <c r="M32" s="330"/>
       <c r="N32" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A33" s="302"/>
+      <c r="A33" s="305"/>
       <c r="B33" s="119"/>
       <c r="C33" s="56" t="s">
         <v>125</v>
@@ -11156,8 +11225,8 @@
         <v>3.2878366035148869E-4</v>
       </c>
       <c r="K33" s="153"/>
-      <c r="L33" s="330"/>
-      <c r="M33" s="330"/>
+      <c r="L33" s="331"/>
+      <c r="M33" s="331"/>
       <c r="N33" s="84" t="s">
         <v>135</v>
       </c>
@@ -11290,7 +11359,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="301" t="s">
+      <c r="A38" s="304" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="116"/>
@@ -11321,11 +11390,11 @@
         <v>6.4275819117465055E-4</v>
       </c>
       <c r="K38" s="153"/>
-      <c r="L38" s="329">
+      <c r="L38" s="330">
         <f>E46/D46</f>
         <v>3.4207792289866763E-4</v>
       </c>
-      <c r="M38" s="329">
+      <c r="M38" s="330">
         <f>L38*365</f>
         <v>0.12485844185801369</v>
       </c>
@@ -11334,7 +11403,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="301"/>
+      <c r="A39" s="304"/>
       <c r="B39" s="117"/>
       <c r="C39" s="90" t="s">
         <v>127</v>
@@ -11363,14 +11432,14 @@
         <v>4.4340937870756148E-4</v>
       </c>
       <c r="K39" s="153"/>
-      <c r="L39" s="329"/>
-      <c r="M39" s="329"/>
+      <c r="L39" s="330"/>
+      <c r="M39" s="330"/>
       <c r="N39" s="106">
         <v>42926</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A40" s="301"/>
+      <c r="A40" s="304"/>
       <c r="B40" s="120"/>
       <c r="C40" s="44" t="s">
         <v>3</v>
@@ -11400,13 +11469,13 @@
         <v>1.1045182037274774E-4</v>
       </c>
       <c r="K40" s="153"/>
-      <c r="L40" s="329"/>
-      <c r="M40" s="329"/>
+      <c r="L40" s="330"/>
+      <c r="M40" s="330"/>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="25.5">
-      <c r="A41" s="301"/>
-      <c r="B41" s="343"/>
+      <c r="A41" s="304"/>
+      <c r="B41" s="341"/>
       <c r="C41" s="48" t="s">
         <v>129</v>
       </c>
@@ -11434,15 +11503,15 @@
         <v>1.8989176169583339E-4</v>
       </c>
       <c r="K41" s="153"/>
-      <c r="L41" s="329"/>
-      <c r="M41" s="329"/>
+      <c r="L41" s="330"/>
+      <c r="M41" s="330"/>
       <c r="N41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="301"/>
-      <c r="B42" s="344"/>
+      <c r="A42" s="304"/>
+      <c r="B42" s="342"/>
       <c r="C42" s="48" t="s">
         <v>131</v>
       </c>
@@ -11470,15 +11539,15 @@
         <v>3.2847599128219923E-4</v>
       </c>
       <c r="K42" s="153"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
+      <c r="L42" s="330"/>
+      <c r="M42" s="330"/>
       <c r="N42" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A43" s="301"/>
-      <c r="B43" s="345"/>
+      <c r="A43" s="304"/>
+      <c r="B43" s="343"/>
       <c r="C43" s="42" t="s">
         <v>13</v>
       </c>
@@ -11507,12 +11576,12 @@
         <v>1.5858932445361035E-4</v>
       </c>
       <c r="K43" s="153"/>
-      <c r="L43" s="329"/>
-      <c r="M43" s="329"/>
+      <c r="L43" s="330"/>
+      <c r="M43" s="330"/>
       <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="42.75">
-      <c r="A44" s="301"/>
+      <c r="A44" s="304"/>
       <c r="B44" s="118"/>
       <c r="C44" s="43" t="s">
         <v>91</v>
@@ -11541,14 +11610,14 @@
         <v>2.8403050089737111E-4</v>
       </c>
       <c r="K44" s="153"/>
-      <c r="L44" s="329"/>
-      <c r="M44" s="329"/>
+      <c r="L44" s="330"/>
+      <c r="M44" s="330"/>
       <c r="N44" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A45" s="302"/>
+      <c r="A45" s="305"/>
       <c r="B45" s="119"/>
       <c r="C45" s="56" t="s">
         <v>125</v>
@@ -11577,8 +11646,8 @@
         <v>3.2867559718557774E-4</v>
       </c>
       <c r="K45" s="153"/>
-      <c r="L45" s="330"/>
-      <c r="M45" s="330"/>
+      <c r="L45" s="331"/>
+      <c r="M45" s="331"/>
       <c r="N45" s="84" t="s">
         <v>135</v>
       </c>
@@ -11714,7 +11783,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="301" t="s">
+      <c r="A50" s="304" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="116">
@@ -11750,11 +11819,11 @@
         <f t="shared" ref="K50:K55" si="10">(F50-I50)/(H50-I50)</f>
         <v>0.84630981346313561</v>
       </c>
-      <c r="L50" s="329">
+      <c r="L50" s="330">
         <f>E56/D56</f>
         <v>2.2906443121160593E-4</v>
       </c>
-      <c r="M50" s="329">
+      <c r="M50" s="330">
         <f>L50*365</f>
         <v>8.3608517392236167E-2</v>
       </c>
@@ -11763,7 +11832,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5">
-      <c r="A51" s="301"/>
+      <c r="A51" s="304"/>
       <c r="B51" s="117">
         <v>117.98</v>
       </c>
@@ -11797,14 +11866,14 @@
         <f t="shared" si="10"/>
         <v>3.999999999999241E-2</v>
       </c>
-      <c r="L51" s="329"/>
-      <c r="M51" s="329"/>
+      <c r="L51" s="330"/>
+      <c r="M51" s="330"/>
       <c r="N51" s="106">
         <v>42951</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A52" s="301"/>
+      <c r="A52" s="304"/>
       <c r="B52" s="120">
         <v>6.12</v>
       </c>
@@ -11836,13 +11905,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="276"/>
-      <c r="L52" s="329"/>
-      <c r="M52" s="329"/>
+      <c r="L52" s="330"/>
+      <c r="M52" s="330"/>
       <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" ht="25.5">
-      <c r="A53" s="301"/>
-      <c r="B53" s="343">
+      <c r="A53" s="304"/>
+      <c r="B53" s="341">
         <v>118.93</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -11875,15 +11944,15 @@
         <f t="shared" si="10"/>
         <v>2.7026857429723161E-2</v>
       </c>
-      <c r="L53" s="329"/>
-      <c r="M53" s="329"/>
+      <c r="L53" s="330"/>
+      <c r="M53" s="330"/>
       <c r="N53" s="84" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="25.5">
-      <c r="A54" s="301"/>
-      <c r="B54" s="344"/>
+      <c r="A54" s="304"/>
+      <c r="B54" s="342"/>
       <c r="C54" s="48" t="s">
         <v>131</v>
       </c>
@@ -11914,14 +11983,14 @@
         <f t="shared" si="10"/>
         <v>0.64999999999999658</v>
       </c>
-      <c r="L54" s="329"/>
-      <c r="M54" s="329"/>
+      <c r="L54" s="330"/>
+      <c r="M54" s="330"/>
       <c r="N54" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A55" s="302"/>
+      <c r="A55" s="305"/>
       <c r="B55" s="119">
         <v>29.59</v>
       </c>
@@ -11955,8 +12024,8 @@
         <f t="shared" si="10"/>
         <v>5.2234004328461925E-2</v>
       </c>
-      <c r="L55" s="330"/>
-      <c r="M55" s="330"/>
+      <c r="L55" s="331"/>
+      <c r="M55" s="331"/>
       <c r="N55" s="84" t="s">
         <v>135</v>
       </c>
@@ -12092,10 +12161,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A60" s="338" t="s">
+      <c r="A60" s="344" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="341">
+      <c r="B60" s="339">
         <v>28</v>
       </c>
       <c r="C60" s="137" t="s">
@@ -12128,11 +12197,11 @@
         <f>(F60-I60)/(H60-I60)</f>
         <v>2.8089687261884113E-3</v>
       </c>
-      <c r="L60" s="328">
+      <c r="L60" s="329">
         <f>E66/D66</f>
         <v>3.0114028409222385E-4</v>
       </c>
-      <c r="M60" s="328">
+      <c r="M60" s="329">
         <f>L60*365</f>
         <v>0.1099162036936617</v>
       </c>
@@ -12141,8 +12210,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A61" s="339"/>
-      <c r="B61" s="342"/>
+      <c r="A61" s="345"/>
+      <c r="B61" s="340"/>
       <c r="C61" s="92" t="s">
         <v>180</v>
       </c>
@@ -12173,14 +12242,14 @@
         <f t="shared" ref="K61:K65" si="14">(F61-I61)/(H61-I61)</f>
         <v>0.92315490673160472</v>
       </c>
-      <c r="L61" s="329"/>
-      <c r="M61" s="329"/>
+      <c r="L61" s="330"/>
+      <c r="M61" s="330"/>
       <c r="N61" s="217">
         <v>42929</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A62" s="339"/>
+      <c r="A62" s="345"/>
       <c r="B62" s="148">
         <v>117.98</v>
       </c>
@@ -12214,15 +12283,15 @@
         <f t="shared" si="14"/>
         <v>7.9999999999984819E-2</v>
       </c>
-      <c r="L62" s="329"/>
-      <c r="M62" s="329"/>
+      <c r="L62" s="330"/>
+      <c r="M62" s="330"/>
       <c r="N62" s="217">
         <v>42951</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A63" s="339"/>
-      <c r="B63" s="336">
+      <c r="A63" s="345"/>
+      <c r="B63" s="337">
         <v>118.93</v>
       </c>
       <c r="C63" s="48" t="s">
@@ -12255,15 +12324,15 @@
         <f t="shared" si="14"/>
         <v>5.4053714859446322E-2</v>
       </c>
-      <c r="L63" s="329"/>
-      <c r="M63" s="329"/>
+      <c r="L63" s="330"/>
+      <c r="M63" s="330"/>
       <c r="N63" s="218" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="25.5">
-      <c r="A64" s="339"/>
-      <c r="B64" s="337"/>
+      <c r="A64" s="345"/>
+      <c r="B64" s="338"/>
       <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
@@ -12294,14 +12363,14 @@
         <f t="shared" si="14"/>
         <v>0.65999999999999659</v>
       </c>
-      <c r="L64" s="329"/>
-      <c r="M64" s="329"/>
+      <c r="L64" s="330"/>
+      <c r="M64" s="330"/>
       <c r="N64" s="218" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A65" s="340"/>
+      <c r="A65" s="346"/>
       <c r="B65" s="173">
         <v>29.59</v>
       </c>
@@ -12335,8 +12404,8 @@
         <f t="shared" si="14"/>
         <v>5.4983162451013277E-2</v>
       </c>
-      <c r="L65" s="330"/>
-      <c r="M65" s="330"/>
+      <c r="L65" s="331"/>
+      <c r="M65" s="331"/>
       <c r="N65" s="219" t="s">
         <v>135</v>
       </c>
@@ -12662,10 +12731,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="25.5">
-      <c r="A76" s="325" t="s">
+      <c r="A76" s="326" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="341">
+      <c r="B76" s="339">
         <v>28</v>
       </c>
       <c r="C76" s="137" t="s">
@@ -12698,11 +12767,11 @@
         <f>(F76-I76)/(H76-I76)</f>
         <v>5.6179374523768226E-3</v>
       </c>
-      <c r="L76" s="328">
+      <c r="L76" s="329">
         <f>E82/D82</f>
         <v>3.0104962592234782E-4</v>
       </c>
-      <c r="M76" s="328">
+      <c r="M76" s="329">
         <f>L76*365</f>
         <v>0.10988311346165695</v>
       </c>
@@ -12711,8 +12780,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="25.5">
-      <c r="A77" s="326"/>
-      <c r="B77" s="342"/>
+      <c r="A77" s="327"/>
+      <c r="B77" s="340"/>
       <c r="C77" s="92" t="s">
         <v>180</v>
       </c>
@@ -12743,14 +12812,14 @@
         <f t="shared" ref="K77:K81" si="19">(F77-I77)/(H77-I77)</f>
         <v>1.0000000000000737</v>
       </c>
-      <c r="L77" s="329"/>
-      <c r="M77" s="329"/>
+      <c r="L77" s="330"/>
+      <c r="M77" s="330"/>
       <c r="N77" s="192">
         <v>42929</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="25.5">
-      <c r="A78" s="326"/>
+      <c r="A78" s="327"/>
       <c r="B78" s="148">
         <v>117.98</v>
       </c>
@@ -12784,15 +12853,15 @@
         <f t="shared" si="19"/>
         <v>0.11999999999997724</v>
       </c>
-      <c r="L78" s="329"/>
-      <c r="M78" s="329"/>
+      <c r="L78" s="330"/>
+      <c r="M78" s="330"/>
       <c r="N78" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="25.5">
-      <c r="A79" s="326"/>
-      <c r="B79" s="336">
+      <c r="A79" s="327"/>
+      <c r="B79" s="337">
         <v>118.93</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -12825,15 +12894,15 @@
         <f t="shared" si="19"/>
         <v>8.1080572289169484E-2</v>
       </c>
-      <c r="L79" s="329"/>
-      <c r="M79" s="329"/>
+      <c r="L79" s="330"/>
+      <c r="M79" s="330"/>
       <c r="N79" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="25.5">
-      <c r="A80" s="326"/>
-      <c r="B80" s="337"/>
+      <c r="A80" s="327"/>
+      <c r="B80" s="338"/>
       <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
@@ -12864,14 +12933,14 @@
         <f t="shared" si="19"/>
         <v>0.66999999999999649</v>
       </c>
-      <c r="L80" s="329"/>
-      <c r="M80" s="329"/>
+      <c r="L80" s="330"/>
+      <c r="M80" s="330"/>
       <c r="N80" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A81" s="327"/>
+      <c r="A81" s="328"/>
       <c r="B81" s="173">
         <v>29.59</v>
       </c>
@@ -12905,8 +12974,8 @@
         <f t="shared" si="19"/>
         <v>5.7732320573564623E-2</v>
       </c>
-      <c r="L81" s="330"/>
-      <c r="M81" s="330"/>
+      <c r="L81" s="331"/>
+      <c r="M81" s="331"/>
       <c r="N81" s="194" t="s">
         <v>135</v>
       </c>
@@ -12957,7 +13026,7 @@
       <c r="N82" s="196"/>
     </row>
     <row r="83" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A83" s="333" t="s">
+      <c r="A83" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B83" s="122" t="s">
@@ -12996,7 +13065,7 @@
       <c r="N83" s="197"/>
     </row>
     <row r="84" spans="1:14" ht="25.5">
-      <c r="A84" s="334"/>
+      <c r="A84" s="335"/>
       <c r="B84" s="130" t="s">
         <v>138</v>
       </c>
@@ -13041,7 +13110,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="25.5">
-      <c r="A85" s="335"/>
+      <c r="A85" s="336"/>
       <c r="B85" s="162">
         <v>7.12</v>
       </c>
@@ -13241,7 +13310,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="25.5">
-      <c r="A91" s="325" t="s">
+      <c r="A91" s="326" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="246">
@@ -13277,11 +13346,11 @@
         <f>(F91-I91)/(H91-I91)</f>
         <v>8.4269061785652334E-3</v>
       </c>
-      <c r="L91" s="328">
+      <c r="L91" s="329">
         <f>E96/D96</f>
         <v>2.8163154527786601E-4</v>
       </c>
-      <c r="M91" s="328">
+      <c r="M91" s="329">
         <f>L91*365</f>
         <v>0.10279551402642109</v>
       </c>
@@ -13290,7 +13359,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="25.5">
-      <c r="A92" s="326"/>
+      <c r="A92" s="327"/>
       <c r="B92" s="148">
         <v>117.98</v>
       </c>
@@ -13324,15 +13393,15 @@
         <f t="shared" ref="K92:K95" si="24">(F92-I92)/(H92-I92)</f>
         <v>0.15999999999996964</v>
       </c>
-      <c r="L92" s="329"/>
-      <c r="M92" s="329"/>
+      <c r="L92" s="330"/>
+      <c r="M92" s="330"/>
       <c r="N92" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="25.5">
-      <c r="A93" s="326"/>
-      <c r="B93" s="336">
+      <c r="A93" s="327"/>
+      <c r="B93" s="337">
         <v>118.93</v>
       </c>
       <c r="C93" s="48" t="s">
@@ -13365,15 +13434,15 @@
         <f t="shared" si="24"/>
         <v>0.10810742971889264</v>
       </c>
-      <c r="L93" s="329"/>
-      <c r="M93" s="329"/>
+      <c r="L93" s="330"/>
+      <c r="M93" s="330"/>
       <c r="N93" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="25.5">
-      <c r="A94" s="326"/>
-      <c r="B94" s="337"/>
+      <c r="A94" s="327"/>
+      <c r="B94" s="338"/>
       <c r="C94" s="48" t="s">
         <v>179</v>
       </c>
@@ -13404,14 +13473,14 @@
         <f t="shared" si="24"/>
         <v>0.6799999999999965</v>
       </c>
-      <c r="L94" s="329"/>
-      <c r="M94" s="329"/>
+      <c r="L94" s="330"/>
+      <c r="M94" s="330"/>
       <c r="N94" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A95" s="327"/>
+      <c r="A95" s="328"/>
       <c r="B95" s="173">
         <v>29.59</v>
       </c>
@@ -13445,8 +13514,8 @@
         <f t="shared" si="24"/>
         <v>6.0481478696115969E-2</v>
       </c>
-      <c r="L95" s="330"/>
-      <c r="M95" s="330"/>
+      <c r="L95" s="331"/>
+      <c r="M95" s="331"/>
       <c r="N95" s="194" t="s">
         <v>135</v>
       </c>
@@ -13497,7 +13566,7 @@
       <c r="N96" s="196"/>
     </row>
     <row r="97" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A97" s="333" t="s">
+      <c r="A97" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B97" s="122" t="s">
@@ -13536,7 +13605,7 @@
       <c r="N97" s="197"/>
     </row>
     <row r="98" spans="1:14" ht="25.5">
-      <c r="A98" s="334"/>
+      <c r="A98" s="335"/>
       <c r="B98" s="130" t="s">
         <v>138</v>
       </c>
@@ -13581,7 +13650,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="25.5">
-      <c r="A99" s="335"/>
+      <c r="A99" s="336"/>
       <c r="B99" s="162">
         <v>7.12</v>
       </c>
@@ -13781,7 +13850,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1">
-      <c r="A105" s="325" t="s">
+      <c r="A105" s="326" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="260">
@@ -13806,18 +13875,18 @@
       </c>
       <c r="J105" s="268"/>
       <c r="K105" s="153"/>
-      <c r="L105" s="328">
+      <c r="L105" s="329">
         <f>E111/D111</f>
         <v>2.1993666581101237E-4</v>
       </c>
-      <c r="M105" s="328">
+      <c r="M105" s="329">
         <f>L105*365</f>
         <v>8.0276883021019513E-2</v>
       </c>
       <c r="N105" s="191"/>
     </row>
     <row r="106" spans="1:14" ht="25.5">
-      <c r="A106" s="326"/>
+      <c r="A106" s="327"/>
       <c r="B106" s="269">
         <v>28</v>
       </c>
@@ -13851,14 +13920,14 @@
         <f>(F106-I106)/(H106-I106)</f>
         <v>1.1235874904753645E-2</v>
       </c>
-      <c r="L106" s="329"/>
-      <c r="M106" s="329"/>
+      <c r="L106" s="330"/>
+      <c r="M106" s="330"/>
       <c r="N106" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="25.5">
-      <c r="A107" s="326"/>
+      <c r="A107" s="327"/>
       <c r="B107" s="286">
         <v>117.98</v>
       </c>
@@ -13892,15 +13961,15 @@
         <f t="shared" ref="K107:K110" si="28">(F107-I107)/(H107-I107)</f>
         <v>0.19999999999996207</v>
       </c>
-      <c r="L107" s="329"/>
-      <c r="M107" s="329"/>
+      <c r="L107" s="330"/>
+      <c r="M107" s="330"/>
       <c r="N107" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="25.5">
-      <c r="A108" s="326"/>
-      <c r="B108" s="331">
+      <c r="A108" s="327"/>
+      <c r="B108" s="332">
         <v>118.93</v>
       </c>
       <c r="C108" s="293" t="s">
@@ -13933,15 +14002,15 @@
         <f t="shared" si="28"/>
         <v>0.13513428714861581</v>
       </c>
-      <c r="L108" s="329"/>
-      <c r="M108" s="329"/>
+      <c r="L108" s="330"/>
+      <c r="M108" s="330"/>
       <c r="N108" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="25.5">
-      <c r="A109" s="326"/>
-      <c r="B109" s="332"/>
+      <c r="A109" s="327"/>
+      <c r="B109" s="333"/>
       <c r="C109" s="293" t="s">
         <v>179</v>
       </c>
@@ -13972,14 +14041,14 @@
         <f t="shared" si="28"/>
         <v>0.68999999999999651</v>
       </c>
-      <c r="L109" s="329"/>
-      <c r="M109" s="329"/>
+      <c r="L109" s="330"/>
+      <c r="M109" s="330"/>
       <c r="N109" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A110" s="327"/>
+      <c r="A110" s="328"/>
       <c r="B110" s="282"/>
       <c r="C110" s="294" t="s">
         <v>177</v>
@@ -14011,8 +14080,8 @@
         <f t="shared" si="28"/>
         <v>6.3230636818667321E-2</v>
       </c>
-      <c r="L110" s="330"/>
-      <c r="M110" s="330"/>
+      <c r="L110" s="331"/>
+      <c r="M110" s="331"/>
       <c r="N110" s="194" t="s">
         <v>135</v>
       </c>
@@ -14063,7 +14132,7 @@
       <c r="N111" s="196"/>
     </row>
     <row r="112" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A112" s="333" t="s">
+      <c r="A112" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="122" t="s">
@@ -14102,7 +14171,7 @@
       <c r="N112" s="197"/>
     </row>
     <row r="113" spans="1:14" ht="25.5">
-      <c r="A113" s="334"/>
+      <c r="A113" s="335"/>
       <c r="B113" s="130" t="s">
         <v>138</v>
       </c>
@@ -14147,7 +14216,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="335"/>
+      <c r="A114" s="336"/>
       <c r="B114" s="162">
         <v>7.12</v>
       </c>
@@ -14347,7 +14416,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1">
-      <c r="A120" s="325" t="s">
+      <c r="A120" s="326" t="s">
         <v>231</v>
       </c>
       <c r="B120" s="262">
@@ -14372,18 +14441,18 @@
       </c>
       <c r="J120" s="268"/>
       <c r="K120" s="153"/>
-      <c r="L120" s="328">
+      <c r="L120" s="329">
         <f>E126/D126</f>
         <v>2.1988830431051147E-4</v>
       </c>
-      <c r="M120" s="328">
+      <c r="M120" s="329">
         <f>L120*365</f>
         <v>8.0259231073336684E-2</v>
       </c>
       <c r="N120" s="191"/>
     </row>
     <row r="121" spans="1:14" ht="25.5">
-      <c r="A121" s="326"/>
+      <c r="A121" s="327"/>
       <c r="B121" s="269">
         <v>28</v>
       </c>
@@ -14417,14 +14486,14 @@
         <f>(F121-I121)/(H121-I121)</f>
         <v>1.4044843630942055E-2</v>
       </c>
-      <c r="L121" s="329"/>
-      <c r="M121" s="329"/>
+      <c r="L121" s="330"/>
+      <c r="M121" s="330"/>
       <c r="N121" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="25.5">
-      <c r="A122" s="326"/>
+      <c r="A122" s="327"/>
       <c r="B122" s="286">
         <v>117.98</v>
       </c>
@@ -14458,15 +14527,15 @@
         <f t="shared" ref="K122:K125" si="32">(F122-I122)/(H122-I122)</f>
         <v>0.23999999999995447</v>
       </c>
-      <c r="L122" s="329"/>
-      <c r="M122" s="329"/>
+      <c r="L122" s="330"/>
+      <c r="M122" s="330"/>
       <c r="N122" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="25.5">
-      <c r="A123" s="326"/>
-      <c r="B123" s="331">
+      <c r="A123" s="327"/>
+      <c r="B123" s="332">
         <v>118.93</v>
       </c>
       <c r="C123" s="293" t="s">
@@ -14499,15 +14568,15 @@
         <f t="shared" si="32"/>
         <v>0.16216114457833897</v>
       </c>
-      <c r="L123" s="329"/>
-      <c r="M123" s="329"/>
+      <c r="L123" s="330"/>
+      <c r="M123" s="330"/>
       <c r="N123" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="25.5">
-      <c r="A124" s="326"/>
-      <c r="B124" s="332"/>
+      <c r="A124" s="327"/>
+      <c r="B124" s="333"/>
       <c r="C124" s="293" t="s">
         <v>179</v>
       </c>
@@ -14538,14 +14607,14 @@
         <f t="shared" si="32"/>
         <v>0.69999999999999651</v>
       </c>
-      <c r="L124" s="329"/>
-      <c r="M124" s="329"/>
+      <c r="L124" s="330"/>
+      <c r="M124" s="330"/>
       <c r="N124" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A125" s="327"/>
+      <c r="A125" s="328"/>
       <c r="B125" s="282"/>
       <c r="C125" s="294" t="s">
         <v>177</v>
@@ -14577,8 +14646,8 @@
         <f t="shared" si="32"/>
         <v>6.5979794941218667E-2</v>
       </c>
-      <c r="L125" s="330"/>
-      <c r="M125" s="330"/>
+      <c r="L125" s="331"/>
+      <c r="M125" s="331"/>
       <c r="N125" s="194" t="s">
         <v>135</v>
       </c>
@@ -14629,7 +14698,7 @@
       <c r="N126" s="196"/>
     </row>
     <row r="127" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A127" s="333" t="s">
+      <c r="A127" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B127" s="122" t="s">
@@ -14668,7 +14737,7 @@
       <c r="N127" s="197"/>
     </row>
     <row r="128" spans="1:14" ht="25.5">
-      <c r="A128" s="334"/>
+      <c r="A128" s="335"/>
       <c r="B128" s="130" t="s">
         <v>138</v>
       </c>
@@ -14713,7 +14782,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="28.5">
-      <c r="A129" s="335"/>
+      <c r="A129" s="336"/>
       <c r="B129" s="162">
         <v>7.12</v>
       </c>
@@ -14913,7 +14982,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15" thickBot="1">
-      <c r="A135" s="325" t="s">
+      <c r="A135" s="326" t="s">
         <v>233</v>
       </c>
       <c r="B135" s="262">
@@ -14938,18 +15007,18 @@
       </c>
       <c r="J135" s="268"/>
       <c r="K135" s="153"/>
-      <c r="L135" s="328">
+      <c r="L135" s="329">
         <f>E141/D141</f>
         <v>2.1983996407359162E-4</v>
       </c>
-      <c r="M135" s="328">
+      <c r="M135" s="329">
         <f>L135*365</f>
         <v>8.0241586886860936E-2</v>
       </c>
       <c r="N135" s="191"/>
     </row>
     <row r="136" spans="1:14" ht="25.5">
-      <c r="A136" s="326"/>
+      <c r="A136" s="327"/>
       <c r="B136" s="269">
         <v>28</v>
       </c>
@@ -14983,14 +15052,14 @@
         <f>(F136-I136)/(H136-I136)</f>
         <v>1.6853812357130467E-2</v>
       </c>
-      <c r="L136" s="329"/>
-      <c r="M136" s="329"/>
+      <c r="L136" s="330"/>
+      <c r="M136" s="330"/>
       <c r="N136" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="25.5">
-      <c r="A137" s="326"/>
+      <c r="A137" s="327"/>
       <c r="B137" s="286">
         <v>117.98</v>
       </c>
@@ -15024,15 +15093,15 @@
         <f t="shared" ref="K137:K140" si="36">(F137-I137)/(H137-I137)</f>
         <v>0.2799999999999469</v>
       </c>
-      <c r="L137" s="329"/>
-      <c r="M137" s="329"/>
+      <c r="L137" s="330"/>
+      <c r="M137" s="330"/>
       <c r="N137" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5">
-      <c r="A138" s="326"/>
-      <c r="B138" s="331">
+      <c r="A138" s="327"/>
+      <c r="B138" s="332">
         <v>118.93</v>
       </c>
       <c r="C138" s="293" t="s">
@@ -15065,15 +15134,15 @@
         <f t="shared" si="36"/>
         <v>0.18918800200806213</v>
       </c>
-      <c r="L138" s="329"/>
-      <c r="M138" s="329"/>
+      <c r="L138" s="330"/>
+      <c r="M138" s="330"/>
       <c r="N138" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="25.5">
-      <c r="A139" s="326"/>
-      <c r="B139" s="332"/>
+      <c r="A139" s="327"/>
+      <c r="B139" s="333"/>
       <c r="C139" s="293" t="s">
         <v>179</v>
       </c>
@@ -15104,14 +15173,14 @@
         <f t="shared" si="36"/>
         <v>0.70999999999999652</v>
       </c>
-      <c r="L139" s="329"/>
-      <c r="M139" s="329"/>
+      <c r="L139" s="330"/>
+      <c r="M139" s="330"/>
       <c r="N139" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A140" s="327"/>
+      <c r="A140" s="328"/>
       <c r="B140" s="282"/>
       <c r="C140" s="294" t="s">
         <v>177</v>
@@ -15143,8 +15212,8 @@
         <f t="shared" si="36"/>
         <v>6.8728953063770012E-2</v>
       </c>
-      <c r="L140" s="330"/>
-      <c r="M140" s="330"/>
+      <c r="L140" s="331"/>
+      <c r="M140" s="331"/>
       <c r="N140" s="194" t="s">
         <v>135</v>
       </c>
@@ -15195,7 +15264,7 @@
       <c r="N141" s="196"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A142" s="333" t="s">
+      <c r="A142" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B142" s="122" t="s">
@@ -15234,7 +15303,7 @@
       <c r="N142" s="197"/>
     </row>
     <row r="143" spans="1:14" ht="25.5">
-      <c r="A143" s="334"/>
+      <c r="A143" s="335"/>
       <c r="B143" s="130" t="s">
         <v>138</v>
       </c>
@@ -15279,7 +15348,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="28.5">
-      <c r="A144" s="335"/>
+      <c r="A144" s="336"/>
       <c r="B144" s="162">
         <v>7.12</v>
       </c>
@@ -15479,7 +15548,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15" thickBot="1">
-      <c r="A150" s="325" t="s">
+      <c r="A150" s="326" t="s">
         <v>236</v>
       </c>
       <c r="B150" s="295">
@@ -15504,18 +15573,18 @@
       </c>
       <c r="J150" s="268"/>
       <c r="K150" s="153"/>
-      <c r="L150" s="328">
+      <c r="L150" s="329">
         <f>E156/D156</f>
         <v>2.197916450862322E-4</v>
       </c>
-      <c r="M150" s="328">
+      <c r="M150" s="329">
         <f>L150*365</f>
         <v>8.0223950456474749E-2</v>
       </c>
       <c r="N150" s="191"/>
     </row>
     <row r="151" spans="1:14" ht="25.5">
-      <c r="A151" s="326"/>
+      <c r="A151" s="327"/>
       <c r="B151" s="269">
         <v>28</v>
       </c>
@@ -15549,14 +15618,14 @@
         <f>(F151-I151)/(H151-I151)</f>
         <v>1.9662781083318877E-2</v>
       </c>
-      <c r="L151" s="329"/>
-      <c r="M151" s="329"/>
+      <c r="L151" s="330"/>
+      <c r="M151" s="330"/>
       <c r="N151" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="25.5">
-      <c r="A152" s="326"/>
+      <c r="A152" s="327"/>
       <c r="B152" s="286">
         <v>117.98</v>
       </c>
@@ -15590,15 +15659,15 @@
         <f t="shared" ref="K152:K155" si="40">(F152-I152)/(H152-I152)</f>
         <v>0.31999999999993928</v>
       </c>
-      <c r="L152" s="329"/>
-      <c r="M152" s="329"/>
+      <c r="L152" s="330"/>
+      <c r="M152" s="330"/>
       <c r="N152" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="25.5">
-      <c r="A153" s="326"/>
-      <c r="B153" s="331">
+      <c r="A153" s="327"/>
+      <c r="B153" s="332">
         <v>118.93</v>
       </c>
       <c r="C153" s="293" t="s">
@@ -15631,15 +15700,15 @@
         <f t="shared" si="40"/>
         <v>0.21621485943778529</v>
       </c>
-      <c r="L153" s="329"/>
-      <c r="M153" s="329"/>
+      <c r="L153" s="330"/>
+      <c r="M153" s="330"/>
       <c r="N153" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="25.5">
-      <c r="A154" s="326"/>
-      <c r="B154" s="332"/>
+      <c r="A154" s="327"/>
+      <c r="B154" s="333"/>
       <c r="C154" s="293" t="s">
         <v>179</v>
       </c>
@@ -15670,14 +15739,14 @@
         <f t="shared" si="40"/>
         <v>0.71999999999999653</v>
       </c>
-      <c r="L154" s="329"/>
-      <c r="M154" s="329"/>
+      <c r="L154" s="330"/>
+      <c r="M154" s="330"/>
       <c r="N154" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A155" s="327"/>
+      <c r="A155" s="328"/>
       <c r="B155" s="282"/>
       <c r="C155" s="294" t="s">
         <v>177</v>
@@ -15709,8 +15778,8 @@
         <f t="shared" si="40"/>
         <v>7.1478111186321358E-2</v>
       </c>
-      <c r="L155" s="330"/>
-      <c r="M155" s="330"/>
+      <c r="L155" s="331"/>
+      <c r="M155" s="331"/>
       <c r="N155" s="194" t="s">
         <v>135</v>
       </c>
@@ -15761,7 +15830,7 @@
       <c r="N156" s="196"/>
     </row>
     <row r="157" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A157" s="333" t="s">
+      <c r="A157" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="122" t="s">
@@ -15800,7 +15869,7 @@
       <c r="N157" s="197"/>
     </row>
     <row r="158" spans="1:14" ht="25.5">
-      <c r="A158" s="334"/>
+      <c r="A158" s="335"/>
       <c r="B158" s="130" t="s">
         <v>138</v>
       </c>
@@ -15845,7 +15914,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="28.5">
-      <c r="A159" s="335"/>
+      <c r="A159" s="336"/>
       <c r="B159" s="162">
         <v>7.12</v>
       </c>
@@ -16045,7 +16114,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" thickBot="1">
-      <c r="A165" s="325" t="s">
+      <c r="A165" s="326" t="s">
         <v>239</v>
       </c>
       <c r="B165" s="296">
@@ -16070,18 +16139,18 @@
       </c>
       <c r="J165" s="268"/>
       <c r="K165" s="153"/>
-      <c r="L165" s="328">
+      <c r="L165" s="329">
         <f>E171/D171</f>
         <v>2.1974334733442479E-4</v>
       </c>
-      <c r="M165" s="328">
+      <c r="M165" s="329">
         <f>L165*365</f>
         <v>8.0206321777065048E-2</v>
       </c>
       <c r="N165" s="191"/>
     </row>
     <row r="166" spans="1:14" ht="25.5">
-      <c r="A166" s="326"/>
+      <c r="A166" s="327"/>
       <c r="B166" s="269">
         <v>28</v>
       </c>
@@ -16115,14 +16184,14 @@
         <f>(F166-I166)/(H166-I166)</f>
         <v>2.247174980950729E-2</v>
       </c>
-      <c r="L166" s="329"/>
-      <c r="M166" s="329"/>
+      <c r="L166" s="330"/>
+      <c r="M166" s="330"/>
       <c r="N166" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="25.5">
-      <c r="A167" s="326"/>
+      <c r="A167" s="327"/>
       <c r="B167" s="286">
         <v>117.98</v>
       </c>
@@ -16156,15 +16225,15 @@
         <f t="shared" ref="K167:K170" si="44">(F167-I167)/(H167-I167)</f>
         <v>0.35999999999993171</v>
       </c>
-      <c r="L167" s="329"/>
-      <c r="M167" s="329"/>
+      <c r="L167" s="330"/>
+      <c r="M167" s="330"/>
       <c r="N167" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="25.5">
-      <c r="A168" s="326"/>
-      <c r="B168" s="331">
+      <c r="A168" s="327"/>
+      <c r="B168" s="332">
         <v>118.93</v>
       </c>
       <c r="C168" s="293" t="s">
@@ -16197,15 +16266,15 @@
         <f t="shared" si="44"/>
         <v>0.24324171686750845</v>
       </c>
-      <c r="L168" s="329"/>
-      <c r="M168" s="329"/>
+      <c r="L168" s="330"/>
+      <c r="M168" s="330"/>
       <c r="N168" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="25.5">
-      <c r="A169" s="326"/>
-      <c r="B169" s="332"/>
+      <c r="A169" s="327"/>
+      <c r="B169" s="333"/>
       <c r="C169" s="293" t="s">
         <v>179</v>
       </c>
@@ -16236,14 +16305,14 @@
         <f t="shared" si="44"/>
         <v>0.7299999999999931</v>
       </c>
-      <c r="L169" s="329"/>
-      <c r="M169" s="329"/>
+      <c r="L169" s="330"/>
+      <c r="M169" s="330"/>
       <c r="N169" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A170" s="327"/>
+      <c r="A170" s="328"/>
       <c r="B170" s="282"/>
       <c r="C170" s="294" t="s">
         <v>177</v>
@@ -16275,8 +16344,8 @@
         <f t="shared" si="44"/>
         <v>7.4227269308872704E-2</v>
       </c>
-      <c r="L170" s="330"/>
-      <c r="M170" s="330"/>
+      <c r="L170" s="331"/>
+      <c r="M170" s="331"/>
       <c r="N170" s="194" t="s">
         <v>135</v>
       </c>
@@ -16327,7 +16396,7 @@
       <c r="N171" s="196"/>
     </row>
     <row r="172" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A172" s="333" t="s">
+      <c r="A172" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B172" s="122" t="s">
@@ -16366,7 +16435,7 @@
       <c r="N172" s="197"/>
     </row>
     <row r="173" spans="1:14" ht="25.5">
-      <c r="A173" s="334"/>
+      <c r="A173" s="335"/>
       <c r="B173" s="130" t="s">
         <v>138</v>
       </c>
@@ -16411,7 +16480,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" ht="28.5">
-      <c r="A174" s="335"/>
+      <c r="A174" s="336"/>
       <c r="B174" s="162">
         <v>7.12</v>
       </c>
@@ -16611,7 +16680,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" ht="15" thickBot="1">
-      <c r="A180" s="325" t="s">
+      <c r="A180" s="326" t="s">
         <v>241</v>
       </c>
       <c r="B180" s="297">
@@ -16636,18 +16705,18 @@
       </c>
       <c r="J180" s="268"/>
       <c r="K180" s="153"/>
-      <c r="L180" s="328">
+      <c r="L180" s="329">
         <f>E186/D186</f>
         <v>2.1969507080417343E-4</v>
       </c>
-      <c r="M180" s="328">
+      <c r="M180" s="329">
         <f>L180*365</f>
         <v>8.0188700843523295E-2</v>
       </c>
       <c r="N180" s="191"/>
     </row>
     <row r="181" spans="1:14" ht="25.5">
-      <c r="A181" s="326"/>
+      <c r="A181" s="327"/>
       <c r="B181" s="269">
         <v>28</v>
       </c>
@@ -16681,14 +16750,14 @@
         <f>(F181-I181)/(H181-I181)</f>
         <v>2.52807185356957E-2</v>
       </c>
-      <c r="L181" s="329"/>
-      <c r="M181" s="329"/>
+      <c r="L181" s="330"/>
+      <c r="M181" s="330"/>
       <c r="N181" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="25.5">
-      <c r="A182" s="326"/>
+      <c r="A182" s="327"/>
       <c r="B182" s="286">
         <v>117.98</v>
       </c>
@@ -16722,15 +16791,15 @@
         <f t="shared" ref="K182:K185" si="48">(F182-I182)/(H182-I182)</f>
         <v>0.39999999999992414</v>
       </c>
-      <c r="L182" s="329"/>
-      <c r="M182" s="329"/>
+      <c r="L182" s="330"/>
+      <c r="M182" s="330"/>
       <c r="N182" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="25.5">
-      <c r="A183" s="326"/>
-      <c r="B183" s="331">
+      <c r="A183" s="327"/>
+      <c r="B183" s="332">
         <v>118.93</v>
       </c>
       <c r="C183" s="293" t="s">
@@ -16763,15 +16832,15 @@
         <f t="shared" si="48"/>
         <v>0.27026857429723161</v>
       </c>
-      <c r="L183" s="329"/>
-      <c r="M183" s="329"/>
+      <c r="L183" s="330"/>
+      <c r="M183" s="330"/>
       <c r="N183" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="25.5">
-      <c r="A184" s="326"/>
-      <c r="B184" s="332"/>
+      <c r="A184" s="327"/>
+      <c r="B184" s="333"/>
       <c r="C184" s="293" t="s">
         <v>179</v>
       </c>
@@ -16802,14 +16871,14 @@
         <f t="shared" si="48"/>
         <v>0.73999999999999311</v>
       </c>
-      <c r="L184" s="329"/>
-      <c r="M184" s="329"/>
+      <c r="L184" s="330"/>
+      <c r="M184" s="330"/>
       <c r="N184" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A185" s="327"/>
+      <c r="A185" s="328"/>
       <c r="B185" s="282"/>
       <c r="C185" s="294" t="s">
         <v>177</v>
@@ -16841,8 +16910,8 @@
         <f t="shared" si="48"/>
         <v>7.6976427431424049E-2</v>
       </c>
-      <c r="L185" s="330"/>
-      <c r="M185" s="330"/>
+      <c r="L185" s="331"/>
+      <c r="M185" s="331"/>
       <c r="N185" s="194" t="s">
         <v>135</v>
       </c>
@@ -16893,7 +16962,7 @@
       <c r="N186" s="196"/>
     </row>
     <row r="187" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A187" s="333" t="s">
+      <c r="A187" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B187" s="122" t="s">
@@ -16932,7 +17001,7 @@
       <c r="N187" s="197"/>
     </row>
     <row r="188" spans="1:14" ht="25.5">
-      <c r="A188" s="334"/>
+      <c r="A188" s="335"/>
       <c r="B188" s="130" t="s">
         <v>138</v>
       </c>
@@ -16977,7 +17046,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" ht="28.5">
-      <c r="A189" s="335"/>
+      <c r="A189" s="336"/>
       <c r="B189" s="162">
         <v>7.12</v>
       </c>
@@ -17177,7 +17246,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="15" thickBot="1">
-      <c r="A195" s="325" t="s">
+      <c r="A195" s="326" t="s">
         <v>243</v>
       </c>
       <c r="B195" s="297">
@@ -17202,18 +17271,18 @@
       </c>
       <c r="J195" s="268"/>
       <c r="K195" s="153"/>
-      <c r="L195" s="328">
+      <c r="L195" s="329">
         <f>E201/D201</f>
         <v>2.1964681548149428E-4</v>
       </c>
-      <c r="M195" s="328">
+      <c r="M195" s="329">
         <f>L195*365</f>
         <v>8.0171087650745418E-2</v>
       </c>
       <c r="N195" s="191"/>
     </row>
     <row r="196" spans="1:14" ht="25.5">
-      <c r="A196" s="326"/>
+      <c r="A196" s="327"/>
       <c r="B196" s="269">
         <v>28</v>
       </c>
@@ -17247,14 +17316,14 @@
         <f>(F196-I196)/(H196-I196)</f>
         <v>2.808968726188411E-2</v>
       </c>
-      <c r="L196" s="329"/>
-      <c r="M196" s="329"/>
+      <c r="L196" s="330"/>
+      <c r="M196" s="330"/>
       <c r="N196" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="25.5">
-      <c r="A197" s="326"/>
+      <c r="A197" s="327"/>
       <c r="B197" s="286">
         <v>117.98</v>
       </c>
@@ -17288,15 +17357,15 @@
         <f t="shared" ref="K197:K200" si="52">(F197-I197)/(H197-I197)</f>
         <v>0.43999999999991657</v>
       </c>
-      <c r="L197" s="329"/>
-      <c r="M197" s="329"/>
+      <c r="L197" s="330"/>
+      <c r="M197" s="330"/>
       <c r="N197" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="25.5">
-      <c r="A198" s="326"/>
-      <c r="B198" s="331">
+      <c r="A198" s="327"/>
+      <c r="B198" s="332">
         <v>118.93</v>
       </c>
       <c r="C198" s="293" t="s">
@@ -17329,15 +17398,15 @@
         <f t="shared" si="52"/>
         <v>0.29729543172695477</v>
       </c>
-      <c r="L198" s="329"/>
-      <c r="M198" s="329"/>
+      <c r="L198" s="330"/>
+      <c r="M198" s="330"/>
       <c r="N198" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="25.5">
-      <c r="A199" s="326"/>
-      <c r="B199" s="332"/>
+      <c r="A199" s="327"/>
+      <c r="B199" s="333"/>
       <c r="C199" s="293" t="s">
         <v>179</v>
       </c>
@@ -17368,14 +17437,14 @@
         <f t="shared" si="52"/>
         <v>0.74999999999999312</v>
       </c>
-      <c r="L199" s="329"/>
-      <c r="M199" s="329"/>
+      <c r="L199" s="330"/>
+      <c r="M199" s="330"/>
       <c r="N199" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A200" s="327"/>
+      <c r="A200" s="328"/>
       <c r="B200" s="282"/>
       <c r="C200" s="294" t="s">
         <v>177</v>
@@ -17407,8 +17476,8 @@
         <f t="shared" si="52"/>
         <v>7.9725585553975409E-2</v>
       </c>
-      <c r="L200" s="330"/>
-      <c r="M200" s="330"/>
+      <c r="L200" s="331"/>
+      <c r="M200" s="331"/>
       <c r="N200" s="194" t="s">
         <v>135</v>
       </c>
@@ -17459,7 +17528,7 @@
       <c r="N201" s="196"/>
     </row>
     <row r="202" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A202" s="333" t="s">
+      <c r="A202" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B202" s="122" t="s">
@@ -17498,7 +17567,7 @@
       <c r="N202" s="197"/>
     </row>
     <row r="203" spans="1:14" ht="25.5">
-      <c r="A203" s="334"/>
+      <c r="A203" s="335"/>
       <c r="B203" s="130" t="s">
         <v>138</v>
       </c>
@@ -17543,7 +17612,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="28.5">
-      <c r="A204" s="335"/>
+      <c r="A204" s="336"/>
       <c r="B204" s="162">
         <v>7.12</v>
       </c>
@@ -17743,7 +17812,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" ht="15" thickBot="1">
-      <c r="A210" s="325" t="s">
+      <c r="A210" s="326" t="s">
         <v>246</v>
       </c>
       <c r="B210" s="298">
@@ -17768,18 +17837,18 @@
       </c>
       <c r="J210" s="268"/>
       <c r="K210" s="153"/>
-      <c r="L210" s="328">
+      <c r="L210" s="329">
         <f>E216/D216</f>
         <v>2.1959858135241596E-4</v>
       </c>
-      <c r="M210" s="328">
+      <c r="M210" s="329">
         <f>L210*365</f>
         <v>8.0153482193631831E-2</v>
       </c>
       <c r="N210" s="191"/>
     </row>
     <row r="211" spans="1:14" ht="25.5">
-      <c r="A211" s="326"/>
+      <c r="A211" s="327"/>
       <c r="B211" s="269">
         <v>59.19</v>
       </c>
@@ -17813,14 +17882,14 @@
         <f>(F211-I211)/(H211-I211)</f>
         <v>3.0898655988072524E-2</v>
       </c>
-      <c r="L211" s="329"/>
-      <c r="M211" s="329"/>
+      <c r="L211" s="330"/>
+      <c r="M211" s="330"/>
       <c r="N211" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="25.5">
-      <c r="A212" s="326"/>
+      <c r="A212" s="327"/>
       <c r="B212" s="286">
         <v>117.98</v>
       </c>
@@ -17854,15 +17923,15 @@
         <f t="shared" ref="K212:K215" si="56">(F212-I212)/(H212-I212)</f>
         <v>0.47999999999990894</v>
       </c>
-      <c r="L212" s="329"/>
-      <c r="M212" s="329"/>
+      <c r="L212" s="330"/>
+      <c r="M212" s="330"/>
       <c r="N212" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="25.5">
-      <c r="A213" s="326"/>
-      <c r="B213" s="331">
+      <c r="A213" s="327"/>
+      <c r="B213" s="332">
         <v>118.93</v>
       </c>
       <c r="C213" s="293" t="s">
@@ -17895,15 +17964,15 @@
         <f t="shared" si="56"/>
         <v>0.32432228915667793</v>
       </c>
-      <c r="L213" s="329"/>
-      <c r="M213" s="329"/>
+      <c r="L213" s="330"/>
+      <c r="M213" s="330"/>
       <c r="N213" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="25.5">
-      <c r="A214" s="326"/>
-      <c r="B214" s="332"/>
+      <c r="A214" s="327"/>
+      <c r="B214" s="333"/>
       <c r="C214" s="293" t="s">
         <v>179</v>
       </c>
@@ -17934,14 +18003,14 @@
         <f t="shared" si="56"/>
         <v>0.75999999999999313</v>
       </c>
-      <c r="L214" s="329"/>
-      <c r="M214" s="329"/>
+      <c r="L214" s="330"/>
+      <c r="M214" s="330"/>
       <c r="N214" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A215" s="327"/>
+      <c r="A215" s="328"/>
       <c r="B215" s="282"/>
       <c r="C215" s="294" t="s">
         <v>177</v>
@@ -17973,8 +18042,8 @@
         <f t="shared" si="56"/>
         <v>8.2474743676526754E-2</v>
       </c>
-      <c r="L215" s="330"/>
-      <c r="M215" s="330"/>
+      <c r="L215" s="331"/>
+      <c r="M215" s="331"/>
       <c r="N215" s="194" t="s">
         <v>135</v>
       </c>
@@ -18025,7 +18094,7 @@
       <c r="N216" s="196"/>
     </row>
     <row r="217" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A217" s="333" t="s">
+      <c r="A217" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B217" s="122" t="s">
@@ -18064,7 +18133,7 @@
       <c r="N217" s="197"/>
     </row>
     <row r="218" spans="1:14" ht="25.5">
-      <c r="A218" s="334"/>
+      <c r="A218" s="335"/>
       <c r="B218" s="130" t="s">
         <v>138</v>
       </c>
@@ -18109,7 +18178,7 @@
       </c>
     </row>
     <row r="219" spans="1:14" ht="28.5">
-      <c r="A219" s="335"/>
+      <c r="A219" s="336"/>
       <c r="B219" s="162">
         <v>7.12</v>
       </c>
@@ -18309,7 +18378,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="15" thickBot="1">
-      <c r="A225" s="325" t="s">
+      <c r="A225" s="326" t="s">
         <v>249</v>
       </c>
       <c r="B225" s="298">
@@ -18334,18 +18403,18 @@
       </c>
       <c r="J225" s="268"/>
       <c r="K225" s="153"/>
-      <c r="L225" s="328">
+      <c r="L225" s="329">
         <f>E231/D231</f>
         <v>2.1955062766032063E-4</v>
       </c>
-      <c r="M225" s="328">
+      <c r="M225" s="329">
         <f>L225*365</f>
         <v>8.0135979096017038E-2</v>
       </c>
       <c r="N225" s="191"/>
     </row>
     <row r="226" spans="1:14" ht="25.5">
-      <c r="A226" s="326"/>
+      <c r="A226" s="327"/>
       <c r="B226" s="269">
         <v>59.19</v>
       </c>
@@ -18379,14 +18448,14 @@
         <f>(F226-I226)/(H226-I226)</f>
         <v>3.3707624714260934E-2</v>
       </c>
-      <c r="L226" s="329"/>
-      <c r="M226" s="329"/>
+      <c r="L226" s="330"/>
+      <c r="M226" s="330"/>
       <c r="N226" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="25.5">
-      <c r="A227" s="326"/>
+      <c r="A227" s="327"/>
       <c r="B227" s="286">
         <v>117.98</v>
       </c>
@@ -18420,15 +18489,15 @@
         <f t="shared" ref="K227:K230" si="60">(F227-I227)/(H227-I227)</f>
         <v>0.51999999999990132</v>
       </c>
-      <c r="L227" s="329"/>
-      <c r="M227" s="329"/>
+      <c r="L227" s="330"/>
+      <c r="M227" s="330"/>
       <c r="N227" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="25.5">
-      <c r="A228" s="326"/>
-      <c r="B228" s="331">
+      <c r="A228" s="327"/>
+      <c r="B228" s="332">
         <v>118.93</v>
       </c>
       <c r="C228" s="293" t="s">
@@ -18461,15 +18530,15 @@
         <f t="shared" si="60"/>
         <v>0.3513491465864011</v>
       </c>
-      <c r="L228" s="329"/>
-      <c r="M228" s="329"/>
+      <c r="L228" s="330"/>
+      <c r="M228" s="330"/>
       <c r="N228" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="25.5">
-      <c r="A229" s="326"/>
-      <c r="B229" s="332"/>
+      <c r="A229" s="327"/>
+      <c r="B229" s="333"/>
       <c r="C229" s="293" t="s">
         <v>179</v>
       </c>
@@ -18500,14 +18569,14 @@
         <f t="shared" si="60"/>
         <v>0.76999999999999313</v>
       </c>
-      <c r="L229" s="329"/>
-      <c r="M229" s="329"/>
+      <c r="L229" s="330"/>
+      <c r="M229" s="330"/>
       <c r="N229" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A230" s="327"/>
+      <c r="A230" s="328"/>
       <c r="B230" s="282">
         <v>98.64</v>
       </c>
@@ -18541,8 +18610,8 @@
         <f t="shared" si="60"/>
         <v>8.517376517677365E-2</v>
       </c>
-      <c r="L230" s="330"/>
-      <c r="M230" s="330"/>
+      <c r="L230" s="331"/>
+      <c r="M230" s="331"/>
       <c r="N230" s="194" t="s">
         <v>135</v>
       </c>
@@ -18593,7 +18662,7 @@
       <c r="N231" s="196"/>
     </row>
     <row r="232" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A232" s="333" t="s">
+      <c r="A232" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B232" s="122" t="s">
@@ -18632,7 +18701,7 @@
       <c r="N232" s="197"/>
     </row>
     <row r="233" spans="1:14" ht="25.5">
-      <c r="A233" s="334"/>
+      <c r="A233" s="335"/>
       <c r="B233" s="130" t="s">
         <v>138</v>
       </c>
@@ -18678,7 +18747,7 @@
       </c>
     </row>
     <row r="234" spans="1:14" ht="28.5">
-      <c r="A234" s="335"/>
+      <c r="A234" s="336"/>
       <c r="B234" s="162">
         <v>7.12</v>
       </c>
@@ -18878,7 +18947,7 @@
       </c>
     </row>
     <row r="240" spans="1:14" ht="15" thickBot="1">
-      <c r="A240" s="325" t="s">
+      <c r="A240" s="326" t="s">
         <v>251</v>
       </c>
       <c r="B240" s="299">
@@ -18903,18 +18972,18 @@
       </c>
       <c r="J240" s="268"/>
       <c r="K240" s="153"/>
-      <c r="L240" s="328">
+      <c r="L240" s="329">
         <f>E246/D246</f>
         <v>2.1950243576277596E-4</v>
       </c>
-      <c r="M240" s="328">
+      <c r="M240" s="329">
         <f>L240*365</f>
         <v>8.011838905341323E-2</v>
       </c>
       <c r="N240" s="191"/>
     </row>
     <row r="241" spans="1:14" ht="25.5">
-      <c r="A241" s="326"/>
+      <c r="A241" s="327"/>
       <c r="B241" s="269">
         <v>59.19</v>
       </c>
@@ -18948,14 +19017,14 @@
         <f>(F241-I241)/(H241-I241)</f>
         <v>3.6516593440449344E-2</v>
       </c>
-      <c r="L241" s="329"/>
-      <c r="M241" s="329"/>
+      <c r="L241" s="330"/>
+      <c r="M241" s="330"/>
       <c r="N241" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="25.5">
-      <c r="A242" s="326"/>
+      <c r="A242" s="327"/>
       <c r="B242" s="286">
         <v>117.98</v>
       </c>
@@ -18989,15 +19058,15 @@
         <f t="shared" ref="K242:K245" si="64">(F242-I242)/(H242-I242)</f>
         <v>0.5599999999998938</v>
       </c>
-      <c r="L242" s="329"/>
-      <c r="M242" s="329"/>
+      <c r="L242" s="330"/>
+      <c r="M242" s="330"/>
       <c r="N242" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="25.5">
-      <c r="A243" s="326"/>
-      <c r="B243" s="331">
+      <c r="A243" s="327"/>
+      <c r="B243" s="332">
         <v>118.93</v>
       </c>
       <c r="C243" s="293" t="s">
@@ -19030,15 +19099,15 @@
         <f t="shared" si="64"/>
         <v>0.37837600401612426</v>
       </c>
-      <c r="L243" s="329"/>
-      <c r="M243" s="329"/>
+      <c r="L243" s="330"/>
+      <c r="M243" s="330"/>
       <c r="N243" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="244" spans="1:14" ht="25.5">
-      <c r="A244" s="326"/>
-      <c r="B244" s="332"/>
+      <c r="A244" s="327"/>
+      <c r="B244" s="333"/>
       <c r="C244" s="293" t="s">
         <v>179</v>
       </c>
@@ -19069,14 +19138,14 @@
         <f t="shared" si="64"/>
         <v>0.77999999999999303</v>
       </c>
-      <c r="L244" s="329"/>
-      <c r="M244" s="329"/>
+      <c r="L244" s="330"/>
+      <c r="M244" s="330"/>
       <c r="N244" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A245" s="327"/>
+      <c r="A245" s="328"/>
       <c r="B245" s="282">
         <v>98.64</v>
       </c>
@@ -19110,8 +19179,8 @@
         <f t="shared" si="64"/>
         <v>8.7922923299324995E-2</v>
       </c>
-      <c r="L245" s="330"/>
-      <c r="M245" s="330"/>
+      <c r="L245" s="331"/>
+      <c r="M245" s="331"/>
       <c r="N245" s="194" t="s">
         <v>135</v>
       </c>
@@ -19162,7 +19231,7 @@
       <c r="N246" s="196"/>
     </row>
     <row r="247" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A247" s="333" t="s">
+      <c r="A247" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B247" s="122" t="s">
@@ -19201,7 +19270,7 @@
       <c r="N247" s="197"/>
     </row>
     <row r="248" spans="1:14" ht="25.5">
-      <c r="A248" s="334"/>
+      <c r="A248" s="335"/>
       <c r="B248" s="130" t="s">
         <v>138</v>
       </c>
@@ -19247,7 +19316,7 @@
       </c>
     </row>
     <row r="249" spans="1:14" ht="28.5">
-      <c r="A249" s="335"/>
+      <c r="A249" s="336"/>
       <c r="B249" s="162">
         <v>7.12</v>
       </c>
@@ -19447,7 +19516,7 @@
       </c>
     </row>
     <row r="255" spans="1:14" ht="15" thickBot="1">
-      <c r="A255" s="325" t="s">
+      <c r="A255" s="326" t="s">
         <v>254</v>
       </c>
       <c r="B255" s="299">
@@ -19472,18 +19541,18 @@
       </c>
       <c r="J255" s="268"/>
       <c r="K255" s="153"/>
-      <c r="L255" s="328">
+      <c r="L255" s="329">
         <f>E261/D261</f>
         <v>2.1945426501706616E-4</v>
       </c>
-      <c r="M255" s="328">
+      <c r="M255" s="329">
         <f>L255*365</f>
         <v>8.0100806731229143E-2</v>
       </c>
       <c r="N255" s="191"/>
     </row>
     <row r="256" spans="1:14" ht="25.5">
-      <c r="A256" s="326"/>
+      <c r="A256" s="327"/>
       <c r="B256" s="269">
         <v>59.19</v>
       </c>
@@ -19517,14 +19586,14 @@
         <f>(F256-I256)/(H256-I256)</f>
         <v>3.9325562166637754E-2</v>
       </c>
-      <c r="L256" s="329"/>
-      <c r="M256" s="329"/>
+      <c r="L256" s="330"/>
+      <c r="M256" s="330"/>
       <c r="N256" s="191" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:14" ht="25.5">
-      <c r="A257" s="326"/>
+      <c r="A257" s="327"/>
       <c r="B257" s="286">
         <v>117.98</v>
       </c>
@@ -19558,15 +19627,15 @@
         <f t="shared" ref="K257:K260" si="68">(F257-I257)/(H257-I257)</f>
         <v>0.59999999999988618</v>
       </c>
-      <c r="L257" s="329"/>
-      <c r="M257" s="329"/>
+      <c r="L257" s="330"/>
+      <c r="M257" s="330"/>
       <c r="N257" s="192">
         <v>42951</v>
       </c>
     </row>
     <row r="258" spans="1:14" ht="25.5">
-      <c r="A258" s="326"/>
-      <c r="B258" s="331">
+      <c r="A258" s="327"/>
+      <c r="B258" s="332">
         <v>118.93</v>
       </c>
       <c r="C258" s="293" t="s">
@@ -19599,15 +19668,15 @@
         <f t="shared" si="68"/>
         <v>0.40540286144584742</v>
       </c>
-      <c r="L258" s="329"/>
-      <c r="M258" s="329"/>
+      <c r="L258" s="330"/>
+      <c r="M258" s="330"/>
       <c r="N258" s="193" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="259" spans="1:14" ht="25.5">
-      <c r="A259" s="326"/>
-      <c r="B259" s="332"/>
+      <c r="A259" s="327"/>
+      <c r="B259" s="333"/>
       <c r="C259" s="293" t="s">
         <v>179</v>
       </c>
@@ -19638,14 +19707,14 @@
         <f t="shared" si="68"/>
         <v>0.78999999999999304</v>
       </c>
-      <c r="L259" s="329"/>
-      <c r="M259" s="329"/>
+      <c r="L259" s="330"/>
+      <c r="M259" s="330"/>
       <c r="N259" s="193" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A260" s="327"/>
+      <c r="A260" s="328"/>
       <c r="B260" s="282">
         <v>98.64</v>
       </c>
@@ -19679,8 +19748,8 @@
         <f t="shared" si="68"/>
         <v>9.0672081421876341E-2</v>
       </c>
-      <c r="L260" s="330"/>
-      <c r="M260" s="330"/>
+      <c r="L260" s="331"/>
+      <c r="M260" s="331"/>
       <c r="N260" s="194" t="s">
         <v>135</v>
       </c>
@@ -19731,7 +19800,7 @@
       <c r="N261" s="196"/>
     </row>
     <row r="262" spans="1:14" ht="26.25" thickTop="1">
-      <c r="A262" s="333" t="s">
+      <c r="A262" s="334" t="s">
         <v>196</v>
       </c>
       <c r="B262" s="122" t="s">
@@ -19770,7 +19839,7 @@
       <c r="N262" s="197"/>
     </row>
     <row r="263" spans="1:14" ht="25.5">
-      <c r="A263" s="334"/>
+      <c r="A263" s="335"/>
       <c r="B263" s="130" t="s">
         <v>138</v>
       </c>
@@ -19816,7 +19885,7 @@
       </c>
     </row>
     <row r="264" spans="1:14" ht="28.5">
-      <c r="A264" s="335"/>
+      <c r="A264" s="336"/>
       <c r="B264" s="162">
         <v>7.12</v>
       </c>
@@ -19970,55 +20039,1190 @@
         <v>7938.4237121213273</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="15" thickTop="1"/>
+    <row r="268" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="269" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A269" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C269" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F269" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G269" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H269" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J269" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K269" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L269" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M269" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N269" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15" thickBot="1">
+      <c r="A270" s="326" t="s">
+        <v>256</v>
+      </c>
+      <c r="B270" s="300">
+        <v>78.91</v>
+      </c>
+      <c r="C270" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D270" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E270" s="264"/>
+      <c r="F270" s="264">
+        <f>D270</f>
+        <v>11100</v>
+      </c>
+      <c r="G270" s="265"/>
+      <c r="H270" s="266"/>
+      <c r="I270" s="267">
+        <f>D270</f>
+        <v>11100</v>
+      </c>
+      <c r="J270" s="268"/>
+      <c r="K270" s="153"/>
+      <c r="L270" s="329">
+        <f>E276/D276</f>
+        <v>2.1940611540926876E-4</v>
+      </c>
+      <c r="M270" s="329">
+        <f>L270*365</f>
+        <v>8.0083232124383105E-2</v>
+      </c>
+      <c r="N270" s="191"/>
+    </row>
+    <row r="271" spans="1:14" ht="25.5">
+      <c r="A271" s="327"/>
+      <c r="B271" s="269">
+        <v>59.19</v>
+      </c>
+      <c r="C271" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D271" s="270">
+        <v>8548.5128000000077</v>
+      </c>
+      <c r="E271" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F271" s="270">
+        <f>D271+E271</f>
+        <v>8551.9780000000083</v>
+      </c>
+      <c r="G271" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H271" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I271" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J271" s="274">
+        <f>E271/I271</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K271" s="275">
+        <f>(F271-I271)/(H271-I271)</f>
+        <v>4.2134530892826171E-2</v>
+      </c>
+      <c r="L271" s="330"/>
+      <c r="M271" s="330"/>
+      <c r="N271" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="25.5">
+      <c r="A272" s="327"/>
+      <c r="B272" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C272" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D272" s="287">
+        <v>10028.769999999995</v>
+      </c>
+      <c r="E272" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F272" s="287">
+        <f>D272+E272</f>
+        <v>10030.687999999995</v>
+      </c>
+      <c r="G272" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H272" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I272" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J272" s="274">
+        <f t="shared" ref="J272:J275" si="71">E272/I272</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K272" s="276">
+        <f t="shared" ref="K272:K275" si="72">(F272-I272)/(H272-I272)</f>
+        <v>0.63999999999987855</v>
+      </c>
+      <c r="L272" s="330"/>
+      <c r="M272" s="330"/>
+      <c r="N272" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="25.5">
+      <c r="A273" s="327"/>
+      <c r="B273" s="332">
+        <v>118.93</v>
+      </c>
+      <c r="C273" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D273" s="279">
+        <v>10032.302500000005</v>
+      </c>
+      <c r="E273" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F273" s="279">
+        <f t="shared" ref="F273:F274" si="73">D273+E273</f>
+        <v>10034.456000000006</v>
+      </c>
+      <c r="G273" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H273" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I273" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J273" s="274">
+        <f t="shared" si="71"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K273" s="276">
+        <f t="shared" si="72"/>
+        <v>0.43242971887557058</v>
+      </c>
+      <c r="L273" s="330"/>
+      <c r="M273" s="330"/>
+      <c r="N273" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="25.5">
+      <c r="A274" s="327"/>
+      <c r="B274" s="333"/>
+      <c r="C274" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D274" s="279">
+        <v>1025.9751999999999</v>
+      </c>
+      <c r="E274" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F274" s="279">
+        <f t="shared" si="73"/>
+        <v>1026.3039999999999</v>
+      </c>
+      <c r="G274" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H274" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I274" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J274" s="274">
+        <f t="shared" si="71"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K274" s="276">
+        <f t="shared" si="72"/>
+        <v>0.79999999999999305</v>
+      </c>
+      <c r="L274" s="330"/>
+      <c r="M274" s="330"/>
+      <c r="N274" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A275" s="328"/>
+      <c r="B275" s="282">
+        <v>98.64</v>
+      </c>
+      <c r="C275" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D275" s="283">
+        <v>10108.510000000002</v>
+      </c>
+      <c r="E275" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F275" s="284">
+        <f>D275+E275</f>
+        <v>10111.800000000003</v>
+      </c>
+      <c r="G275" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H275" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I275" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J275" s="274">
+        <f t="shared" si="71"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K275" s="276">
+        <f t="shared" si="72"/>
+        <v>9.3421239544427687E-2</v>
+      </c>
+      <c r="L275" s="331"/>
+      <c r="M275" s="331"/>
+      <c r="N275" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A276" s="195" t="s">
+        <v>79</v>
+      </c>
+      <c r="B276" s="174">
+        <f>SUM(B270:B275)</f>
+        <v>473.65</v>
+      </c>
+      <c r="C276" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D276" s="11">
+        <f>SUM(D270:D275)</f>
+        <v>50844.070500000009</v>
+      </c>
+      <c r="E276" s="61">
+        <f>SUM(E270:E275)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F276" s="11">
+        <f>SUM(F270:F275)</f>
+        <v>50855.22600000001</v>
+      </c>
+      <c r="G276" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H276" s="66">
+        <f>L270*10000</f>
+        <v>2.1940611540926875</v>
+      </c>
+      <c r="I276" s="158">
+        <f>SUM(I270:I275)</f>
+        <v>50600</v>
+      </c>
+      <c r="J276" s="68"/>
+      <c r="K276" s="68"/>
+      <c r="L276" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M276" s="66">
+        <f>M270*10000</f>
+        <v>800.83232124383107</v>
+      </c>
+      <c r="N276" s="196"/>
+    </row>
+    <row r="277" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A277" s="334" t="s">
+        <v>196</v>
+      </c>
+      <c r="B277" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C277" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D277" s="123">
+        <v>1425.68</v>
+      </c>
+      <c r="E277" s="124">
+        <v>0</v>
+      </c>
+      <c r="F277" s="124">
+        <f>D277+E277</f>
+        <v>1425.68</v>
+      </c>
+      <c r="G277" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H277" s="123">
+        <f>F277</f>
+        <v>1425.68</v>
+      </c>
+      <c r="I277" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J277" s="127">
+        <f>(H277-I277)/I277</f>
+        <v>-4.9546666666666621E-2</v>
+      </c>
+      <c r="K277" s="127"/>
+      <c r="L277" s="128"/>
+      <c r="M277" s="129"/>
+      <c r="N277" s="197"/>
+    </row>
+    <row r="278" spans="1:14" ht="25.5">
+      <c r="A278" s="335"/>
+      <c r="B278" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C278" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D278" s="131">
+        <v>1470.03</v>
+      </c>
+      <c r="E278" s="132">
+        <v>0</v>
+      </c>
+      <c r="F278" s="132">
+        <f>D278+E278</f>
+        <v>1470.03</v>
+      </c>
+      <c r="G278" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H278" s="131">
+        <f>F278</f>
+        <v>1470.03</v>
+      </c>
+      <c r="I278" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J278" s="168">
+        <f>(H278-I278)/I278</f>
+        <v>-1.9980000000000019E-2</v>
+      </c>
+      <c r="K278" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L278" s="243">
+        <f>F278/1026.56</f>
+        <v>1.4319961814214464</v>
+      </c>
+      <c r="M278" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N278" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="28.5">
+      <c r="A279" s="336"/>
+      <c r="B279" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C279" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D279" s="164">
+        <v>10507.799999999996</v>
+      </c>
+      <c r="E279" s="163">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F279" s="163">
+        <f>D279+E279</f>
+        <v>10505.499999999996</v>
+      </c>
+      <c r="G279" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H279" s="166">
+        <f>F279</f>
+        <v>10505.499999999996</v>
+      </c>
+      <c r="I279" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J279" s="239">
+        <f t="shared" ref="J279" si="74">E279/D279</f>
+        <v>-2.1888501874797777E-4</v>
+      </c>
+      <c r="K279" s="277">
+        <f>(F279-I279)/I279</f>
+        <v>5.2380952380917732E-4</v>
+      </c>
+      <c r="L279" s="175"/>
+      <c r="M279" s="176"/>
+      <c r="N279" s="198"/>
+    </row>
+    <row r="280" spans="1:14">
+      <c r="A280" s="199"/>
+      <c r="B280" s="186"/>
+      <c r="C280" s="186"/>
+      <c r="D280" s="186"/>
+      <c r="E280" s="186"/>
+      <c r="F280" s="186"/>
+      <c r="G280" s="186"/>
+      <c r="H280" s="186"/>
+      <c r="I280" s="186"/>
+      <c r="J280" s="186"/>
+      <c r="K280" s="186"/>
+      <c r="L280" s="186"/>
+      <c r="M280" s="186"/>
+      <c r="N280" s="200"/>
+    </row>
+    <row r="281" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A281" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D281" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E281" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F281" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G281" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H281" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I281" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J281" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K281" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L281" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M281" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N281" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A282" s="203" t="s">
+        <v>257</v>
+      </c>
+      <c r="B282" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C282" s="205">
+        <f>F276+B276</f>
+        <v>51328.876000000011</v>
+      </c>
+      <c r="D282" s="205">
+        <f>I276</f>
+        <v>50600</v>
+      </c>
+      <c r="E282" s="206">
+        <v>34</v>
+      </c>
+      <c r="F282" s="207">
+        <f>C282-D282</f>
+        <v>728.87600000001112</v>
+      </c>
+      <c r="G282" s="208">
+        <f>F282/D282</f>
+        <v>1.4404664031620773E-2</v>
+      </c>
+      <c r="H282" s="207">
+        <f>F282/E282</f>
+        <v>21.437529411765034</v>
+      </c>
+      <c r="I282" s="208">
+        <f>G282/E282</f>
+        <v>4.2366658916531685E-4</v>
+      </c>
+      <c r="J282" s="209">
+        <f>H282*10000/D282</f>
+        <v>4.2366658916531685</v>
+      </c>
+      <c r="K282" s="210">
+        <f>B276</f>
+        <v>473.65</v>
+      </c>
+      <c r="L282" s="210">
+        <f>F282-K282</f>
+        <v>255.22600000001114</v>
+      </c>
+      <c r="M282" s="208">
+        <f>I282*365</f>
+        <v>0.15463830504534065</v>
+      </c>
+      <c r="N282" s="211">
+        <f>H282*365</f>
+        <v>7824.6982352942377</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="284" spans="1:14" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A284" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C284" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G284" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I284" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="J284" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="K284" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="L284" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="M284" s="188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N284" s="190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="15" thickBot="1">
+      <c r="A285" s="326" t="s">
+        <v>258</v>
+      </c>
+      <c r="B285" s="300">
+        <v>78.91</v>
+      </c>
+      <c r="C285" s="290" t="s">
+        <v>229</v>
+      </c>
+      <c r="D285" s="264">
+        <v>11100</v>
+      </c>
+      <c r="E285" s="264"/>
+      <c r="F285" s="264">
+        <f>D285</f>
+        <v>11100</v>
+      </c>
+      <c r="G285" s="265"/>
+      <c r="H285" s="266"/>
+      <c r="I285" s="267">
+        <f>D285</f>
+        <v>11100</v>
+      </c>
+      <c r="J285" s="268"/>
+      <c r="K285" s="153"/>
+      <c r="L285" s="329">
+        <f>E291/D291</f>
+        <v>2.1935798692547347E-4</v>
+      </c>
+      <c r="M285" s="329">
+        <f>L285*365</f>
+        <v>8.0065665227797816E-2</v>
+      </c>
+      <c r="N285" s="191"/>
+    </row>
+    <row r="286" spans="1:14" ht="25.5">
+      <c r="A286" s="327"/>
+      <c r="B286" s="269">
+        <v>59.19</v>
+      </c>
+      <c r="C286" s="291" t="s">
+        <v>222</v>
+      </c>
+      <c r="D286" s="270">
+        <v>8551.9780000000083</v>
+      </c>
+      <c r="E286" s="270">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="F286" s="270">
+        <f>D286+E286</f>
+        <v>8555.4432000000088</v>
+      </c>
+      <c r="G286" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="H286" s="272">
+        <v>9733.6200000000008</v>
+      </c>
+      <c r="I286" s="273">
+        <v>8500</v>
+      </c>
+      <c r="J286" s="274">
+        <f>E286/I286</f>
+        <v>4.0767058823529408E-4</v>
+      </c>
+      <c r="K286" s="275">
+        <f>(F286-I286)/(H286-I286)</f>
+        <v>4.4943499619014581E-2</v>
+      </c>
+      <c r="L286" s="330"/>
+      <c r="M286" s="330"/>
+      <c r="N286" s="191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="25.5">
+      <c r="A287" s="327"/>
+      <c r="B287" s="286">
+        <v>117.98</v>
+      </c>
+      <c r="C287" s="292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D287" s="287">
+        <v>10030.687999999995</v>
+      </c>
+      <c r="E287" s="287">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="F287" s="287">
+        <f>D287+E287</f>
+        <v>10032.605999999994</v>
+      </c>
+      <c r="G287" s="288" t="s">
+        <v>149</v>
+      </c>
+      <c r="H287" s="289">
+        <v>10047.950000000001</v>
+      </c>
+      <c r="I287" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J287" s="274">
+        <f t="shared" ref="J287:J290" si="75">E287/I287</f>
+        <v>1.918E-4</v>
+      </c>
+      <c r="K287" s="276">
+        <f t="shared" ref="K287:K290" si="76">(F287-I287)/(H287-I287)</f>
+        <v>0.67999999999987104</v>
+      </c>
+      <c r="L287" s="330"/>
+      <c r="M287" s="330"/>
+      <c r="N287" s="192">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="25.5">
+      <c r="A288" s="327"/>
+      <c r="B288" s="332">
+        <v>118.93</v>
+      </c>
+      <c r="C288" s="293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D288" s="279">
+        <v>10034.456000000006</v>
+      </c>
+      <c r="E288" s="279">
+        <v>2.1535000000000002</v>
+      </c>
+      <c r="F288" s="279">
+        <f t="shared" ref="F288:F289" si="77">D288+E288</f>
+        <v>10036.609500000006</v>
+      </c>
+      <c r="G288" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="H288" s="281">
+        <v>10079.68</v>
+      </c>
+      <c r="I288" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J288" s="274">
+        <f t="shared" si="75"/>
+        <v>2.1535000000000003E-4</v>
+      </c>
+      <c r="K288" s="276">
+        <f t="shared" si="76"/>
+        <v>0.45945657630529374</v>
+      </c>
+      <c r="L288" s="330"/>
+      <c r="M288" s="330"/>
+      <c r="N288" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="25.5">
+      <c r="A289" s="327"/>
+      <c r="B289" s="333"/>
+      <c r="C289" s="293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D289" s="279">
+        <v>1026.3039999999999</v>
+      </c>
+      <c r="E289" s="279">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F289" s="279">
+        <f t="shared" si="77"/>
+        <v>1026.6327999999999</v>
+      </c>
+      <c r="G289" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="H289" s="281">
+        <v>1032.8800000000001</v>
+      </c>
+      <c r="I289" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J289" s="274">
+        <f t="shared" si="75"/>
+        <v>3.2879999999999997E-4</v>
+      </c>
+      <c r="K289" s="276">
+        <f t="shared" si="76"/>
+        <v>0.80999999999999306</v>
+      </c>
+      <c r="L289" s="330"/>
+      <c r="M289" s="330"/>
+      <c r="N289" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A290" s="328"/>
+      <c r="B290" s="282">
+        <v>98.64</v>
+      </c>
+      <c r="C290" s="294" t="s">
+        <v>177</v>
+      </c>
+      <c r="D290" s="283">
+        <v>10111.800000000003</v>
+      </c>
+      <c r="E290" s="284">
+        <v>3.29</v>
+      </c>
+      <c r="F290" s="284">
+        <f>D290+E290</f>
+        <v>10115.090000000004</v>
+      </c>
+      <c r="G290" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H290" s="284">
+        <v>11196.73</v>
+      </c>
+      <c r="I290" s="146">
+        <v>10000</v>
+      </c>
+      <c r="J290" s="274">
+        <f t="shared" si="75"/>
+        <v>3.2900000000000003E-4</v>
+      </c>
+      <c r="K290" s="276">
+        <f t="shared" si="76"/>
+        <v>9.6170397666979032E-2</v>
+      </c>
+      <c r="L290" s="331"/>
+      <c r="M290" s="331"/>
+      <c r="N290" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A291" s="195" t="s">
+        <v>81</v>
+      </c>
+      <c r="B291" s="174">
+        <f>SUM(B285:B290)</f>
+        <v>473.65</v>
+      </c>
+      <c r="C291" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D291" s="11">
+        <f>SUM(D285:D290)</f>
+        <v>50855.22600000001</v>
+      </c>
+      <c r="E291" s="61">
+        <f>SUM(E285:E290)</f>
+        <v>11.1555</v>
+      </c>
+      <c r="F291" s="11">
+        <f>SUM(F285:F290)</f>
+        <v>50866.38150000001</v>
+      </c>
+      <c r="G291" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H291" s="66">
+        <f>L285*10000</f>
+        <v>2.1935798692547346</v>
+      </c>
+      <c r="I291" s="158">
+        <f>SUM(I285:I290)</f>
+        <v>50600</v>
+      </c>
+      <c r="J291" s="68"/>
+      <c r="K291" s="68"/>
+      <c r="L291" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M291" s="66">
+        <f>M285*10000</f>
+        <v>800.6566522779782</v>
+      </c>
+      <c r="N291" s="196"/>
+    </row>
+    <row r="292" spans="1:14" ht="26.25" thickTop="1">
+      <c r="A292" s="334" t="s">
+        <v>196</v>
+      </c>
+      <c r="B292" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C292" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D292" s="123">
+        <v>1425.68</v>
+      </c>
+      <c r="E292" s="124">
+        <v>0</v>
+      </c>
+      <c r="F292" s="124">
+        <f>D292+E292</f>
+        <v>1425.68</v>
+      </c>
+      <c r="G292" s="125">
+        <v>42811</v>
+      </c>
+      <c r="H292" s="123">
+        <f>F292</f>
+        <v>1425.68</v>
+      </c>
+      <c r="I292" s="126">
+        <v>1500</v>
+      </c>
+      <c r="J292" s="127">
+        <f>(H292-I292)/I292</f>
+        <v>-4.9546666666666621E-2</v>
+      </c>
+      <c r="K292" s="127"/>
+      <c r="L292" s="128"/>
+      <c r="M292" s="129"/>
+      <c r="N292" s="197"/>
+    </row>
+    <row r="293" spans="1:14" ht="25.5">
+      <c r="A293" s="335"/>
+      <c r="B293" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C293" s="244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D293" s="131">
+        <v>1470.03</v>
+      </c>
+      <c r="E293" s="132">
+        <v>0</v>
+      </c>
+      <c r="F293" s="132">
+        <f>D293+E293</f>
+        <v>1470.03</v>
+      </c>
+      <c r="G293" s="133">
+        <v>42927</v>
+      </c>
+      <c r="H293" s="131">
+        <f>F293</f>
+        <v>1470.03</v>
+      </c>
+      <c r="I293" s="167">
+        <v>1500</v>
+      </c>
+      <c r="J293" s="168">
+        <f>(H293-I293)/I293</f>
+        <v>-1.9980000000000019E-2</v>
+      </c>
+      <c r="K293" s="238" t="s">
+        <v>202</v>
+      </c>
+      <c r="L293" s="243">
+        <f>F293/1026.56</f>
+        <v>1.4319961814214464</v>
+      </c>
+      <c r="M293" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N293" s="241" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="28.5">
+      <c r="A294" s="336"/>
+      <c r="B294" s="162">
+        <v>7.12</v>
+      </c>
+      <c r="C294" s="278" t="s">
+        <v>230</v>
+      </c>
+      <c r="D294" s="164">
+        <v>10505.499999999996</v>
+      </c>
+      <c r="E294" s="163">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F294" s="163">
+        <f>D294+E294</f>
+        <v>10506.649999999996</v>
+      </c>
+      <c r="G294" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H294" s="166">
+        <f>F294</f>
+        <v>10506.649999999996</v>
+      </c>
+      <c r="I294" s="171">
+        <v>10500</v>
+      </c>
+      <c r="J294" s="239">
+        <f t="shared" ref="J294" si="78">E294/D294</f>
+        <v>1.0946646994431491E-4</v>
+      </c>
+      <c r="K294" s="277">
+        <f>(F294-I294)/I294</f>
+        <v>6.333333333329522E-4</v>
+      </c>
+      <c r="L294" s="175"/>
+      <c r="M294" s="176"/>
+      <c r="N294" s="198"/>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295" s="199"/>
+      <c r="B295" s="186"/>
+      <c r="C295" s="186"/>
+      <c r="D295" s="186"/>
+      <c r="E295" s="186"/>
+      <c r="F295" s="186"/>
+      <c r="G295" s="186"/>
+      <c r="H295" s="186"/>
+      <c r="I295" s="186"/>
+      <c r="J295" s="186"/>
+      <c r="K295" s="186"/>
+      <c r="L295" s="186"/>
+      <c r="M295" s="186"/>
+      <c r="N295" s="200"/>
+    </row>
+    <row r="296" spans="1:14" s="157" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A296" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B296" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D296" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E296" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F296" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G296" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H296" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="I296" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J296" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="K296" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="L296" s="261" t="s">
+        <v>224</v>
+      </c>
+      <c r="M296" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="N296" s="202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" s="183" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A297" s="203" t="s">
+        <v>259</v>
+      </c>
+      <c r="B297" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C297" s="205">
+        <f>F291+B291</f>
+        <v>51340.031500000012</v>
+      </c>
+      <c r="D297" s="205">
+        <f>I291</f>
+        <v>50600</v>
+      </c>
+      <c r="E297" s="206">
+        <v>35</v>
+      </c>
+      <c r="F297" s="207">
+        <f>C297-D297</f>
+        <v>740.03150000001187</v>
+      </c>
+      <c r="G297" s="208">
+        <f>F297/D297</f>
+        <v>1.4625128458498258E-2</v>
+      </c>
+      <c r="H297" s="207">
+        <f>F297/E297</f>
+        <v>21.143757142857481</v>
+      </c>
+      <c r="I297" s="208">
+        <f>G297/E297</f>
+        <v>4.178608130999502E-4</v>
+      </c>
+      <c r="J297" s="209">
+        <f>H297*10000/D297</f>
+        <v>4.1786081309995025</v>
+      </c>
+      <c r="K297" s="210">
+        <f>B291</f>
+        <v>473.65</v>
+      </c>
+      <c r="L297" s="210">
+        <f>F297-K297</f>
+        <v>266.3815000000119</v>
+      </c>
+      <c r="M297" s="208">
+        <f>I297*365</f>
+        <v>0.15251919678148182</v>
+      </c>
+      <c r="N297" s="211">
+        <f>H297*365</f>
+        <v>7717.4713571429811</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="L255:L260"/>
-    <mergeCell ref="M255:M260"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="A262:A264"/>
-    <mergeCell ref="A240:A245"/>
-    <mergeCell ref="L240:L245"/>
-    <mergeCell ref="M240:M245"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="L225:L230"/>
-    <mergeCell ref="M225:M230"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="L210:L215"/>
-    <mergeCell ref="M210:M215"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="L165:L170"/>
-    <mergeCell ref="M165:M170"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="L135:L140"/>
-    <mergeCell ref="M135:M140"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="L120:L125"/>
-    <mergeCell ref="M120:M125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="L91:L95"/>
-    <mergeCell ref="M91:M95"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="L76:L81"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="B79:B80"/>
+  <mergeCells count="101">
+    <mergeCell ref="A285:A290"/>
+    <mergeCell ref="L285:L290"/>
+    <mergeCell ref="M285:M290"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="A292:A294"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="L270:L275"/>
+    <mergeCell ref="M270:M275"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="A277:A279"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="L195:L200"/>
+    <mergeCell ref="M195:M200"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="L180:L185"/>
+    <mergeCell ref="M180:M185"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="L150:L155"/>
+    <mergeCell ref="M150:M155"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="M105:M110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="L26:L33"/>
     <mergeCell ref="M26:M33"/>
@@ -20031,39 +21235,52 @@
     <mergeCell ref="M38:M45"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="L2:L9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="L150:L155"/>
-    <mergeCell ref="M150:M155"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="L180:L185"/>
-    <mergeCell ref="M180:M185"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="L195:L200"/>
-    <mergeCell ref="M195:M200"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M91:M95"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="L135:L140"/>
+    <mergeCell ref="M135:M140"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="L165:L170"/>
+    <mergeCell ref="M165:M170"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="L210:L215"/>
+    <mergeCell ref="M210:M215"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="L225:L230"/>
+    <mergeCell ref="M225:M230"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A240:A245"/>
+    <mergeCell ref="L240:L245"/>
+    <mergeCell ref="M240:M245"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="L255:L260"/>
+    <mergeCell ref="M255:M260"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="A262:A264"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20240,20 +21457,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="346" t="s">
+      <c r="A17" s="347" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="347"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="347"/>
-      <c r="E17" s="347"/>
-      <c r="F17" s="347"/>
-      <c r="G17" s="347"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="347"/>
-      <c r="J17" s="347"/>
-      <c r="K17" s="347"/>
-      <c r="L17" s="348"/>
+      <c r="B17" s="348"/>
+      <c r="C17" s="348"/>
+      <c r="D17" s="348"/>
+      <c r="E17" s="348"/>
+      <c r="F17" s="348"/>
+      <c r="G17" s="348"/>
+      <c r="H17" s="348"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="348"/>
+      <c r="L17" s="349"/>
     </row>
     <row r="18" spans="1:12" ht="20.25">
       <c r="A18" s="247" t="s">
@@ -20379,20 +21596,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="346" t="s">
+      <c r="A22" s="347" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="347"/>
-      <c r="C22" s="347"/>
-      <c r="D22" s="347"/>
-      <c r="E22" s="347"/>
-      <c r="F22" s="347"/>
-      <c r="G22" s="347"/>
-      <c r="H22" s="347"/>
-      <c r="I22" s="347"/>
-      <c r="J22" s="347"/>
-      <c r="K22" s="347"/>
-      <c r="L22" s="348"/>
+      <c r="B22" s="348"/>
+      <c r="C22" s="348"/>
+      <c r="D22" s="348"/>
+      <c r="E22" s="348"/>
+      <c r="F22" s="348"/>
+      <c r="G22" s="348"/>
+      <c r="H22" s="348"/>
+      <c r="I22" s="348"/>
+      <c r="J22" s="348"/>
+      <c r="K22" s="348"/>
+      <c r="L22" s="349"/>
     </row>
     <row r="23" spans="1:12" ht="20.25">
       <c r="A23" s="247" t="s">

--- a/h5文档/理财/Amazing-personal.xlsx
+++ b/h5文档/理财/Amazing-personal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apache-tomcat-9.0.0.M20-winx64\webapps\h5game\h5文档\理财\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\h5game\h5文档\理财\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="268">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,6 +1929,113 @@
   </si>
   <si>
     <t>6.22~7.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2017</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22~7.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3379,7 +3486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4283,37 +4390,70 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4328,36 +4468,6 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4397,6 +4507,15 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4411,15 +4530,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4803,7 +4913,7 @@
         <f>D2-C2</f>
         <v>-173.76</v>
       </c>
-      <c r="F2" s="324">
+      <c r="F2" s="321">
         <f>(E5/C5)</f>
         <v>-4.9852241396383938E-2</v>
       </c>
@@ -4825,7 +4935,7 @@
         <f>D3-C3</f>
         <v>-17.539999999999964</v>
       </c>
-      <c r="F3" s="325"/>
+      <c r="F3" s="322"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3"/>
@@ -4833,7 +4943,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="325"/>
+      <c r="F4" s="322"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="7"/>
@@ -4894,7 +5004,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="303" t="s">
+      <c r="A8" s="302" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4924,17 +5034,17 @@
         <f>E8/D8</f>
         <v>1.1399999999999999E-4</v>
       </c>
-      <c r="K8" s="320">
+      <c r="K8" s="317">
         <f>SUM(E8:E16)/D17</f>
         <v>-3.5170839427259689E-4</v>
       </c>
-      <c r="L8" s="320">
+      <c r="L8" s="317">
         <f>K8*365</f>
         <v>-0.12837356390949786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="304"/>
+      <c r="A9" s="303"/>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4962,11 +5072,11 @@
         <f t="shared" ref="J9:J16" si="1">E9/D9</f>
         <v>1.1388110812311944E-4</v>
       </c>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321"/>
+      <c r="K9" s="318"/>
+      <c r="L9" s="318"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="304"/>
+      <c r="A10" s="303"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
@@ -4996,11 +5106,11 @@
         <f t="shared" si="1"/>
         <v>1.3954369212674557E-4</v>
       </c>
-      <c r="K10" s="321"/>
-      <c r="L10" s="321"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="304"/>
+      <c r="A11" s="303"/>
       <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
@@ -5028,11 +5138,11 @@
         <f t="shared" si="1"/>
         <v>-1.0813405422702836E-2</v>
       </c>
-      <c r="K11" s="321"/>
-      <c r="L11" s="321"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="318"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="304"/>
+      <c r="A12" s="303"/>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -5060,11 +5170,11 @@
         <f t="shared" si="1"/>
         <v>1.217838523979709E-4</v>
       </c>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
+      <c r="K12" s="318"/>
+      <c r="L12" s="318"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="304"/>
+      <c r="A13" s="303"/>
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
@@ -5094,11 +5204,11 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999998E-4</v>
       </c>
-      <c r="K13" s="321"/>
-      <c r="L13" s="321"/>
+      <c r="K13" s="318"/>
+      <c r="L13" s="318"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="304"/>
+      <c r="A14" s="303"/>
       <c r="B14" s="31" t="s">
         <v>44</v>
       </c>
@@ -5128,11 +5238,11 @@
         <f t="shared" si="1"/>
         <v>5.4769986047645898E-4</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="304"/>
+      <c r="A15" s="303"/>
       <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
@@ -5160,11 +5270,11 @@
         <f t="shared" si="1"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="K15" s="321"/>
-      <c r="L15" s="321"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="305"/>
+      <c r="A16" s="304"/>
       <c r="B16" s="33" t="s">
         <v>44</v>
       </c>
@@ -5193,8 +5303,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="319"/>
     </row>
     <row r="17" spans="1:12" ht="24" thickBot="1">
       <c r="A17" s="29" t="s">
@@ -5275,7 +5385,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="303" t="s">
+      <c r="A20" s="302" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5307,17 +5417,17 @@
         <f>E20/D20</f>
         <v>1.0548797437092172E-4</v>
       </c>
-      <c r="K20" s="319">
+      <c r="K20" s="316">
         <f>SUM(E20:E28)/D29</f>
         <v>1.2161830411628077E-4</v>
       </c>
-      <c r="L20" s="319">
+      <c r="L20" s="316">
         <f>K20*365</f>
         <v>4.4390681002442478E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="304"/>
+      <c r="A21" s="303"/>
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
@@ -5347,11 +5457,11 @@
         <f t="shared" ref="J21:J28" si="3">E21/D21</f>
         <v>1.138681406930774E-4</v>
       </c>
-      <c r="K21" s="317"/>
-      <c r="L21" s="317"/>
+      <c r="K21" s="314"/>
+      <c r="L21" s="314"/>
     </row>
     <row r="22" spans="1:12" ht="28.5">
-      <c r="A22" s="304"/>
+      <c r="A22" s="303"/>
       <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
@@ -5381,11 +5491,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="317"/>
-      <c r="L22" s="317"/>
+      <c r="K22" s="314"/>
+      <c r="L22" s="314"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="304"/>
+      <c r="A23" s="303"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -5415,11 +5525,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="317"/>
-      <c r="L23" s="317"/>
+      <c r="K23" s="314"/>
+      <c r="L23" s="314"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="304"/>
+      <c r="A24" s="303"/>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -5449,11 +5559,11 @@
         <f t="shared" si="3"/>
         <v>1.3952422240161053E-4</v>
       </c>
-      <c r="K24" s="317"/>
-      <c r="L24" s="317"/>
+      <c r="K24" s="314"/>
+      <c r="L24" s="314"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
-      <c r="A25" s="304"/>
+      <c r="A25" s="303"/>
       <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
@@ -5483,11 +5593,11 @@
         <f t="shared" si="3"/>
         <v>2.0995590925905559E-4</v>
       </c>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
+      <c r="K25" s="314"/>
+      <c r="L25" s="314"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="304"/>
+      <c r="A26" s="303"/>
       <c r="B26" s="31" t="s">
         <v>44</v>
       </c>
@@ -5517,11 +5627,11 @@
         <f t="shared" si="3"/>
         <v>5.4740004954569792E-4</v>
       </c>
-      <c r="K26" s="317"/>
-      <c r="L26" s="317"/>
+      <c r="K26" s="314"/>
+      <c r="L26" s="314"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="304"/>
+      <c r="A27" s="303"/>
       <c r="B27" s="32" t="s">
         <v>46</v>
       </c>
@@ -5551,11 +5661,11 @@
         <f t="shared" si="3"/>
         <v>1.703893336277149E-4</v>
       </c>
-      <c r="K27" s="317"/>
-      <c r="L27" s="317"/>
+      <c r="K27" s="314"/>
+      <c r="L27" s="314"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A28" s="305"/>
+      <c r="A28" s="304"/>
       <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
@@ -5585,8 +5695,8 @@
         <f t="shared" si="3"/>
         <v>2.3752631578947367E-4</v>
       </c>
-      <c r="K28" s="323"/>
-      <c r="L28" s="323"/>
+      <c r="K28" s="320"/>
+      <c r="L28" s="320"/>
     </row>
     <row r="29" spans="1:12" ht="24" thickBot="1">
       <c r="A29" s="29" t="s">
@@ -5671,7 +5781,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="303" t="s">
+      <c r="A32" s="302" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5703,17 +5813,17 @@
         <f>E32/D32</f>
         <v>1.850164717271156E-4</v>
       </c>
-      <c r="K32" s="316">
+      <c r="K32" s="313">
         <f>E43/D43</f>
         <v>1.702483954985614E-4</v>
       </c>
-      <c r="L32" s="319">
+      <c r="L32" s="316">
         <f>K32*365</f>
         <v>6.2140664356974913E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A33" s="304"/>
+      <c r="A33" s="303"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -5743,11 +5853,11 @@
         <f t="shared" ref="J33:J40" si="5">E33/D33</f>
         <v>1.1385517621585343E-4</v>
       </c>
-      <c r="K33" s="317"/>
-      <c r="L33" s="317"/>
+      <c r="K33" s="314"/>
+      <c r="L33" s="314"/>
     </row>
     <row r="34" spans="1:12" ht="28.5">
-      <c r="A34" s="304"/>
+      <c r="A34" s="303"/>
       <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
@@ -5777,11 +5887,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="317"/>
-      <c r="L34" s="317"/>
+      <c r="K34" s="314"/>
+      <c r="L34" s="314"/>
     </row>
     <row r="35" spans="1:12" ht="25.5">
-      <c r="A35" s="304"/>
+      <c r="A35" s="303"/>
       <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
@@ -5811,11 +5921,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="317"/>
-      <c r="L35" s="317"/>
+      <c r="K35" s="314"/>
+      <c r="L35" s="314"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A36" s="304"/>
+      <c r="A36" s="303"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -5845,12 +5955,12 @@
         <f t="shared" si="5"/>
         <v>1.3950475810871408E-4</v>
       </c>
-      <c r="K36" s="317"/>
-      <c r="L36" s="317"/>
+      <c r="K36" s="314"/>
+      <c r="L36" s="314"/>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="304"/>
-      <c r="B37" s="309" t="s">
+      <c r="A37" s="303"/>
+      <c r="B37" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -5879,12 +5989,12 @@
         <f t="shared" si="5"/>
         <v>2.0991183702844803E-4</v>
       </c>
-      <c r="K37" s="317"/>
-      <c r="L37" s="317"/>
+      <c r="K37" s="314"/>
+      <c r="L37" s="314"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="304"/>
-      <c r="B38" s="310"/>
+      <c r="A38" s="303"/>
+      <c r="B38" s="309"/>
       <c r="C38" s="41" t="s">
         <v>12</v>
       </c>
@@ -5911,12 +6021,12 @@
         <f t="shared" si="5"/>
         <v>5.4710056666839723E-4</v>
       </c>
-      <c r="K38" s="317"/>
-      <c r="L38" s="317"/>
+      <c r="K38" s="314"/>
+      <c r="L38" s="314"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="304"/>
-      <c r="B39" s="311"/>
+      <c r="A39" s="303"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="42" t="s">
         <v>13</v>
       </c>
@@ -5943,12 +6053,12 @@
         <f t="shared" si="5"/>
         <v>1.6956049240526958E-4</v>
       </c>
-      <c r="K39" s="317"/>
-      <c r="L39" s="317"/>
+      <c r="K39" s="314"/>
+      <c r="L39" s="314"/>
     </row>
     <row r="40" spans="1:12" ht="28.5">
-      <c r="A40" s="304"/>
-      <c r="B40" s="301" t="s">
+      <c r="A40" s="303"/>
+      <c r="B40" s="311" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="43" t="s">
@@ -5977,12 +6087,12 @@
         <f t="shared" si="5"/>
         <v>2.3746991043653684E-4</v>
       </c>
-      <c r="K40" s="317"/>
-      <c r="L40" s="317"/>
+      <c r="K40" s="314"/>
+      <c r="L40" s="314"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="304"/>
-      <c r="B41" s="302"/>
+      <c r="A41" s="303"/>
+      <c r="B41" s="312"/>
       <c r="C41" s="43" t="s">
         <v>64</v>
       </c>
@@ -6002,11 +6112,11 @@
         <f t="shared" ref="J41" si="6">E41/D41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="317"/>
-      <c r="L41" s="317"/>
+      <c r="K41" s="314"/>
+      <c r="L41" s="314"/>
     </row>
     <row r="42" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A42" s="305"/>
+      <c r="A42" s="304"/>
       <c r="B42" s="55" t="s">
         <v>69</v>
       </c>
@@ -6036,8 +6146,8 @@
         <f t="shared" ref="J42" si="8">E42/D42</f>
         <v>2.2410666666666668E-4</v>
       </c>
-      <c r="K42" s="318"/>
-      <c r="L42" s="318"/>
+      <c r="K42" s="315"/>
+      <c r="L42" s="315"/>
     </row>
     <row r="43" spans="1:12" ht="24" thickBot="1">
       <c r="A43" s="29" t="s">
@@ -6122,7 +6232,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="303" t="s">
+      <c r="A46" s="302" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -6154,17 +6264,17 @@
         <f>E46/D46</f>
         <v>6.2004218982726431E-3</v>
       </c>
-      <c r="K46" s="316">
+      <c r="K46" s="313">
         <f>E57/D57</f>
         <v>4.0195911533449105E-4</v>
       </c>
-      <c r="L46" s="319">
+      <c r="L46" s="316">
         <f>K46*365</f>
         <v>0.14671507709708922</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="304"/>
+      <c r="A47" s="303"/>
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
@@ -6194,11 +6304,11 @@
         <f>E47/D47</f>
         <v>5.9956263483585122E-5</v>
       </c>
-      <c r="K47" s="317"/>
-      <c r="L47" s="317"/>
+      <c r="K47" s="314"/>
+      <c r="L47" s="314"/>
     </row>
     <row r="48" spans="1:12" ht="25.5">
-      <c r="A48" s="304"/>
+      <c r="A48" s="303"/>
       <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
@@ -6228,11 +6338,11 @@
         <f>E48/D48</f>
         <v>3.653070686917792E-4</v>
       </c>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
+      <c r="K48" s="314"/>
+      <c r="L48" s="314"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="304"/>
+      <c r="A49" s="303"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -6262,11 +6372,11 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="317"/>
-      <c r="L49" s="317"/>
+      <c r="K49" s="314"/>
+      <c r="L49" s="314"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A50" s="304"/>
+      <c r="A50" s="303"/>
       <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6296,12 +6406,12 @@
         <f>E50/D50</f>
         <v>1.2092140108929195E-4</v>
       </c>
-      <c r="K50" s="317"/>
-      <c r="L50" s="317"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="314"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="304"/>
-      <c r="B51" s="309" t="s">
+      <c r="A51" s="303"/>
+      <c r="B51" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="48" t="s">
@@ -6330,12 +6440,12 @@
         <f t="shared" ref="J51:J56" si="10">E51/D51</f>
         <v>2.0986778329652316E-4</v>
       </c>
-      <c r="K51" s="317"/>
-      <c r="L51" s="317"/>
+      <c r="K51" s="314"/>
+      <c r="L51" s="314"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="304"/>
-      <c r="B52" s="310"/>
+      <c r="A52" s="303"/>
+      <c r="B52" s="309"/>
       <c r="C52" s="41" t="s">
         <v>12</v>
       </c>
@@ -6362,12 +6472,12 @@
         <f t="shared" si="10"/>
         <v>5.4680141130641641E-4</v>
       </c>
-      <c r="K52" s="317"/>
-      <c r="L52" s="317"/>
+      <c r="K52" s="314"/>
+      <c r="L52" s="314"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="304"/>
-      <c r="B53" s="311"/>
+      <c r="A53" s="303"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="42" t="s">
         <v>13</v>
       </c>
@@ -6394,12 +6504,12 @@
         <f t="shared" si="10"/>
         <v>1.6763251115101062E-4</v>
       </c>
-      <c r="K53" s="317"/>
-      <c r="L53" s="317"/>
+      <c r="K53" s="314"/>
+      <c r="L53" s="314"/>
     </row>
     <row r="54" spans="1:13" ht="28.5">
-      <c r="A54" s="304"/>
-      <c r="B54" s="301" t="s">
+      <c r="A54" s="303"/>
+      <c r="B54" s="311" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="43" t="s">
@@ -6428,12 +6538,12 @@
         <f t="shared" si="10"/>
         <v>2.374135318663881E-4</v>
       </c>
-      <c r="K54" s="317"/>
-      <c r="L54" s="317"/>
+      <c r="K54" s="314"/>
+      <c r="L54" s="314"/>
     </row>
     <row r="55" spans="1:13" ht="28.5">
-      <c r="A55" s="304"/>
-      <c r="B55" s="302"/>
+      <c r="A55" s="303"/>
+      <c r="B55" s="312"/>
       <c r="C55" s="43" t="s">
         <v>64</v>
       </c>
@@ -6460,11 +6570,11 @@
         <f t="shared" si="10"/>
         <v>2.8427272727272725E-4</v>
       </c>
-      <c r="K55" s="317"/>
-      <c r="L55" s="317"/>
+      <c r="K55" s="314"/>
+      <c r="L55" s="314"/>
     </row>
     <row r="56" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A56" s="305"/>
+      <c r="A56" s="304"/>
       <c r="B56" s="55" t="s">
         <v>69</v>
       </c>
@@ -6494,8 +6604,8 @@
         <f t="shared" si="10"/>
         <v>2.2405645412158833E-4</v>
       </c>
-      <c r="K56" s="318"/>
-      <c r="L56" s="318"/>
+      <c r="K56" s="315"/>
+      <c r="L56" s="315"/>
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="29" t="s">
@@ -6585,7 +6695,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="303" t="s">
+      <c r="A60" s="302" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -6617,11 +6727,11 @@
         <f>E60/D60</f>
         <v>-4.5948679477819379E-3</v>
       </c>
-      <c r="K60" s="306">
+      <c r="K60" s="305">
         <f>E71/D71</f>
         <v>-5.8921049672166818E-5</v>
       </c>
-      <c r="L60" s="306">
+      <c r="L60" s="305">
         <f>K60*365</f>
         <v>-2.1506183130340889E-2</v>
       </c>
@@ -6630,7 +6740,7 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="304"/>
+      <c r="A61" s="303"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
@@ -6660,12 +6770,12 @@
         <f t="shared" ref="J61:J70" si="12">E61/D61</f>
         <v>5.1040967092008057E-5</v>
       </c>
-      <c r="K61" s="307"/>
-      <c r="L61" s="307"/>
+      <c r="K61" s="306"/>
+      <c r="L61" s="306"/>
       <c r="M61" s="84"/>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="304"/>
+      <c r="A62" s="303"/>
       <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
@@ -6695,14 +6805,14 @@
         <f t="shared" si="12"/>
         <v>1.2172455605649892E-4</v>
       </c>
-      <c r="K62" s="307"/>
-      <c r="L62" s="307"/>
+      <c r="K62" s="306"/>
+      <c r="L62" s="306"/>
       <c r="M62" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="304"/>
+      <c r="A63" s="303"/>
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -6732,12 +6842,12 @@
         <f t="shared" si="12"/>
         <v>1.3948529924578308E-4</v>
       </c>
-      <c r="K63" s="307"/>
-      <c r="L63" s="307"/>
+      <c r="K63" s="306"/>
+      <c r="L63" s="306"/>
       <c r="M63" s="84"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="304"/>
+      <c r="A64" s="303"/>
       <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
@@ -6767,13 +6877,13 @@
         <f t="shared" si="12"/>
         <v>7.4942219548727941E-5</v>
       </c>
-      <c r="K64" s="307"/>
-      <c r="L64" s="307"/>
+      <c r="K64" s="306"/>
+      <c r="L64" s="306"/>
       <c r="M64" s="84"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="304"/>
-      <c r="B65" s="309" t="s">
+      <c r="A65" s="303"/>
+      <c r="B65" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -6802,13 +6912,13 @@
         <f t="shared" si="12"/>
         <v>2.098237480516366E-4</v>
       </c>
-      <c r="K65" s="307"/>
-      <c r="L65" s="307"/>
+      <c r="K65" s="306"/>
+      <c r="L65" s="306"/>
       <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="304"/>
-      <c r="B66" s="310"/>
+      <c r="A66" s="303"/>
+      <c r="B66" s="309"/>
       <c r="C66" s="41" t="s">
         <v>100</v>
       </c>
@@ -6835,15 +6945,15 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="307"/>
-      <c r="L66" s="307"/>
+      <c r="K66" s="306"/>
+      <c r="L66" s="306"/>
       <c r="M66" s="84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="304"/>
-      <c r="B67" s="311"/>
+      <c r="A67" s="303"/>
+      <c r="B67" s="310"/>
       <c r="C67" s="42" t="s">
         <v>13</v>
       </c>
@@ -6870,13 +6980,13 @@
         <f t="shared" si="12"/>
         <v>1.6850390222456136E-4</v>
       </c>
-      <c r="K67" s="307"/>
-      <c r="L67" s="307"/>
+      <c r="K67" s="306"/>
+      <c r="L67" s="306"/>
       <c r="M67" s="84"/>
     </row>
     <row r="68" spans="1:13" ht="28.5">
-      <c r="A68" s="304"/>
-      <c r="B68" s="301" t="s">
+      <c r="A68" s="303"/>
+      <c r="B68" s="311" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -6905,15 +7015,15 @@
         <f t="shared" si="12"/>
         <v>2.3735718005995623E-4</v>
       </c>
-      <c r="K68" s="307"/>
-      <c r="L68" s="307"/>
+      <c r="K68" s="306"/>
+      <c r="L68" s="306"/>
       <c r="M68" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.5">
-      <c r="A69" s="304"/>
-      <c r="B69" s="302"/>
+      <c r="A69" s="303"/>
+      <c r="B69" s="312"/>
       <c r="C69" s="43" t="s">
         <v>64</v>
       </c>
@@ -6940,14 +7050,14 @@
         <f t="shared" si="12"/>
         <v>2.841919392550863E-4</v>
       </c>
-      <c r="K69" s="307"/>
-      <c r="L69" s="307"/>
+      <c r="K69" s="306"/>
+      <c r="L69" s="306"/>
       <c r="M69" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A70" s="305"/>
+      <c r="A70" s="304"/>
       <c r="B70" s="55" t="s">
         <v>69</v>
       </c>
@@ -6977,8 +7087,8 @@
         <f t="shared" si="12"/>
         <v>2.2400626407235926E-4</v>
       </c>
-      <c r="K70" s="308"/>
-      <c r="L70" s="308"/>
+      <c r="K70" s="307"/>
+      <c r="L70" s="307"/>
       <c r="M70" s="84"/>
     </row>
     <row r="71" spans="1:13" ht="21" thickBot="1">
@@ -7070,7 +7180,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="303" t="s">
+      <c r="A74" s="302" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -7102,11 +7212,11 @@
         <f>E74/D74</f>
         <v>1.8195153790769188E-2</v>
       </c>
-      <c r="K74" s="306">
+      <c r="K74" s="305">
         <f>E86/D86</f>
         <v>7.9671574188449191E-4</v>
       </c>
-      <c r="L74" s="306">
+      <c r="L74" s="305">
         <f>K74*365</f>
         <v>0.29080124578783956</v>
       </c>
@@ -7115,7 +7225,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="304"/>
+      <c r="A75" s="303"/>
       <c r="B75" s="4" t="s">
         <v>43</v>
       </c>
@@ -7145,12 +7255,12 @@
         <f t="shared" ref="J75:J85" si="14">E75/D75</f>
         <v>5.0142952184218051E-5</v>
       </c>
-      <c r="K75" s="307"/>
-      <c r="L75" s="307"/>
+      <c r="K75" s="306"/>
+      <c r="L75" s="306"/>
       <c r="M75" s="84"/>
     </row>
     <row r="76" spans="1:13" ht="15.75">
-      <c r="A76" s="304"/>
+      <c r="A76" s="303"/>
       <c r="B76" s="34" t="s">
         <v>43</v>
       </c>
@@ -7180,14 +7290,14 @@
         <f t="shared" si="14"/>
         <v>1.2170974099230886E-4</v>
       </c>
-      <c r="K76" s="307"/>
-      <c r="L76" s="307"/>
+      <c r="K76" s="306"/>
+      <c r="L76" s="306"/>
       <c r="M76" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="304"/>
+      <c r="A77" s="303"/>
       <c r="B77" s="4" t="s">
         <v>43</v>
       </c>
@@ -7217,12 +7327,12 @@
         <f t="shared" si="14"/>
         <v>1.3946584581054565E-4</v>
       </c>
-      <c r="K77" s="307"/>
-      <c r="L77" s="307"/>
+      <c r="K77" s="306"/>
+      <c r="L77" s="306"/>
       <c r="M77" s="84"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="304"/>
+      <c r="A78" s="303"/>
       <c r="B78" s="9" t="s">
         <v>43</v>
       </c>
@@ -7252,13 +7362,13 @@
         <f t="shared" si="14"/>
         <v>6.9979932781437542E-5</v>
       </c>
-      <c r="K78" s="307"/>
-      <c r="L78" s="307"/>
+      <c r="K78" s="306"/>
+      <c r="L78" s="306"/>
       <c r="M78" s="84"/>
     </row>
     <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="304"/>
-      <c r="B79" s="309" t="s">
+      <c r="A79" s="303"/>
+      <c r="B79" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -7287,13 +7397,13 @@
         <f t="shared" si="14"/>
         <v>2.097797312821537E-4</v>
       </c>
-      <c r="K79" s="307"/>
-      <c r="L79" s="307"/>
+      <c r="K79" s="306"/>
+      <c r="L79" s="306"/>
       <c r="M79" s="84"/>
     </row>
     <row r="80" spans="1:13" ht="22.5">
-      <c r="A80" s="304"/>
-      <c r="B80" s="310"/>
+      <c r="A80" s="303"/>
+      <c r="B80" s="309"/>
       <c r="C80" s="41" t="s">
         <v>83</v>
       </c>
@@ -7319,15 +7429,15 @@
       <c r="J80" s="62">
         <v>0</v>
       </c>
-      <c r="K80" s="307"/>
-      <c r="L80" s="307"/>
+      <c r="K80" s="306"/>
+      <c r="L80" s="306"/>
       <c r="M80" s="84" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="304"/>
-      <c r="B81" s="310"/>
+      <c r="A81" s="303"/>
+      <c r="B81" s="309"/>
       <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
@@ -7354,15 +7464,15 @@
         <f t="shared" ref="J81" si="17">E81/D81</f>
         <v>2.0719999999999999E-4</v>
       </c>
-      <c r="K81" s="307"/>
-      <c r="L81" s="307"/>
+      <c r="K81" s="306"/>
+      <c r="L81" s="306"/>
       <c r="M81" s="84" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A82" s="304"/>
-      <c r="B82" s="311"/>
+      <c r="A82" s="303"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="42" t="s">
         <v>13</v>
       </c>
@@ -7389,13 +7499,13 @@
         <f t="shared" si="14"/>
         <v>1.6927492275957298E-4</v>
       </c>
-      <c r="K82" s="307"/>
-      <c r="L82" s="307"/>
+      <c r="K82" s="306"/>
+      <c r="L82" s="306"/>
       <c r="M82" s="84"/>
     </row>
     <row r="83" spans="1:13" ht="28.5">
-      <c r="A83" s="304"/>
-      <c r="B83" s="301" t="s">
+      <c r="A83" s="303"/>
+      <c r="B83" s="311" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="43" t="s">
@@ -7424,15 +7534,15 @@
         <f t="shared" si="14"/>
         <v>2.3730085499818805E-4</v>
       </c>
-      <c r="K83" s="307"/>
-      <c r="L83" s="307"/>
+      <c r="K83" s="306"/>
+      <c r="L83" s="306"/>
       <c r="M83" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="28.5">
-      <c r="A84" s="304"/>
-      <c r="B84" s="302"/>
+      <c r="A84" s="303"/>
+      <c r="B84" s="312"/>
       <c r="C84" s="43" t="s">
         <v>91</v>
       </c>
@@ -7459,14 +7569,14 @@
         <f t="shared" si="14"/>
         <v>2.8411119714300616E-4</v>
       </c>
-      <c r="K84" s="307"/>
-      <c r="L84" s="307"/>
+      <c r="K84" s="306"/>
+      <c r="L84" s="306"/>
       <c r="M84" s="84" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A85" s="305"/>
+      <c r="A85" s="304"/>
       <c r="B85" s="55" t="s">
         <v>69</v>
       </c>
@@ -7496,8 +7606,8 @@
         <f t="shared" si="14"/>
         <v>2.2395609650386518E-4</v>
       </c>
-      <c r="K85" s="308"/>
-      <c r="L85" s="308"/>
+      <c r="K85" s="307"/>
+      <c r="L85" s="307"/>
       <c r="M85" s="84"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" thickBot="1">
@@ -7588,7 +7698,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="303" t="s">
+      <c r="A89" s="302" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7620,11 +7730,11 @@
         <f>E89/D89</f>
         <v>-1.0930839639163333E-2</v>
       </c>
-      <c r="K89" s="306">
+      <c r="K89" s="305">
         <f>E100/D100</f>
         <v>-2.7064575748492913E-4</v>
       </c>
-      <c r="L89" s="306">
+      <c r="L89" s="305">
         <f>K89*365</f>
         <v>-9.8785701481999139E-2</v>
       </c>
@@ -7633,7 +7743,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="304"/>
+      <c r="A90" s="303"/>
       <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
@@ -7663,12 +7773,12 @@
         <f t="shared" ref="J90:J94" si="18">E90/D90</f>
         <v>9.5804051168316986E-5</v>
       </c>
-      <c r="K90" s="307"/>
-      <c r="L90" s="307"/>
+      <c r="K90" s="306"/>
+      <c r="L90" s="306"/>
       <c r="M90" s="84"/>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="304"/>
+      <c r="A91" s="303"/>
       <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
@@ -7698,14 +7808,14 @@
         <f t="shared" si="18"/>
         <v>1.216949295339552E-4</v>
       </c>
-      <c r="K91" s="307"/>
-      <c r="L91" s="307"/>
+      <c r="K91" s="306"/>
+      <c r="L91" s="306"/>
       <c r="M91" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A92" s="304"/>
+      <c r="A92" s="303"/>
       <c r="B92" s="4" t="s">
         <v>43</v>
       </c>
@@ -7735,14 +7845,14 @@
         <f t="shared" si="18"/>
         <v>1.3944639780073112E-4</v>
       </c>
-      <c r="K92" s="307"/>
-      <c r="L92" s="307"/>
+      <c r="K92" s="306"/>
+      <c r="L92" s="306"/>
       <c r="M92" s="84" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A93" s="304"/>
+      <c r="A93" s="303"/>
       <c r="B93" s="9" t="s">
         <v>43</v>
       </c>
@@ -7772,13 +7882,13 @@
         <f t="shared" si="18"/>
         <v>1.0118011952492626E-4</v>
       </c>
-      <c r="K93" s="307"/>
-      <c r="L93" s="307"/>
+      <c r="K93" s="306"/>
+      <c r="L93" s="306"/>
       <c r="M93" s="84"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="304"/>
-      <c r="B94" s="309" t="s">
+      <c r="A94" s="303"/>
+      <c r="B94" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="48" t="s">
@@ -7807,15 +7917,15 @@
         <f t="shared" si="18"/>
         <v>2.0973573297644962E-4</v>
       </c>
-      <c r="K94" s="307"/>
-      <c r="L94" s="307"/>
+      <c r="K94" s="306"/>
+      <c r="L94" s="306"/>
       <c r="M94" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="304"/>
-      <c r="B95" s="310"/>
+      <c r="A95" s="303"/>
+      <c r="B95" s="309"/>
       <c r="C95" s="41" t="s">
         <v>86</v>
       </c>
@@ -7842,15 +7952,15 @@
         <f t="shared" ref="J95:J99" si="20">E95/D95</f>
         <v>2.0715707705363449E-4</v>
       </c>
-      <c r="K95" s="307"/>
-      <c r="L95" s="307"/>
+      <c r="K95" s="306"/>
+      <c r="L95" s="306"/>
       <c r="M95" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="304"/>
-      <c r="B96" s="311"/>
+      <c r="A96" s="303"/>
+      <c r="B96" s="310"/>
       <c r="C96" s="42" t="s">
         <v>13</v>
       </c>
@@ -7877,13 +7987,13 @@
         <f t="shared" si="20"/>
         <v>3.3629454366598826E-4</v>
       </c>
-      <c r="K96" s="307"/>
-      <c r="L96" s="307"/>
+      <c r="K96" s="306"/>
+      <c r="L96" s="306"/>
       <c r="M96" s="84"/>
     </row>
     <row r="97" spans="1:13" ht="28.5">
-      <c r="A97" s="304"/>
-      <c r="B97" s="301" t="s">
+      <c r="A97" s="303"/>
+      <c r="B97" s="311" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -7912,15 +8022,15 @@
         <f t="shared" si="20"/>
         <v>2.372445566620485E-4</v>
       </c>
-      <c r="K97" s="307"/>
-      <c r="L97" s="307"/>
+      <c r="K97" s="306"/>
+      <c r="L97" s="306"/>
       <c r="M97" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="28.5">
-      <c r="A98" s="304"/>
-      <c r="B98" s="302"/>
+      <c r="A98" s="303"/>
+      <c r="B98" s="312"/>
       <c r="C98" s="43" t="s">
         <v>91</v>
       </c>
@@ -7947,14 +8057,14 @@
         <f t="shared" si="20"/>
         <v>2.8403050089737111E-4</v>
       </c>
-      <c r="K98" s="307"/>
-      <c r="L98" s="307"/>
+      <c r="K98" s="306"/>
+      <c r="L98" s="306"/>
       <c r="M98" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A99" s="305"/>
+      <c r="A99" s="304"/>
       <c r="B99" s="55" t="s">
         <v>69</v>
       </c>
@@ -7984,8 +8094,8 @@
         <f t="shared" si="20"/>
         <v>2.2390595140100544E-4</v>
       </c>
-      <c r="K99" s="308"/>
-      <c r="L99" s="308"/>
+      <c r="K99" s="307"/>
+      <c r="L99" s="307"/>
       <c r="M99" s="84" t="s">
         <v>110</v>
       </c>
@@ -8078,7 +8188,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="303" t="s">
+      <c r="A103" s="302" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -8110,11 +8220,11 @@
         <f>E103/D103</f>
         <v>1.6971689351267195E-3</v>
       </c>
-      <c r="K103" s="306">
+      <c r="K103" s="305">
         <f>E114/D114</f>
         <v>2.110923665137029E-4</v>
       </c>
-      <c r="L103" s="306">
+      <c r="L103" s="305">
         <f>K103*365</f>
         <v>7.7048713777501554E-2</v>
       </c>
@@ -8123,7 +8233,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A104" s="304"/>
+      <c r="A104" s="303"/>
       <c r="B104" s="4" t="s">
         <v>43</v>
       </c>
@@ -8153,12 +8263,12 @@
         <f t="shared" ref="J104:J113" si="21">E104/D104</f>
         <v>1.1280517829485126E-4</v>
       </c>
-      <c r="K104" s="307"/>
-      <c r="L104" s="307"/>
+      <c r="K104" s="306"/>
+      <c r="L104" s="306"/>
       <c r="M104" s="84"/>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="304"/>
+      <c r="A105" s="303"/>
       <c r="B105" s="34" t="s">
         <v>43</v>
       </c>
@@ -8188,14 +8298,14 @@
         <f t="shared" si="21"/>
         <v>1.2168012168012163E-4</v>
       </c>
-      <c r="K105" s="307"/>
-      <c r="L105" s="307"/>
+      <c r="K105" s="306"/>
+      <c r="L105" s="306"/>
       <c r="M105" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A106" s="304"/>
+      <c r="A106" s="303"/>
       <c r="B106" s="4" t="s">
         <v>43</v>
       </c>
@@ -8224,14 +8334,14 @@
       <c r="J106" s="62">
         <v>0</v>
       </c>
-      <c r="K106" s="307"/>
-      <c r="L106" s="307"/>
+      <c r="K106" s="306"/>
+      <c r="L106" s="306"/>
       <c r="M106" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A107" s="304"/>
+      <c r="A107" s="303"/>
       <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
@@ -8261,13 +8371,13 @@
         <f t="shared" si="21"/>
         <v>1.0589744777695731E-4</v>
       </c>
-      <c r="K107" s="307"/>
-      <c r="L107" s="307"/>
+      <c r="K107" s="306"/>
+      <c r="L107" s="306"/>
       <c r="M107" s="84"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="304"/>
-      <c r="B108" s="309" t="s">
+      <c r="A108" s="303"/>
+      <c r="B108" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -8296,15 +8406,15 @@
         <f t="shared" si="21"/>
         <v>2.0969175312290927E-4</v>
       </c>
-      <c r="K108" s="307"/>
-      <c r="L108" s="307"/>
+      <c r="K108" s="306"/>
+      <c r="L108" s="306"/>
       <c r="M108" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="304"/>
-      <c r="B109" s="310"/>
+      <c r="A109" s="303"/>
+      <c r="B109" s="309"/>
       <c r="C109" s="41" t="s">
         <v>86</v>
       </c>
@@ -8331,15 +8441,15 @@
         <f t="shared" si="21"/>
         <v>2.0711417188716997E-4</v>
       </c>
-      <c r="K109" s="307"/>
-      <c r="L109" s="307"/>
+      <c r="K109" s="306"/>
+      <c r="L109" s="306"/>
       <c r="M109" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A110" s="304"/>
-      <c r="B110" s="311"/>
+      <c r="A110" s="303"/>
+      <c r="B110" s="310"/>
       <c r="C110" s="42" t="s">
         <v>13</v>
       </c>
@@ -8366,13 +8476,13 @@
         <f t="shared" si="21"/>
         <v>1.6819061949778724E-4</v>
       </c>
-      <c r="K110" s="307"/>
-      <c r="L110" s="307"/>
+      <c r="K110" s="306"/>
+      <c r="L110" s="306"/>
       <c r="M110" s="84"/>
     </row>
     <row r="111" spans="1:13" ht="28.5">
-      <c r="A111" s="304"/>
-      <c r="B111" s="301" t="s">
+      <c r="A111" s="303"/>
+      <c r="B111" s="311" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="43" t="s">
@@ -8401,15 +8511,15 @@
         <f t="shared" si="21"/>
         <v>2.3718828503252053E-4</v>
       </c>
-      <c r="K111" s="307"/>
-      <c r="L111" s="307"/>
+      <c r="K111" s="306"/>
+      <c r="L111" s="306"/>
       <c r="M111" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="28.5">
-      <c r="A112" s="304"/>
-      <c r="B112" s="302"/>
+      <c r="A112" s="303"/>
+      <c r="B112" s="312"/>
       <c r="C112" s="43" t="s">
         <v>91</v>
       </c>
@@ -8436,14 +8546,14 @@
         <f t="shared" si="21"/>
         <v>2.839498504791098E-4</v>
       </c>
-      <c r="K112" s="307"/>
-      <c r="L112" s="307"/>
+      <c r="K112" s="306"/>
+      <c r="L112" s="306"/>
       <c r="M112" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A113" s="305"/>
+      <c r="A113" s="304"/>
       <c r="B113" s="55" t="s">
         <v>69</v>
       </c>
@@ -8473,8 +8583,8 @@
         <f t="shared" si="21"/>
         <v>2.2385582874869279E-4</v>
       </c>
-      <c r="K113" s="308"/>
-      <c r="L113" s="308"/>
+      <c r="K113" s="307"/>
+      <c r="L113" s="307"/>
       <c r="M113" s="84" t="s">
         <v>110</v>
       </c>
@@ -8567,7 +8677,7 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="303" t="s">
+      <c r="A117" s="302" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -8599,11 +8709,11 @@
         <f>E117/D117</f>
         <v>0</v>
       </c>
-      <c r="K117" s="306">
+      <c r="K117" s="305">
         <f>E127/D127</f>
         <v>1.3906113945775893E-4</v>
       </c>
-      <c r="L117" s="306">
+      <c r="L117" s="305">
         <f>K117*365</f>
         <v>5.0757315902082011E-2</v>
       </c>
@@ -8612,7 +8722,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A118" s="304"/>
+      <c r="A118" s="303"/>
       <c r="B118" s="4" t="s">
         <v>43</v>
       </c>
@@ -8642,12 +8752,12 @@
         <f t="shared" ref="J118:J119" si="23">E118/D118</f>
         <v>1.1279245472188604E-4</v>
       </c>
-      <c r="K118" s="307"/>
-      <c r="L118" s="307"/>
+      <c r="K118" s="306"/>
+      <c r="L118" s="306"/>
       <c r="M118" s="84"/>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="304"/>
+      <c r="A119" s="303"/>
       <c r="B119" s="34" t="s">
         <v>43</v>
       </c>
@@ -8677,14 +8787,14 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K119" s="307"/>
-      <c r="L119" s="307"/>
+      <c r="K119" s="306"/>
+      <c r="L119" s="306"/>
       <c r="M119" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A120" s="304"/>
+      <c r="A120" s="303"/>
       <c r="B120" s="9" t="s">
         <v>43</v>
       </c>
@@ -8714,13 +8824,13 @@
         <f t="shared" ref="J120:J126" si="25">E120/D120</f>
         <v>1.0588623469494839E-4</v>
       </c>
-      <c r="K120" s="307"/>
-      <c r="L120" s="307"/>
+      <c r="K120" s="306"/>
+      <c r="L120" s="306"/>
       <c r="M120" s="84"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="304"/>
-      <c r="B121" s="309" t="s">
+      <c r="A121" s="303"/>
+      <c r="B121" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -8749,15 +8859,15 @@
         <f t="shared" si="25"/>
         <v>2.0964779170992725E-4</v>
       </c>
-      <c r="K121" s="307"/>
-      <c r="L121" s="307"/>
+      <c r="K121" s="306"/>
+      <c r="L121" s="306"/>
       <c r="M121" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="304"/>
-      <c r="B122" s="310"/>
+      <c r="A122" s="303"/>
+      <c r="B122" s="309"/>
       <c r="C122" s="41" t="s">
         <v>86</v>
       </c>
@@ -8784,15 +8894,15 @@
         <f t="shared" si="25"/>
         <v>2.0707128448956133E-4</v>
       </c>
-      <c r="K122" s="307"/>
-      <c r="L122" s="307"/>
+      <c r="K122" s="306"/>
+      <c r="L122" s="306"/>
       <c r="M122" s="84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A123" s="304"/>
-      <c r="B123" s="311"/>
+      <c r="A123" s="303"/>
+      <c r="B123" s="310"/>
       <c r="C123" s="42" t="s">
         <v>13</v>
       </c>
@@ -8819,13 +8929,13 @@
         <f t="shared" si="25"/>
         <v>1.676630418229916E-4</v>
       </c>
-      <c r="K123" s="307"/>
-      <c r="L123" s="307"/>
+      <c r="K123" s="306"/>
+      <c r="L123" s="306"/>
       <c r="M123" s="84"/>
     </row>
     <row r="124" spans="1:13" ht="28.5">
-      <c r="A124" s="304"/>
-      <c r="B124" s="301" t="s">
+      <c r="A124" s="303"/>
+      <c r="B124" s="311" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="43" t="s">
@@ -8854,15 +8964,15 @@
         <f t="shared" si="25"/>
         <v>2.3713204009060518E-4</v>
       </c>
-      <c r="K124" s="307"/>
-      <c r="L124" s="307"/>
+      <c r="K124" s="306"/>
+      <c r="L124" s="306"/>
       <c r="M124" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.5">
-      <c r="A125" s="304"/>
-      <c r="B125" s="302"/>
+      <c r="A125" s="303"/>
+      <c r="B125" s="312"/>
       <c r="C125" s="43" t="s">
         <v>91</v>
       </c>
@@ -8889,14 +8999,14 @@
         <f t="shared" si="25"/>
         <v>2.8386924584919529E-4</v>
       </c>
-      <c r="K125" s="307"/>
-      <c r="L125" s="307"/>
+      <c r="K125" s="306"/>
+      <c r="L125" s="306"/>
       <c r="M125" s="84" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A126" s="305"/>
+      <c r="A126" s="304"/>
       <c r="B126" s="55" t="s">
         <v>69</v>
       </c>
@@ -8926,8 +9036,8 @@
         <f t="shared" si="25"/>
         <v>2.2380572853185359E-4</v>
       </c>
-      <c r="K126" s="308"/>
-      <c r="L126" s="308"/>
+      <c r="K126" s="307"/>
+      <c r="L126" s="307"/>
       <c r="M126" s="84" t="s">
         <v>110</v>
       </c>
@@ -9020,7 +9130,7 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="303" t="s">
+      <c r="A130" s="302" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -9052,11 +9162,11 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="K130" s="306">
+      <c r="K130" s="305">
         <f>E140/D140</f>
         <v>1.3904951455496719E-4</v>
       </c>
-      <c r="L130" s="306">
+      <c r="L130" s="305">
         <f>K130*365</f>
         <v>5.075307281256302E-2</v>
       </c>
@@ -9065,7 +9175,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A131" s="304"/>
+      <c r="A131" s="303"/>
       <c r="B131" s="4" t="s">
         <v>43</v>
       </c>
@@ -9095,12 +9205,12 @@
         <f t="shared" ref="J131:J139" si="26">E131/D131</f>
         <v>1.1277973401884317E-4</v>
       </c>
-      <c r="K131" s="307"/>
-      <c r="L131" s="307"/>
+      <c r="K131" s="306"/>
+      <c r="L131" s="306"/>
       <c r="M131" s="84"/>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="304"/>
+      <c r="A132" s="303"/>
       <c r="B132" s="34" t="s">
         <v>43</v>
       </c>
@@ -9130,14 +9240,14 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K132" s="307"/>
-      <c r="L132" s="307"/>
+      <c r="K132" s="306"/>
+      <c r="L132" s="306"/>
       <c r="M132" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A133" s="304"/>
+      <c r="A133" s="303"/>
       <c r="B133" s="9" t="s">
         <v>43</v>
       </c>
@@ -9167,13 +9277,13 @@
         <f t="shared" si="26"/>
         <v>1.0587502398731013E-4</v>
       </c>
-      <c r="K133" s="307"/>
-      <c r="L133" s="307"/>
+      <c r="K133" s="306"/>
+      <c r="L133" s="306"/>
       <c r="M133" s="84"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="304"/>
-      <c r="B134" s="309" t="s">
+      <c r="A134" s="303"/>
+      <c r="B134" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -9202,15 +9312,15 @@
         <f t="shared" si="26"/>
         <v>2.0960384872590796E-4</v>
       </c>
-      <c r="K134" s="307"/>
-      <c r="L134" s="307"/>
+      <c r="K134" s="306"/>
+      <c r="L134" s="306"/>
       <c r="M134" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="304"/>
-      <c r="B135" s="310"/>
+      <c r="A135" s="303"/>
+      <c r="B135" s="309"/>
       <c r="C135" s="41" t="s">
         <v>86</v>
       </c>
@@ -9237,15 +9347,15 @@
         <f t="shared" si